--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/同仁堂.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/同仁堂.xlsx
@@ -9,6 +9,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
@@ -67,6 +70,9 @@
   </si>
   <si>
     <t>最低价是否出现下移</t>
+  </si>
+  <si>
+    <t>市盈率</t>
   </si>
   <si>
     <t>基底数
@@ -178,261 +184,16 @@
   <si>
     <t>6.21%</t>
   </si>
-  <si>
-    <r>
-      <t>=VLOOKUP(['/Users/leaves/Documents/workspace2/life/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
-      </rPr>
-      <t>我的创作</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <charset val="134"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
-      </rPr>
-      <t>炒股</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <charset val="134"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
-      </rPr>
-      <t>技术投资</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <charset val="134"/>
-      </rPr>
-      <t>/SEAP</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
-      </rPr>
-      <t>交易系统</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <charset val="134"/>
-      </rPr>
-      <t>/SEAP</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
-      </rPr>
-      <t>交易策略</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <charset val="134"/>
-      </rPr>
-      <t>.xlsx]</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
-      </rPr>
-      <t>交易计划及执行表</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'!A5,['/Users/leaves/Documents/workspace2/life/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
-      </rPr>
-      <t>我的创作</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <charset val="134"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
-      </rPr>
-      <t>炒股</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <charset val="134"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
-      </rPr>
-      <t>技术投资</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <charset val="134"/>
-      </rPr>
-      <t>/SEAP</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
-      </rPr>
-      <t>交易系统</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <charset val="134"/>
-      </rPr>
-      <t>/SEAP</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
-      </rPr>
-      <t>交易策略</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <charset val="134"/>
-      </rPr>
-      <t>.xlsx]</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
-      </rPr>
-      <t>交易计划及执行表</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'!A4:BL10000,48,FALSE)</t>
-    </r>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -472,7 +233,52 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -486,37 +292,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -532,24 +310,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -569,24 +340,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -600,16 +355,22 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -648,7 +409,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -660,169 +583,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -867,23 +628,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -903,15 +649,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -923,17 +660,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -961,99 +687,134 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1062,56 +823,56 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1148,17 +909,20 @@
     <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1219,6 +983,1629 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="交易计划及执行表"/>
+      <sheetName val="交易水平监控表"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>000001</v>
+          </cell>
+          <cell r="B4">
+            <v>44517</v>
+          </cell>
+          <cell r="C4" t="str">
+            <v>003040(楚天龙)</v>
+          </cell>
+          <cell r="D4">
+            <v>22.15</v>
+          </cell>
+          <cell r="E4">
+            <v>23.55</v>
+          </cell>
+          <cell r="F4">
+            <v>24.52</v>
+          </cell>
+          <cell r="G4" t="str">
+            <v>200日均线：向上
+150日均线：向上
+  50日均线：向上</v>
+          </cell>
+          <cell r="H4">
+            <v>25.7</v>
+          </cell>
+          <cell r="I4">
+            <v>5.46</v>
+          </cell>
+          <cell r="J4">
+            <v>46.33</v>
+          </cell>
+          <cell r="K4">
+            <v>3.70695970695971</v>
+          </cell>
+          <cell r="L4">
+            <v>0.445283833369307</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="N4">
+            <v>20.79</v>
+          </cell>
+          <cell r="O4">
+            <v>29.8</v>
+          </cell>
+          <cell r="P4">
+            <v>21.88</v>
+          </cell>
+          <cell r="Q4">
+            <v>26.5</v>
+          </cell>
+          <cell r="R4">
+            <v>22.1</v>
+          </cell>
+          <cell r="S4">
+            <v>26.4</v>
+          </cell>
+          <cell r="T4">
+            <v>24</v>
+          </cell>
+          <cell r="U4">
+            <v>26.2</v>
+          </cell>
+          <cell r="V4">
+            <v>24.52</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="Y4" t="str">
+            <v>24w</v>
+          </cell>
+          <cell r="Z4">
+            <v>0.551262680768401</v>
+          </cell>
+          <cell r="AA4">
+            <v>0.265771812080537</v>
+          </cell>
+          <cell r="AB4">
+            <v>0.166037735849057</v>
+          </cell>
+          <cell r="AC4">
+            <v>0.0909090909090909</v>
+          </cell>
+          <cell r="AD4">
+            <v>0.0641221374045801</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="AF4" t="str">
+            <v>5T</v>
+          </cell>
+          <cell r="AG4" t="str">
+            <v>成交量先随价格收缩逐级减少，然后随价格收缩放量</v>
+          </cell>
+          <cell r="AH4">
+            <v>28.15</v>
+          </cell>
+          <cell r="AI4">
+            <v>21.87</v>
+          </cell>
+          <cell r="AJ4">
+            <v>6.28</v>
+          </cell>
+          <cell r="AK4">
+            <v>26.2</v>
+          </cell>
+          <cell r="AL4">
+            <v>24.68</v>
+          </cell>
+          <cell r="AM4">
+            <v>32.49</v>
+          </cell>
+          <cell r="AN4">
+            <v>152</v>
+          </cell>
+          <cell r="AO4">
+            <v>100</v>
+          </cell>
+          <cell r="AP4">
+            <v>4.13815789473685</v>
+          </cell>
+          <cell r="AQ4">
+            <v>0.0580152671755725</v>
+          </cell>
+          <cell r="AR4">
+            <v>0.240076335877863</v>
+          </cell>
+          <cell r="AS4">
+            <v>150.88</v>
+          </cell>
+          <cell r="AT4" t="str">
+            <v>不宜入场</v>
+          </cell>
+          <cell r="AU4">
+            <v>44523</v>
+          </cell>
+          <cell r="AV4">
+            <v>26.2</v>
+          </cell>
+          <cell r="AW4">
+            <v>200</v>
+          </cell>
+          <cell r="AX4">
+            <v>5</v>
+          </cell>
+          <cell r="AY4">
+            <v>0.1048</v>
+          </cell>
+          <cell r="AZ4">
+            <v>5245.1048</v>
+          </cell>
+          <cell r="BA4">
+            <v>309.1048</v>
+          </cell>
+          <cell r="BB4">
+            <v>26.5</v>
+          </cell>
+          <cell r="BC4">
+            <v>25.21</v>
+          </cell>
+          <cell r="BD4">
+            <v>0.232558139534884</v>
+          </cell>
+          <cell r="BE4">
+            <v>44526</v>
+          </cell>
+          <cell r="BF4">
+            <v>24.89</v>
+          </cell>
+          <cell r="BG4">
+            <v>100</v>
+          </cell>
+          <cell r="BH4">
+            <v>5</v>
+          </cell>
+          <cell r="BI4">
+            <v>2.489</v>
+          </cell>
+          <cell r="BJ4">
+            <v>2481.511</v>
+          </cell>
+          <cell r="BK4">
+            <v>27.43</v>
+          </cell>
+          <cell r="BL4">
+            <v>24.74</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>000002</v>
+          </cell>
+          <cell r="B6">
+            <v>44517</v>
+          </cell>
+          <cell r="C6" t="str">
+            <v>600085(同仁堂)</v>
+          </cell>
+          <cell r="D6">
+            <v>31.92</v>
+          </cell>
+          <cell r="E6">
+            <v>32.63</v>
+          </cell>
+          <cell r="F6">
+            <v>33.17</v>
+          </cell>
+          <cell r="G6" t="str">
+            <v>200日均线：向上
+150日均线：向上
+  50日均线：向上</v>
+          </cell>
+          <cell r="H6">
+            <v>33.73</v>
+          </cell>
+          <cell r="I6">
+            <v>22.98</v>
+          </cell>
+          <cell r="J6">
+            <v>44.42</v>
+          </cell>
+          <cell r="K6">
+            <v>0.467798085291558</v>
+          </cell>
+          <cell r="L6">
+            <v>0.240657361548852</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="N6">
+            <v>30.78</v>
+          </cell>
+          <cell r="O6">
+            <v>35</v>
+          </cell>
+          <cell r="P6">
+            <v>31.27</v>
+          </cell>
+          <cell r="Q6">
+            <v>34.82</v>
+          </cell>
+          <cell r="R6">
+            <v>32.12</v>
+          </cell>
+          <cell r="S6">
+            <v>34.11</v>
+          </cell>
+          <cell r="T6">
+            <v>32.53</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="Y6" t="str">
+            <v>24w</v>
+          </cell>
+          <cell r="Z6">
+            <v>0.307068887888339</v>
+          </cell>
+          <cell r="AA6">
+            <v>0.106571428571429</v>
+          </cell>
+          <cell r="AB6">
+            <v>0.077541642734061</v>
+          </cell>
+          <cell r="AC6">
+            <v>0.0463207270595133</v>
+          </cell>
+          <cell r="AD6" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="AF6" t="str">
+            <v>4T</v>
+          </cell>
+          <cell r="AG6" t="str">
+            <v>成交量先随价格收缩逐级减少，然后随价格收缩保持不变</v>
+          </cell>
+          <cell r="AH6">
+            <v>35.48</v>
+          </cell>
+          <cell r="AI6">
+            <v>31.36</v>
+          </cell>
+          <cell r="AJ6">
+            <v>4.12</v>
+          </cell>
+          <cell r="AK6">
+            <v>34.12</v>
+          </cell>
+          <cell r="AL6">
+            <v>32.53</v>
+          </cell>
+          <cell r="AM6">
+            <v>39.33</v>
+          </cell>
+          <cell r="AN6">
+            <v>159</v>
+          </cell>
+          <cell r="AO6">
+            <v>100</v>
+          </cell>
+          <cell r="AP6">
+            <v>3.27672955974844</v>
+          </cell>
+          <cell r="AQ6">
+            <v>0.0466002344665884</v>
+          </cell>
+          <cell r="AR6">
+            <v>0.152696365767878</v>
+          </cell>
+          <cell r="AS6">
+            <v>37.41</v>
+          </cell>
+          <cell r="AT6" t="str">
+            <v>可以</v>
+          </cell>
+          <cell r="AU6">
+            <v>44523</v>
+          </cell>
+          <cell r="AV6">
+            <v>33.73</v>
+          </cell>
+          <cell r="AW6">
+            <v>100</v>
+          </cell>
+          <cell r="AX6">
+            <v>5</v>
+          </cell>
+          <cell r="AY6">
+            <v>0.06746</v>
+          </cell>
+          <cell r="AZ6">
+            <v>3378.06746</v>
+          </cell>
+          <cell r="BA6">
+            <v>125.06746</v>
+          </cell>
+          <cell r="BB6">
+            <v>35.36</v>
+          </cell>
+          <cell r="BC6">
+            <v>33.1</v>
+          </cell>
+          <cell r="BD6">
+            <v>0.721238938053099</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>000003</v>
+          </cell>
+          <cell r="B7">
+            <v>44519</v>
+          </cell>
+          <cell r="C7" t="str">
+            <v>603867(新化股份)</v>
+          </cell>
+          <cell r="D7">
+            <v>28.2</v>
+          </cell>
+          <cell r="E7">
+            <v>29.15</v>
+          </cell>
+          <cell r="F7">
+            <v>31.53</v>
+          </cell>
+          <cell r="G7" t="str">
+            <v>200日均线：向上
+150日均线：向上
+  50日均线：向上</v>
+          </cell>
+          <cell r="H7">
+            <v>32.57</v>
+          </cell>
+          <cell r="I7">
+            <v>20.61</v>
+          </cell>
+          <cell r="J7">
+            <v>41.5</v>
+          </cell>
+          <cell r="K7">
+            <v>0.58030082484231</v>
+          </cell>
+          <cell r="L7">
+            <v>0.215180722891566</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="N7">
+            <v>28.42</v>
+          </cell>
+          <cell r="O7">
+            <v>34.7</v>
+          </cell>
+          <cell r="P7">
+            <v>29</v>
+          </cell>
+          <cell r="Q7">
+            <v>35.27</v>
+          </cell>
+          <cell r="R7">
+            <v>30.89</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="Y7" t="str">
+            <v>8w</v>
+          </cell>
+          <cell r="Z7">
+            <v>0.315180722891566</v>
+          </cell>
+          <cell r="AA7">
+            <v>0.164265129682997</v>
+          </cell>
+          <cell r="AB7">
+            <v>0.124184859654097</v>
+          </cell>
+          <cell r="AC7" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+          <cell r="AD7" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="AF7" t="str">
+            <v>3T</v>
+          </cell>
+          <cell r="AG7" t="str">
+            <v>成交量一直随价格收缩逐级减少，最后随着价格收缩期间空头几乎被榨干</v>
+          </cell>
+          <cell r="AH7">
+            <v>36.21</v>
+          </cell>
+          <cell r="AI7">
+            <v>27.35</v>
+          </cell>
+          <cell r="AJ7">
+            <v>8.86</v>
+          </cell>
+          <cell r="AK7">
+            <v>32.65</v>
+          </cell>
+          <cell r="AL7">
+            <v>30.89</v>
+          </cell>
+          <cell r="AM7">
+            <v>36.22</v>
+          </cell>
+          <cell r="AN7">
+            <v>176</v>
+          </cell>
+          <cell r="AO7">
+            <v>100</v>
+          </cell>
+          <cell r="AP7">
+            <v>2.02840909090909</v>
+          </cell>
+          <cell r="AQ7">
+            <v>0.0539050535987748</v>
+          </cell>
+          <cell r="AR7">
+            <v>0.109341500765697</v>
+          </cell>
+          <cell r="AS7">
+            <v>28.82</v>
+          </cell>
+          <cell r="AT7" t="str">
+            <v>可以</v>
+          </cell>
+          <cell r="AU7">
+            <v>44522</v>
+          </cell>
+          <cell r="AV7">
+            <v>32.7</v>
+          </cell>
+          <cell r="AW7">
+            <v>100</v>
+          </cell>
+          <cell r="AX7">
+            <v>5</v>
+          </cell>
+          <cell r="AY7">
+            <v>0.0654</v>
+          </cell>
+          <cell r="AZ7">
+            <v>3275.0654</v>
+          </cell>
+          <cell r="BA7">
+            <v>186.0654</v>
+          </cell>
+          <cell r="BB7">
+            <v>33.9</v>
+          </cell>
+          <cell r="BC7">
+            <v>32.49</v>
+          </cell>
+          <cell r="BD7">
+            <v>0.851063829787233</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>000004</v>
+          </cell>
+          <cell r="B8">
+            <v>44525</v>
+          </cell>
+          <cell r="C8" t="str">
+            <v>002932(明德生物)</v>
+          </cell>
+          <cell r="D8">
+            <v>64.32</v>
+          </cell>
+          <cell r="E8" t="str">
+            <v>65，56</v>
+          </cell>
+          <cell r="F8">
+            <v>68.37</v>
+          </cell>
+          <cell r="G8" t="str">
+            <v>200日均线：向上
+150日均线：向上
+  50日均线：向上</v>
+          </cell>
+          <cell r="H8">
+            <v>69.16</v>
+          </cell>
+          <cell r="I8">
+            <v>40.64</v>
+          </cell>
+          <cell r="J8">
+            <v>90.29</v>
+          </cell>
+          <cell r="K8">
+            <v>0.701771653543307</v>
+          </cell>
+          <cell r="L8">
+            <v>0.234023701406579</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="N8">
+            <v>60.05</v>
+          </cell>
+          <cell r="O8">
+            <v>74.75</v>
+          </cell>
+          <cell r="P8">
+            <v>65.5</v>
+          </cell>
+          <cell r="Q8">
+            <v>70.98</v>
+          </cell>
+          <cell r="R8">
+            <v>66.88</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="Y8" t="str">
+            <v>12w</v>
+          </cell>
+          <cell r="Z8">
+            <v>0.33492081072101</v>
+          </cell>
+          <cell r="AA8">
+            <v>0.123745819397993</v>
+          </cell>
+          <cell r="AB8">
+            <v>0.0577627500704425</v>
+          </cell>
+          <cell r="AC8" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="AF8" t="str">
+            <v>3T</v>
+          </cell>
+          <cell r="AG8" t="str">
+            <v>成交量先随价格收缩至几乎被榨干，然后随价格收缩有些许放量，最后又收缩至几乎榨干状态</v>
+          </cell>
+          <cell r="AH8">
+            <v>75.02</v>
+          </cell>
+          <cell r="AI8">
+            <v>62.33</v>
+          </cell>
+          <cell r="AJ8">
+            <v>12.69</v>
+          </cell>
+          <cell r="AK8">
+            <v>70.98</v>
+          </cell>
+          <cell r="AL8">
+            <v>66.88</v>
+          </cell>
+          <cell r="AM8">
+            <v>84.94</v>
+          </cell>
+          <cell r="AN8">
+            <v>410.000000000001</v>
+          </cell>
+          <cell r="AO8">
+            <v>0</v>
+          </cell>
+          <cell r="AP8">
+            <v>3.40487804878048</v>
+          </cell>
+          <cell r="AQ8">
+            <v>0.0577627500704425</v>
+          </cell>
+          <cell r="AR8">
+            <v>0.196675119752043</v>
+          </cell>
+          <cell r="AS8">
+            <v>6.49</v>
+          </cell>
+          <cell r="AT8" t="str">
+            <v>可以</v>
+          </cell>
+          <cell r="AU8">
+            <v>44526</v>
+          </cell>
+          <cell r="AV8">
+            <v>72.07</v>
+          </cell>
+          <cell r="AW8">
+            <v>100</v>
+          </cell>
+          <cell r="AX8">
+            <v>5</v>
+          </cell>
+          <cell r="AY8">
+            <v>0.14414</v>
+          </cell>
+          <cell r="AZ8">
+            <v>7212.14414</v>
+          </cell>
+          <cell r="BA8">
+            <v>524.14414</v>
+          </cell>
+          <cell r="BB8">
+            <v>74.5</v>
+          </cell>
+          <cell r="BC8">
+            <v>70.4</v>
+          </cell>
+          <cell r="BD8">
+            <v>0.592682926829271</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>000005</v>
+          </cell>
+          <cell r="B9">
+            <v>44522</v>
+          </cell>
+          <cell r="C9" t="str">
+            <v>605016(百龙创园)</v>
+          </cell>
+          <cell r="D9">
+            <v>28.37</v>
+          </cell>
+          <cell r="E9">
+            <v>29.06</v>
+          </cell>
+          <cell r="F9">
+            <v>29.49</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="H9">
+            <v>29.69</v>
+          </cell>
+          <cell r="I9">
+            <v>17.54</v>
+          </cell>
+          <cell r="J9">
+            <v>48.5</v>
+          </cell>
+          <cell r="K9">
+            <v>0.692702394526796</v>
+          </cell>
+          <cell r="L9">
+            <v>0.387835051546392</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="N9">
+            <v>24.11</v>
+          </cell>
+          <cell r="O9">
+            <v>38.16</v>
+          </cell>
+          <cell r="P9">
+            <v>25.12</v>
+          </cell>
+          <cell r="Q9">
+            <v>30.9</v>
+          </cell>
+          <cell r="R9">
+            <v>29.2</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="Y9" t="str">
+            <v>24w</v>
+          </cell>
+          <cell r="Z9">
+            <v>0.502886597938144</v>
+          </cell>
+          <cell r="AA9">
+            <v>0.341719077568134</v>
+          </cell>
+          <cell r="AB9">
+            <v>0.0550161812297734</v>
+          </cell>
+          <cell r="AC9" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+          <cell r="AD9" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="AF9" t="str">
+            <v>3T</v>
+          </cell>
+          <cell r="AG9" t="str">
+            <v>由于价格收缩不明显，成交量收缩情况不予考虑</v>
+          </cell>
+          <cell r="AH9">
+            <v>32.43</v>
+          </cell>
+          <cell r="AI9">
+            <v>26.16</v>
+          </cell>
+          <cell r="AJ9">
+            <v>6.27</v>
+          </cell>
+          <cell r="AK9">
+            <v>30.66</v>
+          </cell>
+          <cell r="AL9">
+            <v>29.35</v>
+          </cell>
+          <cell r="AM9">
+            <v>38.71</v>
+          </cell>
+          <cell r="AN9">
+            <v>131</v>
+          </cell>
+          <cell r="AO9">
+            <v>200</v>
+          </cell>
+          <cell r="AP9">
+            <v>6.14503816793894</v>
+          </cell>
+          <cell r="AQ9">
+            <v>0.042726679712981</v>
+          </cell>
+          <cell r="AR9">
+            <v>0.262557077625571</v>
+          </cell>
+          <cell r="AS9">
+            <v>38.46</v>
+          </cell>
+          <cell r="AT9" t="str">
+            <v>不宜入场</v>
+          </cell>
+          <cell r="AU9">
+            <v>44524</v>
+          </cell>
+          <cell r="AV9">
+            <v>30.54</v>
+          </cell>
+          <cell r="AW9">
+            <v>100</v>
+          </cell>
+          <cell r="AX9">
+            <v>5</v>
+          </cell>
+          <cell r="AY9">
+            <v>0.06108</v>
+          </cell>
+          <cell r="AZ9">
+            <v>3059.06108</v>
+          </cell>
+          <cell r="BA9">
+            <v>124.06108</v>
+          </cell>
+          <cell r="BB9">
+            <v>30.72</v>
+          </cell>
+          <cell r="BC9">
+            <v>29.33</v>
+          </cell>
+          <cell r="BD9">
+            <v>0.129496402877698</v>
+          </cell>
+          <cell r="BE9">
+            <v>44525</v>
+          </cell>
+          <cell r="BF9">
+            <v>30.15</v>
+          </cell>
+          <cell r="BG9">
+            <v>100</v>
+          </cell>
+          <cell r="BH9">
+            <v>5</v>
+          </cell>
+          <cell r="BI9">
+            <v>3.075</v>
+          </cell>
+          <cell r="BJ9">
+            <v>3006.925</v>
+          </cell>
+          <cell r="BK9">
+            <v>30.69</v>
+          </cell>
+          <cell r="BL9">
+            <v>30.01</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>000010</v>
+          </cell>
+          <cell r="B10">
+            <v>44524</v>
+          </cell>
+          <cell r="C10" t="str">
+            <v>603663(三祥新材)</v>
+          </cell>
+          <cell r="D10">
+            <v>18.26</v>
+          </cell>
+          <cell r="E10">
+            <v>19.01</v>
+          </cell>
+          <cell r="F10">
+            <v>21.05</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="H10">
+            <v>23.2</v>
+          </cell>
+          <cell r="I10">
+            <v>13.04</v>
+          </cell>
+          <cell r="J10">
+            <v>26.64</v>
+          </cell>
+          <cell r="K10">
+            <v>0.779141104294479</v>
+          </cell>
+          <cell r="L10">
+            <v>0.129129129129129</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="N10">
+            <v>18.5</v>
+          </cell>
+          <cell r="O10">
+            <v>22.39</v>
+          </cell>
+          <cell r="P10">
+            <v>18.85</v>
+          </cell>
+          <cell r="Q10">
+            <v>23.56</v>
+          </cell>
+          <cell r="R10">
+            <v>20.89</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="Y10" t="str">
+            <v>12w</v>
+          </cell>
+          <cell r="Z10">
+            <v>0.305555555555556</v>
+          </cell>
+          <cell r="AA10">
+            <v>0.158106297454221</v>
+          </cell>
+          <cell r="AB10">
+            <v>0.113327674023769</v>
+          </cell>
+          <cell r="AC10" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="AF10" t="str">
+            <v>3T</v>
+          </cell>
+          <cell r="AG10" t="str">
+            <v>成交量先随价格收缩逐级减少，然后随价格收缩放量</v>
+          </cell>
+          <cell r="AH10">
+            <v>25.19</v>
+          </cell>
+          <cell r="AI10">
+            <v>17.73</v>
+          </cell>
+          <cell r="AJ10">
+            <v>7.46</v>
+          </cell>
+          <cell r="AK10">
+            <v>23.56</v>
+          </cell>
+          <cell r="AL10">
+            <v>22.12</v>
+          </cell>
+          <cell r="AM10">
+            <v>26.91</v>
+          </cell>
+          <cell r="AN10">
+            <v>144</v>
+          </cell>
+          <cell r="AO10">
+            <v>200</v>
+          </cell>
+          <cell r="AP10">
+            <v>2.32638888888889</v>
+          </cell>
+          <cell r="AQ10">
+            <v>0.0611205432937181</v>
+          </cell>
+          <cell r="AR10">
+            <v>0.142190152801358</v>
+          </cell>
+          <cell r="AS10">
+            <v>53.49</v>
+          </cell>
+          <cell r="AT10" t="str">
+            <v>不宜入场</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>000014</v>
+          </cell>
+          <cell r="B11">
+            <v>44524</v>
+          </cell>
+          <cell r="C11" t="str">
+            <v>600392(盛和资源)</v>
+          </cell>
+          <cell r="D11">
+            <v>20.14</v>
+          </cell>
+          <cell r="E11">
+            <v>20.65</v>
+          </cell>
+          <cell r="F11">
+            <v>20.97</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="H11">
+            <v>21.52</v>
+          </cell>
+          <cell r="I11">
+            <v>7.07</v>
+          </cell>
+          <cell r="J11">
+            <v>29.28</v>
+          </cell>
+          <cell r="K11">
+            <v>2.04384724186704</v>
+          </cell>
+          <cell r="L11">
+            <v>0.265027322404372</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="N11">
+            <v>18.34</v>
+          </cell>
+          <cell r="O11">
+            <v>21.65</v>
+          </cell>
+          <cell r="P11">
+            <v>18.61</v>
+          </cell>
+          <cell r="Q11">
+            <v>21.14</v>
+          </cell>
+          <cell r="R11">
+            <v>18.86</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="Y11" t="str">
+            <v>8w</v>
+          </cell>
+          <cell r="Z11">
+            <v>0.373633879781421</v>
+          </cell>
+          <cell r="AA11">
+            <v>0.140415704387991</v>
+          </cell>
+          <cell r="AB11">
+            <v>0.107852412488174</v>
+          </cell>
+          <cell r="AC11" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="AF11" t="str">
+            <v>3T</v>
+          </cell>
+          <cell r="AG11" t="str">
+            <v>成交量先随价格收缩逐级减少，然后随价格收缩放量</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="AN11">
+            <v>0</v>
+          </cell>
+          <cell r="AO11" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+          <cell r="AP11" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="AT11" t="str">
+            <v>不宜入场</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>000015</v>
+          </cell>
+          <cell r="B12">
+            <v>44524</v>
+          </cell>
+          <cell r="C12" t="str">
+            <v>600399(抚顺特钢)</v>
+          </cell>
+          <cell r="D12">
+            <v>19.9</v>
+          </cell>
+          <cell r="E12">
+            <v>20.73</v>
+          </cell>
+          <cell r="F12">
+            <v>22.88</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="H12">
+            <v>23.53</v>
+          </cell>
+          <cell r="I12">
+            <v>7.25</v>
+          </cell>
+          <cell r="J12">
+            <v>29.3</v>
+          </cell>
+          <cell r="K12">
+            <v>2.24551724137931</v>
+          </cell>
+          <cell r="L12">
+            <v>0.196928327645051</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="N12">
+            <v>19.05</v>
+          </cell>
+          <cell r="O12">
+            <v>22.91</v>
+          </cell>
+          <cell r="P12">
+            <v>19.73</v>
+          </cell>
+          <cell r="Q12">
+            <v>25.5</v>
+          </cell>
+          <cell r="R12">
+            <v>23.12</v>
+          </cell>
+          <cell r="S12">
+            <v>26.45</v>
+          </cell>
+          <cell r="T12">
+            <v>23.48</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="Y12" t="str">
+            <v>12w</v>
+          </cell>
+          <cell r="Z12">
+            <v>0.349829351535836</v>
+          </cell>
+          <cell r="AA12">
+            <v>0.138804015713662</v>
+          </cell>
+          <cell r="AB12">
+            <v>0.0933333333333333</v>
+          </cell>
+          <cell r="AC12">
+            <v>0.112287334593573</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="AF12" t="str">
+            <v>3T</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="AK12">
+            <v>25.15</v>
+          </cell>
+          <cell r="AL12">
+            <v>23.48</v>
+          </cell>
+          <cell r="AM12">
+            <v>27.83</v>
+          </cell>
+          <cell r="AN12">
+            <v>167</v>
+          </cell>
+          <cell r="AO12">
+            <v>100</v>
+          </cell>
+          <cell r="AP12">
+            <v>1.60479041916168</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="AT12" t="str">
+            <v>不宜入场</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>000017</v>
+          </cell>
+          <cell r="B13">
+            <v>44524</v>
+          </cell>
+          <cell r="C13" t="str">
+            <v>601677(明泰铝业)</v>
+          </cell>
+          <cell r="D13">
+            <v>26.7</v>
+          </cell>
+          <cell r="E13">
+            <v>28.65</v>
+          </cell>
+          <cell r="F13">
+            <v>33.16</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="H13">
+            <v>36.11</v>
+          </cell>
+          <cell r="I13">
+            <v>11.38</v>
+          </cell>
+          <cell r="J13">
+            <v>41.75</v>
+          </cell>
+          <cell r="K13">
+            <v>2.17311072056239</v>
+          </cell>
+          <cell r="L13">
+            <v>0.135089820359281</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="N13">
+            <v>28.85</v>
+          </cell>
+          <cell r="O13">
+            <v>35.46</v>
+          </cell>
+          <cell r="P13">
+            <v>29.05</v>
+          </cell>
+          <cell r="Q13">
+            <v>34.35</v>
+          </cell>
+          <cell r="R13">
+            <v>31.5</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="Y13" t="str">
+            <v>8w</v>
+          </cell>
+          <cell r="Z13">
+            <v>0.308982035928144</v>
+          </cell>
+          <cell r="AA13">
+            <v>0.180767061477721</v>
+          </cell>
+          <cell r="AB13">
+            <v>0.0829694323144105</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="AF13" t="str">
+            <v>3T</v>
+          </cell>
+          <cell r="AG13" t="str">
+            <v>减少明显，空头几乎被榨干</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="AK13">
+            <v>37.13</v>
+          </cell>
+          <cell r="AL13">
+            <v>35.6</v>
+          </cell>
+          <cell r="AM13">
+            <v>38.61</v>
+          </cell>
+          <cell r="AN13">
+            <v>153</v>
+          </cell>
+          <cell r="AO13">
+            <v>100</v>
+          </cell>
+          <cell r="AP13">
+            <v>0.967320261437906</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="AT13" t="str">
+            <v>不宜入场</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>000018</v>
+          </cell>
+          <cell r="B14">
+            <v>44524</v>
+          </cell>
+          <cell r="C14" t="str">
+            <v>002223(鱼跃医疗)</v>
+          </cell>
+          <cell r="D14">
+            <v>32.91</v>
+          </cell>
+          <cell r="E14">
+            <v>33.52</v>
+          </cell>
+          <cell r="F14">
+            <v>34.71</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="H14">
+            <v>36.09</v>
+          </cell>
+          <cell r="I14">
+            <v>25.12</v>
+          </cell>
+          <cell r="J14">
+            <v>41.77</v>
+          </cell>
+          <cell r="K14">
+            <v>0.436703821656051</v>
+          </cell>
+          <cell r="L14">
+            <v>0.135982762748384</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="N14">
+            <v>30.46</v>
+          </cell>
+          <cell r="O14">
+            <v>36.94</v>
+          </cell>
+          <cell r="P14">
+            <v>33.59</v>
+          </cell>
+          <cell r="Q14">
+            <v>37.1</v>
+          </cell>
+          <cell r="R14">
+            <v>34.44</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="Y14" t="str">
+            <v>16w</v>
+          </cell>
+          <cell r="Z14">
+            <v>0.270768494134546</v>
+          </cell>
+          <cell r="AA14">
+            <v>0.0906876015159717</v>
+          </cell>
+          <cell r="AB14">
+            <v>0.0716981132075473</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="AF14" t="str">
+            <v>3T</v>
+          </cell>
+          <cell r="AG14" t="str">
+            <v>不是很明显</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="AK14">
+            <v>37.09</v>
+          </cell>
+          <cell r="AL14">
+            <v>35.25</v>
+          </cell>
+          <cell r="AM14">
+            <v>38.8</v>
+          </cell>
+          <cell r="AN14">
+            <v>184</v>
+          </cell>
+          <cell r="AO14">
+            <v>100</v>
+          </cell>
+          <cell r="AP14">
+            <v>0.929347826086951</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="AT14" t="str">
+            <v>不宜入场</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v>000019</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16" t="str">
+            <v>000020</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17" t="str">
+            <v>000021</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18" t="str">
+            <v>000022</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19" t="str">
+            <v>000023</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20" t="str">
+            <v>000024</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21" t="str">
+            <v>000025</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22" t="str">
+            <v>000026</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23" t="str">
+            <v>000027</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24" t="str">
+            <v>000028</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25" t="str">
+            <v>000029</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26" t="str">
+            <v>000030</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27" t="str">
+            <v>000031</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28" t="str">
+            <v>000032</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29" t="str">
+            <v>000033</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30" t="str">
+            <v>000034</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31" t="str">
+            <v>000035</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32" t="str">
+            <v>000036</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33" t="str">
+            <v>000037</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34" t="str">
+            <v>000038</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35" t="str">
+            <v>000039</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36" t="str">
+            <v>000040</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37" t="str">
+            <v>000041</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38" t="str">
+            <v>000042</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="A39" t="str">
+            <v>000043</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="A40" t="str">
+            <v>000044</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="A41" t="str">
+            <v>000045</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="A42" t="str">
+            <v>000046</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="A43" t="str">
+            <v>000047</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="A44" t="str">
+            <v>000048</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="A45" t="str">
+            <v>000049</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="A46" t="str">
+            <v>000050</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="A47" t="str">
+            <v>000051</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="A48" t="str">
+            <v>000052</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="A49" t="str">
+            <v>000053</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="A50" t="str">
+            <v>000054</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="A51" t="str">
+            <v>000055</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="A52" t="str">
+            <v>000056</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="A53" t="str">
+            <v>000057</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="A54" t="str">
+            <v>000058</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="A55" t="str">
+            <v>000059</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="A56" t="str">
+            <v>000060</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="A57" t="str">
+            <v>000061</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="A58" t="str">
+            <v>000062</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="A59" t="str">
+            <v>000063</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="A60" t="str">
+            <v>000064</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="A61" t="str">
+            <v>000065</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="A62" t="str">
+            <v>000066</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="A63" t="str">
+            <v>000067</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="A64" t="str">
+            <v>000068</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="A65" t="str">
+            <v>000069</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1479,14 +2866,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:U500"/>
+  <dimension ref="A1:V500"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="R3" sqref="R3"/>
+      <selection pane="bottomRight" activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -1504,17 +2891,17 @@
     <col min="11" max="11" width="25.4464285714286" customWidth="1"/>
     <col min="12" max="12" width="28.7142857142857" customWidth="1"/>
     <col min="13" max="13" width="30.0625" customWidth="1"/>
-    <col min="14" max="14" width="21.875" customWidth="1"/>
-    <col min="15" max="15" width="20.5267857142857" customWidth="1"/>
-    <col min="16" max="16" width="18.4464285714286" customWidth="1"/>
-    <col min="17" max="17" width="20.3839285714286" customWidth="1"/>
-    <col min="18" max="18" width="22.3125" customWidth="1"/>
-    <col min="19" max="19" width="18.3035714285714" customWidth="1"/>
-    <col min="20" max="20" width="20.6785714285714" customWidth="1"/>
-    <col min="21" max="21" width="45.2321428571429" customWidth="1"/>
+    <col min="14" max="15" width="21.875" customWidth="1"/>
+    <col min="16" max="16" width="20.5267857142857" customWidth="1"/>
+    <col min="17" max="17" width="18.4464285714286" customWidth="1"/>
+    <col min="18" max="18" width="20.3839285714286" customWidth="1"/>
+    <col min="19" max="19" width="22.3125" customWidth="1"/>
+    <col min="20" max="20" width="18.3035714285714" customWidth="1"/>
+    <col min="21" max="21" width="20.6785714285714" customWidth="1"/>
+    <col min="22" max="22" width="45.2321428571429" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:22">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1533,17 +2920,18 @@
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="2"/>
+      <c r="P1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="9"/>
       <c r="Q1" s="9"/>
       <c r="R1" s="9"/>
       <c r="S1" s="9"/>
       <c r="T1" s="9"/>
       <c r="U1" s="9"/>
-    </row>
-    <row r="2" ht="56" customHeight="1" spans="1:21">
+      <c r="V1" s="9"/>
+    </row>
+    <row r="2" ht="56" customHeight="1" spans="1:22">
       <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
         <v>3</v>
@@ -1584,7 +2972,7 @@
       <c r="N2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="O2" s="7" t="s">
         <v>16</v>
       </c>
       <c r="P2" s="10" t="s">
@@ -1599,14 +2987,17 @@
       <c r="S2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="T2" s="12" t="s">
+      <c r="T2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="U2" s="12" t="s">
+      <c r="U2" s="16" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" ht="161" spans="1:20">
+      <c r="V2" s="16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" ht="62" spans="1:21">
       <c r="A3" s="4">
         <v>44523</v>
       </c>
@@ -1626,42 +3017,46 @@
         <v>32.53</v>
       </c>
       <c r="G3" s="5">
+        <f>F3/(1-VLOOKUP([1]交易计划及执行表!A6,[1]交易计划及执行表!A4:BL10001,43,FALSE))</f>
         <v>34.12</v>
       </c>
       <c r="H3" s="5">
+        <f>G3+G3*VLOOKUP([1]交易计划及执行表!A6,[1]交易计划及执行表!A4:BL1000,43,FALSE)*2</f>
         <v>37.3</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M3" s="6" t="str">
         <f>IF(B3&gt;(D3-(D3-C3)/3),"上部",IF(B3&gt;=(E3+(D3-C3)/3),"中部","下部"))</f>
         <v>上部</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="R3" s="14" t="s">
+      <c r="O3" s="6"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="S3" s="6"/>
+      <c r="S3" s="13">
+        <f>(B3-VLOOKUP([1]交易计划及执行表!A6,[1]交易计划及执行表!A4:BL10001,48,FALSE))/VLOOKUP([1]交易计划及执行表!A6,[1]交易计划及执行表!A4:BL10001,48,FALSE)</f>
+        <v>0.0447672694930331</v>
+      </c>
       <c r="T3" s="6"/>
-    </row>
-    <row r="4" spans="1:20">
+      <c r="U3" s="6"/>
+    </row>
+    <row r="4" spans="1:21">
       <c r="A4" s="4">
         <v>44524</v>
       </c>
@@ -1678,41 +3073,48 @@
         <v>34.38</v>
       </c>
       <c r="F4" s="5">
-        <v>32.53</v>
+        <v>33.73</v>
       </c>
       <c r="G4" s="5">
-        <v>34.12</v>
+        <f>F4/(1-VLOOKUP([1]交易计划及执行表!A6,[1]交易计划及执行表!A4:BL10002,43,FALSE))</f>
+        <v>35.3786535505687</v>
       </c>
       <c r="H4" s="5">
-        <v>37.3</v>
+        <f>G4+G4*VLOOKUP([1]交易计划及执行表!A6,[1]交易计划及执行表!A4:BL1000,43,FALSE)*2</f>
+        <v>38.6759606517061</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M4" s="6" t="str">
         <f>IF(B4&gt;(D4-(D4-C4)/3),"上部",IF(B4&gt;(E4+(D4-C4)/3),"中部","下部"))</f>
         <v>中部</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
-      <c r="Q4" s="15">
+      <c r="O4" s="6"/>
+      <c r="R4" s="14">
         <f>(B4-B3)/B3</f>
         <v>-0.0227014755959139</v>
       </c>
-      <c r="S4" s="6"/>
+      <c r="S4" s="15">
+        <f>(B4-VLOOKUP([1]交易计划及执行表!A6,[1]交易计划及执行表!A4:BL10001,48,FALSE))/VLOOKUP([1]交易计划及执行表!A6,[1]交易计划及执行表!A4:BL10001,48,FALSE)</f>
+        <v>0.0210495108212274</v>
+      </c>
       <c r="T4" s="6"/>
-    </row>
-    <row r="5" spans="1:20">
+      <c r="U4" s="6"/>
+    </row>
+    <row r="5" spans="1:21">
       <c r="A5" s="4">
         <v>44525</v>
       </c>
@@ -1729,68 +3131,117 @@
         <v>34.6</v>
       </c>
       <c r="F5" s="5">
-        <v>32.53</v>
+        <v>33.73</v>
       </c>
       <c r="G5" s="5">
-        <v>34.12</v>
+        <f>F5/(1-VLOOKUP([1]交易计划及执行表!A6,[1]交易计划及执行表!A4:BL10002,43,FALSE))</f>
+        <v>35.3786535505687</v>
       </c>
       <c r="H5" s="5">
-        <v>37.3</v>
+        <f>G5+G5*VLOOKUP([1]交易计划及执行表!A6,[1]交易计划及执行表!A4:BL1000,43,FALSE)*2</f>
+        <v>38.6759606517061</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M5" s="6" t="str">
         <f>IF(B5&gt;(D5-(D5-C5)/3),"上部",IF(B5&gt;(E5+(D5-C5)/3),"中部","下部"))</f>
         <v>上部</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>
-      <c r="Q5" s="15">
+      <c r="Q5" s="6"/>
+      <c r="R5" s="14">
         <f>(B5-B4)/B4</f>
         <v>0.0743321718931476</v>
       </c>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
+      <c r="S5" s="14">
+        <f>(B5-VLOOKUP([1]交易计划及执行表!A6,[1]交易计划及执行表!A4:BL10001,48,FALSE))/VLOOKUP([1]交易计划及执行表!A6,[1]交易计划及执行表!A4:BL10001,48,FALSE)</f>
+        <v>0.0969463385710051</v>
+      </c>
       <c r="T5" s="6"/>
-    </row>
-    <row r="6" spans="1:20">
+      <c r="U5" s="6"/>
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6" s="4">
         <v>44526</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
+      <c r="B6" s="5">
+        <v>36.81</v>
+      </c>
+      <c r="C6" s="5">
+        <v>37</v>
+      </c>
+      <c r="D6" s="5">
+        <v>37.25</v>
+      </c>
+      <c r="E6" s="5">
+        <v>36.34</v>
+      </c>
+      <c r="F6" s="5">
+        <v>33.73</v>
+      </c>
+      <c r="G6" s="5">
+        <f>F6/(1-VLOOKUP([1]交易计划及执行表!A6,[1]交易计划及执行表!A4:BL10002,43,FALSE))</f>
+        <v>35.3786535505687</v>
+      </c>
+      <c r="H6" s="5">
+        <f>G6+G6*VLOOKUP([1]交易计划及执行表!A6,[1]交易计划及执行表!A4:BL1000,43,FALSE)*2</f>
+        <v>38.6759606517061</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="M6" s="6" t="str">
+        <f>IF(B6&gt;(D6-(D6-C6)/3),"上部",IF(B6&gt;(E6+(D6-C6)/3),"中部","下部"))</f>
+        <v>中部</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="O6" s="6">
+        <v>41.04</v>
+      </c>
+      <c r="P6" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q6" s="5">
+        <f>O6/VLOOKUP([1]交易计划及执行表!A6,[1]交易计划及执行表!A4:BL10001,45,FALSE)</f>
+        <v>1.09703287890938</v>
+      </c>
+      <c r="R6" s="14">
+        <f>(B6-B5)/B5</f>
+        <v>-0.00513513513513507</v>
+      </c>
+      <c r="S6" s="14">
+        <f>(B6-VLOOKUP([1]交易计划及执行表!A6,[1]交易计划及执行表!A4:BL10001,48,FALSE))/VLOOKUP([1]交易计划及执行表!A6,[1]交易计划及执行表!A4:BL10001,48,FALSE)</f>
+        <v>0.0913133708864514</v>
+      </c>
       <c r="T6" s="6"/>
-    </row>
-    <row r="7" spans="1:20">
+      <c r="U6" s="6"/>
+    </row>
+    <row r="7" spans="1:21">
       <c r="A7" s="4">
         <v>44527</v>
       </c>
@@ -1813,8 +3264,9 @@
       <c r="R7" s="6"/>
       <c r="S7" s="6"/>
       <c r="T7" s="6"/>
-    </row>
-    <row r="8" spans="1:20">
+      <c r="U7" s="6"/>
+    </row>
+    <row r="8" spans="1:21">
       <c r="A8" s="4">
         <v>44528</v>
       </c>
@@ -1837,8 +3289,9 @@
       <c r="R8" s="6"/>
       <c r="S8" s="6"/>
       <c r="T8" s="6"/>
-    </row>
-    <row r="9" spans="1:20">
+      <c r="U8" s="6"/>
+    </row>
+    <row r="9" spans="1:21">
       <c r="A9" s="4">
         <v>44529</v>
       </c>
@@ -1861,8 +3314,9 @@
       <c r="R9" s="6"/>
       <c r="S9" s="6"/>
       <c r="T9" s="6"/>
-    </row>
-    <row r="10" spans="1:20">
+      <c r="U9" s="6"/>
+    </row>
+    <row r="10" spans="1:21">
       <c r="A10" s="4">
         <v>44530</v>
       </c>
@@ -1885,8 +3339,9 @@
       <c r="R10" s="6"/>
       <c r="S10" s="6"/>
       <c r="T10" s="6"/>
-    </row>
-    <row r="11" spans="1:20">
+      <c r="U10" s="6"/>
+    </row>
+    <row r="11" spans="1:21">
       <c r="A11" s="4">
         <v>44531</v>
       </c>
@@ -1909,8 +3364,9 @@
       <c r="R11" s="6"/>
       <c r="S11" s="6"/>
       <c r="T11" s="6"/>
-    </row>
-    <row r="12" spans="1:20">
+      <c r="U11" s="6"/>
+    </row>
+    <row r="12" spans="1:21">
       <c r="A12" s="4">
         <v>44532</v>
       </c>
@@ -1933,8 +3389,9 @@
       <c r="R12" s="6"/>
       <c r="S12" s="6"/>
       <c r="T12" s="6"/>
-    </row>
-    <row r="13" spans="1:20">
+      <c r="U12" s="6"/>
+    </row>
+    <row r="13" spans="1:21">
       <c r="A13" s="4">
         <v>44533</v>
       </c>
@@ -1957,8 +3414,9 @@
       <c r="R13" s="6"/>
       <c r="S13" s="6"/>
       <c r="T13" s="6"/>
-    </row>
-    <row r="14" spans="1:20">
+      <c r="U13" s="6"/>
+    </row>
+    <row r="14" spans="1:21">
       <c r="A14" s="4">
         <v>44534</v>
       </c>
@@ -1981,8 +3439,9 @@
       <c r="R14" s="6"/>
       <c r="S14" s="6"/>
       <c r="T14" s="6"/>
-    </row>
-    <row r="15" spans="1:20">
+      <c r="U14" s="6"/>
+    </row>
+    <row r="15" spans="1:21">
       <c r="A15" s="4">
         <v>44535</v>
       </c>
@@ -2005,8 +3464,9 @@
       <c r="R15" s="6"/>
       <c r="S15" s="6"/>
       <c r="T15" s="6"/>
-    </row>
-    <row r="16" spans="1:20">
+      <c r="U15" s="6"/>
+    </row>
+    <row r="16" spans="1:21">
       <c r="A16" s="4">
         <v>44536</v>
       </c>
@@ -2029,8 +3489,9 @@
       <c r="R16" s="6"/>
       <c r="S16" s="6"/>
       <c r="T16" s="6"/>
-    </row>
-    <row r="17" spans="1:20">
+      <c r="U16" s="6"/>
+    </row>
+    <row r="17" spans="1:21">
       <c r="A17" s="4">
         <v>44537</v>
       </c>
@@ -2053,8 +3514,9 @@
       <c r="R17" s="6"/>
       <c r="S17" s="6"/>
       <c r="T17" s="6"/>
-    </row>
-    <row r="18" spans="1:20">
+      <c r="U17" s="6"/>
+    </row>
+    <row r="18" spans="1:21">
       <c r="A18" s="4">
         <v>44538</v>
       </c>
@@ -2077,8 +3539,9 @@
       <c r="R18" s="6"/>
       <c r="S18" s="6"/>
       <c r="T18" s="6"/>
-    </row>
-    <row r="19" spans="1:20">
+      <c r="U18" s="6"/>
+    </row>
+    <row r="19" spans="1:21">
       <c r="A19" s="4">
         <v>44539</v>
       </c>
@@ -2101,8 +3564,9 @@
       <c r="R19" s="6"/>
       <c r="S19" s="6"/>
       <c r="T19" s="6"/>
-    </row>
-    <row r="20" spans="1:20">
+      <c r="U19" s="6"/>
+    </row>
+    <row r="20" spans="1:21">
       <c r="A20" s="4">
         <v>44540</v>
       </c>
@@ -2125,8 +3589,9 @@
       <c r="R20" s="6"/>
       <c r="S20" s="6"/>
       <c r="T20" s="6"/>
-    </row>
-    <row r="21" spans="1:20">
+      <c r="U20" s="6"/>
+    </row>
+    <row r="21" spans="1:21">
       <c r="A21" s="4">
         <v>44541</v>
       </c>
@@ -2149,8 +3614,9 @@
       <c r="R21" s="6"/>
       <c r="S21" s="6"/>
       <c r="T21" s="6"/>
-    </row>
-    <row r="22" spans="1:20">
+      <c r="U21" s="6"/>
+    </row>
+    <row r="22" spans="1:21">
       <c r="A22" s="4">
         <v>44542</v>
       </c>
@@ -2173,8 +3639,9 @@
       <c r="R22" s="6"/>
       <c r="S22" s="6"/>
       <c r="T22" s="6"/>
-    </row>
-    <row r="23" spans="1:20">
+      <c r="U22" s="6"/>
+    </row>
+    <row r="23" spans="1:21">
       <c r="A23" s="4">
         <v>44543</v>
       </c>
@@ -2197,8 +3664,9 @@
       <c r="R23" s="6"/>
       <c r="S23" s="6"/>
       <c r="T23" s="6"/>
-    </row>
-    <row r="24" spans="1:20">
+      <c r="U23" s="6"/>
+    </row>
+    <row r="24" spans="1:21">
       <c r="A24" s="4">
         <v>44544</v>
       </c>
@@ -2221,8 +3689,9 @@
       <c r="R24" s="6"/>
       <c r="S24" s="6"/>
       <c r="T24" s="6"/>
-    </row>
-    <row r="25" spans="1:20">
+      <c r="U24" s="6"/>
+    </row>
+    <row r="25" spans="1:21">
       <c r="A25" s="4">
         <v>44545</v>
       </c>
@@ -2245,8 +3714,9 @@
       <c r="R25" s="6"/>
       <c r="S25" s="6"/>
       <c r="T25" s="6"/>
-    </row>
-    <row r="26" spans="1:20">
+      <c r="U25" s="6"/>
+    </row>
+    <row r="26" spans="1:21">
       <c r="A26" s="4">
         <v>44546</v>
       </c>
@@ -2269,8 +3739,9 @@
       <c r="R26" s="6"/>
       <c r="S26" s="6"/>
       <c r="T26" s="6"/>
-    </row>
-    <row r="27" spans="1:20">
+      <c r="U26" s="6"/>
+    </row>
+    <row r="27" spans="1:21">
       <c r="A27" s="4">
         <v>44547</v>
       </c>
@@ -2293,8 +3764,9 @@
       <c r="R27" s="6"/>
       <c r="S27" s="6"/>
       <c r="T27" s="6"/>
-    </row>
-    <row r="28" spans="1:20">
+      <c r="U27" s="6"/>
+    </row>
+    <row r="28" spans="1:21">
       <c r="A28" s="4">
         <v>44548</v>
       </c>
@@ -2317,8 +3789,9 @@
       <c r="R28" s="6"/>
       <c r="S28" s="6"/>
       <c r="T28" s="6"/>
-    </row>
-    <row r="29" spans="1:20">
+      <c r="U28" s="6"/>
+    </row>
+    <row r="29" spans="1:21">
       <c r="A29" s="4">
         <v>44549</v>
       </c>
@@ -2341,8 +3814,9 @@
       <c r="R29" s="6"/>
       <c r="S29" s="6"/>
       <c r="T29" s="6"/>
-    </row>
-    <row r="30" spans="1:20">
+      <c r="U29" s="6"/>
+    </row>
+    <row r="30" spans="1:21">
       <c r="A30" s="4">
         <v>44550</v>
       </c>
@@ -2365,8 +3839,9 @@
       <c r="R30" s="6"/>
       <c r="S30" s="6"/>
       <c r="T30" s="6"/>
-    </row>
-    <row r="31" spans="1:20">
+      <c r="U30" s="6"/>
+    </row>
+    <row r="31" spans="1:21">
       <c r="A31" s="4">
         <v>44551</v>
       </c>
@@ -2389,8 +3864,9 @@
       <c r="R31" s="6"/>
       <c r="S31" s="6"/>
       <c r="T31" s="6"/>
-    </row>
-    <row r="32" spans="1:20">
+      <c r="U31" s="6"/>
+    </row>
+    <row r="32" spans="1:21">
       <c r="A32" s="4">
         <v>44552</v>
       </c>
@@ -2413,8 +3889,9 @@
       <c r="R32" s="6"/>
       <c r="S32" s="6"/>
       <c r="T32" s="6"/>
-    </row>
-    <row r="33" spans="1:20">
+      <c r="U32" s="6"/>
+    </row>
+    <row r="33" spans="1:21">
       <c r="A33" s="4">
         <v>44553</v>
       </c>
@@ -2437,8 +3914,9 @@
       <c r="R33" s="6"/>
       <c r="S33" s="6"/>
       <c r="T33" s="6"/>
-    </row>
-    <row r="34" spans="1:20">
+      <c r="U33" s="6"/>
+    </row>
+    <row r="34" spans="1:21">
       <c r="A34" s="4">
         <v>44554</v>
       </c>
@@ -2461,8 +3939,9 @@
       <c r="R34" s="6"/>
       <c r="S34" s="6"/>
       <c r="T34" s="6"/>
-    </row>
-    <row r="35" spans="1:20">
+      <c r="U34" s="6"/>
+    </row>
+    <row r="35" spans="1:21">
       <c r="A35" s="4">
         <v>44555</v>
       </c>
@@ -2485,8 +3964,9 @@
       <c r="R35" s="6"/>
       <c r="S35" s="6"/>
       <c r="T35" s="6"/>
-    </row>
-    <row r="36" spans="1:20">
+      <c r="U35" s="6"/>
+    </row>
+    <row r="36" spans="1:21">
       <c r="A36" s="4">
         <v>44556</v>
       </c>
@@ -2509,8 +3989,9 @@
       <c r="R36" s="6"/>
       <c r="S36" s="6"/>
       <c r="T36" s="6"/>
-    </row>
-    <row r="37" spans="1:20">
+      <c r="U36" s="6"/>
+    </row>
+    <row r="37" spans="1:21">
       <c r="A37" s="4">
         <v>44557</v>
       </c>
@@ -2533,8 +4014,9 @@
       <c r="R37" s="6"/>
       <c r="S37" s="6"/>
       <c r="T37" s="6"/>
-    </row>
-    <row r="38" spans="1:20">
+      <c r="U37" s="6"/>
+    </row>
+    <row r="38" spans="1:21">
       <c r="A38" s="4">
         <v>44558</v>
       </c>
@@ -2557,8 +4039,9 @@
       <c r="R38" s="6"/>
       <c r="S38" s="6"/>
       <c r="T38" s="6"/>
-    </row>
-    <row r="39" spans="1:20">
+      <c r="U38" s="6"/>
+    </row>
+    <row r="39" spans="1:21">
       <c r="A39" s="6"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
@@ -2579,8 +4062,9 @@
       <c r="R39" s="6"/>
       <c r="S39" s="6"/>
       <c r="T39" s="6"/>
-    </row>
-    <row r="40" spans="1:20">
+      <c r="U39" s="6"/>
+    </row>
+    <row r="40" spans="1:21">
       <c r="A40" s="6"/>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
@@ -2601,8 +4085,9 @@
       <c r="R40" s="6"/>
       <c r="S40" s="6"/>
       <c r="T40" s="6"/>
-    </row>
-    <row r="41" spans="1:20">
+      <c r="U40" s="6"/>
+    </row>
+    <row r="41" spans="1:21">
       <c r="A41" s="6"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
@@ -2623,8 +4108,9 @@
       <c r="R41" s="6"/>
       <c r="S41" s="6"/>
       <c r="T41" s="6"/>
-    </row>
-    <row r="42" spans="1:20">
+      <c r="U41" s="6"/>
+    </row>
+    <row r="42" spans="1:21">
       <c r="A42" s="6"/>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
@@ -2645,8 +4131,9 @@
       <c r="R42" s="6"/>
       <c r="S42" s="6"/>
       <c r="T42" s="6"/>
-    </row>
-    <row r="43" spans="1:20">
+      <c r="U42" s="6"/>
+    </row>
+    <row r="43" spans="1:21">
       <c r="A43" s="6"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
@@ -2667,8 +4154,9 @@
       <c r="R43" s="6"/>
       <c r="S43" s="6"/>
       <c r="T43" s="6"/>
-    </row>
-    <row r="44" spans="1:20">
+      <c r="U43" s="6"/>
+    </row>
+    <row r="44" spans="1:21">
       <c r="A44" s="6"/>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
@@ -2689,8 +4177,9 @@
       <c r="R44" s="6"/>
       <c r="S44" s="6"/>
       <c r="T44" s="6"/>
-    </row>
-    <row r="45" spans="1:20">
+      <c r="U44" s="6"/>
+    </row>
+    <row r="45" spans="1:21">
       <c r="A45" s="6"/>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
@@ -2711,8 +4200,9 @@
       <c r="R45" s="6"/>
       <c r="S45" s="6"/>
       <c r="T45" s="6"/>
-    </row>
-    <row r="46" spans="1:20">
+      <c r="U45" s="6"/>
+    </row>
+    <row r="46" spans="1:21">
       <c r="A46" s="6"/>
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
@@ -2733,8 +4223,9 @@
       <c r="R46" s="6"/>
       <c r="S46" s="6"/>
       <c r="T46" s="6"/>
-    </row>
-    <row r="47" spans="1:20">
+      <c r="U46" s="6"/>
+    </row>
+    <row r="47" spans="1:21">
       <c r="A47" s="6"/>
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
@@ -2755,8 +4246,9 @@
       <c r="R47" s="6"/>
       <c r="S47" s="6"/>
       <c r="T47" s="6"/>
-    </row>
-    <row r="48" spans="1:20">
+      <c r="U47" s="6"/>
+    </row>
+    <row r="48" spans="1:21">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
@@ -2777,8 +4269,9 @@
       <c r="R48" s="6"/>
       <c r="S48" s="6"/>
       <c r="T48" s="6"/>
-    </row>
-    <row r="49" spans="1:20">
+      <c r="U48" s="6"/>
+    </row>
+    <row r="49" spans="1:21">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
@@ -2799,8 +4292,9 @@
       <c r="R49" s="6"/>
       <c r="S49" s="6"/>
       <c r="T49" s="6"/>
-    </row>
-    <row r="50" spans="1:20">
+      <c r="U49" s="6"/>
+    </row>
+    <row r="50" spans="1:21">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
@@ -2821,8 +4315,9 @@
       <c r="R50" s="6"/>
       <c r="S50" s="6"/>
       <c r="T50" s="6"/>
-    </row>
-    <row r="51" spans="1:20">
+      <c r="U50" s="6"/>
+    </row>
+    <row r="51" spans="1:21">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
@@ -2843,8 +4338,9 @@
       <c r="R51" s="6"/>
       <c r="S51" s="6"/>
       <c r="T51" s="6"/>
-    </row>
-    <row r="52" spans="1:20">
+      <c r="U51" s="6"/>
+    </row>
+    <row r="52" spans="1:21">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
@@ -2865,8 +4361,9 @@
       <c r="R52" s="6"/>
       <c r="S52" s="6"/>
       <c r="T52" s="6"/>
-    </row>
-    <row r="53" spans="1:20">
+      <c r="U52" s="6"/>
+    </row>
+    <row r="53" spans="1:21">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
@@ -2887,8 +4384,9 @@
       <c r="R53" s="6"/>
       <c r="S53" s="6"/>
       <c r="T53" s="6"/>
-    </row>
-    <row r="54" spans="1:20">
+      <c r="U53" s="6"/>
+    </row>
+    <row r="54" spans="1:21">
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
@@ -2909,8 +4407,9 @@
       <c r="R54" s="6"/>
       <c r="S54" s="6"/>
       <c r="T54" s="6"/>
-    </row>
-    <row r="55" spans="1:20">
+      <c r="U54" s="6"/>
+    </row>
+    <row r="55" spans="1:21">
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
@@ -2931,8 +4430,9 @@
       <c r="R55" s="6"/>
       <c r="S55" s="6"/>
       <c r="T55" s="6"/>
-    </row>
-    <row r="56" spans="1:20">
+      <c r="U55" s="6"/>
+    </row>
+    <row r="56" spans="1:21">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
@@ -2953,8 +4453,9 @@
       <c r="R56" s="6"/>
       <c r="S56" s="6"/>
       <c r="T56" s="6"/>
-    </row>
-    <row r="57" spans="1:20">
+      <c r="U56" s="6"/>
+    </row>
+    <row r="57" spans="1:21">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
@@ -2975,8 +4476,9 @@
       <c r="R57" s="6"/>
       <c r="S57" s="6"/>
       <c r="T57" s="6"/>
-    </row>
-    <row r="58" spans="1:20">
+      <c r="U57" s="6"/>
+    </row>
+    <row r="58" spans="1:21">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
@@ -2997,8 +4499,9 @@
       <c r="R58" s="6"/>
       <c r="S58" s="6"/>
       <c r="T58" s="6"/>
-    </row>
-    <row r="59" spans="1:20">
+      <c r="U58" s="6"/>
+    </row>
+    <row r="59" spans="1:21">
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
       <c r="C59" s="6"/>
@@ -3019,8 +4522,9 @@
       <c r="R59" s="6"/>
       <c r="S59" s="6"/>
       <c r="T59" s="6"/>
-    </row>
-    <row r="60" spans="1:20">
+      <c r="U59" s="6"/>
+    </row>
+    <row r="60" spans="1:21">
       <c r="A60" s="6"/>
       <c r="B60" s="6"/>
       <c r="C60" s="6"/>
@@ -3041,8 +4545,9 @@
       <c r="R60" s="6"/>
       <c r="S60" s="6"/>
       <c r="T60" s="6"/>
-    </row>
-    <row r="61" spans="1:20">
+      <c r="U60" s="6"/>
+    </row>
+    <row r="61" spans="1:21">
       <c r="A61" s="6"/>
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
@@ -3063,8 +4568,9 @@
       <c r="R61" s="6"/>
       <c r="S61" s="6"/>
       <c r="T61" s="6"/>
-    </row>
-    <row r="62" spans="1:20">
+      <c r="U61" s="6"/>
+    </row>
+    <row r="62" spans="1:21">
       <c r="A62" s="6"/>
       <c r="B62" s="6"/>
       <c r="C62" s="6"/>
@@ -3085,8 +4591,9 @@
       <c r="R62" s="6"/>
       <c r="S62" s="6"/>
       <c r="T62" s="6"/>
-    </row>
-    <row r="63" spans="1:20">
+      <c r="U62" s="6"/>
+    </row>
+    <row r="63" spans="1:21">
       <c r="A63" s="6"/>
       <c r="B63" s="6"/>
       <c r="C63" s="6"/>
@@ -3107,8 +4614,9 @@
       <c r="R63" s="6"/>
       <c r="S63" s="6"/>
       <c r="T63" s="6"/>
-    </row>
-    <row r="64" spans="1:20">
+      <c r="U63" s="6"/>
+    </row>
+    <row r="64" spans="1:21">
       <c r="A64" s="6"/>
       <c r="B64" s="6"/>
       <c r="C64" s="6"/>
@@ -3129,8 +4637,9 @@
       <c r="R64" s="6"/>
       <c r="S64" s="6"/>
       <c r="T64" s="6"/>
-    </row>
-    <row r="65" spans="1:20">
+      <c r="U64" s="6"/>
+    </row>
+    <row r="65" spans="1:21">
       <c r="A65" s="6"/>
       <c r="B65" s="6"/>
       <c r="C65" s="6"/>
@@ -3151,8 +4660,9 @@
       <c r="R65" s="6"/>
       <c r="S65" s="6"/>
       <c r="T65" s="6"/>
-    </row>
-    <row r="66" spans="1:20">
+      <c r="U65" s="6"/>
+    </row>
+    <row r="66" spans="1:21">
       <c r="A66" s="6"/>
       <c r="B66" s="6"/>
       <c r="C66" s="6"/>
@@ -3173,8 +4683,9 @@
       <c r="R66" s="6"/>
       <c r="S66" s="6"/>
       <c r="T66" s="6"/>
-    </row>
-    <row r="67" spans="1:20">
+      <c r="U66" s="6"/>
+    </row>
+    <row r="67" spans="1:21">
       <c r="A67" s="6"/>
       <c r="B67" s="6"/>
       <c r="C67" s="6"/>
@@ -3195,8 +4706,9 @@
       <c r="R67" s="6"/>
       <c r="S67" s="6"/>
       <c r="T67" s="6"/>
-    </row>
-    <row r="68" spans="1:20">
+      <c r="U67" s="6"/>
+    </row>
+    <row r="68" spans="1:21">
       <c r="A68" s="6"/>
       <c r="B68" s="6"/>
       <c r="C68" s="6"/>
@@ -3217,8 +4729,9 @@
       <c r="R68" s="6"/>
       <c r="S68" s="6"/>
       <c r="T68" s="6"/>
-    </row>
-    <row r="69" spans="1:20">
+      <c r="U68" s="6"/>
+    </row>
+    <row r="69" spans="1:21">
       <c r="A69" s="6"/>
       <c r="B69" s="6"/>
       <c r="C69" s="6"/>
@@ -3239,8 +4752,9 @@
       <c r="R69" s="6"/>
       <c r="S69" s="6"/>
       <c r="T69" s="6"/>
-    </row>
-    <row r="70" spans="1:20">
+      <c r="U69" s="6"/>
+    </row>
+    <row r="70" spans="1:21">
       <c r="A70" s="6"/>
       <c r="B70" s="6"/>
       <c r="C70" s="6"/>
@@ -3261,8 +4775,9 @@
       <c r="R70" s="6"/>
       <c r="S70" s="6"/>
       <c r="T70" s="6"/>
-    </row>
-    <row r="71" spans="1:20">
+      <c r="U70" s="6"/>
+    </row>
+    <row r="71" spans="1:21">
       <c r="A71" s="6"/>
       <c r="B71" s="6"/>
       <c r="C71" s="6"/>
@@ -3283,8 +4798,9 @@
       <c r="R71" s="6"/>
       <c r="S71" s="6"/>
       <c r="T71" s="6"/>
-    </row>
-    <row r="72" spans="1:20">
+      <c r="U71" s="6"/>
+    </row>
+    <row r="72" spans="1:21">
       <c r="A72" s="6"/>
       <c r="B72" s="6"/>
       <c r="C72" s="6"/>
@@ -3305,8 +4821,9 @@
       <c r="R72" s="6"/>
       <c r="S72" s="6"/>
       <c r="T72" s="6"/>
-    </row>
-    <row r="73" spans="1:20">
+      <c r="U72" s="6"/>
+    </row>
+    <row r="73" spans="1:21">
       <c r="A73" s="6"/>
       <c r="B73" s="6"/>
       <c r="C73" s="6"/>
@@ -3327,8 +4844,9 @@
       <c r="R73" s="6"/>
       <c r="S73" s="6"/>
       <c r="T73" s="6"/>
-    </row>
-    <row r="74" spans="1:20">
+      <c r="U73" s="6"/>
+    </row>
+    <row r="74" spans="1:21">
       <c r="A74" s="6"/>
       <c r="B74" s="6"/>
       <c r="C74" s="6"/>
@@ -3349,8 +4867,9 @@
       <c r="R74" s="6"/>
       <c r="S74" s="6"/>
       <c r="T74" s="6"/>
-    </row>
-    <row r="75" spans="1:20">
+      <c r="U74" s="6"/>
+    </row>
+    <row r="75" spans="1:21">
       <c r="A75" s="6"/>
       <c r="B75" s="6"/>
       <c r="C75" s="6"/>
@@ -3371,8 +4890,9 @@
       <c r="R75" s="6"/>
       <c r="S75" s="6"/>
       <c r="T75" s="6"/>
-    </row>
-    <row r="76" spans="1:20">
+      <c r="U75" s="6"/>
+    </row>
+    <row r="76" spans="1:21">
       <c r="A76" s="6"/>
       <c r="B76" s="6"/>
       <c r="C76" s="6"/>
@@ -3393,8 +4913,9 @@
       <c r="R76" s="6"/>
       <c r="S76" s="6"/>
       <c r="T76" s="6"/>
-    </row>
-    <row r="77" spans="1:20">
+      <c r="U76" s="6"/>
+    </row>
+    <row r="77" spans="1:21">
       <c r="A77" s="6"/>
       <c r="B77" s="6"/>
       <c r="C77" s="6"/>
@@ -3415,8 +4936,9 @@
       <c r="R77" s="6"/>
       <c r="S77" s="6"/>
       <c r="T77" s="6"/>
-    </row>
-    <row r="78" spans="1:20">
+      <c r="U77" s="6"/>
+    </row>
+    <row r="78" spans="1:21">
       <c r="A78" s="6"/>
       <c r="B78" s="6"/>
       <c r="C78" s="6"/>
@@ -3437,8 +4959,9 @@
       <c r="R78" s="6"/>
       <c r="S78" s="6"/>
       <c r="T78" s="6"/>
-    </row>
-    <row r="79" spans="1:20">
+      <c r="U78" s="6"/>
+    </row>
+    <row r="79" spans="1:21">
       <c r="A79" s="6"/>
       <c r="B79" s="6"/>
       <c r="C79" s="6"/>
@@ -3459,8 +4982,9 @@
       <c r="R79" s="6"/>
       <c r="S79" s="6"/>
       <c r="T79" s="6"/>
-    </row>
-    <row r="80" spans="1:20">
+      <c r="U79" s="6"/>
+    </row>
+    <row r="80" spans="1:21">
       <c r="A80" s="6"/>
       <c r="B80" s="6"/>
       <c r="C80" s="6"/>
@@ -3481,8 +5005,9 @@
       <c r="R80" s="6"/>
       <c r="S80" s="6"/>
       <c r="T80" s="6"/>
-    </row>
-    <row r="81" spans="1:20">
+      <c r="U80" s="6"/>
+    </row>
+    <row r="81" spans="1:21">
       <c r="A81" s="6"/>
       <c r="B81" s="6"/>
       <c r="C81" s="6"/>
@@ -3503,8 +5028,9 @@
       <c r="R81" s="6"/>
       <c r="S81" s="6"/>
       <c r="T81" s="6"/>
-    </row>
-    <row r="82" spans="1:20">
+      <c r="U81" s="6"/>
+    </row>
+    <row r="82" spans="1:21">
       <c r="A82" s="6"/>
       <c r="B82" s="6"/>
       <c r="C82" s="6"/>
@@ -3525,8 +5051,9 @@
       <c r="R82" s="6"/>
       <c r="S82" s="6"/>
       <c r="T82" s="6"/>
-    </row>
-    <row r="83" spans="1:20">
+      <c r="U82" s="6"/>
+    </row>
+    <row r="83" spans="1:21">
       <c r="A83" s="6"/>
       <c r="B83" s="6"/>
       <c r="C83" s="6"/>
@@ -3547,8 +5074,9 @@
       <c r="R83" s="6"/>
       <c r="S83" s="6"/>
       <c r="T83" s="6"/>
-    </row>
-    <row r="84" spans="1:20">
+      <c r="U83" s="6"/>
+    </row>
+    <row r="84" spans="1:21">
       <c r="A84" s="6"/>
       <c r="B84" s="6"/>
       <c r="C84" s="6"/>
@@ -3569,8 +5097,9 @@
       <c r="R84" s="6"/>
       <c r="S84" s="6"/>
       <c r="T84" s="6"/>
-    </row>
-    <row r="85" spans="1:20">
+      <c r="U84" s="6"/>
+    </row>
+    <row r="85" spans="1:21">
       <c r="A85" s="6"/>
       <c r="B85" s="6"/>
       <c r="C85" s="6"/>
@@ -3591,8 +5120,9 @@
       <c r="R85" s="6"/>
       <c r="S85" s="6"/>
       <c r="T85" s="6"/>
-    </row>
-    <row r="86" spans="1:20">
+      <c r="U85" s="6"/>
+    </row>
+    <row r="86" spans="1:21">
       <c r="A86" s="6"/>
       <c r="B86" s="6"/>
       <c r="C86" s="6"/>
@@ -3613,8 +5143,9 @@
       <c r="R86" s="6"/>
       <c r="S86" s="6"/>
       <c r="T86" s="6"/>
-    </row>
-    <row r="87" spans="1:20">
+      <c r="U86" s="6"/>
+    </row>
+    <row r="87" spans="1:21">
       <c r="A87" s="6"/>
       <c r="B87" s="6"/>
       <c r="C87" s="6"/>
@@ -3635,8 +5166,9 @@
       <c r="R87" s="6"/>
       <c r="S87" s="6"/>
       <c r="T87" s="6"/>
-    </row>
-    <row r="88" spans="1:20">
+      <c r="U87" s="6"/>
+    </row>
+    <row r="88" spans="1:21">
       <c r="A88" s="6"/>
       <c r="B88" s="6"/>
       <c r="C88" s="6"/>
@@ -3657,8 +5189,9 @@
       <c r="R88" s="6"/>
       <c r="S88" s="6"/>
       <c r="T88" s="6"/>
-    </row>
-    <row r="89" spans="1:20">
+      <c r="U88" s="6"/>
+    </row>
+    <row r="89" spans="1:21">
       <c r="A89" s="6"/>
       <c r="B89" s="6"/>
       <c r="C89" s="6"/>
@@ -3679,8 +5212,9 @@
       <c r="R89" s="6"/>
       <c r="S89" s="6"/>
       <c r="T89" s="6"/>
-    </row>
-    <row r="90" spans="1:20">
+      <c r="U89" s="6"/>
+    </row>
+    <row r="90" spans="1:21">
       <c r="A90" s="6"/>
       <c r="B90" s="6"/>
       <c r="C90" s="6"/>
@@ -3701,8 +5235,9 @@
       <c r="R90" s="6"/>
       <c r="S90" s="6"/>
       <c r="T90" s="6"/>
-    </row>
-    <row r="91" spans="1:20">
+      <c r="U90" s="6"/>
+    </row>
+    <row r="91" spans="1:21">
       <c r="A91" s="6"/>
       <c r="B91" s="6"/>
       <c r="C91" s="6"/>
@@ -3723,8 +5258,9 @@
       <c r="R91" s="6"/>
       <c r="S91" s="6"/>
       <c r="T91" s="6"/>
-    </row>
-    <row r="92" spans="1:20">
+      <c r="U91" s="6"/>
+    </row>
+    <row r="92" spans="1:21">
       <c r="A92" s="6"/>
       <c r="B92" s="6"/>
       <c r="C92" s="6"/>
@@ -3745,8 +5281,9 @@
       <c r="R92" s="6"/>
       <c r="S92" s="6"/>
       <c r="T92" s="6"/>
-    </row>
-    <row r="93" spans="1:20">
+      <c r="U92" s="6"/>
+    </row>
+    <row r="93" spans="1:21">
       <c r="A93" s="6"/>
       <c r="B93" s="6"/>
       <c r="C93" s="6"/>
@@ -3767,8 +5304,9 @@
       <c r="R93" s="6"/>
       <c r="S93" s="6"/>
       <c r="T93" s="6"/>
-    </row>
-    <row r="94" spans="1:20">
+      <c r="U93" s="6"/>
+    </row>
+    <row r="94" spans="1:21">
       <c r="A94" s="6"/>
       <c r="B94" s="6"/>
       <c r="C94" s="6"/>
@@ -3789,8 +5327,9 @@
       <c r="R94" s="6"/>
       <c r="S94" s="6"/>
       <c r="T94" s="6"/>
-    </row>
-    <row r="95" spans="1:20">
+      <c r="U94" s="6"/>
+    </row>
+    <row r="95" spans="1:21">
       <c r="A95" s="6"/>
       <c r="B95" s="6"/>
       <c r="C95" s="6"/>
@@ -3811,8 +5350,9 @@
       <c r="R95" s="6"/>
       <c r="S95" s="6"/>
       <c r="T95" s="6"/>
-    </row>
-    <row r="96" spans="1:20">
+      <c r="U95" s="6"/>
+    </row>
+    <row r="96" spans="1:21">
       <c r="A96" s="6"/>
       <c r="B96" s="6"/>
       <c r="C96" s="6"/>
@@ -3833,8 +5373,9 @@
       <c r="R96" s="6"/>
       <c r="S96" s="6"/>
       <c r="T96" s="6"/>
-    </row>
-    <row r="97" spans="1:20">
+      <c r="U96" s="6"/>
+    </row>
+    <row r="97" spans="1:21">
       <c r="A97" s="6"/>
       <c r="B97" s="6"/>
       <c r="C97" s="6"/>
@@ -3855,8 +5396,9 @@
       <c r="R97" s="6"/>
       <c r="S97" s="6"/>
       <c r="T97" s="6"/>
-    </row>
-    <row r="98" spans="1:20">
+      <c r="U97" s="6"/>
+    </row>
+    <row r="98" spans="1:21">
       <c r="A98" s="6"/>
       <c r="B98" s="6"/>
       <c r="C98" s="6"/>
@@ -3877,8 +5419,9 @@
       <c r="R98" s="6"/>
       <c r="S98" s="6"/>
       <c r="T98" s="6"/>
-    </row>
-    <row r="99" spans="1:20">
+      <c r="U98" s="6"/>
+    </row>
+    <row r="99" spans="1:21">
       <c r="A99" s="6"/>
       <c r="B99" s="6"/>
       <c r="C99" s="6"/>
@@ -3899,8 +5442,9 @@
       <c r="R99" s="6"/>
       <c r="S99" s="6"/>
       <c r="T99" s="6"/>
-    </row>
-    <row r="100" spans="1:20">
+      <c r="U99" s="6"/>
+    </row>
+    <row r="100" spans="1:21">
       <c r="A100" s="6"/>
       <c r="B100" s="6"/>
       <c r="C100" s="6"/>
@@ -3921,8 +5465,9 @@
       <c r="R100" s="6"/>
       <c r="S100" s="6"/>
       <c r="T100" s="6"/>
-    </row>
-    <row r="101" spans="1:20">
+      <c r="U100" s="6"/>
+    </row>
+    <row r="101" spans="1:21">
       <c r="A101" s="6"/>
       <c r="B101" s="6"/>
       <c r="C101" s="6"/>
@@ -3943,8 +5488,9 @@
       <c r="R101" s="6"/>
       <c r="S101" s="6"/>
       <c r="T101" s="6"/>
-    </row>
-    <row r="102" spans="1:20">
+      <c r="U101" s="6"/>
+    </row>
+    <row r="102" spans="1:21">
       <c r="A102" s="6"/>
       <c r="B102" s="6"/>
       <c r="C102" s="6"/>
@@ -3965,8 +5511,9 @@
       <c r="R102" s="6"/>
       <c r="S102" s="6"/>
       <c r="T102" s="6"/>
-    </row>
-    <row r="103" spans="1:20">
+      <c r="U102" s="6"/>
+    </row>
+    <row r="103" spans="1:21">
       <c r="A103" s="6"/>
       <c r="B103" s="6"/>
       <c r="C103" s="6"/>
@@ -3987,8 +5534,9 @@
       <c r="R103" s="6"/>
       <c r="S103" s="6"/>
       <c r="T103" s="6"/>
-    </row>
-    <row r="104" spans="1:20">
+      <c r="U103" s="6"/>
+    </row>
+    <row r="104" spans="1:21">
       <c r="A104" s="6"/>
       <c r="B104" s="6"/>
       <c r="C104" s="6"/>
@@ -4009,8 +5557,9 @@
       <c r="R104" s="6"/>
       <c r="S104" s="6"/>
       <c r="T104" s="6"/>
-    </row>
-    <row r="105" spans="1:20">
+      <c r="U104" s="6"/>
+    </row>
+    <row r="105" spans="1:21">
       <c r="A105" s="6"/>
       <c r="B105" s="6"/>
       <c r="C105" s="6"/>
@@ -4031,8 +5580,9 @@
       <c r="R105" s="6"/>
       <c r="S105" s="6"/>
       <c r="T105" s="6"/>
-    </row>
-    <row r="106" spans="1:20">
+      <c r="U105" s="6"/>
+    </row>
+    <row r="106" spans="1:21">
       <c r="A106" s="6"/>
       <c r="B106" s="6"/>
       <c r="C106" s="6"/>
@@ -4053,8 +5603,9 @@
       <c r="R106" s="6"/>
       <c r="S106" s="6"/>
       <c r="T106" s="6"/>
-    </row>
-    <row r="107" spans="1:20">
+      <c r="U106" s="6"/>
+    </row>
+    <row r="107" spans="1:21">
       <c r="A107" s="6"/>
       <c r="B107" s="6"/>
       <c r="C107" s="6"/>
@@ -4075,8 +5626,9 @@
       <c r="R107" s="6"/>
       <c r="S107" s="6"/>
       <c r="T107" s="6"/>
-    </row>
-    <row r="108" spans="1:20">
+      <c r="U107" s="6"/>
+    </row>
+    <row r="108" spans="1:21">
       <c r="A108" s="6"/>
       <c r="B108" s="6"/>
       <c r="C108" s="6"/>
@@ -4097,8 +5649,9 @@
       <c r="R108" s="6"/>
       <c r="S108" s="6"/>
       <c r="T108" s="6"/>
-    </row>
-    <row r="109" spans="1:20">
+      <c r="U108" s="6"/>
+    </row>
+    <row r="109" spans="1:21">
       <c r="A109" s="6"/>
       <c r="B109" s="6"/>
       <c r="C109" s="6"/>
@@ -4119,8 +5672,9 @@
       <c r="R109" s="6"/>
       <c r="S109" s="6"/>
       <c r="T109" s="6"/>
-    </row>
-    <row r="110" spans="1:20">
+      <c r="U109" s="6"/>
+    </row>
+    <row r="110" spans="1:21">
       <c r="A110" s="6"/>
       <c r="B110" s="6"/>
       <c r="C110" s="6"/>
@@ -4141,8 +5695,9 @@
       <c r="R110" s="6"/>
       <c r="S110" s="6"/>
       <c r="T110" s="6"/>
-    </row>
-    <row r="111" spans="1:20">
+      <c r="U110" s="6"/>
+    </row>
+    <row r="111" spans="1:21">
       <c r="A111" s="6"/>
       <c r="B111" s="6"/>
       <c r="C111" s="6"/>
@@ -4163,8 +5718,9 @@
       <c r="R111" s="6"/>
       <c r="S111" s="6"/>
       <c r="T111" s="6"/>
-    </row>
-    <row r="112" spans="1:20">
+      <c r="U111" s="6"/>
+    </row>
+    <row r="112" spans="1:21">
       <c r="A112" s="6"/>
       <c r="B112" s="6"/>
       <c r="C112" s="6"/>
@@ -4185,8 +5741,9 @@
       <c r="R112" s="6"/>
       <c r="S112" s="6"/>
       <c r="T112" s="6"/>
-    </row>
-    <row r="113" spans="1:20">
+      <c r="U112" s="6"/>
+    </row>
+    <row r="113" spans="1:21">
       <c r="A113" s="6"/>
       <c r="B113" s="6"/>
       <c r="C113" s="6"/>
@@ -4207,8 +5764,9 @@
       <c r="R113" s="6"/>
       <c r="S113" s="6"/>
       <c r="T113" s="6"/>
-    </row>
-    <row r="114" spans="1:20">
+      <c r="U113" s="6"/>
+    </row>
+    <row r="114" spans="1:21">
       <c r="A114" s="6"/>
       <c r="B114" s="6"/>
       <c r="C114" s="6"/>
@@ -4229,8 +5787,9 @@
       <c r="R114" s="6"/>
       <c r="S114" s="6"/>
       <c r="T114" s="6"/>
-    </row>
-    <row r="115" spans="1:20">
+      <c r="U114" s="6"/>
+    </row>
+    <row r="115" spans="1:21">
       <c r="A115" s="6"/>
       <c r="B115" s="6"/>
       <c r="C115" s="6"/>
@@ -4251,8 +5810,9 @@
       <c r="R115" s="6"/>
       <c r="S115" s="6"/>
       <c r="T115" s="6"/>
-    </row>
-    <row r="116" spans="1:20">
+      <c r="U115" s="6"/>
+    </row>
+    <row r="116" spans="1:21">
       <c r="A116" s="6"/>
       <c r="B116" s="6"/>
       <c r="C116" s="6"/>
@@ -4273,8 +5833,9 @@
       <c r="R116" s="6"/>
       <c r="S116" s="6"/>
       <c r="T116" s="6"/>
-    </row>
-    <row r="117" spans="1:20">
+      <c r="U116" s="6"/>
+    </row>
+    <row r="117" spans="1:21">
       <c r="A117" s="6"/>
       <c r="B117" s="6"/>
       <c r="C117" s="6"/>
@@ -4295,8 +5856,9 @@
       <c r="R117" s="6"/>
       <c r="S117" s="6"/>
       <c r="T117" s="6"/>
-    </row>
-    <row r="118" spans="1:20">
+      <c r="U117" s="6"/>
+    </row>
+    <row r="118" spans="1:21">
       <c r="A118" s="6"/>
       <c r="B118" s="6"/>
       <c r="C118" s="6"/>
@@ -4317,8 +5879,9 @@
       <c r="R118" s="6"/>
       <c r="S118" s="6"/>
       <c r="T118" s="6"/>
-    </row>
-    <row r="119" spans="1:20">
+      <c r="U118" s="6"/>
+    </row>
+    <row r="119" spans="1:21">
       <c r="A119" s="6"/>
       <c r="B119" s="6"/>
       <c r="C119" s="6"/>
@@ -4339,8 +5902,9 @@
       <c r="R119" s="6"/>
       <c r="S119" s="6"/>
       <c r="T119" s="6"/>
-    </row>
-    <row r="120" spans="1:20">
+      <c r="U119" s="6"/>
+    </row>
+    <row r="120" spans="1:21">
       <c r="A120" s="6"/>
       <c r="B120" s="6"/>
       <c r="C120" s="6"/>
@@ -4361,8 +5925,9 @@
       <c r="R120" s="6"/>
       <c r="S120" s="6"/>
       <c r="T120" s="6"/>
-    </row>
-    <row r="121" spans="1:20">
+      <c r="U120" s="6"/>
+    </row>
+    <row r="121" spans="1:21">
       <c r="A121" s="6"/>
       <c r="B121" s="6"/>
       <c r="C121" s="6"/>
@@ -4383,8 +5948,9 @@
       <c r="R121" s="6"/>
       <c r="S121" s="6"/>
       <c r="T121" s="6"/>
-    </row>
-    <row r="122" spans="1:20">
+      <c r="U121" s="6"/>
+    </row>
+    <row r="122" spans="1:21">
       <c r="A122" s="6"/>
       <c r="B122" s="6"/>
       <c r="C122" s="6"/>
@@ -4405,8 +5971,9 @@
       <c r="R122" s="6"/>
       <c r="S122" s="6"/>
       <c r="T122" s="6"/>
-    </row>
-    <row r="123" spans="1:20">
+      <c r="U122" s="6"/>
+    </row>
+    <row r="123" spans="1:21">
       <c r="A123" s="6"/>
       <c r="B123" s="6"/>
       <c r="C123" s="6"/>
@@ -4427,8 +5994,9 @@
       <c r="R123" s="6"/>
       <c r="S123" s="6"/>
       <c r="T123" s="6"/>
-    </row>
-    <row r="124" spans="1:20">
+      <c r="U123" s="6"/>
+    </row>
+    <row r="124" spans="1:21">
       <c r="A124" s="6"/>
       <c r="B124" s="6"/>
       <c r="C124" s="6"/>
@@ -4449,8 +6017,9 @@
       <c r="R124" s="6"/>
       <c r="S124" s="6"/>
       <c r="T124" s="6"/>
-    </row>
-    <row r="125" spans="1:20">
+      <c r="U124" s="6"/>
+    </row>
+    <row r="125" spans="1:21">
       <c r="A125" s="6"/>
       <c r="B125" s="6"/>
       <c r="C125" s="6"/>
@@ -4471,8 +6040,9 @@
       <c r="R125" s="6"/>
       <c r="S125" s="6"/>
       <c r="T125" s="6"/>
-    </row>
-    <row r="126" spans="1:20">
+      <c r="U125" s="6"/>
+    </row>
+    <row r="126" spans="1:21">
       <c r="A126" s="6"/>
       <c r="B126" s="6"/>
       <c r="C126" s="6"/>
@@ -4493,8 +6063,9 @@
       <c r="R126" s="6"/>
       <c r="S126" s="6"/>
       <c r="T126" s="6"/>
-    </row>
-    <row r="127" spans="1:20">
+      <c r="U126" s="6"/>
+    </row>
+    <row r="127" spans="1:21">
       <c r="A127" s="6"/>
       <c r="B127" s="6"/>
       <c r="C127" s="6"/>
@@ -4515,8 +6086,9 @@
       <c r="R127" s="6"/>
       <c r="S127" s="6"/>
       <c r="T127" s="6"/>
-    </row>
-    <row r="128" spans="1:20">
+      <c r="U127" s="6"/>
+    </row>
+    <row r="128" spans="1:21">
       <c r="A128" s="6"/>
       <c r="B128" s="6"/>
       <c r="C128" s="6"/>
@@ -4537,8 +6109,9 @@
       <c r="R128" s="6"/>
       <c r="S128" s="6"/>
       <c r="T128" s="6"/>
-    </row>
-    <row r="129" spans="1:20">
+      <c r="U128" s="6"/>
+    </row>
+    <row r="129" spans="1:21">
       <c r="A129" s="6"/>
       <c r="B129" s="6"/>
       <c r="C129" s="6"/>
@@ -4559,8 +6132,9 @@
       <c r="R129" s="6"/>
       <c r="S129" s="6"/>
       <c r="T129" s="6"/>
-    </row>
-    <row r="130" spans="1:20">
+      <c r="U129" s="6"/>
+    </row>
+    <row r="130" spans="1:21">
       <c r="A130" s="6"/>
       <c r="B130" s="6"/>
       <c r="C130" s="6"/>
@@ -4581,8 +6155,9 @@
       <c r="R130" s="6"/>
       <c r="S130" s="6"/>
       <c r="T130" s="6"/>
-    </row>
-    <row r="131" spans="1:20">
+      <c r="U130" s="6"/>
+    </row>
+    <row r="131" spans="1:21">
       <c r="A131" s="6"/>
       <c r="B131" s="6"/>
       <c r="C131" s="6"/>
@@ -4603,8 +6178,9 @@
       <c r="R131" s="6"/>
       <c r="S131" s="6"/>
       <c r="T131" s="6"/>
-    </row>
-    <row r="132" spans="1:20">
+      <c r="U131" s="6"/>
+    </row>
+    <row r="132" spans="1:21">
       <c r="A132" s="6"/>
       <c r="B132" s="6"/>
       <c r="C132" s="6"/>
@@ -4625,8 +6201,9 @@
       <c r="R132" s="6"/>
       <c r="S132" s="6"/>
       <c r="T132" s="6"/>
-    </row>
-    <row r="133" spans="1:20">
+      <c r="U132" s="6"/>
+    </row>
+    <row r="133" spans="1:21">
       <c r="A133" s="6"/>
       <c r="B133" s="6"/>
       <c r="C133" s="6"/>
@@ -4647,8 +6224,9 @@
       <c r="R133" s="6"/>
       <c r="S133" s="6"/>
       <c r="T133" s="6"/>
-    </row>
-    <row r="134" spans="1:20">
+      <c r="U133" s="6"/>
+    </row>
+    <row r="134" spans="1:21">
       <c r="A134" s="6"/>
       <c r="B134" s="6"/>
       <c r="C134" s="6"/>
@@ -4669,8 +6247,9 @@
       <c r="R134" s="6"/>
       <c r="S134" s="6"/>
       <c r="T134" s="6"/>
-    </row>
-    <row r="135" spans="1:20">
+      <c r="U134" s="6"/>
+    </row>
+    <row r="135" spans="1:21">
       <c r="A135" s="6"/>
       <c r="B135" s="6"/>
       <c r="C135" s="6"/>
@@ -4691,8 +6270,9 @@
       <c r="R135" s="6"/>
       <c r="S135" s="6"/>
       <c r="T135" s="6"/>
-    </row>
-    <row r="136" spans="1:20">
+      <c r="U135" s="6"/>
+    </row>
+    <row r="136" spans="1:21">
       <c r="A136" s="6"/>
       <c r="B136" s="6"/>
       <c r="C136" s="6"/>
@@ -4713,8 +6293,9 @@
       <c r="R136" s="6"/>
       <c r="S136" s="6"/>
       <c r="T136" s="6"/>
-    </row>
-    <row r="137" spans="1:20">
+      <c r="U136" s="6"/>
+    </row>
+    <row r="137" spans="1:21">
       <c r="A137" s="6"/>
       <c r="B137" s="6"/>
       <c r="C137" s="6"/>
@@ -4735,8 +6316,9 @@
       <c r="R137" s="6"/>
       <c r="S137" s="6"/>
       <c r="T137" s="6"/>
-    </row>
-    <row r="138" spans="1:20">
+      <c r="U137" s="6"/>
+    </row>
+    <row r="138" spans="1:21">
       <c r="A138" s="6"/>
       <c r="B138" s="6"/>
       <c r="C138" s="6"/>
@@ -4757,8 +6339,9 @@
       <c r="R138" s="6"/>
       <c r="S138" s="6"/>
       <c r="T138" s="6"/>
-    </row>
-    <row r="139" spans="1:20">
+      <c r="U138" s="6"/>
+    </row>
+    <row r="139" spans="1:21">
       <c r="A139" s="6"/>
       <c r="B139" s="6"/>
       <c r="C139" s="6"/>
@@ -4779,8 +6362,9 @@
       <c r="R139" s="6"/>
       <c r="S139" s="6"/>
       <c r="T139" s="6"/>
-    </row>
-    <row r="140" spans="1:20">
+      <c r="U139" s="6"/>
+    </row>
+    <row r="140" spans="1:21">
       <c r="A140" s="6"/>
       <c r="B140" s="6"/>
       <c r="C140" s="6"/>
@@ -4801,8 +6385,9 @@
       <c r="R140" s="6"/>
       <c r="S140" s="6"/>
       <c r="T140" s="6"/>
-    </row>
-    <row r="141" spans="1:20">
+      <c r="U140" s="6"/>
+    </row>
+    <row r="141" spans="1:21">
       <c r="A141" s="6"/>
       <c r="B141" s="6"/>
       <c r="C141" s="6"/>
@@ -4823,8 +6408,9 @@
       <c r="R141" s="6"/>
       <c r="S141" s="6"/>
       <c r="T141" s="6"/>
-    </row>
-    <row r="142" spans="1:20">
+      <c r="U141" s="6"/>
+    </row>
+    <row r="142" spans="1:21">
       <c r="A142" s="6"/>
       <c r="B142" s="6"/>
       <c r="C142" s="6"/>
@@ -4845,8 +6431,9 @@
       <c r="R142" s="6"/>
       <c r="S142" s="6"/>
       <c r="T142" s="6"/>
-    </row>
-    <row r="143" spans="1:20">
+      <c r="U142" s="6"/>
+    </row>
+    <row r="143" spans="1:21">
       <c r="A143" s="6"/>
       <c r="B143" s="6"/>
       <c r="C143" s="6"/>
@@ -4867,8 +6454,9 @@
       <c r="R143" s="6"/>
       <c r="S143" s="6"/>
       <c r="T143" s="6"/>
-    </row>
-    <row r="144" spans="1:20">
+      <c r="U143" s="6"/>
+    </row>
+    <row r="144" spans="1:21">
       <c r="A144" s="6"/>
       <c r="B144" s="6"/>
       <c r="C144" s="6"/>
@@ -4889,8 +6477,9 @@
       <c r="R144" s="6"/>
       <c r="S144" s="6"/>
       <c r="T144" s="6"/>
-    </row>
-    <row r="145" spans="1:20">
+      <c r="U144" s="6"/>
+    </row>
+    <row r="145" spans="1:21">
       <c r="A145" s="6"/>
       <c r="B145" s="6"/>
       <c r="C145" s="6"/>
@@ -4911,8 +6500,9 @@
       <c r="R145" s="6"/>
       <c r="S145" s="6"/>
       <c r="T145" s="6"/>
-    </row>
-    <row r="146" spans="1:20">
+      <c r="U145" s="6"/>
+    </row>
+    <row r="146" spans="1:21">
       <c r="A146" s="6"/>
       <c r="B146" s="6"/>
       <c r="C146" s="6"/>
@@ -4933,8 +6523,9 @@
       <c r="R146" s="6"/>
       <c r="S146" s="6"/>
       <c r="T146" s="6"/>
-    </row>
-    <row r="147" spans="1:20">
+      <c r="U146" s="6"/>
+    </row>
+    <row r="147" spans="1:21">
       <c r="A147" s="6"/>
       <c r="B147" s="6"/>
       <c r="C147" s="6"/>
@@ -4955,8 +6546,9 @@
       <c r="R147" s="6"/>
       <c r="S147" s="6"/>
       <c r="T147" s="6"/>
-    </row>
-    <row r="148" spans="1:20">
+      <c r="U147" s="6"/>
+    </row>
+    <row r="148" spans="1:21">
       <c r="A148" s="6"/>
       <c r="B148" s="6"/>
       <c r="C148" s="6"/>
@@ -4977,8 +6569,9 @@
       <c r="R148" s="6"/>
       <c r="S148" s="6"/>
       <c r="T148" s="6"/>
-    </row>
-    <row r="149" spans="1:20">
+      <c r="U148" s="6"/>
+    </row>
+    <row r="149" spans="1:21">
       <c r="A149" s="6"/>
       <c r="B149" s="6"/>
       <c r="C149" s="6"/>
@@ -4999,8 +6592,9 @@
       <c r="R149" s="6"/>
       <c r="S149" s="6"/>
       <c r="T149" s="6"/>
-    </row>
-    <row r="150" spans="1:20">
+      <c r="U149" s="6"/>
+    </row>
+    <row r="150" spans="1:21">
       <c r="A150" s="6"/>
       <c r="B150" s="6"/>
       <c r="C150" s="6"/>
@@ -5021,8 +6615,9 @@
       <c r="R150" s="6"/>
       <c r="S150" s="6"/>
       <c r="T150" s="6"/>
-    </row>
-    <row r="151" spans="1:20">
+      <c r="U150" s="6"/>
+    </row>
+    <row r="151" spans="1:21">
       <c r="A151" s="6"/>
       <c r="B151" s="6"/>
       <c r="C151" s="6"/>
@@ -5043,8 +6638,9 @@
       <c r="R151" s="6"/>
       <c r="S151" s="6"/>
       <c r="T151" s="6"/>
-    </row>
-    <row r="152" spans="1:20">
+      <c r="U151" s="6"/>
+    </row>
+    <row r="152" spans="1:21">
       <c r="A152" s="6"/>
       <c r="B152" s="6"/>
       <c r="C152" s="6"/>
@@ -5065,8 +6661,9 @@
       <c r="R152" s="6"/>
       <c r="S152" s="6"/>
       <c r="T152" s="6"/>
-    </row>
-    <row r="153" spans="1:20">
+      <c r="U152" s="6"/>
+    </row>
+    <row r="153" spans="1:21">
       <c r="A153" s="6"/>
       <c r="B153" s="6"/>
       <c r="C153" s="6"/>
@@ -5087,8 +6684,9 @@
       <c r="R153" s="6"/>
       <c r="S153" s="6"/>
       <c r="T153" s="6"/>
-    </row>
-    <row r="154" spans="1:20">
+      <c r="U153" s="6"/>
+    </row>
+    <row r="154" spans="1:21">
       <c r="A154" s="6"/>
       <c r="B154" s="6"/>
       <c r="C154" s="6"/>
@@ -5109,8 +6707,9 @@
       <c r="R154" s="6"/>
       <c r="S154" s="6"/>
       <c r="T154" s="6"/>
-    </row>
-    <row r="155" spans="1:20">
+      <c r="U154" s="6"/>
+    </row>
+    <row r="155" spans="1:21">
       <c r="A155" s="6"/>
       <c r="B155" s="6"/>
       <c r="C155" s="6"/>
@@ -5131,8 +6730,9 @@
       <c r="R155" s="6"/>
       <c r="S155" s="6"/>
       <c r="T155" s="6"/>
-    </row>
-    <row r="156" spans="1:20">
+      <c r="U155" s="6"/>
+    </row>
+    <row r="156" spans="1:21">
       <c r="A156" s="6"/>
       <c r="B156" s="6"/>
       <c r="C156" s="6"/>
@@ -5153,8 +6753,9 @@
       <c r="R156" s="6"/>
       <c r="S156" s="6"/>
       <c r="T156" s="6"/>
-    </row>
-    <row r="157" spans="1:20">
+      <c r="U156" s="6"/>
+    </row>
+    <row r="157" spans="1:21">
       <c r="A157" s="6"/>
       <c r="B157" s="6"/>
       <c r="C157" s="6"/>
@@ -5175,8 +6776,9 @@
       <c r="R157" s="6"/>
       <c r="S157" s="6"/>
       <c r="T157" s="6"/>
-    </row>
-    <row r="158" spans="1:20">
+      <c r="U157" s="6"/>
+    </row>
+    <row r="158" spans="1:21">
       <c r="A158" s="6"/>
       <c r="B158" s="6"/>
       <c r="C158" s="6"/>
@@ -5197,8 +6799,9 @@
       <c r="R158" s="6"/>
       <c r="S158" s="6"/>
       <c r="T158" s="6"/>
-    </row>
-    <row r="159" spans="1:20">
+      <c r="U158" s="6"/>
+    </row>
+    <row r="159" spans="1:21">
       <c r="A159" s="6"/>
       <c r="B159" s="6"/>
       <c r="C159" s="6"/>
@@ -5219,8 +6822,9 @@
       <c r="R159" s="6"/>
       <c r="S159" s="6"/>
       <c r="T159" s="6"/>
-    </row>
-    <row r="160" spans="1:20">
+      <c r="U159" s="6"/>
+    </row>
+    <row r="160" spans="1:21">
       <c r="A160" s="6"/>
       <c r="B160" s="6"/>
       <c r="C160" s="6"/>
@@ -5241,8 +6845,9 @@
       <c r="R160" s="6"/>
       <c r="S160" s="6"/>
       <c r="T160" s="6"/>
-    </row>
-    <row r="161" spans="1:20">
+      <c r="U160" s="6"/>
+    </row>
+    <row r="161" spans="1:21">
       <c r="A161" s="6"/>
       <c r="B161" s="6"/>
       <c r="C161" s="6"/>
@@ -5263,8 +6868,9 @@
       <c r="R161" s="6"/>
       <c r="S161" s="6"/>
       <c r="T161" s="6"/>
-    </row>
-    <row r="162" spans="1:20">
+      <c r="U161" s="6"/>
+    </row>
+    <row r="162" spans="1:21">
       <c r="A162" s="6"/>
       <c r="B162" s="6"/>
       <c r="C162" s="6"/>
@@ -5285,8 +6891,9 @@
       <c r="R162" s="6"/>
       <c r="S162" s="6"/>
       <c r="T162" s="6"/>
-    </row>
-    <row r="163" spans="1:20">
+      <c r="U162" s="6"/>
+    </row>
+    <row r="163" spans="1:21">
       <c r="A163" s="6"/>
       <c r="B163" s="6"/>
       <c r="C163" s="6"/>
@@ -5307,8 +6914,9 @@
       <c r="R163" s="6"/>
       <c r="S163" s="6"/>
       <c r="T163" s="6"/>
-    </row>
-    <row r="164" spans="1:20">
+      <c r="U163" s="6"/>
+    </row>
+    <row r="164" spans="1:21">
       <c r="A164" s="6"/>
       <c r="B164" s="6"/>
       <c r="C164" s="6"/>
@@ -5329,8 +6937,9 @@
       <c r="R164" s="6"/>
       <c r="S164" s="6"/>
       <c r="T164" s="6"/>
-    </row>
-    <row r="165" spans="1:20">
+      <c r="U164" s="6"/>
+    </row>
+    <row r="165" spans="1:21">
       <c r="A165" s="6"/>
       <c r="B165" s="6"/>
       <c r="C165" s="6"/>
@@ -5351,8 +6960,9 @@
       <c r="R165" s="6"/>
       <c r="S165" s="6"/>
       <c r="T165" s="6"/>
-    </row>
-    <row r="166" spans="1:20">
+      <c r="U165" s="6"/>
+    </row>
+    <row r="166" spans="1:21">
       <c r="A166" s="6"/>
       <c r="B166" s="6"/>
       <c r="C166" s="6"/>
@@ -5373,8 +6983,9 @@
       <c r="R166" s="6"/>
       <c r="S166" s="6"/>
       <c r="T166" s="6"/>
-    </row>
-    <row r="167" spans="1:20">
+      <c r="U166" s="6"/>
+    </row>
+    <row r="167" spans="1:21">
       <c r="A167" s="6"/>
       <c r="B167" s="6"/>
       <c r="C167" s="6"/>
@@ -5395,8 +7006,9 @@
       <c r="R167" s="6"/>
       <c r="S167" s="6"/>
       <c r="T167" s="6"/>
-    </row>
-    <row r="168" spans="1:20">
+      <c r="U167" s="6"/>
+    </row>
+    <row r="168" spans="1:21">
       <c r="A168" s="6"/>
       <c r="B168" s="6"/>
       <c r="C168" s="6"/>
@@ -5417,8 +7029,9 @@
       <c r="R168" s="6"/>
       <c r="S168" s="6"/>
       <c r="T168" s="6"/>
-    </row>
-    <row r="169" spans="1:20">
+      <c r="U168" s="6"/>
+    </row>
+    <row r="169" spans="1:21">
       <c r="A169" s="6"/>
       <c r="B169" s="6"/>
       <c r="C169" s="6"/>
@@ -5439,8 +7052,9 @@
       <c r="R169" s="6"/>
       <c r="S169" s="6"/>
       <c r="T169" s="6"/>
-    </row>
-    <row r="170" spans="1:20">
+      <c r="U169" s="6"/>
+    </row>
+    <row r="170" spans="1:21">
       <c r="A170" s="6"/>
       <c r="B170" s="6"/>
       <c r="C170" s="6"/>
@@ -5461,8 +7075,9 @@
       <c r="R170" s="6"/>
       <c r="S170" s="6"/>
       <c r="T170" s="6"/>
-    </row>
-    <row r="171" spans="1:20">
+      <c r="U170" s="6"/>
+    </row>
+    <row r="171" spans="1:21">
       <c r="A171" s="6"/>
       <c r="B171" s="6"/>
       <c r="C171" s="6"/>
@@ -5483,8 +7098,9 @@
       <c r="R171" s="6"/>
       <c r="S171" s="6"/>
       <c r="T171" s="6"/>
-    </row>
-    <row r="172" spans="1:20">
+      <c r="U171" s="6"/>
+    </row>
+    <row r="172" spans="1:21">
       <c r="A172" s="6"/>
       <c r="B172" s="6"/>
       <c r="C172" s="6"/>
@@ -5505,8 +7121,9 @@
       <c r="R172" s="6"/>
       <c r="S172" s="6"/>
       <c r="T172" s="6"/>
-    </row>
-    <row r="173" spans="1:20">
+      <c r="U172" s="6"/>
+    </row>
+    <row r="173" spans="1:21">
       <c r="A173" s="6"/>
       <c r="B173" s="6"/>
       <c r="C173" s="6"/>
@@ -5527,8 +7144,9 @@
       <c r="R173" s="6"/>
       <c r="S173" s="6"/>
       <c r="T173" s="6"/>
-    </row>
-    <row r="174" spans="1:20">
+      <c r="U173" s="6"/>
+    </row>
+    <row r="174" spans="1:21">
       <c r="A174" s="6"/>
       <c r="B174" s="6"/>
       <c r="C174" s="6"/>
@@ -5549,8 +7167,9 @@
       <c r="R174" s="6"/>
       <c r="S174" s="6"/>
       <c r="T174" s="6"/>
-    </row>
-    <row r="175" spans="1:20">
+      <c r="U174" s="6"/>
+    </row>
+    <row r="175" spans="1:21">
       <c r="A175" s="6"/>
       <c r="B175" s="6"/>
       <c r="C175" s="6"/>
@@ -5571,8 +7190,9 @@
       <c r="R175" s="6"/>
       <c r="S175" s="6"/>
       <c r="T175" s="6"/>
-    </row>
-    <row r="176" spans="1:20">
+      <c r="U175" s="6"/>
+    </row>
+    <row r="176" spans="1:21">
       <c r="A176" s="6"/>
       <c r="B176" s="6"/>
       <c r="C176" s="6"/>
@@ -5593,8 +7213,9 @@
       <c r="R176" s="6"/>
       <c r="S176" s="6"/>
       <c r="T176" s="6"/>
-    </row>
-    <row r="177" spans="1:20">
+      <c r="U176" s="6"/>
+    </row>
+    <row r="177" spans="1:21">
       <c r="A177" s="6"/>
       <c r="B177" s="6"/>
       <c r="C177" s="6"/>
@@ -5615,8 +7236,9 @@
       <c r="R177" s="6"/>
       <c r="S177" s="6"/>
       <c r="T177" s="6"/>
-    </row>
-    <row r="178" spans="1:20">
+      <c r="U177" s="6"/>
+    </row>
+    <row r="178" spans="1:21">
       <c r="A178" s="6"/>
       <c r="B178" s="6"/>
       <c r="C178" s="6"/>
@@ -5637,8 +7259,9 @@
       <c r="R178" s="6"/>
       <c r="S178" s="6"/>
       <c r="T178" s="6"/>
-    </row>
-    <row r="179" spans="1:20">
+      <c r="U178" s="6"/>
+    </row>
+    <row r="179" spans="1:21">
       <c r="A179" s="6"/>
       <c r="B179" s="6"/>
       <c r="C179" s="6"/>
@@ -5659,8 +7282,9 @@
       <c r="R179" s="6"/>
       <c r="S179" s="6"/>
       <c r="T179" s="6"/>
-    </row>
-    <row r="180" spans="1:20">
+      <c r="U179" s="6"/>
+    </row>
+    <row r="180" spans="1:21">
       <c r="A180" s="6"/>
       <c r="B180" s="6"/>
       <c r="C180" s="6"/>
@@ -5681,8 +7305,9 @@
       <c r="R180" s="6"/>
       <c r="S180" s="6"/>
       <c r="T180" s="6"/>
-    </row>
-    <row r="181" spans="1:20">
+      <c r="U180" s="6"/>
+    </row>
+    <row r="181" spans="1:21">
       <c r="A181" s="6"/>
       <c r="B181" s="6"/>
       <c r="C181" s="6"/>
@@ -5703,8 +7328,9 @@
       <c r="R181" s="6"/>
       <c r="S181" s="6"/>
       <c r="T181" s="6"/>
-    </row>
-    <row r="182" spans="1:20">
+      <c r="U181" s="6"/>
+    </row>
+    <row r="182" spans="1:21">
       <c r="A182" s="6"/>
       <c r="B182" s="6"/>
       <c r="C182" s="6"/>
@@ -5725,8 +7351,9 @@
       <c r="R182" s="6"/>
       <c r="S182" s="6"/>
       <c r="T182" s="6"/>
-    </row>
-    <row r="183" spans="1:20">
+      <c r="U182" s="6"/>
+    </row>
+    <row r="183" spans="1:21">
       <c r="A183" s="6"/>
       <c r="B183" s="6"/>
       <c r="C183" s="6"/>
@@ -5747,8 +7374,9 @@
       <c r="R183" s="6"/>
       <c r="S183" s="6"/>
       <c r="T183" s="6"/>
-    </row>
-    <row r="184" spans="1:20">
+      <c r="U183" s="6"/>
+    </row>
+    <row r="184" spans="1:21">
       <c r="A184" s="6"/>
       <c r="B184" s="6"/>
       <c r="C184" s="6"/>
@@ -5769,8 +7397,9 @@
       <c r="R184" s="6"/>
       <c r="S184" s="6"/>
       <c r="T184" s="6"/>
-    </row>
-    <row r="185" spans="1:20">
+      <c r="U184" s="6"/>
+    </row>
+    <row r="185" spans="1:21">
       <c r="A185" s="6"/>
       <c r="B185" s="6"/>
       <c r="C185" s="6"/>
@@ -5791,8 +7420,9 @@
       <c r="R185" s="6"/>
       <c r="S185" s="6"/>
       <c r="T185" s="6"/>
-    </row>
-    <row r="186" spans="1:20">
+      <c r="U185" s="6"/>
+    </row>
+    <row r="186" spans="1:21">
       <c r="A186" s="6"/>
       <c r="B186" s="6"/>
       <c r="C186" s="6"/>
@@ -5813,8 +7443,9 @@
       <c r="R186" s="6"/>
       <c r="S186" s="6"/>
       <c r="T186" s="6"/>
-    </row>
-    <row r="187" spans="1:20">
+      <c r="U186" s="6"/>
+    </row>
+    <row r="187" spans="1:21">
       <c r="A187" s="6"/>
       <c r="B187" s="6"/>
       <c r="C187" s="6"/>
@@ -5835,8 +7466,9 @@
       <c r="R187" s="6"/>
       <c r="S187" s="6"/>
       <c r="T187" s="6"/>
-    </row>
-    <row r="188" spans="1:20">
+      <c r="U187" s="6"/>
+    </row>
+    <row r="188" spans="1:21">
       <c r="A188" s="6"/>
       <c r="B188" s="6"/>
       <c r="C188" s="6"/>
@@ -5857,8 +7489,9 @@
       <c r="R188" s="6"/>
       <c r="S188" s="6"/>
       <c r="T188" s="6"/>
-    </row>
-    <row r="189" spans="1:20">
+      <c r="U188" s="6"/>
+    </row>
+    <row r="189" spans="1:21">
       <c r="A189" s="6"/>
       <c r="B189" s="6"/>
       <c r="C189" s="6"/>
@@ -5879,8 +7512,9 @@
       <c r="R189" s="6"/>
       <c r="S189" s="6"/>
       <c r="T189" s="6"/>
-    </row>
-    <row r="190" spans="1:20">
+      <c r="U189" s="6"/>
+    </row>
+    <row r="190" spans="1:21">
       <c r="A190" s="6"/>
       <c r="B190" s="6"/>
       <c r="C190" s="6"/>
@@ -5901,8 +7535,9 @@
       <c r="R190" s="6"/>
       <c r="S190" s="6"/>
       <c r="T190" s="6"/>
-    </row>
-    <row r="191" spans="1:20">
+      <c r="U190" s="6"/>
+    </row>
+    <row r="191" spans="1:21">
       <c r="A191" s="6"/>
       <c r="B191" s="6"/>
       <c r="C191" s="6"/>
@@ -5923,8 +7558,9 @@
       <c r="R191" s="6"/>
       <c r="S191" s="6"/>
       <c r="T191" s="6"/>
-    </row>
-    <row r="192" spans="1:20">
+      <c r="U191" s="6"/>
+    </row>
+    <row r="192" spans="1:21">
       <c r="A192" s="6"/>
       <c r="B192" s="6"/>
       <c r="C192" s="6"/>
@@ -5945,8 +7581,9 @@
       <c r="R192" s="6"/>
       <c r="S192" s="6"/>
       <c r="T192" s="6"/>
-    </row>
-    <row r="193" spans="1:20">
+      <c r="U192" s="6"/>
+    </row>
+    <row r="193" spans="1:21">
       <c r="A193" s="6"/>
       <c r="B193" s="6"/>
       <c r="C193" s="6"/>
@@ -5967,8 +7604,9 @@
       <c r="R193" s="6"/>
       <c r="S193" s="6"/>
       <c r="T193" s="6"/>
-    </row>
-    <row r="194" spans="1:20">
+      <c r="U193" s="6"/>
+    </row>
+    <row r="194" spans="1:21">
       <c r="A194" s="6"/>
       <c r="B194" s="6"/>
       <c r="C194" s="6"/>
@@ -5989,8 +7627,9 @@
       <c r="R194" s="6"/>
       <c r="S194" s="6"/>
       <c r="T194" s="6"/>
-    </row>
-    <row r="195" spans="1:20">
+      <c r="U194" s="6"/>
+    </row>
+    <row r="195" spans="1:21">
       <c r="A195" s="6"/>
       <c r="B195" s="6"/>
       <c r="C195" s="6"/>
@@ -6011,8 +7650,9 @@
       <c r="R195" s="6"/>
       <c r="S195" s="6"/>
       <c r="T195" s="6"/>
-    </row>
-    <row r="196" spans="1:20">
+      <c r="U195" s="6"/>
+    </row>
+    <row r="196" spans="1:21">
       <c r="A196" s="6"/>
       <c r="B196" s="6"/>
       <c r="C196" s="6"/>
@@ -6033,8 +7673,9 @@
       <c r="R196" s="6"/>
       <c r="S196" s="6"/>
       <c r="T196" s="6"/>
-    </row>
-    <row r="197" spans="1:20">
+      <c r="U196" s="6"/>
+    </row>
+    <row r="197" spans="1:21">
       <c r="A197" s="6"/>
       <c r="B197" s="6"/>
       <c r="C197" s="6"/>
@@ -6055,8 +7696,9 @@
       <c r="R197" s="6"/>
       <c r="S197" s="6"/>
       <c r="T197" s="6"/>
-    </row>
-    <row r="198" spans="1:20">
+      <c r="U197" s="6"/>
+    </row>
+    <row r="198" spans="1:21">
       <c r="A198" s="6"/>
       <c r="B198" s="6"/>
       <c r="C198" s="6"/>
@@ -6077,8 +7719,9 @@
       <c r="R198" s="6"/>
       <c r="S198" s="6"/>
       <c r="T198" s="6"/>
-    </row>
-    <row r="199" spans="1:20">
+      <c r="U198" s="6"/>
+    </row>
+    <row r="199" spans="1:21">
       <c r="A199" s="6"/>
       <c r="B199" s="6"/>
       <c r="C199" s="6"/>
@@ -6099,8 +7742,9 @@
       <c r="R199" s="6"/>
       <c r="S199" s="6"/>
       <c r="T199" s="6"/>
-    </row>
-    <row r="200" spans="1:20">
+      <c r="U199" s="6"/>
+    </row>
+    <row r="200" spans="1:21">
       <c r="A200" s="6"/>
       <c r="B200" s="6"/>
       <c r="C200" s="6"/>
@@ -6121,8 +7765,9 @@
       <c r="R200" s="6"/>
       <c r="S200" s="6"/>
       <c r="T200" s="6"/>
-    </row>
-    <row r="201" spans="1:20">
+      <c r="U200" s="6"/>
+    </row>
+    <row r="201" spans="1:21">
       <c r="A201" s="6"/>
       <c r="B201" s="6"/>
       <c r="C201" s="6"/>
@@ -6143,8 +7788,9 @@
       <c r="R201" s="6"/>
       <c r="S201" s="6"/>
       <c r="T201" s="6"/>
-    </row>
-    <row r="202" spans="1:20">
+      <c r="U201" s="6"/>
+    </row>
+    <row r="202" spans="1:21">
       <c r="A202" s="6"/>
       <c r="B202" s="6"/>
       <c r="C202" s="6"/>
@@ -6165,8 +7811,9 @@
       <c r="R202" s="6"/>
       <c r="S202" s="6"/>
       <c r="T202" s="6"/>
-    </row>
-    <row r="203" spans="1:20">
+      <c r="U202" s="6"/>
+    </row>
+    <row r="203" spans="1:21">
       <c r="A203" s="6"/>
       <c r="B203" s="6"/>
       <c r="C203" s="6"/>
@@ -6187,8 +7834,9 @@
       <c r="R203" s="6"/>
       <c r="S203" s="6"/>
       <c r="T203" s="6"/>
-    </row>
-    <row r="204" spans="1:20">
+      <c r="U203" s="6"/>
+    </row>
+    <row r="204" spans="1:21">
       <c r="A204" s="6"/>
       <c r="B204" s="6"/>
       <c r="C204" s="6"/>
@@ -6209,8 +7857,9 @@
       <c r="R204" s="6"/>
       <c r="S204" s="6"/>
       <c r="T204" s="6"/>
-    </row>
-    <row r="205" spans="1:20">
+      <c r="U204" s="6"/>
+    </row>
+    <row r="205" spans="1:21">
       <c r="A205" s="6"/>
       <c r="B205" s="6"/>
       <c r="C205" s="6"/>
@@ -6231,8 +7880,9 @@
       <c r="R205" s="6"/>
       <c r="S205" s="6"/>
       <c r="T205" s="6"/>
-    </row>
-    <row r="206" spans="1:20">
+      <c r="U205" s="6"/>
+    </row>
+    <row r="206" spans="1:21">
       <c r="A206" s="6"/>
       <c r="B206" s="6"/>
       <c r="C206" s="6"/>
@@ -6253,8 +7903,9 @@
       <c r="R206" s="6"/>
       <c r="S206" s="6"/>
       <c r="T206" s="6"/>
-    </row>
-    <row r="207" spans="1:20">
+      <c r="U206" s="6"/>
+    </row>
+    <row r="207" spans="1:21">
       <c r="A207" s="6"/>
       <c r="B207" s="6"/>
       <c r="C207" s="6"/>
@@ -6275,8 +7926,9 @@
       <c r="R207" s="6"/>
       <c r="S207" s="6"/>
       <c r="T207" s="6"/>
-    </row>
-    <row r="208" spans="1:20">
+      <c r="U207" s="6"/>
+    </row>
+    <row r="208" spans="1:21">
       <c r="A208" s="6"/>
       <c r="B208" s="6"/>
       <c r="C208" s="6"/>
@@ -6297,8 +7949,9 @@
       <c r="R208" s="6"/>
       <c r="S208" s="6"/>
       <c r="T208" s="6"/>
-    </row>
-    <row r="209" spans="1:20">
+      <c r="U208" s="6"/>
+    </row>
+    <row r="209" spans="1:21">
       <c r="A209" s="6"/>
       <c r="B209" s="6"/>
       <c r="C209" s="6"/>
@@ -6319,8 +7972,9 @@
       <c r="R209" s="6"/>
       <c r="S209" s="6"/>
       <c r="T209" s="6"/>
-    </row>
-    <row r="210" spans="1:20">
+      <c r="U209" s="6"/>
+    </row>
+    <row r="210" spans="1:21">
       <c r="A210" s="6"/>
       <c r="B210" s="6"/>
       <c r="C210" s="6"/>
@@ -6341,8 +7995,9 @@
       <c r="R210" s="6"/>
       <c r="S210" s="6"/>
       <c r="T210" s="6"/>
-    </row>
-    <row r="211" spans="1:20">
+      <c r="U210" s="6"/>
+    </row>
+    <row r="211" spans="1:21">
       <c r="A211" s="6"/>
       <c r="B211" s="6"/>
       <c r="C211" s="6"/>
@@ -6363,8 +8018,9 @@
       <c r="R211" s="6"/>
       <c r="S211" s="6"/>
       <c r="T211" s="6"/>
-    </row>
-    <row r="212" spans="1:20">
+      <c r="U211" s="6"/>
+    </row>
+    <row r="212" spans="1:21">
       <c r="A212" s="6"/>
       <c r="B212" s="6"/>
       <c r="C212" s="6"/>
@@ -6385,8 +8041,9 @@
       <c r="R212" s="6"/>
       <c r="S212" s="6"/>
       <c r="T212" s="6"/>
-    </row>
-    <row r="213" spans="1:20">
+      <c r="U212" s="6"/>
+    </row>
+    <row r="213" spans="1:21">
       <c r="A213" s="6"/>
       <c r="B213" s="6"/>
       <c r="C213" s="6"/>
@@ -6407,8 +8064,9 @@
       <c r="R213" s="6"/>
       <c r="S213" s="6"/>
       <c r="T213" s="6"/>
-    </row>
-    <row r="214" spans="1:20">
+      <c r="U213" s="6"/>
+    </row>
+    <row r="214" spans="1:21">
       <c r="A214" s="6"/>
       <c r="B214" s="6"/>
       <c r="C214" s="6"/>
@@ -6429,8 +8087,9 @@
       <c r="R214" s="6"/>
       <c r="S214" s="6"/>
       <c r="T214" s="6"/>
-    </row>
-    <row r="215" spans="1:20">
+      <c r="U214" s="6"/>
+    </row>
+    <row r="215" spans="1:21">
       <c r="A215" s="6"/>
       <c r="B215" s="6"/>
       <c r="C215" s="6"/>
@@ -6451,8 +8110,9 @@
       <c r="R215" s="6"/>
       <c r="S215" s="6"/>
       <c r="T215" s="6"/>
-    </row>
-    <row r="216" spans="1:20">
+      <c r="U215" s="6"/>
+    </row>
+    <row r="216" spans="1:21">
       <c r="A216" s="6"/>
       <c r="B216" s="6"/>
       <c r="C216" s="6"/>
@@ -6473,8 +8133,9 @@
       <c r="R216" s="6"/>
       <c r="S216" s="6"/>
       <c r="T216" s="6"/>
-    </row>
-    <row r="217" spans="1:20">
+      <c r="U216" s="6"/>
+    </row>
+    <row r="217" spans="1:21">
       <c r="A217" s="6"/>
       <c r="B217" s="6"/>
       <c r="C217" s="6"/>
@@ -6495,8 +8156,9 @@
       <c r="R217" s="6"/>
       <c r="S217" s="6"/>
       <c r="T217" s="6"/>
-    </row>
-    <row r="218" spans="1:20">
+      <c r="U217" s="6"/>
+    </row>
+    <row r="218" spans="1:21">
       <c r="A218" s="6"/>
       <c r="B218" s="6"/>
       <c r="C218" s="6"/>
@@ -6517,8 +8179,9 @@
       <c r="R218" s="6"/>
       <c r="S218" s="6"/>
       <c r="T218" s="6"/>
-    </row>
-    <row r="219" spans="1:20">
+      <c r="U218" s="6"/>
+    </row>
+    <row r="219" spans="1:21">
       <c r="A219" s="6"/>
       <c r="B219" s="6"/>
       <c r="C219" s="6"/>
@@ -6539,8 +8202,9 @@
       <c r="R219" s="6"/>
       <c r="S219" s="6"/>
       <c r="T219" s="6"/>
-    </row>
-    <row r="220" spans="1:20">
+      <c r="U219" s="6"/>
+    </row>
+    <row r="220" spans="1:21">
       <c r="A220" s="6"/>
       <c r="B220" s="6"/>
       <c r="C220" s="6"/>
@@ -6561,8 +8225,9 @@
       <c r="R220" s="6"/>
       <c r="S220" s="6"/>
       <c r="T220" s="6"/>
-    </row>
-    <row r="221" spans="1:20">
+      <c r="U220" s="6"/>
+    </row>
+    <row r="221" spans="1:21">
       <c r="A221" s="6"/>
       <c r="B221" s="6"/>
       <c r="C221" s="6"/>
@@ -6583,8 +8248,9 @@
       <c r="R221" s="6"/>
       <c r="S221" s="6"/>
       <c r="T221" s="6"/>
-    </row>
-    <row r="222" spans="1:20">
+      <c r="U221" s="6"/>
+    </row>
+    <row r="222" spans="1:21">
       <c r="A222" s="6"/>
       <c r="B222" s="6"/>
       <c r="C222" s="6"/>
@@ -6605,8 +8271,9 @@
       <c r="R222" s="6"/>
       <c r="S222" s="6"/>
       <c r="T222" s="6"/>
-    </row>
-    <row r="223" spans="1:20">
+      <c r="U222" s="6"/>
+    </row>
+    <row r="223" spans="1:21">
       <c r="A223" s="6"/>
       <c r="B223" s="6"/>
       <c r="C223" s="6"/>
@@ -6627,8 +8294,9 @@
       <c r="R223" s="6"/>
       <c r="S223" s="6"/>
       <c r="T223" s="6"/>
-    </row>
-    <row r="224" spans="1:20">
+      <c r="U223" s="6"/>
+    </row>
+    <row r="224" spans="1:21">
       <c r="A224" s="6"/>
       <c r="B224" s="6"/>
       <c r="C224" s="6"/>
@@ -6649,8 +8317,9 @@
       <c r="R224" s="6"/>
       <c r="S224" s="6"/>
       <c r="T224" s="6"/>
-    </row>
-    <row r="225" spans="1:20">
+      <c r="U224" s="6"/>
+    </row>
+    <row r="225" spans="1:21">
       <c r="A225" s="6"/>
       <c r="B225" s="6"/>
       <c r="C225" s="6"/>
@@ -6671,8 +8340,9 @@
       <c r="R225" s="6"/>
       <c r="S225" s="6"/>
       <c r="T225" s="6"/>
-    </row>
-    <row r="226" spans="1:20">
+      <c r="U225" s="6"/>
+    </row>
+    <row r="226" spans="1:21">
       <c r="A226" s="6"/>
       <c r="B226" s="6"/>
       <c r="C226" s="6"/>
@@ -6693,8 +8363,9 @@
       <c r="R226" s="6"/>
       <c r="S226" s="6"/>
       <c r="T226" s="6"/>
-    </row>
-    <row r="227" spans="1:20">
+      <c r="U226" s="6"/>
+    </row>
+    <row r="227" spans="1:21">
       <c r="A227" s="6"/>
       <c r="B227" s="6"/>
       <c r="C227" s="6"/>
@@ -6715,8 +8386,9 @@
       <c r="R227" s="6"/>
       <c r="S227" s="6"/>
       <c r="T227" s="6"/>
-    </row>
-    <row r="228" spans="1:20">
+      <c r="U227" s="6"/>
+    </row>
+    <row r="228" spans="1:21">
       <c r="A228" s="6"/>
       <c r="B228" s="6"/>
       <c r="C228" s="6"/>
@@ -6737,8 +8409,9 @@
       <c r="R228" s="6"/>
       <c r="S228" s="6"/>
       <c r="T228" s="6"/>
-    </row>
-    <row r="229" spans="1:20">
+      <c r="U228" s="6"/>
+    </row>
+    <row r="229" spans="1:21">
       <c r="A229" s="6"/>
       <c r="B229" s="6"/>
       <c r="C229" s="6"/>
@@ -6759,8 +8432,9 @@
       <c r="R229" s="6"/>
       <c r="S229" s="6"/>
       <c r="T229" s="6"/>
-    </row>
-    <row r="230" spans="1:20">
+      <c r="U229" s="6"/>
+    </row>
+    <row r="230" spans="1:21">
       <c r="A230" s="6"/>
       <c r="B230" s="6"/>
       <c r="C230" s="6"/>
@@ -6781,8 +8455,9 @@
       <c r="R230" s="6"/>
       <c r="S230" s="6"/>
       <c r="T230" s="6"/>
-    </row>
-    <row r="231" spans="1:20">
+      <c r="U230" s="6"/>
+    </row>
+    <row r="231" spans="1:21">
       <c r="A231" s="6"/>
       <c r="B231" s="6"/>
       <c r="C231" s="6"/>
@@ -6803,8 +8478,9 @@
       <c r="R231" s="6"/>
       <c r="S231" s="6"/>
       <c r="T231" s="6"/>
-    </row>
-    <row r="232" spans="1:20">
+      <c r="U231" s="6"/>
+    </row>
+    <row r="232" spans="1:21">
       <c r="A232" s="6"/>
       <c r="B232" s="6"/>
       <c r="C232" s="6"/>
@@ -6825,8 +8501,9 @@
       <c r="R232" s="6"/>
       <c r="S232" s="6"/>
       <c r="T232" s="6"/>
-    </row>
-    <row r="233" spans="1:20">
+      <c r="U232" s="6"/>
+    </row>
+    <row r="233" spans="1:21">
       <c r="A233" s="6"/>
       <c r="B233" s="6"/>
       <c r="C233" s="6"/>
@@ -6847,8 +8524,9 @@
       <c r="R233" s="6"/>
       <c r="S233" s="6"/>
       <c r="T233" s="6"/>
-    </row>
-    <row r="234" spans="1:20">
+      <c r="U233" s="6"/>
+    </row>
+    <row r="234" spans="1:21">
       <c r="A234" s="6"/>
       <c r="B234" s="6"/>
       <c r="C234" s="6"/>
@@ -6869,8 +8547,9 @@
       <c r="R234" s="6"/>
       <c r="S234" s="6"/>
       <c r="T234" s="6"/>
-    </row>
-    <row r="235" spans="1:20">
+      <c r="U234" s="6"/>
+    </row>
+    <row r="235" spans="1:21">
       <c r="A235" s="6"/>
       <c r="B235" s="6"/>
       <c r="C235" s="6"/>
@@ -6891,8 +8570,9 @@
       <c r="R235" s="6"/>
       <c r="S235" s="6"/>
       <c r="T235" s="6"/>
-    </row>
-    <row r="236" spans="1:20">
+      <c r="U235" s="6"/>
+    </row>
+    <row r="236" spans="1:21">
       <c r="A236" s="6"/>
       <c r="B236" s="6"/>
       <c r="C236" s="6"/>
@@ -6913,8 +8593,9 @@
       <c r="R236" s="6"/>
       <c r="S236" s="6"/>
       <c r="T236" s="6"/>
-    </row>
-    <row r="237" spans="1:20">
+      <c r="U236" s="6"/>
+    </row>
+    <row r="237" spans="1:21">
       <c r="A237" s="6"/>
       <c r="B237" s="6"/>
       <c r="C237" s="6"/>
@@ -6935,8 +8616,9 @@
       <c r="R237" s="6"/>
       <c r="S237" s="6"/>
       <c r="T237" s="6"/>
-    </row>
-    <row r="238" spans="1:20">
+      <c r="U237" s="6"/>
+    </row>
+    <row r="238" spans="1:21">
       <c r="A238" s="6"/>
       <c r="B238" s="6"/>
       <c r="C238" s="6"/>
@@ -6957,8 +8639,9 @@
       <c r="R238" s="6"/>
       <c r="S238" s="6"/>
       <c r="T238" s="6"/>
-    </row>
-    <row r="239" spans="1:20">
+      <c r="U238" s="6"/>
+    </row>
+    <row r="239" spans="1:21">
       <c r="A239" s="6"/>
       <c r="B239" s="6"/>
       <c r="C239" s="6"/>
@@ -6979,8 +8662,9 @@
       <c r="R239" s="6"/>
       <c r="S239" s="6"/>
       <c r="T239" s="6"/>
-    </row>
-    <row r="240" spans="1:20">
+      <c r="U239" s="6"/>
+    </row>
+    <row r="240" spans="1:21">
       <c r="A240" s="6"/>
       <c r="B240" s="6"/>
       <c r="C240" s="6"/>
@@ -7001,8 +8685,9 @@
       <c r="R240" s="6"/>
       <c r="S240" s="6"/>
       <c r="T240" s="6"/>
-    </row>
-    <row r="241" spans="1:20">
+      <c r="U240" s="6"/>
+    </row>
+    <row r="241" spans="1:21">
       <c r="A241" s="6"/>
       <c r="B241" s="6"/>
       <c r="C241" s="6"/>
@@ -7023,8 +8708,9 @@
       <c r="R241" s="6"/>
       <c r="S241" s="6"/>
       <c r="T241" s="6"/>
-    </row>
-    <row r="242" spans="1:20">
+      <c r="U241" s="6"/>
+    </row>
+    <row r="242" spans="1:21">
       <c r="A242" s="6"/>
       <c r="B242" s="6"/>
       <c r="C242" s="6"/>
@@ -7045,8 +8731,9 @@
       <c r="R242" s="6"/>
       <c r="S242" s="6"/>
       <c r="T242" s="6"/>
-    </row>
-    <row r="243" spans="1:20">
+      <c r="U242" s="6"/>
+    </row>
+    <row r="243" spans="1:21">
       <c r="A243" s="6"/>
       <c r="B243" s="6"/>
       <c r="C243" s="6"/>
@@ -7067,8 +8754,9 @@
       <c r="R243" s="6"/>
       <c r="S243" s="6"/>
       <c r="T243" s="6"/>
-    </row>
-    <row r="244" spans="1:20">
+      <c r="U243" s="6"/>
+    </row>
+    <row r="244" spans="1:21">
       <c r="A244" s="6"/>
       <c r="B244" s="6"/>
       <c r="C244" s="6"/>
@@ -7089,8 +8777,9 @@
       <c r="R244" s="6"/>
       <c r="S244" s="6"/>
       <c r="T244" s="6"/>
-    </row>
-    <row r="245" spans="1:20">
+      <c r="U244" s="6"/>
+    </row>
+    <row r="245" spans="1:21">
       <c r="A245" s="6"/>
       <c r="B245" s="6"/>
       <c r="C245" s="6"/>
@@ -7111,8 +8800,9 @@
       <c r="R245" s="6"/>
       <c r="S245" s="6"/>
       <c r="T245" s="6"/>
-    </row>
-    <row r="246" spans="1:20">
+      <c r="U245" s="6"/>
+    </row>
+    <row r="246" spans="1:21">
       <c r="A246" s="6"/>
       <c r="B246" s="6"/>
       <c r="C246" s="6"/>
@@ -7133,8 +8823,9 @@
       <c r="R246" s="6"/>
       <c r="S246" s="6"/>
       <c r="T246" s="6"/>
-    </row>
-    <row r="247" spans="1:20">
+      <c r="U246" s="6"/>
+    </row>
+    <row r="247" spans="1:21">
       <c r="A247" s="6"/>
       <c r="B247" s="6"/>
       <c r="C247" s="6"/>
@@ -7155,8 +8846,9 @@
       <c r="R247" s="6"/>
       <c r="S247" s="6"/>
       <c r="T247" s="6"/>
-    </row>
-    <row r="248" spans="1:20">
+      <c r="U247" s="6"/>
+    </row>
+    <row r="248" spans="1:21">
       <c r="A248" s="6"/>
       <c r="B248" s="6"/>
       <c r="C248" s="6"/>
@@ -7177,8 +8869,9 @@
       <c r="R248" s="6"/>
       <c r="S248" s="6"/>
       <c r="T248" s="6"/>
-    </row>
-    <row r="249" spans="1:20">
+      <c r="U248" s="6"/>
+    </row>
+    <row r="249" spans="1:21">
       <c r="A249" s="6"/>
       <c r="B249" s="6"/>
       <c r="C249" s="6"/>
@@ -7199,8 +8892,9 @@
       <c r="R249" s="6"/>
       <c r="S249" s="6"/>
       <c r="T249" s="6"/>
-    </row>
-    <row r="250" spans="1:20">
+      <c r="U249" s="6"/>
+    </row>
+    <row r="250" spans="1:21">
       <c r="A250" s="6"/>
       <c r="B250" s="6"/>
       <c r="C250" s="6"/>
@@ -7221,8 +8915,9 @@
       <c r="R250" s="6"/>
       <c r="S250" s="6"/>
       <c r="T250" s="6"/>
-    </row>
-    <row r="251" spans="1:20">
+      <c r="U250" s="6"/>
+    </row>
+    <row r="251" spans="1:21">
       <c r="A251" s="6"/>
       <c r="B251" s="6"/>
       <c r="C251" s="6"/>
@@ -7243,8 +8938,9 @@
       <c r="R251" s="6"/>
       <c r="S251" s="6"/>
       <c r="T251" s="6"/>
-    </row>
-    <row r="252" spans="1:20">
+      <c r="U251" s="6"/>
+    </row>
+    <row r="252" spans="1:21">
       <c r="A252" s="6"/>
       <c r="B252" s="6"/>
       <c r="C252" s="6"/>
@@ -7265,8 +8961,9 @@
       <c r="R252" s="6"/>
       <c r="S252" s="6"/>
       <c r="T252" s="6"/>
-    </row>
-    <row r="253" spans="1:20">
+      <c r="U252" s="6"/>
+    </row>
+    <row r="253" spans="1:21">
       <c r="A253" s="6"/>
       <c r="B253" s="6"/>
       <c r="C253" s="6"/>
@@ -7287,8 +8984,9 @@
       <c r="R253" s="6"/>
       <c r="S253" s="6"/>
       <c r="T253" s="6"/>
-    </row>
-    <row r="254" spans="1:20">
+      <c r="U253" s="6"/>
+    </row>
+    <row r="254" spans="1:21">
       <c r="A254" s="6"/>
       <c r="B254" s="6"/>
       <c r="C254" s="6"/>
@@ -7309,8 +9007,9 @@
       <c r="R254" s="6"/>
       <c r="S254" s="6"/>
       <c r="T254" s="6"/>
-    </row>
-    <row r="255" spans="1:20">
+      <c r="U254" s="6"/>
+    </row>
+    <row r="255" spans="1:21">
       <c r="A255" s="6"/>
       <c r="B255" s="6"/>
       <c r="C255" s="6"/>
@@ -7331,8 +9030,9 @@
       <c r="R255" s="6"/>
       <c r="S255" s="6"/>
       <c r="T255" s="6"/>
-    </row>
-    <row r="256" spans="1:20">
+      <c r="U255" s="6"/>
+    </row>
+    <row r="256" spans="1:21">
       <c r="A256" s="6"/>
       <c r="B256" s="6"/>
       <c r="C256" s="6"/>
@@ -7353,8 +9053,9 @@
       <c r="R256" s="6"/>
       <c r="S256" s="6"/>
       <c r="T256" s="6"/>
-    </row>
-    <row r="257" spans="1:20">
+      <c r="U256" s="6"/>
+    </row>
+    <row r="257" spans="1:21">
       <c r="A257" s="6"/>
       <c r="B257" s="6"/>
       <c r="C257" s="6"/>
@@ -7375,8 +9076,9 @@
       <c r="R257" s="6"/>
       <c r="S257" s="6"/>
       <c r="T257" s="6"/>
-    </row>
-    <row r="258" spans="1:20">
+      <c r="U257" s="6"/>
+    </row>
+    <row r="258" spans="1:21">
       <c r="A258" s="6"/>
       <c r="B258" s="6"/>
       <c r="C258" s="6"/>
@@ -7397,8 +9099,9 @@
       <c r="R258" s="6"/>
       <c r="S258" s="6"/>
       <c r="T258" s="6"/>
-    </row>
-    <row r="259" spans="1:20">
+      <c r="U258" s="6"/>
+    </row>
+    <row r="259" spans="1:21">
       <c r="A259" s="6"/>
       <c r="B259" s="6"/>
       <c r="C259" s="6"/>
@@ -7419,8 +9122,9 @@
       <c r="R259" s="6"/>
       <c r="S259" s="6"/>
       <c r="T259" s="6"/>
-    </row>
-    <row r="260" spans="1:20">
+      <c r="U259" s="6"/>
+    </row>
+    <row r="260" spans="1:21">
       <c r="A260" s="6"/>
       <c r="B260" s="6"/>
       <c r="C260" s="6"/>
@@ -7441,8 +9145,9 @@
       <c r="R260" s="6"/>
       <c r="S260" s="6"/>
       <c r="T260" s="6"/>
-    </row>
-    <row r="261" spans="1:20">
+      <c r="U260" s="6"/>
+    </row>
+    <row r="261" spans="1:21">
       <c r="A261" s="6"/>
       <c r="B261" s="6"/>
       <c r="C261" s="6"/>
@@ -7463,8 +9168,9 @@
       <c r="R261" s="6"/>
       <c r="S261" s="6"/>
       <c r="T261" s="6"/>
-    </row>
-    <row r="262" spans="1:20">
+      <c r="U261" s="6"/>
+    </row>
+    <row r="262" spans="1:21">
       <c r="A262" s="6"/>
       <c r="B262" s="6"/>
       <c r="C262" s="6"/>
@@ -7485,8 +9191,9 @@
       <c r="R262" s="6"/>
       <c r="S262" s="6"/>
       <c r="T262" s="6"/>
-    </row>
-    <row r="263" spans="1:20">
+      <c r="U262" s="6"/>
+    </row>
+    <row r="263" spans="1:21">
       <c r="A263" s="6"/>
       <c r="B263" s="6"/>
       <c r="C263" s="6"/>
@@ -7507,8 +9214,9 @@
       <c r="R263" s="6"/>
       <c r="S263" s="6"/>
       <c r="T263" s="6"/>
-    </row>
-    <row r="264" spans="1:20">
+      <c r="U263" s="6"/>
+    </row>
+    <row r="264" spans="1:21">
       <c r="A264" s="6"/>
       <c r="B264" s="6"/>
       <c r="C264" s="6"/>
@@ -7529,8 +9237,9 @@
       <c r="R264" s="6"/>
       <c r="S264" s="6"/>
       <c r="T264" s="6"/>
-    </row>
-    <row r="265" spans="1:20">
+      <c r="U264" s="6"/>
+    </row>
+    <row r="265" spans="1:21">
       <c r="A265" s="6"/>
       <c r="B265" s="6"/>
       <c r="C265" s="6"/>
@@ -7551,8 +9260,9 @@
       <c r="R265" s="6"/>
       <c r="S265" s="6"/>
       <c r="T265" s="6"/>
-    </row>
-    <row r="266" spans="1:20">
+      <c r="U265" s="6"/>
+    </row>
+    <row r="266" spans="1:21">
       <c r="A266" s="6"/>
       <c r="B266" s="6"/>
       <c r="C266" s="6"/>
@@ -7573,8 +9283,9 @@
       <c r="R266" s="6"/>
       <c r="S266" s="6"/>
       <c r="T266" s="6"/>
-    </row>
-    <row r="267" spans="1:20">
+      <c r="U266" s="6"/>
+    </row>
+    <row r="267" spans="1:21">
       <c r="A267" s="6"/>
       <c r="B267" s="6"/>
       <c r="C267" s="6"/>
@@ -7595,8 +9306,9 @@
       <c r="R267" s="6"/>
       <c r="S267" s="6"/>
       <c r="T267" s="6"/>
-    </row>
-    <row r="268" spans="1:20">
+      <c r="U267" s="6"/>
+    </row>
+    <row r="268" spans="1:21">
       <c r="A268" s="6"/>
       <c r="B268" s="6"/>
       <c r="C268" s="6"/>
@@ -7617,8 +9329,9 @@
       <c r="R268" s="6"/>
       <c r="S268" s="6"/>
       <c r="T268" s="6"/>
-    </row>
-    <row r="269" spans="1:20">
+      <c r="U268" s="6"/>
+    </row>
+    <row r="269" spans="1:21">
       <c r="A269" s="6"/>
       <c r="B269" s="6"/>
       <c r="C269" s="6"/>
@@ -7639,8 +9352,9 @@
       <c r="R269" s="6"/>
       <c r="S269" s="6"/>
       <c r="T269" s="6"/>
-    </row>
-    <row r="270" spans="1:20">
+      <c r="U269" s="6"/>
+    </row>
+    <row r="270" spans="1:21">
       <c r="A270" s="6"/>
       <c r="B270" s="6"/>
       <c r="C270" s="6"/>
@@ -7661,8 +9375,9 @@
       <c r="R270" s="6"/>
       <c r="S270" s="6"/>
       <c r="T270" s="6"/>
-    </row>
-    <row r="271" spans="1:20">
+      <c r="U270" s="6"/>
+    </row>
+    <row r="271" spans="1:21">
       <c r="A271" s="6"/>
       <c r="B271" s="6"/>
       <c r="C271" s="6"/>
@@ -7683,8 +9398,9 @@
       <c r="R271" s="6"/>
       <c r="S271" s="6"/>
       <c r="T271" s="6"/>
-    </row>
-    <row r="272" spans="1:20">
+      <c r="U271" s="6"/>
+    </row>
+    <row r="272" spans="1:21">
       <c r="A272" s="6"/>
       <c r="B272" s="6"/>
       <c r="C272" s="6"/>
@@ -7705,8 +9421,9 @@
       <c r="R272" s="6"/>
       <c r="S272" s="6"/>
       <c r="T272" s="6"/>
-    </row>
-    <row r="273" spans="1:20">
+      <c r="U272" s="6"/>
+    </row>
+    <row r="273" spans="1:21">
       <c r="A273" s="6"/>
       <c r="B273" s="6"/>
       <c r="C273" s="6"/>
@@ -7727,8 +9444,9 @@
       <c r="R273" s="6"/>
       <c r="S273" s="6"/>
       <c r="T273" s="6"/>
-    </row>
-    <row r="274" spans="1:20">
+      <c r="U273" s="6"/>
+    </row>
+    <row r="274" spans="1:21">
       <c r="A274" s="6"/>
       <c r="B274" s="6"/>
       <c r="C274" s="6"/>
@@ -7749,8 +9467,9 @@
       <c r="R274" s="6"/>
       <c r="S274" s="6"/>
       <c r="T274" s="6"/>
-    </row>
-    <row r="275" spans="1:20">
+      <c r="U274" s="6"/>
+    </row>
+    <row r="275" spans="1:21">
       <c r="A275" s="6"/>
       <c r="B275" s="6"/>
       <c r="C275" s="6"/>
@@ -7771,8 +9490,9 @@
       <c r="R275" s="6"/>
       <c r="S275" s="6"/>
       <c r="T275" s="6"/>
-    </row>
-    <row r="276" spans="1:20">
+      <c r="U275" s="6"/>
+    </row>
+    <row r="276" spans="1:21">
       <c r="A276" s="6"/>
       <c r="B276" s="6"/>
       <c r="C276" s="6"/>
@@ -7793,8 +9513,9 @@
       <c r="R276" s="6"/>
       <c r="S276" s="6"/>
       <c r="T276" s="6"/>
-    </row>
-    <row r="277" spans="1:20">
+      <c r="U276" s="6"/>
+    </row>
+    <row r="277" spans="1:21">
       <c r="A277" s="6"/>
       <c r="B277" s="6"/>
       <c r="C277" s="6"/>
@@ -7815,8 +9536,9 @@
       <c r="R277" s="6"/>
       <c r="S277" s="6"/>
       <c r="T277" s="6"/>
-    </row>
-    <row r="278" spans="1:20">
+      <c r="U277" s="6"/>
+    </row>
+    <row r="278" spans="1:21">
       <c r="A278" s="6"/>
       <c r="B278" s="6"/>
       <c r="C278" s="6"/>
@@ -7837,8 +9559,9 @@
       <c r="R278" s="6"/>
       <c r="S278" s="6"/>
       <c r="T278" s="6"/>
-    </row>
-    <row r="279" spans="1:20">
+      <c r="U278" s="6"/>
+    </row>
+    <row r="279" spans="1:21">
       <c r="A279" s="6"/>
       <c r="B279" s="6"/>
       <c r="C279" s="6"/>
@@ -7859,8 +9582,9 @@
       <c r="R279" s="6"/>
       <c r="S279" s="6"/>
       <c r="T279" s="6"/>
-    </row>
-    <row r="280" spans="1:20">
+      <c r="U279" s="6"/>
+    </row>
+    <row r="280" spans="1:21">
       <c r="A280" s="6"/>
       <c r="B280" s="6"/>
       <c r="C280" s="6"/>
@@ -7881,8 +9605,9 @@
       <c r="R280" s="6"/>
       <c r="S280" s="6"/>
       <c r="T280" s="6"/>
-    </row>
-    <row r="281" spans="1:20">
+      <c r="U280" s="6"/>
+    </row>
+    <row r="281" spans="1:21">
       <c r="A281" s="6"/>
       <c r="B281" s="6"/>
       <c r="C281" s="6"/>
@@ -7903,8 +9628,9 @@
       <c r="R281" s="6"/>
       <c r="S281" s="6"/>
       <c r="T281" s="6"/>
-    </row>
-    <row r="282" spans="1:20">
+      <c r="U281" s="6"/>
+    </row>
+    <row r="282" spans="1:21">
       <c r="A282" s="6"/>
       <c r="B282" s="6"/>
       <c r="C282" s="6"/>
@@ -7925,8 +9651,9 @@
       <c r="R282" s="6"/>
       <c r="S282" s="6"/>
       <c r="T282" s="6"/>
-    </row>
-    <row r="283" spans="1:20">
+      <c r="U282" s="6"/>
+    </row>
+    <row r="283" spans="1:21">
       <c r="A283" s="6"/>
       <c r="B283" s="6"/>
       <c r="C283" s="6"/>
@@ -7947,8 +9674,9 @@
       <c r="R283" s="6"/>
       <c r="S283" s="6"/>
       <c r="T283" s="6"/>
-    </row>
-    <row r="284" spans="1:20">
+      <c r="U283" s="6"/>
+    </row>
+    <row r="284" spans="1:21">
       <c r="A284" s="6"/>
       <c r="B284" s="6"/>
       <c r="C284" s="6"/>
@@ -7969,8 +9697,9 @@
       <c r="R284" s="6"/>
       <c r="S284" s="6"/>
       <c r="T284" s="6"/>
-    </row>
-    <row r="285" spans="1:20">
+      <c r="U284" s="6"/>
+    </row>
+    <row r="285" spans="1:21">
       <c r="A285" s="6"/>
       <c r="B285" s="6"/>
       <c r="C285" s="6"/>
@@ -7991,8 +9720,9 @@
       <c r="R285" s="6"/>
       <c r="S285" s="6"/>
       <c r="T285" s="6"/>
-    </row>
-    <row r="286" spans="1:20">
+      <c r="U285" s="6"/>
+    </row>
+    <row r="286" spans="1:21">
       <c r="A286" s="6"/>
       <c r="B286" s="6"/>
       <c r="C286" s="6"/>
@@ -8013,8 +9743,9 @@
       <c r="R286" s="6"/>
       <c r="S286" s="6"/>
       <c r="T286" s="6"/>
-    </row>
-    <row r="287" spans="1:20">
+      <c r="U286" s="6"/>
+    </row>
+    <row r="287" spans="1:21">
       <c r="A287" s="6"/>
       <c r="B287" s="6"/>
       <c r="C287" s="6"/>
@@ -8035,8 +9766,9 @@
       <c r="R287" s="6"/>
       <c r="S287" s="6"/>
       <c r="T287" s="6"/>
-    </row>
-    <row r="288" spans="1:20">
+      <c r="U287" s="6"/>
+    </row>
+    <row r="288" spans="1:21">
       <c r="A288" s="6"/>
       <c r="B288" s="6"/>
       <c r="C288" s="6"/>
@@ -8057,8 +9789,9 @@
       <c r="R288" s="6"/>
       <c r="S288" s="6"/>
       <c r="T288" s="6"/>
-    </row>
-    <row r="289" spans="1:20">
+      <c r="U288" s="6"/>
+    </row>
+    <row r="289" spans="1:21">
       <c r="A289" s="6"/>
       <c r="B289" s="6"/>
       <c r="C289" s="6"/>
@@ -8079,8 +9812,9 @@
       <c r="R289" s="6"/>
       <c r="S289" s="6"/>
       <c r="T289" s="6"/>
-    </row>
-    <row r="290" spans="1:20">
+      <c r="U289" s="6"/>
+    </row>
+    <row r="290" spans="1:21">
       <c r="A290" s="6"/>
       <c r="B290" s="6"/>
       <c r="C290" s="6"/>
@@ -8101,8 +9835,9 @@
       <c r="R290" s="6"/>
       <c r="S290" s="6"/>
       <c r="T290" s="6"/>
-    </row>
-    <row r="291" spans="1:20">
+      <c r="U290" s="6"/>
+    </row>
+    <row r="291" spans="1:21">
       <c r="A291" s="6"/>
       <c r="B291" s="6"/>
       <c r="C291" s="6"/>
@@ -8123,8 +9858,9 @@
       <c r="R291" s="6"/>
       <c r="S291" s="6"/>
       <c r="T291" s="6"/>
-    </row>
-    <row r="292" spans="1:20">
+      <c r="U291" s="6"/>
+    </row>
+    <row r="292" spans="1:21">
       <c r="A292" s="6"/>
       <c r="B292" s="6"/>
       <c r="C292" s="6"/>
@@ -8145,8 +9881,9 @@
       <c r="R292" s="6"/>
       <c r="S292" s="6"/>
       <c r="T292" s="6"/>
-    </row>
-    <row r="293" spans="1:20">
+      <c r="U292" s="6"/>
+    </row>
+    <row r="293" spans="1:21">
       <c r="A293" s="6"/>
       <c r="B293" s="6"/>
       <c r="C293" s="6"/>
@@ -8167,8 +9904,9 @@
       <c r="R293" s="6"/>
       <c r="S293" s="6"/>
       <c r="T293" s="6"/>
-    </row>
-    <row r="294" spans="1:20">
+      <c r="U293" s="6"/>
+    </row>
+    <row r="294" spans="1:21">
       <c r="A294" s="6"/>
       <c r="B294" s="6"/>
       <c r="C294" s="6"/>
@@ -8189,8 +9927,9 @@
       <c r="R294" s="6"/>
       <c r="S294" s="6"/>
       <c r="T294" s="6"/>
-    </row>
-    <row r="295" spans="1:20">
+      <c r="U294" s="6"/>
+    </row>
+    <row r="295" spans="1:21">
       <c r="A295" s="6"/>
       <c r="B295" s="6"/>
       <c r="C295" s="6"/>
@@ -8211,8 +9950,9 @@
       <c r="R295" s="6"/>
       <c r="S295" s="6"/>
       <c r="T295" s="6"/>
-    </row>
-    <row r="296" spans="1:20">
+      <c r="U295" s="6"/>
+    </row>
+    <row r="296" spans="1:21">
       <c r="A296" s="6"/>
       <c r="B296" s="6"/>
       <c r="C296" s="6"/>
@@ -8233,8 +9973,9 @@
       <c r="R296" s="6"/>
       <c r="S296" s="6"/>
       <c r="T296" s="6"/>
-    </row>
-    <row r="297" spans="1:20">
+      <c r="U296" s="6"/>
+    </row>
+    <row r="297" spans="1:21">
       <c r="A297" s="6"/>
       <c r="B297" s="6"/>
       <c r="C297" s="6"/>
@@ -8255,8 +9996,9 @@
       <c r="R297" s="6"/>
       <c r="S297" s="6"/>
       <c r="T297" s="6"/>
-    </row>
-    <row r="298" spans="1:20">
+      <c r="U297" s="6"/>
+    </row>
+    <row r="298" spans="1:21">
       <c r="A298" s="6"/>
       <c r="B298" s="6"/>
       <c r="C298" s="6"/>
@@ -8277,8 +10019,9 @@
       <c r="R298" s="6"/>
       <c r="S298" s="6"/>
       <c r="T298" s="6"/>
-    </row>
-    <row r="299" spans="1:20">
+      <c r="U298" s="6"/>
+    </row>
+    <row r="299" spans="1:21">
       <c r="A299" s="6"/>
       <c r="B299" s="6"/>
       <c r="C299" s="6"/>
@@ -8299,8 +10042,9 @@
       <c r="R299" s="6"/>
       <c r="S299" s="6"/>
       <c r="T299" s="6"/>
-    </row>
-    <row r="300" spans="1:20">
+      <c r="U299" s="6"/>
+    </row>
+    <row r="300" spans="1:21">
       <c r="A300" s="6"/>
       <c r="B300" s="6"/>
       <c r="C300" s="6"/>
@@ -8321,8 +10065,9 @@
       <c r="R300" s="6"/>
       <c r="S300" s="6"/>
       <c r="T300" s="6"/>
-    </row>
-    <row r="301" spans="1:20">
+      <c r="U300" s="6"/>
+    </row>
+    <row r="301" spans="1:21">
       <c r="A301" s="6"/>
       <c r="B301" s="6"/>
       <c r="C301" s="6"/>
@@ -8343,8 +10088,9 @@
       <c r="R301" s="6"/>
       <c r="S301" s="6"/>
       <c r="T301" s="6"/>
-    </row>
-    <row r="302" spans="1:20">
+      <c r="U301" s="6"/>
+    </row>
+    <row r="302" spans="1:21">
       <c r="A302" s="6"/>
       <c r="B302" s="6"/>
       <c r="C302" s="6"/>
@@ -8365,8 +10111,9 @@
       <c r="R302" s="6"/>
       <c r="S302" s="6"/>
       <c r="T302" s="6"/>
-    </row>
-    <row r="303" spans="1:20">
+      <c r="U302" s="6"/>
+    </row>
+    <row r="303" spans="1:21">
       <c r="A303" s="6"/>
       <c r="B303" s="6"/>
       <c r="C303" s="6"/>
@@ -8387,8 +10134,9 @@
       <c r="R303" s="6"/>
       <c r="S303" s="6"/>
       <c r="T303" s="6"/>
-    </row>
-    <row r="304" spans="1:20">
+      <c r="U303" s="6"/>
+    </row>
+    <row r="304" spans="1:21">
       <c r="A304" s="6"/>
       <c r="B304" s="6"/>
       <c r="C304" s="6"/>
@@ -8409,8 +10157,9 @@
       <c r="R304" s="6"/>
       <c r="S304" s="6"/>
       <c r="T304" s="6"/>
-    </row>
-    <row r="305" spans="1:20">
+      <c r="U304" s="6"/>
+    </row>
+    <row r="305" spans="1:21">
       <c r="A305" s="6"/>
       <c r="B305" s="6"/>
       <c r="C305" s="6"/>
@@ -8431,8 +10180,9 @@
       <c r="R305" s="6"/>
       <c r="S305" s="6"/>
       <c r="T305" s="6"/>
-    </row>
-    <row r="306" spans="1:20">
+      <c r="U305" s="6"/>
+    </row>
+    <row r="306" spans="1:21">
       <c r="A306" s="6"/>
       <c r="B306" s="6"/>
       <c r="C306" s="6"/>
@@ -8453,8 +10203,9 @@
       <c r="R306" s="6"/>
       <c r="S306" s="6"/>
       <c r="T306" s="6"/>
-    </row>
-    <row r="307" spans="1:20">
+      <c r="U306" s="6"/>
+    </row>
+    <row r="307" spans="1:21">
       <c r="A307" s="6"/>
       <c r="B307" s="6"/>
       <c r="C307" s="6"/>
@@ -8475,8 +10226,9 @@
       <c r="R307" s="6"/>
       <c r="S307" s="6"/>
       <c r="T307" s="6"/>
-    </row>
-    <row r="308" spans="1:20">
+      <c r="U307" s="6"/>
+    </row>
+    <row r="308" spans="1:21">
       <c r="A308" s="6"/>
       <c r="B308" s="6"/>
       <c r="C308" s="6"/>
@@ -8497,8 +10249,9 @@
       <c r="R308" s="6"/>
       <c r="S308" s="6"/>
       <c r="T308" s="6"/>
-    </row>
-    <row r="309" spans="1:20">
+      <c r="U308" s="6"/>
+    </row>
+    <row r="309" spans="1:21">
       <c r="A309" s="6"/>
       <c r="B309" s="6"/>
       <c r="C309" s="6"/>
@@ -8519,8 +10272,9 @@
       <c r="R309" s="6"/>
       <c r="S309" s="6"/>
       <c r="T309" s="6"/>
-    </row>
-    <row r="310" spans="1:20">
+      <c r="U309" s="6"/>
+    </row>
+    <row r="310" spans="1:21">
       <c r="A310" s="6"/>
       <c r="B310" s="6"/>
       <c r="C310" s="6"/>
@@ -8541,8 +10295,9 @@
       <c r="R310" s="6"/>
       <c r="S310" s="6"/>
       <c r="T310" s="6"/>
-    </row>
-    <row r="311" spans="1:20">
+      <c r="U310" s="6"/>
+    </row>
+    <row r="311" spans="1:21">
       <c r="A311" s="6"/>
       <c r="B311" s="6"/>
       <c r="C311" s="6"/>
@@ -8563,8 +10318,9 @@
       <c r="R311" s="6"/>
       <c r="S311" s="6"/>
       <c r="T311" s="6"/>
-    </row>
-    <row r="312" spans="1:20">
+      <c r="U311" s="6"/>
+    </row>
+    <row r="312" spans="1:21">
       <c r="A312" s="6"/>
       <c r="B312" s="6"/>
       <c r="C312" s="6"/>
@@ -8585,8 +10341,9 @@
       <c r="R312" s="6"/>
       <c r="S312" s="6"/>
       <c r="T312" s="6"/>
-    </row>
-    <row r="313" spans="1:20">
+      <c r="U312" s="6"/>
+    </row>
+    <row r="313" spans="1:21">
       <c r="A313" s="6"/>
       <c r="B313" s="6"/>
       <c r="C313" s="6"/>
@@ -8607,8 +10364,9 @@
       <c r="R313" s="6"/>
       <c r="S313" s="6"/>
       <c r="T313" s="6"/>
-    </row>
-    <row r="314" spans="1:20">
+      <c r="U313" s="6"/>
+    </row>
+    <row r="314" spans="1:21">
       <c r="A314" s="6"/>
       <c r="B314" s="6"/>
       <c r="C314" s="6"/>
@@ -8629,8 +10387,9 @@
       <c r="R314" s="6"/>
       <c r="S314" s="6"/>
       <c r="T314" s="6"/>
-    </row>
-    <row r="315" spans="1:20">
+      <c r="U314" s="6"/>
+    </row>
+    <row r="315" spans="1:21">
       <c r="A315" s="6"/>
       <c r="B315" s="6"/>
       <c r="C315" s="6"/>
@@ -8651,8 +10410,9 @@
       <c r="R315" s="6"/>
       <c r="S315" s="6"/>
       <c r="T315" s="6"/>
-    </row>
-    <row r="316" spans="1:20">
+      <c r="U315" s="6"/>
+    </row>
+    <row r="316" spans="1:21">
       <c r="A316" s="6"/>
       <c r="B316" s="6"/>
       <c r="C316" s="6"/>
@@ -8673,8 +10433,9 @@
       <c r="R316" s="6"/>
       <c r="S316" s="6"/>
       <c r="T316" s="6"/>
-    </row>
-    <row r="317" spans="1:20">
+      <c r="U316" s="6"/>
+    </row>
+    <row r="317" spans="1:21">
       <c r="A317" s="6"/>
       <c r="B317" s="6"/>
       <c r="C317" s="6"/>
@@ -8695,8 +10456,9 @@
       <c r="R317" s="6"/>
       <c r="S317" s="6"/>
       <c r="T317" s="6"/>
-    </row>
-    <row r="318" spans="1:20">
+      <c r="U317" s="6"/>
+    </row>
+    <row r="318" spans="1:21">
       <c r="A318" s="6"/>
       <c r="B318" s="6"/>
       <c r="C318" s="6"/>
@@ -8717,8 +10479,9 @@
       <c r="R318" s="6"/>
       <c r="S318" s="6"/>
       <c r="T318" s="6"/>
-    </row>
-    <row r="319" spans="1:20">
+      <c r="U318" s="6"/>
+    </row>
+    <row r="319" spans="1:21">
       <c r="A319" s="6"/>
       <c r="B319" s="6"/>
       <c r="C319" s="6"/>
@@ -8739,8 +10502,9 @@
       <c r="R319" s="6"/>
       <c r="S319" s="6"/>
       <c r="T319" s="6"/>
-    </row>
-    <row r="320" spans="1:20">
+      <c r="U319" s="6"/>
+    </row>
+    <row r="320" spans="1:21">
       <c r="A320" s="6"/>
       <c r="B320" s="6"/>
       <c r="C320" s="6"/>
@@ -8761,8 +10525,9 @@
       <c r="R320" s="6"/>
       <c r="S320" s="6"/>
       <c r="T320" s="6"/>
-    </row>
-    <row r="321" spans="1:20">
+      <c r="U320" s="6"/>
+    </row>
+    <row r="321" spans="1:21">
       <c r="A321" s="6"/>
       <c r="B321" s="6"/>
       <c r="C321" s="6"/>
@@ -8783,8 +10548,9 @@
       <c r="R321" s="6"/>
       <c r="S321" s="6"/>
       <c r="T321" s="6"/>
-    </row>
-    <row r="322" spans="1:20">
+      <c r="U321" s="6"/>
+    </row>
+    <row r="322" spans="1:21">
       <c r="A322" s="6"/>
       <c r="B322" s="6"/>
       <c r="C322" s="6"/>
@@ -8805,8 +10571,9 @@
       <c r="R322" s="6"/>
       <c r="S322" s="6"/>
       <c r="T322" s="6"/>
-    </row>
-    <row r="323" spans="1:20">
+      <c r="U322" s="6"/>
+    </row>
+    <row r="323" spans="1:21">
       <c r="A323" s="6"/>
       <c r="B323" s="6"/>
       <c r="C323" s="6"/>
@@ -8827,8 +10594,9 @@
       <c r="R323" s="6"/>
       <c r="S323" s="6"/>
       <c r="T323" s="6"/>
-    </row>
-    <row r="324" spans="1:20">
+      <c r="U323" s="6"/>
+    </row>
+    <row r="324" spans="1:21">
       <c r="A324" s="6"/>
       <c r="B324" s="6"/>
       <c r="C324" s="6"/>
@@ -8849,8 +10617,9 @@
       <c r="R324" s="6"/>
       <c r="S324" s="6"/>
       <c r="T324" s="6"/>
-    </row>
-    <row r="325" spans="1:20">
+      <c r="U324" s="6"/>
+    </row>
+    <row r="325" spans="1:21">
       <c r="A325" s="6"/>
       <c r="B325" s="6"/>
       <c r="C325" s="6"/>
@@ -8871,8 +10640,9 @@
       <c r="R325" s="6"/>
       <c r="S325" s="6"/>
       <c r="T325" s="6"/>
-    </row>
-    <row r="326" spans="1:20">
+      <c r="U325" s="6"/>
+    </row>
+    <row r="326" spans="1:21">
       <c r="A326" s="6"/>
       <c r="B326" s="6"/>
       <c r="C326" s="6"/>
@@ -8893,8 +10663,9 @@
       <c r="R326" s="6"/>
       <c r="S326" s="6"/>
       <c r="T326" s="6"/>
-    </row>
-    <row r="327" spans="1:20">
+      <c r="U326" s="6"/>
+    </row>
+    <row r="327" spans="1:21">
       <c r="A327" s="6"/>
       <c r="B327" s="6"/>
       <c r="C327" s="6"/>
@@ -8915,8 +10686,9 @@
       <c r="R327" s="6"/>
       <c r="S327" s="6"/>
       <c r="T327" s="6"/>
-    </row>
-    <row r="328" spans="1:20">
+      <c r="U327" s="6"/>
+    </row>
+    <row r="328" spans="1:21">
       <c r="A328" s="6"/>
       <c r="B328" s="6"/>
       <c r="C328" s="6"/>
@@ -8937,8 +10709,9 @@
       <c r="R328" s="6"/>
       <c r="S328" s="6"/>
       <c r="T328" s="6"/>
-    </row>
-    <row r="329" spans="1:20">
+      <c r="U328" s="6"/>
+    </row>
+    <row r="329" spans="1:21">
       <c r="A329" s="6"/>
       <c r="B329" s="6"/>
       <c r="C329" s="6"/>
@@ -8959,8 +10732,9 @@
       <c r="R329" s="6"/>
       <c r="S329" s="6"/>
       <c r="T329" s="6"/>
-    </row>
-    <row r="330" spans="1:20">
+      <c r="U329" s="6"/>
+    </row>
+    <row r="330" spans="1:21">
       <c r="A330" s="6"/>
       <c r="B330" s="6"/>
       <c r="C330" s="6"/>
@@ -8981,8 +10755,9 @@
       <c r="R330" s="6"/>
       <c r="S330" s="6"/>
       <c r="T330" s="6"/>
-    </row>
-    <row r="331" spans="1:20">
+      <c r="U330" s="6"/>
+    </row>
+    <row r="331" spans="1:21">
       <c r="A331" s="6"/>
       <c r="B331" s="6"/>
       <c r="C331" s="6"/>
@@ -9003,8 +10778,9 @@
       <c r="R331" s="6"/>
       <c r="S331" s="6"/>
       <c r="T331" s="6"/>
-    </row>
-    <row r="332" spans="1:20">
+      <c r="U331" s="6"/>
+    </row>
+    <row r="332" spans="1:21">
       <c r="A332" s="6"/>
       <c r="B332" s="6"/>
       <c r="C332" s="6"/>
@@ -9025,8 +10801,9 @@
       <c r="R332" s="6"/>
       <c r="S332" s="6"/>
       <c r="T332" s="6"/>
-    </row>
-    <row r="333" spans="1:20">
+      <c r="U332" s="6"/>
+    </row>
+    <row r="333" spans="1:21">
       <c r="A333" s="6"/>
       <c r="B333" s="6"/>
       <c r="C333" s="6"/>
@@ -9047,8 +10824,9 @@
       <c r="R333" s="6"/>
       <c r="S333" s="6"/>
       <c r="T333" s="6"/>
-    </row>
-    <row r="334" spans="1:20">
+      <c r="U333" s="6"/>
+    </row>
+    <row r="334" spans="1:21">
       <c r="A334" s="6"/>
       <c r="B334" s="6"/>
       <c r="C334" s="6"/>
@@ -9069,8 +10847,9 @@
       <c r="R334" s="6"/>
       <c r="S334" s="6"/>
       <c r="T334" s="6"/>
-    </row>
-    <row r="335" spans="1:20">
+      <c r="U334" s="6"/>
+    </row>
+    <row r="335" spans="1:21">
       <c r="A335" s="6"/>
       <c r="B335" s="6"/>
       <c r="C335" s="6"/>
@@ -9091,8 +10870,9 @@
       <c r="R335" s="6"/>
       <c r="S335" s="6"/>
       <c r="T335" s="6"/>
-    </row>
-    <row r="336" spans="1:20">
+      <c r="U335" s="6"/>
+    </row>
+    <row r="336" spans="1:21">
       <c r="A336" s="6"/>
       <c r="B336" s="6"/>
       <c r="C336" s="6"/>
@@ -9113,8 +10893,9 @@
       <c r="R336" s="6"/>
       <c r="S336" s="6"/>
       <c r="T336" s="6"/>
-    </row>
-    <row r="337" spans="1:20">
+      <c r="U336" s="6"/>
+    </row>
+    <row r="337" spans="1:21">
       <c r="A337" s="6"/>
       <c r="B337" s="6"/>
       <c r="C337" s="6"/>
@@ -9135,8 +10916,9 @@
       <c r="R337" s="6"/>
       <c r="S337" s="6"/>
       <c r="T337" s="6"/>
-    </row>
-    <row r="338" spans="1:20">
+      <c r="U337" s="6"/>
+    </row>
+    <row r="338" spans="1:21">
       <c r="A338" s="6"/>
       <c r="B338" s="6"/>
       <c r="C338" s="6"/>
@@ -9157,8 +10939,9 @@
       <c r="R338" s="6"/>
       <c r="S338" s="6"/>
       <c r="T338" s="6"/>
-    </row>
-    <row r="339" spans="1:20">
+      <c r="U338" s="6"/>
+    </row>
+    <row r="339" spans="1:21">
       <c r="A339" s="6"/>
       <c r="B339" s="6"/>
       <c r="C339" s="6"/>
@@ -9179,8 +10962,9 @@
       <c r="R339" s="6"/>
       <c r="S339" s="6"/>
       <c r="T339" s="6"/>
-    </row>
-    <row r="340" spans="1:20">
+      <c r="U339" s="6"/>
+    </row>
+    <row r="340" spans="1:21">
       <c r="A340" s="6"/>
       <c r="B340" s="6"/>
       <c r="C340" s="6"/>
@@ -9201,8 +10985,9 @@
       <c r="R340" s="6"/>
       <c r="S340" s="6"/>
       <c r="T340" s="6"/>
-    </row>
-    <row r="341" spans="1:20">
+      <c r="U340" s="6"/>
+    </row>
+    <row r="341" spans="1:21">
       <c r="A341" s="6"/>
       <c r="B341" s="6"/>
       <c r="C341" s="6"/>
@@ -9223,8 +11008,9 @@
       <c r="R341" s="6"/>
       <c r="S341" s="6"/>
       <c r="T341" s="6"/>
-    </row>
-    <row r="342" spans="1:20">
+      <c r="U341" s="6"/>
+    </row>
+    <row r="342" spans="1:21">
       <c r="A342" s="6"/>
       <c r="B342" s="6"/>
       <c r="C342" s="6"/>
@@ -9245,8 +11031,9 @@
       <c r="R342" s="6"/>
       <c r="S342" s="6"/>
       <c r="T342" s="6"/>
-    </row>
-    <row r="343" spans="1:20">
+      <c r="U342" s="6"/>
+    </row>
+    <row r="343" spans="1:21">
       <c r="A343" s="6"/>
       <c r="B343" s="6"/>
       <c r="C343" s="6"/>
@@ -9267,8 +11054,9 @@
       <c r="R343" s="6"/>
       <c r="S343" s="6"/>
       <c r="T343" s="6"/>
-    </row>
-    <row r="344" spans="1:20">
+      <c r="U343" s="6"/>
+    </row>
+    <row r="344" spans="1:21">
       <c r="A344" s="6"/>
       <c r="B344" s="6"/>
       <c r="C344" s="6"/>
@@ -9289,8 +11077,9 @@
       <c r="R344" s="6"/>
       <c r="S344" s="6"/>
       <c r="T344" s="6"/>
-    </row>
-    <row r="345" spans="1:20">
+      <c r="U344" s="6"/>
+    </row>
+    <row r="345" spans="1:21">
       <c r="A345" s="6"/>
       <c r="B345" s="6"/>
       <c r="C345" s="6"/>
@@ -9311,8 +11100,9 @@
       <c r="R345" s="6"/>
       <c r="S345" s="6"/>
       <c r="T345" s="6"/>
-    </row>
-    <row r="346" spans="1:20">
+      <c r="U345" s="6"/>
+    </row>
+    <row r="346" spans="1:21">
       <c r="A346" s="6"/>
       <c r="B346" s="6"/>
       <c r="C346" s="6"/>
@@ -9333,8 +11123,9 @@
       <c r="R346" s="6"/>
       <c r="S346" s="6"/>
       <c r="T346" s="6"/>
-    </row>
-    <row r="347" spans="1:20">
+      <c r="U346" s="6"/>
+    </row>
+    <row r="347" spans="1:21">
       <c r="A347" s="6"/>
       <c r="B347" s="6"/>
       <c r="C347" s="6"/>
@@ -9355,8 +11146,9 @@
       <c r="R347" s="6"/>
       <c r="S347" s="6"/>
       <c r="T347" s="6"/>
-    </row>
-    <row r="348" spans="1:20">
+      <c r="U347" s="6"/>
+    </row>
+    <row r="348" spans="1:21">
       <c r="A348" s="6"/>
       <c r="B348" s="6"/>
       <c r="C348" s="6"/>
@@ -9377,8 +11169,9 @@
       <c r="R348" s="6"/>
       <c r="S348" s="6"/>
       <c r="T348" s="6"/>
-    </row>
-    <row r="349" spans="1:20">
+      <c r="U348" s="6"/>
+    </row>
+    <row r="349" spans="1:21">
       <c r="A349" s="6"/>
       <c r="B349" s="6"/>
       <c r="C349" s="6"/>
@@ -9399,8 +11192,9 @@
       <c r="R349" s="6"/>
       <c r="S349" s="6"/>
       <c r="T349" s="6"/>
-    </row>
-    <row r="350" spans="1:20">
+      <c r="U349" s="6"/>
+    </row>
+    <row r="350" spans="1:21">
       <c r="A350" s="6"/>
       <c r="B350" s="6"/>
       <c r="C350" s="6"/>
@@ -9421,8 +11215,9 @@
       <c r="R350" s="6"/>
       <c r="S350" s="6"/>
       <c r="T350" s="6"/>
-    </row>
-    <row r="351" spans="1:20">
+      <c r="U350" s="6"/>
+    </row>
+    <row r="351" spans="1:21">
       <c r="A351" s="6"/>
       <c r="B351" s="6"/>
       <c r="C351" s="6"/>
@@ -9443,8 +11238,9 @@
       <c r="R351" s="6"/>
       <c r="S351" s="6"/>
       <c r="T351" s="6"/>
-    </row>
-    <row r="352" spans="1:20">
+      <c r="U351" s="6"/>
+    </row>
+    <row r="352" spans="1:21">
       <c r="A352" s="6"/>
       <c r="B352" s="6"/>
       <c r="C352" s="6"/>
@@ -9465,8 +11261,9 @@
       <c r="R352" s="6"/>
       <c r="S352" s="6"/>
       <c r="T352" s="6"/>
-    </row>
-    <row r="353" spans="1:20">
+      <c r="U352" s="6"/>
+    </row>
+    <row r="353" spans="1:21">
       <c r="A353" s="6"/>
       <c r="B353" s="6"/>
       <c r="C353" s="6"/>
@@ -9487,8 +11284,9 @@
       <c r="R353" s="6"/>
       <c r="S353" s="6"/>
       <c r="T353" s="6"/>
-    </row>
-    <row r="354" spans="1:20">
+      <c r="U353" s="6"/>
+    </row>
+    <row r="354" spans="1:21">
       <c r="A354" s="6"/>
       <c r="B354" s="6"/>
       <c r="C354" s="6"/>
@@ -9509,8 +11307,9 @@
       <c r="R354" s="6"/>
       <c r="S354" s="6"/>
       <c r="T354" s="6"/>
-    </row>
-    <row r="355" spans="1:20">
+      <c r="U354" s="6"/>
+    </row>
+    <row r="355" spans="1:21">
       <c r="A355" s="6"/>
       <c r="B355" s="6"/>
       <c r="C355" s="6"/>
@@ -9531,8 +11330,9 @@
       <c r="R355" s="6"/>
       <c r="S355" s="6"/>
       <c r="T355" s="6"/>
-    </row>
-    <row r="356" spans="1:20">
+      <c r="U355" s="6"/>
+    </row>
+    <row r="356" spans="1:21">
       <c r="A356" s="6"/>
       <c r="B356" s="6"/>
       <c r="C356" s="6"/>
@@ -9553,8 +11353,9 @@
       <c r="R356" s="6"/>
       <c r="S356" s="6"/>
       <c r="T356" s="6"/>
-    </row>
-    <row r="357" spans="1:20">
+      <c r="U356" s="6"/>
+    </row>
+    <row r="357" spans="1:21">
       <c r="A357" s="6"/>
       <c r="B357" s="6"/>
       <c r="C357" s="6"/>
@@ -9575,8 +11376,9 @@
       <c r="R357" s="6"/>
       <c r="S357" s="6"/>
       <c r="T357" s="6"/>
-    </row>
-    <row r="358" spans="1:20">
+      <c r="U357" s="6"/>
+    </row>
+    <row r="358" spans="1:21">
       <c r="A358" s="6"/>
       <c r="B358" s="6"/>
       <c r="C358" s="6"/>
@@ -9597,8 +11399,9 @@
       <c r="R358" s="6"/>
       <c r="S358" s="6"/>
       <c r="T358" s="6"/>
-    </row>
-    <row r="359" spans="1:20">
+      <c r="U358" s="6"/>
+    </row>
+    <row r="359" spans="1:21">
       <c r="A359" s="6"/>
       <c r="B359" s="6"/>
       <c r="C359" s="6"/>
@@ -9619,8 +11422,9 @@
       <c r="R359" s="6"/>
       <c r="S359" s="6"/>
       <c r="T359" s="6"/>
-    </row>
-    <row r="360" spans="1:20">
+      <c r="U359" s="6"/>
+    </row>
+    <row r="360" spans="1:21">
       <c r="A360" s="6"/>
       <c r="B360" s="6"/>
       <c r="C360" s="6"/>
@@ -9641,8 +11445,9 @@
       <c r="R360" s="6"/>
       <c r="S360" s="6"/>
       <c r="T360" s="6"/>
-    </row>
-    <row r="361" spans="1:20">
+      <c r="U360" s="6"/>
+    </row>
+    <row r="361" spans="1:21">
       <c r="A361" s="6"/>
       <c r="B361" s="6"/>
       <c r="C361" s="6"/>
@@ -9663,8 +11468,9 @@
       <c r="R361" s="6"/>
       <c r="S361" s="6"/>
       <c r="T361" s="6"/>
-    </row>
-    <row r="362" spans="1:20">
+      <c r="U361" s="6"/>
+    </row>
+    <row r="362" spans="1:21">
       <c r="A362" s="6"/>
       <c r="B362" s="6"/>
       <c r="C362" s="6"/>
@@ -9685,8 +11491,9 @@
       <c r="R362" s="6"/>
       <c r="S362" s="6"/>
       <c r="T362" s="6"/>
-    </row>
-    <row r="363" spans="1:20">
+      <c r="U362" s="6"/>
+    </row>
+    <row r="363" spans="1:21">
       <c r="A363" s="6"/>
       <c r="B363" s="6"/>
       <c r="C363" s="6"/>
@@ -9707,8 +11514,9 @@
       <c r="R363" s="6"/>
       <c r="S363" s="6"/>
       <c r="T363" s="6"/>
-    </row>
-    <row r="364" spans="1:20">
+      <c r="U363" s="6"/>
+    </row>
+    <row r="364" spans="1:21">
       <c r="A364" s="6"/>
       <c r="B364" s="6"/>
       <c r="C364" s="6"/>
@@ -9729,8 +11537,9 @@
       <c r="R364" s="6"/>
       <c r="S364" s="6"/>
       <c r="T364" s="6"/>
-    </row>
-    <row r="365" spans="1:20">
+      <c r="U364" s="6"/>
+    </row>
+    <row r="365" spans="1:21">
       <c r="A365" s="6"/>
       <c r="B365" s="6"/>
       <c r="C365" s="6"/>
@@ -9751,8 +11560,9 @@
       <c r="R365" s="6"/>
       <c r="S365" s="6"/>
       <c r="T365" s="6"/>
-    </row>
-    <row r="366" spans="1:20">
+      <c r="U365" s="6"/>
+    </row>
+    <row r="366" spans="1:21">
       <c r="A366" s="6"/>
       <c r="B366" s="6"/>
       <c r="C366" s="6"/>
@@ -9773,8 +11583,9 @@
       <c r="R366" s="6"/>
       <c r="S366" s="6"/>
       <c r="T366" s="6"/>
-    </row>
-    <row r="367" spans="1:20">
+      <c r="U366" s="6"/>
+    </row>
+    <row r="367" spans="1:21">
       <c r="A367" s="6"/>
       <c r="B367" s="6"/>
       <c r="C367" s="6"/>
@@ -9795,8 +11606,9 @@
       <c r="R367" s="6"/>
       <c r="S367" s="6"/>
       <c r="T367" s="6"/>
-    </row>
-    <row r="368" spans="1:20">
+      <c r="U367" s="6"/>
+    </row>
+    <row r="368" spans="1:21">
       <c r="A368" s="6"/>
       <c r="B368" s="6"/>
       <c r="C368" s="6"/>
@@ -9817,8 +11629,9 @@
       <c r="R368" s="6"/>
       <c r="S368" s="6"/>
       <c r="T368" s="6"/>
-    </row>
-    <row r="369" spans="1:20">
+      <c r="U368" s="6"/>
+    </row>
+    <row r="369" spans="1:21">
       <c r="A369" s="6"/>
       <c r="B369" s="6"/>
       <c r="C369" s="6"/>
@@ -9839,8 +11652,9 @@
       <c r="R369" s="6"/>
       <c r="S369" s="6"/>
       <c r="T369" s="6"/>
-    </row>
-    <row r="370" spans="1:20">
+      <c r="U369" s="6"/>
+    </row>
+    <row r="370" spans="1:21">
       <c r="A370" s="6"/>
       <c r="B370" s="6"/>
       <c r="C370" s="6"/>
@@ -9861,8 +11675,9 @@
       <c r="R370" s="6"/>
       <c r="S370" s="6"/>
       <c r="T370" s="6"/>
-    </row>
-    <row r="371" spans="1:20">
+      <c r="U370" s="6"/>
+    </row>
+    <row r="371" spans="1:21">
       <c r="A371" s="6"/>
       <c r="B371" s="6"/>
       <c r="C371" s="6"/>
@@ -9883,8 +11698,9 @@
       <c r="R371" s="6"/>
       <c r="S371" s="6"/>
       <c r="T371" s="6"/>
-    </row>
-    <row r="372" spans="1:20">
+      <c r="U371" s="6"/>
+    </row>
+    <row r="372" spans="1:21">
       <c r="A372" s="6"/>
       <c r="B372" s="6"/>
       <c r="C372" s="6"/>
@@ -9905,8 +11721,9 @@
       <c r="R372" s="6"/>
       <c r="S372" s="6"/>
       <c r="T372" s="6"/>
-    </row>
-    <row r="373" spans="1:20">
+      <c r="U372" s="6"/>
+    </row>
+    <row r="373" spans="1:21">
       <c r="A373" s="6"/>
       <c r="B373" s="6"/>
       <c r="C373" s="6"/>
@@ -9927,8 +11744,9 @@
       <c r="R373" s="6"/>
       <c r="S373" s="6"/>
       <c r="T373" s="6"/>
-    </row>
-    <row r="374" spans="1:20">
+      <c r="U373" s="6"/>
+    </row>
+    <row r="374" spans="1:21">
       <c r="A374" s="6"/>
       <c r="B374" s="6"/>
       <c r="C374" s="6"/>
@@ -9949,8 +11767,9 @@
       <c r="R374" s="6"/>
       <c r="S374" s="6"/>
       <c r="T374" s="6"/>
-    </row>
-    <row r="375" spans="1:20">
+      <c r="U374" s="6"/>
+    </row>
+    <row r="375" spans="1:21">
       <c r="A375" s="6"/>
       <c r="B375" s="6"/>
       <c r="C375" s="6"/>
@@ -9971,8 +11790,9 @@
       <c r="R375" s="6"/>
       <c r="S375" s="6"/>
       <c r="T375" s="6"/>
-    </row>
-    <row r="376" spans="1:20">
+      <c r="U375" s="6"/>
+    </row>
+    <row r="376" spans="1:21">
       <c r="A376" s="6"/>
       <c r="B376" s="6"/>
       <c r="C376" s="6"/>
@@ -9993,8 +11813,9 @@
       <c r="R376" s="6"/>
       <c r="S376" s="6"/>
       <c r="T376" s="6"/>
-    </row>
-    <row r="377" spans="1:20">
+      <c r="U376" s="6"/>
+    </row>
+    <row r="377" spans="1:21">
       <c r="A377" s="6"/>
       <c r="B377" s="6"/>
       <c r="C377" s="6"/>
@@ -10015,8 +11836,9 @@
       <c r="R377" s="6"/>
       <c r="S377" s="6"/>
       <c r="T377" s="6"/>
-    </row>
-    <row r="378" spans="1:20">
+      <c r="U377" s="6"/>
+    </row>
+    <row r="378" spans="1:21">
       <c r="A378" s="6"/>
       <c r="B378" s="6"/>
       <c r="C378" s="6"/>
@@ -10037,8 +11859,9 @@
       <c r="R378" s="6"/>
       <c r="S378" s="6"/>
       <c r="T378" s="6"/>
-    </row>
-    <row r="379" spans="1:20">
+      <c r="U378" s="6"/>
+    </row>
+    <row r="379" spans="1:21">
       <c r="A379" s="6"/>
       <c r="B379" s="6"/>
       <c r="C379" s="6"/>
@@ -10059,8 +11882,9 @@
       <c r="R379" s="6"/>
       <c r="S379" s="6"/>
       <c r="T379" s="6"/>
-    </row>
-    <row r="380" spans="1:20">
+      <c r="U379" s="6"/>
+    </row>
+    <row r="380" spans="1:21">
       <c r="A380" s="6"/>
       <c r="B380" s="6"/>
       <c r="C380" s="6"/>
@@ -10081,8 +11905,9 @@
       <c r="R380" s="6"/>
       <c r="S380" s="6"/>
       <c r="T380" s="6"/>
-    </row>
-    <row r="381" spans="1:20">
+      <c r="U380" s="6"/>
+    </row>
+    <row r="381" spans="1:21">
       <c r="A381" s="6"/>
       <c r="B381" s="6"/>
       <c r="C381" s="6"/>
@@ -10103,8 +11928,9 @@
       <c r="R381" s="6"/>
       <c r="S381" s="6"/>
       <c r="T381" s="6"/>
-    </row>
-    <row r="382" spans="1:20">
+      <c r="U381" s="6"/>
+    </row>
+    <row r="382" spans="1:21">
       <c r="A382" s="6"/>
       <c r="B382" s="6"/>
       <c r="C382" s="6"/>
@@ -10125,8 +11951,9 @@
       <c r="R382" s="6"/>
       <c r="S382" s="6"/>
       <c r="T382" s="6"/>
-    </row>
-    <row r="383" spans="1:20">
+      <c r="U382" s="6"/>
+    </row>
+    <row r="383" spans="1:21">
       <c r="A383" s="6"/>
       <c r="B383" s="6"/>
       <c r="C383" s="6"/>
@@ -10147,8 +11974,9 @@
       <c r="R383" s="6"/>
       <c r="S383" s="6"/>
       <c r="T383" s="6"/>
-    </row>
-    <row r="384" spans="1:20">
+      <c r="U383" s="6"/>
+    </row>
+    <row r="384" spans="1:21">
       <c r="A384" s="6"/>
       <c r="B384" s="6"/>
       <c r="C384" s="6"/>
@@ -10169,8 +11997,9 @@
       <c r="R384" s="6"/>
       <c r="S384" s="6"/>
       <c r="T384" s="6"/>
-    </row>
-    <row r="385" spans="1:20">
+      <c r="U384" s="6"/>
+    </row>
+    <row r="385" spans="1:21">
       <c r="A385" s="6"/>
       <c r="B385" s="6"/>
       <c r="C385" s="6"/>
@@ -10191,8 +12020,9 @@
       <c r="R385" s="6"/>
       <c r="S385" s="6"/>
       <c r="T385" s="6"/>
-    </row>
-    <row r="386" spans="1:20">
+      <c r="U385" s="6"/>
+    </row>
+    <row r="386" spans="1:21">
       <c r="A386" s="6"/>
       <c r="B386" s="6"/>
       <c r="C386" s="6"/>
@@ -10213,8 +12043,9 @@
       <c r="R386" s="6"/>
       <c r="S386" s="6"/>
       <c r="T386" s="6"/>
-    </row>
-    <row r="387" spans="1:20">
+      <c r="U386" s="6"/>
+    </row>
+    <row r="387" spans="1:21">
       <c r="A387" s="6"/>
       <c r="B387" s="6"/>
       <c r="C387" s="6"/>
@@ -10235,8 +12066,9 @@
       <c r="R387" s="6"/>
       <c r="S387" s="6"/>
       <c r="T387" s="6"/>
-    </row>
-    <row r="388" spans="1:20">
+      <c r="U387" s="6"/>
+    </row>
+    <row r="388" spans="1:21">
       <c r="A388" s="6"/>
       <c r="B388" s="6"/>
       <c r="C388" s="6"/>
@@ -10257,8 +12089,9 @@
       <c r="R388" s="6"/>
       <c r="S388" s="6"/>
       <c r="T388" s="6"/>
-    </row>
-    <row r="389" spans="1:20">
+      <c r="U388" s="6"/>
+    </row>
+    <row r="389" spans="1:21">
       <c r="A389" s="6"/>
       <c r="B389" s="6"/>
       <c r="C389" s="6"/>
@@ -10279,8 +12112,9 @@
       <c r="R389" s="6"/>
       <c r="S389" s="6"/>
       <c r="T389" s="6"/>
-    </row>
-    <row r="390" spans="1:20">
+      <c r="U389" s="6"/>
+    </row>
+    <row r="390" spans="1:21">
       <c r="A390" s="6"/>
       <c r="B390" s="6"/>
       <c r="C390" s="6"/>
@@ -10301,8 +12135,9 @@
       <c r="R390" s="6"/>
       <c r="S390" s="6"/>
       <c r="T390" s="6"/>
-    </row>
-    <row r="391" spans="1:20">
+      <c r="U390" s="6"/>
+    </row>
+    <row r="391" spans="1:21">
       <c r="A391" s="6"/>
       <c r="B391" s="6"/>
       <c r="C391" s="6"/>
@@ -10323,8 +12158,9 @@
       <c r="R391" s="6"/>
       <c r="S391" s="6"/>
       <c r="T391" s="6"/>
-    </row>
-    <row r="392" spans="1:20">
+      <c r="U391" s="6"/>
+    </row>
+    <row r="392" spans="1:21">
       <c r="A392" s="6"/>
       <c r="B392" s="6"/>
       <c r="C392" s="6"/>
@@ -10345,8 +12181,9 @@
       <c r="R392" s="6"/>
       <c r="S392" s="6"/>
       <c r="T392" s="6"/>
-    </row>
-    <row r="393" spans="1:20">
+      <c r="U392" s="6"/>
+    </row>
+    <row r="393" spans="1:21">
       <c r="A393" s="6"/>
       <c r="B393" s="6"/>
       <c r="C393" s="6"/>
@@ -10367,8 +12204,9 @@
       <c r="R393" s="6"/>
       <c r="S393" s="6"/>
       <c r="T393" s="6"/>
-    </row>
-    <row r="394" spans="1:20">
+      <c r="U393" s="6"/>
+    </row>
+    <row r="394" spans="1:21">
       <c r="A394" s="6"/>
       <c r="B394" s="6"/>
       <c r="C394" s="6"/>
@@ -10389,8 +12227,9 @@
       <c r="R394" s="6"/>
       <c r="S394" s="6"/>
       <c r="T394" s="6"/>
-    </row>
-    <row r="395" spans="1:20">
+      <c r="U394" s="6"/>
+    </row>
+    <row r="395" spans="1:21">
       <c r="A395" s="6"/>
       <c r="B395" s="6"/>
       <c r="C395" s="6"/>
@@ -10411,8 +12250,9 @@
       <c r="R395" s="6"/>
       <c r="S395" s="6"/>
       <c r="T395" s="6"/>
-    </row>
-    <row r="396" spans="1:20">
+      <c r="U395" s="6"/>
+    </row>
+    <row r="396" spans="1:21">
       <c r="A396" s="6"/>
       <c r="B396" s="6"/>
       <c r="C396" s="6"/>
@@ -10433,8 +12273,9 @@
       <c r="R396" s="6"/>
       <c r="S396" s="6"/>
       <c r="T396" s="6"/>
-    </row>
-    <row r="397" spans="1:20">
+      <c r="U396" s="6"/>
+    </row>
+    <row r="397" spans="1:21">
       <c r="A397" s="6"/>
       <c r="B397" s="6"/>
       <c r="C397" s="6"/>
@@ -10455,8 +12296,9 @@
       <c r="R397" s="6"/>
       <c r="S397" s="6"/>
       <c r="T397" s="6"/>
-    </row>
-    <row r="398" spans="1:20">
+      <c r="U397" s="6"/>
+    </row>
+    <row r="398" spans="1:21">
       <c r="A398" s="6"/>
       <c r="B398" s="6"/>
       <c r="C398" s="6"/>
@@ -10477,8 +12319,9 @@
       <c r="R398" s="6"/>
       <c r="S398" s="6"/>
       <c r="T398" s="6"/>
-    </row>
-    <row r="399" spans="1:20">
+      <c r="U398" s="6"/>
+    </row>
+    <row r="399" spans="1:21">
       <c r="A399" s="6"/>
       <c r="B399" s="6"/>
       <c r="C399" s="6"/>
@@ -10499,8 +12342,9 @@
       <c r="R399" s="6"/>
       <c r="S399" s="6"/>
       <c r="T399" s="6"/>
-    </row>
-    <row r="400" spans="1:20">
+      <c r="U399" s="6"/>
+    </row>
+    <row r="400" spans="1:21">
       <c r="A400" s="6"/>
       <c r="B400" s="6"/>
       <c r="C400" s="6"/>
@@ -10521,8 +12365,9 @@
       <c r="R400" s="6"/>
       <c r="S400" s="6"/>
       <c r="T400" s="6"/>
-    </row>
-    <row r="401" spans="1:20">
+      <c r="U400" s="6"/>
+    </row>
+    <row r="401" spans="1:21">
       <c r="A401" s="6"/>
       <c r="B401" s="6"/>
       <c r="C401" s="6"/>
@@ -10543,8 +12388,9 @@
       <c r="R401" s="6"/>
       <c r="S401" s="6"/>
       <c r="T401" s="6"/>
-    </row>
-    <row r="402" spans="1:20">
+      <c r="U401" s="6"/>
+    </row>
+    <row r="402" spans="1:21">
       <c r="A402" s="6"/>
       <c r="B402" s="6"/>
       <c r="C402" s="6"/>
@@ -10565,8 +12411,9 @@
       <c r="R402" s="6"/>
       <c r="S402" s="6"/>
       <c r="T402" s="6"/>
-    </row>
-    <row r="403" spans="1:20">
+      <c r="U402" s="6"/>
+    </row>
+    <row r="403" spans="1:21">
       <c r="A403" s="6"/>
       <c r="B403" s="6"/>
       <c r="C403" s="6"/>
@@ -10587,8 +12434,9 @@
       <c r="R403" s="6"/>
       <c r="S403" s="6"/>
       <c r="T403" s="6"/>
-    </row>
-    <row r="404" spans="1:20">
+      <c r="U403" s="6"/>
+    </row>
+    <row r="404" spans="1:21">
       <c r="A404" s="6"/>
       <c r="B404" s="6"/>
       <c r="C404" s="6"/>
@@ -10609,8 +12457,9 @@
       <c r="R404" s="6"/>
       <c r="S404" s="6"/>
       <c r="T404" s="6"/>
-    </row>
-    <row r="405" spans="1:20">
+      <c r="U404" s="6"/>
+    </row>
+    <row r="405" spans="1:21">
       <c r="A405" s="6"/>
       <c r="B405" s="6"/>
       <c r="C405" s="6"/>
@@ -10631,8 +12480,9 @@
       <c r="R405" s="6"/>
       <c r="S405" s="6"/>
       <c r="T405" s="6"/>
-    </row>
-    <row r="406" spans="1:20">
+      <c r="U405" s="6"/>
+    </row>
+    <row r="406" spans="1:21">
       <c r="A406" s="6"/>
       <c r="B406" s="6"/>
       <c r="C406" s="6"/>
@@ -10653,8 +12503,9 @@
       <c r="R406" s="6"/>
       <c r="S406" s="6"/>
       <c r="T406" s="6"/>
-    </row>
-    <row r="407" spans="1:20">
+      <c r="U406" s="6"/>
+    </row>
+    <row r="407" spans="1:21">
       <c r="A407" s="6"/>
       <c r="B407" s="6"/>
       <c r="C407" s="6"/>
@@ -10675,8 +12526,9 @@
       <c r="R407" s="6"/>
       <c r="S407" s="6"/>
       <c r="T407" s="6"/>
-    </row>
-    <row r="408" spans="1:20">
+      <c r="U407" s="6"/>
+    </row>
+    <row r="408" spans="1:21">
       <c r="A408" s="6"/>
       <c r="B408" s="6"/>
       <c r="C408" s="6"/>
@@ -10697,8 +12549,9 @@
       <c r="R408" s="6"/>
       <c r="S408" s="6"/>
       <c r="T408" s="6"/>
-    </row>
-    <row r="409" spans="1:20">
+      <c r="U408" s="6"/>
+    </row>
+    <row r="409" spans="1:21">
       <c r="A409" s="6"/>
       <c r="B409" s="6"/>
       <c r="C409" s="6"/>
@@ -10719,8 +12572,9 @@
       <c r="R409" s="6"/>
       <c r="S409" s="6"/>
       <c r="T409" s="6"/>
-    </row>
-    <row r="410" spans="1:20">
+      <c r="U409" s="6"/>
+    </row>
+    <row r="410" spans="1:21">
       <c r="A410" s="6"/>
       <c r="B410" s="6"/>
       <c r="C410" s="6"/>
@@ -10741,8 +12595,9 @@
       <c r="R410" s="6"/>
       <c r="S410" s="6"/>
       <c r="T410" s="6"/>
-    </row>
-    <row r="411" spans="1:20">
+      <c r="U410" s="6"/>
+    </row>
+    <row r="411" spans="1:21">
       <c r="A411" s="6"/>
       <c r="B411" s="6"/>
       <c r="C411" s="6"/>
@@ -10763,8 +12618,9 @@
       <c r="R411" s="6"/>
       <c r="S411" s="6"/>
       <c r="T411" s="6"/>
-    </row>
-    <row r="412" spans="1:20">
+      <c r="U411" s="6"/>
+    </row>
+    <row r="412" spans="1:21">
       <c r="A412" s="6"/>
       <c r="B412" s="6"/>
       <c r="C412" s="6"/>
@@ -10785,8 +12641,9 @@
       <c r="R412" s="6"/>
       <c r="S412" s="6"/>
       <c r="T412" s="6"/>
-    </row>
-    <row r="413" spans="1:20">
+      <c r="U412" s="6"/>
+    </row>
+    <row r="413" spans="1:21">
       <c r="A413" s="6"/>
       <c r="B413" s="6"/>
       <c r="C413" s="6"/>
@@ -10807,8 +12664,9 @@
       <c r="R413" s="6"/>
       <c r="S413" s="6"/>
       <c r="T413" s="6"/>
-    </row>
-    <row r="414" spans="1:20">
+      <c r="U413" s="6"/>
+    </row>
+    <row r="414" spans="1:21">
       <c r="A414" s="6"/>
       <c r="B414" s="6"/>
       <c r="C414" s="6"/>
@@ -10829,8 +12687,9 @@
       <c r="R414" s="6"/>
       <c r="S414" s="6"/>
       <c r="T414" s="6"/>
-    </row>
-    <row r="415" spans="1:20">
+      <c r="U414" s="6"/>
+    </row>
+    <row r="415" spans="1:21">
       <c r="A415" s="6"/>
       <c r="B415" s="6"/>
       <c r="C415" s="6"/>
@@ -10851,8 +12710,9 @@
       <c r="R415" s="6"/>
       <c r="S415" s="6"/>
       <c r="T415" s="6"/>
-    </row>
-    <row r="416" spans="1:20">
+      <c r="U415" s="6"/>
+    </row>
+    <row r="416" spans="1:21">
       <c r="A416" s="6"/>
       <c r="B416" s="6"/>
       <c r="C416" s="6"/>
@@ -10873,8 +12733,9 @@
       <c r="R416" s="6"/>
       <c r="S416" s="6"/>
       <c r="T416" s="6"/>
-    </row>
-    <row r="417" spans="1:20">
+      <c r="U416" s="6"/>
+    </row>
+    <row r="417" spans="1:21">
       <c r="A417" s="6"/>
       <c r="B417" s="6"/>
       <c r="C417" s="6"/>
@@ -10895,8 +12756,9 @@
       <c r="R417" s="6"/>
       <c r="S417" s="6"/>
       <c r="T417" s="6"/>
-    </row>
-    <row r="418" spans="1:20">
+      <c r="U417" s="6"/>
+    </row>
+    <row r="418" spans="1:21">
       <c r="A418" s="6"/>
       <c r="B418" s="6"/>
       <c r="C418" s="6"/>
@@ -10917,8 +12779,9 @@
       <c r="R418" s="6"/>
       <c r="S418" s="6"/>
       <c r="T418" s="6"/>
-    </row>
-    <row r="419" spans="1:20">
+      <c r="U418" s="6"/>
+    </row>
+    <row r="419" spans="1:21">
       <c r="A419" s="6"/>
       <c r="B419" s="6"/>
       <c r="C419" s="6"/>
@@ -10939,8 +12802,9 @@
       <c r="R419" s="6"/>
       <c r="S419" s="6"/>
       <c r="T419" s="6"/>
-    </row>
-    <row r="420" spans="1:20">
+      <c r="U419" s="6"/>
+    </row>
+    <row r="420" spans="1:21">
       <c r="A420" s="6"/>
       <c r="B420" s="6"/>
       <c r="C420" s="6"/>
@@ -10961,8 +12825,9 @@
       <c r="R420" s="6"/>
       <c r="S420" s="6"/>
       <c r="T420" s="6"/>
-    </row>
-    <row r="421" spans="1:20">
+      <c r="U420" s="6"/>
+    </row>
+    <row r="421" spans="1:21">
       <c r="A421" s="6"/>
       <c r="B421" s="6"/>
       <c r="C421" s="6"/>
@@ -10983,8 +12848,9 @@
       <c r="R421" s="6"/>
       <c r="S421" s="6"/>
       <c r="T421" s="6"/>
-    </row>
-    <row r="422" spans="1:20">
+      <c r="U421" s="6"/>
+    </row>
+    <row r="422" spans="1:21">
       <c r="A422" s="6"/>
       <c r="B422" s="6"/>
       <c r="C422" s="6"/>
@@ -11005,8 +12871,9 @@
       <c r="R422" s="6"/>
       <c r="S422" s="6"/>
       <c r="T422" s="6"/>
-    </row>
-    <row r="423" spans="1:20">
+      <c r="U422" s="6"/>
+    </row>
+    <row r="423" spans="1:21">
       <c r="A423" s="6"/>
       <c r="B423" s="6"/>
       <c r="C423" s="6"/>
@@ -11027,8 +12894,9 @@
       <c r="R423" s="6"/>
       <c r="S423" s="6"/>
       <c r="T423" s="6"/>
-    </row>
-    <row r="424" spans="1:20">
+      <c r="U423" s="6"/>
+    </row>
+    <row r="424" spans="1:21">
       <c r="A424" s="6"/>
       <c r="B424" s="6"/>
       <c r="C424" s="6"/>
@@ -11049,8 +12917,9 @@
       <c r="R424" s="6"/>
       <c r="S424" s="6"/>
       <c r="T424" s="6"/>
-    </row>
-    <row r="425" spans="1:20">
+      <c r="U424" s="6"/>
+    </row>
+    <row r="425" spans="1:21">
       <c r="A425" s="6"/>
       <c r="B425" s="6"/>
       <c r="C425" s="6"/>
@@ -11071,8 +12940,9 @@
       <c r="R425" s="6"/>
       <c r="S425" s="6"/>
       <c r="T425" s="6"/>
-    </row>
-    <row r="426" spans="1:20">
+      <c r="U425" s="6"/>
+    </row>
+    <row r="426" spans="1:21">
       <c r="A426" s="6"/>
       <c r="B426" s="6"/>
       <c r="C426" s="6"/>
@@ -11093,8 +12963,9 @@
       <c r="R426" s="6"/>
       <c r="S426" s="6"/>
       <c r="T426" s="6"/>
-    </row>
-    <row r="427" spans="1:20">
+      <c r="U426" s="6"/>
+    </row>
+    <row r="427" spans="1:21">
       <c r="A427" s="6"/>
       <c r="B427" s="6"/>
       <c r="C427" s="6"/>
@@ -11115,8 +12986,9 @@
       <c r="R427" s="6"/>
       <c r="S427" s="6"/>
       <c r="T427" s="6"/>
-    </row>
-    <row r="428" spans="1:20">
+      <c r="U427" s="6"/>
+    </row>
+    <row r="428" spans="1:21">
       <c r="A428" s="6"/>
       <c r="B428" s="6"/>
       <c r="C428" s="6"/>
@@ -11137,8 +13009,9 @@
       <c r="R428" s="6"/>
       <c r="S428" s="6"/>
       <c r="T428" s="6"/>
-    </row>
-    <row r="429" spans="1:20">
+      <c r="U428" s="6"/>
+    </row>
+    <row r="429" spans="1:21">
       <c r="A429" s="6"/>
       <c r="B429" s="6"/>
       <c r="C429" s="6"/>
@@ -11159,8 +13032,9 @@
       <c r="R429" s="6"/>
       <c r="S429" s="6"/>
       <c r="T429" s="6"/>
-    </row>
-    <row r="430" spans="1:20">
+      <c r="U429" s="6"/>
+    </row>
+    <row r="430" spans="1:21">
       <c r="A430" s="6"/>
       <c r="B430" s="6"/>
       <c r="C430" s="6"/>
@@ -11181,8 +13055,9 @@
       <c r="R430" s="6"/>
       <c r="S430" s="6"/>
       <c r="T430" s="6"/>
-    </row>
-    <row r="431" spans="1:20">
+      <c r="U430" s="6"/>
+    </row>
+    <row r="431" spans="1:21">
       <c r="A431" s="6"/>
       <c r="B431" s="6"/>
       <c r="C431" s="6"/>
@@ -11203,8 +13078,9 @@
       <c r="R431" s="6"/>
       <c r="S431" s="6"/>
       <c r="T431" s="6"/>
-    </row>
-    <row r="432" spans="1:20">
+      <c r="U431" s="6"/>
+    </row>
+    <row r="432" spans="1:21">
       <c r="A432" s="6"/>
       <c r="B432" s="6"/>
       <c r="C432" s="6"/>
@@ -11225,8 +13101,9 @@
       <c r="R432" s="6"/>
       <c r="S432" s="6"/>
       <c r="T432" s="6"/>
-    </row>
-    <row r="433" spans="1:20">
+      <c r="U432" s="6"/>
+    </row>
+    <row r="433" spans="1:21">
       <c r="A433" s="6"/>
       <c r="B433" s="6"/>
       <c r="C433" s="6"/>
@@ -11247,8 +13124,9 @@
       <c r="R433" s="6"/>
       <c r="S433" s="6"/>
       <c r="T433" s="6"/>
-    </row>
-    <row r="434" spans="1:20">
+      <c r="U433" s="6"/>
+    </row>
+    <row r="434" spans="1:21">
       <c r="A434" s="6"/>
       <c r="B434" s="6"/>
       <c r="C434" s="6"/>
@@ -11269,8 +13147,9 @@
       <c r="R434" s="6"/>
       <c r="S434" s="6"/>
       <c r="T434" s="6"/>
-    </row>
-    <row r="435" spans="1:20">
+      <c r="U434" s="6"/>
+    </row>
+    <row r="435" spans="1:21">
       <c r="A435" s="6"/>
       <c r="B435" s="6"/>
       <c r="C435" s="6"/>
@@ -11291,8 +13170,9 @@
       <c r="R435" s="6"/>
       <c r="S435" s="6"/>
       <c r="T435" s="6"/>
-    </row>
-    <row r="436" spans="1:20">
+      <c r="U435" s="6"/>
+    </row>
+    <row r="436" spans="1:21">
       <c r="A436" s="6"/>
       <c r="B436" s="6"/>
       <c r="C436" s="6"/>
@@ -11313,8 +13193,9 @@
       <c r="R436" s="6"/>
       <c r="S436" s="6"/>
       <c r="T436" s="6"/>
-    </row>
-    <row r="437" spans="1:20">
+      <c r="U436" s="6"/>
+    </row>
+    <row r="437" spans="1:21">
       <c r="A437" s="6"/>
       <c r="B437" s="6"/>
       <c r="C437" s="6"/>
@@ -11335,8 +13216,9 @@
       <c r="R437" s="6"/>
       <c r="S437" s="6"/>
       <c r="T437" s="6"/>
-    </row>
-    <row r="438" spans="1:20">
+      <c r="U437" s="6"/>
+    </row>
+    <row r="438" spans="1:21">
       <c r="A438" s="6"/>
       <c r="B438" s="6"/>
       <c r="C438" s="6"/>
@@ -11357,8 +13239,9 @@
       <c r="R438" s="6"/>
       <c r="S438" s="6"/>
       <c r="T438" s="6"/>
-    </row>
-    <row r="439" spans="1:20">
+      <c r="U438" s="6"/>
+    </row>
+    <row r="439" spans="1:21">
       <c r="A439" s="6"/>
       <c r="B439" s="6"/>
       <c r="C439" s="6"/>
@@ -11379,8 +13262,9 @@
       <c r="R439" s="6"/>
       <c r="S439" s="6"/>
       <c r="T439" s="6"/>
-    </row>
-    <row r="440" spans="1:20">
+      <c r="U439" s="6"/>
+    </row>
+    <row r="440" spans="1:21">
       <c r="A440" s="6"/>
       <c r="B440" s="6"/>
       <c r="C440" s="6"/>
@@ -11401,8 +13285,9 @@
       <c r="R440" s="6"/>
       <c r="S440" s="6"/>
       <c r="T440" s="6"/>
-    </row>
-    <row r="441" spans="1:20">
+      <c r="U440" s="6"/>
+    </row>
+    <row r="441" spans="1:21">
       <c r="A441" s="6"/>
       <c r="B441" s="6"/>
       <c r="C441" s="6"/>
@@ -11423,8 +13308,9 @@
       <c r="R441" s="6"/>
       <c r="S441" s="6"/>
       <c r="T441" s="6"/>
-    </row>
-    <row r="442" spans="1:20">
+      <c r="U441" s="6"/>
+    </row>
+    <row r="442" spans="1:21">
       <c r="A442" s="6"/>
       <c r="B442" s="6"/>
       <c r="C442" s="6"/>
@@ -11445,8 +13331,9 @@
       <c r="R442" s="6"/>
       <c r="S442" s="6"/>
       <c r="T442" s="6"/>
-    </row>
-    <row r="443" spans="1:20">
+      <c r="U442" s="6"/>
+    </row>
+    <row r="443" spans="1:21">
       <c r="A443" s="6"/>
       <c r="B443" s="6"/>
       <c r="C443" s="6"/>
@@ -11467,8 +13354,9 @@
       <c r="R443" s="6"/>
       <c r="S443" s="6"/>
       <c r="T443" s="6"/>
-    </row>
-    <row r="444" spans="1:20">
+      <c r="U443" s="6"/>
+    </row>
+    <row r="444" spans="1:21">
       <c r="A444" s="6"/>
       <c r="B444" s="6"/>
       <c r="C444" s="6"/>
@@ -11489,8 +13377,9 @@
       <c r="R444" s="6"/>
       <c r="S444" s="6"/>
       <c r="T444" s="6"/>
-    </row>
-    <row r="445" spans="1:20">
+      <c r="U444" s="6"/>
+    </row>
+    <row r="445" spans="1:21">
       <c r="A445" s="6"/>
       <c r="B445" s="6"/>
       <c r="C445" s="6"/>
@@ -11511,8 +13400,9 @@
       <c r="R445" s="6"/>
       <c r="S445" s="6"/>
       <c r="T445" s="6"/>
-    </row>
-    <row r="446" spans="1:20">
+      <c r="U445" s="6"/>
+    </row>
+    <row r="446" spans="1:21">
       <c r="A446" s="6"/>
       <c r="B446" s="6"/>
       <c r="C446" s="6"/>
@@ -11533,8 +13423,9 @@
       <c r="R446" s="6"/>
       <c r="S446" s="6"/>
       <c r="T446" s="6"/>
-    </row>
-    <row r="447" spans="1:20">
+      <c r="U446" s="6"/>
+    </row>
+    <row r="447" spans="1:21">
       <c r="A447" s="6"/>
       <c r="B447" s="6"/>
       <c r="C447" s="6"/>
@@ -11555,8 +13446,9 @@
       <c r="R447" s="6"/>
       <c r="S447" s="6"/>
       <c r="T447" s="6"/>
-    </row>
-    <row r="448" spans="1:20">
+      <c r="U447" s="6"/>
+    </row>
+    <row r="448" spans="1:21">
       <c r="A448" s="6"/>
       <c r="B448" s="6"/>
       <c r="C448" s="6"/>
@@ -11577,8 +13469,9 @@
       <c r="R448" s="6"/>
       <c r="S448" s="6"/>
       <c r="T448" s="6"/>
-    </row>
-    <row r="449" spans="1:20">
+      <c r="U448" s="6"/>
+    </row>
+    <row r="449" spans="1:21">
       <c r="A449" s="6"/>
       <c r="B449" s="6"/>
       <c r="C449" s="6"/>
@@ -11599,8 +13492,9 @@
       <c r="R449" s="6"/>
       <c r="S449" s="6"/>
       <c r="T449" s="6"/>
-    </row>
-    <row r="450" spans="1:20">
+      <c r="U449" s="6"/>
+    </row>
+    <row r="450" spans="1:21">
       <c r="A450" s="6"/>
       <c r="B450" s="6"/>
       <c r="C450" s="6"/>
@@ -11621,8 +13515,9 @@
       <c r="R450" s="6"/>
       <c r="S450" s="6"/>
       <c r="T450" s="6"/>
-    </row>
-    <row r="451" spans="1:20">
+      <c r="U450" s="6"/>
+    </row>
+    <row r="451" spans="1:21">
       <c r="A451" s="6"/>
       <c r="B451" s="6"/>
       <c r="C451" s="6"/>
@@ -11643,8 +13538,9 @@
       <c r="R451" s="6"/>
       <c r="S451" s="6"/>
       <c r="T451" s="6"/>
-    </row>
-    <row r="452" spans="1:20">
+      <c r="U451" s="6"/>
+    </row>
+    <row r="452" spans="1:21">
       <c r="A452" s="6"/>
       <c r="B452" s="6"/>
       <c r="C452" s="6"/>
@@ -11665,8 +13561,9 @@
       <c r="R452" s="6"/>
       <c r="S452" s="6"/>
       <c r="T452" s="6"/>
-    </row>
-    <row r="453" spans="1:20">
+      <c r="U452" s="6"/>
+    </row>
+    <row r="453" spans="1:21">
       <c r="A453" s="6"/>
       <c r="B453" s="6"/>
       <c r="C453" s="6"/>
@@ -11687,8 +13584,9 @@
       <c r="R453" s="6"/>
       <c r="S453" s="6"/>
       <c r="T453" s="6"/>
-    </row>
-    <row r="454" spans="1:20">
+      <c r="U453" s="6"/>
+    </row>
+    <row r="454" spans="1:21">
       <c r="A454" s="6"/>
       <c r="B454" s="6"/>
       <c r="C454" s="6"/>
@@ -11709,8 +13607,9 @@
       <c r="R454" s="6"/>
       <c r="S454" s="6"/>
       <c r="T454" s="6"/>
-    </row>
-    <row r="455" spans="1:20">
+      <c r="U454" s="6"/>
+    </row>
+    <row r="455" spans="1:21">
       <c r="A455" s="6"/>
       <c r="B455" s="6"/>
       <c r="C455" s="6"/>
@@ -11731,8 +13630,9 @@
       <c r="R455" s="6"/>
       <c r="S455" s="6"/>
       <c r="T455" s="6"/>
-    </row>
-    <row r="456" spans="1:20">
+      <c r="U455" s="6"/>
+    </row>
+    <row r="456" spans="1:21">
       <c r="A456" s="6"/>
       <c r="B456" s="6"/>
       <c r="C456" s="6"/>
@@ -11753,8 +13653,9 @@
       <c r="R456" s="6"/>
       <c r="S456" s="6"/>
       <c r="T456" s="6"/>
-    </row>
-    <row r="457" spans="1:20">
+      <c r="U456" s="6"/>
+    </row>
+    <row r="457" spans="1:21">
       <c r="A457" s="6"/>
       <c r="B457" s="6"/>
       <c r="C457" s="6"/>
@@ -11775,8 +13676,9 @@
       <c r="R457" s="6"/>
       <c r="S457" s="6"/>
       <c r="T457" s="6"/>
-    </row>
-    <row r="458" spans="1:20">
+      <c r="U457" s="6"/>
+    </row>
+    <row r="458" spans="1:21">
       <c r="A458" s="6"/>
       <c r="B458" s="6"/>
       <c r="C458" s="6"/>
@@ -11797,8 +13699,9 @@
       <c r="R458" s="6"/>
       <c r="S458" s="6"/>
       <c r="T458" s="6"/>
-    </row>
-    <row r="459" spans="1:20">
+      <c r="U458" s="6"/>
+    </row>
+    <row r="459" spans="1:21">
       <c r="A459" s="6"/>
       <c r="B459" s="6"/>
       <c r="C459" s="6"/>
@@ -11819,8 +13722,9 @@
       <c r="R459" s="6"/>
       <c r="S459" s="6"/>
       <c r="T459" s="6"/>
-    </row>
-    <row r="460" spans="1:20">
+      <c r="U459" s="6"/>
+    </row>
+    <row r="460" spans="1:21">
       <c r="A460" s="6"/>
       <c r="B460" s="6"/>
       <c r="C460" s="6"/>
@@ -11841,8 +13745,9 @@
       <c r="R460" s="6"/>
       <c r="S460" s="6"/>
       <c r="T460" s="6"/>
-    </row>
-    <row r="461" spans="1:20">
+      <c r="U460" s="6"/>
+    </row>
+    <row r="461" spans="1:21">
       <c r="A461" s="6"/>
       <c r="B461" s="6"/>
       <c r="C461" s="6"/>
@@ -11863,8 +13768,9 @@
       <c r="R461" s="6"/>
       <c r="S461" s="6"/>
       <c r="T461" s="6"/>
-    </row>
-    <row r="462" spans="1:20">
+      <c r="U461" s="6"/>
+    </row>
+    <row r="462" spans="1:21">
       <c r="A462" s="6"/>
       <c r="B462" s="6"/>
       <c r="C462" s="6"/>
@@ -11885,8 +13791,9 @@
       <c r="R462" s="6"/>
       <c r="S462" s="6"/>
       <c r="T462" s="6"/>
-    </row>
-    <row r="463" spans="1:20">
+      <c r="U462" s="6"/>
+    </row>
+    <row r="463" spans="1:21">
       <c r="A463" s="6"/>
       <c r="B463" s="6"/>
       <c r="C463" s="6"/>
@@ -11907,8 +13814,9 @@
       <c r="R463" s="6"/>
       <c r="S463" s="6"/>
       <c r="T463" s="6"/>
-    </row>
-    <row r="464" spans="1:20">
+      <c r="U463" s="6"/>
+    </row>
+    <row r="464" spans="1:21">
       <c r="A464" s="6"/>
       <c r="B464" s="6"/>
       <c r="C464" s="6"/>
@@ -11929,8 +13837,9 @@
       <c r="R464" s="6"/>
       <c r="S464" s="6"/>
       <c r="T464" s="6"/>
-    </row>
-    <row r="465" spans="1:20">
+      <c r="U464" s="6"/>
+    </row>
+    <row r="465" spans="1:21">
       <c r="A465" s="6"/>
       <c r="B465" s="6"/>
       <c r="C465" s="6"/>
@@ -11951,8 +13860,9 @@
       <c r="R465" s="6"/>
       <c r="S465" s="6"/>
       <c r="T465" s="6"/>
-    </row>
-    <row r="466" spans="1:20">
+      <c r="U465" s="6"/>
+    </row>
+    <row r="466" spans="1:21">
       <c r="A466" s="6"/>
       <c r="B466" s="6"/>
       <c r="C466" s="6"/>
@@ -11973,8 +13883,9 @@
       <c r="R466" s="6"/>
       <c r="S466" s="6"/>
       <c r="T466" s="6"/>
-    </row>
-    <row r="467" spans="1:20">
+      <c r="U466" s="6"/>
+    </row>
+    <row r="467" spans="1:21">
       <c r="A467" s="6"/>
       <c r="B467" s="6"/>
       <c r="C467" s="6"/>
@@ -11995,8 +13906,9 @@
       <c r="R467" s="6"/>
       <c r="S467" s="6"/>
       <c r="T467" s="6"/>
-    </row>
-    <row r="468" spans="1:20">
+      <c r="U467" s="6"/>
+    </row>
+    <row r="468" spans="1:21">
       <c r="A468" s="6"/>
       <c r="B468" s="6"/>
       <c r="C468" s="6"/>
@@ -12017,8 +13929,9 @@
       <c r="R468" s="6"/>
       <c r="S468" s="6"/>
       <c r="T468" s="6"/>
-    </row>
-    <row r="469" spans="1:20">
+      <c r="U468" s="6"/>
+    </row>
+    <row r="469" spans="1:21">
       <c r="A469" s="6"/>
       <c r="B469" s="6"/>
       <c r="C469" s="6"/>
@@ -12039,8 +13952,9 @@
       <c r="R469" s="6"/>
       <c r="S469" s="6"/>
       <c r="T469" s="6"/>
-    </row>
-    <row r="470" spans="1:20">
+      <c r="U469" s="6"/>
+    </row>
+    <row r="470" spans="1:21">
       <c r="A470" s="6"/>
       <c r="B470" s="6"/>
       <c r="C470" s="6"/>
@@ -12061,8 +13975,9 @@
       <c r="R470" s="6"/>
       <c r="S470" s="6"/>
       <c r="T470" s="6"/>
-    </row>
-    <row r="471" spans="1:20">
+      <c r="U470" s="6"/>
+    </row>
+    <row r="471" spans="1:21">
       <c r="A471" s="6"/>
       <c r="B471" s="6"/>
       <c r="C471" s="6"/>
@@ -12083,8 +13998,9 @@
       <c r="R471" s="6"/>
       <c r="S471" s="6"/>
       <c r="T471" s="6"/>
-    </row>
-    <row r="472" spans="1:20">
+      <c r="U471" s="6"/>
+    </row>
+    <row r="472" spans="1:21">
       <c r="A472" s="6"/>
       <c r="B472" s="6"/>
       <c r="C472" s="6"/>
@@ -12105,8 +14021,9 @@
       <c r="R472" s="6"/>
       <c r="S472" s="6"/>
       <c r="T472" s="6"/>
-    </row>
-    <row r="473" spans="1:20">
+      <c r="U472" s="6"/>
+    </row>
+    <row r="473" spans="1:21">
       <c r="A473" s="6"/>
       <c r="B473" s="6"/>
       <c r="C473" s="6"/>
@@ -12127,8 +14044,9 @@
       <c r="R473" s="6"/>
       <c r="S473" s="6"/>
       <c r="T473" s="6"/>
-    </row>
-    <row r="474" spans="1:20">
+      <c r="U473" s="6"/>
+    </row>
+    <row r="474" spans="1:21">
       <c r="A474" s="6"/>
       <c r="B474" s="6"/>
       <c r="C474" s="6"/>
@@ -12149,8 +14067,9 @@
       <c r="R474" s="6"/>
       <c r="S474" s="6"/>
       <c r="T474" s="6"/>
-    </row>
-    <row r="475" spans="1:20">
+      <c r="U474" s="6"/>
+    </row>
+    <row r="475" spans="1:21">
       <c r="A475" s="6"/>
       <c r="B475" s="6"/>
       <c r="C475" s="6"/>
@@ -12171,8 +14090,9 @@
       <c r="R475" s="6"/>
       <c r="S475" s="6"/>
       <c r="T475" s="6"/>
-    </row>
-    <row r="476" spans="1:20">
+      <c r="U475" s="6"/>
+    </row>
+    <row r="476" spans="1:21">
       <c r="A476" s="6"/>
       <c r="B476" s="6"/>
       <c r="C476" s="6"/>
@@ -12193,8 +14113,9 @@
       <c r="R476" s="6"/>
       <c r="S476" s="6"/>
       <c r="T476" s="6"/>
-    </row>
-    <row r="477" spans="1:20">
+      <c r="U476" s="6"/>
+    </row>
+    <row r="477" spans="1:21">
       <c r="A477" s="6"/>
       <c r="B477" s="6"/>
       <c r="C477" s="6"/>
@@ -12215,8 +14136,9 @@
       <c r="R477" s="6"/>
       <c r="S477" s="6"/>
       <c r="T477" s="6"/>
-    </row>
-    <row r="478" spans="1:20">
+      <c r="U477" s="6"/>
+    </row>
+    <row r="478" spans="1:21">
       <c r="A478" s="6"/>
       <c r="B478" s="6"/>
       <c r="C478" s="6"/>
@@ -12237,8 +14159,9 @@
       <c r="R478" s="6"/>
       <c r="S478" s="6"/>
       <c r="T478" s="6"/>
-    </row>
-    <row r="479" spans="1:20">
+      <c r="U478" s="6"/>
+    </row>
+    <row r="479" spans="1:21">
       <c r="A479" s="6"/>
       <c r="B479" s="6"/>
       <c r="C479" s="6"/>
@@ -12259,8 +14182,9 @@
       <c r="R479" s="6"/>
       <c r="S479" s="6"/>
       <c r="T479" s="6"/>
-    </row>
-    <row r="480" spans="1:20">
+      <c r="U479" s="6"/>
+    </row>
+    <row r="480" spans="1:21">
       <c r="A480" s="6"/>
       <c r="B480" s="6"/>
       <c r="C480" s="6"/>
@@ -12281,8 +14205,9 @@
       <c r="R480" s="6"/>
       <c r="S480" s="6"/>
       <c r="T480" s="6"/>
-    </row>
-    <row r="481" spans="1:20">
+      <c r="U480" s="6"/>
+    </row>
+    <row r="481" spans="1:21">
       <c r="A481" s="6"/>
       <c r="B481" s="6"/>
       <c r="C481" s="6"/>
@@ -12303,8 +14228,9 @@
       <c r="R481" s="6"/>
       <c r="S481" s="6"/>
       <c r="T481" s="6"/>
-    </row>
-    <row r="482" spans="1:20">
+      <c r="U481" s="6"/>
+    </row>
+    <row r="482" spans="1:21">
       <c r="A482" s="6"/>
       <c r="B482" s="6"/>
       <c r="C482" s="6"/>
@@ -12325,8 +14251,9 @@
       <c r="R482" s="6"/>
       <c r="S482" s="6"/>
       <c r="T482" s="6"/>
-    </row>
-    <row r="483" spans="1:20">
+      <c r="U482" s="6"/>
+    </row>
+    <row r="483" spans="1:21">
       <c r="A483" s="6"/>
       <c r="B483" s="6"/>
       <c r="C483" s="6"/>
@@ -12347,8 +14274,9 @@
       <c r="R483" s="6"/>
       <c r="S483" s="6"/>
       <c r="T483" s="6"/>
-    </row>
-    <row r="484" spans="1:20">
+      <c r="U483" s="6"/>
+    </row>
+    <row r="484" spans="1:21">
       <c r="A484" s="6"/>
       <c r="B484" s="6"/>
       <c r="C484" s="6"/>
@@ -12369,8 +14297,9 @@
       <c r="R484" s="6"/>
       <c r="S484" s="6"/>
       <c r="T484" s="6"/>
-    </row>
-    <row r="485" spans="1:20">
+      <c r="U484" s="6"/>
+    </row>
+    <row r="485" spans="1:21">
       <c r="A485" s="6"/>
       <c r="B485" s="6"/>
       <c r="C485" s="6"/>
@@ -12391,8 +14320,9 @@
       <c r="R485" s="6"/>
       <c r="S485" s="6"/>
       <c r="T485" s="6"/>
-    </row>
-    <row r="486" spans="1:20">
+      <c r="U485" s="6"/>
+    </row>
+    <row r="486" spans="1:21">
       <c r="A486" s="6"/>
       <c r="B486" s="6"/>
       <c r="C486" s="6"/>
@@ -12413,8 +14343,9 @@
       <c r="R486" s="6"/>
       <c r="S486" s="6"/>
       <c r="T486" s="6"/>
-    </row>
-    <row r="487" spans="1:20">
+      <c r="U486" s="6"/>
+    </row>
+    <row r="487" spans="1:21">
       <c r="A487" s="6"/>
       <c r="B487" s="6"/>
       <c r="C487" s="6"/>
@@ -12435,8 +14366,9 @@
       <c r="R487" s="6"/>
       <c r="S487" s="6"/>
       <c r="T487" s="6"/>
-    </row>
-    <row r="488" spans="1:20">
+      <c r="U487" s="6"/>
+    </row>
+    <row r="488" spans="1:21">
       <c r="A488" s="6"/>
       <c r="B488" s="6"/>
       <c r="C488" s="6"/>
@@ -12457,8 +14389,9 @@
       <c r="R488" s="6"/>
       <c r="S488" s="6"/>
       <c r="T488" s="6"/>
-    </row>
-    <row r="489" spans="1:20">
+      <c r="U488" s="6"/>
+    </row>
+    <row r="489" spans="1:21">
       <c r="A489" s="6"/>
       <c r="B489" s="6"/>
       <c r="C489" s="6"/>
@@ -12479,8 +14412,9 @@
       <c r="R489" s="6"/>
       <c r="S489" s="6"/>
       <c r="T489" s="6"/>
-    </row>
-    <row r="490" spans="1:20">
+      <c r="U489" s="6"/>
+    </row>
+    <row r="490" spans="1:21">
       <c r="A490" s="6"/>
       <c r="B490" s="6"/>
       <c r="C490" s="6"/>
@@ -12501,8 +14435,9 @@
       <c r="R490" s="6"/>
       <c r="S490" s="6"/>
       <c r="T490" s="6"/>
-    </row>
-    <row r="491" spans="1:20">
+      <c r="U490" s="6"/>
+    </row>
+    <row r="491" spans="1:21">
       <c r="A491" s="6"/>
       <c r="B491" s="6"/>
       <c r="C491" s="6"/>
@@ -12523,8 +14458,9 @@
       <c r="R491" s="6"/>
       <c r="S491" s="6"/>
       <c r="T491" s="6"/>
-    </row>
-    <row r="492" spans="1:20">
+      <c r="U491" s="6"/>
+    </row>
+    <row r="492" spans="1:21">
       <c r="A492" s="6"/>
       <c r="B492" s="6"/>
       <c r="C492" s="6"/>
@@ -12545,8 +14481,9 @@
       <c r="R492" s="6"/>
       <c r="S492" s="6"/>
       <c r="T492" s="6"/>
-    </row>
-    <row r="493" spans="1:20">
+      <c r="U492" s="6"/>
+    </row>
+    <row r="493" spans="1:21">
       <c r="A493" s="6"/>
       <c r="B493" s="6"/>
       <c r="C493" s="6"/>
@@ -12567,8 +14504,9 @@
       <c r="R493" s="6"/>
       <c r="S493" s="6"/>
       <c r="T493" s="6"/>
-    </row>
-    <row r="494" spans="1:20">
+      <c r="U493" s="6"/>
+    </row>
+    <row r="494" spans="1:21">
       <c r="A494" s="6"/>
       <c r="B494" s="6"/>
       <c r="C494" s="6"/>
@@ -12589,8 +14527,9 @@
       <c r="R494" s="6"/>
       <c r="S494" s="6"/>
       <c r="T494" s="6"/>
-    </row>
-    <row r="495" spans="1:20">
+      <c r="U494" s="6"/>
+    </row>
+    <row r="495" spans="1:21">
       <c r="A495" s="6"/>
       <c r="B495" s="6"/>
       <c r="C495" s="6"/>
@@ -12611,8 +14550,9 @@
       <c r="R495" s="6"/>
       <c r="S495" s="6"/>
       <c r="T495" s="6"/>
-    </row>
-    <row r="496" spans="1:20">
+      <c r="U495" s="6"/>
+    </row>
+    <row r="496" spans="1:21">
       <c r="A496" s="6"/>
       <c r="B496" s="6"/>
       <c r="C496" s="6"/>
@@ -12633,8 +14573,9 @@
       <c r="R496" s="6"/>
       <c r="S496" s="6"/>
       <c r="T496" s="6"/>
-    </row>
-    <row r="497" spans="1:20">
+      <c r="U496" s="6"/>
+    </row>
+    <row r="497" spans="1:21">
       <c r="A497" s="6"/>
       <c r="B497" s="6"/>
       <c r="C497" s="6"/>
@@ -12655,8 +14596,9 @@
       <c r="R497" s="6"/>
       <c r="S497" s="6"/>
       <c r="T497" s="6"/>
-    </row>
-    <row r="498" spans="1:20">
+      <c r="U497" s="6"/>
+    </row>
+    <row r="498" spans="1:21">
       <c r="A498" s="6"/>
       <c r="B498" s="6"/>
       <c r="C498" s="6"/>
@@ -12677,8 +14619,9 @@
       <c r="R498" s="6"/>
       <c r="S498" s="6"/>
       <c r="T498" s="6"/>
-    </row>
-    <row r="499" spans="1:20">
+      <c r="U498" s="6"/>
+    </row>
+    <row r="499" spans="1:21">
       <c r="A499" s="6"/>
       <c r="B499" s="6"/>
       <c r="C499" s="6"/>
@@ -12699,8 +14642,9 @@
       <c r="R499" s="6"/>
       <c r="S499" s="6"/>
       <c r="T499" s="6"/>
-    </row>
-    <row r="500" spans="1:20">
+      <c r="U499" s="6"/>
+    </row>
+    <row r="500" spans="1:21">
       <c r="A500" s="6"/>
       <c r="B500" s="6"/>
       <c r="C500" s="6"/>
@@ -12721,11 +14665,12 @@
       <c r="R500" s="6"/>
       <c r="S500" s="6"/>
       <c r="T500" s="6"/>
+      <c r="U500" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B1:N1"/>
-    <mergeCell ref="O1:U1"/>
+    <mergeCell ref="P1:V1"/>
     <mergeCell ref="A1:A2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/同仁堂.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/同仁堂.xlsx
@@ -218,24 +218,18 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
+      <sz val="12"/>
       <color indexed="8"/>
-      <name val="Helvetica Neue"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Helvetica Neue"/>
+      <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -380,6 +374,13 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="36">
@@ -733,152 +734,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -918,20 +919,35 @@
     <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="10" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2882,7 +2898,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O3" sqref="O3:O23"/>
+      <selection pane="bottomRight" activeCell="Q3" sqref="Q3:T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -3005,14 +3021,14 @@
       <c r="U2" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="V2" s="17" t="s">
+      <c r="V2" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="W2" s="17" t="s">
+      <c r="W2" s="21" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" ht="18" spans="1:22">
       <c r="A3" s="5">
         <v>44523</v>
       </c>
@@ -3067,15 +3083,18 @@
       <c r="Q3" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="R3" s="12"/>
-      <c r="S3" s="13">
+      <c r="R3" s="13">
+        <f>O5/VLOOKUP([1]交易计划及执行表!A6,[1]交易计划及执行表!A4:BL10001,45,FALSE)</f>
+        <v>1.02111734830259</v>
+      </c>
+      <c r="S3" s="14">
         <f>(B3-VLOOKUP([1]交易计划及执行表!A6,[1]交易计划及执行表!A4:BL10001,48,FALSE))/VLOOKUP([1]交易计划及执行表!A6,[1]交易计划及执行表!A4:BL10001,48,FALSE)</f>
         <v>0.0447672694930331</v>
       </c>
-      <c r="T3" s="14" t="s">
+      <c r="T3" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="U3" s="16">
+      <c r="U3" s="22">
         <v>0.005</v>
       </c>
       <c r="V3" s="7"/>
@@ -3132,14 +3151,18 @@
       <c r="P4" s="7">
         <v>1</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="Q4" s="15">
         <v>1</v>
       </c>
-      <c r="S4" s="15">
+      <c r="R4" s="16">
+        <f>O4/VLOOKUP([1]交易计划及执行表!A6,[1]交易计划及执行表!A4:BL10001,45,FALSE)</f>
+        <v>1.04490777866881</v>
+      </c>
+      <c r="S4" s="17">
         <f>(B4-VLOOKUP([1]交易计划及执行表!A6,[1]交易计划及执行表!A4:BL10001,48,FALSE))/VLOOKUP([1]交易计划及执行表!A6,[1]交易计划及执行表!A4:BL10001,48,FALSE)</f>
         <v>0.0210495108212274</v>
       </c>
-      <c r="T4" s="16">
+      <c r="T4" s="18">
         <f>(D4-D3)/D3</f>
         <v>-0.00650452488687774</v>
       </c>
@@ -3198,15 +3221,18 @@
       <c r="P5" s="7">
         <v>2</v>
       </c>
-      <c r="Q5" s="7">
+      <c r="Q5" s="19">
         <v>2</v>
       </c>
-      <c r="R5" s="7"/>
-      <c r="S5" s="16">
+      <c r="R5" s="20">
+        <f>O5/VLOOKUP([1]交易计划及执行表!A6,[1]交易计划及执行表!A4:BL10001,45,FALSE)</f>
+        <v>1.02111734830259</v>
+      </c>
+      <c r="S5" s="18">
         <f>(B5-VLOOKUP([1]交易计划及执行表!A6,[1]交易计划及执行表!A4:BL10001,48,FALSE))/VLOOKUP([1]交易计划及执行表!A6,[1]交易计划及执行表!A4:BL10001,48,FALSE)</f>
         <v>0.0969463385710051</v>
       </c>
-      <c r="T5" s="16">
+      <c r="T5" s="18">
         <f>(D5-D4)/D4</f>
         <v>0.0703102761172786</v>
       </c>
@@ -3265,18 +3291,18 @@
       <c r="P6" s="7">
         <v>2</v>
       </c>
-      <c r="Q6" s="7">
+      <c r="Q6" s="19">
         <v>2</v>
       </c>
-      <c r="R6" s="6">
+      <c r="R6" s="20">
         <f>O6/VLOOKUP([1]交易计划及执行表!A6,[1]交易计划及执行表!A4:BL10001,45,FALSE)</f>
         <v>1.09703287890938</v>
       </c>
-      <c r="S6" s="16">
+      <c r="S6" s="18">
         <f>(B6-VLOOKUP([1]交易计划及执行表!A6,[1]交易计划及执行表!A4:BL10001,48,FALSE))/VLOOKUP([1]交易计划及执行表!A6,[1]交易计划及执行表!A4:BL10001,48,FALSE)</f>
         <v>0.0913133708864514</v>
       </c>
-      <c r="T6" s="16">
+      <c r="T6" s="18">
         <f>(D6-D5)/D5</f>
         <v>-0.00930851063829791</v>
       </c>
@@ -3303,7 +3329,7 @@
       <c r="O7" s="6"/>
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
+      <c r="R7" s="6"/>
       <c r="S7" s="7"/>
       <c r="T7" s="7"/>
       <c r="U7" s="7"/>
@@ -3329,7 +3355,7 @@
       <c r="O8" s="6"/>
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
+      <c r="R8" s="6"/>
       <c r="S8" s="7"/>
       <c r="T8" s="7"/>
       <c r="U8" s="7"/>
@@ -3355,7 +3381,7 @@
       <c r="O9" s="6"/>
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
+      <c r="R9" s="6"/>
       <c r="S9" s="7"/>
       <c r="T9" s="7"/>
       <c r="U9" s="7"/>
@@ -3381,7 +3407,7 @@
       <c r="O10" s="6"/>
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
+      <c r="R10" s="6"/>
       <c r="S10" s="7"/>
       <c r="T10" s="7"/>
       <c r="U10" s="7"/>
@@ -3407,7 +3433,7 @@
       <c r="O11" s="6"/>
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
+      <c r="R11" s="6"/>
       <c r="S11" s="7"/>
       <c r="T11" s="7"/>
       <c r="U11" s="7"/>
@@ -3433,7 +3459,7 @@
       <c r="O12" s="6"/>
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
+      <c r="R12" s="6"/>
       <c r="S12" s="7"/>
       <c r="T12" s="7"/>
       <c r="U12" s="7"/>
@@ -3459,7 +3485,7 @@
       <c r="O13" s="6"/>
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
+      <c r="R13" s="6"/>
       <c r="S13" s="7"/>
       <c r="T13" s="7"/>
       <c r="U13" s="7"/>
@@ -3485,7 +3511,7 @@
       <c r="O14" s="6"/>
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
+      <c r="R14" s="6"/>
       <c r="S14" s="7"/>
       <c r="T14" s="7"/>
       <c r="U14" s="7"/>
@@ -3511,7 +3537,7 @@
       <c r="O15" s="6"/>
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
+      <c r="R15" s="6"/>
       <c r="S15" s="7"/>
       <c r="T15" s="7"/>
       <c r="U15" s="7"/>
@@ -3537,7 +3563,7 @@
       <c r="O16" s="6"/>
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
+      <c r="R16" s="6"/>
       <c r="S16" s="7"/>
       <c r="T16" s="7"/>
       <c r="U16" s="7"/>
@@ -3563,7 +3589,7 @@
       <c r="O17" s="6"/>
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
+      <c r="R17" s="6"/>
       <c r="S17" s="7"/>
       <c r="T17" s="7"/>
       <c r="U17" s="7"/>
@@ -3589,7 +3615,7 @@
       <c r="O18" s="6"/>
       <c r="P18" s="7"/>
       <c r="Q18" s="7"/>
-      <c r="R18" s="7"/>
+      <c r="R18" s="6"/>
       <c r="S18" s="7"/>
       <c r="T18" s="7"/>
       <c r="U18" s="7"/>
@@ -3615,7 +3641,7 @@
       <c r="O19" s="6"/>
       <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
-      <c r="R19" s="7"/>
+      <c r="R19" s="6"/>
       <c r="S19" s="7"/>
       <c r="T19" s="7"/>
       <c r="U19" s="7"/>
@@ -3641,7 +3667,7 @@
       <c r="O20" s="6"/>
       <c r="P20" s="7"/>
       <c r="Q20" s="7"/>
-      <c r="R20" s="7"/>
+      <c r="R20" s="6"/>
       <c r="S20" s="7"/>
       <c r="T20" s="7"/>
       <c r="U20" s="7"/>
@@ -3667,7 +3693,7 @@
       <c r="O21" s="6"/>
       <c r="P21" s="7"/>
       <c r="Q21" s="7"/>
-      <c r="R21" s="7"/>
+      <c r="R21" s="6"/>
       <c r="S21" s="7"/>
       <c r="T21" s="7"/>
       <c r="U21" s="7"/>
@@ -3693,7 +3719,7 @@
       <c r="O22" s="6"/>
       <c r="P22" s="7"/>
       <c r="Q22" s="7"/>
-      <c r="R22" s="7"/>
+      <c r="R22" s="6"/>
       <c r="S22" s="7"/>
       <c r="T22" s="7"/>
       <c r="U22" s="7"/>
@@ -3719,7 +3745,7 @@
       <c r="O23" s="6"/>
       <c r="P23" s="7"/>
       <c r="Q23" s="7"/>
-      <c r="R23" s="7"/>
+      <c r="R23" s="6"/>
       <c r="S23" s="7"/>
       <c r="T23" s="7"/>
       <c r="U23" s="7"/>
@@ -3745,7 +3771,7 @@
       <c r="O24" s="7"/>
       <c r="P24" s="7"/>
       <c r="Q24" s="7"/>
-      <c r="R24" s="7"/>
+      <c r="R24" s="6"/>
       <c r="S24" s="7"/>
       <c r="T24" s="7"/>
       <c r="U24" s="7"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/同仁堂.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/同仁堂.xlsx
@@ -2898,11 +2898,11 @@
   <dimension ref="A1:W500"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="T6" sqref="T6"/>
+      <selection pane="bottomRight" activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -3096,13 +3096,15 @@
         <v>0.0447672694930331</v>
       </c>
       <c r="T3" s="16">
-        <f>P3/1</f>
+        <f>P3/(ROW()-2)</f>
         <v>1</v>
       </c>
       <c r="U3" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="V3" s="8"/>
+      <c r="V3" s="8" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="4" spans="1:22">
       <c r="A4" s="7">
@@ -3168,14 +3170,16 @@
         <v>0.0210495108212274</v>
       </c>
       <c r="T4" s="16">
-        <f>P4/2</f>
+        <f>P4/(ROW()-2)</f>
         <v>0.5</v>
       </c>
       <c r="U4" s="22">
         <f>(F4-F3)/F3</f>
         <v>0.0368890255149092</v>
       </c>
-      <c r="V4" s="8"/>
+      <c r="V4" s="8" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="5" spans="1:22">
       <c r="A5" s="7">
@@ -3241,14 +3245,16 @@
         <v>0.0969463385710051</v>
       </c>
       <c r="T5" s="16">
-        <f>P5/3</f>
+        <f>P5/(ROW()-2)</f>
         <v>0.666666666666667</v>
       </c>
       <c r="U5" s="22">
         <f>(F5-F4)/F4</f>
         <v>0</v>
       </c>
-      <c r="V5" s="8"/>
+      <c r="V5" s="8" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="6" spans="1:22">
       <c r="A6" s="7">
@@ -3314,14 +3320,16 @@
         <v>0.0913133708864514</v>
       </c>
       <c r="T6" s="16">
-        <f>P6/4</f>
+        <f>P6/(ROW()-2)</f>
         <v>0.5</v>
       </c>
       <c r="U6" s="22">
         <f>(F6-F5)/F5</f>
         <v>0</v>
       </c>
-      <c r="V6" s="8"/>
+      <c r="V6" s="8" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="7" spans="1:22">
       <c r="A7" s="7">

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/同仁堂.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/同仁堂.xlsx
@@ -880,7 +880,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -952,6 +952,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2898,11 +2901,11 @@
   <dimension ref="A1:W500"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="R2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="T3" sqref="T3"/>
+      <selection pane="bottomRight" activeCell="W3" sqref="W3:W6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -2913,8 +2916,8 @@
     <col min="4" max="4" width="8.17857142857143" customWidth="1"/>
     <col min="5" max="5" width="9.96428571428571" customWidth="1"/>
     <col min="6" max="6" width="13.5357142857143" customWidth="1"/>
-    <col min="7" max="7" width="29.0089285714286" customWidth="1"/>
-    <col min="8" max="8" width="23.3571428571429" customWidth="1"/>
+    <col min="7" max="7" width="13.3839285714286" customWidth="1"/>
+    <col min="8" max="8" width="20.3839285714286" customWidth="1"/>
     <col min="9" max="9" width="30.0625" customWidth="1"/>
     <col min="10" max="10" width="40.4732142857143" customWidth="1"/>
     <col min="11" max="11" width="25.4464285714286" customWidth="1"/>
@@ -2929,7 +2932,7 @@
     <col min="20" max="20" width="18.3035714285714" customWidth="1"/>
     <col min="21" max="21" width="20.3839285714286" customWidth="1"/>
     <col min="22" max="22" width="20.6785714285714" customWidth="1"/>
-    <col min="23" max="23" width="45.2321428571429" customWidth="1"/>
+    <col min="23" max="23" width="39.5803571428571" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
@@ -3032,7 +3035,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" ht="18" spans="1:22">
+    <row r="3" ht="18" spans="1:23">
       <c r="A3" s="5">
         <v>44523</v>
       </c>
@@ -3105,8 +3108,12 @@
       <c r="V3" s="8" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:22">
+      <c r="W3" s="24">
+        <f>D3-E3</f>
+        <v>2.26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" s="7">
         <v>44524</v>
       </c>
@@ -3174,14 +3181,18 @@
         <v>0.5</v>
       </c>
       <c r="U4" s="22">
-        <f>(F4-F3)/F3</f>
-        <v>0.0368890255149092</v>
+        <f>(B4-B3)/B3</f>
+        <v>-0.0227014755959139</v>
       </c>
       <c r="V4" s="8" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:22">
+      <c r="W4" s="24">
+        <f>D4-E4</f>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" s="7">
         <v>44525</v>
       </c>
@@ -3249,14 +3260,18 @@
         <v>0.666666666666667</v>
       </c>
       <c r="U5" s="22">
-        <f>(F5-F4)/F4</f>
-        <v>0</v>
+        <f>(B5-B4)/B4</f>
+        <v>0.0743321718931476</v>
       </c>
       <c r="V5" s="8" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="6" spans="1:22">
+      <c r="W5" s="24">
+        <f>D5-E5</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" s="7">
         <v>44526</v>
       </c>
@@ -3324,14 +3339,18 @@
         <v>0.5</v>
       </c>
       <c r="U6" s="22">
-        <f>(F6-F5)/F5</f>
-        <v>0</v>
+        <f>(B6-B5)/B5</f>
+        <v>-0.00513513513513507</v>
       </c>
       <c r="V6" s="8" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" spans="1:22">
+      <c r="W6" s="24">
+        <f>D6-E6</f>
+        <v>0.909999999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" s="7">
         <v>44527</v>
       </c>
@@ -3356,8 +3375,9 @@
       <c r="T7" s="8"/>
       <c r="U7" s="8"/>
       <c r="V7" s="8"/>
-    </row>
-    <row r="8" spans="1:22">
+      <c r="W7" s="1"/>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" s="7">
         <v>44528</v>
       </c>
@@ -3382,8 +3402,9 @@
       <c r="T8" s="8"/>
       <c r="U8" s="8"/>
       <c r="V8" s="8"/>
-    </row>
-    <row r="9" spans="1:22">
+      <c r="W8" s="1"/>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" s="7">
         <v>44529</v>
       </c>
@@ -3408,8 +3429,9 @@
       <c r="T9" s="8"/>
       <c r="U9" s="8"/>
       <c r="V9" s="8"/>
-    </row>
-    <row r="10" spans="1:22">
+      <c r="W9" s="1"/>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" s="7">
         <v>44530</v>
       </c>
@@ -3434,8 +3456,9 @@
       <c r="T10" s="8"/>
       <c r="U10" s="8"/>
       <c r="V10" s="8"/>
-    </row>
-    <row r="11" spans="1:22">
+      <c r="W10" s="1"/>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11" s="7">
         <v>44531</v>
       </c>
@@ -3460,8 +3483,9 @@
       <c r="T11" s="8"/>
       <c r="U11" s="8"/>
       <c r="V11" s="8"/>
-    </row>
-    <row r="12" spans="1:22">
+      <c r="W11" s="1"/>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12" s="7">
         <v>44532</v>
       </c>
@@ -3486,8 +3510,9 @@
       <c r="T12" s="8"/>
       <c r="U12" s="8"/>
       <c r="V12" s="8"/>
-    </row>
-    <row r="13" spans="1:22">
+      <c r="W12" s="1"/>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" s="7">
         <v>44533</v>
       </c>
@@ -3512,8 +3537,9 @@
       <c r="T13" s="8"/>
       <c r="U13" s="8"/>
       <c r="V13" s="8"/>
-    </row>
-    <row r="14" spans="1:22">
+      <c r="W13" s="1"/>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14" s="7">
         <v>44534</v>
       </c>
@@ -3538,8 +3564,9 @@
       <c r="T14" s="8"/>
       <c r="U14" s="8"/>
       <c r="V14" s="8"/>
-    </row>
-    <row r="15" spans="1:22">
+      <c r="W14" s="1"/>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" s="7">
         <v>44535</v>
       </c>
@@ -3564,8 +3591,9 @@
       <c r="T15" s="8"/>
       <c r="U15" s="8"/>
       <c r="V15" s="8"/>
-    </row>
-    <row r="16" spans="1:22">
+      <c r="W15" s="1"/>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16" s="7">
         <v>44536</v>
       </c>
@@ -3590,8 +3618,9 @@
       <c r="T16" s="8"/>
       <c r="U16" s="8"/>
       <c r="V16" s="8"/>
-    </row>
-    <row r="17" spans="1:22">
+      <c r="W16" s="1"/>
+    </row>
+    <row r="17" spans="1:23">
       <c r="A17" s="7">
         <v>44537</v>
       </c>
@@ -3616,8 +3645,9 @@
       <c r="T17" s="8"/>
       <c r="U17" s="8"/>
       <c r="V17" s="8"/>
-    </row>
-    <row r="18" spans="1:22">
+      <c r="W17" s="1"/>
+    </row>
+    <row r="18" spans="1:23">
       <c r="A18" s="7">
         <v>44538</v>
       </c>
@@ -3642,8 +3672,9 @@
       <c r="T18" s="8"/>
       <c r="U18" s="8"/>
       <c r="V18" s="8"/>
-    </row>
-    <row r="19" spans="1:22">
+      <c r="W18" s="1"/>
+    </row>
+    <row r="19" spans="1:23">
       <c r="A19" s="7">
         <v>44539</v>
       </c>
@@ -3668,8 +3699,9 @@
       <c r="T19" s="8"/>
       <c r="U19" s="8"/>
       <c r="V19" s="8"/>
-    </row>
-    <row r="20" spans="1:22">
+      <c r="W19" s="1"/>
+    </row>
+    <row r="20" spans="1:23">
       <c r="A20" s="7">
         <v>44540</v>
       </c>
@@ -3694,8 +3726,9 @@
       <c r="T20" s="8"/>
       <c r="U20" s="8"/>
       <c r="V20" s="8"/>
-    </row>
-    <row r="21" spans="1:22">
+      <c r="W20" s="1"/>
+    </row>
+    <row r="21" spans="1:23">
       <c r="A21" s="7">
         <v>44541</v>
       </c>
@@ -3720,8 +3753,9 @@
       <c r="T21" s="8"/>
       <c r="U21" s="8"/>
       <c r="V21" s="8"/>
-    </row>
-    <row r="22" spans="1:22">
+      <c r="W21" s="1"/>
+    </row>
+    <row r="22" spans="1:23">
       <c r="A22" s="7">
         <v>44542</v>
       </c>
@@ -3746,8 +3780,9 @@
       <c r="T22" s="8"/>
       <c r="U22" s="8"/>
       <c r="V22" s="8"/>
-    </row>
-    <row r="23" spans="1:22">
+      <c r="W22" s="1"/>
+    </row>
+    <row r="23" spans="1:23">
       <c r="A23" s="7">
         <v>44543</v>
       </c>
@@ -3772,8 +3807,9 @@
       <c r="T23" s="8"/>
       <c r="U23" s="8"/>
       <c r="V23" s="8"/>
-    </row>
-    <row r="24" spans="1:22">
+      <c r="W23" s="1"/>
+    </row>
+    <row r="24" spans="1:23">
       <c r="A24" s="7">
         <v>44544</v>
       </c>
@@ -3798,6 +3834,7 @@
       <c r="T24" s="8"/>
       <c r="U24" s="8"/>
       <c r="V24" s="8"/>
+      <c r="W24" s="1"/>
     </row>
     <row r="25" spans="1:22">
       <c r="A25" s="7">

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/同仁堂.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/同仁堂.xlsx
@@ -17,12 +17,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
   <si>
     <t>日期</t>
   </si>
   <si>
-    <t>弱势卖出指标</t>
+    <t>当日行情走势</t>
+  </si>
+  <si>
+    <t>止损线情况</t>
+  </si>
+  <si>
+    <t>是否走向不利指标</t>
   </si>
   <si>
     <t>强势卖出指标</t>
@@ -38,6 +44,12 @@
   </si>
   <si>
     <t>最低价</t>
+  </si>
+  <si>
+    <t>市盈率</t>
+  </si>
+  <si>
+    <t>上涨天数</t>
   </si>
   <si>
     <t>当前止损线</t>
@@ -70,12 +82,6 @@
   </si>
   <si>
     <t>最低价是否出现下移</t>
-  </si>
-  <si>
-    <t>市盈率</t>
-  </si>
-  <si>
-    <t>上涨天数</t>
   </si>
   <si>
     <t>基底数
@@ -2901,11 +2907,11 @@
   <dimension ref="A1:W500"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="R2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="W3" sqref="W3:W6"/>
+      <selection pane="bottomRight" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -2915,17 +2921,17 @@
     <col min="3" max="3" width="10.1071428571429" customWidth="1"/>
     <col min="4" max="4" width="8.17857142857143" customWidth="1"/>
     <col min="5" max="5" width="9.96428571428571" customWidth="1"/>
-    <col min="6" max="6" width="13.5357142857143" customWidth="1"/>
-    <col min="7" max="7" width="13.3839285714286" customWidth="1"/>
-    <col min="8" max="8" width="20.3839285714286" customWidth="1"/>
-    <col min="9" max="9" width="30.0625" customWidth="1"/>
-    <col min="10" max="10" width="40.4732142857143" customWidth="1"/>
-    <col min="11" max="11" width="25.4464285714286" customWidth="1"/>
-    <col min="12" max="12" width="28.7142857142857" customWidth="1"/>
-    <col min="13" max="13" width="30.0625" customWidth="1"/>
-    <col min="14" max="14" width="21.875" customWidth="1"/>
-    <col min="15" max="15" width="13.8392857142857" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.8392857142857" customWidth="1"/>
+    <col min="6" max="6" width="13.8392857142857" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.8392857142857" customWidth="1"/>
+    <col min="8" max="8" width="13.5357142857143" customWidth="1"/>
+    <col min="9" max="9" width="13.3839285714286" customWidth="1"/>
+    <col min="10" max="10" width="20.3839285714286" customWidth="1"/>
+    <col min="11" max="11" width="30.0625" customWidth="1"/>
+    <col min="12" max="12" width="40.4732142857143" customWidth="1"/>
+    <col min="13" max="13" width="25.4464285714286" customWidth="1"/>
+    <col min="14" max="14" width="28.7142857142857" customWidth="1"/>
+    <col min="15" max="15" width="30.0625" customWidth="1"/>
+    <col min="16" max="16" width="21.875" customWidth="1"/>
     <col min="17" max="17" width="20.5267857142857" style="1" customWidth="1"/>
     <col min="18" max="18" width="18.4464285714286" customWidth="1"/>
     <col min="19" max="19" width="22.3125" style="1" customWidth="1"/>
@@ -2947,17 +2953,21 @@
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
+      <c r="H1" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
+      <c r="K1" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
       <c r="Q1" s="11" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R1" s="11"/>
       <c r="S1" s="11"/>
@@ -2969,70 +2979,70 @@
     <row r="2" ht="56" customHeight="1" spans="1:23">
       <c r="A2" s="2"/>
       <c r="B2" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
-      <c r="G2" s="10" t="s">
-        <v>8</v>
+      <c r="G2" s="9" t="s">
+        <v>10</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="I2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="J2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="L2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="M2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="N2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="Q2" s="12" t="s">
+      <c r="O2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="R2" s="12" t="s">
+      <c r="P2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="S2" s="12" t="s">
+      <c r="Q2" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="T2" s="12" t="s">
+      <c r="R2" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="U2" s="12" t="s">
+      <c r="S2" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="V2" s="23" t="s">
+      <c r="T2" s="12" t="s">
         <v>23</v>
       </c>
+      <c r="U2" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="V2" s="23" t="s">
+        <v>25</v>
+      </c>
       <c r="W2" s="23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" ht="18" spans="1:23">
@@ -3052,61 +3062,61 @@
         <v>33.1</v>
       </c>
       <c r="F3" s="6">
+        <v>36.8</v>
+      </c>
+      <c r="G3" s="8">
+        <v>1</v>
+      </c>
+      <c r="H3" s="6">
         <v>32.53</v>
       </c>
-      <c r="G3" s="6">
-        <f>F3/(1-VLOOKUP([1]交易计划及执行表!A6,[1]交易计划及执行表!A4:BL10001,43,FALSE))</f>
+      <c r="I3" s="6">
+        <f>H3/(1-VLOOKUP([1]交易计划及执行表!A6,[1]交易计划及执行表!A4:BL10001,43,FALSE))</f>
         <v>34.12</v>
       </c>
-      <c r="H3" s="6">
-        <f>G3+G3*VLOOKUP([1]交易计划及执行表!A6,[1]交易计划及执行表!A4:BL1000,43,FALSE)*2</f>
+      <c r="J3" s="6">
+        <f>I3+I3*VLOOKUP([1]交易计划及执行表!A6,[1]交易计划及执行表!A4:BL1000,43,FALSE)*2</f>
         <v>37.3</v>
       </c>
-      <c r="I3" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>25</v>
-      </c>
       <c r="K3" s="8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
-      <c r="M3" s="8" t="str">
+      <c r="M3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" s="8" t="str">
         <f>IF(B3&gt;(D3-(D3-C3)/3),"上部",IF(B3&gt;=(E3+(D3-C3)/3),"中部","下部"))</f>
         <v>上部</v>
       </c>
-      <c r="N3" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="O3" s="6">
-        <v>36.8</v>
-      </c>
-      <c r="P3" s="8">
-        <v>1</v>
+      <c r="P3" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="Q3" s="13" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
-      <c r="R3" s="14">
-        <f>O5/VLOOKUP([1]交易计划及执行表!A6,[1]交易计划及执行表!A4:BL10001,45,FALSE)</f>
-        <v>1.02111734830259</v>
+      <c r="R3" s="14" t="e">
+        <f>#REF!/VLOOKUP([1]交易计划及执行表!A6,[1]交易计划及执行表!A4:BL10001,45,FALSE)</f>
+        <v>#REF!</v>
       </c>
       <c r="S3" s="15">
         <f>(B3-VLOOKUP([1]交易计划及执行表!A6,[1]交易计划及执行表!A4:BL10001,48,FALSE))/VLOOKUP([1]交易计划及执行表!A6,[1]交易计划及执行表!A4:BL10001,48,FALSE)</f>
         <v>0.0447672694930331</v>
       </c>
-      <c r="T3" s="16">
-        <f>P3/(ROW()-2)</f>
-        <v>1</v>
+      <c r="T3" s="16" t="e">
+        <f>#REF!/(ROW()-2)</f>
+        <v>#REF!</v>
       </c>
       <c r="U3" s="13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="V3" s="8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="W3" s="24">
         <f>D3-E3</f>
@@ -3130,62 +3140,62 @@
         <v>34.38</v>
       </c>
       <c r="F4" s="6">
+        <v>39.09</v>
+      </c>
+      <c r="G4" s="8">
+        <v>1</v>
+      </c>
+      <c r="H4" s="6">
         <v>33.73</v>
       </c>
-      <c r="G4" s="6">
-        <f>F4/(1-VLOOKUP([1]交易计划及执行表!A6,[1]交易计划及执行表!A4:BL10002,43,FALSE))</f>
+      <c r="I4" s="6">
+        <f>H4/(1-VLOOKUP([1]交易计划及执行表!A6,[1]交易计划及执行表!A4:BL10002,43,FALSE))</f>
         <v>35.3786535505687</v>
       </c>
-      <c r="H4" s="6">
-        <f>G4+G4*VLOOKUP([1]交易计划及执行表!A6,[1]交易计划及执行表!A4:BL1000,43,FALSE)*2</f>
+      <c r="J4" s="6">
+        <f>I4+I4*VLOOKUP([1]交易计划及执行表!A6,[1]交易计划及执行表!A4:BL1000,43,FALSE)*2</f>
         <v>38.6759606517061</v>
       </c>
-      <c r="I4" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>25</v>
-      </c>
       <c r="K4" s="8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
-      <c r="M4" s="8" t="str">
+      <c r="M4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" s="8" t="str">
         <f>IF(B4&gt;(D4-(D4-C4)/3),"上部",IF(B4&gt;(E4+(D4-C4)/3),"中部","下部"))</f>
         <v>中部</v>
       </c>
-      <c r="N4" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="O4" s="6">
-        <v>39.09</v>
-      </c>
-      <c r="P4" s="8">
-        <v>1</v>
+      <c r="P4" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="Q4" s="17">
         <v>1</v>
       </c>
-      <c r="R4" s="18">
-        <f>O4/VLOOKUP([1]交易计划及执行表!A6,[1]交易计划及执行表!A4:BL10001,45,FALSE)</f>
-        <v>1.04490777866881</v>
+      <c r="R4" s="18" t="e">
+        <f>#REF!/VLOOKUP([1]交易计划及执行表!A6,[1]交易计划及执行表!A4:BL10001,45,FALSE)</f>
+        <v>#REF!</v>
       </c>
       <c r="S4" s="19">
         <f>(B4-VLOOKUP([1]交易计划及执行表!A6,[1]交易计划及执行表!A4:BL10001,48,FALSE))/VLOOKUP([1]交易计划及执行表!A6,[1]交易计划及执行表!A4:BL10001,48,FALSE)</f>
         <v>0.0210495108212274</v>
       </c>
-      <c r="T4" s="16">
-        <f>P4/(ROW()-2)</f>
-        <v>0.5</v>
+      <c r="T4" s="16" t="e">
+        <f>#REF!/(ROW()-2)</f>
+        <v>#REF!</v>
       </c>
       <c r="U4" s="22">
         <f>(B4-B3)/B3</f>
         <v>-0.0227014755959139</v>
       </c>
       <c r="V4" s="8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="W4" s="24">
         <f>D4-E4</f>
@@ -3209,62 +3219,62 @@
         <v>34.6</v>
       </c>
       <c r="F5" s="6">
+        <v>38.2</v>
+      </c>
+      <c r="G5" s="8">
+        <v>2</v>
+      </c>
+      <c r="H5" s="6">
         <v>33.73</v>
       </c>
-      <c r="G5" s="6">
-        <f>F5/(1-VLOOKUP([1]交易计划及执行表!A6,[1]交易计划及执行表!A4:BL10002,43,FALSE))</f>
+      <c r="I5" s="6">
+        <f>H5/(1-VLOOKUP([1]交易计划及执行表!A6,[1]交易计划及执行表!A4:BL10002,43,FALSE))</f>
         <v>35.3786535505687</v>
       </c>
-      <c r="H5" s="6">
-        <f>G5+G5*VLOOKUP([1]交易计划及执行表!A6,[1]交易计划及执行表!A4:BL1000,43,FALSE)*2</f>
+      <c r="J5" s="6">
+        <f>I5+I5*VLOOKUP([1]交易计划及执行表!A6,[1]交易计划及执行表!A4:BL1000,43,FALSE)*2</f>
         <v>38.6759606517061</v>
       </c>
-      <c r="I5" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>25</v>
-      </c>
       <c r="K5" s="8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
-      <c r="M5" s="8" t="str">
+      <c r="M5" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="O5" s="8" t="str">
         <f>IF(B5&gt;(D5-(D5-C5)/3),"上部",IF(B5&gt;(E5+(D5-C5)/3),"中部","下部"))</f>
         <v>上部</v>
       </c>
-      <c r="N5" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="O5" s="6">
-        <v>38.2</v>
-      </c>
-      <c r="P5" s="8">
-        <v>2</v>
+      <c r="P5" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="Q5" s="20">
         <v>2</v>
       </c>
-      <c r="R5" s="21">
-        <f>O5/VLOOKUP([1]交易计划及执行表!A6,[1]交易计划及执行表!A4:BL10001,45,FALSE)</f>
-        <v>1.02111734830259</v>
+      <c r="R5" s="21" t="e">
+        <f>#REF!/VLOOKUP([1]交易计划及执行表!A6,[1]交易计划及执行表!A4:BL10001,45,FALSE)</f>
+        <v>#REF!</v>
       </c>
       <c r="S5" s="22">
         <f>(B5-VLOOKUP([1]交易计划及执行表!A6,[1]交易计划及执行表!A4:BL10001,48,FALSE))/VLOOKUP([1]交易计划及执行表!A6,[1]交易计划及执行表!A4:BL10001,48,FALSE)</f>
         <v>0.0969463385710051</v>
       </c>
-      <c r="T5" s="16">
-        <f>P5/(ROW()-2)</f>
-        <v>0.666666666666667</v>
+      <c r="T5" s="16" t="e">
+        <f>#REF!/(ROW()-2)</f>
+        <v>#REF!</v>
       </c>
       <c r="U5" s="22">
         <f>(B5-B4)/B4</f>
         <v>0.0743321718931476</v>
       </c>
       <c r="V5" s="8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="W5" s="24">
         <f>D5-E5</f>
@@ -3288,62 +3298,62 @@
         <v>36.34</v>
       </c>
       <c r="F6" s="6">
+        <v>41.04</v>
+      </c>
+      <c r="G6" s="8">
+        <v>2</v>
+      </c>
+      <c r="H6" s="6">
         <v>33.73</v>
       </c>
-      <c r="G6" s="6">
-        <f>F6/(1-VLOOKUP([1]交易计划及执行表!A6,[1]交易计划及执行表!A4:BL10002,43,FALSE))</f>
+      <c r="I6" s="6">
+        <f>H6/(1-VLOOKUP([1]交易计划及执行表!A6,[1]交易计划及执行表!A4:BL10002,43,FALSE))</f>
         <v>35.3786535505687</v>
       </c>
-      <c r="H6" s="6">
-        <f>G6+G6*VLOOKUP([1]交易计划及执行表!A6,[1]交易计划及执行表!A4:BL1000,43,FALSE)*2</f>
+      <c r="J6" s="6">
+        <f>I6+I6*VLOOKUP([1]交易计划及执行表!A6,[1]交易计划及执行表!A4:BL1000,43,FALSE)*2</f>
         <v>38.6759606517061</v>
       </c>
-      <c r="I6" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>25</v>
-      </c>
       <c r="K6" s="8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
-      <c r="M6" s="8" t="str">
+      <c r="M6" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="O6" s="8" t="str">
         <f>IF(B6&gt;(D6-(D6-C6)/3),"上部",IF(B6&gt;(E6+(D6-C6)/3),"中部","下部"))</f>
         <v>中部</v>
       </c>
-      <c r="N6" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="O6" s="6">
-        <v>41.04</v>
-      </c>
-      <c r="P6" s="8">
-        <v>2</v>
+      <c r="P6" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="Q6" s="20">
         <v>2</v>
       </c>
-      <c r="R6" s="21">
-        <f>O6/VLOOKUP([1]交易计划及执行表!A6,[1]交易计划及执行表!A4:BL10001,45,FALSE)</f>
-        <v>1.09703287890938</v>
+      <c r="R6" s="21" t="e">
+        <f>#REF!/VLOOKUP([1]交易计划及执行表!A6,[1]交易计划及执行表!A4:BL10001,45,FALSE)</f>
+        <v>#REF!</v>
       </c>
       <c r="S6" s="22">
         <f>(B6-VLOOKUP([1]交易计划及执行表!A6,[1]交易计划及执行表!A4:BL10001,48,FALSE))/VLOOKUP([1]交易计划及执行表!A6,[1]交易计划及执行表!A4:BL10001,48,FALSE)</f>
         <v>0.0913133708864514</v>
       </c>
-      <c r="T6" s="16">
-        <f>P6/(ROW()-2)</f>
-        <v>0.5</v>
+      <c r="T6" s="16" t="e">
+        <f>#REF!/(ROW()-2)</f>
+        <v>#REF!</v>
       </c>
       <c r="U6" s="22">
         <f>(B6-B5)/B5</f>
         <v>-0.00513513513513507</v>
       </c>
       <c r="V6" s="8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="W6" s="24">
         <f>D6-E6</f>
@@ -3359,15 +3369,15 @@
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
+      <c r="G7" s="8"/>
       <c r="H7" s="6"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
-      <c r="O7" s="6"/>
+      <c r="O7" s="8"/>
       <c r="P7" s="8"/>
       <c r="Q7" s="8"/>
       <c r="R7" s="6"/>
@@ -3386,15 +3396,15 @@
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
+      <c r="G8" s="8"/>
       <c r="H8" s="6"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
-      <c r="O8" s="6"/>
+      <c r="O8" s="8"/>
       <c r="P8" s="8"/>
       <c r="Q8" s="8"/>
       <c r="R8" s="6"/>
@@ -3413,15 +3423,15 @@
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
+      <c r="G9" s="8"/>
       <c r="H9" s="6"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
-      <c r="O9" s="6"/>
+      <c r="O9" s="8"/>
       <c r="P9" s="8"/>
       <c r="Q9" s="8"/>
       <c r="R9" s="6"/>
@@ -3440,15 +3450,15 @@
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
+      <c r="G10" s="8"/>
       <c r="H10" s="6"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
-      <c r="O10" s="6"/>
+      <c r="O10" s="8"/>
       <c r="P10" s="8"/>
       <c r="Q10" s="8"/>
       <c r="R10" s="6"/>
@@ -3467,15 +3477,15 @@
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
+      <c r="G11" s="8"/>
       <c r="H11" s="6"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
-      <c r="O11" s="6"/>
+      <c r="O11" s="8"/>
       <c r="P11" s="8"/>
       <c r="Q11" s="8"/>
       <c r="R11" s="6"/>
@@ -3494,15 +3504,15 @@
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
+      <c r="G12" s="8"/>
       <c r="H12" s="6"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
       <c r="M12" s="8"/>
       <c r="N12" s="8"/>
-      <c r="O12" s="6"/>
+      <c r="O12" s="8"/>
       <c r="P12" s="8"/>
       <c r="Q12" s="8"/>
       <c r="R12" s="6"/>
@@ -3521,15 +3531,15 @@
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
+      <c r="G13" s="8"/>
       <c r="H13" s="6"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
       <c r="M13" s="8"/>
       <c r="N13" s="8"/>
-      <c r="O13" s="6"/>
+      <c r="O13" s="8"/>
       <c r="P13" s="8"/>
       <c r="Q13" s="8"/>
       <c r="R13" s="6"/>
@@ -3548,15 +3558,15 @@
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
+      <c r="G14" s="8"/>
       <c r="H14" s="6"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
       <c r="M14" s="8"/>
       <c r="N14" s="8"/>
-      <c r="O14" s="6"/>
+      <c r="O14" s="8"/>
       <c r="P14" s="8"/>
       <c r="Q14" s="8"/>
       <c r="R14" s="6"/>
@@ -3575,15 +3585,15 @@
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
+      <c r="G15" s="8"/>
       <c r="H15" s="6"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
       <c r="K15" s="8"/>
       <c r="L15" s="8"/>
       <c r="M15" s="8"/>
       <c r="N15" s="8"/>
-      <c r="O15" s="6"/>
+      <c r="O15" s="8"/>
       <c r="P15" s="8"/>
       <c r="Q15" s="8"/>
       <c r="R15" s="6"/>
@@ -3602,15 +3612,15 @@
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
+      <c r="G16" s="8"/>
       <c r="H16" s="6"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
       <c r="M16" s="8"/>
       <c r="N16" s="8"/>
-      <c r="O16" s="6"/>
+      <c r="O16" s="8"/>
       <c r="P16" s="8"/>
       <c r="Q16" s="8"/>
       <c r="R16" s="6"/>
@@ -3629,15 +3639,15 @@
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
+      <c r="G17" s="8"/>
       <c r="H17" s="6"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
       <c r="K17" s="8"/>
       <c r="L17" s="8"/>
       <c r="M17" s="8"/>
       <c r="N17" s="8"/>
-      <c r="O17" s="6"/>
+      <c r="O17" s="8"/>
       <c r="P17" s="8"/>
       <c r="Q17" s="8"/>
       <c r="R17" s="6"/>
@@ -3656,15 +3666,15 @@
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
+      <c r="G18" s="8"/>
       <c r="H18" s="6"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
       <c r="M18" s="8"/>
       <c r="N18" s="8"/>
-      <c r="O18" s="6"/>
+      <c r="O18" s="8"/>
       <c r="P18" s="8"/>
       <c r="Q18" s="8"/>
       <c r="R18" s="6"/>
@@ -3683,15 +3693,15 @@
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
+      <c r="G19" s="8"/>
       <c r="H19" s="6"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
       <c r="K19" s="8"/>
       <c r="L19" s="8"/>
       <c r="M19" s="8"/>
       <c r="N19" s="8"/>
-      <c r="O19" s="6"/>
+      <c r="O19" s="8"/>
       <c r="P19" s="8"/>
       <c r="Q19" s="8"/>
       <c r="R19" s="6"/>
@@ -3710,15 +3720,15 @@
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
+      <c r="G20" s="8"/>
       <c r="H20" s="6"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
       <c r="M20" s="8"/>
       <c r="N20" s="8"/>
-      <c r="O20" s="6"/>
+      <c r="O20" s="8"/>
       <c r="P20" s="8"/>
       <c r="Q20" s="8"/>
       <c r="R20" s="6"/>
@@ -3737,15 +3747,15 @@
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
+      <c r="G21" s="8"/>
       <c r="H21" s="6"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
       <c r="K21" s="8"/>
       <c r="L21" s="8"/>
       <c r="M21" s="8"/>
       <c r="N21" s="8"/>
-      <c r="O21" s="6"/>
+      <c r="O21" s="8"/>
       <c r="P21" s="8"/>
       <c r="Q21" s="8"/>
       <c r="R21" s="6"/>
@@ -3764,15 +3774,15 @@
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
+      <c r="G22" s="8"/>
       <c r="H22" s="6"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
       <c r="K22" s="8"/>
       <c r="L22" s="8"/>
       <c r="M22" s="8"/>
       <c r="N22" s="8"/>
-      <c r="O22" s="6"/>
+      <c r="O22" s="8"/>
       <c r="P22" s="8"/>
       <c r="Q22" s="8"/>
       <c r="R22" s="6"/>
@@ -3791,15 +3801,15 @@
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
+      <c r="G23" s="8"/>
       <c r="H23" s="6"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
       <c r="K23" s="8"/>
       <c r="L23" s="8"/>
       <c r="M23" s="8"/>
       <c r="N23" s="8"/>
-      <c r="O23" s="6"/>
+      <c r="O23" s="8"/>
       <c r="P23" s="8"/>
       <c r="Q23" s="8"/>
       <c r="R23" s="6"/>
@@ -3817,11 +3827,11 @@
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
       <c r="H24" s="6"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
       <c r="K24" s="8"/>
       <c r="L24" s="8"/>
       <c r="M24" s="8"/>
@@ -3844,11 +3854,11 @@
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
       <c r="H25" s="6"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
       <c r="K25" s="8"/>
       <c r="L25" s="8"/>
       <c r="M25" s="8"/>
@@ -3870,11 +3880,11 @@
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
       <c r="H26" s="6"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
       <c r="K26" s="8"/>
       <c r="L26" s="8"/>
       <c r="M26" s="8"/>
@@ -3896,11 +3906,11 @@
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
       <c r="H27" s="6"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
       <c r="K27" s="8"/>
       <c r="L27" s="8"/>
       <c r="M27" s="8"/>
@@ -3922,11 +3932,11 @@
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
       <c r="H28" s="6"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
       <c r="K28" s="8"/>
       <c r="L28" s="8"/>
       <c r="M28" s="8"/>
@@ -3948,11 +3958,11 @@
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
       <c r="H29" s="6"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
       <c r="K29" s="8"/>
       <c r="L29" s="8"/>
       <c r="M29" s="8"/>
@@ -3974,11 +3984,11 @@
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
       <c r="H30" s="6"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
       <c r="K30" s="8"/>
       <c r="L30" s="8"/>
       <c r="M30" s="8"/>
@@ -4000,11 +4010,11 @@
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
       <c r="H31" s="6"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
       <c r="K31" s="8"/>
       <c r="L31" s="8"/>
       <c r="M31" s="8"/>
@@ -4026,11 +4036,11 @@
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
       <c r="H32" s="6"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
       <c r="K32" s="8"/>
       <c r="L32" s="8"/>
       <c r="M32" s="8"/>
@@ -4052,11 +4062,11 @@
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
       <c r="H33" s="6"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
       <c r="K33" s="8"/>
       <c r="L33" s="8"/>
       <c r="M33" s="8"/>
@@ -4078,11 +4088,11 @@
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
       <c r="H34" s="6"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
       <c r="K34" s="8"/>
       <c r="L34" s="8"/>
       <c r="M34" s="8"/>
@@ -4104,11 +4114,11 @@
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
       <c r="H35" s="6"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
       <c r="K35" s="8"/>
       <c r="L35" s="8"/>
       <c r="M35" s="8"/>
@@ -4130,11 +4140,11 @@
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
       <c r="H36" s="6"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
       <c r="K36" s="8"/>
       <c r="L36" s="8"/>
       <c r="M36" s="8"/>
@@ -4156,11 +4166,11 @@
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
       <c r="H37" s="6"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
       <c r="K37" s="8"/>
       <c r="L37" s="8"/>
       <c r="M37" s="8"/>
@@ -4182,11 +4192,11 @@
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
       <c r="H38" s="6"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
       <c r="K38" s="8"/>
       <c r="L38" s="8"/>
       <c r="M38" s="8"/>
@@ -15289,8 +15299,10 @@
       <c r="V500" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B1:N1"/>
+  <mergeCells count="5">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:P1"/>
     <mergeCell ref="Q1:W1"/>
     <mergeCell ref="A1:A2"/>
   </mergeCells>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/同仁堂.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/同仁堂.xlsx
@@ -886,7 +886,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -941,25 +941,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2911,7 +2902,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomRight" activeCell="J3" sqref="J3:J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -2921,8 +2912,8 @@
     <col min="3" max="3" width="10.1071428571429" customWidth="1"/>
     <col min="4" max="4" width="8.17857142857143" customWidth="1"/>
     <col min="5" max="5" width="9.96428571428571" customWidth="1"/>
-    <col min="6" max="6" width="13.8392857142857" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.8392857142857" customWidth="1"/>
+    <col min="6" max="6" width="10.4107142857143" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.96428571428571" customWidth="1"/>
     <col min="8" max="8" width="13.5357142857143" customWidth="1"/>
     <col min="9" max="9" width="13.3839285714286" customWidth="1"/>
     <col min="10" max="10" width="20.3839285714286" customWidth="1"/>
@@ -3038,10 +3029,10 @@
       <c r="U2" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="V2" s="23" t="s">
+      <c r="V2" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="W2" s="23" t="s">
+      <c r="W2" s="19" t="s">
         <v>26</v>
       </c>
     </row>
@@ -3071,11 +3062,11 @@
         <v>32.53</v>
       </c>
       <c r="I3" s="6">
-        <f>H3/(1-VLOOKUP([1]交易计划及执行表!A6,[1]交易计划及执行表!A4:BL10001,43,FALSE))</f>
+        <f>H3/(1-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10001,43,FALSE))</f>
         <v>34.12</v>
       </c>
       <c r="J3" s="6">
-        <f>I3+I3*VLOOKUP([1]交易计划及执行表!A6,[1]交易计划及执行表!A4:BL1000,43,FALSE)*2</f>
+        <f>I3+I3*VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL1000,43,FALSE)*2</f>
         <v>37.3</v>
       </c>
       <c r="K3" s="8" t="s">
@@ -3100,17 +3091,17 @@
       <c r="Q3" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="R3" s="14" t="e">
-        <f>#REF!/VLOOKUP([1]交易计划及执行表!A6,[1]交易计划及执行表!A4:BL10001,45,FALSE)</f>
-        <v>#REF!</v>
+      <c r="R3" s="14">
+        <f>F3/VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10001,45,FALSE)</f>
+        <v>0.983694199411922</v>
       </c>
       <c r="S3" s="15">
-        <f>(B3-VLOOKUP([1]交易计划及执行表!A6,[1]交易计划及执行表!A4:BL10001,48,FALSE))/VLOOKUP([1]交易计划及执行表!A6,[1]交易计划及执行表!A4:BL10001,48,FALSE)</f>
+        <f>(B3-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10001,48,FALSE))/VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10001,48,FALSE)</f>
         <v>0.0447672694930331</v>
       </c>
-      <c r="T3" s="16" t="e">
-        <f>#REF!/(ROW()-2)</f>
-        <v>#REF!</v>
+      <c r="T3" s="16">
+        <f>G3/(ROW()-2)</f>
+        <v>1</v>
       </c>
       <c r="U3" s="13" t="s">
         <v>29</v>
@@ -3118,7 +3109,7 @@
       <c r="V3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="W3" s="24">
+      <c r="W3" s="20">
         <f>D3-E3</f>
         <v>2.26</v>
       </c>
@@ -3149,11 +3140,11 @@
         <v>33.73</v>
       </c>
       <c r="I4" s="6">
-        <f>H4/(1-VLOOKUP([1]交易计划及执行表!A6,[1]交易计划及执行表!A4:BL10002,43,FALSE))</f>
+        <f>H4/(1-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10002,43,FALSE))</f>
         <v>35.3786535505687</v>
       </c>
       <c r="J4" s="6">
-        <f>I4+I4*VLOOKUP([1]交易计划及执行表!A6,[1]交易计划及执行表!A4:BL1000,43,FALSE)*2</f>
+        <f>I4+I4*VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL1001,43,FALSE)*2</f>
         <v>38.6759606517061</v>
       </c>
       <c r="K4" s="8" t="s">
@@ -3178,26 +3169,26 @@
       <c r="Q4" s="17">
         <v>1</v>
       </c>
-      <c r="R4" s="18" t="e">
-        <f>#REF!/VLOOKUP([1]交易计划及执行表!A6,[1]交易计划及执行表!A4:BL10001,45,FALSE)</f>
-        <v>#REF!</v>
+      <c r="R4" s="14">
+        <f>F4/VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10002,45,FALSE)</f>
+        <v>1.04490777866881</v>
       </c>
-      <c r="S4" s="19">
-        <f>(B4-VLOOKUP([1]交易计划及执行表!A6,[1]交易计划及执行表!A4:BL10001,48,FALSE))/VLOOKUP([1]交易计划及执行表!A6,[1]交易计划及执行表!A4:BL10001,48,FALSE)</f>
+      <c r="S4" s="15">
+        <f>(B4-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10002,48,FALSE))/VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10002,48,FALSE)</f>
         <v>0.0210495108212274</v>
       </c>
-      <c r="T4" s="16" t="e">
-        <f>#REF!/(ROW()-2)</f>
-        <v>#REF!</v>
+      <c r="T4" s="16">
+        <f>G4/(ROW()-2)</f>
+        <v>0.5</v>
       </c>
-      <c r="U4" s="22">
+      <c r="U4" s="21">
         <f>(B4-B3)/B3</f>
         <v>-0.0227014755959139</v>
       </c>
       <c r="V4" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="W4" s="24">
+      <c r="W4" s="20">
         <f>D4-E4</f>
         <v>0.75</v>
       </c>
@@ -3228,11 +3219,11 @@
         <v>33.73</v>
       </c>
       <c r="I5" s="6">
-        <f>H5/(1-VLOOKUP([1]交易计划及执行表!A6,[1]交易计划及执行表!A4:BL10002,43,FALSE))</f>
+        <f>H5/(1-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10003,43,FALSE))</f>
         <v>35.3786535505687</v>
       </c>
       <c r="J5" s="6">
-        <f>I5+I5*VLOOKUP([1]交易计划及执行表!A6,[1]交易计划及执行表!A4:BL1000,43,FALSE)*2</f>
+        <f>I5+I5*VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL1002,43,FALSE)*2</f>
         <v>38.6759606517061</v>
       </c>
       <c r="K5" s="8" t="s">
@@ -3254,29 +3245,29 @@
       <c r="P5" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="Q5" s="20">
+      <c r="Q5" s="18">
         <v>2</v>
       </c>
-      <c r="R5" s="21" t="e">
-        <f>#REF!/VLOOKUP([1]交易计划及执行表!A6,[1]交易计划及执行表!A4:BL10001,45,FALSE)</f>
-        <v>#REF!</v>
+      <c r="R5" s="14">
+        <f>F5/VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10003,45,FALSE)</f>
+        <v>1.02111734830259</v>
       </c>
-      <c r="S5" s="22">
-        <f>(B5-VLOOKUP([1]交易计划及执行表!A6,[1]交易计划及执行表!A4:BL10001,48,FALSE))/VLOOKUP([1]交易计划及执行表!A6,[1]交易计划及执行表!A4:BL10001,48,FALSE)</f>
+      <c r="S5" s="15">
+        <f>(B5-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10003,48,FALSE))/VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10003,48,FALSE)</f>
         <v>0.0969463385710051</v>
       </c>
-      <c r="T5" s="16" t="e">
-        <f>#REF!/(ROW()-2)</f>
-        <v>#REF!</v>
+      <c r="T5" s="16">
+        <f>G5/(ROW()-2)</f>
+        <v>0.666666666666667</v>
       </c>
-      <c r="U5" s="22">
+      <c r="U5" s="21">
         <f>(B5-B4)/B4</f>
         <v>0.0743321718931476</v>
       </c>
       <c r="V5" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="W5" s="24">
+      <c r="W5" s="20">
         <f>D5-E5</f>
         <v>3</v>
       </c>
@@ -3307,11 +3298,11 @@
         <v>33.73</v>
       </c>
       <c r="I6" s="6">
-        <f>H6/(1-VLOOKUP([1]交易计划及执行表!A6,[1]交易计划及执行表!A4:BL10002,43,FALSE))</f>
+        <f>H6/(1-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10004,43,FALSE))</f>
         <v>35.3786535505687</v>
       </c>
       <c r="J6" s="6">
-        <f>I6+I6*VLOOKUP([1]交易计划及执行表!A6,[1]交易计划及执行表!A4:BL1000,43,FALSE)*2</f>
+        <f>I6+I6*VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL1003,43,FALSE)*2</f>
         <v>38.6759606517061</v>
       </c>
       <c r="K6" s="8" t="s">
@@ -3333,29 +3324,29 @@
       <c r="P6" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="Q6" s="20">
+      <c r="Q6" s="18">
         <v>2</v>
       </c>
-      <c r="R6" s="21" t="e">
-        <f>#REF!/VLOOKUP([1]交易计划及执行表!A6,[1]交易计划及执行表!A4:BL10001,45,FALSE)</f>
-        <v>#REF!</v>
+      <c r="R6" s="14">
+        <f>F6/VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10004,45,FALSE)</f>
+        <v>1.09703287890938</v>
       </c>
-      <c r="S6" s="22">
-        <f>(B6-VLOOKUP([1]交易计划及执行表!A6,[1]交易计划及执行表!A4:BL10001,48,FALSE))/VLOOKUP([1]交易计划及执行表!A6,[1]交易计划及执行表!A4:BL10001,48,FALSE)</f>
+      <c r="S6" s="15">
+        <f>(B6-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10004,48,FALSE))/VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10004,48,FALSE)</f>
         <v>0.0913133708864514</v>
       </c>
-      <c r="T6" s="16" t="e">
-        <f>#REF!/(ROW()-2)</f>
-        <v>#REF!</v>
+      <c r="T6" s="16">
+        <f>G6/(ROW()-2)</f>
+        <v>0.5</v>
       </c>
-      <c r="U6" s="22">
+      <c r="U6" s="21">
         <f>(B6-B5)/B5</f>
         <v>-0.00513513513513507</v>
       </c>
       <c r="V6" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="W6" s="24">
+      <c r="W6" s="20">
         <f>D6-E6</f>
         <v>0.909999999999997</v>
       </c>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/同仁堂.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/同仁堂.xlsx
@@ -2902,7 +2902,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J3" sqref="J3:J6"/>
+      <selection pane="bottomRight" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/同仁堂.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/同仁堂.xlsx
@@ -58,6 +58,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">上涨/下跌天数
 </t>
     </r>
@@ -126,11 +132,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -163,12 +169,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -185,14 +185,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -203,6 +234,44 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -221,47 +290,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -275,21 +306,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -297,20 +313,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -320,7 +326,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -336,6 +342,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -365,7 +377,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -377,7 +395,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -389,139 +515,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -539,7 +533,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -601,6 +613,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -650,168 +677,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -843,46 +855,46 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1217,7 +1229,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J2" sqref="J2"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/同仁堂.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/同仁堂.xlsx
@@ -9,12 +9,15 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
   <si>
     <t>日期</t>
   </si>
@@ -125,18 +128,27 @@
     <t>市盈率是否翻倍
 (超过2倍要考虑卖出)</t>
   </si>
+  <si>
+    <t>6.21%</t>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -170,7 +182,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -184,17 +203,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -206,16 +235,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -229,40 +266,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -275,24 +287,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -301,6 +305,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -377,13 +389,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -395,19 +437,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -419,25 +455,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -449,13 +467,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -473,13 +491,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -497,55 +557,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -583,15 +595,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -609,6 +612,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -631,34 +658,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -677,157 +678,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -843,13 +855,16 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -867,6 +882,9 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -878,6 +896,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -894,7 +918,7 @@
     <xf numFmtId="49" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -962,6 +986,1629 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="交易计划及执行表"/>
+      <sheetName val="交易水平监控表"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>000001</v>
+          </cell>
+          <cell r="B4">
+            <v>44517</v>
+          </cell>
+          <cell r="C4" t="str">
+            <v>003040(楚天龙)</v>
+          </cell>
+          <cell r="D4">
+            <v>22.15</v>
+          </cell>
+          <cell r="E4">
+            <v>23.55</v>
+          </cell>
+          <cell r="F4">
+            <v>24.52</v>
+          </cell>
+          <cell r="G4" t="str">
+            <v>200日均线：向上
+150日均线：向上
+  50日均线：向上</v>
+          </cell>
+          <cell r="H4">
+            <v>25.7</v>
+          </cell>
+          <cell r="I4">
+            <v>5.46</v>
+          </cell>
+          <cell r="J4">
+            <v>46.33</v>
+          </cell>
+          <cell r="K4">
+            <v>3.70695970695971</v>
+          </cell>
+          <cell r="L4">
+            <v>0.445283833369307</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="N4">
+            <v>20.79</v>
+          </cell>
+          <cell r="O4">
+            <v>29.8</v>
+          </cell>
+          <cell r="P4">
+            <v>21.88</v>
+          </cell>
+          <cell r="Q4">
+            <v>26.5</v>
+          </cell>
+          <cell r="R4">
+            <v>22.1</v>
+          </cell>
+          <cell r="S4">
+            <v>26.4</v>
+          </cell>
+          <cell r="T4">
+            <v>24</v>
+          </cell>
+          <cell r="U4">
+            <v>26.2</v>
+          </cell>
+          <cell r="V4">
+            <v>24.52</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="Y4" t="str">
+            <v>24w</v>
+          </cell>
+          <cell r="Z4">
+            <v>0.551262680768401</v>
+          </cell>
+          <cell r="AA4">
+            <v>0.265771812080537</v>
+          </cell>
+          <cell r="AB4">
+            <v>0.166037735849057</v>
+          </cell>
+          <cell r="AC4">
+            <v>0.0909090909090909</v>
+          </cell>
+          <cell r="AD4">
+            <v>0.0641221374045801</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="AF4" t="str">
+            <v>5T</v>
+          </cell>
+          <cell r="AG4" t="str">
+            <v>成交量先随价格收缩逐级减少，然后随价格收缩放量</v>
+          </cell>
+          <cell r="AH4">
+            <v>28.15</v>
+          </cell>
+          <cell r="AI4">
+            <v>21.87</v>
+          </cell>
+          <cell r="AJ4">
+            <v>6.28</v>
+          </cell>
+          <cell r="AK4">
+            <v>26.2</v>
+          </cell>
+          <cell r="AL4">
+            <v>24.68</v>
+          </cell>
+          <cell r="AM4">
+            <v>32.49</v>
+          </cell>
+          <cell r="AN4">
+            <v>152</v>
+          </cell>
+          <cell r="AO4">
+            <v>100</v>
+          </cell>
+          <cell r="AP4">
+            <v>4.13815789473685</v>
+          </cell>
+          <cell r="AQ4">
+            <v>0.0580152671755725</v>
+          </cell>
+          <cell r="AR4">
+            <v>0.240076335877863</v>
+          </cell>
+          <cell r="AS4">
+            <v>150.88</v>
+          </cell>
+          <cell r="AT4" t="str">
+            <v>不宜入场</v>
+          </cell>
+          <cell r="AU4">
+            <v>44523</v>
+          </cell>
+          <cell r="AV4">
+            <v>26.2</v>
+          </cell>
+          <cell r="AW4">
+            <v>200</v>
+          </cell>
+          <cell r="AX4">
+            <v>5</v>
+          </cell>
+          <cell r="AY4">
+            <v>0.1048</v>
+          </cell>
+          <cell r="AZ4">
+            <v>5245.1048</v>
+          </cell>
+          <cell r="BA4">
+            <v>309.1048</v>
+          </cell>
+          <cell r="BB4">
+            <v>26.5</v>
+          </cell>
+          <cell r="BC4">
+            <v>25.21</v>
+          </cell>
+          <cell r="BD4">
+            <v>0.232558139534884</v>
+          </cell>
+          <cell r="BE4">
+            <v>44526</v>
+          </cell>
+          <cell r="BF4">
+            <v>24.89</v>
+          </cell>
+          <cell r="BG4">
+            <v>100</v>
+          </cell>
+          <cell r="BH4">
+            <v>5</v>
+          </cell>
+          <cell r="BI4">
+            <v>2.489</v>
+          </cell>
+          <cell r="BJ4">
+            <v>2481.511</v>
+          </cell>
+          <cell r="BK4">
+            <v>27.43</v>
+          </cell>
+          <cell r="BL4">
+            <v>24.74</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>000002</v>
+          </cell>
+          <cell r="B6">
+            <v>44517</v>
+          </cell>
+          <cell r="C6" t="str">
+            <v>600085(同仁堂)</v>
+          </cell>
+          <cell r="D6">
+            <v>31.92</v>
+          </cell>
+          <cell r="E6">
+            <v>32.63</v>
+          </cell>
+          <cell r="F6">
+            <v>33.17</v>
+          </cell>
+          <cell r="G6" t="str">
+            <v>200日均线：向上
+150日均线：向上
+  50日均线：向上</v>
+          </cell>
+          <cell r="H6">
+            <v>33.73</v>
+          </cell>
+          <cell r="I6">
+            <v>22.98</v>
+          </cell>
+          <cell r="J6">
+            <v>44.42</v>
+          </cell>
+          <cell r="K6">
+            <v>0.467798085291558</v>
+          </cell>
+          <cell r="L6">
+            <v>0.240657361548852</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="N6">
+            <v>30.78</v>
+          </cell>
+          <cell r="O6">
+            <v>35</v>
+          </cell>
+          <cell r="P6">
+            <v>31.27</v>
+          </cell>
+          <cell r="Q6">
+            <v>34.82</v>
+          </cell>
+          <cell r="R6">
+            <v>32.12</v>
+          </cell>
+          <cell r="S6">
+            <v>34.11</v>
+          </cell>
+          <cell r="T6">
+            <v>32.53</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="Y6" t="str">
+            <v>24w</v>
+          </cell>
+          <cell r="Z6">
+            <v>0.307068887888339</v>
+          </cell>
+          <cell r="AA6">
+            <v>0.106571428571429</v>
+          </cell>
+          <cell r="AB6">
+            <v>0.077541642734061</v>
+          </cell>
+          <cell r="AC6">
+            <v>0.0463207270595133</v>
+          </cell>
+          <cell r="AD6" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="AF6" t="str">
+            <v>4T</v>
+          </cell>
+          <cell r="AG6" t="str">
+            <v>成交量先随价格收缩逐级减少，然后随价格收缩保持不变</v>
+          </cell>
+          <cell r="AH6">
+            <v>35.48</v>
+          </cell>
+          <cell r="AI6">
+            <v>31.36</v>
+          </cell>
+          <cell r="AJ6">
+            <v>4.12</v>
+          </cell>
+          <cell r="AK6">
+            <v>34.12</v>
+          </cell>
+          <cell r="AL6">
+            <v>32.53</v>
+          </cell>
+          <cell r="AM6">
+            <v>39.33</v>
+          </cell>
+          <cell r="AN6">
+            <v>159</v>
+          </cell>
+          <cell r="AO6">
+            <v>100</v>
+          </cell>
+          <cell r="AP6">
+            <v>3.27672955974844</v>
+          </cell>
+          <cell r="AQ6">
+            <v>0.0466002344665884</v>
+          </cell>
+          <cell r="AR6">
+            <v>0.152696365767878</v>
+          </cell>
+          <cell r="AS6">
+            <v>37.41</v>
+          </cell>
+          <cell r="AT6" t="str">
+            <v>可以</v>
+          </cell>
+          <cell r="AU6">
+            <v>44523</v>
+          </cell>
+          <cell r="AV6">
+            <v>33.73</v>
+          </cell>
+          <cell r="AW6">
+            <v>100</v>
+          </cell>
+          <cell r="AX6">
+            <v>5</v>
+          </cell>
+          <cell r="AY6">
+            <v>0.06746</v>
+          </cell>
+          <cell r="AZ6">
+            <v>3378.06746</v>
+          </cell>
+          <cell r="BA6">
+            <v>125.06746</v>
+          </cell>
+          <cell r="BB6">
+            <v>35.36</v>
+          </cell>
+          <cell r="BC6">
+            <v>33.1</v>
+          </cell>
+          <cell r="BD6">
+            <v>0.721238938053099</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>000003</v>
+          </cell>
+          <cell r="B7">
+            <v>44519</v>
+          </cell>
+          <cell r="C7" t="str">
+            <v>603867(新化股份)</v>
+          </cell>
+          <cell r="D7">
+            <v>28.2</v>
+          </cell>
+          <cell r="E7">
+            <v>29.15</v>
+          </cell>
+          <cell r="F7">
+            <v>31.53</v>
+          </cell>
+          <cell r="G7" t="str">
+            <v>200日均线：向上
+150日均线：向上
+  50日均线：向上</v>
+          </cell>
+          <cell r="H7">
+            <v>32.57</v>
+          </cell>
+          <cell r="I7">
+            <v>20.61</v>
+          </cell>
+          <cell r="J7">
+            <v>41.5</v>
+          </cell>
+          <cell r="K7">
+            <v>0.58030082484231</v>
+          </cell>
+          <cell r="L7">
+            <v>0.215180722891566</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="N7">
+            <v>28.42</v>
+          </cell>
+          <cell r="O7">
+            <v>34.7</v>
+          </cell>
+          <cell r="P7">
+            <v>29</v>
+          </cell>
+          <cell r="Q7">
+            <v>35.27</v>
+          </cell>
+          <cell r="R7">
+            <v>30.89</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="Y7" t="str">
+            <v>8w</v>
+          </cell>
+          <cell r="Z7">
+            <v>0.315180722891566</v>
+          </cell>
+          <cell r="AA7">
+            <v>0.164265129682997</v>
+          </cell>
+          <cell r="AB7">
+            <v>0.124184859654097</v>
+          </cell>
+          <cell r="AC7" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+          <cell r="AD7" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="AF7" t="str">
+            <v>3T</v>
+          </cell>
+          <cell r="AG7" t="str">
+            <v>成交量一直随价格收缩逐级减少，最后随着价格收缩期间空头几乎被榨干</v>
+          </cell>
+          <cell r="AH7">
+            <v>36.21</v>
+          </cell>
+          <cell r="AI7">
+            <v>27.35</v>
+          </cell>
+          <cell r="AJ7">
+            <v>8.86</v>
+          </cell>
+          <cell r="AK7">
+            <v>32.65</v>
+          </cell>
+          <cell r="AL7">
+            <v>30.89</v>
+          </cell>
+          <cell r="AM7">
+            <v>36.22</v>
+          </cell>
+          <cell r="AN7">
+            <v>176</v>
+          </cell>
+          <cell r="AO7">
+            <v>100</v>
+          </cell>
+          <cell r="AP7">
+            <v>2.02840909090909</v>
+          </cell>
+          <cell r="AQ7">
+            <v>0.0539050535987748</v>
+          </cell>
+          <cell r="AR7">
+            <v>0.109341500765697</v>
+          </cell>
+          <cell r="AS7">
+            <v>28.82</v>
+          </cell>
+          <cell r="AT7" t="str">
+            <v>可以</v>
+          </cell>
+          <cell r="AU7">
+            <v>44522</v>
+          </cell>
+          <cell r="AV7">
+            <v>32.7</v>
+          </cell>
+          <cell r="AW7">
+            <v>100</v>
+          </cell>
+          <cell r="AX7">
+            <v>5</v>
+          </cell>
+          <cell r="AY7">
+            <v>0.0654</v>
+          </cell>
+          <cell r="AZ7">
+            <v>3275.0654</v>
+          </cell>
+          <cell r="BA7">
+            <v>186.0654</v>
+          </cell>
+          <cell r="BB7">
+            <v>33.9</v>
+          </cell>
+          <cell r="BC7">
+            <v>32.49</v>
+          </cell>
+          <cell r="BD7">
+            <v>0.851063829787233</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>000004</v>
+          </cell>
+          <cell r="B8">
+            <v>44525</v>
+          </cell>
+          <cell r="C8" t="str">
+            <v>002932(明德生物)</v>
+          </cell>
+          <cell r="D8">
+            <v>64.32</v>
+          </cell>
+          <cell r="E8" t="str">
+            <v>65，56</v>
+          </cell>
+          <cell r="F8">
+            <v>68.37</v>
+          </cell>
+          <cell r="G8" t="str">
+            <v>200日均线：向上
+150日均线：向上
+  50日均线：向上</v>
+          </cell>
+          <cell r="H8">
+            <v>69.16</v>
+          </cell>
+          <cell r="I8">
+            <v>40.64</v>
+          </cell>
+          <cell r="J8">
+            <v>90.29</v>
+          </cell>
+          <cell r="K8">
+            <v>0.701771653543307</v>
+          </cell>
+          <cell r="L8">
+            <v>0.234023701406579</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="N8">
+            <v>60.05</v>
+          </cell>
+          <cell r="O8">
+            <v>74.75</v>
+          </cell>
+          <cell r="P8">
+            <v>65.5</v>
+          </cell>
+          <cell r="Q8">
+            <v>70.98</v>
+          </cell>
+          <cell r="R8">
+            <v>66.88</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="Y8" t="str">
+            <v>12w</v>
+          </cell>
+          <cell r="Z8">
+            <v>0.33492081072101</v>
+          </cell>
+          <cell r="AA8">
+            <v>0.123745819397993</v>
+          </cell>
+          <cell r="AB8">
+            <v>0.0577627500704425</v>
+          </cell>
+          <cell r="AC8" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="AF8" t="str">
+            <v>3T</v>
+          </cell>
+          <cell r="AG8" t="str">
+            <v>成交量先随价格收缩至几乎被榨干，然后随价格收缩有些许放量，最后又收缩至几乎榨干状态</v>
+          </cell>
+          <cell r="AH8">
+            <v>75.02</v>
+          </cell>
+          <cell r="AI8">
+            <v>62.33</v>
+          </cell>
+          <cell r="AJ8">
+            <v>12.69</v>
+          </cell>
+          <cell r="AK8">
+            <v>70.98</v>
+          </cell>
+          <cell r="AL8">
+            <v>66.88</v>
+          </cell>
+          <cell r="AM8">
+            <v>84.94</v>
+          </cell>
+          <cell r="AN8">
+            <v>410.000000000001</v>
+          </cell>
+          <cell r="AO8">
+            <v>0</v>
+          </cell>
+          <cell r="AP8">
+            <v>3.40487804878048</v>
+          </cell>
+          <cell r="AQ8">
+            <v>0.0577627500704425</v>
+          </cell>
+          <cell r="AR8">
+            <v>0.196675119752043</v>
+          </cell>
+          <cell r="AS8">
+            <v>6.49</v>
+          </cell>
+          <cell r="AT8" t="str">
+            <v>可以</v>
+          </cell>
+          <cell r="AU8">
+            <v>44526</v>
+          </cell>
+          <cell r="AV8">
+            <v>72.07</v>
+          </cell>
+          <cell r="AW8">
+            <v>100</v>
+          </cell>
+          <cell r="AX8">
+            <v>5</v>
+          </cell>
+          <cell r="AY8">
+            <v>0.14414</v>
+          </cell>
+          <cell r="AZ8">
+            <v>7212.14414</v>
+          </cell>
+          <cell r="BA8">
+            <v>524.14414</v>
+          </cell>
+          <cell r="BB8">
+            <v>74.5</v>
+          </cell>
+          <cell r="BC8">
+            <v>70.4</v>
+          </cell>
+          <cell r="BD8">
+            <v>0.592682926829271</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>000005</v>
+          </cell>
+          <cell r="B9">
+            <v>44522</v>
+          </cell>
+          <cell r="C9" t="str">
+            <v>605016(百龙创园)</v>
+          </cell>
+          <cell r="D9">
+            <v>28.37</v>
+          </cell>
+          <cell r="E9">
+            <v>29.06</v>
+          </cell>
+          <cell r="F9">
+            <v>29.49</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="H9">
+            <v>29.69</v>
+          </cell>
+          <cell r="I9">
+            <v>17.54</v>
+          </cell>
+          <cell r="J9">
+            <v>48.5</v>
+          </cell>
+          <cell r="K9">
+            <v>0.692702394526796</v>
+          </cell>
+          <cell r="L9">
+            <v>0.387835051546392</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="N9">
+            <v>24.11</v>
+          </cell>
+          <cell r="O9">
+            <v>38.16</v>
+          </cell>
+          <cell r="P9">
+            <v>25.12</v>
+          </cell>
+          <cell r="Q9">
+            <v>30.9</v>
+          </cell>
+          <cell r="R9">
+            <v>29.2</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="Y9" t="str">
+            <v>24w</v>
+          </cell>
+          <cell r="Z9">
+            <v>0.502886597938144</v>
+          </cell>
+          <cell r="AA9">
+            <v>0.341719077568134</v>
+          </cell>
+          <cell r="AB9">
+            <v>0.0550161812297734</v>
+          </cell>
+          <cell r="AC9" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+          <cell r="AD9" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="AF9" t="str">
+            <v>3T</v>
+          </cell>
+          <cell r="AG9" t="str">
+            <v>由于价格收缩不明显，成交量收缩情况不予考虑</v>
+          </cell>
+          <cell r="AH9">
+            <v>32.43</v>
+          </cell>
+          <cell r="AI9">
+            <v>26.16</v>
+          </cell>
+          <cell r="AJ9">
+            <v>6.27</v>
+          </cell>
+          <cell r="AK9">
+            <v>30.66</v>
+          </cell>
+          <cell r="AL9">
+            <v>29.35</v>
+          </cell>
+          <cell r="AM9">
+            <v>38.71</v>
+          </cell>
+          <cell r="AN9">
+            <v>131</v>
+          </cell>
+          <cell r="AO9">
+            <v>200</v>
+          </cell>
+          <cell r="AP9">
+            <v>6.14503816793894</v>
+          </cell>
+          <cell r="AQ9">
+            <v>0.042726679712981</v>
+          </cell>
+          <cell r="AR9">
+            <v>0.262557077625571</v>
+          </cell>
+          <cell r="AS9">
+            <v>38.46</v>
+          </cell>
+          <cell r="AT9" t="str">
+            <v>不宜入场</v>
+          </cell>
+          <cell r="AU9">
+            <v>44524</v>
+          </cell>
+          <cell r="AV9">
+            <v>30.54</v>
+          </cell>
+          <cell r="AW9">
+            <v>100</v>
+          </cell>
+          <cell r="AX9">
+            <v>5</v>
+          </cell>
+          <cell r="AY9">
+            <v>0.06108</v>
+          </cell>
+          <cell r="AZ9">
+            <v>3059.06108</v>
+          </cell>
+          <cell r="BA9">
+            <v>124.06108</v>
+          </cell>
+          <cell r="BB9">
+            <v>30.72</v>
+          </cell>
+          <cell r="BC9">
+            <v>29.33</v>
+          </cell>
+          <cell r="BD9">
+            <v>0.129496402877698</v>
+          </cell>
+          <cell r="BE9">
+            <v>44525</v>
+          </cell>
+          <cell r="BF9">
+            <v>30.15</v>
+          </cell>
+          <cell r="BG9">
+            <v>100</v>
+          </cell>
+          <cell r="BH9">
+            <v>5</v>
+          </cell>
+          <cell r="BI9">
+            <v>3.075</v>
+          </cell>
+          <cell r="BJ9">
+            <v>3006.925</v>
+          </cell>
+          <cell r="BK9">
+            <v>30.69</v>
+          </cell>
+          <cell r="BL9">
+            <v>30.01</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>000010</v>
+          </cell>
+          <cell r="B10">
+            <v>44524</v>
+          </cell>
+          <cell r="C10" t="str">
+            <v>603663(三祥新材)</v>
+          </cell>
+          <cell r="D10">
+            <v>18.26</v>
+          </cell>
+          <cell r="E10">
+            <v>19.01</v>
+          </cell>
+          <cell r="F10">
+            <v>21.05</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="H10">
+            <v>23.2</v>
+          </cell>
+          <cell r="I10">
+            <v>13.04</v>
+          </cell>
+          <cell r="J10">
+            <v>26.64</v>
+          </cell>
+          <cell r="K10">
+            <v>0.779141104294479</v>
+          </cell>
+          <cell r="L10">
+            <v>0.129129129129129</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="N10">
+            <v>18.5</v>
+          </cell>
+          <cell r="O10">
+            <v>22.39</v>
+          </cell>
+          <cell r="P10">
+            <v>18.85</v>
+          </cell>
+          <cell r="Q10">
+            <v>23.56</v>
+          </cell>
+          <cell r="R10">
+            <v>20.89</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="Y10" t="str">
+            <v>12w</v>
+          </cell>
+          <cell r="Z10">
+            <v>0.305555555555556</v>
+          </cell>
+          <cell r="AA10">
+            <v>0.158106297454221</v>
+          </cell>
+          <cell r="AB10">
+            <v>0.113327674023769</v>
+          </cell>
+          <cell r="AC10" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="AF10" t="str">
+            <v>3T</v>
+          </cell>
+          <cell r="AG10" t="str">
+            <v>成交量先随价格收缩逐级减少，然后随价格收缩放量</v>
+          </cell>
+          <cell r="AH10">
+            <v>25.19</v>
+          </cell>
+          <cell r="AI10">
+            <v>17.73</v>
+          </cell>
+          <cell r="AJ10">
+            <v>7.46</v>
+          </cell>
+          <cell r="AK10">
+            <v>23.56</v>
+          </cell>
+          <cell r="AL10">
+            <v>22.12</v>
+          </cell>
+          <cell r="AM10">
+            <v>26.91</v>
+          </cell>
+          <cell r="AN10">
+            <v>144</v>
+          </cell>
+          <cell r="AO10">
+            <v>200</v>
+          </cell>
+          <cell r="AP10">
+            <v>2.32638888888889</v>
+          </cell>
+          <cell r="AQ10">
+            <v>0.0611205432937181</v>
+          </cell>
+          <cell r="AR10">
+            <v>0.142190152801358</v>
+          </cell>
+          <cell r="AS10">
+            <v>53.49</v>
+          </cell>
+          <cell r="AT10" t="str">
+            <v>不宜入场</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>000014</v>
+          </cell>
+          <cell r="B11">
+            <v>44524</v>
+          </cell>
+          <cell r="C11" t="str">
+            <v>600392(盛和资源)</v>
+          </cell>
+          <cell r="D11">
+            <v>20.14</v>
+          </cell>
+          <cell r="E11">
+            <v>20.65</v>
+          </cell>
+          <cell r="F11">
+            <v>20.97</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="H11">
+            <v>21.52</v>
+          </cell>
+          <cell r="I11">
+            <v>7.07</v>
+          </cell>
+          <cell r="J11">
+            <v>29.28</v>
+          </cell>
+          <cell r="K11">
+            <v>2.04384724186704</v>
+          </cell>
+          <cell r="L11">
+            <v>0.265027322404372</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="N11">
+            <v>18.34</v>
+          </cell>
+          <cell r="O11">
+            <v>21.65</v>
+          </cell>
+          <cell r="P11">
+            <v>18.61</v>
+          </cell>
+          <cell r="Q11">
+            <v>21.14</v>
+          </cell>
+          <cell r="R11">
+            <v>18.86</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="Y11" t="str">
+            <v>8w</v>
+          </cell>
+          <cell r="Z11">
+            <v>0.373633879781421</v>
+          </cell>
+          <cell r="AA11">
+            <v>0.140415704387991</v>
+          </cell>
+          <cell r="AB11">
+            <v>0.107852412488174</v>
+          </cell>
+          <cell r="AC11" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="AF11" t="str">
+            <v>3T</v>
+          </cell>
+          <cell r="AG11" t="str">
+            <v>成交量先随价格收缩逐级减少，然后随价格收缩放量</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="AN11">
+            <v>0</v>
+          </cell>
+          <cell r="AO11" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+          <cell r="AP11" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="AT11" t="str">
+            <v>不宜入场</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>000015</v>
+          </cell>
+          <cell r="B12">
+            <v>44524</v>
+          </cell>
+          <cell r="C12" t="str">
+            <v>600399(抚顺特钢)</v>
+          </cell>
+          <cell r="D12">
+            <v>19.9</v>
+          </cell>
+          <cell r="E12">
+            <v>20.73</v>
+          </cell>
+          <cell r="F12">
+            <v>22.88</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="H12">
+            <v>23.53</v>
+          </cell>
+          <cell r="I12">
+            <v>7.25</v>
+          </cell>
+          <cell r="J12">
+            <v>29.3</v>
+          </cell>
+          <cell r="K12">
+            <v>2.24551724137931</v>
+          </cell>
+          <cell r="L12">
+            <v>0.196928327645051</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="N12">
+            <v>19.05</v>
+          </cell>
+          <cell r="O12">
+            <v>22.91</v>
+          </cell>
+          <cell r="P12">
+            <v>19.73</v>
+          </cell>
+          <cell r="Q12">
+            <v>25.5</v>
+          </cell>
+          <cell r="R12">
+            <v>23.12</v>
+          </cell>
+          <cell r="S12">
+            <v>26.45</v>
+          </cell>
+          <cell r="T12">
+            <v>23.48</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="Y12" t="str">
+            <v>12w</v>
+          </cell>
+          <cell r="Z12">
+            <v>0.349829351535836</v>
+          </cell>
+          <cell r="AA12">
+            <v>0.138804015713662</v>
+          </cell>
+          <cell r="AB12">
+            <v>0.0933333333333333</v>
+          </cell>
+          <cell r="AC12">
+            <v>0.112287334593573</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="AF12" t="str">
+            <v>3T</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="AK12">
+            <v>25.15</v>
+          </cell>
+          <cell r="AL12">
+            <v>23.48</v>
+          </cell>
+          <cell r="AM12">
+            <v>27.83</v>
+          </cell>
+          <cell r="AN12">
+            <v>167</v>
+          </cell>
+          <cell r="AO12">
+            <v>100</v>
+          </cell>
+          <cell r="AP12">
+            <v>1.60479041916168</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="AT12" t="str">
+            <v>不宜入场</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>000017</v>
+          </cell>
+          <cell r="B13">
+            <v>44524</v>
+          </cell>
+          <cell r="C13" t="str">
+            <v>601677(明泰铝业)</v>
+          </cell>
+          <cell r="D13">
+            <v>26.7</v>
+          </cell>
+          <cell r="E13">
+            <v>28.65</v>
+          </cell>
+          <cell r="F13">
+            <v>33.16</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="H13">
+            <v>36.11</v>
+          </cell>
+          <cell r="I13">
+            <v>11.38</v>
+          </cell>
+          <cell r="J13">
+            <v>41.75</v>
+          </cell>
+          <cell r="K13">
+            <v>2.17311072056239</v>
+          </cell>
+          <cell r="L13">
+            <v>0.135089820359281</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="N13">
+            <v>28.85</v>
+          </cell>
+          <cell r="O13">
+            <v>35.46</v>
+          </cell>
+          <cell r="P13">
+            <v>29.05</v>
+          </cell>
+          <cell r="Q13">
+            <v>34.35</v>
+          </cell>
+          <cell r="R13">
+            <v>31.5</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="Y13" t="str">
+            <v>8w</v>
+          </cell>
+          <cell r="Z13">
+            <v>0.308982035928144</v>
+          </cell>
+          <cell r="AA13">
+            <v>0.180767061477721</v>
+          </cell>
+          <cell r="AB13">
+            <v>0.0829694323144105</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="AF13" t="str">
+            <v>3T</v>
+          </cell>
+          <cell r="AG13" t="str">
+            <v>减少明显，空头几乎被榨干</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="AK13">
+            <v>37.13</v>
+          </cell>
+          <cell r="AL13">
+            <v>35.6</v>
+          </cell>
+          <cell r="AM13">
+            <v>38.61</v>
+          </cell>
+          <cell r="AN13">
+            <v>153</v>
+          </cell>
+          <cell r="AO13">
+            <v>100</v>
+          </cell>
+          <cell r="AP13">
+            <v>0.967320261437906</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="AT13" t="str">
+            <v>不宜入场</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>000018</v>
+          </cell>
+          <cell r="B14">
+            <v>44524</v>
+          </cell>
+          <cell r="C14" t="str">
+            <v>002223(鱼跃医疗)</v>
+          </cell>
+          <cell r="D14">
+            <v>32.91</v>
+          </cell>
+          <cell r="E14">
+            <v>33.52</v>
+          </cell>
+          <cell r="F14">
+            <v>34.71</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="H14">
+            <v>36.09</v>
+          </cell>
+          <cell r="I14">
+            <v>25.12</v>
+          </cell>
+          <cell r="J14">
+            <v>41.77</v>
+          </cell>
+          <cell r="K14">
+            <v>0.436703821656051</v>
+          </cell>
+          <cell r="L14">
+            <v>0.135982762748384</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="N14">
+            <v>30.46</v>
+          </cell>
+          <cell r="O14">
+            <v>36.94</v>
+          </cell>
+          <cell r="P14">
+            <v>33.59</v>
+          </cell>
+          <cell r="Q14">
+            <v>37.1</v>
+          </cell>
+          <cell r="R14">
+            <v>34.44</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="Y14" t="str">
+            <v>16w</v>
+          </cell>
+          <cell r="Z14">
+            <v>0.270768494134546</v>
+          </cell>
+          <cell r="AA14">
+            <v>0.0906876015159717</v>
+          </cell>
+          <cell r="AB14">
+            <v>0.0716981132075473</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="AF14" t="str">
+            <v>3T</v>
+          </cell>
+          <cell r="AG14" t="str">
+            <v>不是很明显</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="AK14">
+            <v>37.09</v>
+          </cell>
+          <cell r="AL14">
+            <v>35.25</v>
+          </cell>
+          <cell r="AM14">
+            <v>38.8</v>
+          </cell>
+          <cell r="AN14">
+            <v>184</v>
+          </cell>
+          <cell r="AO14">
+            <v>100</v>
+          </cell>
+          <cell r="AP14">
+            <v>0.929347826086951</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="AT14" t="str">
+            <v>不宜入场</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v>000019</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16" t="str">
+            <v>000020</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17" t="str">
+            <v>000021</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18" t="str">
+            <v>000022</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19" t="str">
+            <v>000023</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20" t="str">
+            <v>000024</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21" t="str">
+            <v>000025</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22" t="str">
+            <v>000026</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23" t="str">
+            <v>000027</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24" t="str">
+            <v>000028</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25" t="str">
+            <v>000029</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26" t="str">
+            <v>000030</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27" t="str">
+            <v>000031</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28" t="str">
+            <v>000032</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29" t="str">
+            <v>000033</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30" t="str">
+            <v>000034</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31" t="str">
+            <v>000035</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32" t="str">
+            <v>000036</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33" t="str">
+            <v>000037</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34" t="str">
+            <v>000038</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35" t="str">
+            <v>000039</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36" t="str">
+            <v>000040</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37" t="str">
+            <v>000041</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38" t="str">
+            <v>000042</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="A39" t="str">
+            <v>000043</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="A40" t="str">
+            <v>000044</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="A41" t="str">
+            <v>000045</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="A42" t="str">
+            <v>000046</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="A43" t="str">
+            <v>000047</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="A44" t="str">
+            <v>000048</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="A45" t="str">
+            <v>000049</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="A46" t="str">
+            <v>000050</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="A47" t="str">
+            <v>000051</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="A48" t="str">
+            <v>000052</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="A49" t="str">
+            <v>000053</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="A50" t="str">
+            <v>000054</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="A51" t="str">
+            <v>000055</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="A52" t="str">
+            <v>000056</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="A53" t="str">
+            <v>000057</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="A54" t="str">
+            <v>000058</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="A55" t="str">
+            <v>000059</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="A56" t="str">
+            <v>000060</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="A57" t="str">
+            <v>000061</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="A58" t="str">
+            <v>000062</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="A59" t="str">
+            <v>000063</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="A60" t="str">
+            <v>000064</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="A61" t="str">
+            <v>000065</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="A62" t="str">
+            <v>000066</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="A63" t="str">
+            <v>000067</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="A64" t="str">
+            <v>000068</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="A65" t="str">
+            <v>000069</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1229,7 +2876,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -1273,25 +2920,25 @@
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="17" t="s">
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="20" t="s">
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
+      <c r="V1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="W1" s="20"/>
+      <c r="W1" s="24"/>
     </row>
     <row r="2" ht="56" customHeight="1" spans="1:23">
       <c r="A2" s="2"/>
@@ -1307,1032 +2954,1219 @@
       <c r="E2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="J2" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="K2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="16" t="s">
+      <c r="L2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="15" t="s">
+      <c r="M2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="18" t="s">
+      <c r="N2" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="18" t="s">
+      <c r="O2" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="P2" s="18" t="s">
+      <c r="P2" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="18" t="s">
+      <c r="Q2" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="R2" s="18" t="s">
+      <c r="R2" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="S2" s="19" t="s">
+      <c r="S2" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="T2" s="18" t="s">
+      <c r="T2" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="U2" s="18" t="s">
+      <c r="U2" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="V2" s="21" t="s">
+      <c r="V2" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="W2" s="21" t="s">
+      <c r="W2" s="25" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3" ht="18" spans="1:23">
       <c r="A3" s="5">
         <v>44523</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="11"/>
-      <c r="W3" s="22"/>
+      <c r="B3" s="6">
+        <v>35.24</v>
+      </c>
+      <c r="C3" s="6">
+        <v>33.15</v>
+      </c>
+      <c r="D3" s="6">
+        <v>35.36</v>
+      </c>
+      <c r="E3" s="6">
+        <v>33.1</v>
+      </c>
+      <c r="F3" s="6">
+        <v>36.8</v>
+      </c>
+      <c r="G3" s="11">
+        <v>1</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="19">
+        <f>(B3-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10001,48,FALSE))/VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10001,48,FALSE)</f>
+        <v>0.0447672694930331</v>
+      </c>
+      <c r="J3" s="20">
+        <f>G3/(ROW()-2)</f>
+        <v>1</v>
+      </c>
+      <c r="K3" s="6">
+        <v>32.53</v>
+      </c>
+      <c r="L3" s="6">
+        <f>K3/(1-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10001,43,FALSE))</f>
+        <v>34.12</v>
+      </c>
+      <c r="M3" s="6">
+        <f>L3+L3*VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL1000,43,FALSE)*2</f>
+        <v>37.3</v>
+      </c>
+      <c r="N3" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="O3" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="P3" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q3" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="R3" s="11" t="str">
+        <f>IF(E3&gt;(G3-(G3-F3)/3),"上部",IF(E3&gt;=(H3+(G3-F3)/3),"中部","下部"))</f>
+        <v>上部</v>
+      </c>
+      <c r="S3" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="T3" s="14"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="W3" s="26">
+        <f>F3/VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10001,45,FALSE)</f>
+        <v>0.983694199411922</v>
+      </c>
     </row>
     <row r="4" spans="1:23">
       <c r="A4" s="7">
         <v>44524</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="23"/>
-      <c r="W4" s="22"/>
+      <c r="B4" s="6">
+        <v>34.44</v>
+      </c>
+      <c r="C4" s="6">
+        <v>35.1</v>
+      </c>
+      <c r="D4" s="6">
+        <v>35.13</v>
+      </c>
+      <c r="E4" s="6">
+        <v>34.38</v>
+      </c>
+      <c r="F4" s="6">
+        <v>39.09</v>
+      </c>
+      <c r="G4" s="11">
+        <v>1</v>
+      </c>
+      <c r="H4" s="13">
+        <f>(B4-B3)/B3</f>
+        <v>-0.0227014755959139</v>
+      </c>
+      <c r="I4" s="19">
+        <f>(B4-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10002,48,FALSE))/VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10002,48,FALSE)</f>
+        <v>0.0210495108212274</v>
+      </c>
+      <c r="J4" s="20">
+        <f>G4/(ROW()-2)</f>
+        <v>0.5</v>
+      </c>
+      <c r="K4" s="6">
+        <v>33.73</v>
+      </c>
+      <c r="L4" s="6">
+        <f>K4/(1-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10002,43,FALSE))</f>
+        <v>35.3786535505687</v>
+      </c>
+      <c r="M4" s="6">
+        <f>L4+L4*VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL1001,43,FALSE)*2</f>
+        <v>38.6759606517061</v>
+      </c>
+      <c r="N4" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="O4" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="P4" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q4" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="R4" s="11" t="str">
+        <f t="shared" ref="R4:R6" si="0">IF(E4&gt;(G4-(G4-F4)/3),"上部",IF(E4&gt;(H4+(G4-F4)/3),"中部","下部"))</f>
+        <v>上部</v>
+      </c>
+      <c r="S4" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="T4" s="14"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="27">
+        <v>1</v>
+      </c>
+      <c r="W4" s="26">
+        <f>F4/VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10002,45,FALSE)</f>
+        <v>1.04490777866881</v>
+      </c>
     </row>
     <row r="5" spans="1:23">
       <c r="A5" s="7">
         <v>44525</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="23"/>
-      <c r="W5" s="22"/>
+      <c r="B5" s="6">
+        <v>37</v>
+      </c>
+      <c r="C5" s="6">
+        <v>34.6</v>
+      </c>
+      <c r="D5" s="6">
+        <v>37.6</v>
+      </c>
+      <c r="E5" s="6">
+        <v>34.6</v>
+      </c>
+      <c r="F5" s="6">
+        <v>38.2</v>
+      </c>
+      <c r="G5" s="11">
+        <v>2</v>
+      </c>
+      <c r="H5" s="13">
+        <f>(B5-B4)/B4</f>
+        <v>0.0743321718931476</v>
+      </c>
+      <c r="I5" s="19">
+        <f>(B5-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10003,48,FALSE))/VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10003,48,FALSE)</f>
+        <v>0.0969463385710051</v>
+      </c>
+      <c r="J5" s="20">
+        <f>G5/(ROW()-2)</f>
+        <v>0.666666666666667</v>
+      </c>
+      <c r="K5" s="6">
+        <v>33.73</v>
+      </c>
+      <c r="L5" s="6">
+        <f>K5/(1-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10003,43,FALSE))</f>
+        <v>35.3786535505687</v>
+      </c>
+      <c r="M5" s="6">
+        <f>L5+L5*VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL1002,43,FALSE)*2</f>
+        <v>38.6759606517061</v>
+      </c>
+      <c r="N5" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="O5" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="P5" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q5" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="R5" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>上部</v>
+      </c>
+      <c r="S5" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="T5" s="14"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="27">
+        <v>2</v>
+      </c>
+      <c r="W5" s="26">
+        <f>F5/VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10003,45,FALSE)</f>
+        <v>1.02111734830259</v>
+      </c>
     </row>
     <row r="6" spans="1:23">
       <c r="A6" s="7">
         <v>44526</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="10"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="23"/>
-      <c r="W6" s="22"/>
+      <c r="B6" s="6">
+        <v>36.81</v>
+      </c>
+      <c r="C6" s="6">
+        <v>37</v>
+      </c>
+      <c r="D6" s="6">
+        <v>37.25</v>
+      </c>
+      <c r="E6" s="6">
+        <v>36.34</v>
+      </c>
+      <c r="F6" s="6">
+        <v>41.04</v>
+      </c>
+      <c r="G6" s="11">
+        <v>2</v>
+      </c>
+      <c r="H6" s="13">
+        <f>(B6-B5)/B5</f>
+        <v>-0.00513513513513507</v>
+      </c>
+      <c r="I6" s="19">
+        <f>(B6-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10004,48,FALSE))/VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10004,48,FALSE)</f>
+        <v>0.0913133708864514</v>
+      </c>
+      <c r="J6" s="20">
+        <f>G6/(ROW()-2)</f>
+        <v>0.5</v>
+      </c>
+      <c r="K6" s="6">
+        <v>33.73</v>
+      </c>
+      <c r="L6" s="6">
+        <f>K6/(1-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10004,43,FALSE))</f>
+        <v>35.3786535505687</v>
+      </c>
+      <c r="M6" s="6">
+        <f>L6+L6*VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL1003,43,FALSE)*2</f>
+        <v>38.6759606517061</v>
+      </c>
+      <c r="N6" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="O6" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="P6" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q6" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="R6" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>上部</v>
+      </c>
+      <c r="S6" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="T6" s="14"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="27">
+        <v>2</v>
+      </c>
+      <c r="W6" s="26">
+        <f>F6/VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10004,45,FALSE)</f>
+        <v>1.09703287890938</v>
+      </c>
     </row>
     <row r="7" spans="1:23">
       <c r="A7" s="7">
         <v>44527</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="10"/>
-      <c r="T7" s="10"/>
-      <c r="U7" s="10"/>
-      <c r="V7" s="10"/>
-      <c r="W7" s="6"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="14"/>
+      <c r="U7" s="14"/>
+      <c r="V7" s="14"/>
+      <c r="W7" s="8"/>
     </row>
     <row r="8" spans="1:23">
       <c r="A8" s="7">
         <v>44528</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="10"/>
-      <c r="T8" s="10"/>
-      <c r="U8" s="10"/>
-      <c r="V8" s="10"/>
-      <c r="W8" s="6"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14"/>
+      <c r="T8" s="14"/>
+      <c r="U8" s="14"/>
+      <c r="V8" s="14"/>
+      <c r="W8" s="8"/>
     </row>
     <row r="9" spans="1:23">
       <c r="A9" s="7">
         <v>44529</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="10"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="10"/>
-      <c r="V9" s="10"/>
-      <c r="W9" s="6"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="14"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="14"/>
+      <c r="W9" s="8"/>
     </row>
     <row r="10" spans="1:23">
       <c r="A10" s="7">
         <v>44530</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="10"/>
-      <c r="S10" s="10"/>
-      <c r="T10" s="10"/>
-      <c r="U10" s="10"/>
-      <c r="V10" s="10"/>
-      <c r="W10" s="6"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="14"/>
+      <c r="T10" s="14"/>
+      <c r="U10" s="14"/>
+      <c r="V10" s="14"/>
+      <c r="W10" s="8"/>
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="7">
         <v>44531</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="10"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="10"/>
-      <c r="V11" s="10"/>
-      <c r="W11" s="6"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="14"/>
+      <c r="U11" s="14"/>
+      <c r="V11" s="14"/>
+      <c r="W11" s="8"/>
     </row>
     <row r="12" spans="1:23">
       <c r="A12" s="7">
         <v>44532</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="10"/>
-      <c r="S12" s="10"/>
-      <c r="T12" s="10"/>
-      <c r="U12" s="10"/>
-      <c r="V12" s="10"/>
-      <c r="W12" s="6"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="14"/>
+      <c r="U12" s="14"/>
+      <c r="V12" s="14"/>
+      <c r="W12" s="8"/>
     </row>
     <row r="13" spans="1:23">
       <c r="A13" s="7">
         <v>44533</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="10"/>
-      <c r="S13" s="10"/>
-      <c r="T13" s="10"/>
-      <c r="U13" s="10"/>
-      <c r="V13" s="10"/>
-      <c r="W13" s="6"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="14"/>
+      <c r="T13" s="14"/>
+      <c r="U13" s="14"/>
+      <c r="V13" s="14"/>
+      <c r="W13" s="8"/>
     </row>
     <row r="14" spans="1:23">
       <c r="A14" s="7">
         <v>44534</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="10"/>
-      <c r="S14" s="10"/>
-      <c r="T14" s="10"/>
-      <c r="U14" s="10"/>
-      <c r="V14" s="10"/>
-      <c r="W14" s="6"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="14"/>
+      <c r="T14" s="14"/>
+      <c r="U14" s="14"/>
+      <c r="V14" s="14"/>
+      <c r="W14" s="8"/>
     </row>
     <row r="15" spans="1:23">
       <c r="A15" s="7">
         <v>44535</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="10"/>
-      <c r="S15" s="10"/>
-      <c r="T15" s="10"/>
-      <c r="U15" s="10"/>
-      <c r="V15" s="10"/>
-      <c r="W15" s="6"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="14"/>
+      <c r="V15" s="14"/>
+      <c r="W15" s="8"/>
     </row>
     <row r="16" spans="1:23">
       <c r="A16" s="7">
         <v>44536</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="10"/>
-      <c r="S16" s="10"/>
-      <c r="T16" s="10"/>
-      <c r="U16" s="10"/>
-      <c r="V16" s="10"/>
-      <c r="W16" s="6"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="14"/>
+      <c r="T16" s="14"/>
+      <c r="U16" s="14"/>
+      <c r="V16" s="14"/>
+      <c r="W16" s="8"/>
     </row>
     <row r="17" spans="1:23">
       <c r="A17" s="7">
         <v>44537</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="10"/>
-      <c r="S17" s="10"/>
-      <c r="T17" s="10"/>
-      <c r="U17" s="10"/>
-      <c r="V17" s="10"/>
-      <c r="W17" s="6"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="14"/>
+      <c r="S17" s="14"/>
+      <c r="T17" s="14"/>
+      <c r="U17" s="14"/>
+      <c r="V17" s="14"/>
+      <c r="W17" s="8"/>
     </row>
     <row r="18" spans="1:23">
       <c r="A18" s="7">
         <v>44538</v>
       </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="10"/>
-      <c r="R18" s="10"/>
-      <c r="S18" s="10"/>
-      <c r="T18" s="10"/>
-      <c r="U18" s="10"/>
-      <c r="V18" s="10"/>
-      <c r="W18" s="6"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="14"/>
+      <c r="S18" s="14"/>
+      <c r="T18" s="14"/>
+      <c r="U18" s="14"/>
+      <c r="V18" s="14"/>
+      <c r="W18" s="8"/>
     </row>
     <row r="19" spans="1:23">
       <c r="A19" s="7">
         <v>44539</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="10"/>
-      <c r="S19" s="10"/>
-      <c r="T19" s="10"/>
-      <c r="U19" s="10"/>
-      <c r="V19" s="10"/>
-      <c r="W19" s="6"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="14"/>
+      <c r="S19" s="14"/>
+      <c r="T19" s="14"/>
+      <c r="U19" s="14"/>
+      <c r="V19" s="14"/>
+      <c r="W19" s="8"/>
     </row>
     <row r="20" spans="1:23">
       <c r="A20" s="7">
         <v>44540</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="10"/>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="10"/>
-      <c r="R20" s="10"/>
-      <c r="S20" s="10"/>
-      <c r="T20" s="10"/>
-      <c r="U20" s="10"/>
-      <c r="V20" s="10"/>
-      <c r="W20" s="6"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="14"/>
+      <c r="T20" s="14"/>
+      <c r="U20" s="14"/>
+      <c r="V20" s="14"/>
+      <c r="W20" s="8"/>
     </row>
     <row r="21" spans="1:23">
       <c r="A21" s="7">
         <v>44541</v>
       </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="10"/>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="10"/>
-      <c r="R21" s="10"/>
-      <c r="S21" s="10"/>
-      <c r="T21" s="10"/>
-      <c r="U21" s="10"/>
-      <c r="V21" s="10"/>
-      <c r="W21" s="6"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="14"/>
+      <c r="S21" s="14"/>
+      <c r="T21" s="14"/>
+      <c r="U21" s="14"/>
+      <c r="V21" s="14"/>
+      <c r="W21" s="8"/>
     </row>
     <row r="22" spans="1:23">
       <c r="A22" s="7">
         <v>44542</v>
       </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="10"/>
-      <c r="R22" s="10"/>
-      <c r="S22" s="10"/>
-      <c r="T22" s="10"/>
-      <c r="U22" s="10"/>
-      <c r="V22" s="10"/>
-      <c r="W22" s="6"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="14"/>
+      <c r="R22" s="14"/>
+      <c r="S22" s="14"/>
+      <c r="T22" s="14"/>
+      <c r="U22" s="14"/>
+      <c r="V22" s="14"/>
+      <c r="W22" s="8"/>
     </row>
     <row r="23" spans="1:23">
       <c r="A23" s="7">
         <v>44543</v>
       </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="10"/>
-      <c r="R23" s="10"/>
-      <c r="S23" s="10"/>
-      <c r="T23" s="10"/>
-      <c r="U23" s="10"/>
-      <c r="V23" s="10"/>
-      <c r="W23" s="6"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="14"/>
+      <c r="S23" s="14"/>
+      <c r="T23" s="14"/>
+      <c r="U23" s="14"/>
+      <c r="V23" s="14"/>
+      <c r="W23" s="8"/>
     </row>
     <row r="24" spans="1:23">
       <c r="A24" s="7">
         <v>44544</v>
       </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="10"/>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="10"/>
-      <c r="R24" s="10"/>
-      <c r="S24" s="10"/>
-      <c r="T24" s="10"/>
-      <c r="U24" s="10"/>
-      <c r="V24" s="10"/>
-      <c r="W24" s="6"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="14"/>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="14"/>
+      <c r="S24" s="14"/>
+      <c r="T24" s="14"/>
+      <c r="U24" s="14"/>
+      <c r="V24" s="14"/>
+      <c r="W24" s="8"/>
     </row>
     <row r="25" spans="1:23">
       <c r="A25" s="7">
         <v>44545</v>
       </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="10"/>
-      <c r="P25" s="10"/>
-      <c r="Q25" s="10"/>
-      <c r="R25" s="10"/>
-      <c r="S25" s="10"/>
-      <c r="T25" s="10"/>
-      <c r="U25" s="24"/>
-      <c r="V25" s="10"/>
-      <c r="W25" s="10"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="14"/>
+      <c r="Q25" s="14"/>
+      <c r="R25" s="14"/>
+      <c r="S25" s="14"/>
+      <c r="T25" s="14"/>
+      <c r="U25" s="28"/>
+      <c r="V25" s="14"/>
+      <c r="W25" s="14"/>
     </row>
     <row r="26" spans="1:23">
       <c r="A26" s="7">
         <v>44546</v>
       </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="10"/>
-      <c r="P26" s="10"/>
-      <c r="Q26" s="10"/>
-      <c r="R26" s="10"/>
-      <c r="S26" s="10"/>
-      <c r="T26" s="10"/>
-      <c r="U26" s="24"/>
-      <c r="V26" s="10"/>
-      <c r="W26" s="10"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="14"/>
+      <c r="R26" s="14"/>
+      <c r="S26" s="14"/>
+      <c r="T26" s="14"/>
+      <c r="U26" s="28"/>
+      <c r="V26" s="14"/>
+      <c r="W26" s="14"/>
     </row>
     <row r="27" spans="1:23">
       <c r="A27" s="7">
         <v>44547</v>
       </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="10"/>
-      <c r="P27" s="10"/>
-      <c r="Q27" s="10"/>
-      <c r="R27" s="10"/>
-      <c r="S27" s="10"/>
-      <c r="T27" s="10"/>
-      <c r="U27" s="24"/>
-      <c r="V27" s="10"/>
-      <c r="W27" s="10"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="14"/>
+      <c r="P27" s="14"/>
+      <c r="Q27" s="14"/>
+      <c r="R27" s="14"/>
+      <c r="S27" s="14"/>
+      <c r="T27" s="14"/>
+      <c r="U27" s="28"/>
+      <c r="V27" s="14"/>
+      <c r="W27" s="14"/>
     </row>
     <row r="28" spans="1:23">
       <c r="A28" s="7">
         <v>44548</v>
       </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="6"/>
-      <c r="N28" s="10"/>
-      <c r="O28" s="10"/>
-      <c r="P28" s="10"/>
-      <c r="Q28" s="10"/>
-      <c r="R28" s="10"/>
-      <c r="S28" s="10"/>
-      <c r="T28" s="10"/>
-      <c r="U28" s="24"/>
-      <c r="V28" s="10"/>
-      <c r="W28" s="10"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="14"/>
+      <c r="Q28" s="14"/>
+      <c r="R28" s="14"/>
+      <c r="S28" s="14"/>
+      <c r="T28" s="14"/>
+      <c r="U28" s="28"/>
+      <c r="V28" s="14"/>
+      <c r="W28" s="14"/>
     </row>
     <row r="29" spans="1:23">
       <c r="A29" s="7">
         <v>44549</v>
       </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="6"/>
-      <c r="N29" s="10"/>
-      <c r="O29" s="10"/>
-      <c r="P29" s="10"/>
-      <c r="Q29" s="10"/>
-      <c r="R29" s="10"/>
-      <c r="S29" s="10"/>
-      <c r="T29" s="10"/>
-      <c r="U29" s="24"/>
-      <c r="V29" s="10"/>
-      <c r="W29" s="10"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="14"/>
+      <c r="P29" s="14"/>
+      <c r="Q29" s="14"/>
+      <c r="R29" s="14"/>
+      <c r="S29" s="14"/>
+      <c r="T29" s="14"/>
+      <c r="U29" s="28"/>
+      <c r="V29" s="14"/>
+      <c r="W29" s="14"/>
     </row>
     <row r="30" spans="1:23">
       <c r="A30" s="7">
         <v>44550</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="6"/>
-      <c r="N30" s="10"/>
-      <c r="O30" s="10"/>
-      <c r="P30" s="10"/>
-      <c r="Q30" s="10"/>
-      <c r="R30" s="10"/>
-      <c r="S30" s="10"/>
-      <c r="T30" s="10"/>
-      <c r="U30" s="24"/>
-      <c r="V30" s="10"/>
-      <c r="W30" s="10"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="14"/>
+      <c r="P30" s="14"/>
+      <c r="Q30" s="14"/>
+      <c r="R30" s="14"/>
+      <c r="S30" s="14"/>
+      <c r="T30" s="14"/>
+      <c r="U30" s="28"/>
+      <c r="V30" s="14"/>
+      <c r="W30" s="14"/>
     </row>
     <row r="31" spans="1:23">
       <c r="A31" s="7">
         <v>44551</v>
       </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="6"/>
-      <c r="N31" s="10"/>
-      <c r="O31" s="10"/>
-      <c r="P31" s="10"/>
-      <c r="Q31" s="10"/>
-      <c r="R31" s="10"/>
-      <c r="S31" s="10"/>
-      <c r="T31" s="10"/>
-      <c r="U31" s="24"/>
-      <c r="V31" s="10"/>
-      <c r="W31" s="10"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="14"/>
+      <c r="O31" s="14"/>
+      <c r="P31" s="14"/>
+      <c r="Q31" s="14"/>
+      <c r="R31" s="14"/>
+      <c r="S31" s="14"/>
+      <c r="T31" s="14"/>
+      <c r="U31" s="28"/>
+      <c r="V31" s="14"/>
+      <c r="W31" s="14"/>
     </row>
     <row r="32" spans="1:23">
       <c r="A32" s="7">
         <v>44552</v>
       </c>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
-      <c r="L32" s="6"/>
-      <c r="M32" s="6"/>
-      <c r="N32" s="10"/>
-      <c r="O32" s="10"/>
-      <c r="P32" s="10"/>
-      <c r="Q32" s="10"/>
-      <c r="R32" s="10"/>
-      <c r="S32" s="10"/>
-      <c r="T32" s="10"/>
-      <c r="U32" s="24"/>
-      <c r="V32" s="10"/>
-      <c r="W32" s="10"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="14"/>
+      <c r="P32" s="14"/>
+      <c r="Q32" s="14"/>
+      <c r="R32" s="14"/>
+      <c r="S32" s="14"/>
+      <c r="T32" s="14"/>
+      <c r="U32" s="28"/>
+      <c r="V32" s="14"/>
+      <c r="W32" s="14"/>
     </row>
     <row r="33" spans="1:23">
       <c r="A33" s="7">
         <v>44553</v>
       </c>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="6"/>
-      <c r="M33" s="6"/>
-      <c r="N33" s="10"/>
-      <c r="O33" s="10"/>
-      <c r="P33" s="10"/>
-      <c r="Q33" s="10"/>
-      <c r="R33" s="10"/>
-      <c r="S33" s="10"/>
-      <c r="T33" s="10"/>
-      <c r="U33" s="24"/>
-      <c r="V33" s="10"/>
-      <c r="W33" s="10"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="14"/>
+      <c r="O33" s="14"/>
+      <c r="P33" s="14"/>
+      <c r="Q33" s="14"/>
+      <c r="R33" s="14"/>
+      <c r="S33" s="14"/>
+      <c r="T33" s="14"/>
+      <c r="U33" s="28"/>
+      <c r="V33" s="14"/>
+      <c r="W33" s="14"/>
     </row>
     <row r="34" spans="1:23">
       <c r="A34" s="7">
         <v>44554</v>
       </c>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="6"/>
-      <c r="L34" s="6"/>
-      <c r="M34" s="6"/>
-      <c r="N34" s="10"/>
-      <c r="O34" s="10"/>
-      <c r="P34" s="10"/>
-      <c r="Q34" s="10"/>
-      <c r="R34" s="10"/>
-      <c r="S34" s="10"/>
-      <c r="T34" s="10"/>
-      <c r="U34" s="24"/>
-      <c r="V34" s="10"/>
-      <c r="W34" s="10"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="14"/>
+      <c r="O34" s="14"/>
+      <c r="P34" s="14"/>
+      <c r="Q34" s="14"/>
+      <c r="R34" s="14"/>
+      <c r="S34" s="14"/>
+      <c r="T34" s="14"/>
+      <c r="U34" s="28"/>
+      <c r="V34" s="14"/>
+      <c r="W34" s="14"/>
     </row>
     <row r="35" spans="1:23">
       <c r="A35" s="7">
         <v>44555</v>
       </c>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="6"/>
-      <c r="L35" s="6"/>
-      <c r="M35" s="6"/>
-      <c r="N35" s="10"/>
-      <c r="O35" s="10"/>
-      <c r="P35" s="10"/>
-      <c r="Q35" s="10"/>
-      <c r="R35" s="10"/>
-      <c r="S35" s="10"/>
-      <c r="T35" s="10"/>
-      <c r="U35" s="24"/>
-      <c r="V35" s="10"/>
-      <c r="W35" s="10"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="14"/>
+      <c r="O35" s="14"/>
+      <c r="P35" s="14"/>
+      <c r="Q35" s="14"/>
+      <c r="R35" s="14"/>
+      <c r="S35" s="14"/>
+      <c r="T35" s="14"/>
+      <c r="U35" s="28"/>
+      <c r="V35" s="14"/>
+      <c r="W35" s="14"/>
     </row>
     <row r="36" spans="1:23">
       <c r="A36" s="7">
         <v>44556</v>
       </c>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="6"/>
-      <c r="L36" s="6"/>
-      <c r="M36" s="6"/>
-      <c r="N36" s="10"/>
-      <c r="O36" s="10"/>
-      <c r="P36" s="10"/>
-      <c r="Q36" s="10"/>
-      <c r="R36" s="10"/>
-      <c r="S36" s="10"/>
-      <c r="T36" s="10"/>
-      <c r="U36" s="24"/>
-      <c r="V36" s="10"/>
-      <c r="W36" s="10"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="14"/>
+      <c r="O36" s="14"/>
+      <c r="P36" s="14"/>
+      <c r="Q36" s="14"/>
+      <c r="R36" s="14"/>
+      <c r="S36" s="14"/>
+      <c r="T36" s="14"/>
+      <c r="U36" s="28"/>
+      <c r="V36" s="14"/>
+      <c r="W36" s="14"/>
     </row>
     <row r="37" spans="1:23">
       <c r="A37" s="7">
         <v>44557</v>
       </c>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="6"/>
-      <c r="L37" s="6"/>
-      <c r="M37" s="6"/>
-      <c r="N37" s="10"/>
-      <c r="O37" s="10"/>
-      <c r="P37" s="10"/>
-      <c r="Q37" s="10"/>
-      <c r="R37" s="10"/>
-      <c r="S37" s="10"/>
-      <c r="T37" s="10"/>
-      <c r="U37" s="24"/>
-      <c r="V37" s="10"/>
-      <c r="W37" s="10"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+      <c r="N37" s="14"/>
+      <c r="O37" s="14"/>
+      <c r="P37" s="14"/>
+      <c r="Q37" s="14"/>
+      <c r="R37" s="14"/>
+      <c r="S37" s="14"/>
+      <c r="T37" s="14"/>
+      <c r="U37" s="28"/>
+      <c r="V37" s="14"/>
+      <c r="W37" s="14"/>
     </row>
     <row r="38" spans="1:23">
       <c r="A38" s="7">
         <v>44558</v>
       </c>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="6"/>
-      <c r="L38" s="6"/>
-      <c r="M38" s="6"/>
-      <c r="N38" s="10"/>
-      <c r="O38" s="10"/>
-      <c r="P38" s="10"/>
-      <c r="Q38" s="10"/>
-      <c r="R38" s="10"/>
-      <c r="S38" s="10"/>
-      <c r="T38" s="10"/>
-      <c r="U38" s="24"/>
-      <c r="V38" s="10"/>
-      <c r="W38" s="10"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="14"/>
+      <c r="O38" s="14"/>
+      <c r="P38" s="14"/>
+      <c r="Q38" s="14"/>
+      <c r="R38" s="14"/>
+      <c r="S38" s="14"/>
+      <c r="T38" s="14"/>
+      <c r="U38" s="28"/>
+      <c r="V38" s="14"/>
+      <c r="W38" s="14"/>
     </row>
     <row r="39" spans="1:23">
       <c r="A39" s="1"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/同仁堂.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/同仁堂.xlsx
@@ -839,7 +839,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -922,6 +922,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -2872,11 +2875,11 @@
   <dimension ref="A1:W500"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="R2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomRight" activeCell="U5" sqref="U5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -3073,7 +3076,10 @@
         <v>28</v>
       </c>
       <c r="T3" s="14"/>
-      <c r="U3" s="8"/>
+      <c r="U3" s="8">
+        <f>D3-E3</f>
+        <v>2.26</v>
+      </c>
       <c r="V3" s="12" t="s">
         <v>29</v>
       </c>
@@ -3147,7 +3153,10 @@
         <v>28</v>
       </c>
       <c r="T4" s="14"/>
-      <c r="U4" s="8"/>
+      <c r="U4" s="8">
+        <f>D4-E4</f>
+        <v>0.75</v>
+      </c>
       <c r="V4" s="27">
         <v>1</v>
       </c>
@@ -3221,7 +3230,10 @@
         <v>28</v>
       </c>
       <c r="T5" s="14"/>
-      <c r="U5" s="8"/>
+      <c r="U5" s="28">
+        <f>D5-E5</f>
+        <v>3</v>
+      </c>
       <c r="V5" s="27">
         <v>2</v>
       </c>
@@ -3294,8 +3306,13 @@
       <c r="S6" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="T6" s="14"/>
-      <c r="U6" s="8"/>
+      <c r="T6" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="U6" s="8">
+        <f>D6-E6</f>
+        <v>0.909999999999997</v>
+      </c>
       <c r="V6" s="27">
         <v>2</v>
       </c>
@@ -3813,7 +3830,7 @@
       <c r="R25" s="14"/>
       <c r="S25" s="14"/>
       <c r="T25" s="14"/>
-      <c r="U25" s="28"/>
+      <c r="U25" s="29"/>
       <c r="V25" s="14"/>
       <c r="W25" s="14"/>
     </row>
@@ -3840,7 +3857,7 @@
       <c r="R26" s="14"/>
       <c r="S26" s="14"/>
       <c r="T26" s="14"/>
-      <c r="U26" s="28"/>
+      <c r="U26" s="29"/>
       <c r="V26" s="14"/>
       <c r="W26" s="14"/>
     </row>
@@ -3867,7 +3884,7 @@
       <c r="R27" s="14"/>
       <c r="S27" s="14"/>
       <c r="T27" s="14"/>
-      <c r="U27" s="28"/>
+      <c r="U27" s="29"/>
       <c r="V27" s="14"/>
       <c r="W27" s="14"/>
     </row>
@@ -3894,7 +3911,7 @@
       <c r="R28" s="14"/>
       <c r="S28" s="14"/>
       <c r="T28" s="14"/>
-      <c r="U28" s="28"/>
+      <c r="U28" s="29"/>
       <c r="V28" s="14"/>
       <c r="W28" s="14"/>
     </row>
@@ -3921,7 +3938,7 @@
       <c r="R29" s="14"/>
       <c r="S29" s="14"/>
       <c r="T29" s="14"/>
-      <c r="U29" s="28"/>
+      <c r="U29" s="29"/>
       <c r="V29" s="14"/>
       <c r="W29" s="14"/>
     </row>
@@ -3948,7 +3965,7 @@
       <c r="R30" s="14"/>
       <c r="S30" s="14"/>
       <c r="T30" s="14"/>
-      <c r="U30" s="28"/>
+      <c r="U30" s="29"/>
       <c r="V30" s="14"/>
       <c r="W30" s="14"/>
     </row>
@@ -3975,7 +3992,7 @@
       <c r="R31" s="14"/>
       <c r="S31" s="14"/>
       <c r="T31" s="14"/>
-      <c r="U31" s="28"/>
+      <c r="U31" s="29"/>
       <c r="V31" s="14"/>
       <c r="W31" s="14"/>
     </row>
@@ -4002,7 +4019,7 @@
       <c r="R32" s="14"/>
       <c r="S32" s="14"/>
       <c r="T32" s="14"/>
-      <c r="U32" s="28"/>
+      <c r="U32" s="29"/>
       <c r="V32" s="14"/>
       <c r="W32" s="14"/>
     </row>
@@ -4029,7 +4046,7 @@
       <c r="R33" s="14"/>
       <c r="S33" s="14"/>
       <c r="T33" s="14"/>
-      <c r="U33" s="28"/>
+      <c r="U33" s="29"/>
       <c r="V33" s="14"/>
       <c r="W33" s="14"/>
     </row>
@@ -4056,7 +4073,7 @@
       <c r="R34" s="14"/>
       <c r="S34" s="14"/>
       <c r="T34" s="14"/>
-      <c r="U34" s="28"/>
+      <c r="U34" s="29"/>
       <c r="V34" s="14"/>
       <c r="W34" s="14"/>
     </row>
@@ -4083,7 +4100,7 @@
       <c r="R35" s="14"/>
       <c r="S35" s="14"/>
       <c r="T35" s="14"/>
-      <c r="U35" s="28"/>
+      <c r="U35" s="29"/>
       <c r="V35" s="14"/>
       <c r="W35" s="14"/>
     </row>
@@ -4110,7 +4127,7 @@
       <c r="R36" s="14"/>
       <c r="S36" s="14"/>
       <c r="T36" s="14"/>
-      <c r="U36" s="28"/>
+      <c r="U36" s="29"/>
       <c r="V36" s="14"/>
       <c r="W36" s="14"/>
     </row>
@@ -4137,7 +4154,7 @@
       <c r="R37" s="14"/>
       <c r="S37" s="14"/>
       <c r="T37" s="14"/>
-      <c r="U37" s="28"/>
+      <c r="U37" s="29"/>
       <c r="V37" s="14"/>
       <c r="W37" s="14"/>
     </row>
@@ -4164,7 +4181,7 @@
       <c r="R38" s="14"/>
       <c r="S38" s="14"/>
       <c r="T38" s="14"/>
-      <c r="U38" s="28"/>
+      <c r="U38" s="29"/>
       <c r="V38" s="14"/>
       <c r="W38" s="14"/>
     </row>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/同仁堂.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/同仁堂.xlsx
@@ -143,12 +143,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -188,8 +188,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -203,53 +219,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -259,8 +228,15 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -268,35 +244,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -319,7 +266,60 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -395,7 +395,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -419,43 +419,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -473,7 +449,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -485,7 +491,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -497,43 +503,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -545,7 +515,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -557,7 +551,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -596,7 +596,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -620,37 +620,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -689,99 +659,129 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -790,56 +790,56 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -864,9 +864,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -880,9 +877,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2923,25 +2917,25 @@
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
-      <c r="K1" s="15" t="s">
+      <c r="K1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="21" t="s">
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
-      <c r="V1" s="24" t="s">
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="W1" s="24"/>
+      <c r="W1" s="22"/>
     </row>
     <row r="2" ht="56" customHeight="1" spans="1:23">
       <c r="A2" s="2"/>
@@ -2957,58 +2951,58 @@
       <c r="E2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="16" t="s">
+      <c r="J2" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="17" t="s">
+      <c r="K2" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="18" t="s">
+      <c r="L2" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="17" t="s">
+      <c r="M2" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="22" t="s">
+      <c r="N2" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="22" t="s">
+      <c r="O2" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="P2" s="22" t="s">
+      <c r="P2" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="22" t="s">
+      <c r="Q2" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="R2" s="22" t="s">
+      <c r="R2" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="S2" s="23" t="s">
+      <c r="S2" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="T2" s="22" t="s">
+      <c r="T2" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="U2" s="22" t="s">
+      <c r="U2" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="V2" s="25" t="s">
+      <c r="V2" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="W2" s="25" t="s">
+      <c r="W2" s="23" t="s">
         <v>26</v>
       </c>
     </row>
@@ -3031,17 +3025,17 @@
       <c r="F3" s="6">
         <v>36.8</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="10">
         <v>1</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="19">
+      <c r="I3" s="17">
         <f>(B3-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10001,48,FALSE))/VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10001,48,FALSE)</f>
         <v>0.0447672694930331</v>
       </c>
-      <c r="J3" s="20">
+      <c r="J3" s="18">
         <f>G3/(ROW()-2)</f>
         <v>1</v>
       </c>
@@ -3056,34 +3050,34 @@
         <f>L3+L3*VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL1000,43,FALSE)*2</f>
         <v>37.3</v>
       </c>
-      <c r="N3" s="11" t="s">
+      <c r="N3" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="O3" s="11" t="s">
+      <c r="O3" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="P3" s="11" t="s">
+      <c r="P3" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="Q3" s="11" t="s">
+      <c r="Q3" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="R3" s="11" t="str">
+      <c r="R3" s="10" t="str">
         <f>IF(E3&gt;(G3-(G3-F3)/3),"上部",IF(E3&gt;=(H3+(G3-F3)/3),"中部","下部"))</f>
         <v>上部</v>
       </c>
-      <c r="S3" s="11" t="s">
+      <c r="S3" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="T3" s="14"/>
-      <c r="U3" s="8">
+      <c r="T3" s="10"/>
+      <c r="U3" s="6">
         <f>D3-E3</f>
         <v>2.26</v>
       </c>
-      <c r="V3" s="12" t="s">
+      <c r="V3" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="W3" s="26">
+      <c r="W3" s="24">
         <f>F3/VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10001,45,FALSE)</f>
         <v>0.983694199411922</v>
       </c>
@@ -3107,18 +3101,18 @@
       <c r="F4" s="6">
         <v>39.09</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="10">
         <v>1</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H4" s="12">
         <f>(B4-B3)/B3</f>
         <v>-0.0227014755959139</v>
       </c>
-      <c r="I4" s="19">
+      <c r="I4" s="17">
         <f>(B4-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10002,48,FALSE))/VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10002,48,FALSE)</f>
         <v>0.0210495108212274</v>
       </c>
-      <c r="J4" s="20">
+      <c r="J4" s="18">
         <f>G4/(ROW()-2)</f>
         <v>0.5</v>
       </c>
@@ -3133,34 +3127,34 @@
         <f>L4+L4*VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL1001,43,FALSE)*2</f>
         <v>38.6759606517061</v>
       </c>
-      <c r="N4" s="11" t="s">
+      <c r="N4" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="O4" s="11" t="s">
+      <c r="O4" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="P4" s="11" t="s">
+      <c r="P4" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="Q4" s="11" t="s">
+      <c r="Q4" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="R4" s="11" t="str">
+      <c r="R4" s="10" t="str">
         <f t="shared" ref="R4:R6" si="0">IF(E4&gt;(G4-(G4-F4)/3),"上部",IF(E4&gt;(H4+(G4-F4)/3),"中部","下部"))</f>
         <v>上部</v>
       </c>
-      <c r="S4" s="11" t="s">
+      <c r="S4" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="T4" s="14"/>
-      <c r="U4" s="8">
+      <c r="T4" s="10"/>
+      <c r="U4" s="6">
         <f>D4-E4</f>
         <v>0.75</v>
       </c>
-      <c r="V4" s="27">
+      <c r="V4" s="25">
         <v>1</v>
       </c>
-      <c r="W4" s="26">
+      <c r="W4" s="24">
         <f>F4/VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10002,45,FALSE)</f>
         <v>1.04490777866881</v>
       </c>
@@ -3184,18 +3178,18 @@
       <c r="F5" s="6">
         <v>38.2</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="10">
         <v>2</v>
       </c>
-      <c r="H5" s="13">
+      <c r="H5" s="12">
         <f>(B5-B4)/B4</f>
         <v>0.0743321718931476</v>
       </c>
-      <c r="I5" s="19">
+      <c r="I5" s="17">
         <f>(B5-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10003,48,FALSE))/VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10003,48,FALSE)</f>
         <v>0.0969463385710051</v>
       </c>
-      <c r="J5" s="20">
+      <c r="J5" s="18">
         <f>G5/(ROW()-2)</f>
         <v>0.666666666666667</v>
       </c>
@@ -3210,34 +3204,34 @@
         <f>L5+L5*VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL1002,43,FALSE)*2</f>
         <v>38.6759606517061</v>
       </c>
-      <c r="N5" s="11" t="s">
+      <c r="N5" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="O5" s="11" t="s">
+      <c r="O5" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="P5" s="11" t="s">
+      <c r="P5" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="Q5" s="11" t="s">
+      <c r="Q5" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="R5" s="11" t="str">
+      <c r="R5" s="10" t="str">
         <f t="shared" si="0"/>
         <v>上部</v>
       </c>
-      <c r="S5" s="11" t="s">
+      <c r="S5" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="T5" s="14"/>
-      <c r="U5" s="28">
+      <c r="T5" s="10"/>
+      <c r="U5" s="26">
         <f>D5-E5</f>
         <v>3</v>
       </c>
-      <c r="V5" s="27">
+      <c r="V5" s="25">
         <v>2</v>
       </c>
-      <c r="W5" s="26">
+      <c r="W5" s="24">
         <f>F5/VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10003,45,FALSE)</f>
         <v>1.02111734830259</v>
       </c>
@@ -3261,18 +3255,18 @@
       <c r="F6" s="6">
         <v>41.04</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="10">
         <v>2</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H6" s="12">
         <f>(B6-B5)/B5</f>
         <v>-0.00513513513513507</v>
       </c>
-      <c r="I6" s="19">
+      <c r="I6" s="17">
         <f>(B6-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10004,48,FALSE))/VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10004,48,FALSE)</f>
         <v>0.0913133708864514</v>
       </c>
-      <c r="J6" s="20">
+      <c r="J6" s="18">
         <f>G6/(ROW()-2)</f>
         <v>0.5</v>
       </c>
@@ -3287,36 +3281,36 @@
         <f>L6+L6*VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL1003,43,FALSE)*2</f>
         <v>38.6759606517061</v>
       </c>
-      <c r="N6" s="11" t="s">
+      <c r="N6" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="O6" s="11" t="s">
+      <c r="O6" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="P6" s="11" t="s">
+      <c r="P6" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="Q6" s="11" t="s">
+      <c r="Q6" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="R6" s="11" t="str">
+      <c r="R6" s="10" t="str">
         <f t="shared" si="0"/>
         <v>上部</v>
       </c>
-      <c r="S6" s="11" t="s">
+      <c r="S6" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="T6" s="14" t="s">
+      <c r="T6" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="U6" s="8">
+      <c r="U6" s="6">
         <f>D6-E6</f>
         <v>0.909999999999997</v>
       </c>
-      <c r="V6" s="27">
+      <c r="V6" s="25">
         <v>2</v>
       </c>
-      <c r="W6" s="26">
+      <c r="W6" s="24">
         <f>F6/VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10004,45,FALSE)</f>
         <v>1.09703287890938</v>
       </c>
@@ -3325,865 +3319,865 @@
       <c r="A7" s="7">
         <v>44527</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="14"/>
-      <c r="T7" s="14"/>
-      <c r="U7" s="14"/>
-      <c r="V7" s="14"/>
-      <c r="W7" s="8"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="6"/>
     </row>
     <row r="8" spans="1:23">
       <c r="A8" s="7">
         <v>44528</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="14"/>
-      <c r="S8" s="14"/>
-      <c r="T8" s="14"/>
-      <c r="U8" s="14"/>
-      <c r="V8" s="14"/>
-      <c r="W8" s="8"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="6"/>
     </row>
     <row r="9" spans="1:23">
       <c r="A9" s="7">
         <v>44529</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="14"/>
-      <c r="S9" s="14"/>
-      <c r="T9" s="14"/>
-      <c r="U9" s="14"/>
-      <c r="V9" s="14"/>
-      <c r="W9" s="8"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="6"/>
     </row>
     <row r="10" spans="1:23">
       <c r="A10" s="7">
         <v>44530</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="14"/>
-      <c r="T10" s="14"/>
-      <c r="U10" s="14"/>
-      <c r="V10" s="14"/>
-      <c r="W10" s="8"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="6"/>
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="7">
         <v>44531</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="14"/>
-      <c r="S11" s="14"/>
-      <c r="T11" s="14"/>
-      <c r="U11" s="14"/>
-      <c r="V11" s="14"/>
-      <c r="W11" s="8"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="6"/>
     </row>
     <row r="12" spans="1:23">
       <c r="A12" s="7">
         <v>44532</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="14"/>
-      <c r="S12" s="14"/>
-      <c r="T12" s="14"/>
-      <c r="U12" s="14"/>
-      <c r="V12" s="14"/>
-      <c r="W12" s="8"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="10"/>
+      <c r="W12" s="6"/>
     </row>
     <row r="13" spans="1:23">
       <c r="A13" s="7">
         <v>44533</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="14"/>
-      <c r="S13" s="14"/>
-      <c r="T13" s="14"/>
-      <c r="U13" s="14"/>
-      <c r="V13" s="14"/>
-      <c r="W13" s="8"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="10"/>
+      <c r="W13" s="6"/>
     </row>
     <row r="14" spans="1:23">
       <c r="A14" s="7">
         <v>44534</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="14"/>
-      <c r="S14" s="14"/>
-      <c r="T14" s="14"/>
-      <c r="U14" s="14"/>
-      <c r="V14" s="14"/>
-      <c r="W14" s="8"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="10"/>
+      <c r="V14" s="10"/>
+      <c r="W14" s="6"/>
     </row>
     <row r="15" spans="1:23">
       <c r="A15" s="7">
         <v>44535</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="14"/>
-      <c r="R15" s="14"/>
-      <c r="S15" s="14"/>
-      <c r="T15" s="14"/>
-      <c r="U15" s="14"/>
-      <c r="V15" s="14"/>
-      <c r="W15" s="8"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="10"/>
+      <c r="V15" s="10"/>
+      <c r="W15" s="6"/>
     </row>
     <row r="16" spans="1:23">
       <c r="A16" s="7">
         <v>44536</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="14"/>
-      <c r="R16" s="14"/>
-      <c r="S16" s="14"/>
-      <c r="T16" s="14"/>
-      <c r="U16" s="14"/>
-      <c r="V16" s="14"/>
-      <c r="W16" s="8"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="10"/>
+      <c r="V16" s="10"/>
+      <c r="W16" s="6"/>
     </row>
     <row r="17" spans="1:23">
       <c r="A17" s="7">
         <v>44537</v>
       </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="14"/>
-      <c r="P17" s="14"/>
-      <c r="Q17" s="14"/>
-      <c r="R17" s="14"/>
-      <c r="S17" s="14"/>
-      <c r="T17" s="14"/>
-      <c r="U17" s="14"/>
-      <c r="V17" s="14"/>
-      <c r="W17" s="8"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="10"/>
+      <c r="U17" s="10"/>
+      <c r="V17" s="10"/>
+      <c r="W17" s="6"/>
     </row>
     <row r="18" spans="1:23">
       <c r="A18" s="7">
         <v>44538</v>
       </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="14"/>
-      <c r="P18" s="14"/>
-      <c r="Q18" s="14"/>
-      <c r="R18" s="14"/>
-      <c r="S18" s="14"/>
-      <c r="T18" s="14"/>
-      <c r="U18" s="14"/>
-      <c r="V18" s="14"/>
-      <c r="W18" s="8"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="10"/>
+      <c r="V18" s="10"/>
+      <c r="W18" s="6"/>
     </row>
     <row r="19" spans="1:23">
       <c r="A19" s="7">
         <v>44539</v>
       </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="14"/>
-      <c r="O19" s="14"/>
-      <c r="P19" s="14"/>
-      <c r="Q19" s="14"/>
-      <c r="R19" s="14"/>
-      <c r="S19" s="14"/>
-      <c r="T19" s="14"/>
-      <c r="U19" s="14"/>
-      <c r="V19" s="14"/>
-      <c r="W19" s="8"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="10"/>
+      <c r="U19" s="10"/>
+      <c r="V19" s="10"/>
+      <c r="W19" s="6"/>
     </row>
     <row r="20" spans="1:23">
       <c r="A20" s="7">
         <v>44540</v>
       </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="14"/>
-      <c r="O20" s="14"/>
-      <c r="P20" s="14"/>
-      <c r="Q20" s="14"/>
-      <c r="R20" s="14"/>
-      <c r="S20" s="14"/>
-      <c r="T20" s="14"/>
-      <c r="U20" s="14"/>
-      <c r="V20" s="14"/>
-      <c r="W20" s="8"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
+      <c r="T20" s="10"/>
+      <c r="U20" s="10"/>
+      <c r="V20" s="10"/>
+      <c r="W20" s="6"/>
     </row>
     <row r="21" spans="1:23">
       <c r="A21" s="7">
         <v>44541</v>
       </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="14"/>
-      <c r="O21" s="14"/>
-      <c r="P21" s="14"/>
-      <c r="Q21" s="14"/>
-      <c r="R21" s="14"/>
-      <c r="S21" s="14"/>
-      <c r="T21" s="14"/>
-      <c r="U21" s="14"/>
-      <c r="V21" s="14"/>
-      <c r="W21" s="8"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="10"/>
+      <c r="U21" s="10"/>
+      <c r="V21" s="10"/>
+      <c r="W21" s="6"/>
     </row>
     <row r="22" spans="1:23">
       <c r="A22" s="7">
         <v>44542</v>
       </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="14"/>
-      <c r="O22" s="14"/>
-      <c r="P22" s="14"/>
-      <c r="Q22" s="14"/>
-      <c r="R22" s="14"/>
-      <c r="S22" s="14"/>
-      <c r="T22" s="14"/>
-      <c r="U22" s="14"/>
-      <c r="V22" s="14"/>
-      <c r="W22" s="8"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="10"/>
+      <c r="U22" s="10"/>
+      <c r="V22" s="10"/>
+      <c r="W22" s="6"/>
     </row>
     <row r="23" spans="1:23">
       <c r="A23" s="7">
         <v>44543</v>
       </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="14"/>
-      <c r="O23" s="14"/>
-      <c r="P23" s="14"/>
-      <c r="Q23" s="14"/>
-      <c r="R23" s="14"/>
-      <c r="S23" s="14"/>
-      <c r="T23" s="14"/>
-      <c r="U23" s="14"/>
-      <c r="V23" s="14"/>
-      <c r="W23" s="8"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="10"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="10"/>
+      <c r="V23" s="10"/>
+      <c r="W23" s="6"/>
     </row>
     <row r="24" spans="1:23">
       <c r="A24" s="7">
         <v>44544</v>
       </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="14"/>
-      <c r="O24" s="14"/>
-      <c r="P24" s="14"/>
-      <c r="Q24" s="14"/>
-      <c r="R24" s="14"/>
-      <c r="S24" s="14"/>
-      <c r="T24" s="14"/>
-      <c r="U24" s="14"/>
-      <c r="V24" s="14"/>
-      <c r="W24" s="8"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="10"/>
+      <c r="U24" s="10"/>
+      <c r="V24" s="10"/>
+      <c r="W24" s="6"/>
     </row>
     <row r="25" spans="1:23">
       <c r="A25" s="7">
         <v>44545</v>
       </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="14"/>
-      <c r="O25" s="14"/>
-      <c r="P25" s="14"/>
-      <c r="Q25" s="14"/>
-      <c r="R25" s="14"/>
-      <c r="S25" s="14"/>
-      <c r="T25" s="14"/>
-      <c r="U25" s="29"/>
-      <c r="V25" s="14"/>
-      <c r="W25" s="14"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="10"/>
+      <c r="T25" s="10"/>
+      <c r="U25" s="27"/>
+      <c r="V25" s="10"/>
+      <c r="W25" s="10"/>
     </row>
     <row r="26" spans="1:23">
       <c r="A26" s="7">
         <v>44546</v>
       </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="14"/>
-      <c r="O26" s="14"/>
-      <c r="P26" s="14"/>
-      <c r="Q26" s="14"/>
-      <c r="R26" s="14"/>
-      <c r="S26" s="14"/>
-      <c r="T26" s="14"/>
-      <c r="U26" s="29"/>
-      <c r="V26" s="14"/>
-      <c r="W26" s="14"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="10"/>
+      <c r="R26" s="10"/>
+      <c r="S26" s="10"/>
+      <c r="T26" s="10"/>
+      <c r="U26" s="27"/>
+      <c r="V26" s="10"/>
+      <c r="W26" s="10"/>
     </row>
     <row r="27" spans="1:23">
       <c r="A27" s="7">
         <v>44547</v>
       </c>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="14"/>
-      <c r="O27" s="14"/>
-      <c r="P27" s="14"/>
-      <c r="Q27" s="14"/>
-      <c r="R27" s="14"/>
-      <c r="S27" s="14"/>
-      <c r="T27" s="14"/>
-      <c r="U27" s="29"/>
-      <c r="V27" s="14"/>
-      <c r="W27" s="14"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="10"/>
+      <c r="R27" s="10"/>
+      <c r="S27" s="10"/>
+      <c r="T27" s="10"/>
+      <c r="U27" s="27"/>
+      <c r="V27" s="10"/>
+      <c r="W27" s="10"/>
     </row>
     <row r="28" spans="1:23">
       <c r="A28" s="7">
         <v>44548</v>
       </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
-      <c r="N28" s="14"/>
-      <c r="O28" s="14"/>
-      <c r="P28" s="14"/>
-      <c r="Q28" s="14"/>
-      <c r="R28" s="14"/>
-      <c r="S28" s="14"/>
-      <c r="T28" s="14"/>
-      <c r="U28" s="29"/>
-      <c r="V28" s="14"/>
-      <c r="W28" s="14"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="10"/>
+      <c r="R28" s="10"/>
+      <c r="S28" s="10"/>
+      <c r="T28" s="10"/>
+      <c r="U28" s="27"/>
+      <c r="V28" s="10"/>
+      <c r="W28" s="10"/>
     </row>
     <row r="29" spans="1:23">
       <c r="A29" s="7">
         <v>44549</v>
       </c>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8"/>
-      <c r="N29" s="14"/>
-      <c r="O29" s="14"/>
-      <c r="P29" s="14"/>
-      <c r="Q29" s="14"/>
-      <c r="R29" s="14"/>
-      <c r="S29" s="14"/>
-      <c r="T29" s="14"/>
-      <c r="U29" s="29"/>
-      <c r="V29" s="14"/>
-      <c r="W29" s="14"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="10"/>
+      <c r="R29" s="10"/>
+      <c r="S29" s="10"/>
+      <c r="T29" s="10"/>
+      <c r="U29" s="27"/>
+      <c r="V29" s="10"/>
+      <c r="W29" s="10"/>
     </row>
     <row r="30" spans="1:23">
       <c r="A30" s="7">
         <v>44550</v>
       </c>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="14"/>
-      <c r="O30" s="14"/>
-      <c r="P30" s="14"/>
-      <c r="Q30" s="14"/>
-      <c r="R30" s="14"/>
-      <c r="S30" s="14"/>
-      <c r="T30" s="14"/>
-      <c r="U30" s="29"/>
-      <c r="V30" s="14"/>
-      <c r="W30" s="14"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="10"/>
+      <c r="R30" s="10"/>
+      <c r="S30" s="10"/>
+      <c r="T30" s="10"/>
+      <c r="U30" s="27"/>
+      <c r="V30" s="10"/>
+      <c r="W30" s="10"/>
     </row>
     <row r="31" spans="1:23">
       <c r="A31" s="7">
         <v>44551</v>
       </c>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="8"/>
-      <c r="N31" s="14"/>
-      <c r="O31" s="14"/>
-      <c r="P31" s="14"/>
-      <c r="Q31" s="14"/>
-      <c r="R31" s="14"/>
-      <c r="S31" s="14"/>
-      <c r="T31" s="14"/>
-      <c r="U31" s="29"/>
-      <c r="V31" s="14"/>
-      <c r="W31" s="14"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="10"/>
+      <c r="R31" s="10"/>
+      <c r="S31" s="10"/>
+      <c r="T31" s="10"/>
+      <c r="U31" s="27"/>
+      <c r="V31" s="10"/>
+      <c r="W31" s="10"/>
     </row>
     <row r="32" spans="1:23">
       <c r="A32" s="7">
         <v>44552</v>
       </c>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="8"/>
-      <c r="N32" s="14"/>
-      <c r="O32" s="14"/>
-      <c r="P32" s="14"/>
-      <c r="Q32" s="14"/>
-      <c r="R32" s="14"/>
-      <c r="S32" s="14"/>
-      <c r="T32" s="14"/>
-      <c r="U32" s="29"/>
-      <c r="V32" s="14"/>
-      <c r="W32" s="14"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="10"/>
+      <c r="P32" s="10"/>
+      <c r="Q32" s="10"/>
+      <c r="R32" s="10"/>
+      <c r="S32" s="10"/>
+      <c r="T32" s="10"/>
+      <c r="U32" s="27"/>
+      <c r="V32" s="10"/>
+      <c r="W32" s="10"/>
     </row>
     <row r="33" spans="1:23">
       <c r="A33" s="7">
         <v>44553</v>
       </c>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="14"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
-      <c r="M33" s="8"/>
-      <c r="N33" s="14"/>
-      <c r="O33" s="14"/>
-      <c r="P33" s="14"/>
-      <c r="Q33" s="14"/>
-      <c r="R33" s="14"/>
-      <c r="S33" s="14"/>
-      <c r="T33" s="14"/>
-      <c r="U33" s="29"/>
-      <c r="V33" s="14"/>
-      <c r="W33" s="14"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="10"/>
+      <c r="P33" s="10"/>
+      <c r="Q33" s="10"/>
+      <c r="R33" s="10"/>
+      <c r="S33" s="10"/>
+      <c r="T33" s="10"/>
+      <c r="U33" s="27"/>
+      <c r="V33" s="10"/>
+      <c r="W33" s="10"/>
     </row>
     <row r="34" spans="1:23">
       <c r="A34" s="7">
         <v>44554</v>
       </c>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="14"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="8"/>
-      <c r="M34" s="8"/>
-      <c r="N34" s="14"/>
-      <c r="O34" s="14"/>
-      <c r="P34" s="14"/>
-      <c r="Q34" s="14"/>
-      <c r="R34" s="14"/>
-      <c r="S34" s="14"/>
-      <c r="T34" s="14"/>
-      <c r="U34" s="29"/>
-      <c r="V34" s="14"/>
-      <c r="W34" s="14"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="10"/>
+      <c r="P34" s="10"/>
+      <c r="Q34" s="10"/>
+      <c r="R34" s="10"/>
+      <c r="S34" s="10"/>
+      <c r="T34" s="10"/>
+      <c r="U34" s="27"/>
+      <c r="V34" s="10"/>
+      <c r="W34" s="10"/>
     </row>
     <row r="35" spans="1:23">
       <c r="A35" s="7">
         <v>44555</v>
       </c>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="14"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="8"/>
-      <c r="M35" s="8"/>
-      <c r="N35" s="14"/>
-      <c r="O35" s="14"/>
-      <c r="P35" s="14"/>
-      <c r="Q35" s="14"/>
-      <c r="R35" s="14"/>
-      <c r="S35" s="14"/>
-      <c r="T35" s="14"/>
-      <c r="U35" s="29"/>
-      <c r="V35" s="14"/>
-      <c r="W35" s="14"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="10"/>
+      <c r="P35" s="10"/>
+      <c r="Q35" s="10"/>
+      <c r="R35" s="10"/>
+      <c r="S35" s="10"/>
+      <c r="T35" s="10"/>
+      <c r="U35" s="27"/>
+      <c r="V35" s="10"/>
+      <c r="W35" s="10"/>
     </row>
     <row r="36" spans="1:23">
       <c r="A36" s="7">
         <v>44556</v>
       </c>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="8"/>
-      <c r="M36" s="8"/>
-      <c r="N36" s="14"/>
-      <c r="O36" s="14"/>
-      <c r="P36" s="14"/>
-      <c r="Q36" s="14"/>
-      <c r="R36" s="14"/>
-      <c r="S36" s="14"/>
-      <c r="T36" s="14"/>
-      <c r="U36" s="29"/>
-      <c r="V36" s="14"/>
-      <c r="W36" s="14"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="10"/>
+      <c r="O36" s="10"/>
+      <c r="P36" s="10"/>
+      <c r="Q36" s="10"/>
+      <c r="R36" s="10"/>
+      <c r="S36" s="10"/>
+      <c r="T36" s="10"/>
+      <c r="U36" s="27"/>
+      <c r="V36" s="10"/>
+      <c r="W36" s="10"/>
     </row>
     <row r="37" spans="1:23">
       <c r="A37" s="7">
         <v>44557</v>
       </c>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="14"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="8"/>
-      <c r="M37" s="8"/>
-      <c r="N37" s="14"/>
-      <c r="O37" s="14"/>
-      <c r="P37" s="14"/>
-      <c r="Q37" s="14"/>
-      <c r="R37" s="14"/>
-      <c r="S37" s="14"/>
-      <c r="T37" s="14"/>
-      <c r="U37" s="29"/>
-      <c r="V37" s="14"/>
-      <c r="W37" s="14"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6"/>
+      <c r="N37" s="10"/>
+      <c r="O37" s="10"/>
+      <c r="P37" s="10"/>
+      <c r="Q37" s="10"/>
+      <c r="R37" s="10"/>
+      <c r="S37" s="10"/>
+      <c r="T37" s="10"/>
+      <c r="U37" s="27"/>
+      <c r="V37" s="10"/>
+      <c r="W37" s="10"/>
     </row>
     <row r="38" spans="1:23">
       <c r="A38" s="7">
         <v>44558</v>
       </c>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="14"/>
-      <c r="I38" s="14"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
-      <c r="L38" s="8"/>
-      <c r="M38" s="8"/>
-      <c r="N38" s="14"/>
-      <c r="O38" s="14"/>
-      <c r="P38" s="14"/>
-      <c r="Q38" s="14"/>
-      <c r="R38" s="14"/>
-      <c r="S38" s="14"/>
-      <c r="T38" s="14"/>
-      <c r="U38" s="29"/>
-      <c r="V38" s="14"/>
-      <c r="W38" s="14"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="10"/>
+      <c r="O38" s="10"/>
+      <c r="P38" s="10"/>
+      <c r="Q38" s="10"/>
+      <c r="R38" s="10"/>
+      <c r="S38" s="10"/>
+      <c r="T38" s="10"/>
+      <c r="U38" s="27"/>
+      <c r="V38" s="10"/>
+      <c r="W38" s="10"/>
     </row>
     <row r="39" spans="1:23">
       <c r="A39" s="1"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/同仁堂.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/同仁堂.xlsx
@@ -143,12 +143,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -182,6 +182,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -189,10 +196,18 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -206,67 +221,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -287,9 +241,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -312,7 +274,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -395,7 +395,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,7 +413,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -419,7 +449,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -431,13 +473,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -449,19 +491,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -473,7 +539,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -485,79 +557,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -595,8 +595,17 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -620,41 +629,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -689,157 +663,183 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -855,10 +855,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -906,19 +906,22 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -2873,7 +2876,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="U5" sqref="U5"/>
+      <selection pane="bottomRight" activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -2932,10 +2935,10 @@
       <c r="S1" s="19"/>
       <c r="T1" s="19"/>
       <c r="U1" s="19"/>
-      <c r="V1" s="22" t="s">
+      <c r="V1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="W1" s="22"/>
+      <c r="W1" s="23"/>
     </row>
     <row r="2" ht="56" customHeight="1" spans="1:23">
       <c r="A2" s="2"/>
@@ -2999,10 +3002,10 @@
       <c r="U2" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="V2" s="23" t="s">
+      <c r="V2" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="W2" s="23" t="s">
+      <c r="W2" s="24" t="s">
         <v>26</v>
       </c>
     </row>
@@ -3063,7 +3066,7 @@
         <v>28</v>
       </c>
       <c r="R3" s="10" t="str">
-        <f>IF(E3&gt;(G3-(G3-F3)/3),"上部",IF(E3&gt;=(H3+(G3-F3)/3),"中部","下部"))</f>
+        <f>IF(B3&gt;=(D3-(D3-E3)/3),"上部",IF(B3&gt;=(E3+(D3-E3)/3),"中部","下部"))</f>
         <v>上部</v>
       </c>
       <c r="S3" s="10" t="s">
@@ -3077,7 +3080,7 @@
       <c r="V3" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="W3" s="24">
+      <c r="W3" s="25">
         <f>F3/VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10001,45,FALSE)</f>
         <v>0.983694199411922</v>
       </c>
@@ -3139,9 +3142,9 @@
       <c r="Q4" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="R4" s="10" t="str">
-        <f t="shared" ref="R4:R6" si="0">IF(E4&gt;(G4-(G4-F4)/3),"上部",IF(E4&gt;(H4+(G4-F4)/3),"中部","下部"))</f>
-        <v>上部</v>
+      <c r="R4" s="22" t="str">
+        <f>IF(B4&gt;=(D4-(D4-E4)/3),"上部",IF(B4&gt;=(E4+(D4-E4)/3),"中部","下部"))</f>
+        <v>下部</v>
       </c>
       <c r="S4" s="10" t="s">
         <v>28</v>
@@ -3151,10 +3154,10 @@
         <f>D4-E4</f>
         <v>0.75</v>
       </c>
-      <c r="V4" s="25">
+      <c r="V4" s="26">
         <v>1</v>
       </c>
-      <c r="W4" s="24">
+      <c r="W4" s="25">
         <f>F4/VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10002,45,FALSE)</f>
         <v>1.04490777866881</v>
       </c>
@@ -3217,21 +3220,21 @@
         <v>28</v>
       </c>
       <c r="R5" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B5&gt;=(D5-(D5-E5)/3),"上部",IF(B5&gt;=(E5+(D5-E5)/3),"中部","下部"))</f>
         <v>上部</v>
       </c>
       <c r="S5" s="10" t="s">
         <v>28</v>
       </c>
       <c r="T5" s="10"/>
-      <c r="U5" s="26">
+      <c r="U5" s="27">
         <f>D5-E5</f>
         <v>3</v>
       </c>
-      <c r="V5" s="25">
+      <c r="V5" s="26">
         <v>2</v>
       </c>
-      <c r="W5" s="24">
+      <c r="W5" s="25">
         <f>F5/VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10003,45,FALSE)</f>
         <v>1.02111734830259</v>
       </c>
@@ -3294,8 +3297,8 @@
         <v>28</v>
       </c>
       <c r="R6" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>上部</v>
+        <f>IF(B6&gt;=(D6-(D6-E6)/3),"上部",IF(B6&gt;=(E6+(D6-E6)/3),"中部","下部"))</f>
+        <v>中部</v>
       </c>
       <c r="S6" s="10" t="s">
         <v>28</v>
@@ -3307,10 +3310,10 @@
         <f>D6-E6</f>
         <v>0.909999999999997</v>
       </c>
-      <c r="V6" s="25">
+      <c r="V6" s="26">
         <v>2</v>
       </c>
-      <c r="W6" s="24">
+      <c r="W6" s="25">
         <f>F6/VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10004,45,FALSE)</f>
         <v>1.09703287890938</v>
       </c>
@@ -3824,7 +3827,7 @@
       <c r="R25" s="10"/>
       <c r="S25" s="10"/>
       <c r="T25" s="10"/>
-      <c r="U25" s="27"/>
+      <c r="U25" s="28"/>
       <c r="V25" s="10"/>
       <c r="W25" s="10"/>
     </row>
@@ -3851,7 +3854,7 @@
       <c r="R26" s="10"/>
       <c r="S26" s="10"/>
       <c r="T26" s="10"/>
-      <c r="U26" s="27"/>
+      <c r="U26" s="28"/>
       <c r="V26" s="10"/>
       <c r="W26" s="10"/>
     </row>
@@ -3878,7 +3881,7 @@
       <c r="R27" s="10"/>
       <c r="S27" s="10"/>
       <c r="T27" s="10"/>
-      <c r="U27" s="27"/>
+      <c r="U27" s="28"/>
       <c r="V27" s="10"/>
       <c r="W27" s="10"/>
     </row>
@@ -3905,7 +3908,7 @@
       <c r="R28" s="10"/>
       <c r="S28" s="10"/>
       <c r="T28" s="10"/>
-      <c r="U28" s="27"/>
+      <c r="U28" s="28"/>
       <c r="V28" s="10"/>
       <c r="W28" s="10"/>
     </row>
@@ -3932,7 +3935,7 @@
       <c r="R29" s="10"/>
       <c r="S29" s="10"/>
       <c r="T29" s="10"/>
-      <c r="U29" s="27"/>
+      <c r="U29" s="28"/>
       <c r="V29" s="10"/>
       <c r="W29" s="10"/>
     </row>
@@ -3959,7 +3962,7 @@
       <c r="R30" s="10"/>
       <c r="S30" s="10"/>
       <c r="T30" s="10"/>
-      <c r="U30" s="27"/>
+      <c r="U30" s="28"/>
       <c r="V30" s="10"/>
       <c r="W30" s="10"/>
     </row>
@@ -3986,7 +3989,7 @@
       <c r="R31" s="10"/>
       <c r="S31" s="10"/>
       <c r="T31" s="10"/>
-      <c r="U31" s="27"/>
+      <c r="U31" s="28"/>
       <c r="V31" s="10"/>
       <c r="W31" s="10"/>
     </row>
@@ -4013,7 +4016,7 @@
       <c r="R32" s="10"/>
       <c r="S32" s="10"/>
       <c r="T32" s="10"/>
-      <c r="U32" s="27"/>
+      <c r="U32" s="28"/>
       <c r="V32" s="10"/>
       <c r="W32" s="10"/>
     </row>
@@ -4040,7 +4043,7 @@
       <c r="R33" s="10"/>
       <c r="S33" s="10"/>
       <c r="T33" s="10"/>
-      <c r="U33" s="27"/>
+      <c r="U33" s="28"/>
       <c r="V33" s="10"/>
       <c r="W33" s="10"/>
     </row>
@@ -4067,7 +4070,7 @@
       <c r="R34" s="10"/>
       <c r="S34" s="10"/>
       <c r="T34" s="10"/>
-      <c r="U34" s="27"/>
+      <c r="U34" s="28"/>
       <c r="V34" s="10"/>
       <c r="W34" s="10"/>
     </row>
@@ -4094,7 +4097,7 @@
       <c r="R35" s="10"/>
       <c r="S35" s="10"/>
       <c r="T35" s="10"/>
-      <c r="U35" s="27"/>
+      <c r="U35" s="28"/>
       <c r="V35" s="10"/>
       <c r="W35" s="10"/>
     </row>
@@ -4121,7 +4124,7 @@
       <c r="R36" s="10"/>
       <c r="S36" s="10"/>
       <c r="T36" s="10"/>
-      <c r="U36" s="27"/>
+      <c r="U36" s="28"/>
       <c r="V36" s="10"/>
       <c r="W36" s="10"/>
     </row>
@@ -4148,7 +4151,7 @@
       <c r="R37" s="10"/>
       <c r="S37" s="10"/>
       <c r="T37" s="10"/>
-      <c r="U37" s="27"/>
+      <c r="U37" s="28"/>
       <c r="V37" s="10"/>
       <c r="W37" s="10"/>
     </row>
@@ -4175,7 +4178,7 @@
       <c r="R38" s="10"/>
       <c r="S38" s="10"/>
       <c r="T38" s="10"/>
-      <c r="U38" s="27"/>
+      <c r="U38" s="28"/>
       <c r="V38" s="10"/>
       <c r="W38" s="10"/>
     </row>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/同仁堂.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/同仁堂.xlsx
@@ -143,12 +143,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -195,22 +195,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -218,85 +202,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -312,6 +219,99 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -319,7 +319,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -395,7 +395,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -413,13 +437,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -437,31 +455,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -479,7 +479,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -491,37 +527,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -533,37 +551,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -605,6 +605,15 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -625,15 +634,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -649,6 +649,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -660,17 +671,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -694,142 +694,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -855,10 +855,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -915,13 +915,13 @@
     <xf numFmtId="49" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -2872,11 +2872,11 @@
   <dimension ref="A1:W500"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="R2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="R4" sqref="R4"/>
+      <selection pane="bottomRight" activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -3050,8 +3050,8 @@
         <v>34.12</v>
       </c>
       <c r="M3" s="6">
-        <f>L3+L3*VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL1000,43,FALSE)*2</f>
-        <v>37.3</v>
+        <f>L3+L3*VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL1000,43,FALSE)</f>
+        <v>35.71</v>
       </c>
       <c r="N3" s="10" t="s">
         <v>28</v>
@@ -3120,15 +3120,15 @@
         <v>0.5</v>
       </c>
       <c r="K4" s="6">
-        <v>33.73</v>
+        <v>34.12</v>
       </c>
       <c r="L4" s="6">
         <f>K4/(1-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10002,43,FALSE))</f>
-        <v>35.3786535505687</v>
+        <v>35.7877159545035</v>
       </c>
       <c r="M4" s="6">
-        <f>L4+L4*VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL1001,43,FALSE)*2</f>
-        <v>38.6759606517061</v>
+        <f>L4+L4*VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL1001,43,FALSE)</f>
+        <v>37.4554319090071</v>
       </c>
       <c r="N4" s="10" t="s">
         <v>28</v>
@@ -3197,15 +3197,15 @@
         <v>0.666666666666667</v>
       </c>
       <c r="K5" s="6">
-        <v>33.73</v>
+        <v>34.12</v>
       </c>
       <c r="L5" s="6">
         <f>K5/(1-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10003,43,FALSE))</f>
-        <v>35.3786535505687</v>
+        <v>35.7877159545035</v>
       </c>
       <c r="M5" s="6">
-        <f>L5+L5*VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL1002,43,FALSE)*2</f>
-        <v>38.6759606517061</v>
+        <f>L5+L5*VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL1002,43,FALSE)</f>
+        <v>37.4554319090071</v>
       </c>
       <c r="N5" s="10" t="s">
         <v>28</v>
@@ -3274,15 +3274,15 @@
         <v>0.5</v>
       </c>
       <c r="K6" s="6">
-        <v>33.73</v>
+        <v>34.12</v>
       </c>
       <c r="L6" s="6">
         <f>K6/(1-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10004,43,FALSE))</f>
-        <v>35.3786535505687</v>
+        <v>35.7877159545035</v>
       </c>
       <c r="M6" s="6">
-        <f>L6+L6*VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL1003,43,FALSE)*2</f>
-        <v>38.6759606517061</v>
+        <f>L6+L6*VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL1003,43,FALSE)</f>
+        <v>37.4554319090071</v>
       </c>
       <c r="N6" s="10" t="s">
         <v>28</v>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/同仁堂.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/同仁堂.xlsx
@@ -2876,7 +2876,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M3" sqref="M3"/>
+      <selection pane="bottomRight" activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/同仁堂.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/同仁堂.xlsx
@@ -143,12 +143,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -182,13 +182,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -202,32 +195,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,11 +211,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -266,7 +243,39 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -274,7 +283,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -289,37 +312,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -395,7 +395,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,61 +515,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -473,97 +557,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -592,33 +592,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -630,6 +603,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -649,17 +631,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -671,6 +642,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -689,90 +671,108 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -781,61 +781,61 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -855,10 +855,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -915,13 +915,13 @@
     <xf numFmtId="49" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -2872,11 +2872,11 @@
   <dimension ref="A1:W500"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K4" sqref="K4"/>
+      <selection pane="bottomRight" activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -3050,8 +3050,8 @@
         <v>34.12</v>
       </c>
       <c r="M3" s="6">
-        <f>L3+L3*VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL1000,43,FALSE)</f>
-        <v>35.71</v>
+        <f>L3+L3*VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL1000,43,FALSE)*2</f>
+        <v>37.3</v>
       </c>
       <c r="N3" s="10" t="s">
         <v>28</v>
@@ -3127,8 +3127,8 @@
         <v>35.7877159545035</v>
       </c>
       <c r="M4" s="6">
-        <f>L4+L4*VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL1001,43,FALSE)</f>
-        <v>37.4554319090071</v>
+        <f>L4+L4*VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL1001,43,FALSE)*2</f>
+        <v>39.1231478635106</v>
       </c>
       <c r="N4" s="10" t="s">
         <v>28</v>
@@ -3204,8 +3204,8 @@
         <v>35.7877159545035</v>
       </c>
       <c r="M5" s="6">
-        <f>L5+L5*VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL1002,43,FALSE)</f>
-        <v>37.4554319090071</v>
+        <f>L5+L5*VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL1002,43,FALSE)*2</f>
+        <v>39.1231478635106</v>
       </c>
       <c r="N5" s="10" t="s">
         <v>28</v>
@@ -3281,8 +3281,8 @@
         <v>35.7877159545035</v>
       </c>
       <c r="M6" s="6">
-        <f>L6+L6*VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL1003,43,FALSE)</f>
-        <v>37.4554319090071</v>
+        <f>L6+L6*VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL1003,43,FALSE)*2</f>
+        <v>39.1231478635106</v>
       </c>
       <c r="N6" s="10" t="s">
         <v>28</v>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/同仁堂.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/同仁堂.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40">
   <si>
     <t>日期</t>
   </si>
@@ -214,6 +214,9 @@
   </si>
   <si>
     <t>否</t>
+  </si>
+  <si>
+    <t>是</t>
   </si>
 </sst>
 </file>
@@ -1032,6 +1035,9 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1055,9 +1061,6 @@
     </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3028,14 +3031,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:AD502"/>
+  <dimension ref="A1:AD500"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I8" sqref="I8"/>
+      <selection pane="bottomRight" activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -3093,21 +3096,21 @@
       <c r="P1" s="17"/>
       <c r="Q1" s="17"/>
       <c r="R1" s="17"/>
-      <c r="S1" s="19" t="s">
+      <c r="S1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="T1" s="20" t="s">
+      <c r="T1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
-      <c r="W1" s="20"/>
-      <c r="X1" s="20"/>
-      <c r="Y1" s="20"/>
-      <c r="Z1" s="20"/>
-      <c r="AA1" s="20"/>
-      <c r="AB1" s="20"/>
-      <c r="AC1" s="20"/>
+      <c r="U1" s="21"/>
+      <c r="V1" s="21"/>
+      <c r="W1" s="21"/>
+      <c r="X1" s="21"/>
+      <c r="Y1" s="21"/>
+      <c r="Z1" s="21"/>
+      <c r="AA1" s="21"/>
+      <c r="AB1" s="21"/>
+      <c r="AC1" s="21"/>
       <c r="AD1" s="35" t="s">
         <v>5</v>
       </c>
@@ -3131,17 +3134,17 @@
       <c r="P2" s="17"/>
       <c r="Q2" s="17"/>
       <c r="R2" s="17"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="22" t="s">
+      <c r="S2" s="22"/>
+      <c r="T2" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="U2" s="22"/>
-      <c r="V2" s="22"/>
-      <c r="W2" s="22"/>
-      <c r="X2" s="22"/>
-      <c r="Y2" s="22"/>
-      <c r="Z2" s="22"/>
-      <c r="AA2" s="22"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23"/>
+      <c r="X2" s="23"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23"/>
+      <c r="AA2" s="23"/>
       <c r="AB2" s="34" t="s">
         <v>7</v>
       </c>
@@ -3201,23 +3204,23 @@
       <c r="R3" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="S3" s="23" t="s">
+      <c r="S3" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="T3" s="24" t="s">
+      <c r="T3" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="U3" s="24" t="s">
+      <c r="U3" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="V3" s="22" t="s">
+      <c r="V3" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="W3" s="22"/>
+      <c r="W3" s="23"/>
       <c r="X3" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="Y3" s="22" t="s">
+      <c r="Y3" s="23" t="s">
         <v>30</v>
       </c>
       <c r="Z3" s="30" t="s">
@@ -3253,19 +3256,19 @@
       <c r="P4" s="18"/>
       <c r="Q4" s="18"/>
       <c r="R4" s="18"/>
-      <c r="S4" s="23"/>
-      <c r="T4" s="24"/>
-      <c r="U4" s="24"/>
+      <c r="S4" s="24"/>
+      <c r="T4" s="25"/>
+      <c r="U4" s="25"/>
       <c r="V4" s="31" t="s">
         <v>35</v>
       </c>
       <c r="W4" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="X4" s="22"/>
-      <c r="Y4" s="22"/>
-      <c r="Z4" s="22"/>
-      <c r="AA4" s="22"/>
+      <c r="X4" s="23"/>
+      <c r="Y4" s="23"/>
+      <c r="Z4" s="23"/>
+      <c r="AA4" s="23"/>
       <c r="AB4" s="34"/>
       <c r="AC4" s="34"/>
       <c r="AD4" s="35"/>
@@ -3328,8 +3331,8 @@
         <f>IF(B5&gt;=(D5-(D5-E5)/2),"上部","下部")</f>
         <v>上部</v>
       </c>
-      <c r="S5" s="25"/>
-      <c r="T5" s="26"/>
+      <c r="S5" s="26"/>
+      <c r="T5" s="27"/>
       <c r="U5" s="32"/>
       <c r="V5" s="29"/>
       <c r="W5" s="29"/>
@@ -3396,7 +3399,7 @@
       <c r="Q6" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="R6" s="27" t="str">
+      <c r="R6" s="19" t="str">
         <f>IF(B6&gt;=(D6-(D6-E6)/2),"上部","下部")</f>
         <v>下部</v>
       </c>
@@ -3559,25 +3562,63 @@
     </row>
     <row r="9" spans="1:30">
       <c r="A9" s="7">
-        <v>44527</v>
-      </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
+        <v>44529</v>
+      </c>
+      <c r="B9" s="6">
+        <v>36.12</v>
+      </c>
+      <c r="C9" s="6">
+        <v>36.7</v>
+      </c>
+      <c r="D9" s="6">
+        <v>37.38</v>
+      </c>
+      <c r="E9" s="6">
+        <v>35.92</v>
+      </c>
+      <c r="F9" s="6">
+        <v>34.22</v>
+      </c>
+      <c r="G9" s="6">
+        <v>33.68</v>
+      </c>
+      <c r="H9" s="6">
+        <v>40.83</v>
+      </c>
+      <c r="I9" s="8">
+        <v>2</v>
+      </c>
+      <c r="J9" s="16">
+        <f>(B9-B8)/B8</f>
+        <v>-0.0187449062754688</v>
+      </c>
+      <c r="K9" s="14">
+        <f>(B9-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10007,48,FALSE))/VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10007,48,FALSE)</f>
+        <v>0.070856804032019</v>
+      </c>
+      <c r="L9" s="15">
+        <f>I9/(ROW()-4)</f>
+        <v>0.4</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="N9" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="O9" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="P9" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q9" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="R9" s="19" t="str">
+        <f>IF(B9&gt;=(D9-(D9-E9)/2),"上部","下部")</f>
+        <v>下部</v>
+      </c>
       <c r="S9" s="8"/>
       <c r="T9" s="8"/>
       <c r="U9" s="6"/>
@@ -3593,7 +3634,7 @@
     </row>
     <row r="10" spans="1:30">
       <c r="A10" s="7">
-        <v>44528</v>
+        <v>44530</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -3627,7 +3668,7 @@
     </row>
     <row r="11" spans="1:30">
       <c r="A11" s="7">
-        <v>44529</v>
+        <v>44531</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -3661,7 +3702,7 @@
     </row>
     <row r="12" spans="1:30">
       <c r="A12" s="7">
-        <v>44530</v>
+        <v>44532</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -3695,7 +3736,7 @@
     </row>
     <row r="13" spans="1:30">
       <c r="A13" s="7">
-        <v>44531</v>
+        <v>44533</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -3729,7 +3770,7 @@
     </row>
     <row r="14" spans="1:30">
       <c r="A14" s="7">
-        <v>44532</v>
+        <v>44534</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -3763,7 +3804,7 @@
     </row>
     <row r="15" spans="1:30">
       <c r="A15" s="7">
-        <v>44533</v>
+        <v>44535</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -3797,7 +3838,7 @@
     </row>
     <row r="16" spans="1:30">
       <c r="A16" s="7">
-        <v>44534</v>
+        <v>44536</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -3831,7 +3872,7 @@
     </row>
     <row r="17" spans="1:30">
       <c r="A17" s="7">
-        <v>44535</v>
+        <v>44537</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -3865,7 +3906,7 @@
     </row>
     <row r="18" spans="1:30">
       <c r="A18" s="7">
-        <v>44536</v>
+        <v>44538</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -3899,7 +3940,7 @@
     </row>
     <row r="19" spans="1:30">
       <c r="A19" s="7">
-        <v>44537</v>
+        <v>44539</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -3933,7 +3974,7 @@
     </row>
     <row r="20" spans="1:30">
       <c r="A20" s="7">
-        <v>44538</v>
+        <v>44540</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -3967,7 +4008,7 @@
     </row>
     <row r="21" spans="1:30">
       <c r="A21" s="7">
-        <v>44539</v>
+        <v>44541</v>
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -4001,7 +4042,7 @@
     </row>
     <row r="22" spans="1:30">
       <c r="A22" s="7">
-        <v>44540</v>
+        <v>44542</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -4035,7 +4076,7 @@
     </row>
     <row r="23" spans="1:30">
       <c r="A23" s="7">
-        <v>44541</v>
+        <v>44543</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -4069,7 +4110,7 @@
     </row>
     <row r="24" spans="1:30">
       <c r="A24" s="7">
-        <v>44542</v>
+        <v>44544</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -4077,7 +4118,7 @@
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
+      <c r="H24" s="8"/>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
@@ -4103,7 +4144,7 @@
     </row>
     <row r="25" spans="1:30">
       <c r="A25" s="7">
-        <v>44543</v>
+        <v>44545</v>
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -4111,7 +4152,7 @@
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
+      <c r="H25" s="8"/>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
@@ -4122,9 +4163,9 @@
       <c r="P25" s="8"/>
       <c r="Q25" s="8"/>
       <c r="R25" s="8"/>
-      <c r="S25" s="8"/>
+      <c r="S25" s="29"/>
       <c r="T25" s="8"/>
-      <c r="U25" s="6"/>
+      <c r="U25" s="8"/>
       <c r="V25" s="29"/>
       <c r="W25" s="29"/>
       <c r="X25" s="29"/>
@@ -4137,7 +4178,7 @@
     </row>
     <row r="26" spans="1:30">
       <c r="A26" s="7">
-        <v>44544</v>
+        <v>44546</v>
       </c>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
@@ -4156,9 +4197,9 @@
       <c r="P26" s="8"/>
       <c r="Q26" s="8"/>
       <c r="R26" s="8"/>
-      <c r="S26" s="8"/>
+      <c r="S26" s="29"/>
       <c r="T26" s="8"/>
-      <c r="U26" s="6"/>
+      <c r="U26" s="8"/>
       <c r="V26" s="29"/>
       <c r="W26" s="29"/>
       <c r="X26" s="29"/>
@@ -4171,7 +4212,7 @@
     </row>
     <row r="27" spans="1:30">
       <c r="A27" s="7">
-        <v>44545</v>
+        <v>44547</v>
       </c>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -4205,7 +4246,7 @@
     </row>
     <row r="28" spans="1:30">
       <c r="A28" s="7">
-        <v>44546</v>
+        <v>44548</v>
       </c>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
@@ -4239,7 +4280,7 @@
     </row>
     <row r="29" spans="1:30">
       <c r="A29" s="7">
-        <v>44547</v>
+        <v>44549</v>
       </c>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -4273,7 +4314,7 @@
     </row>
     <row r="30" spans="1:30">
       <c r="A30" s="7">
-        <v>44548</v>
+        <v>44550</v>
       </c>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
@@ -4307,7 +4348,7 @@
     </row>
     <row r="31" spans="1:30">
       <c r="A31" s="7">
-        <v>44549</v>
+        <v>44551</v>
       </c>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
@@ -4341,7 +4382,7 @@
     </row>
     <row r="32" spans="1:30">
       <c r="A32" s="7">
-        <v>44550</v>
+        <v>44552</v>
       </c>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
@@ -4375,7 +4416,7 @@
     </row>
     <row r="33" spans="1:30">
       <c r="A33" s="7">
-        <v>44551</v>
+        <v>44553</v>
       </c>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
@@ -4409,7 +4450,7 @@
     </row>
     <row r="34" spans="1:30">
       <c r="A34" s="7">
-        <v>44552</v>
+        <v>44554</v>
       </c>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
@@ -4443,7 +4484,7 @@
     </row>
     <row r="35" spans="1:30">
       <c r="A35" s="7">
-        <v>44553</v>
+        <v>44555</v>
       </c>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -4477,7 +4518,7 @@
     </row>
     <row r="36" spans="1:30">
       <c r="A36" s="7">
-        <v>44554</v>
+        <v>44556</v>
       </c>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
@@ -4511,7 +4552,7 @@
     </row>
     <row r="37" spans="1:30">
       <c r="A37" s="7">
-        <v>44555</v>
+        <v>44557</v>
       </c>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -4545,7 +4586,7 @@
     </row>
     <row r="38" spans="1:30">
       <c r="A38" s="7">
-        <v>44556</v>
+        <v>44558</v>
       </c>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
@@ -4579,19 +4620,19 @@
     </row>
     <row r="39" spans="1:30">
       <c r="A39" s="7">
-        <v>44557</v>
-      </c>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
+        <v>44559</v>
+      </c>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
       <c r="H39" s="8"/>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
-      <c r="L39" s="6"/>
+      <c r="L39" s="8"/>
       <c r="M39" s="8"/>
       <c r="N39" s="8"/>
       <c r="O39" s="8"/>
@@ -4613,19 +4654,19 @@
     </row>
     <row r="40" spans="1:30">
       <c r="A40" s="7">
-        <v>44558</v>
-      </c>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
+        <v>44560</v>
+      </c>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
       <c r="H40" s="8"/>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
-      <c r="L40" s="6"/>
+      <c r="L40" s="8"/>
       <c r="M40" s="8"/>
       <c r="N40" s="8"/>
       <c r="O40" s="8"/>
@@ -4647,7 +4688,7 @@
     </row>
     <row r="41" spans="1:30">
       <c r="A41" s="7">
-        <v>44559</v>
+        <v>44561</v>
       </c>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
@@ -4681,7 +4722,7 @@
     </row>
     <row r="42" spans="1:30">
       <c r="A42" s="7">
-        <v>44560</v>
+        <v>44562</v>
       </c>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -4715,7 +4756,7 @@
     </row>
     <row r="43" spans="1:30">
       <c r="A43" s="7">
-        <v>44561</v>
+        <v>44563</v>
       </c>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -4749,7 +4790,7 @@
     </row>
     <row r="44" spans="1:30">
       <c r="A44" s="7">
-        <v>44562</v>
+        <v>44564</v>
       </c>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
@@ -4783,7 +4824,7 @@
     </row>
     <row r="45" spans="1:30">
       <c r="A45" s="7">
-        <v>44563</v>
+        <v>44565</v>
       </c>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -4817,7 +4858,7 @@
     </row>
     <row r="46" spans="1:30">
       <c r="A46" s="7">
-        <v>44564</v>
+        <v>44566</v>
       </c>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
@@ -4851,7 +4892,7 @@
     </row>
     <row r="47" spans="1:30">
       <c r="A47" s="7">
-        <v>44565</v>
+        <v>44567</v>
       </c>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
@@ -4885,7 +4926,7 @@
     </row>
     <row r="48" spans="1:30">
       <c r="A48" s="7">
-        <v>44566</v>
+        <v>44568</v>
       </c>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -4919,7 +4960,7 @@
     </row>
     <row r="49" spans="1:30">
       <c r="A49" s="7">
-        <v>44567</v>
+        <v>44569</v>
       </c>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
@@ -4953,7 +4994,7 @@
     </row>
     <row r="50" spans="1:30">
       <c r="A50" s="7">
-        <v>44568</v>
+        <v>44570</v>
       </c>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
@@ -4987,7 +5028,7 @@
     </row>
     <row r="51" spans="1:30">
       <c r="A51" s="7">
-        <v>44569</v>
+        <v>44571</v>
       </c>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
@@ -5021,7 +5062,7 @@
     </row>
     <row r="52" spans="1:30">
       <c r="A52" s="7">
-        <v>44570</v>
+        <v>44572</v>
       </c>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
@@ -5055,7 +5096,7 @@
     </row>
     <row r="53" spans="1:30">
       <c r="A53" s="7">
-        <v>44571</v>
+        <v>44573</v>
       </c>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
@@ -5089,7 +5130,7 @@
     </row>
     <row r="54" spans="1:30">
       <c r="A54" s="7">
-        <v>44572</v>
+        <v>44574</v>
       </c>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
@@ -5123,7 +5164,7 @@
     </row>
     <row r="55" spans="1:30">
       <c r="A55" s="7">
-        <v>44573</v>
+        <v>44575</v>
       </c>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
@@ -5157,7 +5198,7 @@
     </row>
     <row r="56" spans="1:30">
       <c r="A56" s="7">
-        <v>44574</v>
+        <v>44576</v>
       </c>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
@@ -5191,7 +5232,7 @@
     </row>
     <row r="57" spans="1:30">
       <c r="A57" s="7">
-        <v>44575</v>
+        <v>44577</v>
       </c>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
@@ -5225,7 +5266,7 @@
     </row>
     <row r="58" spans="1:30">
       <c r="A58" s="7">
-        <v>44576</v>
+        <v>44578</v>
       </c>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
@@ -5259,7 +5300,7 @@
     </row>
     <row r="59" spans="1:30">
       <c r="A59" s="7">
-        <v>44577</v>
+        <v>44579</v>
       </c>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
@@ -5293,7 +5334,7 @@
     </row>
     <row r="60" spans="1:30">
       <c r="A60" s="7">
-        <v>44578</v>
+        <v>44580</v>
       </c>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
@@ -5327,7 +5368,7 @@
     </row>
     <row r="61" spans="1:30">
       <c r="A61" s="7">
-        <v>44579</v>
+        <v>44581</v>
       </c>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
@@ -5361,7 +5402,7 @@
     </row>
     <row r="62" spans="1:30">
       <c r="A62" s="7">
-        <v>44580</v>
+        <v>44582</v>
       </c>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
@@ -5395,7 +5436,7 @@
     </row>
     <row r="63" spans="1:30">
       <c r="A63" s="7">
-        <v>44581</v>
+        <v>44583</v>
       </c>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
@@ -5429,7 +5470,7 @@
     </row>
     <row r="64" spans="1:30">
       <c r="A64" s="7">
-        <v>44582</v>
+        <v>44584</v>
       </c>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
@@ -5463,7 +5504,7 @@
     </row>
     <row r="65" spans="1:30">
       <c r="A65" s="7">
-        <v>44583</v>
+        <v>44585</v>
       </c>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
@@ -5497,7 +5538,7 @@
     </row>
     <row r="66" spans="1:30">
       <c r="A66" s="7">
-        <v>44584</v>
+        <v>44586</v>
       </c>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
@@ -5531,7 +5572,7 @@
     </row>
     <row r="67" spans="1:30">
       <c r="A67" s="7">
-        <v>44585</v>
+        <v>44587</v>
       </c>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
@@ -5565,7 +5606,7 @@
     </row>
     <row r="68" spans="1:30">
       <c r="A68" s="7">
-        <v>44586</v>
+        <v>44588</v>
       </c>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
@@ -5599,7 +5640,7 @@
     </row>
     <row r="69" spans="1:30">
       <c r="A69" s="7">
-        <v>44587</v>
+        <v>44589</v>
       </c>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
@@ -5633,7 +5674,7 @@
     </row>
     <row r="70" spans="1:30">
       <c r="A70" s="7">
-        <v>44588</v>
+        <v>44590</v>
       </c>
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
@@ -5667,7 +5708,7 @@
     </row>
     <row r="71" spans="1:30">
       <c r="A71" s="7">
-        <v>44589</v>
+        <v>44591</v>
       </c>
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
@@ -5701,7 +5742,7 @@
     </row>
     <row r="72" spans="1:30">
       <c r="A72" s="7">
-        <v>44590</v>
+        <v>44592</v>
       </c>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
@@ -5735,7 +5776,7 @@
     </row>
     <row r="73" spans="1:30">
       <c r="A73" s="7">
-        <v>44591</v>
+        <v>44593</v>
       </c>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
@@ -5769,7 +5810,7 @@
     </row>
     <row r="74" spans="1:30">
       <c r="A74" s="7">
-        <v>44592</v>
+        <v>44594</v>
       </c>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
@@ -5803,7 +5844,7 @@
     </row>
     <row r="75" spans="1:30">
       <c r="A75" s="7">
-        <v>44593</v>
+        <v>44595</v>
       </c>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
@@ -5837,7 +5878,7 @@
     </row>
     <row r="76" spans="1:30">
       <c r="A76" s="7">
-        <v>44594</v>
+        <v>44596</v>
       </c>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
@@ -5871,7 +5912,7 @@
     </row>
     <row r="77" spans="1:30">
       <c r="A77" s="7">
-        <v>44595</v>
+        <v>44597</v>
       </c>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
@@ -5905,7 +5946,7 @@
     </row>
     <row r="78" spans="1:30">
       <c r="A78" s="7">
-        <v>44596</v>
+        <v>44598</v>
       </c>
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
@@ -5939,7 +5980,7 @@
     </row>
     <row r="79" spans="1:30">
       <c r="A79" s="7">
-        <v>44597</v>
+        <v>44599</v>
       </c>
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
@@ -5973,7 +6014,7 @@
     </row>
     <row r="80" spans="1:30">
       <c r="A80" s="7">
-        <v>44598</v>
+        <v>44600</v>
       </c>
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
@@ -6007,7 +6048,7 @@
     </row>
     <row r="81" spans="1:30">
       <c r="A81" s="7">
-        <v>44599</v>
+        <v>44601</v>
       </c>
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
@@ -6041,7 +6082,7 @@
     </row>
     <row r="82" spans="1:30">
       <c r="A82" s="7">
-        <v>44600</v>
+        <v>44602</v>
       </c>
       <c r="B82" s="8"/>
       <c r="C82" s="8"/>
@@ -6075,7 +6116,7 @@
     </row>
     <row r="83" spans="1:30">
       <c r="A83" s="7">
-        <v>44601</v>
+        <v>44603</v>
       </c>
       <c r="B83" s="8"/>
       <c r="C83" s="8"/>
@@ -6109,7 +6150,7 @@
     </row>
     <row r="84" spans="1:30">
       <c r="A84" s="7">
-        <v>44602</v>
+        <v>44604</v>
       </c>
       <c r="B84" s="8"/>
       <c r="C84" s="8"/>
@@ -6143,7 +6184,7 @@
     </row>
     <row r="85" spans="1:30">
       <c r="A85" s="7">
-        <v>44603</v>
+        <v>44605</v>
       </c>
       <c r="B85" s="8"/>
       <c r="C85" s="8"/>
@@ -6177,7 +6218,7 @@
     </row>
     <row r="86" spans="1:30">
       <c r="A86" s="7">
-        <v>44604</v>
+        <v>44606</v>
       </c>
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
@@ -6211,7 +6252,7 @@
     </row>
     <row r="87" spans="1:30">
       <c r="A87" s="7">
-        <v>44605</v>
+        <v>44607</v>
       </c>
       <c r="B87" s="8"/>
       <c r="C87" s="8"/>
@@ -6245,7 +6286,7 @@
     </row>
     <row r="88" spans="1:30">
       <c r="A88" s="7">
-        <v>44606</v>
+        <v>44608</v>
       </c>
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
@@ -6279,7 +6320,7 @@
     </row>
     <row r="89" spans="1:30">
       <c r="A89" s="7">
-        <v>44607</v>
+        <v>44609</v>
       </c>
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
@@ -6313,7 +6354,7 @@
     </row>
     <row r="90" spans="1:30">
       <c r="A90" s="7">
-        <v>44608</v>
+        <v>44610</v>
       </c>
       <c r="B90" s="8"/>
       <c r="C90" s="8"/>
@@ -6347,7 +6388,7 @@
     </row>
     <row r="91" spans="1:30">
       <c r="A91" s="7">
-        <v>44609</v>
+        <v>44611</v>
       </c>
       <c r="B91" s="8"/>
       <c r="C91" s="8"/>
@@ -6381,7 +6422,7 @@
     </row>
     <row r="92" spans="1:30">
       <c r="A92" s="7">
-        <v>44610</v>
+        <v>44612</v>
       </c>
       <c r="B92" s="8"/>
       <c r="C92" s="8"/>
@@ -6415,7 +6456,7 @@
     </row>
     <row r="93" spans="1:30">
       <c r="A93" s="7">
-        <v>44611</v>
+        <v>44613</v>
       </c>
       <c r="B93" s="8"/>
       <c r="C93" s="8"/>
@@ -6449,7 +6490,7 @@
     </row>
     <row r="94" spans="1:30">
       <c r="A94" s="7">
-        <v>44612</v>
+        <v>44614</v>
       </c>
       <c r="B94" s="8"/>
       <c r="C94" s="8"/>
@@ -6483,7 +6524,7 @@
     </row>
     <row r="95" spans="1:30">
       <c r="A95" s="7">
-        <v>44613</v>
+        <v>44615</v>
       </c>
       <c r="B95" s="8"/>
       <c r="C95" s="8"/>
@@ -6517,7 +6558,7 @@
     </row>
     <row r="96" spans="1:30">
       <c r="A96" s="7">
-        <v>44614</v>
+        <v>44616</v>
       </c>
       <c r="B96" s="8"/>
       <c r="C96" s="8"/>
@@ -6551,7 +6592,7 @@
     </row>
     <row r="97" spans="1:30">
       <c r="A97" s="7">
-        <v>44615</v>
+        <v>44617</v>
       </c>
       <c r="B97" s="8"/>
       <c r="C97" s="8"/>
@@ -6585,7 +6626,7 @@
     </row>
     <row r="98" spans="1:30">
       <c r="A98" s="7">
-        <v>44616</v>
+        <v>44618</v>
       </c>
       <c r="B98" s="8"/>
       <c r="C98" s="8"/>
@@ -6619,7 +6660,7 @@
     </row>
     <row r="99" spans="1:30">
       <c r="A99" s="7">
-        <v>44617</v>
+        <v>44619</v>
       </c>
       <c r="B99" s="8"/>
       <c r="C99" s="8"/>
@@ -6653,7 +6694,7 @@
     </row>
     <row r="100" spans="1:30">
       <c r="A100" s="7">
-        <v>44618</v>
+        <v>44620</v>
       </c>
       <c r="B100" s="8"/>
       <c r="C100" s="8"/>
@@ -6687,7 +6728,7 @@
     </row>
     <row r="101" spans="1:30">
       <c r="A101" s="7">
-        <v>44619</v>
+        <v>44621</v>
       </c>
       <c r="B101" s="8"/>
       <c r="C101" s="8"/>
@@ -6721,7 +6762,7 @@
     </row>
     <row r="102" spans="1:30">
       <c r="A102" s="7">
-        <v>44620</v>
+        <v>44622</v>
       </c>
       <c r="B102" s="8"/>
       <c r="C102" s="8"/>
@@ -6755,7 +6796,7 @@
     </row>
     <row r="103" spans="1:30">
       <c r="A103" s="7">
-        <v>44621</v>
+        <v>44623</v>
       </c>
       <c r="B103" s="8"/>
       <c r="C103" s="8"/>
@@ -6789,7 +6830,7 @@
     </row>
     <row r="104" spans="1:30">
       <c r="A104" s="7">
-        <v>44622</v>
+        <v>44624</v>
       </c>
       <c r="B104" s="8"/>
       <c r="C104" s="8"/>
@@ -6823,7 +6864,7 @@
     </row>
     <row r="105" spans="1:30">
       <c r="A105" s="7">
-        <v>44623</v>
+        <v>44625</v>
       </c>
       <c r="B105" s="8"/>
       <c r="C105" s="8"/>
@@ -6857,7 +6898,7 @@
     </row>
     <row r="106" spans="1:30">
       <c r="A106" s="7">
-        <v>44624</v>
+        <v>44626</v>
       </c>
       <c r="B106" s="8"/>
       <c r="C106" s="8"/>
@@ -6891,7 +6932,7 @@
     </row>
     <row r="107" spans="1:30">
       <c r="A107" s="7">
-        <v>44625</v>
+        <v>44627</v>
       </c>
       <c r="B107" s="8"/>
       <c r="C107" s="8"/>
@@ -6925,7 +6966,7 @@
     </row>
     <row r="108" spans="1:30">
       <c r="A108" s="7">
-        <v>44626</v>
+        <v>44628</v>
       </c>
       <c r="B108" s="8"/>
       <c r="C108" s="8"/>
@@ -6959,7 +7000,7 @@
     </row>
     <row r="109" spans="1:30">
       <c r="A109" s="7">
-        <v>44627</v>
+        <v>44629</v>
       </c>
       <c r="B109" s="8"/>
       <c r="C109" s="8"/>
@@ -6993,7 +7034,7 @@
     </row>
     <row r="110" spans="1:30">
       <c r="A110" s="7">
-        <v>44628</v>
+        <v>44630</v>
       </c>
       <c r="B110" s="8"/>
       <c r="C110" s="8"/>
@@ -7027,7 +7068,7 @@
     </row>
     <row r="111" spans="1:30">
       <c r="A111" s="7">
-        <v>44629</v>
+        <v>44631</v>
       </c>
       <c r="B111" s="8"/>
       <c r="C111" s="8"/>
@@ -7061,7 +7102,7 @@
     </row>
     <row r="112" spans="1:30">
       <c r="A112" s="7">
-        <v>44630</v>
+        <v>44632</v>
       </c>
       <c r="B112" s="8"/>
       <c r="C112" s="8"/>
@@ -7095,7 +7136,7 @@
     </row>
     <row r="113" spans="1:30">
       <c r="A113" s="7">
-        <v>44631</v>
+        <v>44633</v>
       </c>
       <c r="B113" s="8"/>
       <c r="C113" s="8"/>
@@ -7129,7 +7170,7 @@
     </row>
     <row r="114" spans="1:30">
       <c r="A114" s="7">
-        <v>44632</v>
+        <v>44634</v>
       </c>
       <c r="B114" s="8"/>
       <c r="C114" s="8"/>
@@ -7163,7 +7204,7 @@
     </row>
     <row r="115" spans="1:30">
       <c r="A115" s="7">
-        <v>44633</v>
+        <v>44635</v>
       </c>
       <c r="B115" s="8"/>
       <c r="C115" s="8"/>
@@ -7197,7 +7238,7 @@
     </row>
     <row r="116" spans="1:30">
       <c r="A116" s="7">
-        <v>44634</v>
+        <v>44636</v>
       </c>
       <c r="B116" s="8"/>
       <c r="C116" s="8"/>
@@ -7231,7 +7272,7 @@
     </row>
     <row r="117" spans="1:30">
       <c r="A117" s="7">
-        <v>44635</v>
+        <v>44637</v>
       </c>
       <c r="B117" s="8"/>
       <c r="C117" s="8"/>
@@ -7265,7 +7306,7 @@
     </row>
     <row r="118" spans="1:30">
       <c r="A118" s="7">
-        <v>44636</v>
+        <v>44638</v>
       </c>
       <c r="B118" s="8"/>
       <c r="C118" s="8"/>
@@ -7299,7 +7340,7 @@
     </row>
     <row r="119" spans="1:30">
       <c r="A119" s="7">
-        <v>44637</v>
+        <v>44639</v>
       </c>
       <c r="B119" s="8"/>
       <c r="C119" s="8"/>
@@ -7333,7 +7374,7 @@
     </row>
     <row r="120" spans="1:30">
       <c r="A120" s="7">
-        <v>44638</v>
+        <v>44640</v>
       </c>
       <c r="B120" s="8"/>
       <c r="C120" s="8"/>
@@ -7367,7 +7408,7 @@
     </row>
     <row r="121" spans="1:30">
       <c r="A121" s="7">
-        <v>44639</v>
+        <v>44641</v>
       </c>
       <c r="B121" s="8"/>
       <c r="C121" s="8"/>
@@ -7401,7 +7442,7 @@
     </row>
     <row r="122" spans="1:30">
       <c r="A122" s="7">
-        <v>44640</v>
+        <v>44642</v>
       </c>
       <c r="B122" s="8"/>
       <c r="C122" s="8"/>
@@ -7435,7 +7476,7 @@
     </row>
     <row r="123" spans="1:30">
       <c r="A123" s="7">
-        <v>44641</v>
+        <v>44643</v>
       </c>
       <c r="B123" s="8"/>
       <c r="C123" s="8"/>
@@ -7469,7 +7510,7 @@
     </row>
     <row r="124" spans="1:30">
       <c r="A124" s="7">
-        <v>44642</v>
+        <v>44644</v>
       </c>
       <c r="B124" s="8"/>
       <c r="C124" s="8"/>
@@ -7503,7 +7544,7 @@
     </row>
     <row r="125" spans="1:30">
       <c r="A125" s="7">
-        <v>44643</v>
+        <v>44645</v>
       </c>
       <c r="B125" s="8"/>
       <c r="C125" s="8"/>
@@ -7537,7 +7578,7 @@
     </row>
     <row r="126" spans="1:30">
       <c r="A126" s="7">
-        <v>44644</v>
+        <v>44646</v>
       </c>
       <c r="B126" s="8"/>
       <c r="C126" s="8"/>
@@ -7571,7 +7612,7 @@
     </row>
     <row r="127" spans="1:30">
       <c r="A127" s="7">
-        <v>44645</v>
+        <v>44647</v>
       </c>
       <c r="B127" s="8"/>
       <c r="C127" s="8"/>
@@ -7605,7 +7646,7 @@
     </row>
     <row r="128" spans="1:30">
       <c r="A128" s="7">
-        <v>44646</v>
+        <v>44648</v>
       </c>
       <c r="B128" s="8"/>
       <c r="C128" s="8"/>
@@ -7639,7 +7680,7 @@
     </row>
     <row r="129" spans="1:30">
       <c r="A129" s="7">
-        <v>44647</v>
+        <v>44649</v>
       </c>
       <c r="B129" s="8"/>
       <c r="C129" s="8"/>
@@ -7671,73 +7712,45 @@
       <c r="AC129" s="29"/>
       <c r="AD129" s="29"/>
     </row>
-    <row r="130" spans="1:30">
-      <c r="A130" s="7">
-        <v>44648</v>
-      </c>
-      <c r="B130" s="8"/>
-      <c r="C130" s="8"/>
-      <c r="D130" s="8"/>
-      <c r="E130" s="8"/>
-      <c r="F130" s="8"/>
-      <c r="G130" s="8"/>
-      <c r="H130" s="8"/>
-      <c r="I130" s="8"/>
-      <c r="J130" s="8"/>
-      <c r="K130" s="8"/>
-      <c r="L130" s="8"/>
-      <c r="M130" s="8"/>
-      <c r="N130" s="8"/>
-      <c r="O130" s="8"/>
-      <c r="P130" s="8"/>
-      <c r="Q130" s="8"/>
-      <c r="R130" s="8"/>
-      <c r="S130" s="29"/>
-      <c r="T130" s="8"/>
-      <c r="U130" s="8"/>
-      <c r="V130" s="29"/>
-      <c r="W130" s="29"/>
-      <c r="X130" s="29"/>
-      <c r="Y130" s="29"/>
-      <c r="Z130" s="29"/>
-      <c r="AA130" s="29"/>
-      <c r="AB130" s="29"/>
-      <c r="AC130" s="29"/>
-      <c r="AD130" s="29"/>
-    </row>
-    <row r="131" spans="1:30">
-      <c r="A131" s="7">
-        <v>44649</v>
-      </c>
-      <c r="B131" s="8"/>
-      <c r="C131" s="8"/>
-      <c r="D131" s="8"/>
-      <c r="E131" s="8"/>
-      <c r="F131" s="8"/>
-      <c r="G131" s="8"/>
-      <c r="H131" s="8"/>
-      <c r="I131" s="8"/>
-      <c r="J131" s="8"/>
-      <c r="K131" s="8"/>
-      <c r="L131" s="8"/>
-      <c r="M131" s="8"/>
-      <c r="N131" s="8"/>
-      <c r="O131" s="8"/>
-      <c r="P131" s="8"/>
-      <c r="Q131" s="8"/>
-      <c r="R131" s="8"/>
-      <c r="S131" s="29"/>
-      <c r="T131" s="8"/>
-      <c r="U131" s="8"/>
-      <c r="V131" s="29"/>
-      <c r="W131" s="29"/>
-      <c r="X131" s="29"/>
-      <c r="Y131" s="29"/>
-      <c r="Z131" s="29"/>
-      <c r="AA131" s="29"/>
-      <c r="AB131" s="29"/>
-      <c r="AC131" s="29"/>
-      <c r="AD131" s="29"/>
+    <row r="130" spans="1:21">
+      <c r="A130" s="1"/>
+      <c r="B130" s="1"/>
+      <c r="C130" s="1"/>
+      <c r="D130" s="1"/>
+      <c r="E130" s="1"/>
+      <c r="F130" s="1"/>
+      <c r="G130" s="1"/>
+      <c r="I130" s="1"/>
+      <c r="J130" s="1"/>
+      <c r="K130" s="1"/>
+      <c r="L130" s="1"/>
+      <c r="M130" s="1"/>
+      <c r="N130" s="1"/>
+      <c r="O130" s="1"/>
+      <c r="P130" s="1"/>
+      <c r="Q130" s="1"/>
+      <c r="R130" s="1"/>
+      <c r="U130" s="1"/>
+    </row>
+    <row r="131" spans="1:21">
+      <c r="A131" s="1"/>
+      <c r="B131" s="1"/>
+      <c r="C131" s="1"/>
+      <c r="D131" s="1"/>
+      <c r="E131" s="1"/>
+      <c r="F131" s="1"/>
+      <c r="G131" s="1"/>
+      <c r="I131" s="1"/>
+      <c r="J131" s="1"/>
+      <c r="K131" s="1"/>
+      <c r="L131" s="1"/>
+      <c r="M131" s="1"/>
+      <c r="N131" s="1"/>
+      <c r="O131" s="1"/>
+      <c r="P131" s="1"/>
+      <c r="Q131" s="1"/>
+      <c r="R131" s="1"/>
+      <c r="U131" s="1"/>
     </row>
     <row r="132" spans="1:21">
       <c r="A132" s="1"/>
@@ -15118,46 +15131,6 @@
       <c r="Q500" s="1"/>
       <c r="R500" s="1"/>
       <c r="U500" s="1"/>
-    </row>
-    <row r="501" spans="1:21">
-      <c r="A501" s="1"/>
-      <c r="B501" s="1"/>
-      <c r="C501" s="1"/>
-      <c r="D501" s="1"/>
-      <c r="E501" s="1"/>
-      <c r="F501" s="1"/>
-      <c r="G501" s="1"/>
-      <c r="I501" s="1"/>
-      <c r="J501" s="1"/>
-      <c r="K501" s="1"/>
-      <c r="L501" s="1"/>
-      <c r="M501" s="1"/>
-      <c r="N501" s="1"/>
-      <c r="O501" s="1"/>
-      <c r="P501" s="1"/>
-      <c r="Q501" s="1"/>
-      <c r="R501" s="1"/>
-      <c r="U501" s="1"/>
-    </row>
-    <row r="502" spans="1:21">
-      <c r="A502" s="1"/>
-      <c r="B502" s="1"/>
-      <c r="C502" s="1"/>
-      <c r="D502" s="1"/>
-      <c r="E502" s="1"/>
-      <c r="F502" s="1"/>
-      <c r="G502" s="1"/>
-      <c r="I502" s="1"/>
-      <c r="J502" s="1"/>
-      <c r="K502" s="1"/>
-      <c r="L502" s="1"/>
-      <c r="M502" s="1"/>
-      <c r="N502" s="1"/>
-      <c r="O502" s="1"/>
-      <c r="P502" s="1"/>
-      <c r="Q502" s="1"/>
-      <c r="R502" s="1"/>
-      <c r="U502" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="35">

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/同仁堂.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/同仁堂.xlsx
@@ -3038,7 +3038,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="P9" sqref="P9"/>
+      <selection pane="bottomRight" activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/同仁堂.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/同仁堂.xlsx
@@ -3034,11 +3034,11 @@
   <dimension ref="A1:AD500"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="R9" sqref="R9"/>
+      <selection pane="bottomRight" activeCell="AD5" sqref="AD5:AD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -3342,7 +3342,9 @@
       <c r="AA5" s="29"/>
       <c r="AB5" s="29"/>
       <c r="AC5" s="29"/>
-      <c r="AD5" s="29"/>
+      <c r="AD5" s="29">
+        <v>32.53</v>
+      </c>
     </row>
     <row r="6" spans="1:30">
       <c r="A6" s="7">
@@ -3414,7 +3416,9 @@
       <c r="AA6" s="29"/>
       <c r="AB6" s="29"/>
       <c r="AC6" s="29"/>
-      <c r="AD6" s="29"/>
+      <c r="AD6" s="29">
+        <v>32.53</v>
+      </c>
     </row>
     <row r="7" spans="1:30">
       <c r="A7" s="7">
@@ -3486,7 +3490,9 @@
       <c r="AA7" s="29"/>
       <c r="AB7" s="29"/>
       <c r="AC7" s="29"/>
-      <c r="AD7" s="29"/>
+      <c r="AD7" s="29">
+        <v>32.53</v>
+      </c>
     </row>
     <row r="8" spans="1:30">
       <c r="A8" s="7">
@@ -3558,7 +3564,9 @@
       <c r="AA8" s="29"/>
       <c r="AB8" s="29"/>
       <c r="AC8" s="29"/>
-      <c r="AD8" s="29"/>
+      <c r="AD8" s="29">
+        <v>32.53</v>
+      </c>
     </row>
     <row r="9" spans="1:30">
       <c r="A9" s="7">
@@ -3630,7 +3638,9 @@
       <c r="AA9" s="29"/>
       <c r="AB9" s="29"/>
       <c r="AC9" s="29"/>
-      <c r="AD9" s="29"/>
+      <c r="AD9" s="29">
+        <v>32.53</v>
+      </c>
     </row>
     <row r="10" spans="1:30">
       <c r="A10" s="7">

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/同仁堂.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/同仁堂.xlsx
@@ -3038,7 +3038,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AD5" sqref="AD5:AD9"/>
+      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/同仁堂.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/同仁堂.xlsx
@@ -224,14 +224,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="29">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -270,38 +270,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -322,6 +291,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -329,16 +306,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -353,10 +322,56 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -383,6 +398,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -391,31 +413,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="8"/>
       <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -507,13 +520,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -525,25 +580,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -555,37 +598,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -603,7 +622,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -615,43 +652,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -663,13 +670,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -733,19 +746,47 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -754,7 +795,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -774,25 +815,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -812,105 +840,90 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="38" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -919,7 +932,7 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -928,52 +941,52 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -993,10 +1006,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1056,7 +1069,7 @@
     <xf numFmtId="49" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1074,10 +1087,10 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3034,11 +3047,11 @@
   <dimension ref="A1:AD500"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AA2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomRight" activeCell="AD6" sqref="AD6:AD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -3417,6 +3430,7 @@
       <c r="AB6" s="29"/>
       <c r="AC6" s="29"/>
       <c r="AD6" s="29">
+        <f>IF(G6-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10004,48,FALSE)&gt;0,G6,AD5)</f>
         <v>32.53</v>
       </c>
     </row>
@@ -3491,6 +3505,7 @@
       <c r="AB7" s="29"/>
       <c r="AC7" s="29"/>
       <c r="AD7" s="29">
+        <f>IF(G7-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10005,48,FALSE)&gt;0,G7,AD6)</f>
         <v>32.53</v>
       </c>
     </row>
@@ -3565,6 +3580,7 @@
       <c r="AB8" s="29"/>
       <c r="AC8" s="29"/>
       <c r="AD8" s="29">
+        <f>IF(G8-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10006,48,FALSE)&gt;0,G8,AD7)</f>
         <v>32.53</v>
       </c>
     </row>
@@ -3639,6 +3655,7 @@
       <c r="AB9" s="29"/>
       <c r="AC9" s="29"/>
       <c r="AD9" s="29">
+        <f>IF(G9-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10007,48,FALSE)&gt;0,G9,AD8)</f>
         <v>32.53</v>
       </c>
     </row>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/同仁堂.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/同仁堂.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29140" windowHeight="11360"/>
+    <workbookView windowWidth="26500" windowHeight="11360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -224,12 +224,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -269,16 +269,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -291,47 +291,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -346,8 +307,24 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -355,7 +332,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -377,7 +362,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -391,10 +384,25 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -402,14 +410,6 @@
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -514,18 +514,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -533,6 +521,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -556,7 +550,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -568,13 +598,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -586,25 +628,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -616,37 +646,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -658,37 +688,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -755,23 +755,38 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -793,30 +808,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -826,17 +817,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -845,148 +845,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="39" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1006,10 +1006,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1069,7 +1069,7 @@
     <xf numFmtId="49" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1087,10 +1087,10 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3047,11 +3047,11 @@
   <dimension ref="A1:AD500"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AA2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AD6" sqref="AD6:AD9"/>
+      <selection pane="bottomRight" activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -3337,8 +3337,9 @@
       <c r="P5" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="Q5" s="8" t="s">
-        <v>38</v>
+      <c r="Q5" s="8" t="str">
+        <f>IF(I5/(ROW()-4)&lt;0.5,"是","否")</f>
+        <v>否</v>
       </c>
       <c r="R5" s="8" t="str">
         <f>IF(B5&gt;=(D5-(D5-E5)/2),"上部","下部")</f>
@@ -3411,8 +3412,9 @@
       <c r="P6" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="Q6" s="8" t="s">
-        <v>38</v>
+      <c r="Q6" s="8" t="str">
+        <f>IF(I6/(ROW()-4)&lt;0.5,"是","否")</f>
+        <v>否</v>
       </c>
       <c r="R6" s="19" t="str">
         <f>IF(B6&gt;=(D6-(D6-E6)/2),"上部","下部")</f>
@@ -3486,8 +3488,9 @@
       <c r="P7" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="Q7" s="8" t="s">
-        <v>38</v>
+      <c r="Q7" s="8" t="str">
+        <f>IF(I7/(ROW()-4)&lt;0.5,"是","否")</f>
+        <v>否</v>
       </c>
       <c r="R7" s="8" t="str">
         <f>IF(B7&gt;=(D7-(D7-E7)/2),"上部","下部")</f>
@@ -3561,8 +3564,9 @@
       <c r="P8" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="Q8" s="8" t="s">
-        <v>38</v>
+      <c r="Q8" s="8" t="str">
+        <f>IF(I8/(ROW()-4)&lt;0.5,"是","否")</f>
+        <v>否</v>
       </c>
       <c r="R8" s="8" t="str">
         <f>IF(B8&gt;=(D8-(D8-E8)/2),"上部","下部")</f>
@@ -3636,8 +3640,9 @@
       <c r="P9" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="Q9" s="19" t="s">
-        <v>39</v>
+      <c r="Q9" s="19" t="str">
+        <f>IF(I9/(ROW()-4)&lt;0.5,"是","否")</f>
+        <v>是</v>
       </c>
       <c r="R9" s="19" t="str">
         <f>IF(B9&gt;=(D9-(D9-E9)/2),"上部","下部")</f>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/同仁堂.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/同仁堂.xlsx
@@ -228,8 +228,8 @@
     <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -269,6 +269,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -277,8 +284,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -298,27 +314,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -338,9 +345,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -348,13 +377,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -376,33 +398,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -514,7 +514,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -526,7 +568,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -538,157 +688,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -776,36 +776,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -827,6 +797,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -840,157 +825,172 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="39" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="41" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1076,6 +1076,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -1320,13 +1323,13 @@
             <v>5</v>
           </cell>
           <cell r="AY4">
-            <v>0.1048</v>
+            <v>0</v>
           </cell>
           <cell r="AZ4">
-            <v>5245.1048</v>
+            <v>5245</v>
           </cell>
           <cell r="BA4">
-            <v>309.1048</v>
+            <v>309</v>
           </cell>
           <cell r="BB4">
             <v>26.5</v>
@@ -1809,13 +1812,13 @@
             <v>5</v>
           </cell>
           <cell r="AY8">
-            <v>0.14414</v>
+            <v>0</v>
           </cell>
           <cell r="AZ8">
-            <v>7212.14414</v>
+            <v>7212</v>
           </cell>
           <cell r="BA8">
-            <v>524.14414</v>
+            <v>524</v>
           </cell>
           <cell r="BB8">
             <v>74.5</v>
@@ -2004,778 +2007,405 @@
         </row>
         <row r="10">
           <cell r="A10" t="str">
-            <v>000010</v>
+            <v>000006</v>
           </cell>
           <cell r="B10">
-            <v>44524</v>
+            <v>44529</v>
           </cell>
           <cell r="C10" t="str">
-            <v>603663(三祥新材)</v>
+            <v>603010(万盛股份)</v>
           </cell>
           <cell r="D10">
-            <v>18.26</v>
+            <v>22.26</v>
           </cell>
           <cell r="E10">
-            <v>19.01</v>
+            <v>22.69</v>
           </cell>
           <cell r="F10">
-            <v>21.05</v>
+            <v>24.83</v>
           </cell>
         </row>
         <row r="10">
           <cell r="H10">
-            <v>23.2</v>
+            <v>28.99</v>
           </cell>
           <cell r="I10">
-            <v>13.04</v>
+            <v>14.46</v>
           </cell>
           <cell r="J10">
-            <v>26.64</v>
+            <v>31.94</v>
           </cell>
           <cell r="K10">
-            <v>0.779141104294479</v>
+            <v>1.00484094052559</v>
           </cell>
           <cell r="L10">
-            <v>0.129129129129129</v>
+            <v>0.0923606762680026</v>
           </cell>
         </row>
         <row r="10">
           <cell r="N10">
-            <v>18.5</v>
+            <v>20.63</v>
           </cell>
           <cell r="O10">
-            <v>22.39</v>
+            <v>25.66</v>
           </cell>
           <cell r="P10">
-            <v>18.85</v>
+            <v>21.46</v>
           </cell>
           <cell r="Q10">
-            <v>23.56</v>
+            <v>28.89</v>
           </cell>
           <cell r="R10">
-            <v>20.89</v>
+            <v>24.22</v>
+          </cell>
+          <cell r="S10">
+            <v>29.7</v>
+          </cell>
+          <cell r="T10">
+            <v>27.72</v>
           </cell>
         </row>
         <row r="10">
           <cell r="Y10" t="str">
-            <v>12w</v>
+            <v>8w</v>
           </cell>
           <cell r="Z10">
-            <v>0.305555555555556</v>
+            <v>0.354101440200376</v>
           </cell>
           <cell r="AA10">
-            <v>0.158106297454221</v>
+            <v>0.163678877630553</v>
           </cell>
           <cell r="AB10">
-            <v>0.113327674023769</v>
-          </cell>
-          <cell r="AC10" t="e">
-            <v>#DIV/0!</v>
+            <v>0.161647628937349</v>
+          </cell>
+          <cell r="AC10">
+            <v>0.0666666666666667</v>
           </cell>
         </row>
         <row r="10">
           <cell r="AF10" t="str">
-            <v>3T</v>
+            <v>4T</v>
           </cell>
           <cell r="AG10" t="str">
-            <v>成交量先随价格收缩逐级减少，然后随价格收缩放量</v>
+            <v>减少明显，空头几乎被榨干</v>
           </cell>
           <cell r="AH10">
-            <v>25.19</v>
+            <v>31.18</v>
           </cell>
           <cell r="AI10">
-            <v>17.73</v>
+            <v>21.1</v>
           </cell>
           <cell r="AJ10">
-            <v>7.46</v>
+            <v>10.08</v>
           </cell>
           <cell r="AK10">
-            <v>23.56</v>
+            <v>29.77</v>
           </cell>
           <cell r="AL10">
-            <v>22.12</v>
+            <v>27.72</v>
           </cell>
           <cell r="AM10">
-            <v>26.91</v>
+            <v>34.93</v>
           </cell>
           <cell r="AN10">
-            <v>144</v>
+            <v>205</v>
           </cell>
           <cell r="AO10">
-            <v>200</v>
+            <v>100</v>
           </cell>
           <cell r="AP10">
-            <v>2.32638888888889</v>
+            <v>2.51707317073171</v>
           </cell>
           <cell r="AQ10">
-            <v>0.0611205432937181</v>
+            <v>0.0688612697346322</v>
           </cell>
           <cell r="AR10">
-            <v>0.142190152801358</v>
+            <v>0.173328854551562</v>
           </cell>
           <cell r="AS10">
-            <v>53.49</v>
+            <v>17.95</v>
           </cell>
           <cell r="AT10" t="str">
-            <v>不宜入场</v>
+            <v>可以</v>
+          </cell>
+          <cell r="AU10">
+            <v>44530</v>
+          </cell>
+          <cell r="AV10">
+            <v>29.81</v>
+          </cell>
+          <cell r="AW10">
+            <v>100</v>
+          </cell>
+          <cell r="AX10">
+            <v>5</v>
+          </cell>
+          <cell r="AY10">
+            <v>0.05962</v>
+          </cell>
+          <cell r="AZ10">
+            <v>2986.05962</v>
+          </cell>
+          <cell r="BA10">
+            <v>214.05962</v>
+          </cell>
+          <cell r="BB10">
+            <v>30.32</v>
+          </cell>
+          <cell r="BC10">
+            <v>28.81</v>
+          </cell>
+          <cell r="BD10">
+            <v>0.337748344370862</v>
           </cell>
         </row>
         <row r="11">
           <cell r="A11" t="str">
-            <v>000014</v>
-          </cell>
-          <cell r="B11">
-            <v>44524</v>
-          </cell>
-          <cell r="C11" t="str">
-            <v>600392(盛和资源)</v>
-          </cell>
-          <cell r="D11">
-            <v>20.14</v>
-          </cell>
-          <cell r="E11">
-            <v>20.65</v>
-          </cell>
-          <cell r="F11">
-            <v>20.97</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="H11">
-            <v>21.52</v>
-          </cell>
-          <cell r="I11">
-            <v>7.07</v>
-          </cell>
-          <cell r="J11">
-            <v>29.28</v>
-          </cell>
-          <cell r="K11">
-            <v>2.04384724186704</v>
-          </cell>
-          <cell r="L11">
-            <v>0.265027322404372</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="N11">
-            <v>18.34</v>
-          </cell>
-          <cell r="O11">
-            <v>21.65</v>
-          </cell>
-          <cell r="P11">
-            <v>18.61</v>
-          </cell>
-          <cell r="Q11">
-            <v>21.14</v>
-          </cell>
-          <cell r="R11">
-            <v>18.86</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="Y11" t="str">
-            <v>8w</v>
-          </cell>
-          <cell r="Z11">
-            <v>0.373633879781421</v>
-          </cell>
-          <cell r="AA11">
-            <v>0.140415704387991</v>
-          </cell>
-          <cell r="AB11">
-            <v>0.107852412488174</v>
-          </cell>
-          <cell r="AC11" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="AF11" t="str">
-            <v>3T</v>
-          </cell>
-          <cell r="AG11" t="str">
-            <v>成交量先随价格收缩逐级减少，然后随价格收缩放量</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="AN11">
-            <v>0</v>
-          </cell>
-          <cell r="AO11" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-          <cell r="AP11" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="AT11" t="str">
-            <v>不宜入场</v>
+            <v>000020</v>
           </cell>
         </row>
         <row r="12">
           <cell r="A12" t="str">
-            <v>000015</v>
-          </cell>
-          <cell r="B12">
-            <v>44524</v>
-          </cell>
-          <cell r="C12" t="str">
-            <v>600399(抚顺特钢)</v>
-          </cell>
-          <cell r="D12">
-            <v>19.9</v>
-          </cell>
-          <cell r="E12">
-            <v>20.73</v>
-          </cell>
-          <cell r="F12">
-            <v>22.88</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="H12">
-            <v>23.53</v>
-          </cell>
-          <cell r="I12">
-            <v>7.25</v>
-          </cell>
-          <cell r="J12">
-            <v>29.3</v>
-          </cell>
-          <cell r="K12">
-            <v>2.24551724137931</v>
-          </cell>
-          <cell r="L12">
-            <v>0.196928327645051</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="N12">
-            <v>19.05</v>
-          </cell>
-          <cell r="O12">
-            <v>22.91</v>
-          </cell>
-          <cell r="P12">
-            <v>19.73</v>
-          </cell>
-          <cell r="Q12">
-            <v>25.5</v>
-          </cell>
-          <cell r="R12">
-            <v>23.12</v>
-          </cell>
-          <cell r="S12">
-            <v>26.45</v>
-          </cell>
-          <cell r="T12">
-            <v>23.48</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="Y12" t="str">
-            <v>12w</v>
-          </cell>
-          <cell r="Z12">
-            <v>0.349829351535836</v>
-          </cell>
-          <cell r="AA12">
-            <v>0.138804015713662</v>
-          </cell>
-          <cell r="AB12">
-            <v>0.0933333333333333</v>
-          </cell>
-          <cell r="AC12">
-            <v>0.112287334593573</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="AF12" t="str">
-            <v>3T</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="AK12">
-            <v>25.15</v>
-          </cell>
-          <cell r="AL12">
-            <v>23.48</v>
-          </cell>
-          <cell r="AM12">
-            <v>27.83</v>
-          </cell>
-          <cell r="AN12">
-            <v>167</v>
-          </cell>
-          <cell r="AO12">
-            <v>100</v>
-          </cell>
-          <cell r="AP12">
-            <v>1.60479041916168</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="AT12" t="str">
-            <v>不宜入场</v>
+            <v>000021</v>
           </cell>
         </row>
         <row r="13">
           <cell r="A13" t="str">
-            <v>000017</v>
-          </cell>
-          <cell r="B13">
-            <v>44524</v>
-          </cell>
-          <cell r="C13" t="str">
-            <v>601677(明泰铝业)</v>
-          </cell>
-          <cell r="D13">
-            <v>26.7</v>
-          </cell>
-          <cell r="E13">
-            <v>28.65</v>
-          </cell>
-          <cell r="F13">
-            <v>33.16</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="H13">
-            <v>36.11</v>
-          </cell>
-          <cell r="I13">
-            <v>11.38</v>
-          </cell>
-          <cell r="J13">
-            <v>41.75</v>
-          </cell>
-          <cell r="K13">
-            <v>2.17311072056239</v>
-          </cell>
-          <cell r="L13">
-            <v>0.135089820359281</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="N13">
-            <v>28.85</v>
-          </cell>
-          <cell r="O13">
-            <v>35.46</v>
-          </cell>
-          <cell r="P13">
-            <v>29.05</v>
-          </cell>
-          <cell r="Q13">
-            <v>34.35</v>
-          </cell>
-          <cell r="R13">
-            <v>31.5</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="Y13" t="str">
-            <v>8w</v>
-          </cell>
-          <cell r="Z13">
-            <v>0.308982035928144</v>
-          </cell>
-          <cell r="AA13">
-            <v>0.180767061477721</v>
-          </cell>
-          <cell r="AB13">
-            <v>0.0829694323144105</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="AF13" t="str">
-            <v>3T</v>
-          </cell>
-          <cell r="AG13" t="str">
-            <v>减少明显，空头几乎被榨干</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="AK13">
-            <v>37.13</v>
-          </cell>
-          <cell r="AL13">
-            <v>35.6</v>
-          </cell>
-          <cell r="AM13">
-            <v>38.61</v>
-          </cell>
-          <cell r="AN13">
-            <v>153</v>
-          </cell>
-          <cell r="AO13">
-            <v>100</v>
-          </cell>
-          <cell r="AP13">
-            <v>0.967320261437906</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="AT13" t="str">
-            <v>不宜入场</v>
+            <v>000022</v>
           </cell>
         </row>
         <row r="14">
           <cell r="A14" t="str">
-            <v>000018</v>
-          </cell>
-          <cell r="B14">
-            <v>44524</v>
-          </cell>
-          <cell r="C14" t="str">
-            <v>002223(鱼跃医疗)</v>
-          </cell>
-          <cell r="D14">
-            <v>32.91</v>
-          </cell>
-          <cell r="E14">
-            <v>33.52</v>
-          </cell>
-          <cell r="F14">
-            <v>34.71</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="H14">
-            <v>36.09</v>
-          </cell>
-          <cell r="I14">
-            <v>25.12</v>
-          </cell>
-          <cell r="J14">
-            <v>41.77</v>
-          </cell>
-          <cell r="K14">
-            <v>0.436703821656051</v>
-          </cell>
-          <cell r="L14">
-            <v>0.135982762748384</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="N14">
-            <v>30.46</v>
-          </cell>
-          <cell r="O14">
-            <v>36.94</v>
-          </cell>
-          <cell r="P14">
-            <v>33.59</v>
-          </cell>
-          <cell r="Q14">
-            <v>37.1</v>
-          </cell>
-          <cell r="R14">
-            <v>34.44</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="Y14" t="str">
-            <v>16w</v>
-          </cell>
-          <cell r="Z14">
-            <v>0.270768494134546</v>
-          </cell>
-          <cell r="AA14">
-            <v>0.0906876015159717</v>
-          </cell>
-          <cell r="AB14">
-            <v>0.0716981132075473</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="AF14" t="str">
-            <v>3T</v>
-          </cell>
-          <cell r="AG14" t="str">
-            <v>不是很明显</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="AK14">
-            <v>37.09</v>
-          </cell>
-          <cell r="AL14">
-            <v>35.25</v>
-          </cell>
-          <cell r="AM14">
-            <v>38.8</v>
-          </cell>
-          <cell r="AN14">
-            <v>184</v>
-          </cell>
-          <cell r="AO14">
-            <v>100</v>
-          </cell>
-          <cell r="AP14">
-            <v>0.929347826086951</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="AT14" t="str">
-            <v>不宜入场</v>
+            <v>000023</v>
           </cell>
         </row>
         <row r="15">
           <cell r="A15" t="str">
-            <v>000019</v>
+            <v>000024</v>
           </cell>
         </row>
         <row r="16">
           <cell r="A16" t="str">
-            <v>000020</v>
+            <v>000025</v>
           </cell>
         </row>
         <row r="17">
           <cell r="A17" t="str">
-            <v>000021</v>
+            <v>000026</v>
           </cell>
         </row>
         <row r="18">
           <cell r="A18" t="str">
-            <v>000022</v>
+            <v>000027</v>
           </cell>
         </row>
         <row r="19">
           <cell r="A19" t="str">
-            <v>000023</v>
+            <v>000028</v>
           </cell>
         </row>
         <row r="20">
           <cell r="A20" t="str">
-            <v>000024</v>
+            <v>000029</v>
           </cell>
         </row>
         <row r="21">
           <cell r="A21" t="str">
-            <v>000025</v>
+            <v>000030</v>
           </cell>
         </row>
         <row r="22">
           <cell r="A22" t="str">
-            <v>000026</v>
+            <v>000031</v>
           </cell>
         </row>
         <row r="23">
           <cell r="A23" t="str">
-            <v>000027</v>
+            <v>000032</v>
           </cell>
         </row>
         <row r="24">
           <cell r="A24" t="str">
-            <v>000028</v>
+            <v>000033</v>
           </cell>
         </row>
         <row r="25">
           <cell r="A25" t="str">
-            <v>000029</v>
+            <v>000034</v>
           </cell>
         </row>
         <row r="26">
           <cell r="A26" t="str">
-            <v>000030</v>
+            <v>000035</v>
           </cell>
         </row>
         <row r="27">
           <cell r="A27" t="str">
-            <v>000031</v>
+            <v>000036</v>
           </cell>
         </row>
         <row r="28">
           <cell r="A28" t="str">
-            <v>000032</v>
+            <v>000037</v>
           </cell>
         </row>
         <row r="29">
           <cell r="A29" t="str">
-            <v>000033</v>
+            <v>000038</v>
           </cell>
         </row>
         <row r="30">
           <cell r="A30" t="str">
-            <v>000034</v>
+            <v>000039</v>
           </cell>
         </row>
         <row r="31">
           <cell r="A31" t="str">
-            <v>000035</v>
+            <v>000040</v>
           </cell>
         </row>
         <row r="32">
           <cell r="A32" t="str">
-            <v>000036</v>
+            <v>000041</v>
           </cell>
         </row>
         <row r="33">
           <cell r="A33" t="str">
-            <v>000037</v>
+            <v>000042</v>
           </cell>
         </row>
         <row r="34">
           <cell r="A34" t="str">
-            <v>000038</v>
+            <v>000043</v>
           </cell>
         </row>
         <row r="35">
           <cell r="A35" t="str">
-            <v>000039</v>
+            <v>000044</v>
           </cell>
         </row>
         <row r="36">
           <cell r="A36" t="str">
-            <v>000040</v>
+            <v>000045</v>
           </cell>
         </row>
         <row r="37">
           <cell r="A37" t="str">
-            <v>000041</v>
+            <v>000046</v>
           </cell>
         </row>
         <row r="38">
           <cell r="A38" t="str">
-            <v>000042</v>
+            <v>000047</v>
           </cell>
         </row>
         <row r="39">
           <cell r="A39" t="str">
-            <v>000043</v>
+            <v>000048</v>
           </cell>
         </row>
         <row r="40">
           <cell r="A40" t="str">
-            <v>000044</v>
+            <v>000049</v>
           </cell>
         </row>
         <row r="41">
           <cell r="A41" t="str">
-            <v>000045</v>
+            <v>000050</v>
           </cell>
         </row>
         <row r="42">
           <cell r="A42" t="str">
-            <v>000046</v>
+            <v>000051</v>
           </cell>
         </row>
         <row r="43">
           <cell r="A43" t="str">
-            <v>000047</v>
+            <v>000052</v>
           </cell>
         </row>
         <row r="44">
           <cell r="A44" t="str">
-            <v>000048</v>
+            <v>000053</v>
           </cell>
         </row>
         <row r="45">
           <cell r="A45" t="str">
-            <v>000049</v>
+            <v>000054</v>
           </cell>
         </row>
         <row r="46">
           <cell r="A46" t="str">
-            <v>000050</v>
+            <v>000055</v>
           </cell>
         </row>
         <row r="47">
           <cell r="A47" t="str">
-            <v>000051</v>
+            <v>000056</v>
           </cell>
         </row>
         <row r="48">
           <cell r="A48" t="str">
-            <v>000052</v>
+            <v>000057</v>
           </cell>
         </row>
         <row r="49">
           <cell r="A49" t="str">
-            <v>000053</v>
+            <v>000058</v>
           </cell>
         </row>
         <row r="50">
           <cell r="A50" t="str">
-            <v>000054</v>
+            <v>000059</v>
           </cell>
         </row>
         <row r="51">
           <cell r="A51" t="str">
-            <v>000055</v>
+            <v>000060</v>
           </cell>
         </row>
         <row r="52">
           <cell r="A52" t="str">
-            <v>000056</v>
+            <v>000061</v>
           </cell>
         </row>
         <row r="53">
           <cell r="A53" t="str">
-            <v>000057</v>
+            <v>000062</v>
           </cell>
         </row>
         <row r="54">
           <cell r="A54" t="str">
-            <v>000058</v>
+            <v>000063</v>
           </cell>
         </row>
         <row r="55">
           <cell r="A55" t="str">
-            <v>000059</v>
+            <v>000064</v>
           </cell>
         </row>
         <row r="56">
           <cell r="A56" t="str">
-            <v>000060</v>
+            <v>000065</v>
           </cell>
         </row>
         <row r="57">
           <cell r="A57" t="str">
-            <v>000061</v>
+            <v>000066</v>
           </cell>
         </row>
         <row r="58">
           <cell r="A58" t="str">
-            <v>000062</v>
+            <v>000067</v>
           </cell>
         </row>
         <row r="59">
           <cell r="A59" t="str">
-            <v>000063</v>
+            <v>000068</v>
           </cell>
         </row>
         <row r="60">
           <cell r="A60" t="str">
-            <v>000064</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="A61" t="str">
-            <v>000065</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="A62" t="str">
-            <v>000066</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="A63" t="str">
-            <v>000067</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="A64" t="str">
-            <v>000068</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="A65" t="str">
             <v>000069</v>
           </cell>
         </row>
@@ -3047,11 +2677,11 @@
   <dimension ref="A1:AD500"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Q9" sqref="Q9"/>
+      <selection pane="bottomRight" activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -3124,7 +2754,7 @@
       <c r="AA1" s="21"/>
       <c r="AB1" s="21"/>
       <c r="AC1" s="21"/>
-      <c r="AD1" s="35" t="s">
+      <c r="AD1" s="36" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3158,11 +2788,11 @@
       <c r="Y2" s="23"/>
       <c r="Z2" s="23"/>
       <c r="AA2" s="23"/>
-      <c r="AB2" s="34" t="s">
+      <c r="AB2" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="AC2" s="34"/>
-      <c r="AD2" s="35"/>
+      <c r="AC2" s="35"/>
+      <c r="AD2" s="36"/>
     </row>
     <row r="3" spans="1:30">
       <c r="A3" s="2"/>
@@ -3230,25 +2860,25 @@
         <v>28</v>
       </c>
       <c r="W3" s="23"/>
-      <c r="X3" s="30" t="s">
+      <c r="X3" s="31" t="s">
         <v>29</v>
       </c>
       <c r="Y3" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="Z3" s="30" t="s">
+      <c r="Z3" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="AA3" s="30" t="s">
+      <c r="AA3" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="AB3" s="34" t="s">
+      <c r="AB3" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="AC3" s="36" t="s">
+      <c r="AC3" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="AD3" s="35"/>
+      <c r="AD3" s="36"/>
     </row>
     <row r="4" ht="56" customHeight="1" spans="1:30">
       <c r="A4" s="2"/>
@@ -3272,19 +2902,19 @@
       <c r="S4" s="24"/>
       <c r="T4" s="25"/>
       <c r="U4" s="25"/>
-      <c r="V4" s="31" t="s">
+      <c r="V4" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="W4" s="31" t="s">
+      <c r="W4" s="32" t="s">
         <v>36</v>
       </c>
       <c r="X4" s="23"/>
       <c r="Y4" s="23"/>
       <c r="Z4" s="23"/>
       <c r="AA4" s="23"/>
-      <c r="AB4" s="34"/>
-      <c r="AC4" s="34"/>
-      <c r="AD4" s="35"/>
+      <c r="AB4" s="35"/>
+      <c r="AC4" s="35"/>
+      <c r="AD4" s="36"/>
     </row>
     <row r="5" ht="18" spans="1:30">
       <c r="A5" s="5">
@@ -3347,16 +2977,16 @@
       </c>
       <c r="S5" s="26"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="32"/>
-      <c r="V5" s="29"/>
-      <c r="W5" s="29"/>
-      <c r="X5" s="29"/>
-      <c r="Y5" s="29"/>
-      <c r="Z5" s="29"/>
-      <c r="AA5" s="29"/>
-      <c r="AB5" s="29"/>
-      <c r="AC5" s="29"/>
-      <c r="AD5" s="29">
+      <c r="U5" s="33"/>
+      <c r="V5" s="30"/>
+      <c r="W5" s="30"/>
+      <c r="X5" s="30"/>
+      <c r="Y5" s="30"/>
+      <c r="Z5" s="30"/>
+      <c r="AA5" s="30"/>
+      <c r="AB5" s="30"/>
+      <c r="AC5" s="30"/>
+      <c r="AD5" s="30">
         <v>32.53</v>
       </c>
     </row>
@@ -3422,16 +3052,16 @@
       </c>
       <c r="S6" s="6"/>
       <c r="T6" s="28"/>
-      <c r="U6" s="33"/>
-      <c r="V6" s="29"/>
-      <c r="W6" s="29"/>
-      <c r="X6" s="29"/>
-      <c r="Y6" s="29"/>
-      <c r="Z6" s="29"/>
-      <c r="AA6" s="29"/>
-      <c r="AB6" s="29"/>
-      <c r="AC6" s="29"/>
-      <c r="AD6" s="29">
+      <c r="U6" s="34"/>
+      <c r="V6" s="30"/>
+      <c r="W6" s="30"/>
+      <c r="X6" s="30"/>
+      <c r="Y6" s="30"/>
+      <c r="Z6" s="30"/>
+      <c r="AA6" s="30"/>
+      <c r="AB6" s="30"/>
+      <c r="AC6" s="30"/>
+      <c r="AD6" s="30">
         <f>IF(G6-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10004,48,FALSE)&gt;0,G6,AD5)</f>
         <v>32.53</v>
       </c>
@@ -3498,16 +3128,16 @@
       </c>
       <c r="S7" s="6"/>
       <c r="T7" s="28"/>
-      <c r="U7" s="33"/>
-      <c r="V7" s="29"/>
-      <c r="W7" s="29"/>
-      <c r="X7" s="29"/>
-      <c r="Y7" s="29"/>
-      <c r="Z7" s="29"/>
-      <c r="AA7" s="29"/>
-      <c r="AB7" s="29"/>
-      <c r="AC7" s="29"/>
-      <c r="AD7" s="29">
+      <c r="U7" s="34"/>
+      <c r="V7" s="30"/>
+      <c r="W7" s="30"/>
+      <c r="X7" s="30"/>
+      <c r="Y7" s="30"/>
+      <c r="Z7" s="30"/>
+      <c r="AA7" s="30"/>
+      <c r="AB7" s="30"/>
+      <c r="AC7" s="30"/>
+      <c r="AD7" s="30">
         <f>IF(G7-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10005,48,FALSE)&gt;0,G7,AD6)</f>
         <v>32.53</v>
       </c>
@@ -3574,16 +3204,16 @@
       </c>
       <c r="S8" s="6"/>
       <c r="T8" s="28"/>
-      <c r="U8" s="33"/>
-      <c r="V8" s="29"/>
-      <c r="W8" s="29"/>
-      <c r="X8" s="29"/>
-      <c r="Y8" s="29"/>
-      <c r="Z8" s="29"/>
-      <c r="AA8" s="29"/>
-      <c r="AB8" s="29"/>
-      <c r="AC8" s="29"/>
-      <c r="AD8" s="29">
+      <c r="U8" s="34"/>
+      <c r="V8" s="30"/>
+      <c r="W8" s="30"/>
+      <c r="X8" s="30"/>
+      <c r="Y8" s="30"/>
+      <c r="Z8" s="30"/>
+      <c r="AA8" s="30"/>
+      <c r="AB8" s="30"/>
+      <c r="AC8" s="30"/>
+      <c r="AD8" s="30">
         <f>IF(G8-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10006,48,FALSE)&gt;0,G8,AD7)</f>
         <v>32.53</v>
       </c>
@@ -3651,15 +3281,15 @@
       <c r="S9" s="8"/>
       <c r="T9" s="8"/>
       <c r="U9" s="6"/>
-      <c r="V9" s="29"/>
-      <c r="W9" s="29"/>
-      <c r="X9" s="29"/>
-      <c r="Y9" s="29"/>
-      <c r="Z9" s="29"/>
-      <c r="AA9" s="29"/>
-      <c r="AB9" s="29"/>
-      <c r="AC9" s="29"/>
-      <c r="AD9" s="29">
+      <c r="V9" s="30"/>
+      <c r="W9" s="30"/>
+      <c r="X9" s="30"/>
+      <c r="Y9" s="30"/>
+      <c r="Z9" s="30"/>
+      <c r="AA9" s="30"/>
+      <c r="AB9" s="30"/>
+      <c r="AC9" s="30"/>
+      <c r="AD9" s="30">
         <f>IF(G9-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10007,48,FALSE)&gt;0,G9,AD8)</f>
         <v>32.53</v>
       </c>
@@ -3668,35 +3298,74 @@
       <c r="A10" s="7">
         <v>44530</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
+      <c r="B10" s="6">
+        <v>36.31</v>
+      </c>
+      <c r="C10" s="6">
+        <v>36.38</v>
+      </c>
+      <c r="D10" s="6">
+        <v>36.56</v>
+      </c>
+      <c r="E10" s="6">
+        <v>35.7</v>
+      </c>
+      <c r="F10" s="6">
+        <v>34.42</v>
+      </c>
+      <c r="G10" s="6">
+        <v>33.78</v>
+      </c>
+      <c r="H10" s="6">
+        <v>40.07</v>
+      </c>
+      <c r="I10" s="8">
+        <v>3</v>
+      </c>
+      <c r="J10" s="16">
+        <f>(B10-B9)/B9</f>
+        <v>0.00526024363233679</v>
+      </c>
+      <c r="K10" s="14">
+        <f>(B10-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10008,48,FALSE))/VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10008,48,FALSE)</f>
+        <v>0.076489771716573</v>
+      </c>
+      <c r="L10" s="15">
+        <f>I10/(ROW()-4)</f>
+        <v>0.5</v>
+      </c>
+      <c r="M10" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="N10" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="O10" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="P10" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q10" s="29" t="str">
+        <f>IF(I10/(ROW()-4)&lt;0.5,"是","否")</f>
+        <v>否</v>
+      </c>
+      <c r="R10" s="29" t="str">
+        <f>IF(B10&gt;=(D10-(D10-E10)/2),"上部","下部")</f>
+        <v>上部</v>
+      </c>
       <c r="S10" s="8"/>
       <c r="T10" s="8"/>
       <c r="U10" s="6"/>
-      <c r="V10" s="29"/>
-      <c r="W10" s="29"/>
-      <c r="X10" s="29"/>
-      <c r="Y10" s="29"/>
-      <c r="Z10" s="29"/>
-      <c r="AA10" s="29"/>
-      <c r="AB10" s="29"/>
-      <c r="AC10" s="29"/>
-      <c r="AD10" s="29"/>
+      <c r="V10" s="30"/>
+      <c r="W10" s="30"/>
+      <c r="X10" s="30"/>
+      <c r="Y10" s="30"/>
+      <c r="Z10" s="30"/>
+      <c r="AA10" s="30"/>
+      <c r="AB10" s="30"/>
+      <c r="AC10" s="30"/>
+      <c r="AD10" s="30"/>
     </row>
     <row r="11" spans="1:30">
       <c r="A11" s="7">
@@ -3722,15 +3391,15 @@
       <c r="S11" s="8"/>
       <c r="T11" s="8"/>
       <c r="U11" s="6"/>
-      <c r="V11" s="29"/>
-      <c r="W11" s="29"/>
-      <c r="X11" s="29"/>
-      <c r="Y11" s="29"/>
-      <c r="Z11" s="29"/>
-      <c r="AA11" s="29"/>
-      <c r="AB11" s="29"/>
-      <c r="AC11" s="29"/>
-      <c r="AD11" s="29"/>
+      <c r="V11" s="30"/>
+      <c r="W11" s="30"/>
+      <c r="X11" s="30"/>
+      <c r="Y11" s="30"/>
+      <c r="Z11" s="30"/>
+      <c r="AA11" s="30"/>
+      <c r="AB11" s="30"/>
+      <c r="AC11" s="30"/>
+      <c r="AD11" s="30"/>
     </row>
     <row r="12" spans="1:30">
       <c r="A12" s="7">
@@ -3756,15 +3425,15 @@
       <c r="S12" s="8"/>
       <c r="T12" s="8"/>
       <c r="U12" s="6"/>
-      <c r="V12" s="29"/>
-      <c r="W12" s="29"/>
-      <c r="X12" s="29"/>
-      <c r="Y12" s="29"/>
-      <c r="Z12" s="29"/>
-      <c r="AA12" s="29"/>
-      <c r="AB12" s="29"/>
-      <c r="AC12" s="29"/>
-      <c r="AD12" s="29"/>
+      <c r="V12" s="30"/>
+      <c r="W12" s="30"/>
+      <c r="X12" s="30"/>
+      <c r="Y12" s="30"/>
+      <c r="Z12" s="30"/>
+      <c r="AA12" s="30"/>
+      <c r="AB12" s="30"/>
+      <c r="AC12" s="30"/>
+      <c r="AD12" s="30"/>
     </row>
     <row r="13" spans="1:30">
       <c r="A13" s="7">
@@ -3790,15 +3459,15 @@
       <c r="S13" s="8"/>
       <c r="T13" s="8"/>
       <c r="U13" s="6"/>
-      <c r="V13" s="29"/>
-      <c r="W13" s="29"/>
-      <c r="X13" s="29"/>
-      <c r="Y13" s="29"/>
-      <c r="Z13" s="29"/>
-      <c r="AA13" s="29"/>
-      <c r="AB13" s="29"/>
-      <c r="AC13" s="29"/>
-      <c r="AD13" s="29"/>
+      <c r="V13" s="30"/>
+      <c r="W13" s="30"/>
+      <c r="X13" s="30"/>
+      <c r="Y13" s="30"/>
+      <c r="Z13" s="30"/>
+      <c r="AA13" s="30"/>
+      <c r="AB13" s="30"/>
+      <c r="AC13" s="30"/>
+      <c r="AD13" s="30"/>
     </row>
     <row r="14" spans="1:30">
       <c r="A14" s="7">
@@ -3824,15 +3493,15 @@
       <c r="S14" s="8"/>
       <c r="T14" s="8"/>
       <c r="U14" s="6"/>
-      <c r="V14" s="29"/>
-      <c r="W14" s="29"/>
-      <c r="X14" s="29"/>
-      <c r="Y14" s="29"/>
-      <c r="Z14" s="29"/>
-      <c r="AA14" s="29"/>
-      <c r="AB14" s="29"/>
-      <c r="AC14" s="29"/>
-      <c r="AD14" s="29"/>
+      <c r="V14" s="30"/>
+      <c r="W14" s="30"/>
+      <c r="X14" s="30"/>
+      <c r="Y14" s="30"/>
+      <c r="Z14" s="30"/>
+      <c r="AA14" s="30"/>
+      <c r="AB14" s="30"/>
+      <c r="AC14" s="30"/>
+      <c r="AD14" s="30"/>
     </row>
     <row r="15" spans="1:30">
       <c r="A15" s="7">
@@ -3858,15 +3527,15 @@
       <c r="S15" s="8"/>
       <c r="T15" s="8"/>
       <c r="U15" s="6"/>
-      <c r="V15" s="29"/>
-      <c r="W15" s="29"/>
-      <c r="X15" s="29"/>
-      <c r="Y15" s="29"/>
-      <c r="Z15" s="29"/>
-      <c r="AA15" s="29"/>
-      <c r="AB15" s="29"/>
-      <c r="AC15" s="29"/>
-      <c r="AD15" s="29"/>
+      <c r="V15" s="30"/>
+      <c r="W15" s="30"/>
+      <c r="X15" s="30"/>
+      <c r="Y15" s="30"/>
+      <c r="Z15" s="30"/>
+      <c r="AA15" s="30"/>
+      <c r="AB15" s="30"/>
+      <c r="AC15" s="30"/>
+      <c r="AD15" s="30"/>
     </row>
     <row r="16" spans="1:30">
       <c r="A16" s="7">
@@ -3892,15 +3561,15 @@
       <c r="S16" s="8"/>
       <c r="T16" s="8"/>
       <c r="U16" s="6"/>
-      <c r="V16" s="29"/>
-      <c r="W16" s="29"/>
-      <c r="X16" s="29"/>
-      <c r="Y16" s="29"/>
-      <c r="Z16" s="29"/>
-      <c r="AA16" s="29"/>
-      <c r="AB16" s="29"/>
-      <c r="AC16" s="29"/>
-      <c r="AD16" s="29"/>
+      <c r="V16" s="30"/>
+      <c r="W16" s="30"/>
+      <c r="X16" s="30"/>
+      <c r="Y16" s="30"/>
+      <c r="Z16" s="30"/>
+      <c r="AA16" s="30"/>
+      <c r="AB16" s="30"/>
+      <c r="AC16" s="30"/>
+      <c r="AD16" s="30"/>
     </row>
     <row r="17" spans="1:30">
       <c r="A17" s="7">
@@ -3926,15 +3595,15 @@
       <c r="S17" s="8"/>
       <c r="T17" s="8"/>
       <c r="U17" s="6"/>
-      <c r="V17" s="29"/>
-      <c r="W17" s="29"/>
-      <c r="X17" s="29"/>
-      <c r="Y17" s="29"/>
-      <c r="Z17" s="29"/>
-      <c r="AA17" s="29"/>
-      <c r="AB17" s="29"/>
-      <c r="AC17" s="29"/>
-      <c r="AD17" s="29"/>
+      <c r="V17" s="30"/>
+      <c r="W17" s="30"/>
+      <c r="X17" s="30"/>
+      <c r="Y17" s="30"/>
+      <c r="Z17" s="30"/>
+      <c r="AA17" s="30"/>
+      <c r="AB17" s="30"/>
+      <c r="AC17" s="30"/>
+      <c r="AD17" s="30"/>
     </row>
     <row r="18" spans="1:30">
       <c r="A18" s="7">
@@ -3960,15 +3629,15 @@
       <c r="S18" s="8"/>
       <c r="T18" s="8"/>
       <c r="U18" s="6"/>
-      <c r="V18" s="29"/>
-      <c r="W18" s="29"/>
-      <c r="X18" s="29"/>
-      <c r="Y18" s="29"/>
-      <c r="Z18" s="29"/>
-      <c r="AA18" s="29"/>
-      <c r="AB18" s="29"/>
-      <c r="AC18" s="29"/>
-      <c r="AD18" s="29"/>
+      <c r="V18" s="30"/>
+      <c r="W18" s="30"/>
+      <c r="X18" s="30"/>
+      <c r="Y18" s="30"/>
+      <c r="Z18" s="30"/>
+      <c r="AA18" s="30"/>
+      <c r="AB18" s="30"/>
+      <c r="AC18" s="30"/>
+      <c r="AD18" s="30"/>
     </row>
     <row r="19" spans="1:30">
       <c r="A19" s="7">
@@ -3994,15 +3663,15 @@
       <c r="S19" s="8"/>
       <c r="T19" s="8"/>
       <c r="U19" s="6"/>
-      <c r="V19" s="29"/>
-      <c r="W19" s="29"/>
-      <c r="X19" s="29"/>
-      <c r="Y19" s="29"/>
-      <c r="Z19" s="29"/>
-      <c r="AA19" s="29"/>
-      <c r="AB19" s="29"/>
-      <c r="AC19" s="29"/>
-      <c r="AD19" s="29"/>
+      <c r="V19" s="30"/>
+      <c r="W19" s="30"/>
+      <c r="X19" s="30"/>
+      <c r="Y19" s="30"/>
+      <c r="Z19" s="30"/>
+      <c r="AA19" s="30"/>
+      <c r="AB19" s="30"/>
+      <c r="AC19" s="30"/>
+      <c r="AD19" s="30"/>
     </row>
     <row r="20" spans="1:30">
       <c r="A20" s="7">
@@ -4028,15 +3697,15 @@
       <c r="S20" s="8"/>
       <c r="T20" s="8"/>
       <c r="U20" s="6"/>
-      <c r="V20" s="29"/>
-      <c r="W20" s="29"/>
-      <c r="X20" s="29"/>
-      <c r="Y20" s="29"/>
-      <c r="Z20" s="29"/>
-      <c r="AA20" s="29"/>
-      <c r="AB20" s="29"/>
-      <c r="AC20" s="29"/>
-      <c r="AD20" s="29"/>
+      <c r="V20" s="30"/>
+      <c r="W20" s="30"/>
+      <c r="X20" s="30"/>
+      <c r="Y20" s="30"/>
+      <c r="Z20" s="30"/>
+      <c r="AA20" s="30"/>
+      <c r="AB20" s="30"/>
+      <c r="AC20" s="30"/>
+      <c r="AD20" s="30"/>
     </row>
     <row r="21" spans="1:30">
       <c r="A21" s="7">
@@ -4062,15 +3731,15 @@
       <c r="S21" s="8"/>
       <c r="T21" s="8"/>
       <c r="U21" s="6"/>
-      <c r="V21" s="29"/>
-      <c r="W21" s="29"/>
-      <c r="X21" s="29"/>
-      <c r="Y21" s="29"/>
-      <c r="Z21" s="29"/>
-      <c r="AA21" s="29"/>
-      <c r="AB21" s="29"/>
-      <c r="AC21" s="29"/>
-      <c r="AD21" s="29"/>
+      <c r="V21" s="30"/>
+      <c r="W21" s="30"/>
+      <c r="X21" s="30"/>
+      <c r="Y21" s="30"/>
+      <c r="Z21" s="30"/>
+      <c r="AA21" s="30"/>
+      <c r="AB21" s="30"/>
+      <c r="AC21" s="30"/>
+      <c r="AD21" s="30"/>
     </row>
     <row r="22" spans="1:30">
       <c r="A22" s="7">
@@ -4096,15 +3765,15 @@
       <c r="S22" s="8"/>
       <c r="T22" s="8"/>
       <c r="U22" s="6"/>
-      <c r="V22" s="29"/>
-      <c r="W22" s="29"/>
-      <c r="X22" s="29"/>
-      <c r="Y22" s="29"/>
-      <c r="Z22" s="29"/>
-      <c r="AA22" s="29"/>
-      <c r="AB22" s="29"/>
-      <c r="AC22" s="29"/>
-      <c r="AD22" s="29"/>
+      <c r="V22" s="30"/>
+      <c r="W22" s="30"/>
+      <c r="X22" s="30"/>
+      <c r="Y22" s="30"/>
+      <c r="Z22" s="30"/>
+      <c r="AA22" s="30"/>
+      <c r="AB22" s="30"/>
+      <c r="AC22" s="30"/>
+      <c r="AD22" s="30"/>
     </row>
     <row r="23" spans="1:30">
       <c r="A23" s="7">
@@ -4130,15 +3799,15 @@
       <c r="S23" s="8"/>
       <c r="T23" s="8"/>
       <c r="U23" s="6"/>
-      <c r="V23" s="29"/>
-      <c r="W23" s="29"/>
-      <c r="X23" s="29"/>
-      <c r="Y23" s="29"/>
-      <c r="Z23" s="29"/>
-      <c r="AA23" s="29"/>
-      <c r="AB23" s="29"/>
-      <c r="AC23" s="29"/>
-      <c r="AD23" s="29"/>
+      <c r="V23" s="30"/>
+      <c r="W23" s="30"/>
+      <c r="X23" s="30"/>
+      <c r="Y23" s="30"/>
+      <c r="Z23" s="30"/>
+      <c r="AA23" s="30"/>
+      <c r="AB23" s="30"/>
+      <c r="AC23" s="30"/>
+      <c r="AD23" s="30"/>
     </row>
     <row r="24" spans="1:30">
       <c r="A24" s="7">
@@ -4164,15 +3833,15 @@
       <c r="S24" s="8"/>
       <c r="T24" s="8"/>
       <c r="U24" s="6"/>
-      <c r="V24" s="29"/>
-      <c r="W24" s="29"/>
-      <c r="X24" s="29"/>
-      <c r="Y24" s="29"/>
-      <c r="Z24" s="29"/>
-      <c r="AA24" s="29"/>
-      <c r="AB24" s="29"/>
-      <c r="AC24" s="29"/>
-      <c r="AD24" s="29"/>
+      <c r="V24" s="30"/>
+      <c r="W24" s="30"/>
+      <c r="X24" s="30"/>
+      <c r="Y24" s="30"/>
+      <c r="Z24" s="30"/>
+      <c r="AA24" s="30"/>
+      <c r="AB24" s="30"/>
+      <c r="AC24" s="30"/>
+      <c r="AD24" s="30"/>
     </row>
     <row r="25" spans="1:30">
       <c r="A25" s="7">
@@ -4195,18 +3864,18 @@
       <c r="P25" s="8"/>
       <c r="Q25" s="8"/>
       <c r="R25" s="8"/>
-      <c r="S25" s="29"/>
+      <c r="S25" s="30"/>
       <c r="T25" s="8"/>
       <c r="U25" s="8"/>
-      <c r="V25" s="29"/>
-      <c r="W25" s="29"/>
-      <c r="X25" s="29"/>
-      <c r="Y25" s="29"/>
-      <c r="Z25" s="29"/>
-      <c r="AA25" s="29"/>
-      <c r="AB25" s="29"/>
-      <c r="AC25" s="29"/>
-      <c r="AD25" s="29"/>
+      <c r="V25" s="30"/>
+      <c r="W25" s="30"/>
+      <c r="X25" s="30"/>
+      <c r="Y25" s="30"/>
+      <c r="Z25" s="30"/>
+      <c r="AA25" s="30"/>
+      <c r="AB25" s="30"/>
+      <c r="AC25" s="30"/>
+      <c r="AD25" s="30"/>
     </row>
     <row r="26" spans="1:30">
       <c r="A26" s="7">
@@ -4229,18 +3898,18 @@
       <c r="P26" s="8"/>
       <c r="Q26" s="8"/>
       <c r="R26" s="8"/>
-      <c r="S26" s="29"/>
+      <c r="S26" s="30"/>
       <c r="T26" s="8"/>
       <c r="U26" s="8"/>
-      <c r="V26" s="29"/>
-      <c r="W26" s="29"/>
-      <c r="X26" s="29"/>
-      <c r="Y26" s="29"/>
-      <c r="Z26" s="29"/>
-      <c r="AA26" s="29"/>
-      <c r="AB26" s="29"/>
-      <c r="AC26" s="29"/>
-      <c r="AD26" s="29"/>
+      <c r="V26" s="30"/>
+      <c r="W26" s="30"/>
+      <c r="X26" s="30"/>
+      <c r="Y26" s="30"/>
+      <c r="Z26" s="30"/>
+      <c r="AA26" s="30"/>
+      <c r="AB26" s="30"/>
+      <c r="AC26" s="30"/>
+      <c r="AD26" s="30"/>
     </row>
     <row r="27" spans="1:30">
       <c r="A27" s="7">
@@ -4263,18 +3932,18 @@
       <c r="P27" s="8"/>
       <c r="Q27" s="8"/>
       <c r="R27" s="8"/>
-      <c r="S27" s="29"/>
+      <c r="S27" s="30"/>
       <c r="T27" s="8"/>
       <c r="U27" s="8"/>
-      <c r="V27" s="29"/>
-      <c r="W27" s="29"/>
-      <c r="X27" s="29"/>
-      <c r="Y27" s="29"/>
-      <c r="Z27" s="29"/>
-      <c r="AA27" s="29"/>
-      <c r="AB27" s="29"/>
-      <c r="AC27" s="29"/>
-      <c r="AD27" s="29"/>
+      <c r="V27" s="30"/>
+      <c r="W27" s="30"/>
+      <c r="X27" s="30"/>
+      <c r="Y27" s="30"/>
+      <c r="Z27" s="30"/>
+      <c r="AA27" s="30"/>
+      <c r="AB27" s="30"/>
+      <c r="AC27" s="30"/>
+      <c r="AD27" s="30"/>
     </row>
     <row r="28" spans="1:30">
       <c r="A28" s="7">
@@ -4297,18 +3966,18 @@
       <c r="P28" s="8"/>
       <c r="Q28" s="8"/>
       <c r="R28" s="8"/>
-      <c r="S28" s="29"/>
+      <c r="S28" s="30"/>
       <c r="T28" s="8"/>
       <c r="U28" s="8"/>
-      <c r="V28" s="29"/>
-      <c r="W28" s="29"/>
-      <c r="X28" s="29"/>
-      <c r="Y28" s="29"/>
-      <c r="Z28" s="29"/>
-      <c r="AA28" s="29"/>
-      <c r="AB28" s="29"/>
-      <c r="AC28" s="29"/>
-      <c r="AD28" s="29"/>
+      <c r="V28" s="30"/>
+      <c r="W28" s="30"/>
+      <c r="X28" s="30"/>
+      <c r="Y28" s="30"/>
+      <c r="Z28" s="30"/>
+      <c r="AA28" s="30"/>
+      <c r="AB28" s="30"/>
+      <c r="AC28" s="30"/>
+      <c r="AD28" s="30"/>
     </row>
     <row r="29" spans="1:30">
       <c r="A29" s="7">
@@ -4331,18 +4000,18 @@
       <c r="P29" s="8"/>
       <c r="Q29" s="8"/>
       <c r="R29" s="8"/>
-      <c r="S29" s="29"/>
+      <c r="S29" s="30"/>
       <c r="T29" s="8"/>
       <c r="U29" s="8"/>
-      <c r="V29" s="29"/>
-      <c r="W29" s="29"/>
-      <c r="X29" s="29"/>
-      <c r="Y29" s="29"/>
-      <c r="Z29" s="29"/>
-      <c r="AA29" s="29"/>
-      <c r="AB29" s="29"/>
-      <c r="AC29" s="29"/>
-      <c r="AD29" s="29"/>
+      <c r="V29" s="30"/>
+      <c r="W29" s="30"/>
+      <c r="X29" s="30"/>
+      <c r="Y29" s="30"/>
+      <c r="Z29" s="30"/>
+      <c r="AA29" s="30"/>
+      <c r="AB29" s="30"/>
+      <c r="AC29" s="30"/>
+      <c r="AD29" s="30"/>
     </row>
     <row r="30" spans="1:30">
       <c r="A30" s="7">
@@ -4365,18 +4034,18 @@
       <c r="P30" s="8"/>
       <c r="Q30" s="8"/>
       <c r="R30" s="8"/>
-      <c r="S30" s="29"/>
+      <c r="S30" s="30"/>
       <c r="T30" s="8"/>
       <c r="U30" s="8"/>
-      <c r="V30" s="29"/>
-      <c r="W30" s="29"/>
-      <c r="X30" s="29"/>
-      <c r="Y30" s="29"/>
-      <c r="Z30" s="29"/>
-      <c r="AA30" s="29"/>
-      <c r="AB30" s="29"/>
-      <c r="AC30" s="29"/>
-      <c r="AD30" s="29"/>
+      <c r="V30" s="30"/>
+      <c r="W30" s="30"/>
+      <c r="X30" s="30"/>
+      <c r="Y30" s="30"/>
+      <c r="Z30" s="30"/>
+      <c r="AA30" s="30"/>
+      <c r="AB30" s="30"/>
+      <c r="AC30" s="30"/>
+      <c r="AD30" s="30"/>
     </row>
     <row r="31" spans="1:30">
       <c r="A31" s="7">
@@ -4399,18 +4068,18 @@
       <c r="P31" s="8"/>
       <c r="Q31" s="8"/>
       <c r="R31" s="8"/>
-      <c r="S31" s="29"/>
+      <c r="S31" s="30"/>
       <c r="T31" s="8"/>
       <c r="U31" s="8"/>
-      <c r="V31" s="29"/>
-      <c r="W31" s="29"/>
-      <c r="X31" s="29"/>
-      <c r="Y31" s="29"/>
-      <c r="Z31" s="29"/>
-      <c r="AA31" s="29"/>
-      <c r="AB31" s="29"/>
-      <c r="AC31" s="29"/>
-      <c r="AD31" s="29"/>
+      <c r="V31" s="30"/>
+      <c r="W31" s="30"/>
+      <c r="X31" s="30"/>
+      <c r="Y31" s="30"/>
+      <c r="Z31" s="30"/>
+      <c r="AA31" s="30"/>
+      <c r="AB31" s="30"/>
+      <c r="AC31" s="30"/>
+      <c r="AD31" s="30"/>
     </row>
     <row r="32" spans="1:30">
       <c r="A32" s="7">
@@ -4433,18 +4102,18 @@
       <c r="P32" s="8"/>
       <c r="Q32" s="8"/>
       <c r="R32" s="8"/>
-      <c r="S32" s="29"/>
+      <c r="S32" s="30"/>
       <c r="T32" s="8"/>
       <c r="U32" s="8"/>
-      <c r="V32" s="29"/>
-      <c r="W32" s="29"/>
-      <c r="X32" s="29"/>
-      <c r="Y32" s="29"/>
-      <c r="Z32" s="29"/>
-      <c r="AA32" s="29"/>
-      <c r="AB32" s="29"/>
-      <c r="AC32" s="29"/>
-      <c r="AD32" s="29"/>
+      <c r="V32" s="30"/>
+      <c r="W32" s="30"/>
+      <c r="X32" s="30"/>
+      <c r="Y32" s="30"/>
+      <c r="Z32" s="30"/>
+      <c r="AA32" s="30"/>
+      <c r="AB32" s="30"/>
+      <c r="AC32" s="30"/>
+      <c r="AD32" s="30"/>
     </row>
     <row r="33" spans="1:30">
       <c r="A33" s="7">
@@ -4467,18 +4136,18 @@
       <c r="P33" s="8"/>
       <c r="Q33" s="8"/>
       <c r="R33" s="8"/>
-      <c r="S33" s="29"/>
+      <c r="S33" s="30"/>
       <c r="T33" s="8"/>
       <c r="U33" s="8"/>
-      <c r="V33" s="29"/>
-      <c r="W33" s="29"/>
-      <c r="X33" s="29"/>
-      <c r="Y33" s="29"/>
-      <c r="Z33" s="29"/>
-      <c r="AA33" s="29"/>
-      <c r="AB33" s="29"/>
-      <c r="AC33" s="29"/>
-      <c r="AD33" s="29"/>
+      <c r="V33" s="30"/>
+      <c r="W33" s="30"/>
+      <c r="X33" s="30"/>
+      <c r="Y33" s="30"/>
+      <c r="Z33" s="30"/>
+      <c r="AA33" s="30"/>
+      <c r="AB33" s="30"/>
+      <c r="AC33" s="30"/>
+      <c r="AD33" s="30"/>
     </row>
     <row r="34" spans="1:30">
       <c r="A34" s="7">
@@ -4501,18 +4170,18 @@
       <c r="P34" s="8"/>
       <c r="Q34" s="8"/>
       <c r="R34" s="8"/>
-      <c r="S34" s="29"/>
+      <c r="S34" s="30"/>
       <c r="T34" s="8"/>
       <c r="U34" s="8"/>
-      <c r="V34" s="29"/>
-      <c r="W34" s="29"/>
-      <c r="X34" s="29"/>
-      <c r="Y34" s="29"/>
-      <c r="Z34" s="29"/>
-      <c r="AA34" s="29"/>
-      <c r="AB34" s="29"/>
-      <c r="AC34" s="29"/>
-      <c r="AD34" s="29"/>
+      <c r="V34" s="30"/>
+      <c r="W34" s="30"/>
+      <c r="X34" s="30"/>
+      <c r="Y34" s="30"/>
+      <c r="Z34" s="30"/>
+      <c r="AA34" s="30"/>
+      <c r="AB34" s="30"/>
+      <c r="AC34" s="30"/>
+      <c r="AD34" s="30"/>
     </row>
     <row r="35" spans="1:30">
       <c r="A35" s="7">
@@ -4535,18 +4204,18 @@
       <c r="P35" s="8"/>
       <c r="Q35" s="8"/>
       <c r="R35" s="8"/>
-      <c r="S35" s="29"/>
+      <c r="S35" s="30"/>
       <c r="T35" s="8"/>
       <c r="U35" s="8"/>
-      <c r="V35" s="29"/>
-      <c r="W35" s="29"/>
-      <c r="X35" s="29"/>
-      <c r="Y35" s="29"/>
-      <c r="Z35" s="29"/>
-      <c r="AA35" s="29"/>
-      <c r="AB35" s="29"/>
-      <c r="AC35" s="29"/>
-      <c r="AD35" s="29"/>
+      <c r="V35" s="30"/>
+      <c r="W35" s="30"/>
+      <c r="X35" s="30"/>
+      <c r="Y35" s="30"/>
+      <c r="Z35" s="30"/>
+      <c r="AA35" s="30"/>
+      <c r="AB35" s="30"/>
+      <c r="AC35" s="30"/>
+      <c r="AD35" s="30"/>
     </row>
     <row r="36" spans="1:30">
       <c r="A36" s="7">
@@ -4569,18 +4238,18 @@
       <c r="P36" s="8"/>
       <c r="Q36" s="8"/>
       <c r="R36" s="8"/>
-      <c r="S36" s="29"/>
+      <c r="S36" s="30"/>
       <c r="T36" s="8"/>
       <c r="U36" s="8"/>
-      <c r="V36" s="29"/>
-      <c r="W36" s="29"/>
-      <c r="X36" s="29"/>
-      <c r="Y36" s="29"/>
-      <c r="Z36" s="29"/>
-      <c r="AA36" s="29"/>
-      <c r="AB36" s="29"/>
-      <c r="AC36" s="29"/>
-      <c r="AD36" s="29"/>
+      <c r="V36" s="30"/>
+      <c r="W36" s="30"/>
+      <c r="X36" s="30"/>
+      <c r="Y36" s="30"/>
+      <c r="Z36" s="30"/>
+      <c r="AA36" s="30"/>
+      <c r="AB36" s="30"/>
+      <c r="AC36" s="30"/>
+      <c r="AD36" s="30"/>
     </row>
     <row r="37" spans="1:30">
       <c r="A37" s="7">
@@ -4603,18 +4272,18 @@
       <c r="P37" s="8"/>
       <c r="Q37" s="8"/>
       <c r="R37" s="8"/>
-      <c r="S37" s="29"/>
+      <c r="S37" s="30"/>
       <c r="T37" s="8"/>
       <c r="U37" s="8"/>
-      <c r="V37" s="29"/>
-      <c r="W37" s="29"/>
-      <c r="X37" s="29"/>
-      <c r="Y37" s="29"/>
-      <c r="Z37" s="29"/>
-      <c r="AA37" s="29"/>
-      <c r="AB37" s="29"/>
-      <c r="AC37" s="29"/>
-      <c r="AD37" s="29"/>
+      <c r="V37" s="30"/>
+      <c r="W37" s="30"/>
+      <c r="X37" s="30"/>
+      <c r="Y37" s="30"/>
+      <c r="Z37" s="30"/>
+      <c r="AA37" s="30"/>
+      <c r="AB37" s="30"/>
+      <c r="AC37" s="30"/>
+      <c r="AD37" s="30"/>
     </row>
     <row r="38" spans="1:30">
       <c r="A38" s="7">
@@ -4637,18 +4306,18 @@
       <c r="P38" s="8"/>
       <c r="Q38" s="8"/>
       <c r="R38" s="8"/>
-      <c r="S38" s="29"/>
+      <c r="S38" s="30"/>
       <c r="T38" s="8"/>
       <c r="U38" s="8"/>
-      <c r="V38" s="29"/>
-      <c r="W38" s="29"/>
-      <c r="X38" s="29"/>
-      <c r="Y38" s="29"/>
-      <c r="Z38" s="29"/>
-      <c r="AA38" s="29"/>
-      <c r="AB38" s="29"/>
-      <c r="AC38" s="29"/>
-      <c r="AD38" s="29"/>
+      <c r="V38" s="30"/>
+      <c r="W38" s="30"/>
+      <c r="X38" s="30"/>
+      <c r="Y38" s="30"/>
+      <c r="Z38" s="30"/>
+      <c r="AA38" s="30"/>
+      <c r="AB38" s="30"/>
+      <c r="AC38" s="30"/>
+      <c r="AD38" s="30"/>
     </row>
     <row r="39" spans="1:30">
       <c r="A39" s="7">
@@ -4671,18 +4340,18 @@
       <c r="P39" s="8"/>
       <c r="Q39" s="8"/>
       <c r="R39" s="8"/>
-      <c r="S39" s="29"/>
+      <c r="S39" s="30"/>
       <c r="T39" s="8"/>
       <c r="U39" s="8"/>
-      <c r="V39" s="29"/>
-      <c r="W39" s="29"/>
-      <c r="X39" s="29"/>
-      <c r="Y39" s="29"/>
-      <c r="Z39" s="29"/>
-      <c r="AA39" s="29"/>
-      <c r="AB39" s="29"/>
-      <c r="AC39" s="29"/>
-      <c r="AD39" s="29"/>
+      <c r="V39" s="30"/>
+      <c r="W39" s="30"/>
+      <c r="X39" s="30"/>
+      <c r="Y39" s="30"/>
+      <c r="Z39" s="30"/>
+      <c r="AA39" s="30"/>
+      <c r="AB39" s="30"/>
+      <c r="AC39" s="30"/>
+      <c r="AD39" s="30"/>
     </row>
     <row r="40" spans="1:30">
       <c r="A40" s="7">
@@ -4705,18 +4374,18 @@
       <c r="P40" s="8"/>
       <c r="Q40" s="8"/>
       <c r="R40" s="8"/>
-      <c r="S40" s="29"/>
+      <c r="S40" s="30"/>
       <c r="T40" s="8"/>
       <c r="U40" s="8"/>
-      <c r="V40" s="29"/>
-      <c r="W40" s="29"/>
-      <c r="X40" s="29"/>
-      <c r="Y40" s="29"/>
-      <c r="Z40" s="29"/>
-      <c r="AA40" s="29"/>
-      <c r="AB40" s="29"/>
-      <c r="AC40" s="29"/>
-      <c r="AD40" s="29"/>
+      <c r="V40" s="30"/>
+      <c r="W40" s="30"/>
+      <c r="X40" s="30"/>
+      <c r="Y40" s="30"/>
+      <c r="Z40" s="30"/>
+      <c r="AA40" s="30"/>
+      <c r="AB40" s="30"/>
+      <c r="AC40" s="30"/>
+      <c r="AD40" s="30"/>
     </row>
     <row r="41" spans="1:30">
       <c r="A41" s="7">
@@ -4739,18 +4408,18 @@
       <c r="P41" s="8"/>
       <c r="Q41" s="8"/>
       <c r="R41" s="8"/>
-      <c r="S41" s="29"/>
+      <c r="S41" s="30"/>
       <c r="T41" s="8"/>
       <c r="U41" s="8"/>
-      <c r="V41" s="29"/>
-      <c r="W41" s="29"/>
-      <c r="X41" s="29"/>
-      <c r="Y41" s="29"/>
-      <c r="Z41" s="29"/>
-      <c r="AA41" s="29"/>
-      <c r="AB41" s="29"/>
-      <c r="AC41" s="29"/>
-      <c r="AD41" s="29"/>
+      <c r="V41" s="30"/>
+      <c r="W41" s="30"/>
+      <c r="X41" s="30"/>
+      <c r="Y41" s="30"/>
+      <c r="Z41" s="30"/>
+      <c r="AA41" s="30"/>
+      <c r="AB41" s="30"/>
+      <c r="AC41" s="30"/>
+      <c r="AD41" s="30"/>
     </row>
     <row r="42" spans="1:30">
       <c r="A42" s="7">
@@ -4773,18 +4442,18 @@
       <c r="P42" s="8"/>
       <c r="Q42" s="8"/>
       <c r="R42" s="8"/>
-      <c r="S42" s="29"/>
+      <c r="S42" s="30"/>
       <c r="T42" s="8"/>
       <c r="U42" s="8"/>
-      <c r="V42" s="29"/>
-      <c r="W42" s="29"/>
-      <c r="X42" s="29"/>
-      <c r="Y42" s="29"/>
-      <c r="Z42" s="29"/>
-      <c r="AA42" s="29"/>
-      <c r="AB42" s="29"/>
-      <c r="AC42" s="29"/>
-      <c r="AD42" s="29"/>
+      <c r="V42" s="30"/>
+      <c r="W42" s="30"/>
+      <c r="X42" s="30"/>
+      <c r="Y42" s="30"/>
+      <c r="Z42" s="30"/>
+      <c r="AA42" s="30"/>
+      <c r="AB42" s="30"/>
+      <c r="AC42" s="30"/>
+      <c r="AD42" s="30"/>
     </row>
     <row r="43" spans="1:30">
       <c r="A43" s="7">
@@ -4807,18 +4476,18 @@
       <c r="P43" s="8"/>
       <c r="Q43" s="8"/>
       <c r="R43" s="8"/>
-      <c r="S43" s="29"/>
+      <c r="S43" s="30"/>
       <c r="T43" s="8"/>
       <c r="U43" s="8"/>
-      <c r="V43" s="29"/>
-      <c r="W43" s="29"/>
-      <c r="X43" s="29"/>
-      <c r="Y43" s="29"/>
-      <c r="Z43" s="29"/>
-      <c r="AA43" s="29"/>
-      <c r="AB43" s="29"/>
-      <c r="AC43" s="29"/>
-      <c r="AD43" s="29"/>
+      <c r="V43" s="30"/>
+      <c r="W43" s="30"/>
+      <c r="X43" s="30"/>
+      <c r="Y43" s="30"/>
+      <c r="Z43" s="30"/>
+      <c r="AA43" s="30"/>
+      <c r="AB43" s="30"/>
+      <c r="AC43" s="30"/>
+      <c r="AD43" s="30"/>
     </row>
     <row r="44" spans="1:30">
       <c r="A44" s="7">
@@ -4841,18 +4510,18 @@
       <c r="P44" s="8"/>
       <c r="Q44" s="8"/>
       <c r="R44" s="8"/>
-      <c r="S44" s="29"/>
+      <c r="S44" s="30"/>
       <c r="T44" s="8"/>
       <c r="U44" s="8"/>
-      <c r="V44" s="29"/>
-      <c r="W44" s="29"/>
-      <c r="X44" s="29"/>
-      <c r="Y44" s="29"/>
-      <c r="Z44" s="29"/>
-      <c r="AA44" s="29"/>
-      <c r="AB44" s="29"/>
-      <c r="AC44" s="29"/>
-      <c r="AD44" s="29"/>
+      <c r="V44" s="30"/>
+      <c r="W44" s="30"/>
+      <c r="X44" s="30"/>
+      <c r="Y44" s="30"/>
+      <c r="Z44" s="30"/>
+      <c r="AA44" s="30"/>
+      <c r="AB44" s="30"/>
+      <c r="AC44" s="30"/>
+      <c r="AD44" s="30"/>
     </row>
     <row r="45" spans="1:30">
       <c r="A45" s="7">
@@ -4875,18 +4544,18 @@
       <c r="P45" s="8"/>
       <c r="Q45" s="8"/>
       <c r="R45" s="8"/>
-      <c r="S45" s="29"/>
+      <c r="S45" s="30"/>
       <c r="T45" s="8"/>
       <c r="U45" s="8"/>
-      <c r="V45" s="29"/>
-      <c r="W45" s="29"/>
-      <c r="X45" s="29"/>
-      <c r="Y45" s="29"/>
-      <c r="Z45" s="29"/>
-      <c r="AA45" s="29"/>
-      <c r="AB45" s="29"/>
-      <c r="AC45" s="29"/>
-      <c r="AD45" s="29"/>
+      <c r="V45" s="30"/>
+      <c r="W45" s="30"/>
+      <c r="X45" s="30"/>
+      <c r="Y45" s="30"/>
+      <c r="Z45" s="30"/>
+      <c r="AA45" s="30"/>
+      <c r="AB45" s="30"/>
+      <c r="AC45" s="30"/>
+      <c r="AD45" s="30"/>
     </row>
     <row r="46" spans="1:30">
       <c r="A46" s="7">
@@ -4909,18 +4578,18 @@
       <c r="P46" s="8"/>
       <c r="Q46" s="8"/>
       <c r="R46" s="8"/>
-      <c r="S46" s="29"/>
+      <c r="S46" s="30"/>
       <c r="T46" s="8"/>
       <c r="U46" s="8"/>
-      <c r="V46" s="29"/>
-      <c r="W46" s="29"/>
-      <c r="X46" s="29"/>
-      <c r="Y46" s="29"/>
-      <c r="Z46" s="29"/>
-      <c r="AA46" s="29"/>
-      <c r="AB46" s="29"/>
-      <c r="AC46" s="29"/>
-      <c r="AD46" s="29"/>
+      <c r="V46" s="30"/>
+      <c r="W46" s="30"/>
+      <c r="X46" s="30"/>
+      <c r="Y46" s="30"/>
+      <c r="Z46" s="30"/>
+      <c r="AA46" s="30"/>
+      <c r="AB46" s="30"/>
+      <c r="AC46" s="30"/>
+      <c r="AD46" s="30"/>
     </row>
     <row r="47" spans="1:30">
       <c r="A47" s="7">
@@ -4943,18 +4612,18 @@
       <c r="P47" s="8"/>
       <c r="Q47" s="8"/>
       <c r="R47" s="8"/>
-      <c r="S47" s="29"/>
+      <c r="S47" s="30"/>
       <c r="T47" s="8"/>
       <c r="U47" s="8"/>
-      <c r="V47" s="29"/>
-      <c r="W47" s="29"/>
-      <c r="X47" s="29"/>
-      <c r="Y47" s="29"/>
-      <c r="Z47" s="29"/>
-      <c r="AA47" s="29"/>
-      <c r="AB47" s="29"/>
-      <c r="AC47" s="29"/>
-      <c r="AD47" s="29"/>
+      <c r="V47" s="30"/>
+      <c r="W47" s="30"/>
+      <c r="X47" s="30"/>
+      <c r="Y47" s="30"/>
+      <c r="Z47" s="30"/>
+      <c r="AA47" s="30"/>
+      <c r="AB47" s="30"/>
+      <c r="AC47" s="30"/>
+      <c r="AD47" s="30"/>
     </row>
     <row r="48" spans="1:30">
       <c r="A48" s="7">
@@ -4977,18 +4646,18 @@
       <c r="P48" s="8"/>
       <c r="Q48" s="8"/>
       <c r="R48" s="8"/>
-      <c r="S48" s="29"/>
+      <c r="S48" s="30"/>
       <c r="T48" s="8"/>
       <c r="U48" s="8"/>
-      <c r="V48" s="29"/>
-      <c r="W48" s="29"/>
-      <c r="X48" s="29"/>
-      <c r="Y48" s="29"/>
-      <c r="Z48" s="29"/>
-      <c r="AA48" s="29"/>
-      <c r="AB48" s="29"/>
-      <c r="AC48" s="29"/>
-      <c r="AD48" s="29"/>
+      <c r="V48" s="30"/>
+      <c r="W48" s="30"/>
+      <c r="X48" s="30"/>
+      <c r="Y48" s="30"/>
+      <c r="Z48" s="30"/>
+      <c r="AA48" s="30"/>
+      <c r="AB48" s="30"/>
+      <c r="AC48" s="30"/>
+      <c r="AD48" s="30"/>
     </row>
     <row r="49" spans="1:30">
       <c r="A49" s="7">
@@ -5011,18 +4680,18 @@
       <c r="P49" s="8"/>
       <c r="Q49" s="8"/>
       <c r="R49" s="8"/>
-      <c r="S49" s="29"/>
+      <c r="S49" s="30"/>
       <c r="T49" s="8"/>
       <c r="U49" s="8"/>
-      <c r="V49" s="29"/>
-      <c r="W49" s="29"/>
-      <c r="X49" s="29"/>
-      <c r="Y49" s="29"/>
-      <c r="Z49" s="29"/>
-      <c r="AA49" s="29"/>
-      <c r="AB49" s="29"/>
-      <c r="AC49" s="29"/>
-      <c r="AD49" s="29"/>
+      <c r="V49" s="30"/>
+      <c r="W49" s="30"/>
+      <c r="X49" s="30"/>
+      <c r="Y49" s="30"/>
+      <c r="Z49" s="30"/>
+      <c r="AA49" s="30"/>
+      <c r="AB49" s="30"/>
+      <c r="AC49" s="30"/>
+      <c r="AD49" s="30"/>
     </row>
     <row r="50" spans="1:30">
       <c r="A50" s="7">
@@ -5045,18 +4714,18 @@
       <c r="P50" s="8"/>
       <c r="Q50" s="8"/>
       <c r="R50" s="8"/>
-      <c r="S50" s="29"/>
+      <c r="S50" s="30"/>
       <c r="T50" s="8"/>
       <c r="U50" s="8"/>
-      <c r="V50" s="29"/>
-      <c r="W50" s="29"/>
-      <c r="X50" s="29"/>
-      <c r="Y50" s="29"/>
-      <c r="Z50" s="29"/>
-      <c r="AA50" s="29"/>
-      <c r="AB50" s="29"/>
-      <c r="AC50" s="29"/>
-      <c r="AD50" s="29"/>
+      <c r="V50" s="30"/>
+      <c r="W50" s="30"/>
+      <c r="X50" s="30"/>
+      <c r="Y50" s="30"/>
+      <c r="Z50" s="30"/>
+      <c r="AA50" s="30"/>
+      <c r="AB50" s="30"/>
+      <c r="AC50" s="30"/>
+      <c r="AD50" s="30"/>
     </row>
     <row r="51" spans="1:30">
       <c r="A51" s="7">
@@ -5079,18 +4748,18 @@
       <c r="P51" s="8"/>
       <c r="Q51" s="8"/>
       <c r="R51" s="8"/>
-      <c r="S51" s="29"/>
+      <c r="S51" s="30"/>
       <c r="T51" s="8"/>
       <c r="U51" s="8"/>
-      <c r="V51" s="29"/>
-      <c r="W51" s="29"/>
-      <c r="X51" s="29"/>
-      <c r="Y51" s="29"/>
-      <c r="Z51" s="29"/>
-      <c r="AA51" s="29"/>
-      <c r="AB51" s="29"/>
-      <c r="AC51" s="29"/>
-      <c r="AD51" s="29"/>
+      <c r="V51" s="30"/>
+      <c r="W51" s="30"/>
+      <c r="X51" s="30"/>
+      <c r="Y51" s="30"/>
+      <c r="Z51" s="30"/>
+      <c r="AA51" s="30"/>
+      <c r="AB51" s="30"/>
+      <c r="AC51" s="30"/>
+      <c r="AD51" s="30"/>
     </row>
     <row r="52" spans="1:30">
       <c r="A52" s="7">
@@ -5113,18 +4782,18 @@
       <c r="P52" s="8"/>
       <c r="Q52" s="8"/>
       <c r="R52" s="8"/>
-      <c r="S52" s="29"/>
+      <c r="S52" s="30"/>
       <c r="T52" s="8"/>
       <c r="U52" s="8"/>
-      <c r="V52" s="29"/>
-      <c r="W52" s="29"/>
-      <c r="X52" s="29"/>
-      <c r="Y52" s="29"/>
-      <c r="Z52" s="29"/>
-      <c r="AA52" s="29"/>
-      <c r="AB52" s="29"/>
-      <c r="AC52" s="29"/>
-      <c r="AD52" s="29"/>
+      <c r="V52" s="30"/>
+      <c r="W52" s="30"/>
+      <c r="X52" s="30"/>
+      <c r="Y52" s="30"/>
+      <c r="Z52" s="30"/>
+      <c r="AA52" s="30"/>
+      <c r="AB52" s="30"/>
+      <c r="AC52" s="30"/>
+      <c r="AD52" s="30"/>
     </row>
     <row r="53" spans="1:30">
       <c r="A53" s="7">
@@ -5147,18 +4816,18 @@
       <c r="P53" s="8"/>
       <c r="Q53" s="8"/>
       <c r="R53" s="8"/>
-      <c r="S53" s="29"/>
+      <c r="S53" s="30"/>
       <c r="T53" s="8"/>
       <c r="U53" s="8"/>
-      <c r="V53" s="29"/>
-      <c r="W53" s="29"/>
-      <c r="X53" s="29"/>
-      <c r="Y53" s="29"/>
-      <c r="Z53" s="29"/>
-      <c r="AA53" s="29"/>
-      <c r="AB53" s="29"/>
-      <c r="AC53" s="29"/>
-      <c r="AD53" s="29"/>
+      <c r="V53" s="30"/>
+      <c r="W53" s="30"/>
+      <c r="X53" s="30"/>
+      <c r="Y53" s="30"/>
+      <c r="Z53" s="30"/>
+      <c r="AA53" s="30"/>
+      <c r="AB53" s="30"/>
+      <c r="AC53" s="30"/>
+      <c r="AD53" s="30"/>
     </row>
     <row r="54" spans="1:30">
       <c r="A54" s="7">
@@ -5181,18 +4850,18 @@
       <c r="P54" s="8"/>
       <c r="Q54" s="8"/>
       <c r="R54" s="8"/>
-      <c r="S54" s="29"/>
+      <c r="S54" s="30"/>
       <c r="T54" s="8"/>
       <c r="U54" s="8"/>
-      <c r="V54" s="29"/>
-      <c r="W54" s="29"/>
-      <c r="X54" s="29"/>
-      <c r="Y54" s="29"/>
-      <c r="Z54" s="29"/>
-      <c r="AA54" s="29"/>
-      <c r="AB54" s="29"/>
-      <c r="AC54" s="29"/>
-      <c r="AD54" s="29"/>
+      <c r="V54" s="30"/>
+      <c r="W54" s="30"/>
+      <c r="X54" s="30"/>
+      <c r="Y54" s="30"/>
+      <c r="Z54" s="30"/>
+      <c r="AA54" s="30"/>
+      <c r="AB54" s="30"/>
+      <c r="AC54" s="30"/>
+      <c r="AD54" s="30"/>
     </row>
     <row r="55" spans="1:30">
       <c r="A55" s="7">
@@ -5215,18 +4884,18 @@
       <c r="P55" s="8"/>
       <c r="Q55" s="8"/>
       <c r="R55" s="8"/>
-      <c r="S55" s="29"/>
+      <c r="S55" s="30"/>
       <c r="T55" s="8"/>
       <c r="U55" s="8"/>
-      <c r="V55" s="29"/>
-      <c r="W55" s="29"/>
-      <c r="X55" s="29"/>
-      <c r="Y55" s="29"/>
-      <c r="Z55" s="29"/>
-      <c r="AA55" s="29"/>
-      <c r="AB55" s="29"/>
-      <c r="AC55" s="29"/>
-      <c r="AD55" s="29"/>
+      <c r="V55" s="30"/>
+      <c r="W55" s="30"/>
+      <c r="X55" s="30"/>
+      <c r="Y55" s="30"/>
+      <c r="Z55" s="30"/>
+      <c r="AA55" s="30"/>
+      <c r="AB55" s="30"/>
+      <c r="AC55" s="30"/>
+      <c r="AD55" s="30"/>
     </row>
     <row r="56" spans="1:30">
       <c r="A56" s="7">
@@ -5249,18 +4918,18 @@
       <c r="P56" s="8"/>
       <c r="Q56" s="8"/>
       <c r="R56" s="8"/>
-      <c r="S56" s="29"/>
+      <c r="S56" s="30"/>
       <c r="T56" s="8"/>
       <c r="U56" s="8"/>
-      <c r="V56" s="29"/>
-      <c r="W56" s="29"/>
-      <c r="X56" s="29"/>
-      <c r="Y56" s="29"/>
-      <c r="Z56" s="29"/>
-      <c r="AA56" s="29"/>
-      <c r="AB56" s="29"/>
-      <c r="AC56" s="29"/>
-      <c r="AD56" s="29"/>
+      <c r="V56" s="30"/>
+      <c r="W56" s="30"/>
+      <c r="X56" s="30"/>
+      <c r="Y56" s="30"/>
+      <c r="Z56" s="30"/>
+      <c r="AA56" s="30"/>
+      <c r="AB56" s="30"/>
+      <c r="AC56" s="30"/>
+      <c r="AD56" s="30"/>
     </row>
     <row r="57" spans="1:30">
       <c r="A57" s="7">
@@ -5283,18 +4952,18 @@
       <c r="P57" s="8"/>
       <c r="Q57" s="8"/>
       <c r="R57" s="8"/>
-      <c r="S57" s="29"/>
+      <c r="S57" s="30"/>
       <c r="T57" s="8"/>
       <c r="U57" s="8"/>
-      <c r="V57" s="29"/>
-      <c r="W57" s="29"/>
-      <c r="X57" s="29"/>
-      <c r="Y57" s="29"/>
-      <c r="Z57" s="29"/>
-      <c r="AA57" s="29"/>
-      <c r="AB57" s="29"/>
-      <c r="AC57" s="29"/>
-      <c r="AD57" s="29"/>
+      <c r="V57" s="30"/>
+      <c r="W57" s="30"/>
+      <c r="X57" s="30"/>
+      <c r="Y57" s="30"/>
+      <c r="Z57" s="30"/>
+      <c r="AA57" s="30"/>
+      <c r="AB57" s="30"/>
+      <c r="AC57" s="30"/>
+      <c r="AD57" s="30"/>
     </row>
     <row r="58" spans="1:30">
       <c r="A58" s="7">
@@ -5317,18 +4986,18 @@
       <c r="P58" s="8"/>
       <c r="Q58" s="8"/>
       <c r="R58" s="8"/>
-      <c r="S58" s="29"/>
+      <c r="S58" s="30"/>
       <c r="T58" s="8"/>
       <c r="U58" s="8"/>
-      <c r="V58" s="29"/>
-      <c r="W58" s="29"/>
-      <c r="X58" s="29"/>
-      <c r="Y58" s="29"/>
-      <c r="Z58" s="29"/>
-      <c r="AA58" s="29"/>
-      <c r="AB58" s="29"/>
-      <c r="AC58" s="29"/>
-      <c r="AD58" s="29"/>
+      <c r="V58" s="30"/>
+      <c r="W58" s="30"/>
+      <c r="X58" s="30"/>
+      <c r="Y58" s="30"/>
+      <c r="Z58" s="30"/>
+      <c r="AA58" s="30"/>
+      <c r="AB58" s="30"/>
+      <c r="AC58" s="30"/>
+      <c r="AD58" s="30"/>
     </row>
     <row r="59" spans="1:30">
       <c r="A59" s="7">
@@ -5351,18 +5020,18 @@
       <c r="P59" s="8"/>
       <c r="Q59" s="8"/>
       <c r="R59" s="8"/>
-      <c r="S59" s="29"/>
+      <c r="S59" s="30"/>
       <c r="T59" s="8"/>
       <c r="U59" s="8"/>
-      <c r="V59" s="29"/>
-      <c r="W59" s="29"/>
-      <c r="X59" s="29"/>
-      <c r="Y59" s="29"/>
-      <c r="Z59" s="29"/>
-      <c r="AA59" s="29"/>
-      <c r="AB59" s="29"/>
-      <c r="AC59" s="29"/>
-      <c r="AD59" s="29"/>
+      <c r="V59" s="30"/>
+      <c r="W59" s="30"/>
+      <c r="X59" s="30"/>
+      <c r="Y59" s="30"/>
+      <c r="Z59" s="30"/>
+      <c r="AA59" s="30"/>
+      <c r="AB59" s="30"/>
+      <c r="AC59" s="30"/>
+      <c r="AD59" s="30"/>
     </row>
     <row r="60" spans="1:30">
       <c r="A60" s="7">
@@ -5385,18 +5054,18 @@
       <c r="P60" s="8"/>
       <c r="Q60" s="8"/>
       <c r="R60" s="8"/>
-      <c r="S60" s="29"/>
+      <c r="S60" s="30"/>
       <c r="T60" s="8"/>
       <c r="U60" s="8"/>
-      <c r="V60" s="29"/>
-      <c r="W60" s="29"/>
-      <c r="X60" s="29"/>
-      <c r="Y60" s="29"/>
-      <c r="Z60" s="29"/>
-      <c r="AA60" s="29"/>
-      <c r="AB60" s="29"/>
-      <c r="AC60" s="29"/>
-      <c r="AD60" s="29"/>
+      <c r="V60" s="30"/>
+      <c r="W60" s="30"/>
+      <c r="X60" s="30"/>
+      <c r="Y60" s="30"/>
+      <c r="Z60" s="30"/>
+      <c r="AA60" s="30"/>
+      <c r="AB60" s="30"/>
+      <c r="AC60" s="30"/>
+      <c r="AD60" s="30"/>
     </row>
     <row r="61" spans="1:30">
       <c r="A61" s="7">
@@ -5419,18 +5088,18 @@
       <c r="P61" s="8"/>
       <c r="Q61" s="8"/>
       <c r="R61" s="8"/>
-      <c r="S61" s="29"/>
+      <c r="S61" s="30"/>
       <c r="T61" s="8"/>
       <c r="U61" s="8"/>
-      <c r="V61" s="29"/>
-      <c r="W61" s="29"/>
-      <c r="X61" s="29"/>
-      <c r="Y61" s="29"/>
-      <c r="Z61" s="29"/>
-      <c r="AA61" s="29"/>
-      <c r="AB61" s="29"/>
-      <c r="AC61" s="29"/>
-      <c r="AD61" s="29"/>
+      <c r="V61" s="30"/>
+      <c r="W61" s="30"/>
+      <c r="X61" s="30"/>
+      <c r="Y61" s="30"/>
+      <c r="Z61" s="30"/>
+      <c r="AA61" s="30"/>
+      <c r="AB61" s="30"/>
+      <c r="AC61" s="30"/>
+      <c r="AD61" s="30"/>
     </row>
     <row r="62" spans="1:30">
       <c r="A62" s="7">
@@ -5453,18 +5122,18 @@
       <c r="P62" s="8"/>
       <c r="Q62" s="8"/>
       <c r="R62" s="8"/>
-      <c r="S62" s="29"/>
+      <c r="S62" s="30"/>
       <c r="T62" s="8"/>
       <c r="U62" s="8"/>
-      <c r="V62" s="29"/>
-      <c r="W62" s="29"/>
-      <c r="X62" s="29"/>
-      <c r="Y62" s="29"/>
-      <c r="Z62" s="29"/>
-      <c r="AA62" s="29"/>
-      <c r="AB62" s="29"/>
-      <c r="AC62" s="29"/>
-      <c r="AD62" s="29"/>
+      <c r="V62" s="30"/>
+      <c r="W62" s="30"/>
+      <c r="X62" s="30"/>
+      <c r="Y62" s="30"/>
+      <c r="Z62" s="30"/>
+      <c r="AA62" s="30"/>
+      <c r="AB62" s="30"/>
+      <c r="AC62" s="30"/>
+      <c r="AD62" s="30"/>
     </row>
     <row r="63" spans="1:30">
       <c r="A63" s="7">
@@ -5487,18 +5156,18 @@
       <c r="P63" s="8"/>
       <c r="Q63" s="8"/>
       <c r="R63" s="8"/>
-      <c r="S63" s="29"/>
+      <c r="S63" s="30"/>
       <c r="T63" s="8"/>
       <c r="U63" s="8"/>
-      <c r="V63" s="29"/>
-      <c r="W63" s="29"/>
-      <c r="X63" s="29"/>
-      <c r="Y63" s="29"/>
-      <c r="Z63" s="29"/>
-      <c r="AA63" s="29"/>
-      <c r="AB63" s="29"/>
-      <c r="AC63" s="29"/>
-      <c r="AD63" s="29"/>
+      <c r="V63" s="30"/>
+      <c r="W63" s="30"/>
+      <c r="X63" s="30"/>
+      <c r="Y63" s="30"/>
+      <c r="Z63" s="30"/>
+      <c r="AA63" s="30"/>
+      <c r="AB63" s="30"/>
+      <c r="AC63" s="30"/>
+      <c r="AD63" s="30"/>
     </row>
     <row r="64" spans="1:30">
       <c r="A64" s="7">
@@ -5521,18 +5190,18 @@
       <c r="P64" s="8"/>
       <c r="Q64" s="8"/>
       <c r="R64" s="8"/>
-      <c r="S64" s="29"/>
+      <c r="S64" s="30"/>
       <c r="T64" s="8"/>
       <c r="U64" s="8"/>
-      <c r="V64" s="29"/>
-      <c r="W64" s="29"/>
-      <c r="X64" s="29"/>
-      <c r="Y64" s="29"/>
-      <c r="Z64" s="29"/>
-      <c r="AA64" s="29"/>
-      <c r="AB64" s="29"/>
-      <c r="AC64" s="29"/>
-      <c r="AD64" s="29"/>
+      <c r="V64" s="30"/>
+      <c r="W64" s="30"/>
+      <c r="X64" s="30"/>
+      <c r="Y64" s="30"/>
+      <c r="Z64" s="30"/>
+      <c r="AA64" s="30"/>
+      <c r="AB64" s="30"/>
+      <c r="AC64" s="30"/>
+      <c r="AD64" s="30"/>
     </row>
     <row r="65" spans="1:30">
       <c r="A65" s="7">
@@ -5555,18 +5224,18 @@
       <c r="P65" s="8"/>
       <c r="Q65" s="8"/>
       <c r="R65" s="8"/>
-      <c r="S65" s="29"/>
+      <c r="S65" s="30"/>
       <c r="T65" s="8"/>
       <c r="U65" s="8"/>
-      <c r="V65" s="29"/>
-      <c r="W65" s="29"/>
-      <c r="X65" s="29"/>
-      <c r="Y65" s="29"/>
-      <c r="Z65" s="29"/>
-      <c r="AA65" s="29"/>
-      <c r="AB65" s="29"/>
-      <c r="AC65" s="29"/>
-      <c r="AD65" s="29"/>
+      <c r="V65" s="30"/>
+      <c r="W65" s="30"/>
+      <c r="X65" s="30"/>
+      <c r="Y65" s="30"/>
+      <c r="Z65" s="30"/>
+      <c r="AA65" s="30"/>
+      <c r="AB65" s="30"/>
+      <c r="AC65" s="30"/>
+      <c r="AD65" s="30"/>
     </row>
     <row r="66" spans="1:30">
       <c r="A66" s="7">
@@ -5589,18 +5258,18 @@
       <c r="P66" s="8"/>
       <c r="Q66" s="8"/>
       <c r="R66" s="8"/>
-      <c r="S66" s="29"/>
+      <c r="S66" s="30"/>
       <c r="T66" s="8"/>
       <c r="U66" s="8"/>
-      <c r="V66" s="29"/>
-      <c r="W66" s="29"/>
-      <c r="X66" s="29"/>
-      <c r="Y66" s="29"/>
-      <c r="Z66" s="29"/>
-      <c r="AA66" s="29"/>
-      <c r="AB66" s="29"/>
-      <c r="AC66" s="29"/>
-      <c r="AD66" s="29"/>
+      <c r="V66" s="30"/>
+      <c r="W66" s="30"/>
+      <c r="X66" s="30"/>
+      <c r="Y66" s="30"/>
+      <c r="Z66" s="30"/>
+      <c r="AA66" s="30"/>
+      <c r="AB66" s="30"/>
+      <c r="AC66" s="30"/>
+      <c r="AD66" s="30"/>
     </row>
     <row r="67" spans="1:30">
       <c r="A67" s="7">
@@ -5623,18 +5292,18 @@
       <c r="P67" s="8"/>
       <c r="Q67" s="8"/>
       <c r="R67" s="8"/>
-      <c r="S67" s="29"/>
+      <c r="S67" s="30"/>
       <c r="T67" s="8"/>
       <c r="U67" s="8"/>
-      <c r="V67" s="29"/>
-      <c r="W67" s="29"/>
-      <c r="X67" s="29"/>
-      <c r="Y67" s="29"/>
-      <c r="Z67" s="29"/>
-      <c r="AA67" s="29"/>
-      <c r="AB67" s="29"/>
-      <c r="AC67" s="29"/>
-      <c r="AD67" s="29"/>
+      <c r="V67" s="30"/>
+      <c r="W67" s="30"/>
+      <c r="X67" s="30"/>
+      <c r="Y67" s="30"/>
+      <c r="Z67" s="30"/>
+      <c r="AA67" s="30"/>
+      <c r="AB67" s="30"/>
+      <c r="AC67" s="30"/>
+      <c r="AD67" s="30"/>
     </row>
     <row r="68" spans="1:30">
       <c r="A68" s="7">
@@ -5657,18 +5326,18 @@
       <c r="P68" s="8"/>
       <c r="Q68" s="8"/>
       <c r="R68" s="8"/>
-      <c r="S68" s="29"/>
+      <c r="S68" s="30"/>
       <c r="T68" s="8"/>
       <c r="U68" s="8"/>
-      <c r="V68" s="29"/>
-      <c r="W68" s="29"/>
-      <c r="X68" s="29"/>
-      <c r="Y68" s="29"/>
-      <c r="Z68" s="29"/>
-      <c r="AA68" s="29"/>
-      <c r="AB68" s="29"/>
-      <c r="AC68" s="29"/>
-      <c r="AD68" s="29"/>
+      <c r="V68" s="30"/>
+      <c r="W68" s="30"/>
+      <c r="X68" s="30"/>
+      <c r="Y68" s="30"/>
+      <c r="Z68" s="30"/>
+      <c r="AA68" s="30"/>
+      <c r="AB68" s="30"/>
+      <c r="AC68" s="30"/>
+      <c r="AD68" s="30"/>
     </row>
     <row r="69" spans="1:30">
       <c r="A69" s="7">
@@ -5691,18 +5360,18 @@
       <c r="P69" s="8"/>
       <c r="Q69" s="8"/>
       <c r="R69" s="8"/>
-      <c r="S69" s="29"/>
+      <c r="S69" s="30"/>
       <c r="T69" s="8"/>
       <c r="U69" s="8"/>
-      <c r="V69" s="29"/>
-      <c r="W69" s="29"/>
-      <c r="X69" s="29"/>
-      <c r="Y69" s="29"/>
-      <c r="Z69" s="29"/>
-      <c r="AA69" s="29"/>
-      <c r="AB69" s="29"/>
-      <c r="AC69" s="29"/>
-      <c r="AD69" s="29"/>
+      <c r="V69" s="30"/>
+      <c r="W69" s="30"/>
+      <c r="X69" s="30"/>
+      <c r="Y69" s="30"/>
+      <c r="Z69" s="30"/>
+      <c r="AA69" s="30"/>
+      <c r="AB69" s="30"/>
+      <c r="AC69" s="30"/>
+      <c r="AD69" s="30"/>
     </row>
     <row r="70" spans="1:30">
       <c r="A70" s="7">
@@ -5725,18 +5394,18 @@
       <c r="P70" s="8"/>
       <c r="Q70" s="8"/>
       <c r="R70" s="8"/>
-      <c r="S70" s="29"/>
+      <c r="S70" s="30"/>
       <c r="T70" s="8"/>
       <c r="U70" s="8"/>
-      <c r="V70" s="29"/>
-      <c r="W70" s="29"/>
-      <c r="X70" s="29"/>
-      <c r="Y70" s="29"/>
-      <c r="Z70" s="29"/>
-      <c r="AA70" s="29"/>
-      <c r="AB70" s="29"/>
-      <c r="AC70" s="29"/>
-      <c r="AD70" s="29"/>
+      <c r="V70" s="30"/>
+      <c r="W70" s="30"/>
+      <c r="X70" s="30"/>
+      <c r="Y70" s="30"/>
+      <c r="Z70" s="30"/>
+      <c r="AA70" s="30"/>
+      <c r="AB70" s="30"/>
+      <c r="AC70" s="30"/>
+      <c r="AD70" s="30"/>
     </row>
     <row r="71" spans="1:30">
       <c r="A71" s="7">
@@ -5759,18 +5428,18 @@
       <c r="P71" s="8"/>
       <c r="Q71" s="8"/>
       <c r="R71" s="8"/>
-      <c r="S71" s="29"/>
+      <c r="S71" s="30"/>
       <c r="T71" s="8"/>
       <c r="U71" s="8"/>
-      <c r="V71" s="29"/>
-      <c r="W71" s="29"/>
-      <c r="X71" s="29"/>
-      <c r="Y71" s="29"/>
-      <c r="Z71" s="29"/>
-      <c r="AA71" s="29"/>
-      <c r="AB71" s="29"/>
-      <c r="AC71" s="29"/>
-      <c r="AD71" s="29"/>
+      <c r="V71" s="30"/>
+      <c r="W71" s="30"/>
+      <c r="X71" s="30"/>
+      <c r="Y71" s="30"/>
+      <c r="Z71" s="30"/>
+      <c r="AA71" s="30"/>
+      <c r="AB71" s="30"/>
+      <c r="AC71" s="30"/>
+      <c r="AD71" s="30"/>
     </row>
     <row r="72" spans="1:30">
       <c r="A72" s="7">
@@ -5793,18 +5462,18 @@
       <c r="P72" s="8"/>
       <c r="Q72" s="8"/>
       <c r="R72" s="8"/>
-      <c r="S72" s="29"/>
+      <c r="S72" s="30"/>
       <c r="T72" s="8"/>
       <c r="U72" s="8"/>
-      <c r="V72" s="29"/>
-      <c r="W72" s="29"/>
-      <c r="X72" s="29"/>
-      <c r="Y72" s="29"/>
-      <c r="Z72" s="29"/>
-      <c r="AA72" s="29"/>
-      <c r="AB72" s="29"/>
-      <c r="AC72" s="29"/>
-      <c r="AD72" s="29"/>
+      <c r="V72" s="30"/>
+      <c r="W72" s="30"/>
+      <c r="X72" s="30"/>
+      <c r="Y72" s="30"/>
+      <c r="Z72" s="30"/>
+      <c r="AA72" s="30"/>
+      <c r="AB72" s="30"/>
+      <c r="AC72" s="30"/>
+      <c r="AD72" s="30"/>
     </row>
     <row r="73" spans="1:30">
       <c r="A73" s="7">
@@ -5827,18 +5496,18 @@
       <c r="P73" s="8"/>
       <c r="Q73" s="8"/>
       <c r="R73" s="8"/>
-      <c r="S73" s="29"/>
+      <c r="S73" s="30"/>
       <c r="T73" s="8"/>
       <c r="U73" s="8"/>
-      <c r="V73" s="29"/>
-      <c r="W73" s="29"/>
-      <c r="X73" s="29"/>
-      <c r="Y73" s="29"/>
-      <c r="Z73" s="29"/>
-      <c r="AA73" s="29"/>
-      <c r="AB73" s="29"/>
-      <c r="AC73" s="29"/>
-      <c r="AD73" s="29"/>
+      <c r="V73" s="30"/>
+      <c r="W73" s="30"/>
+      <c r="X73" s="30"/>
+      <c r="Y73" s="30"/>
+      <c r="Z73" s="30"/>
+      <c r="AA73" s="30"/>
+      <c r="AB73" s="30"/>
+      <c r="AC73" s="30"/>
+      <c r="AD73" s="30"/>
     </row>
     <row r="74" spans="1:30">
       <c r="A74" s="7">
@@ -5861,18 +5530,18 @@
       <c r="P74" s="8"/>
       <c r="Q74" s="8"/>
       <c r="R74" s="8"/>
-      <c r="S74" s="29"/>
+      <c r="S74" s="30"/>
       <c r="T74" s="8"/>
       <c r="U74" s="8"/>
-      <c r="V74" s="29"/>
-      <c r="W74" s="29"/>
-      <c r="X74" s="29"/>
-      <c r="Y74" s="29"/>
-      <c r="Z74" s="29"/>
-      <c r="AA74" s="29"/>
-      <c r="AB74" s="29"/>
-      <c r="AC74" s="29"/>
-      <c r="AD74" s="29"/>
+      <c r="V74" s="30"/>
+      <c r="W74" s="30"/>
+      <c r="X74" s="30"/>
+      <c r="Y74" s="30"/>
+      <c r="Z74" s="30"/>
+      <c r="AA74" s="30"/>
+      <c r="AB74" s="30"/>
+      <c r="AC74" s="30"/>
+      <c r="AD74" s="30"/>
     </row>
     <row r="75" spans="1:30">
       <c r="A75" s="7">
@@ -5895,18 +5564,18 @@
       <c r="P75" s="8"/>
       <c r="Q75" s="8"/>
       <c r="R75" s="8"/>
-      <c r="S75" s="29"/>
+      <c r="S75" s="30"/>
       <c r="T75" s="8"/>
       <c r="U75" s="8"/>
-      <c r="V75" s="29"/>
-      <c r="W75" s="29"/>
-      <c r="X75" s="29"/>
-      <c r="Y75" s="29"/>
-      <c r="Z75" s="29"/>
-      <c r="AA75" s="29"/>
-      <c r="AB75" s="29"/>
-      <c r="AC75" s="29"/>
-      <c r="AD75" s="29"/>
+      <c r="V75" s="30"/>
+      <c r="W75" s="30"/>
+      <c r="X75" s="30"/>
+      <c r="Y75" s="30"/>
+      <c r="Z75" s="30"/>
+      <c r="AA75" s="30"/>
+      <c r="AB75" s="30"/>
+      <c r="AC75" s="30"/>
+      <c r="AD75" s="30"/>
     </row>
     <row r="76" spans="1:30">
       <c r="A76" s="7">
@@ -5929,18 +5598,18 @@
       <c r="P76" s="8"/>
       <c r="Q76" s="8"/>
       <c r="R76" s="8"/>
-      <c r="S76" s="29"/>
+      <c r="S76" s="30"/>
       <c r="T76" s="8"/>
       <c r="U76" s="8"/>
-      <c r="V76" s="29"/>
-      <c r="W76" s="29"/>
-      <c r="X76" s="29"/>
-      <c r="Y76" s="29"/>
-      <c r="Z76" s="29"/>
-      <c r="AA76" s="29"/>
-      <c r="AB76" s="29"/>
-      <c r="AC76" s="29"/>
-      <c r="AD76" s="29"/>
+      <c r="V76" s="30"/>
+      <c r="W76" s="30"/>
+      <c r="X76" s="30"/>
+      <c r="Y76" s="30"/>
+      <c r="Z76" s="30"/>
+      <c r="AA76" s="30"/>
+      <c r="AB76" s="30"/>
+      <c r="AC76" s="30"/>
+      <c r="AD76" s="30"/>
     </row>
     <row r="77" spans="1:30">
       <c r="A77" s="7">
@@ -5963,18 +5632,18 @@
       <c r="P77" s="8"/>
       <c r="Q77" s="8"/>
       <c r="R77" s="8"/>
-      <c r="S77" s="29"/>
+      <c r="S77" s="30"/>
       <c r="T77" s="8"/>
       <c r="U77" s="8"/>
-      <c r="V77" s="29"/>
-      <c r="W77" s="29"/>
-      <c r="X77" s="29"/>
-      <c r="Y77" s="29"/>
-      <c r="Z77" s="29"/>
-      <c r="AA77" s="29"/>
-      <c r="AB77" s="29"/>
-      <c r="AC77" s="29"/>
-      <c r="AD77" s="29"/>
+      <c r="V77" s="30"/>
+      <c r="W77" s="30"/>
+      <c r="X77" s="30"/>
+      <c r="Y77" s="30"/>
+      <c r="Z77" s="30"/>
+      <c r="AA77" s="30"/>
+      <c r="AB77" s="30"/>
+      <c r="AC77" s="30"/>
+      <c r="AD77" s="30"/>
     </row>
     <row r="78" spans="1:30">
       <c r="A78" s="7">
@@ -5997,18 +5666,18 @@
       <c r="P78" s="8"/>
       <c r="Q78" s="8"/>
       <c r="R78" s="8"/>
-      <c r="S78" s="29"/>
+      <c r="S78" s="30"/>
       <c r="T78" s="8"/>
       <c r="U78" s="8"/>
-      <c r="V78" s="29"/>
-      <c r="W78" s="29"/>
-      <c r="X78" s="29"/>
-      <c r="Y78" s="29"/>
-      <c r="Z78" s="29"/>
-      <c r="AA78" s="29"/>
-      <c r="AB78" s="29"/>
-      <c r="AC78" s="29"/>
-      <c r="AD78" s="29"/>
+      <c r="V78" s="30"/>
+      <c r="W78" s="30"/>
+      <c r="X78" s="30"/>
+      <c r="Y78" s="30"/>
+      <c r="Z78" s="30"/>
+      <c r="AA78" s="30"/>
+      <c r="AB78" s="30"/>
+      <c r="AC78" s="30"/>
+      <c r="AD78" s="30"/>
     </row>
     <row r="79" spans="1:30">
       <c r="A79" s="7">
@@ -6031,18 +5700,18 @@
       <c r="P79" s="8"/>
       <c r="Q79" s="8"/>
       <c r="R79" s="8"/>
-      <c r="S79" s="29"/>
+      <c r="S79" s="30"/>
       <c r="T79" s="8"/>
       <c r="U79" s="8"/>
-      <c r="V79" s="29"/>
-      <c r="W79" s="29"/>
-      <c r="X79" s="29"/>
-      <c r="Y79" s="29"/>
-      <c r="Z79" s="29"/>
-      <c r="AA79" s="29"/>
-      <c r="AB79" s="29"/>
-      <c r="AC79" s="29"/>
-      <c r="AD79" s="29"/>
+      <c r="V79" s="30"/>
+      <c r="W79" s="30"/>
+      <c r="X79" s="30"/>
+      <c r="Y79" s="30"/>
+      <c r="Z79" s="30"/>
+      <c r="AA79" s="30"/>
+      <c r="AB79" s="30"/>
+      <c r="AC79" s="30"/>
+      <c r="AD79" s="30"/>
     </row>
     <row r="80" spans="1:30">
       <c r="A80" s="7">
@@ -6065,18 +5734,18 @@
       <c r="P80" s="8"/>
       <c r="Q80" s="8"/>
       <c r="R80" s="8"/>
-      <c r="S80" s="29"/>
+      <c r="S80" s="30"/>
       <c r="T80" s="8"/>
       <c r="U80" s="8"/>
-      <c r="V80" s="29"/>
-      <c r="W80" s="29"/>
-      <c r="X80" s="29"/>
-      <c r="Y80" s="29"/>
-      <c r="Z80" s="29"/>
-      <c r="AA80" s="29"/>
-      <c r="AB80" s="29"/>
-      <c r="AC80" s="29"/>
-      <c r="AD80" s="29"/>
+      <c r="V80" s="30"/>
+      <c r="W80" s="30"/>
+      <c r="X80" s="30"/>
+      <c r="Y80" s="30"/>
+      <c r="Z80" s="30"/>
+      <c r="AA80" s="30"/>
+      <c r="AB80" s="30"/>
+      <c r="AC80" s="30"/>
+      <c r="AD80" s="30"/>
     </row>
     <row r="81" spans="1:30">
       <c r="A81" s="7">
@@ -6099,18 +5768,18 @@
       <c r="P81" s="8"/>
       <c r="Q81" s="8"/>
       <c r="R81" s="8"/>
-      <c r="S81" s="29"/>
+      <c r="S81" s="30"/>
       <c r="T81" s="8"/>
       <c r="U81" s="8"/>
-      <c r="V81" s="29"/>
-      <c r="W81" s="29"/>
-      <c r="X81" s="29"/>
-      <c r="Y81" s="29"/>
-      <c r="Z81" s="29"/>
-      <c r="AA81" s="29"/>
-      <c r="AB81" s="29"/>
-      <c r="AC81" s="29"/>
-      <c r="AD81" s="29"/>
+      <c r="V81" s="30"/>
+      <c r="W81" s="30"/>
+      <c r="X81" s="30"/>
+      <c r="Y81" s="30"/>
+      <c r="Z81" s="30"/>
+      <c r="AA81" s="30"/>
+      <c r="AB81" s="30"/>
+      <c r="AC81" s="30"/>
+      <c r="AD81" s="30"/>
     </row>
     <row r="82" spans="1:30">
       <c r="A82" s="7">
@@ -6133,18 +5802,18 @@
       <c r="P82" s="8"/>
       <c r="Q82" s="8"/>
       <c r="R82" s="8"/>
-      <c r="S82" s="29"/>
+      <c r="S82" s="30"/>
       <c r="T82" s="8"/>
       <c r="U82" s="8"/>
-      <c r="V82" s="29"/>
-      <c r="W82" s="29"/>
-      <c r="X82" s="29"/>
-      <c r="Y82" s="29"/>
-      <c r="Z82" s="29"/>
-      <c r="AA82" s="29"/>
-      <c r="AB82" s="29"/>
-      <c r="AC82" s="29"/>
-      <c r="AD82" s="29"/>
+      <c r="V82" s="30"/>
+      <c r="W82" s="30"/>
+      <c r="X82" s="30"/>
+      <c r="Y82" s="30"/>
+      <c r="Z82" s="30"/>
+      <c r="AA82" s="30"/>
+      <c r="AB82" s="30"/>
+      <c r="AC82" s="30"/>
+      <c r="AD82" s="30"/>
     </row>
     <row r="83" spans="1:30">
       <c r="A83" s="7">
@@ -6167,18 +5836,18 @@
       <c r="P83" s="8"/>
       <c r="Q83" s="8"/>
       <c r="R83" s="8"/>
-      <c r="S83" s="29"/>
+      <c r="S83" s="30"/>
       <c r="T83" s="8"/>
       <c r="U83" s="8"/>
-      <c r="V83" s="29"/>
-      <c r="W83" s="29"/>
-      <c r="X83" s="29"/>
-      <c r="Y83" s="29"/>
-      <c r="Z83" s="29"/>
-      <c r="AA83" s="29"/>
-      <c r="AB83" s="29"/>
-      <c r="AC83" s="29"/>
-      <c r="AD83" s="29"/>
+      <c r="V83" s="30"/>
+      <c r="W83" s="30"/>
+      <c r="X83" s="30"/>
+      <c r="Y83" s="30"/>
+      <c r="Z83" s="30"/>
+      <c r="AA83" s="30"/>
+      <c r="AB83" s="30"/>
+      <c r="AC83" s="30"/>
+      <c r="AD83" s="30"/>
     </row>
     <row r="84" spans="1:30">
       <c r="A84" s="7">
@@ -6201,18 +5870,18 @@
       <c r="P84" s="8"/>
       <c r="Q84" s="8"/>
       <c r="R84" s="8"/>
-      <c r="S84" s="29"/>
+      <c r="S84" s="30"/>
       <c r="T84" s="8"/>
       <c r="U84" s="8"/>
-      <c r="V84" s="29"/>
-      <c r="W84" s="29"/>
-      <c r="X84" s="29"/>
-      <c r="Y84" s="29"/>
-      <c r="Z84" s="29"/>
-      <c r="AA84" s="29"/>
-      <c r="AB84" s="29"/>
-      <c r="AC84" s="29"/>
-      <c r="AD84" s="29"/>
+      <c r="V84" s="30"/>
+      <c r="W84" s="30"/>
+      <c r="X84" s="30"/>
+      <c r="Y84" s="30"/>
+      <c r="Z84" s="30"/>
+      <c r="AA84" s="30"/>
+      <c r="AB84" s="30"/>
+      <c r="AC84" s="30"/>
+      <c r="AD84" s="30"/>
     </row>
     <row r="85" spans="1:30">
       <c r="A85" s="7">
@@ -6235,18 +5904,18 @@
       <c r="P85" s="8"/>
       <c r="Q85" s="8"/>
       <c r="R85" s="8"/>
-      <c r="S85" s="29"/>
+      <c r="S85" s="30"/>
       <c r="T85" s="8"/>
       <c r="U85" s="8"/>
-      <c r="V85" s="29"/>
-      <c r="W85" s="29"/>
-      <c r="X85" s="29"/>
-      <c r="Y85" s="29"/>
-      <c r="Z85" s="29"/>
-      <c r="AA85" s="29"/>
-      <c r="AB85" s="29"/>
-      <c r="AC85" s="29"/>
-      <c r="AD85" s="29"/>
+      <c r="V85" s="30"/>
+      <c r="W85" s="30"/>
+      <c r="X85" s="30"/>
+      <c r="Y85" s="30"/>
+      <c r="Z85" s="30"/>
+      <c r="AA85" s="30"/>
+      <c r="AB85" s="30"/>
+      <c r="AC85" s="30"/>
+      <c r="AD85" s="30"/>
     </row>
     <row r="86" spans="1:30">
       <c r="A86" s="7">
@@ -6269,18 +5938,18 @@
       <c r="P86" s="8"/>
       <c r="Q86" s="8"/>
       <c r="R86" s="8"/>
-      <c r="S86" s="29"/>
+      <c r="S86" s="30"/>
       <c r="T86" s="8"/>
       <c r="U86" s="8"/>
-      <c r="V86" s="29"/>
-      <c r="W86" s="29"/>
-      <c r="X86" s="29"/>
-      <c r="Y86" s="29"/>
-      <c r="Z86" s="29"/>
-      <c r="AA86" s="29"/>
-      <c r="AB86" s="29"/>
-      <c r="AC86" s="29"/>
-      <c r="AD86" s="29"/>
+      <c r="V86" s="30"/>
+      <c r="W86" s="30"/>
+      <c r="X86" s="30"/>
+      <c r="Y86" s="30"/>
+      <c r="Z86" s="30"/>
+      <c r="AA86" s="30"/>
+      <c r="AB86" s="30"/>
+      <c r="AC86" s="30"/>
+      <c r="AD86" s="30"/>
     </row>
     <row r="87" spans="1:30">
       <c r="A87" s="7">
@@ -6303,18 +5972,18 @@
       <c r="P87" s="8"/>
       <c r="Q87" s="8"/>
       <c r="R87" s="8"/>
-      <c r="S87" s="29"/>
+      <c r="S87" s="30"/>
       <c r="T87" s="8"/>
       <c r="U87" s="8"/>
-      <c r="V87" s="29"/>
-      <c r="W87" s="29"/>
-      <c r="X87" s="29"/>
-      <c r="Y87" s="29"/>
-      <c r="Z87" s="29"/>
-      <c r="AA87" s="29"/>
-      <c r="AB87" s="29"/>
-      <c r="AC87" s="29"/>
-      <c r="AD87" s="29"/>
+      <c r="V87" s="30"/>
+      <c r="W87" s="30"/>
+      <c r="X87" s="30"/>
+      <c r="Y87" s="30"/>
+      <c r="Z87" s="30"/>
+      <c r="AA87" s="30"/>
+      <c r="AB87" s="30"/>
+      <c r="AC87" s="30"/>
+      <c r="AD87" s="30"/>
     </row>
     <row r="88" spans="1:30">
       <c r="A88" s="7">
@@ -6337,18 +6006,18 @@
       <c r="P88" s="8"/>
       <c r="Q88" s="8"/>
       <c r="R88" s="8"/>
-      <c r="S88" s="29"/>
+      <c r="S88" s="30"/>
       <c r="T88" s="8"/>
       <c r="U88" s="8"/>
-      <c r="V88" s="29"/>
-      <c r="W88" s="29"/>
-      <c r="X88" s="29"/>
-      <c r="Y88" s="29"/>
-      <c r="Z88" s="29"/>
-      <c r="AA88" s="29"/>
-      <c r="AB88" s="29"/>
-      <c r="AC88" s="29"/>
-      <c r="AD88" s="29"/>
+      <c r="V88" s="30"/>
+      <c r="W88" s="30"/>
+      <c r="X88" s="30"/>
+      <c r="Y88" s="30"/>
+      <c r="Z88" s="30"/>
+      <c r="AA88" s="30"/>
+      <c r="AB88" s="30"/>
+      <c r="AC88" s="30"/>
+      <c r="AD88" s="30"/>
     </row>
     <row r="89" spans="1:30">
       <c r="A89" s="7">
@@ -6371,18 +6040,18 @@
       <c r="P89" s="8"/>
       <c r="Q89" s="8"/>
       <c r="R89" s="8"/>
-      <c r="S89" s="29"/>
+      <c r="S89" s="30"/>
       <c r="T89" s="8"/>
       <c r="U89" s="8"/>
-      <c r="V89" s="29"/>
-      <c r="W89" s="29"/>
-      <c r="X89" s="29"/>
-      <c r="Y89" s="29"/>
-      <c r="Z89" s="29"/>
-      <c r="AA89" s="29"/>
-      <c r="AB89" s="29"/>
-      <c r="AC89" s="29"/>
-      <c r="AD89" s="29"/>
+      <c r="V89" s="30"/>
+      <c r="W89" s="30"/>
+      <c r="X89" s="30"/>
+      <c r="Y89" s="30"/>
+      <c r="Z89" s="30"/>
+      <c r="AA89" s="30"/>
+      <c r="AB89" s="30"/>
+      <c r="AC89" s="30"/>
+      <c r="AD89" s="30"/>
     </row>
     <row r="90" spans="1:30">
       <c r="A90" s="7">
@@ -6405,18 +6074,18 @@
       <c r="P90" s="8"/>
       <c r="Q90" s="8"/>
       <c r="R90" s="8"/>
-      <c r="S90" s="29"/>
+      <c r="S90" s="30"/>
       <c r="T90" s="8"/>
       <c r="U90" s="8"/>
-      <c r="V90" s="29"/>
-      <c r="W90" s="29"/>
-      <c r="X90" s="29"/>
-      <c r="Y90" s="29"/>
-      <c r="Z90" s="29"/>
-      <c r="AA90" s="29"/>
-      <c r="AB90" s="29"/>
-      <c r="AC90" s="29"/>
-      <c r="AD90" s="29"/>
+      <c r="V90" s="30"/>
+      <c r="W90" s="30"/>
+      <c r="X90" s="30"/>
+      <c r="Y90" s="30"/>
+      <c r="Z90" s="30"/>
+      <c r="AA90" s="30"/>
+      <c r="AB90" s="30"/>
+      <c r="AC90" s="30"/>
+      <c r="AD90" s="30"/>
     </row>
     <row r="91" spans="1:30">
       <c r="A91" s="7">
@@ -6439,18 +6108,18 @@
       <c r="P91" s="8"/>
       <c r="Q91" s="8"/>
       <c r="R91" s="8"/>
-      <c r="S91" s="29"/>
+      <c r="S91" s="30"/>
       <c r="T91" s="8"/>
       <c r="U91" s="8"/>
-      <c r="V91" s="29"/>
-      <c r="W91" s="29"/>
-      <c r="X91" s="29"/>
-      <c r="Y91" s="29"/>
-      <c r="Z91" s="29"/>
-      <c r="AA91" s="29"/>
-      <c r="AB91" s="29"/>
-      <c r="AC91" s="29"/>
-      <c r="AD91" s="29"/>
+      <c r="V91" s="30"/>
+      <c r="W91" s="30"/>
+      <c r="X91" s="30"/>
+      <c r="Y91" s="30"/>
+      <c r="Z91" s="30"/>
+      <c r="AA91" s="30"/>
+      <c r="AB91" s="30"/>
+      <c r="AC91" s="30"/>
+      <c r="AD91" s="30"/>
     </row>
     <row r="92" spans="1:30">
       <c r="A92" s="7">
@@ -6473,18 +6142,18 @@
       <c r="P92" s="8"/>
       <c r="Q92" s="8"/>
       <c r="R92" s="8"/>
-      <c r="S92" s="29"/>
+      <c r="S92" s="30"/>
       <c r="T92" s="8"/>
       <c r="U92" s="8"/>
-      <c r="V92" s="29"/>
-      <c r="W92" s="29"/>
-      <c r="X92" s="29"/>
-      <c r="Y92" s="29"/>
-      <c r="Z92" s="29"/>
-      <c r="AA92" s="29"/>
-      <c r="AB92" s="29"/>
-      <c r="AC92" s="29"/>
-      <c r="AD92" s="29"/>
+      <c r="V92" s="30"/>
+      <c r="W92" s="30"/>
+      <c r="X92" s="30"/>
+      <c r="Y92" s="30"/>
+      <c r="Z92" s="30"/>
+      <c r="AA92" s="30"/>
+      <c r="AB92" s="30"/>
+      <c r="AC92" s="30"/>
+      <c r="AD92" s="30"/>
     </row>
     <row r="93" spans="1:30">
       <c r="A93" s="7">
@@ -6507,18 +6176,18 @@
       <c r="P93" s="8"/>
       <c r="Q93" s="8"/>
       <c r="R93" s="8"/>
-      <c r="S93" s="29"/>
+      <c r="S93" s="30"/>
       <c r="T93" s="8"/>
       <c r="U93" s="8"/>
-      <c r="V93" s="29"/>
-      <c r="W93" s="29"/>
-      <c r="X93" s="29"/>
-      <c r="Y93" s="29"/>
-      <c r="Z93" s="29"/>
-      <c r="AA93" s="29"/>
-      <c r="AB93" s="29"/>
-      <c r="AC93" s="29"/>
-      <c r="AD93" s="29"/>
+      <c r="V93" s="30"/>
+      <c r="W93" s="30"/>
+      <c r="X93" s="30"/>
+      <c r="Y93" s="30"/>
+      <c r="Z93" s="30"/>
+      <c r="AA93" s="30"/>
+      <c r="AB93" s="30"/>
+      <c r="AC93" s="30"/>
+      <c r="AD93" s="30"/>
     </row>
     <row r="94" spans="1:30">
       <c r="A94" s="7">
@@ -6541,18 +6210,18 @@
       <c r="P94" s="8"/>
       <c r="Q94" s="8"/>
       <c r="R94" s="8"/>
-      <c r="S94" s="29"/>
+      <c r="S94" s="30"/>
       <c r="T94" s="8"/>
       <c r="U94" s="8"/>
-      <c r="V94" s="29"/>
-      <c r="W94" s="29"/>
-      <c r="X94" s="29"/>
-      <c r="Y94" s="29"/>
-      <c r="Z94" s="29"/>
-      <c r="AA94" s="29"/>
-      <c r="AB94" s="29"/>
-      <c r="AC94" s="29"/>
-      <c r="AD94" s="29"/>
+      <c r="V94" s="30"/>
+      <c r="W94" s="30"/>
+      <c r="X94" s="30"/>
+      <c r="Y94" s="30"/>
+      <c r="Z94" s="30"/>
+      <c r="AA94" s="30"/>
+      <c r="AB94" s="30"/>
+      <c r="AC94" s="30"/>
+      <c r="AD94" s="30"/>
     </row>
     <row r="95" spans="1:30">
       <c r="A95" s="7">
@@ -6575,18 +6244,18 @@
       <c r="P95" s="8"/>
       <c r="Q95" s="8"/>
       <c r="R95" s="8"/>
-      <c r="S95" s="29"/>
+      <c r="S95" s="30"/>
       <c r="T95" s="8"/>
       <c r="U95" s="8"/>
-      <c r="V95" s="29"/>
-      <c r="W95" s="29"/>
-      <c r="X95" s="29"/>
-      <c r="Y95" s="29"/>
-      <c r="Z95" s="29"/>
-      <c r="AA95" s="29"/>
-      <c r="AB95" s="29"/>
-      <c r="AC95" s="29"/>
-      <c r="AD95" s="29"/>
+      <c r="V95" s="30"/>
+      <c r="W95" s="30"/>
+      <c r="X95" s="30"/>
+      <c r="Y95" s="30"/>
+      <c r="Z95" s="30"/>
+      <c r="AA95" s="30"/>
+      <c r="AB95" s="30"/>
+      <c r="AC95" s="30"/>
+      <c r="AD95" s="30"/>
     </row>
     <row r="96" spans="1:30">
       <c r="A96" s="7">
@@ -6609,18 +6278,18 @@
       <c r="P96" s="8"/>
       <c r="Q96" s="8"/>
       <c r="R96" s="8"/>
-      <c r="S96" s="29"/>
+      <c r="S96" s="30"/>
       <c r="T96" s="8"/>
       <c r="U96" s="8"/>
-      <c r="V96" s="29"/>
-      <c r="W96" s="29"/>
-      <c r="X96" s="29"/>
-      <c r="Y96" s="29"/>
-      <c r="Z96" s="29"/>
-      <c r="AA96" s="29"/>
-      <c r="AB96" s="29"/>
-      <c r="AC96" s="29"/>
-      <c r="AD96" s="29"/>
+      <c r="V96" s="30"/>
+      <c r="W96" s="30"/>
+      <c r="X96" s="30"/>
+      <c r="Y96" s="30"/>
+      <c r="Z96" s="30"/>
+      <c r="AA96" s="30"/>
+      <c r="AB96" s="30"/>
+      <c r="AC96" s="30"/>
+      <c r="AD96" s="30"/>
     </row>
     <row r="97" spans="1:30">
       <c r="A97" s="7">
@@ -6643,18 +6312,18 @@
       <c r="P97" s="8"/>
       <c r="Q97" s="8"/>
       <c r="R97" s="8"/>
-      <c r="S97" s="29"/>
+      <c r="S97" s="30"/>
       <c r="T97" s="8"/>
       <c r="U97" s="8"/>
-      <c r="V97" s="29"/>
-      <c r="W97" s="29"/>
-      <c r="X97" s="29"/>
-      <c r="Y97" s="29"/>
-      <c r="Z97" s="29"/>
-      <c r="AA97" s="29"/>
-      <c r="AB97" s="29"/>
-      <c r="AC97" s="29"/>
-      <c r="AD97" s="29"/>
+      <c r="V97" s="30"/>
+      <c r="W97" s="30"/>
+      <c r="X97" s="30"/>
+      <c r="Y97" s="30"/>
+      <c r="Z97" s="30"/>
+      <c r="AA97" s="30"/>
+      <c r="AB97" s="30"/>
+      <c r="AC97" s="30"/>
+      <c r="AD97" s="30"/>
     </row>
     <row r="98" spans="1:30">
       <c r="A98" s="7">
@@ -6677,18 +6346,18 @@
       <c r="P98" s="8"/>
       <c r="Q98" s="8"/>
       <c r="R98" s="8"/>
-      <c r="S98" s="29"/>
+      <c r="S98" s="30"/>
       <c r="T98" s="8"/>
       <c r="U98" s="8"/>
-      <c r="V98" s="29"/>
-      <c r="W98" s="29"/>
-      <c r="X98" s="29"/>
-      <c r="Y98" s="29"/>
-      <c r="Z98" s="29"/>
-      <c r="AA98" s="29"/>
-      <c r="AB98" s="29"/>
-      <c r="AC98" s="29"/>
-      <c r="AD98" s="29"/>
+      <c r="V98" s="30"/>
+      <c r="W98" s="30"/>
+      <c r="X98" s="30"/>
+      <c r="Y98" s="30"/>
+      <c r="Z98" s="30"/>
+      <c r="AA98" s="30"/>
+      <c r="AB98" s="30"/>
+      <c r="AC98" s="30"/>
+      <c r="AD98" s="30"/>
     </row>
     <row r="99" spans="1:30">
       <c r="A99" s="7">
@@ -6711,18 +6380,18 @@
       <c r="P99" s="8"/>
       <c r="Q99" s="8"/>
       <c r="R99" s="8"/>
-      <c r="S99" s="29"/>
+      <c r="S99" s="30"/>
       <c r="T99" s="8"/>
       <c r="U99" s="8"/>
-      <c r="V99" s="29"/>
-      <c r="W99" s="29"/>
-      <c r="X99" s="29"/>
-      <c r="Y99" s="29"/>
-      <c r="Z99" s="29"/>
-      <c r="AA99" s="29"/>
-      <c r="AB99" s="29"/>
-      <c r="AC99" s="29"/>
-      <c r="AD99" s="29"/>
+      <c r="V99" s="30"/>
+      <c r="W99" s="30"/>
+      <c r="X99" s="30"/>
+      <c r="Y99" s="30"/>
+      <c r="Z99" s="30"/>
+      <c r="AA99" s="30"/>
+      <c r="AB99" s="30"/>
+      <c r="AC99" s="30"/>
+      <c r="AD99" s="30"/>
     </row>
     <row r="100" spans="1:30">
       <c r="A100" s="7">
@@ -6745,18 +6414,18 @@
       <c r="P100" s="8"/>
       <c r="Q100" s="8"/>
       <c r="R100" s="8"/>
-      <c r="S100" s="29"/>
+      <c r="S100" s="30"/>
       <c r="T100" s="8"/>
       <c r="U100" s="8"/>
-      <c r="V100" s="29"/>
-      <c r="W100" s="29"/>
-      <c r="X100" s="29"/>
-      <c r="Y100" s="29"/>
-      <c r="Z100" s="29"/>
-      <c r="AA100" s="29"/>
-      <c r="AB100" s="29"/>
-      <c r="AC100" s="29"/>
-      <c r="AD100" s="29"/>
+      <c r="V100" s="30"/>
+      <c r="W100" s="30"/>
+      <c r="X100" s="30"/>
+      <c r="Y100" s="30"/>
+      <c r="Z100" s="30"/>
+      <c r="AA100" s="30"/>
+      <c r="AB100" s="30"/>
+      <c r="AC100" s="30"/>
+      <c r="AD100" s="30"/>
     </row>
     <row r="101" spans="1:30">
       <c r="A101" s="7">
@@ -6779,18 +6448,18 @@
       <c r="P101" s="8"/>
       <c r="Q101" s="8"/>
       <c r="R101" s="8"/>
-      <c r="S101" s="29"/>
+      <c r="S101" s="30"/>
       <c r="T101" s="8"/>
       <c r="U101" s="8"/>
-      <c r="V101" s="29"/>
-      <c r="W101" s="29"/>
-      <c r="X101" s="29"/>
-      <c r="Y101" s="29"/>
-      <c r="Z101" s="29"/>
-      <c r="AA101" s="29"/>
-      <c r="AB101" s="29"/>
-      <c r="AC101" s="29"/>
-      <c r="AD101" s="29"/>
+      <c r="V101" s="30"/>
+      <c r="W101" s="30"/>
+      <c r="X101" s="30"/>
+      <c r="Y101" s="30"/>
+      <c r="Z101" s="30"/>
+      <c r="AA101" s="30"/>
+      <c r="AB101" s="30"/>
+      <c r="AC101" s="30"/>
+      <c r="AD101" s="30"/>
     </row>
     <row r="102" spans="1:30">
       <c r="A102" s="7">
@@ -6813,18 +6482,18 @@
       <c r="P102" s="8"/>
       <c r="Q102" s="8"/>
       <c r="R102" s="8"/>
-      <c r="S102" s="29"/>
+      <c r="S102" s="30"/>
       <c r="T102" s="8"/>
       <c r="U102" s="8"/>
-      <c r="V102" s="29"/>
-      <c r="W102" s="29"/>
-      <c r="X102" s="29"/>
-      <c r="Y102" s="29"/>
-      <c r="Z102" s="29"/>
-      <c r="AA102" s="29"/>
-      <c r="AB102" s="29"/>
-      <c r="AC102" s="29"/>
-      <c r="AD102" s="29"/>
+      <c r="V102" s="30"/>
+      <c r="W102" s="30"/>
+      <c r="X102" s="30"/>
+      <c r="Y102" s="30"/>
+      <c r="Z102" s="30"/>
+      <c r="AA102" s="30"/>
+      <c r="AB102" s="30"/>
+      <c r="AC102" s="30"/>
+      <c r="AD102" s="30"/>
     </row>
     <row r="103" spans="1:30">
       <c r="A103" s="7">
@@ -6847,18 +6516,18 @@
       <c r="P103" s="8"/>
       <c r="Q103" s="8"/>
       <c r="R103" s="8"/>
-      <c r="S103" s="29"/>
+      <c r="S103" s="30"/>
       <c r="T103" s="8"/>
       <c r="U103" s="8"/>
-      <c r="V103" s="29"/>
-      <c r="W103" s="29"/>
-      <c r="X103" s="29"/>
-      <c r="Y103" s="29"/>
-      <c r="Z103" s="29"/>
-      <c r="AA103" s="29"/>
-      <c r="AB103" s="29"/>
-      <c r="AC103" s="29"/>
-      <c r="AD103" s="29"/>
+      <c r="V103" s="30"/>
+      <c r="W103" s="30"/>
+      <c r="X103" s="30"/>
+      <c r="Y103" s="30"/>
+      <c r="Z103" s="30"/>
+      <c r="AA103" s="30"/>
+      <c r="AB103" s="30"/>
+      <c r="AC103" s="30"/>
+      <c r="AD103" s="30"/>
     </row>
     <row r="104" spans="1:30">
       <c r="A104" s="7">
@@ -6881,18 +6550,18 @@
       <c r="P104" s="8"/>
       <c r="Q104" s="8"/>
       <c r="R104" s="8"/>
-      <c r="S104" s="29"/>
+      <c r="S104" s="30"/>
       <c r="T104" s="8"/>
       <c r="U104" s="8"/>
-      <c r="V104" s="29"/>
-      <c r="W104" s="29"/>
-      <c r="X104" s="29"/>
-      <c r="Y104" s="29"/>
-      <c r="Z104" s="29"/>
-      <c r="AA104" s="29"/>
-      <c r="AB104" s="29"/>
-      <c r="AC104" s="29"/>
-      <c r="AD104" s="29"/>
+      <c r="V104" s="30"/>
+      <c r="W104" s="30"/>
+      <c r="X104" s="30"/>
+      <c r="Y104" s="30"/>
+      <c r="Z104" s="30"/>
+      <c r="AA104" s="30"/>
+      <c r="AB104" s="30"/>
+      <c r="AC104" s="30"/>
+      <c r="AD104" s="30"/>
     </row>
     <row r="105" spans="1:30">
       <c r="A105" s="7">
@@ -6915,18 +6584,18 @@
       <c r="P105" s="8"/>
       <c r="Q105" s="8"/>
       <c r="R105" s="8"/>
-      <c r="S105" s="29"/>
+      <c r="S105" s="30"/>
       <c r="T105" s="8"/>
       <c r="U105" s="8"/>
-      <c r="V105" s="29"/>
-      <c r="W105" s="29"/>
-      <c r="X105" s="29"/>
-      <c r="Y105" s="29"/>
-      <c r="Z105" s="29"/>
-      <c r="AA105" s="29"/>
-      <c r="AB105" s="29"/>
-      <c r="AC105" s="29"/>
-      <c r="AD105" s="29"/>
+      <c r="V105" s="30"/>
+      <c r="W105" s="30"/>
+      <c r="X105" s="30"/>
+      <c r="Y105" s="30"/>
+      <c r="Z105" s="30"/>
+      <c r="AA105" s="30"/>
+      <c r="AB105" s="30"/>
+      <c r="AC105" s="30"/>
+      <c r="AD105" s="30"/>
     </row>
     <row r="106" spans="1:30">
       <c r="A106" s="7">
@@ -6949,18 +6618,18 @@
       <c r="P106" s="8"/>
       <c r="Q106" s="8"/>
       <c r="R106" s="8"/>
-      <c r="S106" s="29"/>
+      <c r="S106" s="30"/>
       <c r="T106" s="8"/>
       <c r="U106" s="8"/>
-      <c r="V106" s="29"/>
-      <c r="W106" s="29"/>
-      <c r="X106" s="29"/>
-      <c r="Y106" s="29"/>
-      <c r="Z106" s="29"/>
-      <c r="AA106" s="29"/>
-      <c r="AB106" s="29"/>
-      <c r="AC106" s="29"/>
-      <c r="AD106" s="29"/>
+      <c r="V106" s="30"/>
+      <c r="W106" s="30"/>
+      <c r="X106" s="30"/>
+      <c r="Y106" s="30"/>
+      <c r="Z106" s="30"/>
+      <c r="AA106" s="30"/>
+      <c r="AB106" s="30"/>
+      <c r="AC106" s="30"/>
+      <c r="AD106" s="30"/>
     </row>
     <row r="107" spans="1:30">
       <c r="A107" s="7">
@@ -6983,18 +6652,18 @@
       <c r="P107" s="8"/>
       <c r="Q107" s="8"/>
       <c r="R107" s="8"/>
-      <c r="S107" s="29"/>
+      <c r="S107" s="30"/>
       <c r="T107" s="8"/>
       <c r="U107" s="8"/>
-      <c r="V107" s="29"/>
-      <c r="W107" s="29"/>
-      <c r="X107" s="29"/>
-      <c r="Y107" s="29"/>
-      <c r="Z107" s="29"/>
-      <c r="AA107" s="29"/>
-      <c r="AB107" s="29"/>
-      <c r="AC107" s="29"/>
-      <c r="AD107" s="29"/>
+      <c r="V107" s="30"/>
+      <c r="W107" s="30"/>
+      <c r="X107" s="30"/>
+      <c r="Y107" s="30"/>
+      <c r="Z107" s="30"/>
+      <c r="AA107" s="30"/>
+      <c r="AB107" s="30"/>
+      <c r="AC107" s="30"/>
+      <c r="AD107" s="30"/>
     </row>
     <row r="108" spans="1:30">
       <c r="A108" s="7">
@@ -7017,18 +6686,18 @@
       <c r="P108" s="8"/>
       <c r="Q108" s="8"/>
       <c r="R108" s="8"/>
-      <c r="S108" s="29"/>
+      <c r="S108" s="30"/>
       <c r="T108" s="8"/>
       <c r="U108" s="8"/>
-      <c r="V108" s="29"/>
-      <c r="W108" s="29"/>
-      <c r="X108" s="29"/>
-      <c r="Y108" s="29"/>
-      <c r="Z108" s="29"/>
-      <c r="AA108" s="29"/>
-      <c r="AB108" s="29"/>
-      <c r="AC108" s="29"/>
-      <c r="AD108" s="29"/>
+      <c r="V108" s="30"/>
+      <c r="W108" s="30"/>
+      <c r="X108" s="30"/>
+      <c r="Y108" s="30"/>
+      <c r="Z108" s="30"/>
+      <c r="AA108" s="30"/>
+      <c r="AB108" s="30"/>
+      <c r="AC108" s="30"/>
+      <c r="AD108" s="30"/>
     </row>
     <row r="109" spans="1:30">
       <c r="A109" s="7">
@@ -7051,18 +6720,18 @@
       <c r="P109" s="8"/>
       <c r="Q109" s="8"/>
       <c r="R109" s="8"/>
-      <c r="S109" s="29"/>
+      <c r="S109" s="30"/>
       <c r="T109" s="8"/>
       <c r="U109" s="8"/>
-      <c r="V109" s="29"/>
-      <c r="W109" s="29"/>
-      <c r="X109" s="29"/>
-      <c r="Y109" s="29"/>
-      <c r="Z109" s="29"/>
-      <c r="AA109" s="29"/>
-      <c r="AB109" s="29"/>
-      <c r="AC109" s="29"/>
-      <c r="AD109" s="29"/>
+      <c r="V109" s="30"/>
+      <c r="W109" s="30"/>
+      <c r="X109" s="30"/>
+      <c r="Y109" s="30"/>
+      <c r="Z109" s="30"/>
+      <c r="AA109" s="30"/>
+      <c r="AB109" s="30"/>
+      <c r="AC109" s="30"/>
+      <c r="AD109" s="30"/>
     </row>
     <row r="110" spans="1:30">
       <c r="A110" s="7">
@@ -7085,18 +6754,18 @@
       <c r="P110" s="8"/>
       <c r="Q110" s="8"/>
       <c r="R110" s="8"/>
-      <c r="S110" s="29"/>
+      <c r="S110" s="30"/>
       <c r="T110" s="8"/>
       <c r="U110" s="8"/>
-      <c r="V110" s="29"/>
-      <c r="W110" s="29"/>
-      <c r="X110" s="29"/>
-      <c r="Y110" s="29"/>
-      <c r="Z110" s="29"/>
-      <c r="AA110" s="29"/>
-      <c r="AB110" s="29"/>
-      <c r="AC110" s="29"/>
-      <c r="AD110" s="29"/>
+      <c r="V110" s="30"/>
+      <c r="W110" s="30"/>
+      <c r="X110" s="30"/>
+      <c r="Y110" s="30"/>
+      <c r="Z110" s="30"/>
+      <c r="AA110" s="30"/>
+      <c r="AB110" s="30"/>
+      <c r="AC110" s="30"/>
+      <c r="AD110" s="30"/>
     </row>
     <row r="111" spans="1:30">
       <c r="A111" s="7">
@@ -7119,18 +6788,18 @@
       <c r="P111" s="8"/>
       <c r="Q111" s="8"/>
       <c r="R111" s="8"/>
-      <c r="S111" s="29"/>
+      <c r="S111" s="30"/>
       <c r="T111" s="8"/>
       <c r="U111" s="8"/>
-      <c r="V111" s="29"/>
-      <c r="W111" s="29"/>
-      <c r="X111" s="29"/>
-      <c r="Y111" s="29"/>
-      <c r="Z111" s="29"/>
-      <c r="AA111" s="29"/>
-      <c r="AB111" s="29"/>
-      <c r="AC111" s="29"/>
-      <c r="AD111" s="29"/>
+      <c r="V111" s="30"/>
+      <c r="W111" s="30"/>
+      <c r="X111" s="30"/>
+      <c r="Y111" s="30"/>
+      <c r="Z111" s="30"/>
+      <c r="AA111" s="30"/>
+      <c r="AB111" s="30"/>
+      <c r="AC111" s="30"/>
+      <c r="AD111" s="30"/>
     </row>
     <row r="112" spans="1:30">
       <c r="A112" s="7">
@@ -7153,18 +6822,18 @@
       <c r="P112" s="8"/>
       <c r="Q112" s="8"/>
       <c r="R112" s="8"/>
-      <c r="S112" s="29"/>
+      <c r="S112" s="30"/>
       <c r="T112" s="8"/>
       <c r="U112" s="8"/>
-      <c r="V112" s="29"/>
-      <c r="W112" s="29"/>
-      <c r="X112" s="29"/>
-      <c r="Y112" s="29"/>
-      <c r="Z112" s="29"/>
-      <c r="AA112" s="29"/>
-      <c r="AB112" s="29"/>
-      <c r="AC112" s="29"/>
-      <c r="AD112" s="29"/>
+      <c r="V112" s="30"/>
+      <c r="W112" s="30"/>
+      <c r="X112" s="30"/>
+      <c r="Y112" s="30"/>
+      <c r="Z112" s="30"/>
+      <c r="AA112" s="30"/>
+      <c r="AB112" s="30"/>
+      <c r="AC112" s="30"/>
+      <c r="AD112" s="30"/>
     </row>
     <row r="113" spans="1:30">
       <c r="A113" s="7">
@@ -7187,18 +6856,18 @@
       <c r="P113" s="8"/>
       <c r="Q113" s="8"/>
       <c r="R113" s="8"/>
-      <c r="S113" s="29"/>
+      <c r="S113" s="30"/>
       <c r="T113" s="8"/>
       <c r="U113" s="8"/>
-      <c r="V113" s="29"/>
-      <c r="W113" s="29"/>
-      <c r="X113" s="29"/>
-      <c r="Y113" s="29"/>
-      <c r="Z113" s="29"/>
-      <c r="AA113" s="29"/>
-      <c r="AB113" s="29"/>
-      <c r="AC113" s="29"/>
-      <c r="AD113" s="29"/>
+      <c r="V113" s="30"/>
+      <c r="W113" s="30"/>
+      <c r="X113" s="30"/>
+      <c r="Y113" s="30"/>
+      <c r="Z113" s="30"/>
+      <c r="AA113" s="30"/>
+      <c r="AB113" s="30"/>
+      <c r="AC113" s="30"/>
+      <c r="AD113" s="30"/>
     </row>
     <row r="114" spans="1:30">
       <c r="A114" s="7">
@@ -7221,18 +6890,18 @@
       <c r="P114" s="8"/>
       <c r="Q114" s="8"/>
       <c r="R114" s="8"/>
-      <c r="S114" s="29"/>
+      <c r="S114" s="30"/>
       <c r="T114" s="8"/>
       <c r="U114" s="8"/>
-      <c r="V114" s="29"/>
-      <c r="W114" s="29"/>
-      <c r="X114" s="29"/>
-      <c r="Y114" s="29"/>
-      <c r="Z114" s="29"/>
-      <c r="AA114" s="29"/>
-      <c r="AB114" s="29"/>
-      <c r="AC114" s="29"/>
-      <c r="AD114" s="29"/>
+      <c r="V114" s="30"/>
+      <c r="W114" s="30"/>
+      <c r="X114" s="30"/>
+      <c r="Y114" s="30"/>
+      <c r="Z114" s="30"/>
+      <c r="AA114" s="30"/>
+      <c r="AB114" s="30"/>
+      <c r="AC114" s="30"/>
+      <c r="AD114" s="30"/>
     </row>
     <row r="115" spans="1:30">
       <c r="A115" s="7">
@@ -7255,18 +6924,18 @@
       <c r="P115" s="8"/>
       <c r="Q115" s="8"/>
       <c r="R115" s="8"/>
-      <c r="S115" s="29"/>
+      <c r="S115" s="30"/>
       <c r="T115" s="8"/>
       <c r="U115" s="8"/>
-      <c r="V115" s="29"/>
-      <c r="W115" s="29"/>
-      <c r="X115" s="29"/>
-      <c r="Y115" s="29"/>
-      <c r="Z115" s="29"/>
-      <c r="AA115" s="29"/>
-      <c r="AB115" s="29"/>
-      <c r="AC115" s="29"/>
-      <c r="AD115" s="29"/>
+      <c r="V115" s="30"/>
+      <c r="W115" s="30"/>
+      <c r="X115" s="30"/>
+      <c r="Y115" s="30"/>
+      <c r="Z115" s="30"/>
+      <c r="AA115" s="30"/>
+      <c r="AB115" s="30"/>
+      <c r="AC115" s="30"/>
+      <c r="AD115" s="30"/>
     </row>
     <row r="116" spans="1:30">
       <c r="A116" s="7">
@@ -7289,18 +6958,18 @@
       <c r="P116" s="8"/>
       <c r="Q116" s="8"/>
       <c r="R116" s="8"/>
-      <c r="S116" s="29"/>
+      <c r="S116" s="30"/>
       <c r="T116" s="8"/>
       <c r="U116" s="8"/>
-      <c r="V116" s="29"/>
-      <c r="W116" s="29"/>
-      <c r="X116" s="29"/>
-      <c r="Y116" s="29"/>
-      <c r="Z116" s="29"/>
-      <c r="AA116" s="29"/>
-      <c r="AB116" s="29"/>
-      <c r="AC116" s="29"/>
-      <c r="AD116" s="29"/>
+      <c r="V116" s="30"/>
+      <c r="W116" s="30"/>
+      <c r="X116" s="30"/>
+      <c r="Y116" s="30"/>
+      <c r="Z116" s="30"/>
+      <c r="AA116" s="30"/>
+      <c r="AB116" s="30"/>
+      <c r="AC116" s="30"/>
+      <c r="AD116" s="30"/>
     </row>
     <row r="117" spans="1:30">
       <c r="A117" s="7">
@@ -7323,18 +6992,18 @@
       <c r="P117" s="8"/>
       <c r="Q117" s="8"/>
       <c r="R117" s="8"/>
-      <c r="S117" s="29"/>
+      <c r="S117" s="30"/>
       <c r="T117" s="8"/>
       <c r="U117" s="8"/>
-      <c r="V117" s="29"/>
-      <c r="W117" s="29"/>
-      <c r="X117" s="29"/>
-      <c r="Y117" s="29"/>
-      <c r="Z117" s="29"/>
-      <c r="AA117" s="29"/>
-      <c r="AB117" s="29"/>
-      <c r="AC117" s="29"/>
-      <c r="AD117" s="29"/>
+      <c r="V117" s="30"/>
+      <c r="W117" s="30"/>
+      <c r="X117" s="30"/>
+      <c r="Y117" s="30"/>
+      <c r="Z117" s="30"/>
+      <c r="AA117" s="30"/>
+      <c r="AB117" s="30"/>
+      <c r="AC117" s="30"/>
+      <c r="AD117" s="30"/>
     </row>
     <row r="118" spans="1:30">
       <c r="A118" s="7">
@@ -7357,18 +7026,18 @@
       <c r="P118" s="8"/>
       <c r="Q118" s="8"/>
       <c r="R118" s="8"/>
-      <c r="S118" s="29"/>
+      <c r="S118" s="30"/>
       <c r="T118" s="8"/>
       <c r="U118" s="8"/>
-      <c r="V118" s="29"/>
-      <c r="W118" s="29"/>
-      <c r="X118" s="29"/>
-      <c r="Y118" s="29"/>
-      <c r="Z118" s="29"/>
-      <c r="AA118" s="29"/>
-      <c r="AB118" s="29"/>
-      <c r="AC118" s="29"/>
-      <c r="AD118" s="29"/>
+      <c r="V118" s="30"/>
+      <c r="W118" s="30"/>
+      <c r="X118" s="30"/>
+      <c r="Y118" s="30"/>
+      <c r="Z118" s="30"/>
+      <c r="AA118" s="30"/>
+      <c r="AB118" s="30"/>
+      <c r="AC118" s="30"/>
+      <c r="AD118" s="30"/>
     </row>
     <row r="119" spans="1:30">
       <c r="A119" s="7">
@@ -7391,18 +7060,18 @@
       <c r="P119" s="8"/>
       <c r="Q119" s="8"/>
       <c r="R119" s="8"/>
-      <c r="S119" s="29"/>
+      <c r="S119" s="30"/>
       <c r="T119" s="8"/>
       <c r="U119" s="8"/>
-      <c r="V119" s="29"/>
-      <c r="W119" s="29"/>
-      <c r="X119" s="29"/>
-      <c r="Y119" s="29"/>
-      <c r="Z119" s="29"/>
-      <c r="AA119" s="29"/>
-      <c r="AB119" s="29"/>
-      <c r="AC119" s="29"/>
-      <c r="AD119" s="29"/>
+      <c r="V119" s="30"/>
+      <c r="W119" s="30"/>
+      <c r="X119" s="30"/>
+      <c r="Y119" s="30"/>
+      <c r="Z119" s="30"/>
+      <c r="AA119" s="30"/>
+      <c r="AB119" s="30"/>
+      <c r="AC119" s="30"/>
+      <c r="AD119" s="30"/>
     </row>
     <row r="120" spans="1:30">
       <c r="A120" s="7">
@@ -7425,18 +7094,18 @@
       <c r="P120" s="8"/>
       <c r="Q120" s="8"/>
       <c r="R120" s="8"/>
-      <c r="S120" s="29"/>
+      <c r="S120" s="30"/>
       <c r="T120" s="8"/>
       <c r="U120" s="8"/>
-      <c r="V120" s="29"/>
-      <c r="W120" s="29"/>
-      <c r="X120" s="29"/>
-      <c r="Y120" s="29"/>
-      <c r="Z120" s="29"/>
-      <c r="AA120" s="29"/>
-      <c r="AB120" s="29"/>
-      <c r="AC120" s="29"/>
-      <c r="AD120" s="29"/>
+      <c r="V120" s="30"/>
+      <c r="W120" s="30"/>
+      <c r="X120" s="30"/>
+      <c r="Y120" s="30"/>
+      <c r="Z120" s="30"/>
+      <c r="AA120" s="30"/>
+      <c r="AB120" s="30"/>
+      <c r="AC120" s="30"/>
+      <c r="AD120" s="30"/>
     </row>
     <row r="121" spans="1:30">
       <c r="A121" s="7">
@@ -7459,18 +7128,18 @@
       <c r="P121" s="8"/>
       <c r="Q121" s="8"/>
       <c r="R121" s="8"/>
-      <c r="S121" s="29"/>
+      <c r="S121" s="30"/>
       <c r="T121" s="8"/>
       <c r="U121" s="8"/>
-      <c r="V121" s="29"/>
-      <c r="W121" s="29"/>
-      <c r="X121" s="29"/>
-      <c r="Y121" s="29"/>
-      <c r="Z121" s="29"/>
-      <c r="AA121" s="29"/>
-      <c r="AB121" s="29"/>
-      <c r="AC121" s="29"/>
-      <c r="AD121" s="29"/>
+      <c r="V121" s="30"/>
+      <c r="W121" s="30"/>
+      <c r="X121" s="30"/>
+      <c r="Y121" s="30"/>
+      <c r="Z121" s="30"/>
+      <c r="AA121" s="30"/>
+      <c r="AB121" s="30"/>
+      <c r="AC121" s="30"/>
+      <c r="AD121" s="30"/>
     </row>
     <row r="122" spans="1:30">
       <c r="A122" s="7">
@@ -7493,18 +7162,18 @@
       <c r="P122" s="8"/>
       <c r="Q122" s="8"/>
       <c r="R122" s="8"/>
-      <c r="S122" s="29"/>
+      <c r="S122" s="30"/>
       <c r="T122" s="8"/>
       <c r="U122" s="8"/>
-      <c r="V122" s="29"/>
-      <c r="W122" s="29"/>
-      <c r="X122" s="29"/>
-      <c r="Y122" s="29"/>
-      <c r="Z122" s="29"/>
-      <c r="AA122" s="29"/>
-      <c r="AB122" s="29"/>
-      <c r="AC122" s="29"/>
-      <c r="AD122" s="29"/>
+      <c r="V122" s="30"/>
+      <c r="W122" s="30"/>
+      <c r="X122" s="30"/>
+      <c r="Y122" s="30"/>
+      <c r="Z122" s="30"/>
+      <c r="AA122" s="30"/>
+      <c r="AB122" s="30"/>
+      <c r="AC122" s="30"/>
+      <c r="AD122" s="30"/>
     </row>
     <row r="123" spans="1:30">
       <c r="A123" s="7">
@@ -7527,18 +7196,18 @@
       <c r="P123" s="8"/>
       <c r="Q123" s="8"/>
       <c r="R123" s="8"/>
-      <c r="S123" s="29"/>
+      <c r="S123" s="30"/>
       <c r="T123" s="8"/>
       <c r="U123" s="8"/>
-      <c r="V123" s="29"/>
-      <c r="W123" s="29"/>
-      <c r="X123" s="29"/>
-      <c r="Y123" s="29"/>
-      <c r="Z123" s="29"/>
-      <c r="AA123" s="29"/>
-      <c r="AB123" s="29"/>
-      <c r="AC123" s="29"/>
-      <c r="AD123" s="29"/>
+      <c r="V123" s="30"/>
+      <c r="W123" s="30"/>
+      <c r="X123" s="30"/>
+      <c r="Y123" s="30"/>
+      <c r="Z123" s="30"/>
+      <c r="AA123" s="30"/>
+      <c r="AB123" s="30"/>
+      <c r="AC123" s="30"/>
+      <c r="AD123" s="30"/>
     </row>
     <row r="124" spans="1:30">
       <c r="A124" s="7">
@@ -7561,18 +7230,18 @@
       <c r="P124" s="8"/>
       <c r="Q124" s="8"/>
       <c r="R124" s="8"/>
-      <c r="S124" s="29"/>
+      <c r="S124" s="30"/>
       <c r="T124" s="8"/>
       <c r="U124" s="8"/>
-      <c r="V124" s="29"/>
-      <c r="W124" s="29"/>
-      <c r="X124" s="29"/>
-      <c r="Y124" s="29"/>
-      <c r="Z124" s="29"/>
-      <c r="AA124" s="29"/>
-      <c r="AB124" s="29"/>
-      <c r="AC124" s="29"/>
-      <c r="AD124" s="29"/>
+      <c r="V124" s="30"/>
+      <c r="W124" s="30"/>
+      <c r="X124" s="30"/>
+      <c r="Y124" s="30"/>
+      <c r="Z124" s="30"/>
+      <c r="AA124" s="30"/>
+      <c r="AB124" s="30"/>
+      <c r="AC124" s="30"/>
+      <c r="AD124" s="30"/>
     </row>
     <row r="125" spans="1:30">
       <c r="A125" s="7">
@@ -7595,18 +7264,18 @@
       <c r="P125" s="8"/>
       <c r="Q125" s="8"/>
       <c r="R125" s="8"/>
-      <c r="S125" s="29"/>
+      <c r="S125" s="30"/>
       <c r="T125" s="8"/>
       <c r="U125" s="8"/>
-      <c r="V125" s="29"/>
-      <c r="W125" s="29"/>
-      <c r="X125" s="29"/>
-      <c r="Y125" s="29"/>
-      <c r="Z125" s="29"/>
-      <c r="AA125" s="29"/>
-      <c r="AB125" s="29"/>
-      <c r="AC125" s="29"/>
-      <c r="AD125" s="29"/>
+      <c r="V125" s="30"/>
+      <c r="W125" s="30"/>
+      <c r="X125" s="30"/>
+      <c r="Y125" s="30"/>
+      <c r="Z125" s="30"/>
+      <c r="AA125" s="30"/>
+      <c r="AB125" s="30"/>
+      <c r="AC125" s="30"/>
+      <c r="AD125" s="30"/>
     </row>
     <row r="126" spans="1:30">
       <c r="A126" s="7">
@@ -7629,18 +7298,18 @@
       <c r="P126" s="8"/>
       <c r="Q126" s="8"/>
       <c r="R126" s="8"/>
-      <c r="S126" s="29"/>
+      <c r="S126" s="30"/>
       <c r="T126" s="8"/>
       <c r="U126" s="8"/>
-      <c r="V126" s="29"/>
-      <c r="W126" s="29"/>
-      <c r="X126" s="29"/>
-      <c r="Y126" s="29"/>
-      <c r="Z126" s="29"/>
-      <c r="AA126" s="29"/>
-      <c r="AB126" s="29"/>
-      <c r="AC126" s="29"/>
-      <c r="AD126" s="29"/>
+      <c r="V126" s="30"/>
+      <c r="W126" s="30"/>
+      <c r="X126" s="30"/>
+      <c r="Y126" s="30"/>
+      <c r="Z126" s="30"/>
+      <c r="AA126" s="30"/>
+      <c r="AB126" s="30"/>
+      <c r="AC126" s="30"/>
+      <c r="AD126" s="30"/>
     </row>
     <row r="127" spans="1:30">
       <c r="A127" s="7">
@@ -7663,18 +7332,18 @@
       <c r="P127" s="8"/>
       <c r="Q127" s="8"/>
       <c r="R127" s="8"/>
-      <c r="S127" s="29"/>
+      <c r="S127" s="30"/>
       <c r="T127" s="8"/>
       <c r="U127" s="8"/>
-      <c r="V127" s="29"/>
-      <c r="W127" s="29"/>
-      <c r="X127" s="29"/>
-      <c r="Y127" s="29"/>
-      <c r="Z127" s="29"/>
-      <c r="AA127" s="29"/>
-      <c r="AB127" s="29"/>
-      <c r="AC127" s="29"/>
-      <c r="AD127" s="29"/>
+      <c r="V127" s="30"/>
+      <c r="W127" s="30"/>
+      <c r="X127" s="30"/>
+      <c r="Y127" s="30"/>
+      <c r="Z127" s="30"/>
+      <c r="AA127" s="30"/>
+      <c r="AB127" s="30"/>
+      <c r="AC127" s="30"/>
+      <c r="AD127" s="30"/>
     </row>
     <row r="128" spans="1:30">
       <c r="A128" s="7">
@@ -7697,18 +7366,18 @@
       <c r="P128" s="8"/>
       <c r="Q128" s="8"/>
       <c r="R128" s="8"/>
-      <c r="S128" s="29"/>
+      <c r="S128" s="30"/>
       <c r="T128" s="8"/>
       <c r="U128" s="8"/>
-      <c r="V128" s="29"/>
-      <c r="W128" s="29"/>
-      <c r="X128" s="29"/>
-      <c r="Y128" s="29"/>
-      <c r="Z128" s="29"/>
-      <c r="AA128" s="29"/>
-      <c r="AB128" s="29"/>
-      <c r="AC128" s="29"/>
-      <c r="AD128" s="29"/>
+      <c r="V128" s="30"/>
+      <c r="W128" s="30"/>
+      <c r="X128" s="30"/>
+      <c r="Y128" s="30"/>
+      <c r="Z128" s="30"/>
+      <c r="AA128" s="30"/>
+      <c r="AB128" s="30"/>
+      <c r="AC128" s="30"/>
+      <c r="AD128" s="30"/>
     </row>
     <row r="129" spans="1:30">
       <c r="A129" s="7">
@@ -7731,18 +7400,18 @@
       <c r="P129" s="8"/>
       <c r="Q129" s="8"/>
       <c r="R129" s="8"/>
-      <c r="S129" s="29"/>
+      <c r="S129" s="30"/>
       <c r="T129" s="8"/>
       <c r="U129" s="8"/>
-      <c r="V129" s="29"/>
-      <c r="W129" s="29"/>
-      <c r="X129" s="29"/>
-      <c r="Y129" s="29"/>
-      <c r="Z129" s="29"/>
-      <c r="AA129" s="29"/>
-      <c r="AB129" s="29"/>
-      <c r="AC129" s="29"/>
-      <c r="AD129" s="29"/>
+      <c r="V129" s="30"/>
+      <c r="W129" s="30"/>
+      <c r="X129" s="30"/>
+      <c r="Y129" s="30"/>
+      <c r="Z129" s="30"/>
+      <c r="AA129" s="30"/>
+      <c r="AB129" s="30"/>
+      <c r="AC129" s="30"/>
+      <c r="AD129" s="30"/>
     </row>
     <row r="130" spans="1:21">
       <c r="A130" s="1"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/同仁堂.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/同仁堂.xlsx
@@ -2677,11 +2677,11 @@
   <dimension ref="A1:AD500"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="Z2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="N10" sqref="N10"/>
+      <selection pane="bottomRight" activeCell="AC9" sqref="AC9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -3365,7 +3365,10 @@
       <c r="AA10" s="30"/>
       <c r="AB10" s="30"/>
       <c r="AC10" s="30"/>
-      <c r="AD10" s="30"/>
+      <c r="AD10" s="30">
+        <f>IF(G10-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10008,48,FALSE)&gt;0,G10,AD9)</f>
+        <v>33.78</v>
+      </c>
     </row>
     <row r="11" spans="1:30">
       <c r="A11" s="7">

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/同仁堂.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/同仁堂.xlsx
@@ -224,12 +224,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -276,8 +276,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -301,21 +308,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -329,9 +322,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -352,47 +376,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -406,8 +391,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -520,7 +520,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -532,19 +586,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -556,139 +682,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -747,7 +747,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -755,8 +755,34 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -778,20 +804,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -825,168 +840,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="41" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="38" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1006,10 +1006,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1069,7 +1069,7 @@
     <xf numFmtId="49" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1090,10 +1090,10 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2677,11 +2677,11 @@
   <dimension ref="A1:AD500"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="Z2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AC9" sqref="AC9"/>
+      <selection pane="bottomRight" activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -2952,7 +2952,7 @@
         <v>0.0447672694930331</v>
       </c>
       <c r="L5" s="15">
-        <f>I5/(ROW()-4)</f>
+        <f t="shared" ref="L5:L10" si="0">I5/(ROW()-4)</f>
         <v>1</v>
       </c>
       <c r="M5" s="8" t="s">
@@ -2961,18 +2961,19 @@
       <c r="N5" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="O5" s="8" t="s">
-        <v>38</v>
+      <c r="O5" s="8" t="str">
+        <f>IF(B5&lt;F5,"是","否")</f>
+        <v>否</v>
       </c>
       <c r="P5" s="8" t="s">
         <v>38</v>
       </c>
       <c r="Q5" s="8" t="str">
-        <f>IF(I5/(ROW()-4)&lt;0.5,"是","否")</f>
+        <f t="shared" ref="Q5:Q10" si="1">IF(I5/(ROW()-4)&lt;0.5,"是","否")</f>
         <v>否</v>
       </c>
       <c r="R5" s="8" t="str">
-        <f>IF(B5&gt;=(D5-(D5-E5)/2),"上部","下部")</f>
+        <f t="shared" ref="R5:R10" si="2">IF(B5&gt;=(D5-(D5-E5)/2),"上部","下部")</f>
         <v>上部</v>
       </c>
       <c r="S5" s="26"/>
@@ -3027,7 +3028,7 @@
         <v>0.0210495108212274</v>
       </c>
       <c r="L6" s="15">
-        <f>I6/(ROW()-4)</f>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="M6" s="8" t="s">
@@ -3036,18 +3037,19 @@
       <c r="N6" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="O6" s="8" t="s">
-        <v>38</v>
+      <c r="O6" s="8" t="str">
+        <f>IF(B6&lt;F6,"是","否")</f>
+        <v>否</v>
       </c>
       <c r="P6" s="8" t="s">
         <v>38</v>
       </c>
       <c r="Q6" s="8" t="str">
-        <f>IF(I6/(ROW()-4)&lt;0.5,"是","否")</f>
+        <f t="shared" si="1"/>
         <v>否</v>
       </c>
       <c r="R6" s="19" t="str">
-        <f>IF(B6&gt;=(D6-(D6-E6)/2),"上部","下部")</f>
+        <f t="shared" si="2"/>
         <v>下部</v>
       </c>
       <c r="S6" s="6"/>
@@ -3103,7 +3105,7 @@
         <v>0.0969463385710051</v>
       </c>
       <c r="L7" s="15">
-        <f>I7/(ROW()-4)</f>
+        <f t="shared" si="0"/>
         <v>0.666666666666667</v>
       </c>
       <c r="M7" s="8" t="s">
@@ -3112,18 +3114,19 @@
       <c r="N7" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="O7" s="8" t="s">
-        <v>38</v>
+      <c r="O7" s="8" t="str">
+        <f>IF(B7&lt;F7,"是","否")</f>
+        <v>否</v>
       </c>
       <c r="P7" s="8" t="s">
         <v>38</v>
       </c>
       <c r="Q7" s="8" t="str">
-        <f>IF(I7/(ROW()-4)&lt;0.5,"是","否")</f>
+        <f t="shared" si="1"/>
         <v>否</v>
       </c>
       <c r="R7" s="8" t="str">
-        <f>IF(B7&gt;=(D7-(D7-E7)/2),"上部","下部")</f>
+        <f t="shared" si="2"/>
         <v>上部</v>
       </c>
       <c r="S7" s="6"/>
@@ -3179,7 +3182,7 @@
         <v>0.0913133708864514</v>
       </c>
       <c r="L8" s="15">
-        <f>I8/(ROW()-4)</f>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="M8" s="8" t="s">
@@ -3188,18 +3191,19 @@
       <c r="N8" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="O8" s="8" t="s">
-        <v>38</v>
+      <c r="O8" s="8" t="str">
+        <f>IF(B8&lt;F8,"是","否")</f>
+        <v>否</v>
       </c>
       <c r="P8" s="8" t="s">
         <v>38</v>
       </c>
       <c r="Q8" s="8" t="str">
-        <f>IF(I8/(ROW()-4)&lt;0.5,"是","否")</f>
+        <f t="shared" si="1"/>
         <v>否</v>
       </c>
       <c r="R8" s="8" t="str">
-        <f>IF(B8&gt;=(D8-(D8-E8)/2),"上部","下部")</f>
+        <f t="shared" si="2"/>
         <v>上部</v>
       </c>
       <c r="S8" s="6"/>
@@ -3255,7 +3259,7 @@
         <v>0.070856804032019</v>
       </c>
       <c r="L9" s="15">
-        <f>I9/(ROW()-4)</f>
+        <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
       <c r="M9" s="8" t="s">
@@ -3264,18 +3268,19 @@
       <c r="N9" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="O9" s="8" t="s">
-        <v>38</v>
+      <c r="O9" s="8" t="str">
+        <f>IF(B9&lt;F9,"是","否")</f>
+        <v>否</v>
       </c>
       <c r="P9" s="19" t="s">
         <v>39</v>
       </c>
       <c r="Q9" s="19" t="str">
-        <f>IF(I9/(ROW()-4)&lt;0.5,"是","否")</f>
+        <f t="shared" si="1"/>
         <v>是</v>
       </c>
       <c r="R9" s="19" t="str">
-        <f>IF(B9&gt;=(D9-(D9-E9)/2),"上部","下部")</f>
+        <f t="shared" si="2"/>
         <v>下部</v>
       </c>
       <c r="S9" s="8"/>
@@ -3331,7 +3336,7 @@
         <v>0.076489771716573</v>
       </c>
       <c r="L10" s="15">
-        <f>I10/(ROW()-4)</f>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="M10" s="8" t="s">
@@ -3340,18 +3345,19 @@
       <c r="N10" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="O10" s="8" t="s">
-        <v>38</v>
+      <c r="O10" s="8" t="str">
+        <f>IF(B10&lt;F10,"是","否")</f>
+        <v>否</v>
       </c>
       <c r="P10" s="8" t="s">
         <v>38</v>
       </c>
       <c r="Q10" s="29" t="str">
-        <f>IF(I10/(ROW()-4)&lt;0.5,"是","否")</f>
+        <f t="shared" si="1"/>
         <v>否</v>
       </c>
       <c r="R10" s="29" t="str">
-        <f>IF(B10&gt;=(D10-(D10-E10)/2),"上部","下部")</f>
+        <f t="shared" si="2"/>
         <v>上部</v>
       </c>
       <c r="S10" s="8"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/同仁堂.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/同仁堂.xlsx
@@ -224,12 +224,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -270,6 +270,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -283,8 +290,83 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -307,87 +389,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -399,17 +405,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -520,7 +520,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -532,25 +634,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -562,31 +646,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -598,67 +664,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -670,25 +688,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -746,15 +746,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -763,26 +754,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -804,9 +793,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -826,17 +817,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -845,148 +845,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="38" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1006,10 +1006,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1069,7 +1069,7 @@
     <xf numFmtId="49" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1090,10 +1090,10 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1243,8 +1243,12 @@
           <cell r="V4">
             <v>24.52</v>
           </cell>
-        </row>
-        <row r="4">
+          <cell r="W4" t="str">
+            <v>26.96</v>
+          </cell>
+          <cell r="X4" t="str">
+            <v>24.74</v>
+          </cell>
           <cell r="Y4" t="str">
             <v>24w</v>
           </cell>
@@ -1263,8 +1267,9 @@
           <cell r="AD4">
             <v>0.0641221374045801</v>
           </cell>
-        </row>
-        <row r="4">
+          <cell r="AE4">
+            <v>0.0823442136498517</v>
+          </cell>
           <cell r="AF4" t="str">
             <v>5T</v>
           </cell>
@@ -1581,6 +1586,12 @@
           <cell r="R7">
             <v>30.89</v>
           </cell>
+          <cell r="S7">
+            <v>34.66</v>
+          </cell>
+          <cell r="T7">
+            <v>32.59</v>
+          </cell>
         </row>
         <row r="7">
           <cell r="Y7" t="str">
@@ -1595,8 +1606,8 @@
           <cell r="AB7">
             <v>0.124184859654097</v>
           </cell>
-          <cell r="AC7" t="e">
-            <v>#DIV/0!</v>
+          <cell r="AC7">
+            <v>0.0597230236583957</v>
           </cell>
           <cell r="AD7" t="e">
             <v>#DIV/0!</v>
@@ -2677,11 +2688,11 @@
   <dimension ref="A1:AD500"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O5" sqref="O5"/>
+      <selection pane="bottomRight" activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -2952,7 +2963,7 @@
         <v>0.0447672694930331</v>
       </c>
       <c r="L5" s="15">
-        <f t="shared" ref="L5:L10" si="0">I5/(ROW()-4)</f>
+        <f>I5/(ROW()-4)</f>
         <v>1</v>
       </c>
       <c r="M5" s="8" t="s">
@@ -2969,11 +2980,11 @@
         <v>38</v>
       </c>
       <c r="Q5" s="8" t="str">
-        <f t="shared" ref="Q5:Q10" si="1">IF(I5/(ROW()-4)&lt;0.5,"是","否")</f>
+        <f>IF(I5/(ROW()-4)&lt;0.5,"是","否")</f>
         <v>否</v>
       </c>
       <c r="R5" s="8" t="str">
-        <f t="shared" ref="R5:R10" si="2">IF(B5&gt;=(D5-(D5-E5)/2),"上部","下部")</f>
+        <f>IF(B5&gt;=(D5-(D5-E5)/2),"上部","下部")</f>
         <v>上部</v>
       </c>
       <c r="S5" s="26"/>
@@ -3028,7 +3039,7 @@
         <v>0.0210495108212274</v>
       </c>
       <c r="L6" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="L5:L10" si="0">I6/(ROW()-4)</f>
         <v>0.5</v>
       </c>
       <c r="M6" s="8" t="s">
@@ -3038,18 +3049,18 @@
         <v>38</v>
       </c>
       <c r="O6" s="8" t="str">
-        <f>IF(B6&lt;F6,"是","否")</f>
+        <f t="shared" ref="O5:O10" si="1">IF(B6&lt;F6,"是","否")</f>
         <v>否</v>
       </c>
       <c r="P6" s="8" t="s">
         <v>38</v>
       </c>
       <c r="Q6" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="Q5:Q10" si="2">IF(I6/(ROW()-4)&lt;0.5,"是","否")</f>
         <v>否</v>
       </c>
       <c r="R6" s="19" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="R5:R10" si="3">IF(B6&gt;=(D6-(D6-E6)/2),"上部","下部")</f>
         <v>下部</v>
       </c>
       <c r="S6" s="6"/>
@@ -3115,18 +3126,18 @@
         <v>38</v>
       </c>
       <c r="O7" s="8" t="str">
-        <f>IF(B7&lt;F7,"是","否")</f>
+        <f t="shared" si="1"/>
         <v>否</v>
       </c>
       <c r="P7" s="8" t="s">
         <v>38</v>
       </c>
       <c r="Q7" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>否</v>
       </c>
       <c r="R7" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>上部</v>
       </c>
       <c r="S7" s="6"/>
@@ -3192,18 +3203,18 @@
         <v>38</v>
       </c>
       <c r="O8" s="8" t="str">
-        <f>IF(B8&lt;F8,"是","否")</f>
+        <f t="shared" si="1"/>
         <v>否</v>
       </c>
       <c r="P8" s="8" t="s">
         <v>38</v>
       </c>
       <c r="Q8" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>否</v>
       </c>
       <c r="R8" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>上部</v>
       </c>
       <c r="S8" s="6"/>
@@ -3269,18 +3280,18 @@
         <v>38</v>
       </c>
       <c r="O9" s="8" t="str">
-        <f>IF(B9&lt;F9,"是","否")</f>
+        <f t="shared" si="1"/>
         <v>否</v>
       </c>
       <c r="P9" s="19" t="s">
         <v>39</v>
       </c>
       <c r="Q9" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>是</v>
       </c>
       <c r="R9" s="19" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>下部</v>
       </c>
       <c r="S9" s="8"/>
@@ -3346,18 +3357,18 @@
         <v>39</v>
       </c>
       <c r="O10" s="8" t="str">
-        <f>IF(B10&lt;F10,"是","否")</f>
+        <f t="shared" si="1"/>
         <v>否</v>
       </c>
       <c r="P10" s="8" t="s">
         <v>38</v>
       </c>
       <c r="Q10" s="29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>否</v>
       </c>
       <c r="R10" s="29" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>上部</v>
       </c>
       <c r="S10" s="8"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/同仁堂.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/同仁堂.xlsx
@@ -227,9 +227,9 @@
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -269,8 +269,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -283,8 +307,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -306,40 +369,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -359,57 +392,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -514,7 +514,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -526,19 +604,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -550,43 +616,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -604,19 +634,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -628,43 +652,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -676,7 +664,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -688,7 +676,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -746,8 +746,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -756,47 +756,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -817,15 +776,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -840,153 +790,203 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2688,11 +2688,11 @@
   <dimension ref="A1:AD500"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O6" sqref="O6"/>
+      <selection pane="bottomRight" activeCell="K5" sqref="K5:K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/同仁堂.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/同仁堂.xlsx
@@ -225,11 +225,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -269,23 +269,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -294,7 +277,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -307,47 +290,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -368,11 +312,73 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -384,17 +390,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -405,9 +405,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -514,7 +514,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -526,55 +568,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -592,25 +598,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -622,73 +688,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -746,8 +746,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -757,21 +781,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -807,16 +816,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -831,15 +840,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
@@ -848,145 +848,145 @@
     <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1368,6 +1368,32 @@
           </cell>
           <cell r="BL4">
             <v>24.74</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="BE5">
+            <v>44531</v>
+          </cell>
+          <cell r="BF5">
+            <v>27.7</v>
+          </cell>
+          <cell r="BG5">
+            <v>100</v>
+          </cell>
+          <cell r="BH5">
+            <v>5</v>
+          </cell>
+          <cell r="BI5">
+            <v>2.77</v>
+          </cell>
+          <cell r="BJ5">
+            <v>2762.23</v>
+          </cell>
+          <cell r="BK5">
+            <v>28.7</v>
+          </cell>
+          <cell r="BL5">
+            <v>27.5</v>
           </cell>
         </row>
         <row r="6">
@@ -2688,11 +2714,11 @@
   <dimension ref="A1:AD500"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="Y2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K5" sqref="K5:K10"/>
+      <selection pane="bottomRight" activeCell="AD10" sqref="AD10:AD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -3391,23 +3417,63 @@
       <c r="A11" s="7">
         <v>44531</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
+      <c r="B11" s="6">
+        <v>37.11</v>
+      </c>
+      <c r="C11" s="6">
+        <v>36.17</v>
+      </c>
+      <c r="D11" s="6">
+        <v>37.8</v>
+      </c>
+      <c r="E11" s="6">
+        <v>35.6</v>
+      </c>
+      <c r="F11" s="6">
+        <v>34.68</v>
+      </c>
+      <c r="G11" s="6">
+        <v>33.91</v>
+      </c>
+      <c r="H11" s="6">
+        <v>40.28</v>
+      </c>
+      <c r="I11" s="8">
+        <v>4</v>
+      </c>
+      <c r="J11" s="16">
+        <f>(B11-B10)/B10</f>
+        <v>0.0220324979344532</v>
+      </c>
+      <c r="K11" s="14">
+        <f>(B11-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10009,48,FALSE))/VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10009,48,FALSE)</f>
+        <v>0.100207530388378</v>
+      </c>
+      <c r="L11" s="15">
+        <f>I11/(ROW()-4)</f>
+        <v>0.571428571428571</v>
+      </c>
+      <c r="M11" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="N11" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="O11" s="8" t="str">
+        <f>IF(B11&lt;F11,"是","否")</f>
+        <v>否</v>
+      </c>
+      <c r="P11" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q11" s="29" t="str">
+        <f>IF(I11/(ROW()-4)&lt;0.5,"是","否")</f>
+        <v>否</v>
+      </c>
+      <c r="R11" s="29" t="str">
+        <f>IF(B11&gt;=(D11-(D11-E11)/2),"上部","下部")</f>
+        <v>上部</v>
+      </c>
       <c r="S11" s="8"/>
       <c r="T11" s="8"/>
       <c r="U11" s="6"/>
@@ -3419,7 +3485,10 @@
       <c r="AA11" s="30"/>
       <c r="AB11" s="30"/>
       <c r="AC11" s="30"/>
-      <c r="AD11" s="30"/>
+      <c r="AD11" s="30">
+        <f>IF(G11-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10009,48,FALSE)&gt;0,G11,AD10)</f>
+        <v>33.91</v>
+      </c>
     </row>
     <row r="12" spans="1:30">
       <c r="A12" s="7">

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/同仁堂.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/同仁堂.xlsx
@@ -2714,11 +2714,11 @@
   <dimension ref="A1:AD500"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="Y2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AD10" sqref="AD10:AD11"/>
+      <selection pane="bottomRight" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/同仁堂.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/同仁堂.xlsx
@@ -225,11 +225,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -277,16 +277,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -298,23 +299,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -329,10 +322,48 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -352,19 +383,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -375,23 +398,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -399,15 +407,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -514,19 +514,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -538,37 +598,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -580,43 +610,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -628,31 +628,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -670,7 +652,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -682,13 +664,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -756,46 +756,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -811,6 +772,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -840,150 +810,180 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -2714,11 +2714,11 @@
   <dimension ref="A1:AD500"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AB2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A11" sqref="A11"/>
+      <selection pane="bottomRight" activeCell="AD6" sqref="AD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -3065,7 +3065,7 @@
         <v>0.0210495108212274</v>
       </c>
       <c r="L6" s="15">
-        <f t="shared" ref="L5:L10" si="0">I6/(ROW()-4)</f>
+        <f t="shared" ref="L5:L11" si="0">I6/(ROW()-4)</f>
         <v>0.5</v>
       </c>
       <c r="M6" s="8" t="s">
@@ -3075,18 +3075,18 @@
         <v>38</v>
       </c>
       <c r="O6" s="8" t="str">
-        <f t="shared" ref="O5:O10" si="1">IF(B6&lt;F6,"是","否")</f>
+        <f t="shared" ref="O5:O11" si="1">IF(B6&lt;F6,"是","否")</f>
         <v>否</v>
       </c>
       <c r="P6" s="8" t="s">
         <v>38</v>
       </c>
       <c r="Q6" s="8" t="str">
-        <f t="shared" ref="Q5:Q10" si="2">IF(I6/(ROW()-4)&lt;0.5,"是","否")</f>
+        <f t="shared" ref="Q5:Q11" si="2">IF(I6/(ROW()-4)&lt;0.5,"是","否")</f>
         <v>否</v>
       </c>
       <c r="R6" s="19" t="str">
-        <f t="shared" ref="R5:R10" si="3">IF(B6&gt;=(D6-(D6-E6)/2),"上部","下部")</f>
+        <f t="shared" ref="R5:R11" si="3">IF(B6&gt;=(D6-(D6-E6)/2),"上部","下部")</f>
         <v>下部</v>
       </c>
       <c r="S6" s="6"/>
@@ -3134,7 +3134,7 @@
         <v>2</v>
       </c>
       <c r="J7" s="16">
-        <f>(B7-B6)/B6</f>
+        <f t="shared" ref="J6:J11" si="4">(B7-B6)/B6</f>
         <v>0.0743321718931476</v>
       </c>
       <c r="K7" s="14">
@@ -3211,7 +3211,7 @@
         <v>2</v>
       </c>
       <c r="J8" s="16">
-        <f>(B8-B7)/B7</f>
+        <f t="shared" si="4"/>
         <v>-0.00513513513513507</v>
       </c>
       <c r="K8" s="14">
@@ -3288,7 +3288,7 @@
         <v>2</v>
       </c>
       <c r="J9" s="16">
-        <f>(B9-B8)/B8</f>
+        <f t="shared" si="4"/>
         <v>-0.0187449062754688</v>
       </c>
       <c r="K9" s="14">
@@ -3365,7 +3365,7 @@
         <v>3</v>
       </c>
       <c r="J10" s="16">
-        <f>(B10-B9)/B9</f>
+        <f t="shared" si="4"/>
         <v>0.00526024363233679</v>
       </c>
       <c r="K10" s="14">
@@ -3442,7 +3442,7 @@
         <v>4</v>
       </c>
       <c r="J11" s="16">
-        <f>(B11-B10)/B10</f>
+        <f t="shared" si="4"/>
         <v>0.0220324979344532</v>
       </c>
       <c r="K11" s="14">
@@ -3450,7 +3450,7 @@
         <v>0.100207530388378</v>
       </c>
       <c r="L11" s="15">
-        <f>I11/(ROW()-4)</f>
+        <f t="shared" si="0"/>
         <v>0.571428571428571</v>
       </c>
       <c r="M11" s="8" t="s">
@@ -3460,18 +3460,18 @@
         <v>39</v>
       </c>
       <c r="O11" s="8" t="str">
-        <f>IF(B11&lt;F11,"是","否")</f>
+        <f t="shared" si="1"/>
         <v>否</v>
       </c>
       <c r="P11" s="8" t="s">
         <v>38</v>
       </c>
       <c r="Q11" s="29" t="str">
-        <f>IF(I11/(ROW()-4)&lt;0.5,"是","否")</f>
+        <f t="shared" si="2"/>
         <v>否</v>
       </c>
       <c r="R11" s="29" t="str">
-        <f>IF(B11&gt;=(D11-(D11-E11)/2),"上部","下部")</f>
+        <f t="shared" si="3"/>
         <v>上部</v>
       </c>
       <c r="S11" s="8"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/同仁堂.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/同仁堂.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41">
   <si>
     <t>日期</t>
   </si>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t>止损线</t>
+  </si>
+  <si>
+    <t>盈利金额</t>
   </si>
   <si>
     <t>强势卖出指标</t>
@@ -224,12 +227,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -270,12 +273,89 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -291,15 +371,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -313,55 +387,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -375,17 +402,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -393,21 +411,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -514,31 +517,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -556,7 +571,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -568,19 +583,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -592,85 +643,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -688,7 +667,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -743,35 +746,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -785,17 +770,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -826,6 +805,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -840,157 +834,166 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="38" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1006,10 +1009,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1069,7 +1072,7 @@
     <xf numFmtId="49" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1090,16 +1093,19 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2711,14 +2717,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:AD500"/>
+  <dimension ref="A1:AE500"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="AB2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AD6" sqref="AD6"/>
+      <selection pane="bottomRight" activeCell="AE5" sqref="AE5:AE11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -2751,7 +2757,7 @@
     <col min="29" max="29" width="18.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:31">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2794,8 +2800,11 @@
       <c r="AD1" s="36" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:30">
+      <c r="AE1" s="37" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31">
       <c r="A2" s="2"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -2816,7 +2825,7 @@
       <c r="R2" s="17"/>
       <c r="S2" s="22"/>
       <c r="T2" s="23" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U2" s="23"/>
       <c r="V2" s="23"/>
@@ -2826,98 +2835,100 @@
       <c r="Z2" s="23"/>
       <c r="AA2" s="23"/>
       <c r="AB2" s="35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AC2" s="35"/>
       <c r="AD2" s="36"/>
-    </row>
-    <row r="3" spans="1:30">
+      <c r="AE2" s="37"/>
+    </row>
+    <row r="3" spans="1:31">
       <c r="A3" s="2"/>
       <c r="B3" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L3" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M3" s="18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N3" s="18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O3" s="18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P3" s="18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Q3" s="18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="R3" s="18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="S3" s="24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="T3" s="25" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="U3" s="25" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="V3" s="23" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="W3" s="23"/>
       <c r="X3" s="31" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Y3" s="23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Z3" s="31" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AA3" s="31" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AB3" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC3" s="37" t="s">
         <v>34</v>
       </c>
+      <c r="AC3" s="38" t="s">
+        <v>35</v>
+      </c>
       <c r="AD3" s="36"/>
-    </row>
-    <row r="4" ht="56" customHeight="1" spans="1:30">
+      <c r="AE3" s="37"/>
+    </row>
+    <row r="4" ht="56" customHeight="1" spans="1:31">
       <c r="A4" s="2"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -2940,10 +2951,10 @@
       <c r="T4" s="25"/>
       <c r="U4" s="25"/>
       <c r="V4" s="32" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W4" s="32" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="X4" s="23"/>
       <c r="Y4" s="23"/>
@@ -2952,8 +2963,9 @@
       <c r="AB4" s="35"/>
       <c r="AC4" s="35"/>
       <c r="AD4" s="36"/>
-    </row>
-    <row r="5" ht="18" spans="1:30">
+      <c r="AE4" s="37"/>
+    </row>
+    <row r="5" ht="18" spans="1:31">
       <c r="A5" s="5">
         <v>44523</v>
       </c>
@@ -2982,7 +2994,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K5" s="14">
         <f>(B5-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10003,48,FALSE))/VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10003,48,FALSE)</f>
@@ -2993,17 +3005,17 @@
         <v>1</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N5" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O5" s="8" t="str">
         <f>IF(B5&lt;F5,"是","否")</f>
         <v>否</v>
       </c>
       <c r="P5" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q5" s="8" t="str">
         <f>IF(I5/(ROW()-4)&lt;0.5,"是","否")</f>
@@ -3027,8 +3039,12 @@
       <c r="AD5" s="30">
         <v>32.53</v>
       </c>
-    </row>
-    <row r="6" spans="1:30">
+      <c r="AE5">
+        <f>AD5-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10004,48,FALSE)</f>
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31">
       <c r="A6" s="7">
         <v>44524</v>
       </c>
@@ -3069,17 +3085,17 @@
         <v>0.5</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O6" s="8" t="str">
         <f t="shared" ref="O5:O11" si="1">IF(B6&lt;F6,"是","否")</f>
         <v>否</v>
       </c>
       <c r="P6" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q6" s="8" t="str">
         <f t="shared" ref="Q5:Q11" si="2">IF(I6/(ROW()-4)&lt;0.5,"是","否")</f>
@@ -3104,8 +3120,12 @@
         <f>IF(G6-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10004,48,FALSE)&gt;0,G6,AD5)</f>
         <v>32.53</v>
       </c>
-    </row>
-    <row r="7" spans="1:30">
+      <c r="AE6">
+        <f>AD6-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10005,48,FALSE)</f>
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31">
       <c r="A7" s="7">
         <v>44525</v>
       </c>
@@ -3146,17 +3166,17 @@
         <v>0.666666666666667</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N7" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O7" s="8" t="str">
         <f t="shared" si="1"/>
         <v>否</v>
       </c>
       <c r="P7" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="8" t="str">
         <f t="shared" si="2"/>
@@ -3181,8 +3201,12 @@
         <f>IF(G7-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10005,48,FALSE)&gt;0,G7,AD6)</f>
         <v>32.53</v>
       </c>
-    </row>
-    <row r="8" spans="1:30">
+      <c r="AE7">
+        <f>AD7-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10006,48,FALSE)</f>
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31">
       <c r="A8" s="7">
         <v>44526</v>
       </c>
@@ -3223,17 +3247,17 @@
         <v>0.5</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N8" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O8" s="8" t="str">
         <f t="shared" si="1"/>
         <v>否</v>
       </c>
       <c r="P8" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q8" s="8" t="str">
         <f t="shared" si="2"/>
@@ -3258,8 +3282,12 @@
         <f>IF(G8-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10006,48,FALSE)&gt;0,G8,AD7)</f>
         <v>32.53</v>
       </c>
-    </row>
-    <row r="9" spans="1:30">
+      <c r="AE8">
+        <f>AD8-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10007,48,FALSE)</f>
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31">
       <c r="A9" s="7">
         <v>44529</v>
       </c>
@@ -3300,17 +3328,17 @@
         <v>0.4</v>
       </c>
       <c r="M9" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N9" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O9" s="8" t="str">
         <f t="shared" si="1"/>
         <v>否</v>
       </c>
       <c r="P9" s="19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q9" s="19" t="str">
         <f t="shared" si="2"/>
@@ -3335,8 +3363,12 @@
         <f>IF(G9-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10007,48,FALSE)&gt;0,G9,AD8)</f>
         <v>32.53</v>
       </c>
-    </row>
-    <row r="10" spans="1:30">
+      <c r="AE9">
+        <f>AD9-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10008,48,FALSE)</f>
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31">
       <c r="A10" s="7">
         <v>44530</v>
       </c>
@@ -3377,17 +3409,17 @@
         <v>0.5</v>
       </c>
       <c r="M10" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N10" s="19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O10" s="8" t="str">
         <f t="shared" si="1"/>
         <v>否</v>
       </c>
       <c r="P10" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q10" s="29" t="str">
         <f t="shared" si="2"/>
@@ -3412,8 +3444,12 @@
         <f>IF(G10-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10008,48,FALSE)&gt;0,G10,AD9)</f>
         <v>33.78</v>
       </c>
-    </row>
-    <row r="11" spans="1:30">
+      <c r="AE10">
+        <f>AD10-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10009,48,FALSE)</f>
+        <v>0.0500000000000043</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31">
       <c r="A11" s="7">
         <v>44531</v>
       </c>
@@ -3454,17 +3490,17 @@
         <v>0.571428571428571</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N11" s="19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O11" s="8" t="str">
         <f t="shared" si="1"/>
         <v>否</v>
       </c>
       <c r="P11" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q11" s="29" t="str">
         <f t="shared" si="2"/>
@@ -3488,6 +3524,10 @@
       <c r="AD11" s="30">
         <f>IF(G11-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10009,48,FALSE)&gt;0,G11,AD10)</f>
         <v>33.91</v>
+      </c>
+      <c r="AE11">
+        <f>AD11-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10010,48,FALSE)</f>
+        <v>0.18</v>
       </c>
     </row>
     <row r="12" spans="1:30">
@@ -14923,7 +14963,7 @@
       <c r="U500" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="35">
+  <mergeCells count="36">
     <mergeCell ref="T1:AC1"/>
     <mergeCell ref="T2:AA2"/>
     <mergeCell ref="AB2:AC2"/>
@@ -14957,6 +14997,7 @@
     <mergeCell ref="AB3:AB4"/>
     <mergeCell ref="AC3:AC4"/>
     <mergeCell ref="AD1:AD4"/>
+    <mergeCell ref="AE1:AE4"/>
     <mergeCell ref="M1:R2"/>
     <mergeCell ref="B1:L2"/>
   </mergeCells>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/同仁堂.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/同仁堂.xlsx
@@ -229,9 +229,9 @@
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
@@ -287,40 +287,18 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -332,9 +310,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -342,29 +319,6 @@
     <font>
       <b/>
       <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -381,9 +335,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -394,9 +348,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -406,6 +368,44 @@
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -523,7 +523,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -535,49 +613,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -589,31 +649,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -625,7 +661,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -637,61 +679,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -746,45 +746,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -805,6 +770,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -816,6 +810,21 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -834,42 +843,33 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="38" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="39" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -878,118 +878,118 @@
     <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2720,7 +2720,7 @@
   <dimension ref="A1:AE500"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AB2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/同仁堂.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/同仁堂.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44">
   <si>
     <t>日期</t>
   </si>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t>止损线</t>
+  </si>
+  <si>
+    <t>盈利金额</t>
   </si>
   <si>
     <t>强势卖出指标</t>
@@ -451,7 +454,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="44">
+  <fills count="45">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -533,6 +536,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="-0.5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -711,7 +720,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -755,6 +764,19 @@
         <color auto="1"/>
       </right>
       <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -863,31 +885,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="42" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="43" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -896,52 +924,46 @@
     <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="41" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="42" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -950,7 +972,7 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -962,25 +984,25 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -989,31 +1011,34 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1120,7 +1145,7 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1128,6 +1153,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2962,14 +2993,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:AF503"/>
+  <dimension ref="A1:AG503"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AB2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="T10" sqref="T10"/>
+      <selection pane="bottomRight" activeCell="AG6" sqref="AG6:AG13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -2999,4951 +3030,5030 @@
     <col min="29" max="29" width="22.0267857142857" customWidth="1"/>
     <col min="30" max="30" width="24.5446428571429" customWidth="1"/>
     <col min="31" max="31" width="18.75" customWidth="1"/>
+    <col min="33" max="33" width="9.07142857142857" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:33">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="18" t="s">
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="25" t="s">
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="V1" s="26" t="s">
+      <c r="V1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="W1" s="26"/>
-      <c r="X1" s="26"/>
-      <c r="Y1" s="26"/>
-      <c r="Z1" s="26"/>
-      <c r="AA1" s="26"/>
-      <c r="AB1" s="26"/>
-      <c r="AC1" s="26"/>
-      <c r="AD1" s="26"/>
-      <c r="AE1" s="26"/>
-      <c r="AF1" s="37" t="s">
+      <c r="W1" s="27"/>
+      <c r="X1" s="27"/>
+      <c r="Y1" s="27"/>
+      <c r="Z1" s="27"/>
+      <c r="AA1" s="27"/>
+      <c r="AB1" s="27"/>
+      <c r="AC1" s="27"/>
+      <c r="AD1" s="27"/>
+      <c r="AE1" s="27"/>
+      <c r="AF1" s="38" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:32">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18"/>
-      <c r="U2" s="27"/>
-      <c r="V2" s="28" t="s">
+      <c r="AG1" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="W2" s="28"/>
-      <c r="X2" s="28"/>
-      <c r="Y2" s="28"/>
-      <c r="Z2" s="28"/>
-      <c r="AA2" s="28"/>
-      <c r="AB2" s="28"/>
-      <c r="AC2" s="28"/>
-      <c r="AD2" s="38" t="s">
+    </row>
+    <row r="2" spans="1:33">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="28"/>
+      <c r="V2" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="AE2" s="38"/>
-      <c r="AF2" s="37"/>
-    </row>
-    <row r="3" spans="1:32">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="19" t="s">
+      <c r="W2" s="29"/>
+      <c r="X2" s="29"/>
+      <c r="Y2" s="29"/>
+      <c r="Z2" s="29"/>
+      <c r="AA2" s="29"/>
+      <c r="AB2" s="29"/>
+      <c r="AC2" s="29"/>
+      <c r="AD2" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="23" t="s">
+      <c r="AE2" s="39"/>
+      <c r="AF2" s="38"/>
+      <c r="AG2" s="42"/>
+    </row>
+    <row r="3" spans="1:33">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="R3" s="23"/>
-      <c r="S3" s="23"/>
-      <c r="T3" s="23"/>
-      <c r="U3" s="27"/>
-      <c r="V3" s="28"/>
-      <c r="W3" s="28"/>
-      <c r="X3" s="28"/>
-      <c r="Y3" s="28"/>
-      <c r="Z3" s="28"/>
-      <c r="AA3" s="28"/>
-      <c r="AB3" s="28"/>
-      <c r="AC3" s="28"/>
-      <c r="AD3" s="38"/>
-      <c r="AE3" s="38"/>
-      <c r="AF3" s="37"/>
-    </row>
-    <row r="4" spans="1:32">
-      <c r="A4" s="2"/>
-      <c r="B4" s="4" t="s">
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="R3" s="24"/>
+      <c r="S3" s="24"/>
+      <c r="T3" s="24"/>
+      <c r="U3" s="28"/>
+      <c r="V3" s="29"/>
+      <c r="W3" s="29"/>
+      <c r="X3" s="29"/>
+      <c r="Y3" s="29"/>
+      <c r="Z3" s="29"/>
+      <c r="AA3" s="29"/>
+      <c r="AB3" s="29"/>
+      <c r="AC3" s="29"/>
+      <c r="AD3" s="39"/>
+      <c r="AE3" s="39"/>
+      <c r="AF3" s="38"/>
+      <c r="AG3" s="42"/>
+    </row>
+    <row r="4" spans="1:33">
+      <c r="A4" s="3"/>
+      <c r="B4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="D4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="E4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="F4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="G4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="H4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="I4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="J4" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="11" t="s">
+      <c r="K4" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="M4" s="12" t="s">
+      <c r="L4" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="N4" s="20" t="s">
+      <c r="M4" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="O4" s="20" t="s">
+      <c r="N4" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="P4" s="20" t="s">
+      <c r="O4" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="Q4" s="24" t="s">
+      <c r="P4" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="R4" s="24" t="s">
+      <c r="Q4" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="S4" s="24" t="s">
+      <c r="R4" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="T4" s="24" t="s">
+      <c r="S4" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="U4" s="27"/>
-      <c r="V4" s="29" t="s">
+      <c r="T4" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="W4" s="29" t="s">
+      <c r="U4" s="28"/>
+      <c r="V4" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="X4" s="28" t="s">
+      <c r="W4" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="Y4" s="28"/>
-      <c r="Z4" s="36" t="s">
+      <c r="X4" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="AA4" s="28" t="s">
+      <c r="Y4" s="29"/>
+      <c r="Z4" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="AB4" s="36" t="s">
+      <c r="AA4" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="AC4" s="36" t="s">
+      <c r="AB4" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="AD4" s="38" t="s">
+      <c r="AC4" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="AE4" s="39" t="s">
+      <c r="AD4" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="AF4" s="37"/>
-    </row>
-    <row r="5" ht="56" customHeight="1" spans="1:32">
-      <c r="A5" s="2"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="24"/>
-      <c r="R5" s="24"/>
-      <c r="S5" s="24"/>
-      <c r="T5" s="24"/>
-      <c r="U5" s="27"/>
-      <c r="V5" s="29"/>
-      <c r="W5" s="29"/>
-      <c r="X5" s="30" t="s">
+      <c r="AE4" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="Y5" s="30" t="s">
+      <c r="AF4" s="38"/>
+      <c r="AG4" s="42"/>
+    </row>
+    <row r="5" ht="56" customHeight="1" spans="1:33">
+      <c r="A5" s="3"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="25"/>
+      <c r="R5" s="25"/>
+      <c r="S5" s="25"/>
+      <c r="T5" s="25"/>
+      <c r="U5" s="28"/>
+      <c r="V5" s="30"/>
+      <c r="W5" s="30"/>
+      <c r="X5" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="Z5" s="28"/>
-      <c r="AA5" s="28"/>
-      <c r="AB5" s="28"/>
-      <c r="AC5" s="28"/>
-      <c r="AD5" s="38"/>
-      <c r="AE5" s="38"/>
-      <c r="AF5" s="37"/>
-    </row>
-    <row r="6" ht="18" spans="1:32">
-      <c r="A6" s="5">
+      <c r="Y5" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z5" s="29"/>
+      <c r="AA5" s="29"/>
+      <c r="AB5" s="29"/>
+      <c r="AC5" s="29"/>
+      <c r="AD5" s="39"/>
+      <c r="AE5" s="39"/>
+      <c r="AF5" s="38"/>
+      <c r="AG5" s="42"/>
+    </row>
+    <row r="6" ht="18" spans="1:33">
+      <c r="A6" s="6">
         <v>44523</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="7">
         <v>35.24</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="7">
         <v>33.15</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="7">
         <v>35.36</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="7">
         <v>33.1</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="7">
         <v>33.27</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="7">
         <v>33.25</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="7">
         <v>36.8</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6" s="9">
         <v>1</v>
       </c>
-      <c r="J6" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="K6" s="14">
+      <c r="J6" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="K6" s="15">
         <f>(B6-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10004,48,FALSE))/VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10004,48,FALSE)</f>
         <v>0.0447672694930331</v>
       </c>
-      <c r="L6" s="15">
+      <c r="L6" s="16">
         <f>I6/(ROW()-5)</f>
         <v>1</v>
       </c>
-      <c r="M6" s="8" t="str">
+      <c r="M6" s="9" t="str">
         <f>IF(B6&gt;=(D6-(D6-E6)/2),"上部","下部")</f>
         <v>上部</v>
       </c>
-      <c r="N6" s="8" t="str">
+      <c r="N6" s="9" t="str">
         <f>IF(B6&lt;F6,"是","否")</f>
         <v>否</v>
       </c>
-      <c r="O6" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="P6" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q6" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="R6" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="S6" s="8"/>
-      <c r="T6" s="21" t="s">
+      <c r="O6" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="U6" s="31"/>
-      <c r="V6" s="31"/>
-      <c r="W6" s="32"/>
-      <c r="X6" s="33"/>
-      <c r="Y6" s="33"/>
-      <c r="Z6" s="33"/>
-      <c r="AA6" s="33"/>
-      <c r="AB6" s="33"/>
-      <c r="AC6" s="33"/>
-      <c r="AD6" s="33"/>
-      <c r="AE6" s="33"/>
-      <c r="AF6" s="33"/>
-    </row>
-    <row r="7" spans="1:32">
-      <c r="A7" s="7">
+      <c r="P6" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q6" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="R6" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="S6" s="9"/>
+      <c r="T6" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="U6" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="V6" s="32"/>
+      <c r="W6" s="33"/>
+      <c r="X6" s="34"/>
+      <c r="Y6" s="34"/>
+      <c r="Z6" s="34"/>
+      <c r="AA6" s="34"/>
+      <c r="AB6" s="34"/>
+      <c r="AC6" s="34"/>
+      <c r="AD6" s="34"/>
+      <c r="AE6" s="34"/>
+      <c r="AF6" s="41">
+        <v>32.53</v>
+      </c>
+      <c r="AG6" s="2">
+        <f>AF6-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10005,48,FALSE)</f>
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="7" ht="18" spans="1:33">
+      <c r="A7" s="8">
         <v>44524</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="7">
         <v>34.44</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="7">
         <v>35.1</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="7">
         <v>35.13</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="7">
         <v>34.38</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="7">
         <v>33.39</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="7">
         <v>33.3</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="7">
         <v>39.09</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="9">
         <v>1</v>
       </c>
-      <c r="J7" s="16">
+      <c r="J7" s="17">
         <f t="shared" ref="J7:J12" si="0">(B7-B6)/B6</f>
         <v>-0.0227014755959139</v>
       </c>
-      <c r="K7" s="14">
+      <c r="K7" s="15">
         <f>(B7-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10005,48,FALSE))/VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10005,48,FALSE)</f>
         <v>0.0210495108212274</v>
       </c>
-      <c r="L7" s="15">
+      <c r="L7" s="16">
         <f t="shared" ref="L7:L12" si="1">I7/(ROW()-5)</f>
         <v>0.5</v>
       </c>
-      <c r="M7" s="21" t="str">
+      <c r="M7" s="22" t="str">
         <f t="shared" ref="M7:M12" si="2">IF(B7&gt;=(D7-(D7-E7)/2),"上部","下部")</f>
         <v>下部</v>
       </c>
-      <c r="N7" s="8" t="str">
+      <c r="N7" s="9" t="str">
         <f t="shared" ref="N7:N12" si="3">IF(B7&lt;F7,"是","否")</f>
         <v>否</v>
       </c>
-      <c r="O7" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="P7" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q7" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="R7" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="S7" s="8" t="str">
+      <c r="O7" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="P7" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q7" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="R7" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="S7" s="9" t="str">
         <f t="shared" ref="S7:S13" si="4">IF(I6/(ROW()-5)&gt;=0.5,"是","否")</f>
         <v>是</v>
       </c>
-      <c r="T7" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="U7" s="34"/>
-      <c r="V7" s="34"/>
-      <c r="W7" s="35"/>
-      <c r="X7" s="33"/>
-      <c r="Y7" s="33"/>
-      <c r="Z7" s="33"/>
-      <c r="AA7" s="33"/>
-      <c r="AB7" s="33"/>
-      <c r="AC7" s="33"/>
-      <c r="AD7" s="33"/>
-      <c r="AE7" s="33"/>
-      <c r="AF7" s="33"/>
-    </row>
-    <row r="8" spans="1:32">
-      <c r="A8" s="7">
+      <c r="T7" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="U7" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="V7" s="35"/>
+      <c r="W7" s="36"/>
+      <c r="X7" s="34"/>
+      <c r="Y7" s="34"/>
+      <c r="Z7" s="34"/>
+      <c r="AA7" s="34"/>
+      <c r="AB7" s="34"/>
+      <c r="AC7" s="34"/>
+      <c r="AD7" s="34"/>
+      <c r="AE7" s="34"/>
+      <c r="AF7" s="41">
+        <f>IF(G7-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10005,48,FALSE)&gt;0,G7,AF6)</f>
+        <v>32.53</v>
+      </c>
+      <c r="AG7" s="2">
+        <f>AF7-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10006,48,FALSE)</f>
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="8" ht="18" spans="1:33">
+      <c r="A8" s="8">
         <v>44525</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="7">
         <v>37</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="7">
         <v>34.6</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="7">
         <v>37.6</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="7">
         <v>34.6</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="7">
         <v>33.73</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="7">
         <v>33.45</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="7">
         <v>38.2</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I8" s="9">
         <v>2</v>
       </c>
-      <c r="J8" s="16">
+      <c r="J8" s="17">
         <f t="shared" si="0"/>
         <v>0.0743321718931476</v>
       </c>
-      <c r="K8" s="14">
+      <c r="K8" s="15">
         <f>(B8-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10006,48,FALSE))/VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10006,48,FALSE)</f>
         <v>0.0969463385710051</v>
       </c>
-      <c r="L8" s="15">
+      <c r="L8" s="16">
         <f t="shared" si="1"/>
         <v>0.666666666666667</v>
       </c>
-      <c r="M8" s="8" t="str">
+      <c r="M8" s="9" t="str">
         <f t="shared" si="2"/>
         <v>上部</v>
       </c>
-      <c r="N8" s="8" t="str">
+      <c r="N8" s="9" t="str">
         <f t="shared" si="3"/>
         <v>否</v>
       </c>
-      <c r="O8" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="P8" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q8" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="R8" s="21" t="s">
+      <c r="O8" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="S8" s="8" t="str">
+      <c r="P8" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q8" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="R8" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="S8" s="9" t="str">
         <f t="shared" si="4"/>
         <v>否</v>
       </c>
-      <c r="T8" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="U8" s="34"/>
-      <c r="V8" s="34"/>
-      <c r="W8" s="35"/>
-      <c r="X8" s="33"/>
-      <c r="Y8" s="33"/>
-      <c r="Z8" s="33"/>
-      <c r="AA8" s="33"/>
-      <c r="AB8" s="33"/>
-      <c r="AC8" s="33"/>
-      <c r="AD8" s="33"/>
-      <c r="AE8" s="33"/>
-      <c r="AF8" s="33"/>
-    </row>
-    <row r="9" spans="1:32">
-      <c r="A9" s="7">
+      <c r="T8" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="U8" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="V8" s="35"/>
+      <c r="W8" s="36"/>
+      <c r="X8" s="34"/>
+      <c r="Y8" s="34"/>
+      <c r="Z8" s="34"/>
+      <c r="AA8" s="34"/>
+      <c r="AB8" s="34"/>
+      <c r="AC8" s="34"/>
+      <c r="AD8" s="34"/>
+      <c r="AE8" s="34"/>
+      <c r="AF8" s="41">
+        <f>IF(G8-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10006,48,FALSE)&gt;0,G8,AF7)</f>
+        <v>32.53</v>
+      </c>
+      <c r="AG8" s="2">
+        <f>AF8-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10007,48,FALSE)</f>
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="9" ht="18" spans="1:33">
+      <c r="A9" s="8">
         <v>44526</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="7">
         <v>36.81</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="7">
         <v>37</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="7">
         <v>37.25</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="7">
         <v>36.34</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="7">
         <v>34.02</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="7">
         <v>33.58</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="7">
         <v>41.04</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I9" s="9">
         <v>2</v>
       </c>
-      <c r="J9" s="16">
+      <c r="J9" s="17">
         <f t="shared" si="0"/>
         <v>-0.00513513513513507</v>
       </c>
-      <c r="K9" s="14">
+      <c r="K9" s="15">
         <f>(B9-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10007,48,FALSE))/VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10007,48,FALSE)</f>
         <v>0.0913133708864514</v>
       </c>
-      <c r="L9" s="15">
+      <c r="L9" s="16">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="M9" s="8" t="str">
+      <c r="M9" s="9" t="str">
         <f t="shared" si="2"/>
         <v>上部</v>
       </c>
-      <c r="N9" s="8" t="str">
+      <c r="N9" s="9" t="str">
         <f t="shared" si="3"/>
         <v>否</v>
       </c>
-      <c r="O9" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="P9" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q9" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="R9" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="S9" s="8" t="str">
+      <c r="O9" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="P9" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q9" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="R9" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="S9" s="9" t="str">
         <f t="shared" si="4"/>
         <v>是</v>
       </c>
-      <c r="T9" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="U9" s="34"/>
-      <c r="V9" s="34"/>
-      <c r="W9" s="35"/>
-      <c r="X9" s="33"/>
-      <c r="Y9" s="33"/>
-      <c r="Z9" s="33"/>
-      <c r="AA9" s="33"/>
-      <c r="AB9" s="33"/>
-      <c r="AC9" s="33"/>
-      <c r="AD9" s="33"/>
-      <c r="AE9" s="33"/>
-      <c r="AF9" s="33"/>
-    </row>
-    <row r="10" spans="1:32">
-      <c r="A10" s="7">
+      <c r="T9" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="U9" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="V9" s="35"/>
+      <c r="W9" s="36"/>
+      <c r="X9" s="34"/>
+      <c r="Y9" s="34"/>
+      <c r="Z9" s="34"/>
+      <c r="AA9" s="34"/>
+      <c r="AB9" s="34"/>
+      <c r="AC9" s="34"/>
+      <c r="AD9" s="34"/>
+      <c r="AE9" s="34"/>
+      <c r="AF9" s="41">
+        <f>IF(G9-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10007,48,FALSE)&gt;0,G9,AF8)</f>
+        <v>32.53</v>
+      </c>
+      <c r="AG9" s="2">
+        <f>AF9-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10008,48,FALSE)</f>
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="10" ht="18" spans="1:33">
+      <c r="A10" s="8">
         <v>44529</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="7">
         <v>36.12</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="7">
         <v>36.7</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="7">
         <v>37.38</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="7">
         <v>35.92</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="7">
         <v>34.22</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="7">
         <v>33.68</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="7">
         <v>40.83</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I10" s="9">
         <v>2</v>
       </c>
-      <c r="J10" s="16">
+      <c r="J10" s="17">
         <f t="shared" si="0"/>
         <v>-0.0187449062754688</v>
       </c>
-      <c r="K10" s="14">
+      <c r="K10" s="15">
         <f>(B10-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10008,48,FALSE))/VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10008,48,FALSE)</f>
         <v>0.070856804032019</v>
       </c>
-      <c r="L10" s="17">
+      <c r="L10" s="18">
         <f t="shared" si="1"/>
         <v>0.4</v>
       </c>
-      <c r="M10" s="21" t="str">
+      <c r="M10" s="22" t="str">
         <f t="shared" si="2"/>
         <v>下部</v>
       </c>
-      <c r="N10" s="8" t="str">
+      <c r="N10" s="9" t="str">
         <f t="shared" si="3"/>
         <v>否</v>
       </c>
-      <c r="O10" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="P10" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q10" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="R10" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="S10" s="8" t="str">
+      <c r="O10" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="P10" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q10" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="R10" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="S10" s="9" t="str">
         <f t="shared" si="4"/>
         <v>否</v>
       </c>
-      <c r="T10" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="U10" s="8"/>
-      <c r="V10" s="8"/>
-      <c r="W10" s="6"/>
-      <c r="X10" s="33"/>
-      <c r="Y10" s="33"/>
-      <c r="Z10" s="33"/>
-      <c r="AA10" s="33"/>
-      <c r="AB10" s="33"/>
-      <c r="AC10" s="33"/>
-      <c r="AD10" s="33"/>
-      <c r="AE10" s="33"/>
-      <c r="AF10" s="33"/>
-    </row>
-    <row r="11" spans="1:32">
-      <c r="A11" s="7">
+      <c r="T10" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="U10" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="V10" s="9"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="34"/>
+      <c r="Y10" s="34"/>
+      <c r="Z10" s="34"/>
+      <c r="AA10" s="34"/>
+      <c r="AB10" s="34"/>
+      <c r="AC10" s="34"/>
+      <c r="AD10" s="34"/>
+      <c r="AE10" s="34"/>
+      <c r="AF10" s="41">
+        <f>IF(G10-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10008,48,FALSE)&gt;0,G10,AF9)</f>
+        <v>32.53</v>
+      </c>
+      <c r="AG10" s="2">
+        <f>AF10-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10009,48,FALSE)</f>
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="11" ht="18" spans="1:33">
+      <c r="A11" s="8">
         <v>44530</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="7">
         <v>36.31</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="7">
         <v>36.38</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="7">
         <v>36.56</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="7">
         <v>35.7</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="7">
         <v>34.42</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="7">
         <v>33.78</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="7">
         <v>40.07</v>
       </c>
-      <c r="I11" s="8">
+      <c r="I11" s="9">
         <v>3</v>
       </c>
-      <c r="J11" s="16">
+      <c r="J11" s="17">
         <f t="shared" si="0"/>
         <v>0.00526024363233679</v>
       </c>
-      <c r="K11" s="14">
+      <c r="K11" s="15">
         <f>(B11-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10009,48,FALSE))/VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10009,48,FALSE)</f>
         <v>0.076489771716573</v>
       </c>
-      <c r="L11" s="15">
+      <c r="L11" s="16">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="M11" s="8" t="str">
+      <c r="M11" s="9" t="str">
         <f t="shared" si="2"/>
         <v>上部</v>
       </c>
-      <c r="N11" s="8" t="str">
+      <c r="N11" s="9" t="str">
         <f t="shared" si="3"/>
         <v>否</v>
       </c>
-      <c r="O11" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="P11" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q11" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="R11" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="S11" s="8" t="str">
+      <c r="O11" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="P11" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q11" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="R11" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="S11" s="9" t="str">
         <f t="shared" si="4"/>
         <v>否</v>
       </c>
-      <c r="T11" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="U11" s="8"/>
-      <c r="V11" s="8"/>
-      <c r="W11" s="6"/>
-      <c r="X11" s="33"/>
-      <c r="Y11" s="33"/>
-      <c r="Z11" s="33"/>
-      <c r="AA11" s="33"/>
-      <c r="AB11" s="33"/>
-      <c r="AC11" s="33"/>
-      <c r="AD11" s="33"/>
-      <c r="AE11" s="33"/>
-      <c r="AF11" s="33"/>
-    </row>
-    <row r="12" spans="1:32">
-      <c r="A12" s="7">
+      <c r="T11" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="U11" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="V11" s="9"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="34"/>
+      <c r="Y11" s="34"/>
+      <c r="Z11" s="34"/>
+      <c r="AA11" s="34"/>
+      <c r="AB11" s="34"/>
+      <c r="AC11" s="34"/>
+      <c r="AD11" s="34"/>
+      <c r="AE11" s="34"/>
+      <c r="AF11" s="41">
+        <f>IF(G11-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10009,48,FALSE)&gt;0,G11,AF10)</f>
+        <v>33.78</v>
+      </c>
+      <c r="AG11" s="2">
+        <f>AF11-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10010,48,FALSE)</f>
+        <v>0.0500000000000043</v>
+      </c>
+    </row>
+    <row r="12" ht="18" spans="1:33">
+      <c r="A12" s="8">
         <v>44531</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="7">
         <v>37.11</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="7">
         <v>36.17</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="7">
         <v>37.8</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="7">
         <v>35.6</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="7">
         <v>34.68</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="7">
         <v>33.91</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="7">
         <v>40.28</v>
       </c>
-      <c r="I12" s="8">
+      <c r="I12" s="9">
         <v>4</v>
       </c>
-      <c r="J12" s="16">
+      <c r="J12" s="17">
         <f t="shared" si="0"/>
         <v>0.0220324979344532</v>
       </c>
-      <c r="K12" s="14">
+      <c r="K12" s="15">
         <f>(B12-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10010,48,FALSE))/VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10010,48,FALSE)</f>
         <v>0.100207530388378</v>
       </c>
-      <c r="L12" s="15">
+      <c r="L12" s="16">
         <f t="shared" si="1"/>
         <v>0.571428571428571</v>
       </c>
-      <c r="M12" s="8" t="str">
+      <c r="M12" s="9" t="str">
         <f t="shared" si="2"/>
         <v>上部</v>
       </c>
-      <c r="N12" s="8" t="str">
+      <c r="N12" s="9" t="str">
         <f t="shared" si="3"/>
         <v>否</v>
       </c>
-      <c r="O12" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="P12" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q12" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="R12" s="21" t="s">
+      <c r="O12" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="S12" s="8" t="str">
+      <c r="P12" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q12" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="R12" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="S12" s="9" t="str">
         <f t="shared" si="4"/>
         <v>否</v>
       </c>
-      <c r="T12" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="U12" s="8"/>
-      <c r="V12" s="8"/>
-      <c r="W12" s="6"/>
-      <c r="X12" s="33"/>
-      <c r="Y12" s="33"/>
-      <c r="Z12" s="33"/>
-      <c r="AA12" s="33"/>
-      <c r="AB12" s="33"/>
-      <c r="AC12" s="33"/>
-      <c r="AD12" s="33"/>
-      <c r="AE12" s="33"/>
-      <c r="AF12" s="33"/>
-    </row>
-    <row r="13" spans="1:32">
-      <c r="A13" s="7">
+      <c r="T12" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="U12" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="V12" s="9"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="34"/>
+      <c r="Y12" s="34"/>
+      <c r="Z12" s="34"/>
+      <c r="AA12" s="34"/>
+      <c r="AB12" s="34"/>
+      <c r="AC12" s="34"/>
+      <c r="AD12" s="34"/>
+      <c r="AE12" s="34"/>
+      <c r="AF12" s="41">
+        <f>IF(G12-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10010,48,FALSE)&gt;0,G12,AF11)</f>
+        <v>33.91</v>
+      </c>
+      <c r="AG12" s="2">
+        <f>AF12-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10011,48,FALSE)</f>
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="13" ht="18" spans="1:33">
+      <c r="A13" s="8">
         <v>44532</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="7">
         <v>36.8</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="7">
         <v>37.5</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="7">
         <v>38.8</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="7">
         <v>36.71</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="7">
         <v>34.88</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="7">
         <v>34.02</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="7">
         <v>41.16</v>
       </c>
-      <c r="I13" s="8">
+      <c r="I13" s="9">
         <v>4</v>
       </c>
-      <c r="J13" s="16">
+      <c r="J13" s="17">
         <f>(B13-B12)/B12</f>
         <v>-0.0083535435192671</v>
       </c>
-      <c r="K13" s="14">
+      <c r="K13" s="15">
         <f>(B13-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10011,48,FALSE))/VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10011,48,FALSE)</f>
         <v>0.0910168989030537</v>
       </c>
-      <c r="L13" s="15">
+      <c r="L13" s="16">
         <f>I13/(ROW()-5)</f>
         <v>0.5</v>
       </c>
-      <c r="M13" s="21" t="str">
+      <c r="M13" s="22" t="str">
         <f>IF(B13&gt;=(D13-(D13-E13)/2),"上部","下部")</f>
         <v>下部</v>
       </c>
-      <c r="N13" s="8" t="str">
+      <c r="N13" s="9" t="str">
         <f>IF(B13&lt;F13,"是","否")</f>
         <v>否</v>
       </c>
-      <c r="O13" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="P13" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q13" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="R13" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="S13" s="8" t="str">
+      <c r="O13" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="P13" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q13" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="R13" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="S13" s="9" t="str">
         <f t="shared" si="4"/>
         <v>是</v>
       </c>
-      <c r="T13" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="U13" s="8"/>
-      <c r="V13" s="8"/>
-      <c r="W13" s="6"/>
-      <c r="X13" s="33"/>
-      <c r="Y13" s="33"/>
-      <c r="Z13" s="33"/>
-      <c r="AA13" s="33"/>
-      <c r="AB13" s="33"/>
-      <c r="AC13" s="33"/>
-      <c r="AD13" s="33"/>
-      <c r="AE13" s="33"/>
-      <c r="AF13" s="33"/>
+      <c r="T13" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="U13" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="V13" s="9"/>
+      <c r="W13" s="7"/>
+      <c r="X13" s="34"/>
+      <c r="Y13" s="34"/>
+      <c r="Z13" s="34"/>
+      <c r="AA13" s="34"/>
+      <c r="AB13" s="34"/>
+      <c r="AC13" s="34"/>
+      <c r="AD13" s="34"/>
+      <c r="AE13" s="34"/>
+      <c r="AF13" s="41">
+        <f>IF(G13-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10011,48,FALSE)&gt;0,G13,AF12)</f>
+        <v>34.02</v>
+      </c>
+      <c r="AG13" s="2">
+        <f>AF13-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10012,48,FALSE)</f>
+        <v>0.290000000000006</v>
+      </c>
     </row>
     <row r="14" spans="1:32">
-      <c r="A14" s="7">
+      <c r="A14" s="8">
         <v>44533</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="8"/>
-      <c r="T14" s="8"/>
-      <c r="U14" s="8"/>
-      <c r="V14" s="8"/>
-      <c r="W14" s="6"/>
-      <c r="X14" s="33"/>
-      <c r="Y14" s="33"/>
-      <c r="Z14" s="33"/>
-      <c r="AA14" s="33"/>
-      <c r="AB14" s="33"/>
-      <c r="AC14" s="33"/>
-      <c r="AD14" s="33"/>
-      <c r="AE14" s="33"/>
-      <c r="AF14" s="33"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="9"/>
+      <c r="W14" s="7"/>
+      <c r="X14" s="34"/>
+      <c r="Y14" s="34"/>
+      <c r="Z14" s="34"/>
+      <c r="AA14" s="34"/>
+      <c r="AB14" s="34"/>
+      <c r="AC14" s="34"/>
+      <c r="AD14" s="34"/>
+      <c r="AE14" s="34"/>
+      <c r="AF14" s="41"/>
     </row>
     <row r="15" spans="1:32">
-      <c r="A15" s="7">
+      <c r="A15" s="8">
         <v>44534</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="8"/>
-      <c r="S15" s="8"/>
-      <c r="T15" s="8"/>
-      <c r="U15" s="8"/>
-      <c r="V15" s="8"/>
-      <c r="W15" s="6"/>
-      <c r="X15" s="33"/>
-      <c r="Y15" s="33"/>
-      <c r="Z15" s="33"/>
-      <c r="AA15" s="33"/>
-      <c r="AB15" s="33"/>
-      <c r="AC15" s="33"/>
-      <c r="AD15" s="33"/>
-      <c r="AE15" s="33"/>
-      <c r="AF15" s="33"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="9"/>
+      <c r="V15" s="9"/>
+      <c r="W15" s="7"/>
+      <c r="X15" s="34"/>
+      <c r="Y15" s="34"/>
+      <c r="Z15" s="34"/>
+      <c r="AA15" s="34"/>
+      <c r="AB15" s="34"/>
+      <c r="AC15" s="34"/>
+      <c r="AD15" s="34"/>
+      <c r="AE15" s="34"/>
+      <c r="AF15" s="41"/>
     </row>
     <row r="16" spans="1:32">
-      <c r="A16" s="7">
+      <c r="A16" s="8">
         <v>44535</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="8"/>
-      <c r="S16" s="8"/>
-      <c r="T16" s="8"/>
-      <c r="U16" s="8"/>
-      <c r="V16" s="8"/>
-      <c r="W16" s="6"/>
-      <c r="X16" s="33"/>
-      <c r="Y16" s="33"/>
-      <c r="Z16" s="33"/>
-      <c r="AA16" s="33"/>
-      <c r="AB16" s="33"/>
-      <c r="AC16" s="33"/>
-      <c r="AD16" s="33"/>
-      <c r="AE16" s="33"/>
-      <c r="AF16" s="33"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9"/>
+      <c r="S16" s="9"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="9"/>
+      <c r="V16" s="9"/>
+      <c r="W16" s="7"/>
+      <c r="X16" s="34"/>
+      <c r="Y16" s="34"/>
+      <c r="Z16" s="34"/>
+      <c r="AA16" s="34"/>
+      <c r="AB16" s="34"/>
+      <c r="AC16" s="34"/>
+      <c r="AD16" s="34"/>
+      <c r="AE16" s="34"/>
+      <c r="AF16" s="41"/>
     </row>
     <row r="17" spans="1:32">
-      <c r="A17" s="7">
+      <c r="A17" s="8">
         <v>44536</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="8"/>
-      <c r="R17" s="8"/>
-      <c r="S17" s="8"/>
-      <c r="T17" s="8"/>
-      <c r="U17" s="8"/>
-      <c r="V17" s="8"/>
-      <c r="W17" s="6"/>
-      <c r="X17" s="33"/>
-      <c r="Y17" s="33"/>
-      <c r="Z17" s="33"/>
-      <c r="AA17" s="33"/>
-      <c r="AB17" s="33"/>
-      <c r="AC17" s="33"/>
-      <c r="AD17" s="33"/>
-      <c r="AE17" s="33"/>
-      <c r="AF17" s="33"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="9"/>
+      <c r="V17" s="9"/>
+      <c r="W17" s="7"/>
+      <c r="X17" s="34"/>
+      <c r="Y17" s="34"/>
+      <c r="Z17" s="34"/>
+      <c r="AA17" s="34"/>
+      <c r="AB17" s="34"/>
+      <c r="AC17" s="34"/>
+      <c r="AD17" s="34"/>
+      <c r="AE17" s="34"/>
+      <c r="AF17" s="41"/>
     </row>
     <row r="18" spans="1:32">
-      <c r="A18" s="7">
+      <c r="A18" s="8">
         <v>44537</v>
       </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="8"/>
-      <c r="R18" s="8"/>
-      <c r="S18" s="8"/>
-      <c r="T18" s="8"/>
-      <c r="U18" s="8"/>
-      <c r="V18" s="8"/>
-      <c r="W18" s="6"/>
-      <c r="X18" s="33"/>
-      <c r="Y18" s="33"/>
-      <c r="Z18" s="33"/>
-      <c r="AA18" s="33"/>
-      <c r="AB18" s="33"/>
-      <c r="AC18" s="33"/>
-      <c r="AD18" s="33"/>
-      <c r="AE18" s="33"/>
-      <c r="AF18" s="33"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="9"/>
+      <c r="U18" s="9"/>
+      <c r="V18" s="9"/>
+      <c r="W18" s="7"/>
+      <c r="X18" s="34"/>
+      <c r="Y18" s="34"/>
+      <c r="Z18" s="34"/>
+      <c r="AA18" s="34"/>
+      <c r="AB18" s="34"/>
+      <c r="AC18" s="34"/>
+      <c r="AD18" s="34"/>
+      <c r="AE18" s="34"/>
+      <c r="AF18" s="41"/>
     </row>
     <row r="19" spans="1:32">
-      <c r="A19" s="7">
+      <c r="A19" s="8">
         <v>44538</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
-      <c r="R19" s="8"/>
-      <c r="S19" s="8"/>
-      <c r="T19" s="8"/>
-      <c r="U19" s="8"/>
-      <c r="V19" s="8"/>
-      <c r="W19" s="6"/>
-      <c r="X19" s="33"/>
-      <c r="Y19" s="33"/>
-      <c r="Z19" s="33"/>
-      <c r="AA19" s="33"/>
-      <c r="AB19" s="33"/>
-      <c r="AC19" s="33"/>
-      <c r="AD19" s="33"/>
-      <c r="AE19" s="33"/>
-      <c r="AF19" s="33"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="9"/>
+      <c r="T19" s="9"/>
+      <c r="U19" s="9"/>
+      <c r="V19" s="9"/>
+      <c r="W19" s="7"/>
+      <c r="X19" s="34"/>
+      <c r="Y19" s="34"/>
+      <c r="Z19" s="34"/>
+      <c r="AA19" s="34"/>
+      <c r="AB19" s="34"/>
+      <c r="AC19" s="34"/>
+      <c r="AD19" s="34"/>
+      <c r="AE19" s="34"/>
+      <c r="AF19" s="41"/>
     </row>
     <row r="20" spans="1:32">
-      <c r="A20" s="7"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
-      <c r="Q20" s="8"/>
-      <c r="R20" s="8"/>
-      <c r="S20" s="8"/>
-      <c r="T20" s="8"/>
-      <c r="U20" s="8"/>
-      <c r="V20" s="8"/>
-      <c r="W20" s="6"/>
-      <c r="X20" s="33"/>
-      <c r="Y20" s="33"/>
-      <c r="Z20" s="33"/>
-      <c r="AA20" s="33"/>
-      <c r="AB20" s="33"/>
-      <c r="AC20" s="33"/>
-      <c r="AD20" s="33"/>
-      <c r="AE20" s="33"/>
-      <c r="AF20" s="33"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="9"/>
+      <c r="T20" s="9"/>
+      <c r="U20" s="9"/>
+      <c r="V20" s="9"/>
+      <c r="W20" s="7"/>
+      <c r="X20" s="34"/>
+      <c r="Y20" s="34"/>
+      <c r="Z20" s="34"/>
+      <c r="AA20" s="34"/>
+      <c r="AB20" s="34"/>
+      <c r="AC20" s="34"/>
+      <c r="AD20" s="34"/>
+      <c r="AE20" s="34"/>
+      <c r="AF20" s="41"/>
     </row>
     <row r="21" spans="1:32">
-      <c r="A21" s="7"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="8"/>
-      <c r="R21" s="8"/>
-      <c r="S21" s="8"/>
-      <c r="T21" s="8"/>
-      <c r="U21" s="8"/>
-      <c r="V21" s="8"/>
-      <c r="W21" s="6"/>
-      <c r="X21" s="33"/>
-      <c r="Y21" s="33"/>
-      <c r="Z21" s="33"/>
-      <c r="AA21" s="33"/>
-      <c r="AB21" s="33"/>
-      <c r="AC21" s="33"/>
-      <c r="AD21" s="33"/>
-      <c r="AE21" s="33"/>
-      <c r="AF21" s="33"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="9"/>
+      <c r="T21" s="9"/>
+      <c r="U21" s="9"/>
+      <c r="V21" s="9"/>
+      <c r="W21" s="7"/>
+      <c r="X21" s="34"/>
+      <c r="Y21" s="34"/>
+      <c r="Z21" s="34"/>
+      <c r="AA21" s="34"/>
+      <c r="AB21" s="34"/>
+      <c r="AC21" s="34"/>
+      <c r="AD21" s="34"/>
+      <c r="AE21" s="34"/>
+      <c r="AF21" s="41"/>
     </row>
     <row r="22" spans="1:32">
-      <c r="A22" s="7"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="8"/>
-      <c r="Q22" s="8"/>
-      <c r="R22" s="8"/>
-      <c r="S22" s="8"/>
-      <c r="T22" s="8"/>
-      <c r="U22" s="8"/>
-      <c r="V22" s="8"/>
-      <c r="W22" s="6"/>
-      <c r="X22" s="33"/>
-      <c r="Y22" s="33"/>
-      <c r="Z22" s="33"/>
-      <c r="AA22" s="33"/>
-      <c r="AB22" s="33"/>
-      <c r="AC22" s="33"/>
-      <c r="AD22" s="33"/>
-      <c r="AE22" s="33"/>
-      <c r="AF22" s="33"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="9"/>
+      <c r="S22" s="9"/>
+      <c r="T22" s="9"/>
+      <c r="U22" s="9"/>
+      <c r="V22" s="9"/>
+      <c r="W22" s="7"/>
+      <c r="X22" s="34"/>
+      <c r="Y22" s="34"/>
+      <c r="Z22" s="34"/>
+      <c r="AA22" s="34"/>
+      <c r="AB22" s="34"/>
+      <c r="AC22" s="34"/>
+      <c r="AD22" s="34"/>
+      <c r="AE22" s="34"/>
+      <c r="AF22" s="41"/>
     </row>
     <row r="23" spans="1:32">
-      <c r="A23" s="7"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="8"/>
-      <c r="Q23" s="8"/>
-      <c r="R23" s="8"/>
-      <c r="S23" s="8"/>
-      <c r="T23" s="8"/>
-      <c r="U23" s="8"/>
-      <c r="V23" s="8"/>
-      <c r="W23" s="6"/>
-      <c r="X23" s="33"/>
-      <c r="Y23" s="33"/>
-      <c r="Z23" s="33"/>
-      <c r="AA23" s="33"/>
-      <c r="AB23" s="33"/>
-      <c r="AC23" s="33"/>
-      <c r="AD23" s="33"/>
-      <c r="AE23" s="33"/>
-      <c r="AF23" s="33"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="9"/>
+      <c r="T23" s="9"/>
+      <c r="U23" s="9"/>
+      <c r="V23" s="9"/>
+      <c r="W23" s="7"/>
+      <c r="X23" s="34"/>
+      <c r="Y23" s="34"/>
+      <c r="Z23" s="34"/>
+      <c r="AA23" s="34"/>
+      <c r="AB23" s="34"/>
+      <c r="AC23" s="34"/>
+      <c r="AD23" s="34"/>
+      <c r="AE23" s="34"/>
+      <c r="AF23" s="41"/>
     </row>
     <row r="24" spans="1:32">
-      <c r="A24" s="7"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="8"/>
-      <c r="Q24" s="8"/>
-      <c r="R24" s="8"/>
-      <c r="S24" s="8"/>
-      <c r="T24" s="8"/>
-      <c r="U24" s="8"/>
-      <c r="V24" s="8"/>
-      <c r="W24" s="6"/>
-      <c r="X24" s="33"/>
-      <c r="Y24" s="33"/>
-      <c r="Z24" s="33"/>
-      <c r="AA24" s="33"/>
-      <c r="AB24" s="33"/>
-      <c r="AC24" s="33"/>
-      <c r="AD24" s="33"/>
-      <c r="AE24" s="33"/>
-      <c r="AF24" s="33"/>
+      <c r="A24" s="8"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="9"/>
+      <c r="T24" s="9"/>
+      <c r="U24" s="9"/>
+      <c r="V24" s="9"/>
+      <c r="W24" s="7"/>
+      <c r="X24" s="34"/>
+      <c r="Y24" s="34"/>
+      <c r="Z24" s="34"/>
+      <c r="AA24" s="34"/>
+      <c r="AB24" s="34"/>
+      <c r="AC24" s="34"/>
+      <c r="AD24" s="34"/>
+      <c r="AE24" s="34"/>
+      <c r="AF24" s="41"/>
     </row>
     <row r="25" spans="1:32">
-      <c r="A25" s="7"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="8"/>
-      <c r="R25" s="8"/>
-      <c r="S25" s="8"/>
-      <c r="T25" s="8"/>
-      <c r="U25" s="8"/>
-      <c r="V25" s="8"/>
-      <c r="W25" s="6"/>
-      <c r="X25" s="33"/>
-      <c r="Y25" s="33"/>
-      <c r="Z25" s="33"/>
-      <c r="AA25" s="33"/>
-      <c r="AB25" s="33"/>
-      <c r="AC25" s="33"/>
-      <c r="AD25" s="33"/>
-      <c r="AE25" s="33"/>
-      <c r="AF25" s="33"/>
+      <c r="A25" s="8"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="9"/>
+      <c r="T25" s="9"/>
+      <c r="U25" s="9"/>
+      <c r="V25" s="9"/>
+      <c r="W25" s="7"/>
+      <c r="X25" s="34"/>
+      <c r="Y25" s="34"/>
+      <c r="Z25" s="34"/>
+      <c r="AA25" s="34"/>
+      <c r="AB25" s="34"/>
+      <c r="AC25" s="34"/>
+      <c r="AD25" s="34"/>
+      <c r="AE25" s="34"/>
+      <c r="AF25" s="41"/>
     </row>
     <row r="26" spans="1:32">
-      <c r="A26" s="7"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="8"/>
-      <c r="P26" s="8"/>
-      <c r="Q26" s="8"/>
-      <c r="R26" s="8"/>
-      <c r="S26" s="8"/>
-      <c r="T26" s="8"/>
-      <c r="U26" s="8"/>
-      <c r="V26" s="8"/>
-      <c r="W26" s="6"/>
-      <c r="X26" s="33"/>
-      <c r="Y26" s="33"/>
-      <c r="Z26" s="33"/>
-      <c r="AA26" s="33"/>
-      <c r="AB26" s="33"/>
-      <c r="AC26" s="33"/>
-      <c r="AD26" s="33"/>
-      <c r="AE26" s="33"/>
-      <c r="AF26" s="33"/>
+      <c r="A26" s="8"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="9"/>
+      <c r="S26" s="9"/>
+      <c r="T26" s="9"/>
+      <c r="U26" s="9"/>
+      <c r="V26" s="9"/>
+      <c r="W26" s="7"/>
+      <c r="X26" s="34"/>
+      <c r="Y26" s="34"/>
+      <c r="Z26" s="34"/>
+      <c r="AA26" s="34"/>
+      <c r="AB26" s="34"/>
+      <c r="AC26" s="34"/>
+      <c r="AD26" s="34"/>
+      <c r="AE26" s="34"/>
+      <c r="AF26" s="41"/>
     </row>
     <row r="27" spans="1:32">
-      <c r="A27" s="7"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="8"/>
-      <c r="P27" s="8"/>
-      <c r="Q27" s="8"/>
-      <c r="R27" s="8"/>
-      <c r="S27" s="8"/>
-      <c r="T27" s="8"/>
-      <c r="U27" s="8"/>
-      <c r="V27" s="8"/>
-      <c r="W27" s="6"/>
-      <c r="X27" s="33"/>
-      <c r="Y27" s="33"/>
-      <c r="Z27" s="33"/>
-      <c r="AA27" s="33"/>
-      <c r="AB27" s="33"/>
-      <c r="AC27" s="33"/>
-      <c r="AD27" s="33"/>
-      <c r="AE27" s="33"/>
-      <c r="AF27" s="33"/>
+      <c r="A27" s="8"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="9"/>
+      <c r="R27" s="9"/>
+      <c r="S27" s="9"/>
+      <c r="T27" s="9"/>
+      <c r="U27" s="9"/>
+      <c r="V27" s="9"/>
+      <c r="W27" s="7"/>
+      <c r="X27" s="34"/>
+      <c r="Y27" s="34"/>
+      <c r="Z27" s="34"/>
+      <c r="AA27" s="34"/>
+      <c r="AB27" s="34"/>
+      <c r="AC27" s="34"/>
+      <c r="AD27" s="34"/>
+      <c r="AE27" s="34"/>
+      <c r="AF27" s="41"/>
     </row>
     <row r="28" spans="1:32">
-      <c r="A28" s="7"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="8"/>
-      <c r="N28" s="8"/>
-      <c r="O28" s="8"/>
-      <c r="P28" s="8"/>
-      <c r="Q28" s="8"/>
-      <c r="R28" s="8"/>
-      <c r="S28" s="8"/>
-      <c r="T28" s="8"/>
-      <c r="U28" s="8"/>
-      <c r="V28" s="8"/>
-      <c r="W28" s="8"/>
-      <c r="X28" s="33"/>
-      <c r="Y28" s="33"/>
-      <c r="Z28" s="33"/>
-      <c r="AA28" s="33"/>
-      <c r="AB28" s="33"/>
-      <c r="AC28" s="33"/>
-      <c r="AD28" s="33"/>
-      <c r="AE28" s="33"/>
-      <c r="AF28" s="33"/>
+      <c r="A28" s="8"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="9"/>
+      <c r="R28" s="9"/>
+      <c r="S28" s="9"/>
+      <c r="T28" s="9"/>
+      <c r="U28" s="9"/>
+      <c r="V28" s="9"/>
+      <c r="W28" s="9"/>
+      <c r="X28" s="34"/>
+      <c r="Y28" s="34"/>
+      <c r="Z28" s="34"/>
+      <c r="AA28" s="34"/>
+      <c r="AB28" s="34"/>
+      <c r="AC28" s="34"/>
+      <c r="AD28" s="34"/>
+      <c r="AE28" s="34"/>
+      <c r="AF28" s="41"/>
     </row>
     <row r="29" spans="1:32">
-      <c r="A29" s="7"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="8"/>
-      <c r="N29" s="8"/>
-      <c r="O29" s="8"/>
-      <c r="P29" s="8"/>
-      <c r="Q29" s="8"/>
-      <c r="R29" s="8"/>
-      <c r="S29" s="8"/>
-      <c r="T29" s="8"/>
-      <c r="U29" s="8"/>
-      <c r="V29" s="8"/>
-      <c r="W29" s="8"/>
-      <c r="X29" s="33"/>
-      <c r="Y29" s="33"/>
-      <c r="Z29" s="33"/>
-      <c r="AA29" s="33"/>
-      <c r="AB29" s="33"/>
-      <c r="AC29" s="33"/>
-      <c r="AD29" s="33"/>
-      <c r="AE29" s="33"/>
-      <c r="AF29" s="33"/>
+      <c r="A29" s="8"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="9"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="9"/>
+      <c r="R29" s="9"/>
+      <c r="S29" s="9"/>
+      <c r="T29" s="9"/>
+      <c r="U29" s="9"/>
+      <c r="V29" s="9"/>
+      <c r="W29" s="9"/>
+      <c r="X29" s="34"/>
+      <c r="Y29" s="34"/>
+      <c r="Z29" s="34"/>
+      <c r="AA29" s="34"/>
+      <c r="AB29" s="34"/>
+      <c r="AC29" s="34"/>
+      <c r="AD29" s="34"/>
+      <c r="AE29" s="34"/>
+      <c r="AF29" s="41"/>
     </row>
     <row r="30" spans="1:32">
-      <c r="A30" s="7"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="8"/>
-      <c r="O30" s="8"/>
-      <c r="P30" s="8"/>
-      <c r="Q30" s="8"/>
-      <c r="R30" s="8"/>
-      <c r="S30" s="8"/>
-      <c r="T30" s="8"/>
-      <c r="U30" s="8"/>
-      <c r="V30" s="8"/>
-      <c r="W30" s="8"/>
-      <c r="X30" s="33"/>
-      <c r="Y30" s="33"/>
-      <c r="Z30" s="33"/>
-      <c r="AA30" s="33"/>
-      <c r="AB30" s="33"/>
-      <c r="AC30" s="33"/>
-      <c r="AD30" s="33"/>
-      <c r="AE30" s="33"/>
-      <c r="AF30" s="33"/>
+      <c r="A30" s="8"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="9"/>
+      <c r="Q30" s="9"/>
+      <c r="R30" s="9"/>
+      <c r="S30" s="9"/>
+      <c r="T30" s="9"/>
+      <c r="U30" s="9"/>
+      <c r="V30" s="9"/>
+      <c r="W30" s="9"/>
+      <c r="X30" s="34"/>
+      <c r="Y30" s="34"/>
+      <c r="Z30" s="34"/>
+      <c r="AA30" s="34"/>
+      <c r="AB30" s="34"/>
+      <c r="AC30" s="34"/>
+      <c r="AD30" s="34"/>
+      <c r="AE30" s="34"/>
+      <c r="AF30" s="41"/>
     </row>
     <row r="31" spans="1:32">
-      <c r="A31" s="7"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="8"/>
-      <c r="N31" s="8"/>
-      <c r="O31" s="8"/>
-      <c r="P31" s="8"/>
-      <c r="Q31" s="8"/>
-      <c r="R31" s="8"/>
-      <c r="S31" s="8"/>
-      <c r="T31" s="8"/>
-      <c r="U31" s="8"/>
-      <c r="V31" s="8"/>
-      <c r="W31" s="8"/>
-      <c r="X31" s="33"/>
-      <c r="Y31" s="33"/>
-      <c r="Z31" s="33"/>
-      <c r="AA31" s="33"/>
-      <c r="AB31" s="33"/>
-      <c r="AC31" s="33"/>
-      <c r="AD31" s="33"/>
-      <c r="AE31" s="33"/>
-      <c r="AF31" s="33"/>
+      <c r="A31" s="8"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="9"/>
+      <c r="P31" s="9"/>
+      <c r="Q31" s="9"/>
+      <c r="R31" s="9"/>
+      <c r="S31" s="9"/>
+      <c r="T31" s="9"/>
+      <c r="U31" s="9"/>
+      <c r="V31" s="9"/>
+      <c r="W31" s="9"/>
+      <c r="X31" s="34"/>
+      <c r="Y31" s="34"/>
+      <c r="Z31" s="34"/>
+      <c r="AA31" s="34"/>
+      <c r="AB31" s="34"/>
+      <c r="AC31" s="34"/>
+      <c r="AD31" s="34"/>
+      <c r="AE31" s="34"/>
+      <c r="AF31" s="41"/>
     </row>
     <row r="32" spans="1:32">
-      <c r="A32" s="7"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="6"/>
-      <c r="M32" s="8"/>
-      <c r="N32" s="8"/>
-      <c r="O32" s="8"/>
-      <c r="P32" s="8"/>
-      <c r="Q32" s="8"/>
-      <c r="R32" s="8"/>
-      <c r="S32" s="8"/>
-      <c r="T32" s="8"/>
-      <c r="U32" s="8"/>
-      <c r="V32" s="8"/>
-      <c r="W32" s="8"/>
-      <c r="X32" s="33"/>
-      <c r="Y32" s="33"/>
-      <c r="Z32" s="33"/>
-      <c r="AA32" s="33"/>
-      <c r="AB32" s="33"/>
-      <c r="AC32" s="33"/>
-      <c r="AD32" s="33"/>
-      <c r="AE32" s="33"/>
-      <c r="AF32" s="33"/>
+      <c r="A32" s="8"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="9"/>
+      <c r="Q32" s="9"/>
+      <c r="R32" s="9"/>
+      <c r="S32" s="9"/>
+      <c r="T32" s="9"/>
+      <c r="U32" s="9"/>
+      <c r="V32" s="9"/>
+      <c r="W32" s="9"/>
+      <c r="X32" s="34"/>
+      <c r="Y32" s="34"/>
+      <c r="Z32" s="34"/>
+      <c r="AA32" s="34"/>
+      <c r="AB32" s="34"/>
+      <c r="AC32" s="34"/>
+      <c r="AD32" s="34"/>
+      <c r="AE32" s="34"/>
+      <c r="AF32" s="41"/>
     </row>
     <row r="33" spans="1:32">
-      <c r="A33" s="7"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="6"/>
-      <c r="M33" s="8"/>
-      <c r="N33" s="8"/>
-      <c r="O33" s="8"/>
-      <c r="P33" s="8"/>
-      <c r="Q33" s="8"/>
-      <c r="R33" s="8"/>
-      <c r="S33" s="8"/>
-      <c r="T33" s="8"/>
-      <c r="U33" s="8"/>
-      <c r="V33" s="8"/>
-      <c r="W33" s="8"/>
-      <c r="X33" s="33"/>
-      <c r="Y33" s="33"/>
-      <c r="Z33" s="33"/>
-      <c r="AA33" s="33"/>
-      <c r="AB33" s="33"/>
-      <c r="AC33" s="33"/>
-      <c r="AD33" s="33"/>
-      <c r="AE33" s="33"/>
-      <c r="AF33" s="33"/>
+      <c r="A33" s="8"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="9"/>
+      <c r="P33" s="9"/>
+      <c r="Q33" s="9"/>
+      <c r="R33" s="9"/>
+      <c r="S33" s="9"/>
+      <c r="T33" s="9"/>
+      <c r="U33" s="9"/>
+      <c r="V33" s="9"/>
+      <c r="W33" s="9"/>
+      <c r="X33" s="34"/>
+      <c r="Y33" s="34"/>
+      <c r="Z33" s="34"/>
+      <c r="AA33" s="34"/>
+      <c r="AB33" s="34"/>
+      <c r="AC33" s="34"/>
+      <c r="AD33" s="34"/>
+      <c r="AE33" s="34"/>
+      <c r="AF33" s="41"/>
     </row>
     <row r="34" spans="1:32">
-      <c r="A34" s="7"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="6"/>
-      <c r="M34" s="8"/>
-      <c r="N34" s="8"/>
-      <c r="O34" s="8"/>
-      <c r="P34" s="8"/>
-      <c r="Q34" s="8"/>
-      <c r="R34" s="8"/>
-      <c r="S34" s="8"/>
-      <c r="T34" s="8"/>
-      <c r="U34" s="8"/>
-      <c r="V34" s="8"/>
-      <c r="W34" s="8"/>
-      <c r="X34" s="33"/>
-      <c r="Y34" s="33"/>
-      <c r="Z34" s="33"/>
-      <c r="AA34" s="33"/>
-      <c r="AB34" s="33"/>
-      <c r="AC34" s="33"/>
-      <c r="AD34" s="33"/>
-      <c r="AE34" s="33"/>
-      <c r="AF34" s="33"/>
+      <c r="A34" s="8"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="9"/>
+      <c r="O34" s="9"/>
+      <c r="P34" s="9"/>
+      <c r="Q34" s="9"/>
+      <c r="R34" s="9"/>
+      <c r="S34" s="9"/>
+      <c r="T34" s="9"/>
+      <c r="U34" s="9"/>
+      <c r="V34" s="9"/>
+      <c r="W34" s="9"/>
+      <c r="X34" s="34"/>
+      <c r="Y34" s="34"/>
+      <c r="Z34" s="34"/>
+      <c r="AA34" s="34"/>
+      <c r="AB34" s="34"/>
+      <c r="AC34" s="34"/>
+      <c r="AD34" s="34"/>
+      <c r="AE34" s="34"/>
+      <c r="AF34" s="41"/>
     </row>
     <row r="35" spans="1:32">
-      <c r="A35" s="7"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="6"/>
-      <c r="M35" s="8"/>
-      <c r="N35" s="8"/>
-      <c r="O35" s="8"/>
-      <c r="P35" s="8"/>
-      <c r="Q35" s="8"/>
-      <c r="R35" s="8"/>
-      <c r="S35" s="8"/>
-      <c r="T35" s="8"/>
-      <c r="U35" s="8"/>
-      <c r="V35" s="8"/>
-      <c r="W35" s="8"/>
-      <c r="X35" s="33"/>
-      <c r="Y35" s="33"/>
-      <c r="Z35" s="33"/>
-      <c r="AA35" s="33"/>
-      <c r="AB35" s="33"/>
-      <c r="AC35" s="33"/>
-      <c r="AD35" s="33"/>
-      <c r="AE35" s="33"/>
-      <c r="AF35" s="33"/>
+      <c r="A35" s="8"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="9"/>
+      <c r="P35" s="9"/>
+      <c r="Q35" s="9"/>
+      <c r="R35" s="9"/>
+      <c r="S35" s="9"/>
+      <c r="T35" s="9"/>
+      <c r="U35" s="9"/>
+      <c r="V35" s="9"/>
+      <c r="W35" s="9"/>
+      <c r="X35" s="34"/>
+      <c r="Y35" s="34"/>
+      <c r="Z35" s="34"/>
+      <c r="AA35" s="34"/>
+      <c r="AB35" s="34"/>
+      <c r="AC35" s="34"/>
+      <c r="AD35" s="34"/>
+      <c r="AE35" s="34"/>
+      <c r="AF35" s="41"/>
     </row>
     <row r="36" spans="1:32">
-      <c r="A36" s="7"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="6"/>
-      <c r="M36" s="8"/>
-      <c r="N36" s="8"/>
-      <c r="O36" s="8"/>
-      <c r="P36" s="8"/>
-      <c r="Q36" s="8"/>
-      <c r="R36" s="8"/>
-      <c r="S36" s="8"/>
-      <c r="T36" s="8"/>
-      <c r="U36" s="8"/>
-      <c r="V36" s="8"/>
-      <c r="W36" s="8"/>
-      <c r="X36" s="33"/>
-      <c r="Y36" s="33"/>
-      <c r="Z36" s="33"/>
-      <c r="AA36" s="33"/>
-      <c r="AB36" s="33"/>
-      <c r="AC36" s="33"/>
-      <c r="AD36" s="33"/>
-      <c r="AE36" s="33"/>
-      <c r="AF36" s="33"/>
+      <c r="A36" s="8"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="9"/>
+      <c r="O36" s="9"/>
+      <c r="P36" s="9"/>
+      <c r="Q36" s="9"/>
+      <c r="R36" s="9"/>
+      <c r="S36" s="9"/>
+      <c r="T36" s="9"/>
+      <c r="U36" s="9"/>
+      <c r="V36" s="9"/>
+      <c r="W36" s="9"/>
+      <c r="X36" s="34"/>
+      <c r="Y36" s="34"/>
+      <c r="Z36" s="34"/>
+      <c r="AA36" s="34"/>
+      <c r="AB36" s="34"/>
+      <c r="AC36" s="34"/>
+      <c r="AD36" s="34"/>
+      <c r="AE36" s="34"/>
+      <c r="AF36" s="41"/>
     </row>
     <row r="37" spans="1:32">
-      <c r="A37" s="7"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="6"/>
-      <c r="M37" s="8"/>
-      <c r="N37" s="8"/>
-      <c r="O37" s="8"/>
-      <c r="P37" s="8"/>
-      <c r="Q37" s="8"/>
-      <c r="R37" s="8"/>
-      <c r="S37" s="8"/>
-      <c r="T37" s="8"/>
-      <c r="U37" s="8"/>
-      <c r="V37" s="8"/>
-      <c r="W37" s="8"/>
-      <c r="X37" s="33"/>
-      <c r="Y37" s="33"/>
-      <c r="Z37" s="33"/>
-      <c r="AA37" s="33"/>
-      <c r="AB37" s="33"/>
-      <c r="AC37" s="33"/>
-      <c r="AD37" s="33"/>
-      <c r="AE37" s="33"/>
-      <c r="AF37" s="33"/>
+      <c r="A37" s="8"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="9"/>
+      <c r="N37" s="9"/>
+      <c r="O37" s="9"/>
+      <c r="P37" s="9"/>
+      <c r="Q37" s="9"/>
+      <c r="R37" s="9"/>
+      <c r="S37" s="9"/>
+      <c r="T37" s="9"/>
+      <c r="U37" s="9"/>
+      <c r="V37" s="9"/>
+      <c r="W37" s="9"/>
+      <c r="X37" s="34"/>
+      <c r="Y37" s="34"/>
+      <c r="Z37" s="34"/>
+      <c r="AA37" s="34"/>
+      <c r="AB37" s="34"/>
+      <c r="AC37" s="34"/>
+      <c r="AD37" s="34"/>
+      <c r="AE37" s="34"/>
+      <c r="AF37" s="41"/>
     </row>
     <row r="38" spans="1:32">
-      <c r="A38" s="7"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
-      <c r="L38" s="6"/>
-      <c r="M38" s="8"/>
-      <c r="N38" s="8"/>
-      <c r="O38" s="8"/>
-      <c r="P38" s="8"/>
-      <c r="Q38" s="8"/>
-      <c r="R38" s="8"/>
-      <c r="S38" s="8"/>
-      <c r="T38" s="8"/>
-      <c r="U38" s="8"/>
-      <c r="V38" s="8"/>
-      <c r="W38" s="8"/>
-      <c r="X38" s="33"/>
-      <c r="Y38" s="33"/>
-      <c r="Z38" s="33"/>
-      <c r="AA38" s="33"/>
-      <c r="AB38" s="33"/>
-      <c r="AC38" s="33"/>
-      <c r="AD38" s="33"/>
-      <c r="AE38" s="33"/>
-      <c r="AF38" s="33"/>
+      <c r="A38" s="8"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="9"/>
+      <c r="O38" s="9"/>
+      <c r="P38" s="9"/>
+      <c r="Q38" s="9"/>
+      <c r="R38" s="9"/>
+      <c r="S38" s="9"/>
+      <c r="T38" s="9"/>
+      <c r="U38" s="9"/>
+      <c r="V38" s="9"/>
+      <c r="W38" s="9"/>
+      <c r="X38" s="34"/>
+      <c r="Y38" s="34"/>
+      <c r="Z38" s="34"/>
+      <c r="AA38" s="34"/>
+      <c r="AB38" s="34"/>
+      <c r="AC38" s="34"/>
+      <c r="AD38" s="34"/>
+      <c r="AE38" s="34"/>
+      <c r="AF38" s="41"/>
     </row>
     <row r="39" spans="1:32">
-      <c r="A39" s="7"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="8"/>
-      <c r="L39" s="6"/>
-      <c r="M39" s="8"/>
-      <c r="N39" s="8"/>
-      <c r="O39" s="8"/>
-      <c r="P39" s="8"/>
-      <c r="Q39" s="8"/>
-      <c r="R39" s="8"/>
-      <c r="S39" s="8"/>
-      <c r="T39" s="8"/>
-      <c r="U39" s="8"/>
-      <c r="V39" s="8"/>
-      <c r="W39" s="8"/>
-      <c r="X39" s="33"/>
-      <c r="Y39" s="33"/>
-      <c r="Z39" s="33"/>
-      <c r="AA39" s="33"/>
-      <c r="AB39" s="33"/>
-      <c r="AC39" s="33"/>
-      <c r="AD39" s="33"/>
-      <c r="AE39" s="33"/>
-      <c r="AF39" s="33"/>
+      <c r="A39" s="8"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="9"/>
+      <c r="O39" s="9"/>
+      <c r="P39" s="9"/>
+      <c r="Q39" s="9"/>
+      <c r="R39" s="9"/>
+      <c r="S39" s="9"/>
+      <c r="T39" s="9"/>
+      <c r="U39" s="9"/>
+      <c r="V39" s="9"/>
+      <c r="W39" s="9"/>
+      <c r="X39" s="34"/>
+      <c r="Y39" s="34"/>
+      <c r="Z39" s="34"/>
+      <c r="AA39" s="34"/>
+      <c r="AB39" s="34"/>
+      <c r="AC39" s="34"/>
+      <c r="AD39" s="34"/>
+      <c r="AE39" s="34"/>
+      <c r="AF39" s="41"/>
     </row>
     <row r="40" spans="1:32">
-      <c r="A40" s="7"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="8"/>
-      <c r="K40" s="8"/>
-      <c r="L40" s="6"/>
-      <c r="M40" s="8"/>
-      <c r="N40" s="8"/>
-      <c r="O40" s="8"/>
-      <c r="P40" s="8"/>
-      <c r="Q40" s="8"/>
-      <c r="R40" s="8"/>
-      <c r="S40" s="8"/>
-      <c r="T40" s="8"/>
-      <c r="U40" s="8"/>
-      <c r="V40" s="8"/>
-      <c r="W40" s="8"/>
-      <c r="X40" s="33"/>
-      <c r="Y40" s="33"/>
-      <c r="Z40" s="33"/>
-      <c r="AA40" s="33"/>
-      <c r="AB40" s="33"/>
-      <c r="AC40" s="33"/>
-      <c r="AD40" s="33"/>
-      <c r="AE40" s="33"/>
-      <c r="AF40" s="33"/>
+      <c r="A40" s="8"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="9"/>
+      <c r="O40" s="9"/>
+      <c r="P40" s="9"/>
+      <c r="Q40" s="9"/>
+      <c r="R40" s="9"/>
+      <c r="S40" s="9"/>
+      <c r="T40" s="9"/>
+      <c r="U40" s="9"/>
+      <c r="V40" s="9"/>
+      <c r="W40" s="9"/>
+      <c r="X40" s="34"/>
+      <c r="Y40" s="34"/>
+      <c r="Z40" s="34"/>
+      <c r="AA40" s="34"/>
+      <c r="AB40" s="34"/>
+      <c r="AC40" s="34"/>
+      <c r="AD40" s="34"/>
+      <c r="AE40" s="34"/>
+      <c r="AF40" s="41"/>
     </row>
     <row r="41" spans="1:32">
-      <c r="A41" s="7"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="8"/>
-      <c r="J41" s="8"/>
-      <c r="K41" s="8"/>
-      <c r="L41" s="6"/>
-      <c r="M41" s="8"/>
-      <c r="N41" s="8"/>
-      <c r="O41" s="8"/>
-      <c r="P41" s="8"/>
-      <c r="Q41" s="8"/>
-      <c r="R41" s="8"/>
-      <c r="S41" s="8"/>
-      <c r="T41" s="8"/>
-      <c r="U41" s="8"/>
-      <c r="V41" s="8"/>
-      <c r="W41" s="8"/>
-      <c r="X41" s="33"/>
-      <c r="Y41" s="33"/>
-      <c r="Z41" s="33"/>
-      <c r="AA41" s="33"/>
-      <c r="AB41" s="33"/>
-      <c r="AC41" s="33"/>
-      <c r="AD41" s="33"/>
-      <c r="AE41" s="33"/>
-      <c r="AF41" s="33"/>
+      <c r="A41" s="8"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="9"/>
+      <c r="N41" s="9"/>
+      <c r="O41" s="9"/>
+      <c r="P41" s="9"/>
+      <c r="Q41" s="9"/>
+      <c r="R41" s="9"/>
+      <c r="S41" s="9"/>
+      <c r="T41" s="9"/>
+      <c r="U41" s="9"/>
+      <c r="V41" s="9"/>
+      <c r="W41" s="9"/>
+      <c r="X41" s="34"/>
+      <c r="Y41" s="34"/>
+      <c r="Z41" s="34"/>
+      <c r="AA41" s="34"/>
+      <c r="AB41" s="34"/>
+      <c r="AC41" s="34"/>
+      <c r="AD41" s="34"/>
+      <c r="AE41" s="34"/>
+      <c r="AF41" s="41"/>
     </row>
     <row r="42" spans="1:32">
-      <c r="A42" s="7"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="8"/>
-      <c r="J42" s="8"/>
-      <c r="K42" s="8"/>
-      <c r="L42" s="8"/>
-      <c r="M42" s="8"/>
-      <c r="N42" s="8"/>
-      <c r="O42" s="8"/>
-      <c r="P42" s="8"/>
-      <c r="Q42" s="8"/>
-      <c r="R42" s="8"/>
-      <c r="S42" s="8"/>
-      <c r="T42" s="8"/>
-      <c r="U42" s="8"/>
-      <c r="V42" s="8"/>
-      <c r="W42" s="8"/>
-      <c r="X42" s="33"/>
-      <c r="Y42" s="33"/>
-      <c r="Z42" s="33"/>
-      <c r="AA42" s="33"/>
-      <c r="AB42" s="33"/>
-      <c r="AC42" s="33"/>
-      <c r="AD42" s="33"/>
-      <c r="AE42" s="33"/>
-      <c r="AF42" s="33"/>
+      <c r="A42" s="8"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="9"/>
+      <c r="N42" s="9"/>
+      <c r="O42" s="9"/>
+      <c r="P42" s="9"/>
+      <c r="Q42" s="9"/>
+      <c r="R42" s="9"/>
+      <c r="S42" s="9"/>
+      <c r="T42" s="9"/>
+      <c r="U42" s="9"/>
+      <c r="V42" s="9"/>
+      <c r="W42" s="9"/>
+      <c r="X42" s="34"/>
+      <c r="Y42" s="34"/>
+      <c r="Z42" s="34"/>
+      <c r="AA42" s="34"/>
+      <c r="AB42" s="34"/>
+      <c r="AC42" s="34"/>
+      <c r="AD42" s="34"/>
+      <c r="AE42" s="34"/>
+      <c r="AF42" s="41"/>
     </row>
     <row r="43" spans="1:32">
-      <c r="A43" s="7"/>
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="8"/>
-      <c r="L43" s="8"/>
-      <c r="M43" s="8"/>
-      <c r="N43" s="8"/>
-      <c r="O43" s="8"/>
-      <c r="P43" s="8"/>
-      <c r="Q43" s="8"/>
-      <c r="R43" s="8"/>
-      <c r="S43" s="8"/>
-      <c r="T43" s="8"/>
-      <c r="U43" s="8"/>
-      <c r="V43" s="8"/>
-      <c r="W43" s="8"/>
-      <c r="X43" s="33"/>
-      <c r="Y43" s="33"/>
-      <c r="Z43" s="33"/>
-      <c r="AA43" s="33"/>
-      <c r="AB43" s="33"/>
-      <c r="AC43" s="33"/>
-      <c r="AD43" s="33"/>
-      <c r="AE43" s="33"/>
-      <c r="AF43" s="33"/>
+      <c r="A43" s="8"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c r="L43" s="9"/>
+      <c r="M43" s="9"/>
+      <c r="N43" s="9"/>
+      <c r="O43" s="9"/>
+      <c r="P43" s="9"/>
+      <c r="Q43" s="9"/>
+      <c r="R43" s="9"/>
+      <c r="S43" s="9"/>
+      <c r="T43" s="9"/>
+      <c r="U43" s="9"/>
+      <c r="V43" s="9"/>
+      <c r="W43" s="9"/>
+      <c r="X43" s="34"/>
+      <c r="Y43" s="34"/>
+      <c r="Z43" s="34"/>
+      <c r="AA43" s="34"/>
+      <c r="AB43" s="34"/>
+      <c r="AC43" s="34"/>
+      <c r="AD43" s="34"/>
+      <c r="AE43" s="34"/>
+      <c r="AF43" s="41"/>
     </row>
     <row r="44" spans="1:32">
-      <c r="A44" s="7"/>
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8"/>
-      <c r="J44" s="8"/>
-      <c r="K44" s="8"/>
-      <c r="L44" s="8"/>
-      <c r="M44" s="8"/>
-      <c r="N44" s="8"/>
-      <c r="O44" s="8"/>
-      <c r="P44" s="8"/>
-      <c r="Q44" s="8"/>
-      <c r="R44" s="8"/>
-      <c r="S44" s="8"/>
-      <c r="T44" s="8"/>
-      <c r="U44" s="8"/>
-      <c r="V44" s="8"/>
-      <c r="W44" s="8"/>
-      <c r="X44" s="33"/>
-      <c r="Y44" s="33"/>
-      <c r="Z44" s="33"/>
-      <c r="AA44" s="33"/>
-      <c r="AB44" s="33"/>
-      <c r="AC44" s="33"/>
-      <c r="AD44" s="33"/>
-      <c r="AE44" s="33"/>
-      <c r="AF44" s="33"/>
+      <c r="A44" s="8"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c r="L44" s="9"/>
+      <c r="M44" s="9"/>
+      <c r="N44" s="9"/>
+      <c r="O44" s="9"/>
+      <c r="P44" s="9"/>
+      <c r="Q44" s="9"/>
+      <c r="R44" s="9"/>
+      <c r="S44" s="9"/>
+      <c r="T44" s="9"/>
+      <c r="U44" s="9"/>
+      <c r="V44" s="9"/>
+      <c r="W44" s="9"/>
+      <c r="X44" s="34"/>
+      <c r="Y44" s="34"/>
+      <c r="Z44" s="34"/>
+      <c r="AA44" s="34"/>
+      <c r="AB44" s="34"/>
+      <c r="AC44" s="34"/>
+      <c r="AD44" s="34"/>
+      <c r="AE44" s="34"/>
+      <c r="AF44" s="41"/>
     </row>
     <row r="45" spans="1:32">
-      <c r="A45" s="7"/>
-      <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="8"/>
-      <c r="J45" s="8"/>
-      <c r="K45" s="8"/>
-      <c r="L45" s="8"/>
-      <c r="M45" s="8"/>
-      <c r="N45" s="8"/>
-      <c r="O45" s="8"/>
-      <c r="P45" s="8"/>
-      <c r="Q45" s="8"/>
-      <c r="R45" s="8"/>
-      <c r="S45" s="8"/>
-      <c r="T45" s="8"/>
-      <c r="U45" s="8"/>
-      <c r="V45" s="8"/>
-      <c r="W45" s="8"/>
-      <c r="X45" s="33"/>
-      <c r="Y45" s="33"/>
-      <c r="Z45" s="33"/>
-      <c r="AA45" s="33"/>
-      <c r="AB45" s="33"/>
-      <c r="AC45" s="33"/>
-      <c r="AD45" s="33"/>
-      <c r="AE45" s="33"/>
-      <c r="AF45" s="33"/>
+      <c r="A45" s="8"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c r="L45" s="9"/>
+      <c r="M45" s="9"/>
+      <c r="N45" s="9"/>
+      <c r="O45" s="9"/>
+      <c r="P45" s="9"/>
+      <c r="Q45" s="9"/>
+      <c r="R45" s="9"/>
+      <c r="S45" s="9"/>
+      <c r="T45" s="9"/>
+      <c r="U45" s="9"/>
+      <c r="V45" s="9"/>
+      <c r="W45" s="9"/>
+      <c r="X45" s="34"/>
+      <c r="Y45" s="34"/>
+      <c r="Z45" s="34"/>
+      <c r="AA45" s="34"/>
+      <c r="AB45" s="34"/>
+      <c r="AC45" s="34"/>
+      <c r="AD45" s="34"/>
+      <c r="AE45" s="34"/>
+      <c r="AF45" s="41"/>
     </row>
     <row r="46" spans="1:32">
-      <c r="A46" s="7"/>
-      <c r="B46" s="8"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
-      <c r="I46" s="8"/>
-      <c r="J46" s="8"/>
-      <c r="K46" s="8"/>
-      <c r="L46" s="8"/>
-      <c r="M46" s="8"/>
-      <c r="N46" s="8"/>
-      <c r="O46" s="8"/>
-      <c r="P46" s="8"/>
-      <c r="Q46" s="8"/>
-      <c r="R46" s="8"/>
-      <c r="S46" s="8"/>
-      <c r="T46" s="8"/>
-      <c r="U46" s="8"/>
-      <c r="V46" s="8"/>
-      <c r="W46" s="8"/>
-      <c r="X46" s="33"/>
-      <c r="Y46" s="33"/>
-      <c r="Z46" s="33"/>
-      <c r="AA46" s="33"/>
-      <c r="AB46" s="33"/>
-      <c r="AC46" s="33"/>
-      <c r="AD46" s="33"/>
-      <c r="AE46" s="33"/>
-      <c r="AF46" s="33"/>
+      <c r="A46" s="8"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c r="L46" s="9"/>
+      <c r="M46" s="9"/>
+      <c r="N46" s="9"/>
+      <c r="O46" s="9"/>
+      <c r="P46" s="9"/>
+      <c r="Q46" s="9"/>
+      <c r="R46" s="9"/>
+      <c r="S46" s="9"/>
+      <c r="T46" s="9"/>
+      <c r="U46" s="9"/>
+      <c r="V46" s="9"/>
+      <c r="W46" s="9"/>
+      <c r="X46" s="34"/>
+      <c r="Y46" s="34"/>
+      <c r="Z46" s="34"/>
+      <c r="AA46" s="34"/>
+      <c r="AB46" s="34"/>
+      <c r="AC46" s="34"/>
+      <c r="AD46" s="34"/>
+      <c r="AE46" s="34"/>
+      <c r="AF46" s="41"/>
     </row>
     <row r="47" spans="1:32">
-      <c r="A47" s="7"/>
-      <c r="B47" s="8"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="8"/>
-      <c r="J47" s="8"/>
-      <c r="K47" s="8"/>
-      <c r="L47" s="8"/>
-      <c r="M47" s="8"/>
-      <c r="N47" s="8"/>
-      <c r="O47" s="8"/>
-      <c r="P47" s="8"/>
-      <c r="Q47" s="8"/>
-      <c r="R47" s="8"/>
-      <c r="S47" s="8"/>
-      <c r="T47" s="8"/>
-      <c r="U47" s="8"/>
-      <c r="V47" s="8"/>
-      <c r="W47" s="8"/>
-      <c r="X47" s="33"/>
-      <c r="Y47" s="33"/>
-      <c r="Z47" s="33"/>
-      <c r="AA47" s="33"/>
-      <c r="AB47" s="33"/>
-      <c r="AC47" s="33"/>
-      <c r="AD47" s="33"/>
-      <c r="AE47" s="33"/>
-      <c r="AF47" s="33"/>
+      <c r="A47" s="8"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c r="L47" s="9"/>
+      <c r="M47" s="9"/>
+      <c r="N47" s="9"/>
+      <c r="O47" s="9"/>
+      <c r="P47" s="9"/>
+      <c r="Q47" s="9"/>
+      <c r="R47" s="9"/>
+      <c r="S47" s="9"/>
+      <c r="T47" s="9"/>
+      <c r="U47" s="9"/>
+      <c r="V47" s="9"/>
+      <c r="W47" s="9"/>
+      <c r="X47" s="34"/>
+      <c r="Y47" s="34"/>
+      <c r="Z47" s="34"/>
+      <c r="AA47" s="34"/>
+      <c r="AB47" s="34"/>
+      <c r="AC47" s="34"/>
+      <c r="AD47" s="34"/>
+      <c r="AE47" s="34"/>
+      <c r="AF47" s="41"/>
     </row>
     <row r="48" spans="1:32">
-      <c r="A48" s="7"/>
-      <c r="B48" s="8"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="8"/>
-      <c r="I48" s="8"/>
-      <c r="J48" s="8"/>
-      <c r="K48" s="8"/>
-      <c r="L48" s="8"/>
-      <c r="M48" s="8"/>
-      <c r="N48" s="8"/>
-      <c r="O48" s="8"/>
-      <c r="P48" s="8"/>
-      <c r="Q48" s="8"/>
-      <c r="R48" s="8"/>
-      <c r="S48" s="8"/>
-      <c r="T48" s="8"/>
-      <c r="U48" s="8"/>
-      <c r="V48" s="8"/>
-      <c r="W48" s="8"/>
-      <c r="X48" s="33"/>
-      <c r="Y48" s="33"/>
-      <c r="Z48" s="33"/>
-      <c r="AA48" s="33"/>
-      <c r="AB48" s="33"/>
-      <c r="AC48" s="33"/>
-      <c r="AD48" s="33"/>
-      <c r="AE48" s="33"/>
-      <c r="AF48" s="33"/>
+      <c r="A48" s="8"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c r="L48" s="9"/>
+      <c r="M48" s="9"/>
+      <c r="N48" s="9"/>
+      <c r="O48" s="9"/>
+      <c r="P48" s="9"/>
+      <c r="Q48" s="9"/>
+      <c r="R48" s="9"/>
+      <c r="S48" s="9"/>
+      <c r="T48" s="9"/>
+      <c r="U48" s="9"/>
+      <c r="V48" s="9"/>
+      <c r="W48" s="9"/>
+      <c r="X48" s="34"/>
+      <c r="Y48" s="34"/>
+      <c r="Z48" s="34"/>
+      <c r="AA48" s="34"/>
+      <c r="AB48" s="34"/>
+      <c r="AC48" s="34"/>
+      <c r="AD48" s="34"/>
+      <c r="AE48" s="34"/>
+      <c r="AF48" s="41"/>
     </row>
     <row r="49" spans="1:32">
-      <c r="A49" s="7"/>
-      <c r="B49" s="8"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="8"/>
-      <c r="J49" s="8"/>
-      <c r="K49" s="8"/>
-      <c r="L49" s="8"/>
-      <c r="M49" s="8"/>
-      <c r="N49" s="8"/>
-      <c r="O49" s="8"/>
-      <c r="P49" s="8"/>
-      <c r="Q49" s="8"/>
-      <c r="R49" s="8"/>
-      <c r="S49" s="8"/>
-      <c r="T49" s="8"/>
-      <c r="U49" s="8"/>
-      <c r="V49" s="8"/>
-      <c r="W49" s="8"/>
-      <c r="X49" s="33"/>
-      <c r="Y49" s="33"/>
-      <c r="Z49" s="33"/>
-      <c r="AA49" s="33"/>
-      <c r="AB49" s="33"/>
-      <c r="AC49" s="33"/>
-      <c r="AD49" s="33"/>
-      <c r="AE49" s="33"/>
-      <c r="AF49" s="33"/>
+      <c r="A49" s="8"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c r="L49" s="9"/>
+      <c r="M49" s="9"/>
+      <c r="N49" s="9"/>
+      <c r="O49" s="9"/>
+      <c r="P49" s="9"/>
+      <c r="Q49" s="9"/>
+      <c r="R49" s="9"/>
+      <c r="S49" s="9"/>
+      <c r="T49" s="9"/>
+      <c r="U49" s="9"/>
+      <c r="V49" s="9"/>
+      <c r="W49" s="9"/>
+      <c r="X49" s="34"/>
+      <c r="Y49" s="34"/>
+      <c r="Z49" s="34"/>
+      <c r="AA49" s="34"/>
+      <c r="AB49" s="34"/>
+      <c r="AC49" s="34"/>
+      <c r="AD49" s="34"/>
+      <c r="AE49" s="34"/>
+      <c r="AF49" s="41"/>
     </row>
     <row r="50" spans="1:32">
-      <c r="A50" s="7"/>
-      <c r="B50" s="8"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="8"/>
-      <c r="I50" s="8"/>
-      <c r="J50" s="8"/>
-      <c r="K50" s="8"/>
-      <c r="L50" s="8"/>
-      <c r="M50" s="8"/>
-      <c r="N50" s="8"/>
-      <c r="O50" s="8"/>
-      <c r="P50" s="8"/>
-      <c r="Q50" s="8"/>
-      <c r="R50" s="8"/>
-      <c r="S50" s="8"/>
-      <c r="T50" s="8"/>
-      <c r="U50" s="8"/>
-      <c r="V50" s="8"/>
-      <c r="W50" s="8"/>
-      <c r="X50" s="33"/>
-      <c r="Y50" s="33"/>
-      <c r="Z50" s="33"/>
-      <c r="AA50" s="33"/>
-      <c r="AB50" s="33"/>
-      <c r="AC50" s="33"/>
-      <c r="AD50" s="33"/>
-      <c r="AE50" s="33"/>
-      <c r="AF50" s="33"/>
+      <c r="A50" s="8"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c r="L50" s="9"/>
+      <c r="M50" s="9"/>
+      <c r="N50" s="9"/>
+      <c r="O50" s="9"/>
+      <c r="P50" s="9"/>
+      <c r="Q50" s="9"/>
+      <c r="R50" s="9"/>
+      <c r="S50" s="9"/>
+      <c r="T50" s="9"/>
+      <c r="U50" s="9"/>
+      <c r="V50" s="9"/>
+      <c r="W50" s="9"/>
+      <c r="X50" s="34"/>
+      <c r="Y50" s="34"/>
+      <c r="Z50" s="34"/>
+      <c r="AA50" s="34"/>
+      <c r="AB50" s="34"/>
+      <c r="AC50" s="34"/>
+      <c r="AD50" s="34"/>
+      <c r="AE50" s="34"/>
+      <c r="AF50" s="41"/>
     </row>
     <row r="51" spans="1:32">
-      <c r="A51" s="7"/>
-      <c r="B51" s="8"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
-      <c r="I51" s="8"/>
-      <c r="J51" s="8"/>
-      <c r="K51" s="8"/>
-      <c r="L51" s="8"/>
-      <c r="M51" s="8"/>
-      <c r="N51" s="8"/>
-      <c r="O51" s="8"/>
-      <c r="P51" s="8"/>
-      <c r="Q51" s="8"/>
-      <c r="R51" s="8"/>
-      <c r="S51" s="8"/>
-      <c r="T51" s="8"/>
-      <c r="U51" s="8"/>
-      <c r="V51" s="8"/>
-      <c r="W51" s="8"/>
-      <c r="X51" s="33"/>
-      <c r="Y51" s="33"/>
-      <c r="Z51" s="33"/>
-      <c r="AA51" s="33"/>
-      <c r="AB51" s="33"/>
-      <c r="AC51" s="33"/>
-      <c r="AD51" s="33"/>
-      <c r="AE51" s="33"/>
-      <c r="AF51" s="33"/>
+      <c r="A51" s="8"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c r="L51" s="9"/>
+      <c r="M51" s="9"/>
+      <c r="N51" s="9"/>
+      <c r="O51" s="9"/>
+      <c r="P51" s="9"/>
+      <c r="Q51" s="9"/>
+      <c r="R51" s="9"/>
+      <c r="S51" s="9"/>
+      <c r="T51" s="9"/>
+      <c r="U51" s="9"/>
+      <c r="V51" s="9"/>
+      <c r="W51" s="9"/>
+      <c r="X51" s="34"/>
+      <c r="Y51" s="34"/>
+      <c r="Z51" s="34"/>
+      <c r="AA51" s="34"/>
+      <c r="AB51" s="34"/>
+      <c r="AC51" s="34"/>
+      <c r="AD51" s="34"/>
+      <c r="AE51" s="34"/>
+      <c r="AF51" s="41"/>
     </row>
     <row r="52" spans="1:32">
-      <c r="A52" s="7"/>
-      <c r="B52" s="8"/>
-      <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8"/>
-      <c r="H52" s="8"/>
-      <c r="I52" s="8"/>
-      <c r="J52" s="8"/>
-      <c r="K52" s="8"/>
-      <c r="L52" s="8"/>
-      <c r="M52" s="8"/>
-      <c r="N52" s="8"/>
-      <c r="O52" s="8"/>
-      <c r="P52" s="8"/>
-      <c r="Q52" s="8"/>
-      <c r="R52" s="8"/>
-      <c r="S52" s="8"/>
-      <c r="T52" s="8"/>
-      <c r="U52" s="8"/>
-      <c r="V52" s="8"/>
-      <c r="W52" s="8"/>
-      <c r="X52" s="33"/>
-      <c r="Y52" s="33"/>
-      <c r="Z52" s="33"/>
-      <c r="AA52" s="33"/>
-      <c r="AB52" s="33"/>
-      <c r="AC52" s="33"/>
-      <c r="AD52" s="33"/>
-      <c r="AE52" s="33"/>
-      <c r="AF52" s="33"/>
+      <c r="A52" s="8"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c r="L52" s="9"/>
+      <c r="M52" s="9"/>
+      <c r="N52" s="9"/>
+      <c r="O52" s="9"/>
+      <c r="P52" s="9"/>
+      <c r="Q52" s="9"/>
+      <c r="R52" s="9"/>
+      <c r="S52" s="9"/>
+      <c r="T52" s="9"/>
+      <c r="U52" s="9"/>
+      <c r="V52" s="9"/>
+      <c r="W52" s="9"/>
+      <c r="X52" s="34"/>
+      <c r="Y52" s="34"/>
+      <c r="Z52" s="34"/>
+      <c r="AA52" s="34"/>
+      <c r="AB52" s="34"/>
+      <c r="AC52" s="34"/>
+      <c r="AD52" s="34"/>
+      <c r="AE52" s="34"/>
+      <c r="AF52" s="41"/>
     </row>
     <row r="53" spans="1:32">
-      <c r="A53" s="7"/>
-      <c r="B53" s="8"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="8"/>
-      <c r="I53" s="8"/>
-      <c r="J53" s="8"/>
-      <c r="K53" s="8"/>
-      <c r="L53" s="8"/>
-      <c r="M53" s="8"/>
-      <c r="N53" s="8"/>
-      <c r="O53" s="8"/>
-      <c r="P53" s="8"/>
-      <c r="Q53" s="8"/>
-      <c r="R53" s="8"/>
-      <c r="S53" s="8"/>
-      <c r="T53" s="8"/>
-      <c r="U53" s="8"/>
-      <c r="V53" s="8"/>
-      <c r="W53" s="8"/>
-      <c r="X53" s="33"/>
-      <c r="Y53" s="33"/>
-      <c r="Z53" s="33"/>
-      <c r="AA53" s="33"/>
-      <c r="AB53" s="33"/>
-      <c r="AC53" s="33"/>
-      <c r="AD53" s="33"/>
-      <c r="AE53" s="33"/>
-      <c r="AF53" s="33"/>
+      <c r="A53" s="8"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c r="L53" s="9"/>
+      <c r="M53" s="9"/>
+      <c r="N53" s="9"/>
+      <c r="O53" s="9"/>
+      <c r="P53" s="9"/>
+      <c r="Q53" s="9"/>
+      <c r="R53" s="9"/>
+      <c r="S53" s="9"/>
+      <c r="T53" s="9"/>
+      <c r="U53" s="9"/>
+      <c r="V53" s="9"/>
+      <c r="W53" s="9"/>
+      <c r="X53" s="34"/>
+      <c r="Y53" s="34"/>
+      <c r="Z53" s="34"/>
+      <c r="AA53" s="34"/>
+      <c r="AB53" s="34"/>
+      <c r="AC53" s="34"/>
+      <c r="AD53" s="34"/>
+      <c r="AE53" s="34"/>
+      <c r="AF53" s="41"/>
     </row>
     <row r="54" spans="1:32">
-      <c r="A54" s="7"/>
-      <c r="B54" s="8"/>
-      <c r="C54" s="8"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="8"/>
-      <c r="F54" s="8"/>
-      <c r="G54" s="8"/>
-      <c r="H54" s="8"/>
-      <c r="I54" s="8"/>
-      <c r="J54" s="8"/>
-      <c r="K54" s="8"/>
-      <c r="L54" s="8"/>
-      <c r="M54" s="8"/>
-      <c r="N54" s="8"/>
-      <c r="O54" s="8"/>
-      <c r="P54" s="8"/>
-      <c r="Q54" s="8"/>
-      <c r="R54" s="8"/>
-      <c r="S54" s="8"/>
-      <c r="T54" s="8"/>
-      <c r="U54" s="8"/>
-      <c r="V54" s="8"/>
-      <c r="W54" s="8"/>
-      <c r="X54" s="33"/>
-      <c r="Y54" s="33"/>
-      <c r="Z54" s="33"/>
-      <c r="AA54" s="33"/>
-      <c r="AB54" s="33"/>
-      <c r="AC54" s="33"/>
-      <c r="AD54" s="33"/>
-      <c r="AE54" s="33"/>
-      <c r="AF54" s="33"/>
+      <c r="A54" s="8"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c r="L54" s="9"/>
+      <c r="M54" s="9"/>
+      <c r="N54" s="9"/>
+      <c r="O54" s="9"/>
+      <c r="P54" s="9"/>
+      <c r="Q54" s="9"/>
+      <c r="R54" s="9"/>
+      <c r="S54" s="9"/>
+      <c r="T54" s="9"/>
+      <c r="U54" s="9"/>
+      <c r="V54" s="9"/>
+      <c r="W54" s="9"/>
+      <c r="X54" s="34"/>
+      <c r="Y54" s="34"/>
+      <c r="Z54" s="34"/>
+      <c r="AA54" s="34"/>
+      <c r="AB54" s="34"/>
+      <c r="AC54" s="34"/>
+      <c r="AD54" s="34"/>
+      <c r="AE54" s="34"/>
+      <c r="AF54" s="41"/>
     </row>
     <row r="55" spans="1:32">
-      <c r="A55" s="7"/>
-      <c r="B55" s="8"/>
-      <c r="C55" s="8"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="8"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="8"/>
-      <c r="H55" s="8"/>
-      <c r="I55" s="8"/>
-      <c r="J55" s="8"/>
-      <c r="K55" s="8"/>
-      <c r="L55" s="8"/>
-      <c r="M55" s="8"/>
-      <c r="N55" s="8"/>
-      <c r="O55" s="8"/>
-      <c r="P55" s="8"/>
-      <c r="Q55" s="8"/>
-      <c r="R55" s="8"/>
-      <c r="S55" s="8"/>
-      <c r="T55" s="8"/>
-      <c r="U55" s="8"/>
-      <c r="V55" s="8"/>
-      <c r="W55" s="8"/>
-      <c r="X55" s="33"/>
-      <c r="Y55" s="33"/>
-      <c r="Z55" s="33"/>
-      <c r="AA55" s="33"/>
-      <c r="AB55" s="33"/>
-      <c r="AC55" s="33"/>
-      <c r="AD55" s="33"/>
-      <c r="AE55" s="33"/>
-      <c r="AF55" s="33"/>
+      <c r="A55" s="8"/>
+      <c r="B55" s="9"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c r="L55" s="9"/>
+      <c r="M55" s="9"/>
+      <c r="N55" s="9"/>
+      <c r="O55" s="9"/>
+      <c r="P55" s="9"/>
+      <c r="Q55" s="9"/>
+      <c r="R55" s="9"/>
+      <c r="S55" s="9"/>
+      <c r="T55" s="9"/>
+      <c r="U55" s="9"/>
+      <c r="V55" s="9"/>
+      <c r="W55" s="9"/>
+      <c r="X55" s="34"/>
+      <c r="Y55" s="34"/>
+      <c r="Z55" s="34"/>
+      <c r="AA55" s="34"/>
+      <c r="AB55" s="34"/>
+      <c r="AC55" s="34"/>
+      <c r="AD55" s="34"/>
+      <c r="AE55" s="34"/>
+      <c r="AF55" s="41"/>
     </row>
     <row r="56" spans="1:32">
-      <c r="A56" s="7"/>
-      <c r="B56" s="8"/>
-      <c r="C56" s="8"/>
-      <c r="D56" s="8"/>
-      <c r="E56" s="8"/>
-      <c r="F56" s="8"/>
-      <c r="G56" s="8"/>
-      <c r="H56" s="8"/>
-      <c r="I56" s="8"/>
-      <c r="J56" s="8"/>
-      <c r="K56" s="8"/>
-      <c r="L56" s="8"/>
-      <c r="M56" s="8"/>
-      <c r="N56" s="8"/>
-      <c r="O56" s="8"/>
-      <c r="P56" s="8"/>
-      <c r="Q56" s="8"/>
-      <c r="R56" s="8"/>
-      <c r="S56" s="8"/>
-      <c r="T56" s="8"/>
-      <c r="U56" s="8"/>
-      <c r="V56" s="8"/>
-      <c r="W56" s="8"/>
-      <c r="X56" s="33"/>
-      <c r="Y56" s="33"/>
-      <c r="Z56" s="33"/>
-      <c r="AA56" s="33"/>
-      <c r="AB56" s="33"/>
-      <c r="AC56" s="33"/>
-      <c r="AD56" s="33"/>
-      <c r="AE56" s="33"/>
-      <c r="AF56" s="33"/>
+      <c r="A56" s="8"/>
+      <c r="B56" s="9"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c r="L56" s="9"/>
+      <c r="M56" s="9"/>
+      <c r="N56" s="9"/>
+      <c r="O56" s="9"/>
+      <c r="P56" s="9"/>
+      <c r="Q56" s="9"/>
+      <c r="R56" s="9"/>
+      <c r="S56" s="9"/>
+      <c r="T56" s="9"/>
+      <c r="U56" s="9"/>
+      <c r="V56" s="9"/>
+      <c r="W56" s="9"/>
+      <c r="X56" s="34"/>
+      <c r="Y56" s="34"/>
+      <c r="Z56" s="34"/>
+      <c r="AA56" s="34"/>
+      <c r="AB56" s="34"/>
+      <c r="AC56" s="34"/>
+      <c r="AD56" s="34"/>
+      <c r="AE56" s="34"/>
+      <c r="AF56" s="41"/>
     </row>
     <row r="57" spans="1:32">
-      <c r="A57" s="7"/>
-      <c r="B57" s="8"/>
-      <c r="C57" s="8"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="8"/>
-      <c r="F57" s="8"/>
-      <c r="G57" s="8"/>
-      <c r="H57" s="8"/>
-      <c r="I57" s="8"/>
-      <c r="J57" s="8"/>
-      <c r="K57" s="8"/>
-      <c r="L57" s="8"/>
-      <c r="M57" s="8"/>
-      <c r="N57" s="8"/>
-      <c r="O57" s="8"/>
-      <c r="P57" s="8"/>
-      <c r="Q57" s="8"/>
-      <c r="R57" s="8"/>
-      <c r="S57" s="8"/>
-      <c r="T57" s="8"/>
-      <c r="U57" s="8"/>
-      <c r="V57" s="8"/>
-      <c r="W57" s="8"/>
-      <c r="X57" s="33"/>
-      <c r="Y57" s="33"/>
-      <c r="Z57" s="33"/>
-      <c r="AA57" s="33"/>
-      <c r="AB57" s="33"/>
-      <c r="AC57" s="33"/>
-      <c r="AD57" s="33"/>
-      <c r="AE57" s="33"/>
-      <c r="AF57" s="33"/>
+      <c r="A57" s="8"/>
+      <c r="B57" s="9"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c r="L57" s="9"/>
+      <c r="M57" s="9"/>
+      <c r="N57" s="9"/>
+      <c r="O57" s="9"/>
+      <c r="P57" s="9"/>
+      <c r="Q57" s="9"/>
+      <c r="R57" s="9"/>
+      <c r="S57" s="9"/>
+      <c r="T57" s="9"/>
+      <c r="U57" s="9"/>
+      <c r="V57" s="9"/>
+      <c r="W57" s="9"/>
+      <c r="X57" s="34"/>
+      <c r="Y57" s="34"/>
+      <c r="Z57" s="34"/>
+      <c r="AA57" s="34"/>
+      <c r="AB57" s="34"/>
+      <c r="AC57" s="34"/>
+      <c r="AD57" s="34"/>
+      <c r="AE57" s="34"/>
+      <c r="AF57" s="41"/>
     </row>
     <row r="58" spans="1:32">
-      <c r="A58" s="7"/>
-      <c r="B58" s="8"/>
-      <c r="C58" s="8"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="8"/>
-      <c r="F58" s="8"/>
-      <c r="G58" s="8"/>
-      <c r="H58" s="8"/>
-      <c r="I58" s="8"/>
-      <c r="J58" s="8"/>
-      <c r="K58" s="8"/>
-      <c r="L58" s="8"/>
-      <c r="M58" s="8"/>
-      <c r="N58" s="8"/>
-      <c r="O58" s="8"/>
-      <c r="P58" s="8"/>
-      <c r="Q58" s="8"/>
-      <c r="R58" s="8"/>
-      <c r="S58" s="8"/>
-      <c r="T58" s="8"/>
-      <c r="U58" s="8"/>
-      <c r="V58" s="8"/>
-      <c r="W58" s="8"/>
-      <c r="X58" s="33"/>
-      <c r="Y58" s="33"/>
-      <c r="Z58" s="33"/>
-      <c r="AA58" s="33"/>
-      <c r="AB58" s="33"/>
-      <c r="AC58" s="33"/>
-      <c r="AD58" s="33"/>
-      <c r="AE58" s="33"/>
-      <c r="AF58" s="33"/>
+      <c r="A58" s="8"/>
+      <c r="B58" s="9"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c r="L58" s="9"/>
+      <c r="M58" s="9"/>
+      <c r="N58" s="9"/>
+      <c r="O58" s="9"/>
+      <c r="P58" s="9"/>
+      <c r="Q58" s="9"/>
+      <c r="R58" s="9"/>
+      <c r="S58" s="9"/>
+      <c r="T58" s="9"/>
+      <c r="U58" s="9"/>
+      <c r="V58" s="9"/>
+      <c r="W58" s="9"/>
+      <c r="X58" s="34"/>
+      <c r="Y58" s="34"/>
+      <c r="Z58" s="34"/>
+      <c r="AA58" s="34"/>
+      <c r="AB58" s="34"/>
+      <c r="AC58" s="34"/>
+      <c r="AD58" s="34"/>
+      <c r="AE58" s="34"/>
+      <c r="AF58" s="41"/>
     </row>
     <row r="59" spans="1:32">
-      <c r="A59" s="7"/>
-      <c r="B59" s="8"/>
-      <c r="C59" s="8"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="8"/>
-      <c r="F59" s="8"/>
-      <c r="G59" s="8"/>
-      <c r="H59" s="8"/>
-      <c r="I59" s="8"/>
-      <c r="J59" s="8"/>
-      <c r="K59" s="8"/>
-      <c r="L59" s="8"/>
-      <c r="M59" s="8"/>
-      <c r="N59" s="8"/>
-      <c r="O59" s="8"/>
-      <c r="P59" s="8"/>
-      <c r="Q59" s="8"/>
-      <c r="R59" s="8"/>
-      <c r="S59" s="8"/>
-      <c r="T59" s="8"/>
-      <c r="U59" s="8"/>
-      <c r="V59" s="8"/>
-      <c r="W59" s="8"/>
-      <c r="X59" s="33"/>
-      <c r="Y59" s="33"/>
-      <c r="Z59" s="33"/>
-      <c r="AA59" s="33"/>
-      <c r="AB59" s="33"/>
-      <c r="AC59" s="33"/>
-      <c r="AD59" s="33"/>
-      <c r="AE59" s="33"/>
-      <c r="AF59" s="33"/>
+      <c r="A59" s="8"/>
+      <c r="B59" s="9"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="9"/>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c r="L59" s="9"/>
+      <c r="M59" s="9"/>
+      <c r="N59" s="9"/>
+      <c r="O59" s="9"/>
+      <c r="P59" s="9"/>
+      <c r="Q59" s="9"/>
+      <c r="R59" s="9"/>
+      <c r="S59" s="9"/>
+      <c r="T59" s="9"/>
+      <c r="U59" s="9"/>
+      <c r="V59" s="9"/>
+      <c r="W59" s="9"/>
+      <c r="X59" s="34"/>
+      <c r="Y59" s="34"/>
+      <c r="Z59" s="34"/>
+      <c r="AA59" s="34"/>
+      <c r="AB59" s="34"/>
+      <c r="AC59" s="34"/>
+      <c r="AD59" s="34"/>
+      <c r="AE59" s="34"/>
+      <c r="AF59" s="41"/>
     </row>
     <row r="60" spans="1:32">
-      <c r="A60" s="7"/>
-      <c r="B60" s="8"/>
-      <c r="C60" s="8"/>
-      <c r="D60" s="8"/>
-      <c r="E60" s="8"/>
-      <c r="F60" s="8"/>
-      <c r="G60" s="8"/>
-      <c r="H60" s="8"/>
-      <c r="I60" s="8"/>
-      <c r="J60" s="8"/>
-      <c r="K60" s="8"/>
-      <c r="L60" s="8"/>
-      <c r="M60" s="8"/>
-      <c r="N60" s="8"/>
-      <c r="O60" s="8"/>
-      <c r="P60" s="8"/>
-      <c r="Q60" s="8"/>
-      <c r="R60" s="8"/>
-      <c r="S60" s="8"/>
-      <c r="T60" s="8"/>
-      <c r="U60" s="8"/>
-      <c r="V60" s="8"/>
-      <c r="W60" s="8"/>
-      <c r="X60" s="33"/>
-      <c r="Y60" s="33"/>
-      <c r="Z60" s="33"/>
-      <c r="AA60" s="33"/>
-      <c r="AB60" s="33"/>
-      <c r="AC60" s="33"/>
-      <c r="AD60" s="33"/>
-      <c r="AE60" s="33"/>
-      <c r="AF60" s="33"/>
+      <c r="A60" s="8"/>
+      <c r="B60" s="9"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="9"/>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c r="L60" s="9"/>
+      <c r="M60" s="9"/>
+      <c r="N60" s="9"/>
+      <c r="O60" s="9"/>
+      <c r="P60" s="9"/>
+      <c r="Q60" s="9"/>
+      <c r="R60" s="9"/>
+      <c r="S60" s="9"/>
+      <c r="T60" s="9"/>
+      <c r="U60" s="9"/>
+      <c r="V60" s="9"/>
+      <c r="W60" s="9"/>
+      <c r="X60" s="34"/>
+      <c r="Y60" s="34"/>
+      <c r="Z60" s="34"/>
+      <c r="AA60" s="34"/>
+      <c r="AB60" s="34"/>
+      <c r="AC60" s="34"/>
+      <c r="AD60" s="34"/>
+      <c r="AE60" s="34"/>
+      <c r="AF60" s="41"/>
     </row>
     <row r="61" spans="1:32">
-      <c r="A61" s="7"/>
-      <c r="B61" s="8"/>
-      <c r="C61" s="8"/>
-      <c r="D61" s="8"/>
-      <c r="E61" s="8"/>
-      <c r="F61" s="8"/>
-      <c r="G61" s="8"/>
-      <c r="H61" s="8"/>
-      <c r="I61" s="8"/>
-      <c r="J61" s="8"/>
-      <c r="K61" s="8"/>
-      <c r="L61" s="8"/>
-      <c r="M61" s="8"/>
-      <c r="N61" s="8"/>
-      <c r="O61" s="8"/>
-      <c r="P61" s="8"/>
-      <c r="Q61" s="8"/>
-      <c r="R61" s="8"/>
-      <c r="S61" s="8"/>
-      <c r="T61" s="8"/>
-      <c r="U61" s="8"/>
-      <c r="V61" s="8"/>
-      <c r="W61" s="8"/>
-      <c r="X61" s="33"/>
-      <c r="Y61" s="33"/>
-      <c r="Z61" s="33"/>
-      <c r="AA61" s="33"/>
-      <c r="AB61" s="33"/>
-      <c r="AC61" s="33"/>
-      <c r="AD61" s="33"/>
-      <c r="AE61" s="33"/>
-      <c r="AF61" s="33"/>
+      <c r="A61" s="8"/>
+      <c r="B61" s="9"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="9"/>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c r="L61" s="9"/>
+      <c r="M61" s="9"/>
+      <c r="N61" s="9"/>
+      <c r="O61" s="9"/>
+      <c r="P61" s="9"/>
+      <c r="Q61" s="9"/>
+      <c r="R61" s="9"/>
+      <c r="S61" s="9"/>
+      <c r="T61" s="9"/>
+      <c r="U61" s="9"/>
+      <c r="V61" s="9"/>
+      <c r="W61" s="9"/>
+      <c r="X61" s="34"/>
+      <c r="Y61" s="34"/>
+      <c r="Z61" s="34"/>
+      <c r="AA61" s="34"/>
+      <c r="AB61" s="34"/>
+      <c r="AC61" s="34"/>
+      <c r="AD61" s="34"/>
+      <c r="AE61" s="34"/>
+      <c r="AF61" s="41"/>
     </row>
     <row r="62" spans="1:32">
-      <c r="A62" s="7"/>
-      <c r="B62" s="8"/>
-      <c r="C62" s="8"/>
-      <c r="D62" s="8"/>
-      <c r="E62" s="8"/>
-      <c r="F62" s="8"/>
-      <c r="G62" s="8"/>
-      <c r="H62" s="8"/>
-      <c r="I62" s="8"/>
-      <c r="J62" s="8"/>
-      <c r="K62" s="8"/>
-      <c r="L62" s="8"/>
-      <c r="M62" s="8"/>
-      <c r="N62" s="8"/>
-      <c r="O62" s="8"/>
-      <c r="P62" s="8"/>
-      <c r="Q62" s="8"/>
-      <c r="R62" s="8"/>
-      <c r="S62" s="8"/>
-      <c r="T62" s="8"/>
-      <c r="U62" s="8"/>
-      <c r="V62" s="8"/>
-      <c r="W62" s="8"/>
-      <c r="X62" s="33"/>
-      <c r="Y62" s="33"/>
-      <c r="Z62" s="33"/>
-      <c r="AA62" s="33"/>
-      <c r="AB62" s="33"/>
-      <c r="AC62" s="33"/>
-      <c r="AD62" s="33"/>
-      <c r="AE62" s="33"/>
-      <c r="AF62" s="33"/>
+      <c r="A62" s="8"/>
+      <c r="B62" s="9"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="9"/>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c r="L62" s="9"/>
+      <c r="M62" s="9"/>
+      <c r="N62" s="9"/>
+      <c r="O62" s="9"/>
+      <c r="P62" s="9"/>
+      <c r="Q62" s="9"/>
+      <c r="R62" s="9"/>
+      <c r="S62" s="9"/>
+      <c r="T62" s="9"/>
+      <c r="U62" s="9"/>
+      <c r="V62" s="9"/>
+      <c r="W62" s="9"/>
+      <c r="X62" s="34"/>
+      <c r="Y62" s="34"/>
+      <c r="Z62" s="34"/>
+      <c r="AA62" s="34"/>
+      <c r="AB62" s="34"/>
+      <c r="AC62" s="34"/>
+      <c r="AD62" s="34"/>
+      <c r="AE62" s="34"/>
+      <c r="AF62" s="41"/>
     </row>
     <row r="63" spans="1:32">
-      <c r="A63" s="7"/>
-      <c r="B63" s="8"/>
-      <c r="C63" s="8"/>
-      <c r="D63" s="8"/>
-      <c r="E63" s="8"/>
-      <c r="F63" s="8"/>
-      <c r="G63" s="8"/>
-      <c r="H63" s="8"/>
-      <c r="I63" s="8"/>
-      <c r="J63" s="8"/>
-      <c r="K63" s="8"/>
-      <c r="L63" s="8"/>
-      <c r="M63" s="8"/>
-      <c r="N63" s="8"/>
-      <c r="O63" s="8"/>
-      <c r="P63" s="8"/>
-      <c r="Q63" s="8"/>
-      <c r="R63" s="8"/>
-      <c r="S63" s="8"/>
-      <c r="T63" s="8"/>
-      <c r="U63" s="8"/>
-      <c r="V63" s="8"/>
-      <c r="W63" s="8"/>
-      <c r="X63" s="33"/>
-      <c r="Y63" s="33"/>
-      <c r="Z63" s="33"/>
-      <c r="AA63" s="33"/>
-      <c r="AB63" s="33"/>
-      <c r="AC63" s="33"/>
-      <c r="AD63" s="33"/>
-      <c r="AE63" s="33"/>
-      <c r="AF63" s="33"/>
+      <c r="A63" s="8"/>
+      <c r="B63" s="9"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="9"/>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c r="L63" s="9"/>
+      <c r="M63" s="9"/>
+      <c r="N63" s="9"/>
+      <c r="O63" s="9"/>
+      <c r="P63" s="9"/>
+      <c r="Q63" s="9"/>
+      <c r="R63" s="9"/>
+      <c r="S63" s="9"/>
+      <c r="T63" s="9"/>
+      <c r="U63" s="9"/>
+      <c r="V63" s="9"/>
+      <c r="W63" s="9"/>
+      <c r="X63" s="34"/>
+      <c r="Y63" s="34"/>
+      <c r="Z63" s="34"/>
+      <c r="AA63" s="34"/>
+      <c r="AB63" s="34"/>
+      <c r="AC63" s="34"/>
+      <c r="AD63" s="34"/>
+      <c r="AE63" s="34"/>
+      <c r="AF63" s="41"/>
     </row>
     <row r="64" spans="1:32">
-      <c r="A64" s="7"/>
-      <c r="B64" s="8"/>
-      <c r="C64" s="8"/>
-      <c r="D64" s="8"/>
-      <c r="E64" s="8"/>
-      <c r="F64" s="8"/>
-      <c r="G64" s="8"/>
-      <c r="H64" s="8"/>
-      <c r="I64" s="8"/>
-      <c r="J64" s="8"/>
-      <c r="K64" s="8"/>
-      <c r="L64" s="8"/>
-      <c r="M64" s="8"/>
-      <c r="N64" s="8"/>
-      <c r="O64" s="8"/>
-      <c r="P64" s="8"/>
-      <c r="Q64" s="8"/>
-      <c r="R64" s="8"/>
-      <c r="S64" s="8"/>
-      <c r="T64" s="8"/>
-      <c r="U64" s="8"/>
-      <c r="V64" s="8"/>
-      <c r="W64" s="8"/>
-      <c r="X64" s="33"/>
-      <c r="Y64" s="33"/>
-      <c r="Z64" s="33"/>
-      <c r="AA64" s="33"/>
-      <c r="AB64" s="33"/>
-      <c r="AC64" s="33"/>
-      <c r="AD64" s="33"/>
-      <c r="AE64" s="33"/>
-      <c r="AF64" s="33"/>
+      <c r="A64" s="8"/>
+      <c r="B64" s="9"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="9"/>
+      <c r="H64" s="9"/>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c r="L64" s="9"/>
+      <c r="M64" s="9"/>
+      <c r="N64" s="9"/>
+      <c r="O64" s="9"/>
+      <c r="P64" s="9"/>
+      <c r="Q64" s="9"/>
+      <c r="R64" s="9"/>
+      <c r="S64" s="9"/>
+      <c r="T64" s="9"/>
+      <c r="U64" s="9"/>
+      <c r="V64" s="9"/>
+      <c r="W64" s="9"/>
+      <c r="X64" s="34"/>
+      <c r="Y64" s="34"/>
+      <c r="Z64" s="34"/>
+      <c r="AA64" s="34"/>
+      <c r="AB64" s="34"/>
+      <c r="AC64" s="34"/>
+      <c r="AD64" s="34"/>
+      <c r="AE64" s="34"/>
+      <c r="AF64" s="41"/>
     </row>
     <row r="65" spans="1:32">
-      <c r="A65" s="7"/>
-      <c r="B65" s="8"/>
-      <c r="C65" s="8"/>
-      <c r="D65" s="8"/>
-      <c r="E65" s="8"/>
-      <c r="F65" s="8"/>
-      <c r="G65" s="8"/>
-      <c r="H65" s="8"/>
-      <c r="I65" s="8"/>
-      <c r="J65" s="8"/>
-      <c r="K65" s="8"/>
-      <c r="L65" s="8"/>
-      <c r="M65" s="8"/>
-      <c r="N65" s="8"/>
-      <c r="O65" s="8"/>
-      <c r="P65" s="8"/>
-      <c r="Q65" s="8"/>
-      <c r="R65" s="8"/>
-      <c r="S65" s="8"/>
-      <c r="T65" s="8"/>
-      <c r="U65" s="8"/>
-      <c r="V65" s="8"/>
-      <c r="W65" s="8"/>
-      <c r="X65" s="33"/>
-      <c r="Y65" s="33"/>
-      <c r="Z65" s="33"/>
-      <c r="AA65" s="33"/>
-      <c r="AB65" s="33"/>
-      <c r="AC65" s="33"/>
-      <c r="AD65" s="33"/>
-      <c r="AE65" s="33"/>
-      <c r="AF65" s="33"/>
+      <c r="A65" s="8"/>
+      <c r="B65" s="9"/>
+      <c r="C65" s="9"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="9"/>
+      <c r="H65" s="9"/>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c r="L65" s="9"/>
+      <c r="M65" s="9"/>
+      <c r="N65" s="9"/>
+      <c r="O65" s="9"/>
+      <c r="P65" s="9"/>
+      <c r="Q65" s="9"/>
+      <c r="R65" s="9"/>
+      <c r="S65" s="9"/>
+      <c r="T65" s="9"/>
+      <c r="U65" s="9"/>
+      <c r="V65" s="9"/>
+      <c r="W65" s="9"/>
+      <c r="X65" s="34"/>
+      <c r="Y65" s="34"/>
+      <c r="Z65" s="34"/>
+      <c r="AA65" s="34"/>
+      <c r="AB65" s="34"/>
+      <c r="AC65" s="34"/>
+      <c r="AD65" s="34"/>
+      <c r="AE65" s="34"/>
+      <c r="AF65" s="41"/>
     </row>
     <row r="66" spans="1:32">
-      <c r="A66" s="7"/>
-      <c r="B66" s="8"/>
-      <c r="C66" s="8"/>
-      <c r="D66" s="8"/>
-      <c r="E66" s="8"/>
-      <c r="F66" s="8"/>
-      <c r="G66" s="8"/>
-      <c r="H66" s="8"/>
-      <c r="I66" s="8"/>
-      <c r="J66" s="8"/>
-      <c r="K66" s="8"/>
-      <c r="L66" s="8"/>
-      <c r="M66" s="8"/>
-      <c r="N66" s="8"/>
-      <c r="O66" s="8"/>
-      <c r="P66" s="8"/>
-      <c r="Q66" s="8"/>
-      <c r="R66" s="8"/>
-      <c r="S66" s="8"/>
-      <c r="T66" s="8"/>
-      <c r="U66" s="8"/>
-      <c r="V66" s="8"/>
-      <c r="W66" s="8"/>
-      <c r="X66" s="33"/>
-      <c r="Y66" s="33"/>
-      <c r="Z66" s="33"/>
-      <c r="AA66" s="33"/>
-      <c r="AB66" s="33"/>
-      <c r="AC66" s="33"/>
-      <c r="AD66" s="33"/>
-      <c r="AE66" s="33"/>
-      <c r="AF66" s="33"/>
+      <c r="A66" s="8"/>
+      <c r="B66" s="9"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="9"/>
+      <c r="H66" s="9"/>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c r="L66" s="9"/>
+      <c r="M66" s="9"/>
+      <c r="N66" s="9"/>
+      <c r="O66" s="9"/>
+      <c r="P66" s="9"/>
+      <c r="Q66" s="9"/>
+      <c r="R66" s="9"/>
+      <c r="S66" s="9"/>
+      <c r="T66" s="9"/>
+      <c r="U66" s="9"/>
+      <c r="V66" s="9"/>
+      <c r="W66" s="9"/>
+      <c r="X66" s="34"/>
+      <c r="Y66" s="34"/>
+      <c r="Z66" s="34"/>
+      <c r="AA66" s="34"/>
+      <c r="AB66" s="34"/>
+      <c r="AC66" s="34"/>
+      <c r="AD66" s="34"/>
+      <c r="AE66" s="34"/>
+      <c r="AF66" s="41"/>
     </row>
     <row r="67" spans="1:32">
-      <c r="A67" s="7"/>
-      <c r="B67" s="8"/>
-      <c r="C67" s="8"/>
-      <c r="D67" s="8"/>
-      <c r="E67" s="8"/>
-      <c r="F67" s="8"/>
-      <c r="G67" s="8"/>
-      <c r="H67" s="8"/>
-      <c r="I67" s="8"/>
-      <c r="J67" s="8"/>
-      <c r="K67" s="8"/>
-      <c r="L67" s="8"/>
-      <c r="M67" s="8"/>
-      <c r="N67" s="8"/>
-      <c r="O67" s="8"/>
-      <c r="P67" s="8"/>
-      <c r="Q67" s="8"/>
-      <c r="R67" s="8"/>
-      <c r="S67" s="8"/>
-      <c r="T67" s="8"/>
-      <c r="U67" s="8"/>
-      <c r="V67" s="8"/>
-      <c r="W67" s="8"/>
-      <c r="X67" s="33"/>
-      <c r="Y67" s="33"/>
-      <c r="Z67" s="33"/>
-      <c r="AA67" s="33"/>
-      <c r="AB67" s="33"/>
-      <c r="AC67" s="33"/>
-      <c r="AD67" s="33"/>
-      <c r="AE67" s="33"/>
-      <c r="AF67" s="33"/>
+      <c r="A67" s="8"/>
+      <c r="B67" s="9"/>
+      <c r="C67" s="9"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="9"/>
+      <c r="G67" s="9"/>
+      <c r="H67" s="9"/>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c r="L67" s="9"/>
+      <c r="M67" s="9"/>
+      <c r="N67" s="9"/>
+      <c r="O67" s="9"/>
+      <c r="P67" s="9"/>
+      <c r="Q67" s="9"/>
+      <c r="R67" s="9"/>
+      <c r="S67" s="9"/>
+      <c r="T67" s="9"/>
+      <c r="U67" s="9"/>
+      <c r="V67" s="9"/>
+      <c r="W67" s="9"/>
+      <c r="X67" s="34"/>
+      <c r="Y67" s="34"/>
+      <c r="Z67" s="34"/>
+      <c r="AA67" s="34"/>
+      <c r="AB67" s="34"/>
+      <c r="AC67" s="34"/>
+      <c r="AD67" s="34"/>
+      <c r="AE67" s="34"/>
+      <c r="AF67" s="41"/>
     </row>
     <row r="68" spans="1:32">
-      <c r="A68" s="7"/>
-      <c r="B68" s="8"/>
-      <c r="C68" s="8"/>
-      <c r="D68" s="8"/>
-      <c r="E68" s="8"/>
-      <c r="F68" s="8"/>
-      <c r="G68" s="8"/>
-      <c r="H68" s="8"/>
-      <c r="I68" s="8"/>
-      <c r="J68" s="8"/>
-      <c r="K68" s="8"/>
-      <c r="L68" s="8"/>
-      <c r="M68" s="8"/>
-      <c r="N68" s="8"/>
-      <c r="O68" s="8"/>
-      <c r="P68" s="8"/>
-      <c r="Q68" s="8"/>
-      <c r="R68" s="8"/>
-      <c r="S68" s="8"/>
-      <c r="T68" s="8"/>
-      <c r="U68" s="8"/>
-      <c r="V68" s="8"/>
-      <c r="W68" s="8"/>
-      <c r="X68" s="33"/>
-      <c r="Y68" s="33"/>
-      <c r="Z68" s="33"/>
-      <c r="AA68" s="33"/>
-      <c r="AB68" s="33"/>
-      <c r="AC68" s="33"/>
-      <c r="AD68" s="33"/>
-      <c r="AE68" s="33"/>
-      <c r="AF68" s="33"/>
+      <c r="A68" s="8"/>
+      <c r="B68" s="9"/>
+      <c r="C68" s="9"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="9"/>
+      <c r="H68" s="9"/>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c r="L68" s="9"/>
+      <c r="M68" s="9"/>
+      <c r="N68" s="9"/>
+      <c r="O68" s="9"/>
+      <c r="P68" s="9"/>
+      <c r="Q68" s="9"/>
+      <c r="R68" s="9"/>
+      <c r="S68" s="9"/>
+      <c r="T68" s="9"/>
+      <c r="U68" s="9"/>
+      <c r="V68" s="9"/>
+      <c r="W68" s="9"/>
+      <c r="X68" s="34"/>
+      <c r="Y68" s="34"/>
+      <c r="Z68" s="34"/>
+      <c r="AA68" s="34"/>
+      <c r="AB68" s="34"/>
+      <c r="AC68" s="34"/>
+      <c r="AD68" s="34"/>
+      <c r="AE68" s="34"/>
+      <c r="AF68" s="41"/>
     </row>
     <row r="69" spans="1:32">
-      <c r="A69" s="7"/>
-      <c r="B69" s="8"/>
-      <c r="C69" s="8"/>
-      <c r="D69" s="8"/>
-      <c r="E69" s="8"/>
-      <c r="F69" s="8"/>
-      <c r="G69" s="8"/>
-      <c r="H69" s="8"/>
-      <c r="I69" s="8"/>
-      <c r="J69" s="8"/>
-      <c r="K69" s="8"/>
-      <c r="L69" s="8"/>
-      <c r="M69" s="8"/>
-      <c r="N69" s="8"/>
-      <c r="O69" s="8"/>
-      <c r="P69" s="8"/>
-      <c r="Q69" s="8"/>
-      <c r="R69" s="8"/>
-      <c r="S69" s="8"/>
-      <c r="T69" s="8"/>
-      <c r="U69" s="8"/>
-      <c r="V69" s="8"/>
-      <c r="W69" s="8"/>
-      <c r="X69" s="33"/>
-      <c r="Y69" s="33"/>
-      <c r="Z69" s="33"/>
-      <c r="AA69" s="33"/>
-      <c r="AB69" s="33"/>
-      <c r="AC69" s="33"/>
-      <c r="AD69" s="33"/>
-      <c r="AE69" s="33"/>
-      <c r="AF69" s="33"/>
+      <c r="A69" s="8"/>
+      <c r="B69" s="9"/>
+      <c r="C69" s="9"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="9"/>
+      <c r="G69" s="9"/>
+      <c r="H69" s="9"/>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c r="L69" s="9"/>
+      <c r="M69" s="9"/>
+      <c r="N69" s="9"/>
+      <c r="O69" s="9"/>
+      <c r="P69" s="9"/>
+      <c r="Q69" s="9"/>
+      <c r="R69" s="9"/>
+      <c r="S69" s="9"/>
+      <c r="T69" s="9"/>
+      <c r="U69" s="9"/>
+      <c r="V69" s="9"/>
+      <c r="W69" s="9"/>
+      <c r="X69" s="34"/>
+      <c r="Y69" s="34"/>
+      <c r="Z69" s="34"/>
+      <c r="AA69" s="34"/>
+      <c r="AB69" s="34"/>
+      <c r="AC69" s="34"/>
+      <c r="AD69" s="34"/>
+      <c r="AE69" s="34"/>
+      <c r="AF69" s="41"/>
     </row>
     <row r="70" spans="1:32">
-      <c r="A70" s="7"/>
-      <c r="B70" s="8"/>
-      <c r="C70" s="8"/>
-      <c r="D70" s="8"/>
-      <c r="E70" s="8"/>
-      <c r="F70" s="8"/>
-      <c r="G70" s="8"/>
-      <c r="H70" s="8"/>
-      <c r="I70" s="8"/>
-      <c r="J70" s="8"/>
-      <c r="K70" s="8"/>
-      <c r="L70" s="8"/>
-      <c r="M70" s="8"/>
-      <c r="N70" s="8"/>
-      <c r="O70" s="8"/>
-      <c r="P70" s="8"/>
-      <c r="Q70" s="8"/>
-      <c r="R70" s="8"/>
-      <c r="S70" s="8"/>
-      <c r="T70" s="8"/>
-      <c r="U70" s="8"/>
-      <c r="V70" s="8"/>
-      <c r="W70" s="8"/>
-      <c r="X70" s="33"/>
-      <c r="Y70" s="33"/>
-      <c r="Z70" s="33"/>
-      <c r="AA70" s="33"/>
-      <c r="AB70" s="33"/>
-      <c r="AC70" s="33"/>
-      <c r="AD70" s="33"/>
-      <c r="AE70" s="33"/>
-      <c r="AF70" s="33"/>
+      <c r="A70" s="8"/>
+      <c r="B70" s="9"/>
+      <c r="C70" s="9"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="9"/>
+      <c r="H70" s="9"/>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c r="L70" s="9"/>
+      <c r="M70" s="9"/>
+      <c r="N70" s="9"/>
+      <c r="O70" s="9"/>
+      <c r="P70" s="9"/>
+      <c r="Q70" s="9"/>
+      <c r="R70" s="9"/>
+      <c r="S70" s="9"/>
+      <c r="T70" s="9"/>
+      <c r="U70" s="9"/>
+      <c r="V70" s="9"/>
+      <c r="W70" s="9"/>
+      <c r="X70" s="34"/>
+      <c r="Y70" s="34"/>
+      <c r="Z70" s="34"/>
+      <c r="AA70" s="34"/>
+      <c r="AB70" s="34"/>
+      <c r="AC70" s="34"/>
+      <c r="AD70" s="34"/>
+      <c r="AE70" s="34"/>
+      <c r="AF70" s="41"/>
     </row>
     <row r="71" spans="1:32">
-      <c r="A71" s="7"/>
-      <c r="B71" s="8"/>
-      <c r="C71" s="8"/>
-      <c r="D71" s="8"/>
-      <c r="E71" s="8"/>
-      <c r="F71" s="8"/>
-      <c r="G71" s="8"/>
-      <c r="H71" s="8"/>
-      <c r="I71" s="8"/>
-      <c r="J71" s="8"/>
-      <c r="K71" s="8"/>
-      <c r="L71" s="8"/>
-      <c r="M71" s="8"/>
-      <c r="N71" s="8"/>
-      <c r="O71" s="8"/>
-      <c r="P71" s="8"/>
-      <c r="Q71" s="8"/>
-      <c r="R71" s="8"/>
-      <c r="S71" s="8"/>
-      <c r="T71" s="8"/>
-      <c r="U71" s="8"/>
-      <c r="V71" s="8"/>
-      <c r="W71" s="8"/>
-      <c r="X71" s="33"/>
-      <c r="Y71" s="33"/>
-      <c r="Z71" s="33"/>
-      <c r="AA71" s="33"/>
-      <c r="AB71" s="33"/>
-      <c r="AC71" s="33"/>
-      <c r="AD71" s="33"/>
-      <c r="AE71" s="33"/>
-      <c r="AF71" s="33"/>
+      <c r="A71" s="8"/>
+      <c r="B71" s="9"/>
+      <c r="C71" s="9"/>
+      <c r="D71" s="9"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="9"/>
+      <c r="G71" s="9"/>
+      <c r="H71" s="9"/>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c r="L71" s="9"/>
+      <c r="M71" s="9"/>
+      <c r="N71" s="9"/>
+      <c r="O71" s="9"/>
+      <c r="P71" s="9"/>
+      <c r="Q71" s="9"/>
+      <c r="R71" s="9"/>
+      <c r="S71" s="9"/>
+      <c r="T71" s="9"/>
+      <c r="U71" s="9"/>
+      <c r="V71" s="9"/>
+      <c r="W71" s="9"/>
+      <c r="X71" s="34"/>
+      <c r="Y71" s="34"/>
+      <c r="Z71" s="34"/>
+      <c r="AA71" s="34"/>
+      <c r="AB71" s="34"/>
+      <c r="AC71" s="34"/>
+      <c r="AD71" s="34"/>
+      <c r="AE71" s="34"/>
+      <c r="AF71" s="41"/>
     </row>
     <row r="72" spans="1:32">
-      <c r="A72" s="7"/>
-      <c r="B72" s="8"/>
-      <c r="C72" s="8"/>
-      <c r="D72" s="8"/>
-      <c r="E72" s="8"/>
-      <c r="F72" s="8"/>
-      <c r="G72" s="8"/>
-      <c r="H72" s="8"/>
-      <c r="I72" s="8"/>
-      <c r="J72" s="8"/>
-      <c r="K72" s="8"/>
-      <c r="L72" s="8"/>
-      <c r="M72" s="8"/>
-      <c r="N72" s="8"/>
-      <c r="O72" s="8"/>
-      <c r="P72" s="8"/>
-      <c r="Q72" s="8"/>
-      <c r="R72" s="8"/>
-      <c r="S72" s="8"/>
-      <c r="T72" s="8"/>
-      <c r="U72" s="8"/>
-      <c r="V72" s="8"/>
-      <c r="W72" s="8"/>
-      <c r="X72" s="33"/>
-      <c r="Y72" s="33"/>
-      <c r="Z72" s="33"/>
-      <c r="AA72" s="33"/>
-      <c r="AB72" s="33"/>
-      <c r="AC72" s="33"/>
-      <c r="AD72" s="33"/>
-      <c r="AE72" s="33"/>
-      <c r="AF72" s="33"/>
+      <c r="A72" s="8"/>
+      <c r="B72" s="9"/>
+      <c r="C72" s="9"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="9"/>
+      <c r="H72" s="9"/>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c r="L72" s="9"/>
+      <c r="M72" s="9"/>
+      <c r="N72" s="9"/>
+      <c r="O72" s="9"/>
+      <c r="P72" s="9"/>
+      <c r="Q72" s="9"/>
+      <c r="R72" s="9"/>
+      <c r="S72" s="9"/>
+      <c r="T72" s="9"/>
+      <c r="U72" s="9"/>
+      <c r="V72" s="9"/>
+      <c r="W72" s="9"/>
+      <c r="X72" s="34"/>
+      <c r="Y72" s="34"/>
+      <c r="Z72" s="34"/>
+      <c r="AA72" s="34"/>
+      <c r="AB72" s="34"/>
+      <c r="AC72" s="34"/>
+      <c r="AD72" s="34"/>
+      <c r="AE72" s="34"/>
+      <c r="AF72" s="41"/>
     </row>
     <row r="73" spans="1:32">
-      <c r="A73" s="7"/>
-      <c r="B73" s="8"/>
-      <c r="C73" s="8"/>
-      <c r="D73" s="8"/>
-      <c r="E73" s="8"/>
-      <c r="F73" s="8"/>
-      <c r="G73" s="8"/>
-      <c r="H73" s="8"/>
-      <c r="I73" s="8"/>
-      <c r="J73" s="8"/>
-      <c r="K73" s="8"/>
-      <c r="L73" s="8"/>
-      <c r="M73" s="8"/>
-      <c r="N73" s="8"/>
-      <c r="O73" s="8"/>
-      <c r="P73" s="8"/>
-      <c r="Q73" s="8"/>
-      <c r="R73" s="8"/>
-      <c r="S73" s="8"/>
-      <c r="T73" s="8"/>
-      <c r="U73" s="8"/>
-      <c r="V73" s="8"/>
-      <c r="W73" s="8"/>
-      <c r="X73" s="33"/>
-      <c r="Y73" s="33"/>
-      <c r="Z73" s="33"/>
-      <c r="AA73" s="33"/>
-      <c r="AB73" s="33"/>
-      <c r="AC73" s="33"/>
-      <c r="AD73" s="33"/>
-      <c r="AE73" s="33"/>
-      <c r="AF73" s="33"/>
+      <c r="A73" s="8"/>
+      <c r="B73" s="9"/>
+      <c r="C73" s="9"/>
+      <c r="D73" s="9"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="9"/>
+      <c r="G73" s="9"/>
+      <c r="H73" s="9"/>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c r="L73" s="9"/>
+      <c r="M73" s="9"/>
+      <c r="N73" s="9"/>
+      <c r="O73" s="9"/>
+      <c r="P73" s="9"/>
+      <c r="Q73" s="9"/>
+      <c r="R73" s="9"/>
+      <c r="S73" s="9"/>
+      <c r="T73" s="9"/>
+      <c r="U73" s="9"/>
+      <c r="V73" s="9"/>
+      <c r="W73" s="9"/>
+      <c r="X73" s="34"/>
+      <c r="Y73" s="34"/>
+      <c r="Z73" s="34"/>
+      <c r="AA73" s="34"/>
+      <c r="AB73" s="34"/>
+      <c r="AC73" s="34"/>
+      <c r="AD73" s="34"/>
+      <c r="AE73" s="34"/>
+      <c r="AF73" s="41"/>
     </row>
     <row r="74" spans="1:32">
-      <c r="A74" s="7"/>
-      <c r="B74" s="8"/>
-      <c r="C74" s="8"/>
-      <c r="D74" s="8"/>
-      <c r="E74" s="8"/>
-      <c r="F74" s="8"/>
-      <c r="G74" s="8"/>
-      <c r="H74" s="8"/>
-      <c r="I74" s="8"/>
-      <c r="J74" s="8"/>
-      <c r="K74" s="8"/>
-      <c r="L74" s="8"/>
-      <c r="M74" s="8"/>
-      <c r="N74" s="8"/>
-      <c r="O74" s="8"/>
-      <c r="P74" s="8"/>
-      <c r="Q74" s="8"/>
-      <c r="R74" s="8"/>
-      <c r="S74" s="8"/>
-      <c r="T74" s="8"/>
-      <c r="U74" s="8"/>
-      <c r="V74" s="8"/>
-      <c r="W74" s="8"/>
-      <c r="X74" s="33"/>
-      <c r="Y74" s="33"/>
-      <c r="Z74" s="33"/>
-      <c r="AA74" s="33"/>
-      <c r="AB74" s="33"/>
-      <c r="AC74" s="33"/>
-      <c r="AD74" s="33"/>
-      <c r="AE74" s="33"/>
-      <c r="AF74" s="33"/>
+      <c r="A74" s="8"/>
+      <c r="B74" s="9"/>
+      <c r="C74" s="9"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="9"/>
+      <c r="H74" s="9"/>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c r="L74" s="9"/>
+      <c r="M74" s="9"/>
+      <c r="N74" s="9"/>
+      <c r="O74" s="9"/>
+      <c r="P74" s="9"/>
+      <c r="Q74" s="9"/>
+      <c r="R74" s="9"/>
+      <c r="S74" s="9"/>
+      <c r="T74" s="9"/>
+      <c r="U74" s="9"/>
+      <c r="V74" s="9"/>
+      <c r="W74" s="9"/>
+      <c r="X74" s="34"/>
+      <c r="Y74" s="34"/>
+      <c r="Z74" s="34"/>
+      <c r="AA74" s="34"/>
+      <c r="AB74" s="34"/>
+      <c r="AC74" s="34"/>
+      <c r="AD74" s="34"/>
+      <c r="AE74" s="34"/>
+      <c r="AF74" s="41"/>
     </row>
     <row r="75" spans="1:32">
-      <c r="A75" s="7"/>
-      <c r="B75" s="8"/>
-      <c r="C75" s="8"/>
-      <c r="D75" s="8"/>
-      <c r="E75" s="8"/>
-      <c r="F75" s="8"/>
-      <c r="G75" s="8"/>
-      <c r="H75" s="8"/>
-      <c r="I75" s="8"/>
-      <c r="J75" s="8"/>
-      <c r="K75" s="8"/>
-      <c r="L75" s="8"/>
-      <c r="M75" s="8"/>
-      <c r="N75" s="8"/>
-      <c r="O75" s="8"/>
-      <c r="P75" s="8"/>
-      <c r="Q75" s="8"/>
-      <c r="R75" s="8"/>
-      <c r="S75" s="8"/>
-      <c r="T75" s="8"/>
-      <c r="U75" s="8"/>
-      <c r="V75" s="8"/>
-      <c r="W75" s="8"/>
-      <c r="X75" s="33"/>
-      <c r="Y75" s="33"/>
-      <c r="Z75" s="33"/>
-      <c r="AA75" s="33"/>
-      <c r="AB75" s="33"/>
-      <c r="AC75" s="33"/>
-      <c r="AD75" s="33"/>
-      <c r="AE75" s="33"/>
-      <c r="AF75" s="33"/>
+      <c r="A75" s="8"/>
+      <c r="B75" s="9"/>
+      <c r="C75" s="9"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="9"/>
+      <c r="G75" s="9"/>
+      <c r="H75" s="9"/>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c r="L75" s="9"/>
+      <c r="M75" s="9"/>
+      <c r="N75" s="9"/>
+      <c r="O75" s="9"/>
+      <c r="P75" s="9"/>
+      <c r="Q75" s="9"/>
+      <c r="R75" s="9"/>
+      <c r="S75" s="9"/>
+      <c r="T75" s="9"/>
+      <c r="U75" s="9"/>
+      <c r="V75" s="9"/>
+      <c r="W75" s="9"/>
+      <c r="X75" s="34"/>
+      <c r="Y75" s="34"/>
+      <c r="Z75" s="34"/>
+      <c r="AA75" s="34"/>
+      <c r="AB75" s="34"/>
+      <c r="AC75" s="34"/>
+      <c r="AD75" s="34"/>
+      <c r="AE75" s="34"/>
+      <c r="AF75" s="41"/>
     </row>
     <row r="76" spans="1:32">
-      <c r="A76" s="7"/>
-      <c r="B76" s="8"/>
-      <c r="C76" s="8"/>
-      <c r="D76" s="8"/>
-      <c r="E76" s="8"/>
-      <c r="F76" s="8"/>
-      <c r="G76" s="8"/>
-      <c r="H76" s="8"/>
-      <c r="I76" s="8"/>
-      <c r="J76" s="8"/>
-      <c r="K76" s="8"/>
-      <c r="L76" s="8"/>
-      <c r="M76" s="8"/>
-      <c r="N76" s="8"/>
-      <c r="O76" s="8"/>
-      <c r="P76" s="8"/>
-      <c r="Q76" s="8"/>
-      <c r="R76" s="8"/>
-      <c r="S76" s="8"/>
-      <c r="T76" s="8"/>
-      <c r="U76" s="8"/>
-      <c r="V76" s="8"/>
-      <c r="W76" s="8"/>
-      <c r="X76" s="33"/>
-      <c r="Y76" s="33"/>
-      <c r="Z76" s="33"/>
-      <c r="AA76" s="33"/>
-      <c r="AB76" s="33"/>
-      <c r="AC76" s="33"/>
-      <c r="AD76" s="33"/>
-      <c r="AE76" s="33"/>
-      <c r="AF76" s="33"/>
+      <c r="A76" s="8"/>
+      <c r="B76" s="9"/>
+      <c r="C76" s="9"/>
+      <c r="D76" s="9"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="9"/>
+      <c r="G76" s="9"/>
+      <c r="H76" s="9"/>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c r="L76" s="9"/>
+      <c r="M76" s="9"/>
+      <c r="N76" s="9"/>
+      <c r="O76" s="9"/>
+      <c r="P76" s="9"/>
+      <c r="Q76" s="9"/>
+      <c r="R76" s="9"/>
+      <c r="S76" s="9"/>
+      <c r="T76" s="9"/>
+      <c r="U76" s="9"/>
+      <c r="V76" s="9"/>
+      <c r="W76" s="9"/>
+      <c r="X76" s="34"/>
+      <c r="Y76" s="34"/>
+      <c r="Z76" s="34"/>
+      <c r="AA76" s="34"/>
+      <c r="AB76" s="34"/>
+      <c r="AC76" s="34"/>
+      <c r="AD76" s="34"/>
+      <c r="AE76" s="34"/>
+      <c r="AF76" s="41"/>
     </row>
     <row r="77" spans="1:32">
-      <c r="A77" s="7"/>
-      <c r="B77" s="8"/>
-      <c r="C77" s="8"/>
-      <c r="D77" s="8"/>
-      <c r="E77" s="8"/>
-      <c r="F77" s="8"/>
-      <c r="G77" s="8"/>
-      <c r="H77" s="8"/>
-      <c r="I77" s="8"/>
-      <c r="J77" s="8"/>
-      <c r="K77" s="8"/>
-      <c r="L77" s="8"/>
-      <c r="M77" s="8"/>
-      <c r="N77" s="8"/>
-      <c r="O77" s="8"/>
-      <c r="P77" s="8"/>
-      <c r="Q77" s="8"/>
-      <c r="R77" s="8"/>
-      <c r="S77" s="8"/>
-      <c r="T77" s="8"/>
-      <c r="U77" s="8"/>
-      <c r="V77" s="8"/>
-      <c r="W77" s="8"/>
-      <c r="X77" s="33"/>
-      <c r="Y77" s="33"/>
-      <c r="Z77" s="33"/>
-      <c r="AA77" s="33"/>
-      <c r="AB77" s="33"/>
-      <c r="AC77" s="33"/>
-      <c r="AD77" s="33"/>
-      <c r="AE77" s="33"/>
-      <c r="AF77" s="33"/>
+      <c r="A77" s="8"/>
+      <c r="B77" s="9"/>
+      <c r="C77" s="9"/>
+      <c r="D77" s="9"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="9"/>
+      <c r="G77" s="9"/>
+      <c r="H77" s="9"/>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c r="L77" s="9"/>
+      <c r="M77" s="9"/>
+      <c r="N77" s="9"/>
+      <c r="O77" s="9"/>
+      <c r="P77" s="9"/>
+      <c r="Q77" s="9"/>
+      <c r="R77" s="9"/>
+      <c r="S77" s="9"/>
+      <c r="T77" s="9"/>
+      <c r="U77" s="9"/>
+      <c r="V77" s="9"/>
+      <c r="W77" s="9"/>
+      <c r="X77" s="34"/>
+      <c r="Y77" s="34"/>
+      <c r="Z77" s="34"/>
+      <c r="AA77" s="34"/>
+      <c r="AB77" s="34"/>
+      <c r="AC77" s="34"/>
+      <c r="AD77" s="34"/>
+      <c r="AE77" s="34"/>
+      <c r="AF77" s="41"/>
     </row>
     <row r="78" spans="1:32">
-      <c r="A78" s="7"/>
-      <c r="B78" s="8"/>
-      <c r="C78" s="8"/>
-      <c r="D78" s="8"/>
-      <c r="E78" s="8"/>
-      <c r="F78" s="8"/>
-      <c r="G78" s="8"/>
-      <c r="H78" s="8"/>
-      <c r="I78" s="8"/>
-      <c r="J78" s="8"/>
-      <c r="K78" s="8"/>
-      <c r="L78" s="8"/>
-      <c r="M78" s="8"/>
-      <c r="N78" s="8"/>
-      <c r="O78" s="8"/>
-      <c r="P78" s="8"/>
-      <c r="Q78" s="8"/>
-      <c r="R78" s="8"/>
-      <c r="S78" s="8"/>
-      <c r="T78" s="8"/>
-      <c r="U78" s="8"/>
-      <c r="V78" s="8"/>
-      <c r="W78" s="8"/>
-      <c r="X78" s="33"/>
-      <c r="Y78" s="33"/>
-      <c r="Z78" s="33"/>
-      <c r="AA78" s="33"/>
-      <c r="AB78" s="33"/>
-      <c r="AC78" s="33"/>
-      <c r="AD78" s="33"/>
-      <c r="AE78" s="33"/>
-      <c r="AF78" s="33"/>
+      <c r="A78" s="8"/>
+      <c r="B78" s="9"/>
+      <c r="C78" s="9"/>
+      <c r="D78" s="9"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="9"/>
+      <c r="G78" s="9"/>
+      <c r="H78" s="9"/>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c r="L78" s="9"/>
+      <c r="M78" s="9"/>
+      <c r="N78" s="9"/>
+      <c r="O78" s="9"/>
+      <c r="P78" s="9"/>
+      <c r="Q78" s="9"/>
+      <c r="R78" s="9"/>
+      <c r="S78" s="9"/>
+      <c r="T78" s="9"/>
+      <c r="U78" s="9"/>
+      <c r="V78" s="9"/>
+      <c r="W78" s="9"/>
+      <c r="X78" s="34"/>
+      <c r="Y78" s="34"/>
+      <c r="Z78" s="34"/>
+      <c r="AA78" s="34"/>
+      <c r="AB78" s="34"/>
+      <c r="AC78" s="34"/>
+      <c r="AD78" s="34"/>
+      <c r="AE78" s="34"/>
+      <c r="AF78" s="41"/>
     </row>
     <row r="79" spans="1:32">
-      <c r="A79" s="7"/>
-      <c r="B79" s="8"/>
-      <c r="C79" s="8"/>
-      <c r="D79" s="8"/>
-      <c r="E79" s="8"/>
-      <c r="F79" s="8"/>
-      <c r="G79" s="8"/>
-      <c r="H79" s="8"/>
-      <c r="I79" s="8"/>
-      <c r="J79" s="8"/>
-      <c r="K79" s="8"/>
-      <c r="L79" s="8"/>
-      <c r="M79" s="8"/>
-      <c r="N79" s="8"/>
-      <c r="O79" s="8"/>
-      <c r="P79" s="8"/>
-      <c r="Q79" s="8"/>
-      <c r="R79" s="8"/>
-      <c r="S79" s="8"/>
-      <c r="T79" s="8"/>
-      <c r="U79" s="8"/>
-      <c r="V79" s="8"/>
-      <c r="W79" s="8"/>
-      <c r="X79" s="33"/>
-      <c r="Y79" s="33"/>
-      <c r="Z79" s="33"/>
-      <c r="AA79" s="33"/>
-      <c r="AB79" s="33"/>
-      <c r="AC79" s="33"/>
-      <c r="AD79" s="33"/>
-      <c r="AE79" s="33"/>
-      <c r="AF79" s="33"/>
+      <c r="A79" s="8"/>
+      <c r="B79" s="9"/>
+      <c r="C79" s="9"/>
+      <c r="D79" s="9"/>
+      <c r="E79" s="9"/>
+      <c r="F79" s="9"/>
+      <c r="G79" s="9"/>
+      <c r="H79" s="9"/>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c r="L79" s="9"/>
+      <c r="M79" s="9"/>
+      <c r="N79" s="9"/>
+      <c r="O79" s="9"/>
+      <c r="P79" s="9"/>
+      <c r="Q79" s="9"/>
+      <c r="R79" s="9"/>
+      <c r="S79" s="9"/>
+      <c r="T79" s="9"/>
+      <c r="U79" s="9"/>
+      <c r="V79" s="9"/>
+      <c r="W79" s="9"/>
+      <c r="X79" s="34"/>
+      <c r="Y79" s="34"/>
+      <c r="Z79" s="34"/>
+      <c r="AA79" s="34"/>
+      <c r="AB79" s="34"/>
+      <c r="AC79" s="34"/>
+      <c r="AD79" s="34"/>
+      <c r="AE79" s="34"/>
+      <c r="AF79" s="41"/>
     </row>
     <row r="80" spans="1:32">
-      <c r="A80" s="7"/>
-      <c r="B80" s="8"/>
-      <c r="C80" s="8"/>
-      <c r="D80" s="8"/>
-      <c r="E80" s="8"/>
-      <c r="F80" s="8"/>
-      <c r="G80" s="8"/>
-      <c r="H80" s="8"/>
-      <c r="I80" s="8"/>
-      <c r="J80" s="8"/>
-      <c r="K80" s="8"/>
-      <c r="L80" s="8"/>
-      <c r="M80" s="8"/>
-      <c r="N80" s="8"/>
-      <c r="O80" s="8"/>
-      <c r="P80" s="8"/>
-      <c r="Q80" s="8"/>
-      <c r="R80" s="8"/>
-      <c r="S80" s="8"/>
-      <c r="T80" s="8"/>
-      <c r="U80" s="8"/>
-      <c r="V80" s="8"/>
-      <c r="W80" s="8"/>
-      <c r="X80" s="33"/>
-      <c r="Y80" s="33"/>
-      <c r="Z80" s="33"/>
-      <c r="AA80" s="33"/>
-      <c r="AB80" s="33"/>
-      <c r="AC80" s="33"/>
-      <c r="AD80" s="33"/>
-      <c r="AE80" s="33"/>
-      <c r="AF80" s="33"/>
+      <c r="A80" s="8"/>
+      <c r="B80" s="9"/>
+      <c r="C80" s="9"/>
+      <c r="D80" s="9"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="9"/>
+      <c r="G80" s="9"/>
+      <c r="H80" s="9"/>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c r="L80" s="9"/>
+      <c r="M80" s="9"/>
+      <c r="N80" s="9"/>
+      <c r="O80" s="9"/>
+      <c r="P80" s="9"/>
+      <c r="Q80" s="9"/>
+      <c r="R80" s="9"/>
+      <c r="S80" s="9"/>
+      <c r="T80" s="9"/>
+      <c r="U80" s="9"/>
+      <c r="V80" s="9"/>
+      <c r="W80" s="9"/>
+      <c r="X80" s="34"/>
+      <c r="Y80" s="34"/>
+      <c r="Z80" s="34"/>
+      <c r="AA80" s="34"/>
+      <c r="AB80" s="34"/>
+      <c r="AC80" s="34"/>
+      <c r="AD80" s="34"/>
+      <c r="AE80" s="34"/>
+      <c r="AF80" s="41"/>
     </row>
     <row r="81" spans="1:32">
-      <c r="A81" s="7"/>
-      <c r="B81" s="8"/>
-      <c r="C81" s="8"/>
-      <c r="D81" s="8"/>
-      <c r="E81" s="8"/>
-      <c r="F81" s="8"/>
-      <c r="G81" s="8"/>
-      <c r="H81" s="8"/>
-      <c r="I81" s="8"/>
-      <c r="J81" s="8"/>
-      <c r="K81" s="8"/>
-      <c r="L81" s="8"/>
-      <c r="M81" s="8"/>
-      <c r="N81" s="8"/>
-      <c r="O81" s="8"/>
-      <c r="P81" s="8"/>
-      <c r="Q81" s="8"/>
-      <c r="R81" s="8"/>
-      <c r="S81" s="8"/>
-      <c r="T81" s="8"/>
-      <c r="U81" s="8"/>
-      <c r="V81" s="8"/>
-      <c r="W81" s="8"/>
-      <c r="X81" s="33"/>
-      <c r="Y81" s="33"/>
-      <c r="Z81" s="33"/>
-      <c r="AA81" s="33"/>
-      <c r="AB81" s="33"/>
-      <c r="AC81" s="33"/>
-      <c r="AD81" s="33"/>
-      <c r="AE81" s="33"/>
-      <c r="AF81" s="33"/>
+      <c r="A81" s="8"/>
+      <c r="B81" s="9"/>
+      <c r="C81" s="9"/>
+      <c r="D81" s="9"/>
+      <c r="E81" s="9"/>
+      <c r="F81" s="9"/>
+      <c r="G81" s="9"/>
+      <c r="H81" s="9"/>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c r="L81" s="9"/>
+      <c r="M81" s="9"/>
+      <c r="N81" s="9"/>
+      <c r="O81" s="9"/>
+      <c r="P81" s="9"/>
+      <c r="Q81" s="9"/>
+      <c r="R81" s="9"/>
+      <c r="S81" s="9"/>
+      <c r="T81" s="9"/>
+      <c r="U81" s="9"/>
+      <c r="V81" s="9"/>
+      <c r="W81" s="9"/>
+      <c r="X81" s="34"/>
+      <c r="Y81" s="34"/>
+      <c r="Z81" s="34"/>
+      <c r="AA81" s="34"/>
+      <c r="AB81" s="34"/>
+      <c r="AC81" s="34"/>
+      <c r="AD81" s="34"/>
+      <c r="AE81" s="34"/>
+      <c r="AF81" s="41"/>
     </row>
     <row r="82" spans="1:32">
-      <c r="A82" s="7"/>
-      <c r="B82" s="8"/>
-      <c r="C82" s="8"/>
-      <c r="D82" s="8"/>
-      <c r="E82" s="8"/>
-      <c r="F82" s="8"/>
-      <c r="G82" s="8"/>
-      <c r="H82" s="8"/>
-      <c r="I82" s="8"/>
-      <c r="J82" s="8"/>
-      <c r="K82" s="8"/>
-      <c r="L82" s="8"/>
-      <c r="M82" s="8"/>
-      <c r="N82" s="8"/>
-      <c r="O82" s="8"/>
-      <c r="P82" s="8"/>
-      <c r="Q82" s="8"/>
-      <c r="R82" s="8"/>
-      <c r="S82" s="8"/>
-      <c r="T82" s="8"/>
-      <c r="U82" s="8"/>
-      <c r="V82" s="8"/>
-      <c r="W82" s="8"/>
-      <c r="X82" s="33"/>
-      <c r="Y82" s="33"/>
-      <c r="Z82" s="33"/>
-      <c r="AA82" s="33"/>
-      <c r="AB82" s="33"/>
-      <c r="AC82" s="33"/>
-      <c r="AD82" s="33"/>
-      <c r="AE82" s="33"/>
-      <c r="AF82" s="33"/>
+      <c r="A82" s="8"/>
+      <c r="B82" s="9"/>
+      <c r="C82" s="9"/>
+      <c r="D82" s="9"/>
+      <c r="E82" s="9"/>
+      <c r="F82" s="9"/>
+      <c r="G82" s="9"/>
+      <c r="H82" s="9"/>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c r="L82" s="9"/>
+      <c r="M82" s="9"/>
+      <c r="N82" s="9"/>
+      <c r="O82" s="9"/>
+      <c r="P82" s="9"/>
+      <c r="Q82" s="9"/>
+      <c r="R82" s="9"/>
+      <c r="S82" s="9"/>
+      <c r="T82" s="9"/>
+      <c r="U82" s="9"/>
+      <c r="V82" s="9"/>
+      <c r="W82" s="9"/>
+      <c r="X82" s="34"/>
+      <c r="Y82" s="34"/>
+      <c r="Z82" s="34"/>
+      <c r="AA82" s="34"/>
+      <c r="AB82" s="34"/>
+      <c r="AC82" s="34"/>
+      <c r="AD82" s="34"/>
+      <c r="AE82" s="34"/>
+      <c r="AF82" s="41"/>
     </row>
     <row r="83" spans="1:32">
-      <c r="A83" s="7"/>
-      <c r="B83" s="8"/>
-      <c r="C83" s="8"/>
-      <c r="D83" s="8"/>
-      <c r="E83" s="8"/>
-      <c r="F83" s="8"/>
-      <c r="G83" s="8"/>
-      <c r="H83" s="8"/>
-      <c r="I83" s="8"/>
-      <c r="J83" s="8"/>
-      <c r="K83" s="8"/>
-      <c r="L83" s="8"/>
-      <c r="M83" s="8"/>
-      <c r="N83" s="8"/>
-      <c r="O83" s="8"/>
-      <c r="P83" s="8"/>
-      <c r="Q83" s="8"/>
-      <c r="R83" s="8"/>
-      <c r="S83" s="8"/>
-      <c r="T83" s="8"/>
-      <c r="U83" s="8"/>
-      <c r="V83" s="8"/>
-      <c r="W83" s="8"/>
-      <c r="X83" s="33"/>
-      <c r="Y83" s="33"/>
-      <c r="Z83" s="33"/>
-      <c r="AA83" s="33"/>
-      <c r="AB83" s="33"/>
-      <c r="AC83" s="33"/>
-      <c r="AD83" s="33"/>
-      <c r="AE83" s="33"/>
-      <c r="AF83" s="33"/>
+      <c r="A83" s="8"/>
+      <c r="B83" s="9"/>
+      <c r="C83" s="9"/>
+      <c r="D83" s="9"/>
+      <c r="E83" s="9"/>
+      <c r="F83" s="9"/>
+      <c r="G83" s="9"/>
+      <c r="H83" s="9"/>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c r="L83" s="9"/>
+      <c r="M83" s="9"/>
+      <c r="N83" s="9"/>
+      <c r="O83" s="9"/>
+      <c r="P83" s="9"/>
+      <c r="Q83" s="9"/>
+      <c r="R83" s="9"/>
+      <c r="S83" s="9"/>
+      <c r="T83" s="9"/>
+      <c r="U83" s="9"/>
+      <c r="V83" s="9"/>
+      <c r="W83" s="9"/>
+      <c r="X83" s="34"/>
+      <c r="Y83" s="34"/>
+      <c r="Z83" s="34"/>
+      <c r="AA83" s="34"/>
+      <c r="AB83" s="34"/>
+      <c r="AC83" s="34"/>
+      <c r="AD83" s="34"/>
+      <c r="AE83" s="34"/>
+      <c r="AF83" s="41"/>
     </row>
     <row r="84" spans="1:32">
-      <c r="A84" s="7"/>
-      <c r="B84" s="8"/>
-      <c r="C84" s="8"/>
-      <c r="D84" s="8"/>
-      <c r="E84" s="8"/>
-      <c r="F84" s="8"/>
-      <c r="G84" s="8"/>
-      <c r="H84" s="8"/>
-      <c r="I84" s="8"/>
-      <c r="J84" s="8"/>
-      <c r="K84" s="8"/>
-      <c r="L84" s="8"/>
-      <c r="M84" s="8"/>
-      <c r="N84" s="8"/>
-      <c r="O84" s="8"/>
-      <c r="P84" s="8"/>
-      <c r="Q84" s="8"/>
-      <c r="R84" s="8"/>
-      <c r="S84" s="8"/>
-      <c r="T84" s="8"/>
-      <c r="U84" s="8"/>
-      <c r="V84" s="8"/>
-      <c r="W84" s="8"/>
-      <c r="X84" s="33"/>
-      <c r="Y84" s="33"/>
-      <c r="Z84" s="33"/>
-      <c r="AA84" s="33"/>
-      <c r="AB84" s="33"/>
-      <c r="AC84" s="33"/>
-      <c r="AD84" s="33"/>
-      <c r="AE84" s="33"/>
-      <c r="AF84" s="33"/>
+      <c r="A84" s="8"/>
+      <c r="B84" s="9"/>
+      <c r="C84" s="9"/>
+      <c r="D84" s="9"/>
+      <c r="E84" s="9"/>
+      <c r="F84" s="9"/>
+      <c r="G84" s="9"/>
+      <c r="H84" s="9"/>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c r="L84" s="9"/>
+      <c r="M84" s="9"/>
+      <c r="N84" s="9"/>
+      <c r="O84" s="9"/>
+      <c r="P84" s="9"/>
+      <c r="Q84" s="9"/>
+      <c r="R84" s="9"/>
+      <c r="S84" s="9"/>
+      <c r="T84" s="9"/>
+      <c r="U84" s="9"/>
+      <c r="V84" s="9"/>
+      <c r="W84" s="9"/>
+      <c r="X84" s="34"/>
+      <c r="Y84" s="34"/>
+      <c r="Z84" s="34"/>
+      <c r="AA84" s="34"/>
+      <c r="AB84" s="34"/>
+      <c r="AC84" s="34"/>
+      <c r="AD84" s="34"/>
+      <c r="AE84" s="34"/>
+      <c r="AF84" s="41"/>
     </row>
     <row r="85" spans="1:32">
-      <c r="A85" s="7"/>
-      <c r="B85" s="8"/>
-      <c r="C85" s="8"/>
-      <c r="D85" s="8"/>
-      <c r="E85" s="8"/>
-      <c r="F85" s="8"/>
-      <c r="G85" s="8"/>
-      <c r="H85" s="8"/>
-      <c r="I85" s="8"/>
-      <c r="J85" s="8"/>
-      <c r="K85" s="8"/>
-      <c r="L85" s="8"/>
-      <c r="M85" s="8"/>
-      <c r="N85" s="8"/>
-      <c r="O85" s="8"/>
-      <c r="P85" s="8"/>
-      <c r="Q85" s="8"/>
-      <c r="R85" s="8"/>
-      <c r="S85" s="8"/>
-      <c r="T85" s="8"/>
-      <c r="U85" s="8"/>
-      <c r="V85" s="8"/>
-      <c r="W85" s="8"/>
-      <c r="X85" s="33"/>
-      <c r="Y85" s="33"/>
-      <c r="Z85" s="33"/>
-      <c r="AA85" s="33"/>
-      <c r="AB85" s="33"/>
-      <c r="AC85" s="33"/>
-      <c r="AD85" s="33"/>
-      <c r="AE85" s="33"/>
-      <c r="AF85" s="33"/>
+      <c r="A85" s="8"/>
+      <c r="B85" s="9"/>
+      <c r="C85" s="9"/>
+      <c r="D85" s="9"/>
+      <c r="E85" s="9"/>
+      <c r="F85" s="9"/>
+      <c r="G85" s="9"/>
+      <c r="H85" s="9"/>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c r="L85" s="9"/>
+      <c r="M85" s="9"/>
+      <c r="N85" s="9"/>
+      <c r="O85" s="9"/>
+      <c r="P85" s="9"/>
+      <c r="Q85" s="9"/>
+      <c r="R85" s="9"/>
+      <c r="S85" s="9"/>
+      <c r="T85" s="9"/>
+      <c r="U85" s="9"/>
+      <c r="V85" s="9"/>
+      <c r="W85" s="9"/>
+      <c r="X85" s="34"/>
+      <c r="Y85" s="34"/>
+      <c r="Z85" s="34"/>
+      <c r="AA85" s="34"/>
+      <c r="AB85" s="34"/>
+      <c r="AC85" s="34"/>
+      <c r="AD85" s="34"/>
+      <c r="AE85" s="34"/>
+      <c r="AF85" s="41"/>
     </row>
     <row r="86" spans="1:32">
-      <c r="A86" s="7"/>
-      <c r="B86" s="8"/>
-      <c r="C86" s="8"/>
-      <c r="D86" s="8"/>
-      <c r="E86" s="8"/>
-      <c r="F86" s="8"/>
-      <c r="G86" s="8"/>
-      <c r="H86" s="8"/>
-      <c r="I86" s="8"/>
-      <c r="J86" s="8"/>
-      <c r="K86" s="8"/>
-      <c r="L86" s="8"/>
-      <c r="M86" s="8"/>
-      <c r="N86" s="8"/>
-      <c r="O86" s="8"/>
-      <c r="P86" s="8"/>
-      <c r="Q86" s="8"/>
-      <c r="R86" s="8"/>
-      <c r="S86" s="8"/>
-      <c r="T86" s="8"/>
-      <c r="U86" s="8"/>
-      <c r="V86" s="8"/>
-      <c r="W86" s="8"/>
-      <c r="X86" s="33"/>
-      <c r="Y86" s="33"/>
-      <c r="Z86" s="33"/>
-      <c r="AA86" s="33"/>
-      <c r="AB86" s="33"/>
-      <c r="AC86" s="33"/>
-      <c r="AD86" s="33"/>
-      <c r="AE86" s="33"/>
-      <c r="AF86" s="33"/>
+      <c r="A86" s="8"/>
+      <c r="B86" s="9"/>
+      <c r="C86" s="9"/>
+      <c r="D86" s="9"/>
+      <c r="E86" s="9"/>
+      <c r="F86" s="9"/>
+      <c r="G86" s="9"/>
+      <c r="H86" s="9"/>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c r="L86" s="9"/>
+      <c r="M86" s="9"/>
+      <c r="N86" s="9"/>
+      <c r="O86" s="9"/>
+      <c r="P86" s="9"/>
+      <c r="Q86" s="9"/>
+      <c r="R86" s="9"/>
+      <c r="S86" s="9"/>
+      <c r="T86" s="9"/>
+      <c r="U86" s="9"/>
+      <c r="V86" s="9"/>
+      <c r="W86" s="9"/>
+      <c r="X86" s="34"/>
+      <c r="Y86" s="34"/>
+      <c r="Z86" s="34"/>
+      <c r="AA86" s="34"/>
+      <c r="AB86" s="34"/>
+      <c r="AC86" s="34"/>
+      <c r="AD86" s="34"/>
+      <c r="AE86" s="34"/>
+      <c r="AF86" s="41"/>
     </row>
     <row r="87" spans="1:32">
-      <c r="A87" s="7"/>
-      <c r="B87" s="8"/>
-      <c r="C87" s="8"/>
-      <c r="D87" s="8"/>
-      <c r="E87" s="8"/>
-      <c r="F87" s="8"/>
-      <c r="G87" s="8"/>
-      <c r="H87" s="8"/>
-      <c r="I87" s="8"/>
-      <c r="J87" s="8"/>
-      <c r="K87" s="8"/>
-      <c r="L87" s="8"/>
-      <c r="M87" s="8"/>
-      <c r="N87" s="8"/>
-      <c r="O87" s="8"/>
-      <c r="P87" s="8"/>
-      <c r="Q87" s="8"/>
-      <c r="R87" s="8"/>
-      <c r="S87" s="8"/>
-      <c r="T87" s="8"/>
-      <c r="U87" s="8"/>
-      <c r="V87" s="8"/>
-      <c r="W87" s="8"/>
-      <c r="X87" s="33"/>
-      <c r="Y87" s="33"/>
-      <c r="Z87" s="33"/>
-      <c r="AA87" s="33"/>
-      <c r="AB87" s="33"/>
-      <c r="AC87" s="33"/>
-      <c r="AD87" s="33"/>
-      <c r="AE87" s="33"/>
-      <c r="AF87" s="33"/>
+      <c r="A87" s="8"/>
+      <c r="B87" s="9"/>
+      <c r="C87" s="9"/>
+      <c r="D87" s="9"/>
+      <c r="E87" s="9"/>
+      <c r="F87" s="9"/>
+      <c r="G87" s="9"/>
+      <c r="H87" s="9"/>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c r="L87" s="9"/>
+      <c r="M87" s="9"/>
+      <c r="N87" s="9"/>
+      <c r="O87" s="9"/>
+      <c r="P87" s="9"/>
+      <c r="Q87" s="9"/>
+      <c r="R87" s="9"/>
+      <c r="S87" s="9"/>
+      <c r="T87" s="9"/>
+      <c r="U87" s="9"/>
+      <c r="V87" s="9"/>
+      <c r="W87" s="9"/>
+      <c r="X87" s="34"/>
+      <c r="Y87" s="34"/>
+      <c r="Z87" s="34"/>
+      <c r="AA87" s="34"/>
+      <c r="AB87" s="34"/>
+      <c r="AC87" s="34"/>
+      <c r="AD87" s="34"/>
+      <c r="AE87" s="34"/>
+      <c r="AF87" s="41"/>
     </row>
     <row r="88" spans="1:32">
-      <c r="A88" s="7"/>
-      <c r="B88" s="8"/>
-      <c r="C88" s="8"/>
-      <c r="D88" s="8"/>
-      <c r="E88" s="8"/>
-      <c r="F88" s="8"/>
-      <c r="G88" s="8"/>
-      <c r="H88" s="8"/>
-      <c r="I88" s="8"/>
-      <c r="J88" s="8"/>
-      <c r="K88" s="8"/>
-      <c r="L88" s="8"/>
-      <c r="M88" s="8"/>
-      <c r="N88" s="8"/>
-      <c r="O88" s="8"/>
-      <c r="P88" s="8"/>
-      <c r="Q88" s="8"/>
-      <c r="R88" s="8"/>
-      <c r="S88" s="8"/>
-      <c r="T88" s="8"/>
-      <c r="U88" s="8"/>
-      <c r="V88" s="8"/>
-      <c r="W88" s="8"/>
-      <c r="X88" s="33"/>
-      <c r="Y88" s="33"/>
-      <c r="Z88" s="33"/>
-      <c r="AA88" s="33"/>
-      <c r="AB88" s="33"/>
-      <c r="AC88" s="33"/>
-      <c r="AD88" s="33"/>
-      <c r="AE88" s="33"/>
-      <c r="AF88" s="33"/>
+      <c r="A88" s="8"/>
+      <c r="B88" s="9"/>
+      <c r="C88" s="9"/>
+      <c r="D88" s="9"/>
+      <c r="E88" s="9"/>
+      <c r="F88" s="9"/>
+      <c r="G88" s="9"/>
+      <c r="H88" s="9"/>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c r="L88" s="9"/>
+      <c r="M88" s="9"/>
+      <c r="N88" s="9"/>
+      <c r="O88" s="9"/>
+      <c r="P88" s="9"/>
+      <c r="Q88" s="9"/>
+      <c r="R88" s="9"/>
+      <c r="S88" s="9"/>
+      <c r="T88" s="9"/>
+      <c r="U88" s="9"/>
+      <c r="V88" s="9"/>
+      <c r="W88" s="9"/>
+      <c r="X88" s="34"/>
+      <c r="Y88" s="34"/>
+      <c r="Z88" s="34"/>
+      <c r="AA88" s="34"/>
+      <c r="AB88" s="34"/>
+      <c r="AC88" s="34"/>
+      <c r="AD88" s="34"/>
+      <c r="AE88" s="34"/>
+      <c r="AF88" s="41"/>
     </row>
     <row r="89" spans="1:32">
-      <c r="A89" s="7"/>
-      <c r="B89" s="8"/>
-      <c r="C89" s="8"/>
-      <c r="D89" s="8"/>
-      <c r="E89" s="8"/>
-      <c r="F89" s="8"/>
-      <c r="G89" s="8"/>
-      <c r="H89" s="8"/>
-      <c r="I89" s="8"/>
-      <c r="J89" s="8"/>
-      <c r="K89" s="8"/>
-      <c r="L89" s="8"/>
-      <c r="M89" s="8"/>
-      <c r="N89" s="8"/>
-      <c r="O89" s="8"/>
-      <c r="P89" s="8"/>
-      <c r="Q89" s="8"/>
-      <c r="R89" s="8"/>
-      <c r="S89" s="8"/>
-      <c r="T89" s="8"/>
-      <c r="U89" s="8"/>
-      <c r="V89" s="8"/>
-      <c r="W89" s="8"/>
-      <c r="X89" s="33"/>
-      <c r="Y89" s="33"/>
-      <c r="Z89" s="33"/>
-      <c r="AA89" s="33"/>
-      <c r="AB89" s="33"/>
-      <c r="AC89" s="33"/>
-      <c r="AD89" s="33"/>
-      <c r="AE89" s="33"/>
-      <c r="AF89" s="33"/>
+      <c r="A89" s="8"/>
+      <c r="B89" s="9"/>
+      <c r="C89" s="9"/>
+      <c r="D89" s="9"/>
+      <c r="E89" s="9"/>
+      <c r="F89" s="9"/>
+      <c r="G89" s="9"/>
+      <c r="H89" s="9"/>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c r="L89" s="9"/>
+      <c r="M89" s="9"/>
+      <c r="N89" s="9"/>
+      <c r="O89" s="9"/>
+      <c r="P89" s="9"/>
+      <c r="Q89" s="9"/>
+      <c r="R89" s="9"/>
+      <c r="S89" s="9"/>
+      <c r="T89" s="9"/>
+      <c r="U89" s="9"/>
+      <c r="V89" s="9"/>
+      <c r="W89" s="9"/>
+      <c r="X89" s="34"/>
+      <c r="Y89" s="34"/>
+      <c r="Z89" s="34"/>
+      <c r="AA89" s="34"/>
+      <c r="AB89" s="34"/>
+      <c r="AC89" s="34"/>
+      <c r="AD89" s="34"/>
+      <c r="AE89" s="34"/>
+      <c r="AF89" s="41"/>
     </row>
     <row r="90" spans="1:32">
-      <c r="A90" s="7"/>
-      <c r="B90" s="8"/>
-      <c r="C90" s="8"/>
-      <c r="D90" s="8"/>
-      <c r="E90" s="8"/>
-      <c r="F90" s="8"/>
-      <c r="G90" s="8"/>
-      <c r="H90" s="8"/>
-      <c r="I90" s="8"/>
-      <c r="J90" s="8"/>
-      <c r="K90" s="8"/>
-      <c r="L90" s="8"/>
-      <c r="M90" s="8"/>
-      <c r="N90" s="8"/>
-      <c r="O90" s="8"/>
-      <c r="P90" s="8"/>
-      <c r="Q90" s="8"/>
-      <c r="R90" s="8"/>
-      <c r="S90" s="8"/>
-      <c r="T90" s="8"/>
-      <c r="U90" s="8"/>
-      <c r="V90" s="8"/>
-      <c r="W90" s="8"/>
-      <c r="X90" s="33"/>
-      <c r="Y90" s="33"/>
-      <c r="Z90" s="33"/>
-      <c r="AA90" s="33"/>
-      <c r="AB90" s="33"/>
-      <c r="AC90" s="33"/>
-      <c r="AD90" s="33"/>
-      <c r="AE90" s="33"/>
-      <c r="AF90" s="33"/>
+      <c r="A90" s="8"/>
+      <c r="B90" s="9"/>
+      <c r="C90" s="9"/>
+      <c r="D90" s="9"/>
+      <c r="E90" s="9"/>
+      <c r="F90" s="9"/>
+      <c r="G90" s="9"/>
+      <c r="H90" s="9"/>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c r="L90" s="9"/>
+      <c r="M90" s="9"/>
+      <c r="N90" s="9"/>
+      <c r="O90" s="9"/>
+      <c r="P90" s="9"/>
+      <c r="Q90" s="9"/>
+      <c r="R90" s="9"/>
+      <c r="S90" s="9"/>
+      <c r="T90" s="9"/>
+      <c r="U90" s="9"/>
+      <c r="V90" s="9"/>
+      <c r="W90" s="9"/>
+      <c r="X90" s="34"/>
+      <c r="Y90" s="34"/>
+      <c r="Z90" s="34"/>
+      <c r="AA90" s="34"/>
+      <c r="AB90" s="34"/>
+      <c r="AC90" s="34"/>
+      <c r="AD90" s="34"/>
+      <c r="AE90" s="34"/>
+      <c r="AF90" s="41"/>
     </row>
     <row r="91" spans="1:32">
-      <c r="A91" s="7"/>
-      <c r="B91" s="8"/>
-      <c r="C91" s="8"/>
-      <c r="D91" s="8"/>
-      <c r="E91" s="8"/>
-      <c r="F91" s="8"/>
-      <c r="G91" s="8"/>
-      <c r="H91" s="8"/>
-      <c r="I91" s="8"/>
-      <c r="J91" s="8"/>
-      <c r="K91" s="8"/>
-      <c r="L91" s="8"/>
-      <c r="M91" s="8"/>
-      <c r="N91" s="8"/>
-      <c r="O91" s="8"/>
-      <c r="P91" s="8"/>
-      <c r="Q91" s="8"/>
-      <c r="R91" s="8"/>
-      <c r="S91" s="8"/>
-      <c r="T91" s="8"/>
-      <c r="U91" s="8"/>
-      <c r="V91" s="8"/>
-      <c r="W91" s="8"/>
-      <c r="X91" s="33"/>
-      <c r="Y91" s="33"/>
-      <c r="Z91" s="33"/>
-      <c r="AA91" s="33"/>
-      <c r="AB91" s="33"/>
-      <c r="AC91" s="33"/>
-      <c r="AD91" s="33"/>
-      <c r="AE91" s="33"/>
-      <c r="AF91" s="33"/>
+      <c r="A91" s="8"/>
+      <c r="B91" s="9"/>
+      <c r="C91" s="9"/>
+      <c r="D91" s="9"/>
+      <c r="E91" s="9"/>
+      <c r="F91" s="9"/>
+      <c r="G91" s="9"/>
+      <c r="H91" s="9"/>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c r="L91" s="9"/>
+      <c r="M91" s="9"/>
+      <c r="N91" s="9"/>
+      <c r="O91" s="9"/>
+      <c r="P91" s="9"/>
+      <c r="Q91" s="9"/>
+      <c r="R91" s="9"/>
+      <c r="S91" s="9"/>
+      <c r="T91" s="9"/>
+      <c r="U91" s="9"/>
+      <c r="V91" s="9"/>
+      <c r="W91" s="9"/>
+      <c r="X91" s="34"/>
+      <c r="Y91" s="34"/>
+      <c r="Z91" s="34"/>
+      <c r="AA91" s="34"/>
+      <c r="AB91" s="34"/>
+      <c r="AC91" s="34"/>
+      <c r="AD91" s="34"/>
+      <c r="AE91" s="34"/>
+      <c r="AF91" s="41"/>
     </row>
     <row r="92" spans="1:32">
-      <c r="A92" s="7"/>
-      <c r="B92" s="8"/>
-      <c r="C92" s="8"/>
-      <c r="D92" s="8"/>
-      <c r="E92" s="8"/>
-      <c r="F92" s="8"/>
-      <c r="G92" s="8"/>
-      <c r="H92" s="8"/>
-      <c r="I92" s="8"/>
-      <c r="J92" s="8"/>
-      <c r="K92" s="8"/>
-      <c r="L92" s="8"/>
-      <c r="M92" s="8"/>
-      <c r="N92" s="8"/>
-      <c r="O92" s="8"/>
-      <c r="P92" s="8"/>
-      <c r="Q92" s="8"/>
-      <c r="R92" s="8"/>
-      <c r="S92" s="8"/>
-      <c r="T92" s="8"/>
-      <c r="U92" s="8"/>
-      <c r="V92" s="8"/>
-      <c r="W92" s="8"/>
-      <c r="X92" s="33"/>
-      <c r="Y92" s="33"/>
-      <c r="Z92" s="33"/>
-      <c r="AA92" s="33"/>
-      <c r="AB92" s="33"/>
-      <c r="AC92" s="33"/>
-      <c r="AD92" s="33"/>
-      <c r="AE92" s="33"/>
-      <c r="AF92" s="33"/>
+      <c r="A92" s="8"/>
+      <c r="B92" s="9"/>
+      <c r="C92" s="9"/>
+      <c r="D92" s="9"/>
+      <c r="E92" s="9"/>
+      <c r="F92" s="9"/>
+      <c r="G92" s="9"/>
+      <c r="H92" s="9"/>
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c r="L92" s="9"/>
+      <c r="M92" s="9"/>
+      <c r="N92" s="9"/>
+      <c r="O92" s="9"/>
+      <c r="P92" s="9"/>
+      <c r="Q92" s="9"/>
+      <c r="R92" s="9"/>
+      <c r="S92" s="9"/>
+      <c r="T92" s="9"/>
+      <c r="U92" s="9"/>
+      <c r="V92" s="9"/>
+      <c r="W92" s="9"/>
+      <c r="X92" s="34"/>
+      <c r="Y92" s="34"/>
+      <c r="Z92" s="34"/>
+      <c r="AA92" s="34"/>
+      <c r="AB92" s="34"/>
+      <c r="AC92" s="34"/>
+      <c r="AD92" s="34"/>
+      <c r="AE92" s="34"/>
+      <c r="AF92" s="41"/>
     </row>
     <row r="93" spans="1:32">
-      <c r="A93" s="7"/>
-      <c r="B93" s="8"/>
-      <c r="C93" s="8"/>
-      <c r="D93" s="8"/>
-      <c r="E93" s="8"/>
-      <c r="F93" s="8"/>
-      <c r="G93" s="8"/>
-      <c r="H93" s="8"/>
-      <c r="I93" s="8"/>
-      <c r="J93" s="8"/>
-      <c r="K93" s="8"/>
-      <c r="L93" s="8"/>
-      <c r="M93" s="8"/>
-      <c r="N93" s="8"/>
-      <c r="O93" s="8"/>
-      <c r="P93" s="8"/>
-      <c r="Q93" s="8"/>
-      <c r="R93" s="8"/>
-      <c r="S93" s="8"/>
-      <c r="T93" s="8"/>
-      <c r="U93" s="8"/>
-      <c r="V93" s="8"/>
-      <c r="W93" s="8"/>
-      <c r="X93" s="33"/>
-      <c r="Y93" s="33"/>
-      <c r="Z93" s="33"/>
-      <c r="AA93" s="33"/>
-      <c r="AB93" s="33"/>
-      <c r="AC93" s="33"/>
-      <c r="AD93" s="33"/>
-      <c r="AE93" s="33"/>
-      <c r="AF93" s="33"/>
+      <c r="A93" s="8"/>
+      <c r="B93" s="9"/>
+      <c r="C93" s="9"/>
+      <c r="D93" s="9"/>
+      <c r="E93" s="9"/>
+      <c r="F93" s="9"/>
+      <c r="G93" s="9"/>
+      <c r="H93" s="9"/>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c r="L93" s="9"/>
+      <c r="M93" s="9"/>
+      <c r="N93" s="9"/>
+      <c r="O93" s="9"/>
+      <c r="P93" s="9"/>
+      <c r="Q93" s="9"/>
+      <c r="R93" s="9"/>
+      <c r="S93" s="9"/>
+      <c r="T93" s="9"/>
+      <c r="U93" s="9"/>
+      <c r="V93" s="9"/>
+      <c r="W93" s="9"/>
+      <c r="X93" s="34"/>
+      <c r="Y93" s="34"/>
+      <c r="Z93" s="34"/>
+      <c r="AA93" s="34"/>
+      <c r="AB93" s="34"/>
+      <c r="AC93" s="34"/>
+      <c r="AD93" s="34"/>
+      <c r="AE93" s="34"/>
+      <c r="AF93" s="41"/>
     </row>
     <row r="94" spans="1:32">
-      <c r="A94" s="7"/>
-      <c r="B94" s="8"/>
-      <c r="C94" s="8"/>
-      <c r="D94" s="8"/>
-      <c r="E94" s="8"/>
-      <c r="F94" s="8"/>
-      <c r="G94" s="8"/>
-      <c r="H94" s="8"/>
-      <c r="I94" s="8"/>
-      <c r="J94" s="8"/>
-      <c r="K94" s="8"/>
-      <c r="L94" s="8"/>
-      <c r="M94" s="8"/>
-      <c r="N94" s="8"/>
-      <c r="O94" s="8"/>
-      <c r="P94" s="8"/>
-      <c r="Q94" s="8"/>
-      <c r="R94" s="8"/>
-      <c r="S94" s="8"/>
-      <c r="T94" s="8"/>
-      <c r="U94" s="8"/>
-      <c r="V94" s="8"/>
-      <c r="W94" s="8"/>
-      <c r="X94" s="33"/>
-      <c r="Y94" s="33"/>
-      <c r="Z94" s="33"/>
-      <c r="AA94" s="33"/>
-      <c r="AB94" s="33"/>
-      <c r="AC94" s="33"/>
-      <c r="AD94" s="33"/>
-      <c r="AE94" s="33"/>
-      <c r="AF94" s="33"/>
+      <c r="A94" s="8"/>
+      <c r="B94" s="9"/>
+      <c r="C94" s="9"/>
+      <c r="D94" s="9"/>
+      <c r="E94" s="9"/>
+      <c r="F94" s="9"/>
+      <c r="G94" s="9"/>
+      <c r="H94" s="9"/>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c r="L94" s="9"/>
+      <c r="M94" s="9"/>
+      <c r="N94" s="9"/>
+      <c r="O94" s="9"/>
+      <c r="P94" s="9"/>
+      <c r="Q94" s="9"/>
+      <c r="R94" s="9"/>
+      <c r="S94" s="9"/>
+      <c r="T94" s="9"/>
+      <c r="U94" s="9"/>
+      <c r="V94" s="9"/>
+      <c r="W94" s="9"/>
+      <c r="X94" s="34"/>
+      <c r="Y94" s="34"/>
+      <c r="Z94" s="34"/>
+      <c r="AA94" s="34"/>
+      <c r="AB94" s="34"/>
+      <c r="AC94" s="34"/>
+      <c r="AD94" s="34"/>
+      <c r="AE94" s="34"/>
+      <c r="AF94" s="41"/>
     </row>
     <row r="95" spans="1:32">
-      <c r="A95" s="7"/>
-      <c r="B95" s="8"/>
-      <c r="C95" s="8"/>
-      <c r="D95" s="8"/>
-      <c r="E95" s="8"/>
-      <c r="F95" s="8"/>
-      <c r="G95" s="8"/>
-      <c r="H95" s="8"/>
-      <c r="I95" s="8"/>
-      <c r="J95" s="8"/>
-      <c r="K95" s="8"/>
-      <c r="L95" s="8"/>
-      <c r="M95" s="8"/>
-      <c r="N95" s="8"/>
-      <c r="O95" s="8"/>
-      <c r="P95" s="8"/>
-      <c r="Q95" s="8"/>
-      <c r="R95" s="8"/>
-      <c r="S95" s="8"/>
-      <c r="T95" s="8"/>
-      <c r="U95" s="8"/>
-      <c r="V95" s="8"/>
-      <c r="W95" s="8"/>
-      <c r="X95" s="33"/>
-      <c r="Y95" s="33"/>
-      <c r="Z95" s="33"/>
-      <c r="AA95" s="33"/>
-      <c r="AB95" s="33"/>
-      <c r="AC95" s="33"/>
-      <c r="AD95" s="33"/>
-      <c r="AE95" s="33"/>
-      <c r="AF95" s="33"/>
+      <c r="A95" s="8"/>
+      <c r="B95" s="9"/>
+      <c r="C95" s="9"/>
+      <c r="D95" s="9"/>
+      <c r="E95" s="9"/>
+      <c r="F95" s="9"/>
+      <c r="G95" s="9"/>
+      <c r="H95" s="9"/>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c r="L95" s="9"/>
+      <c r="M95" s="9"/>
+      <c r="N95" s="9"/>
+      <c r="O95" s="9"/>
+      <c r="P95" s="9"/>
+      <c r="Q95" s="9"/>
+      <c r="R95" s="9"/>
+      <c r="S95" s="9"/>
+      <c r="T95" s="9"/>
+      <c r="U95" s="9"/>
+      <c r="V95" s="9"/>
+      <c r="W95" s="9"/>
+      <c r="X95" s="34"/>
+      <c r="Y95" s="34"/>
+      <c r="Z95" s="34"/>
+      <c r="AA95" s="34"/>
+      <c r="AB95" s="34"/>
+      <c r="AC95" s="34"/>
+      <c r="AD95" s="34"/>
+      <c r="AE95" s="34"/>
+      <c r="AF95" s="41"/>
     </row>
     <row r="96" spans="1:32">
-      <c r="A96" s="7"/>
-      <c r="B96" s="8"/>
-      <c r="C96" s="8"/>
-      <c r="D96" s="8"/>
-      <c r="E96" s="8"/>
-      <c r="F96" s="8"/>
-      <c r="G96" s="8"/>
-      <c r="H96" s="8"/>
-      <c r="I96" s="8"/>
-      <c r="J96" s="8"/>
-      <c r="K96" s="8"/>
-      <c r="L96" s="8"/>
-      <c r="M96" s="8"/>
-      <c r="N96" s="8"/>
-      <c r="O96" s="8"/>
-      <c r="P96" s="8"/>
-      <c r="Q96" s="8"/>
-      <c r="R96" s="8"/>
-      <c r="S96" s="8"/>
-      <c r="T96" s="8"/>
-      <c r="U96" s="8"/>
-      <c r="V96" s="8"/>
-      <c r="W96" s="8"/>
-      <c r="X96" s="33"/>
-      <c r="Y96" s="33"/>
-      <c r="Z96" s="33"/>
-      <c r="AA96" s="33"/>
-      <c r="AB96" s="33"/>
-      <c r="AC96" s="33"/>
-      <c r="AD96" s="33"/>
-      <c r="AE96" s="33"/>
-      <c r="AF96" s="33"/>
+      <c r="A96" s="8"/>
+      <c r="B96" s="9"/>
+      <c r="C96" s="9"/>
+      <c r="D96" s="9"/>
+      <c r="E96" s="9"/>
+      <c r="F96" s="9"/>
+      <c r="G96" s="9"/>
+      <c r="H96" s="9"/>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c r="L96" s="9"/>
+      <c r="M96" s="9"/>
+      <c r="N96" s="9"/>
+      <c r="O96" s="9"/>
+      <c r="P96" s="9"/>
+      <c r="Q96" s="9"/>
+      <c r="R96" s="9"/>
+      <c r="S96" s="9"/>
+      <c r="T96" s="9"/>
+      <c r="U96" s="9"/>
+      <c r="V96" s="9"/>
+      <c r="W96" s="9"/>
+      <c r="X96" s="34"/>
+      <c r="Y96" s="34"/>
+      <c r="Z96" s="34"/>
+      <c r="AA96" s="34"/>
+      <c r="AB96" s="34"/>
+      <c r="AC96" s="34"/>
+      <c r="AD96" s="34"/>
+      <c r="AE96" s="34"/>
+      <c r="AF96" s="41"/>
     </row>
     <row r="97" spans="1:32">
-      <c r="A97" s="7"/>
-      <c r="B97" s="8"/>
-      <c r="C97" s="8"/>
-      <c r="D97" s="8"/>
-      <c r="E97" s="8"/>
-      <c r="F97" s="8"/>
-      <c r="G97" s="8"/>
-      <c r="H97" s="8"/>
-      <c r="I97" s="8"/>
-      <c r="J97" s="8"/>
-      <c r="K97" s="8"/>
-      <c r="L97" s="8"/>
-      <c r="M97" s="8"/>
-      <c r="N97" s="8"/>
-      <c r="O97" s="8"/>
-      <c r="P97" s="8"/>
-      <c r="Q97" s="8"/>
-      <c r="R97" s="8"/>
-      <c r="S97" s="8"/>
-      <c r="T97" s="8"/>
-      <c r="U97" s="8"/>
-      <c r="V97" s="8"/>
-      <c r="W97" s="8"/>
-      <c r="X97" s="33"/>
-      <c r="Y97" s="33"/>
-      <c r="Z97" s="33"/>
-      <c r="AA97" s="33"/>
-      <c r="AB97" s="33"/>
-      <c r="AC97" s="33"/>
-      <c r="AD97" s="33"/>
-      <c r="AE97" s="33"/>
-      <c r="AF97" s="33"/>
+      <c r="A97" s="8"/>
+      <c r="B97" s="9"/>
+      <c r="C97" s="9"/>
+      <c r="D97" s="9"/>
+      <c r="E97" s="9"/>
+      <c r="F97" s="9"/>
+      <c r="G97" s="9"/>
+      <c r="H97" s="9"/>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+      <c r="L97" s="9"/>
+      <c r="M97" s="9"/>
+      <c r="N97" s="9"/>
+      <c r="O97" s="9"/>
+      <c r="P97" s="9"/>
+      <c r="Q97" s="9"/>
+      <c r="R97" s="9"/>
+      <c r="S97" s="9"/>
+      <c r="T97" s="9"/>
+      <c r="U97" s="9"/>
+      <c r="V97" s="9"/>
+      <c r="W97" s="9"/>
+      <c r="X97" s="34"/>
+      <c r="Y97" s="34"/>
+      <c r="Z97" s="34"/>
+      <c r="AA97" s="34"/>
+      <c r="AB97" s="34"/>
+      <c r="AC97" s="34"/>
+      <c r="AD97" s="34"/>
+      <c r="AE97" s="34"/>
+      <c r="AF97" s="41"/>
     </row>
     <row r="98" spans="1:32">
-      <c r="A98" s="7"/>
-      <c r="B98" s="8"/>
-      <c r="C98" s="8"/>
-      <c r="D98" s="8"/>
-      <c r="E98" s="8"/>
-      <c r="F98" s="8"/>
-      <c r="G98" s="8"/>
-      <c r="H98" s="8"/>
-      <c r="I98" s="8"/>
-      <c r="J98" s="8"/>
-      <c r="K98" s="8"/>
-      <c r="L98" s="8"/>
-      <c r="M98" s="8"/>
-      <c r="N98" s="8"/>
-      <c r="O98" s="8"/>
-      <c r="P98" s="8"/>
-      <c r="Q98" s="8"/>
-      <c r="R98" s="8"/>
-      <c r="S98" s="8"/>
-      <c r="T98" s="8"/>
-      <c r="U98" s="8"/>
-      <c r="V98" s="8"/>
-      <c r="W98" s="8"/>
-      <c r="X98" s="33"/>
-      <c r="Y98" s="33"/>
-      <c r="Z98" s="33"/>
-      <c r="AA98" s="33"/>
-      <c r="AB98" s="33"/>
-      <c r="AC98" s="33"/>
-      <c r="AD98" s="33"/>
-      <c r="AE98" s="33"/>
-      <c r="AF98" s="33"/>
+      <c r="A98" s="8"/>
+      <c r="B98" s="9"/>
+      <c r="C98" s="9"/>
+      <c r="D98" s="9"/>
+      <c r="E98" s="9"/>
+      <c r="F98" s="9"/>
+      <c r="G98" s="9"/>
+      <c r="H98" s="9"/>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c r="L98" s="9"/>
+      <c r="M98" s="9"/>
+      <c r="N98" s="9"/>
+      <c r="O98" s="9"/>
+      <c r="P98" s="9"/>
+      <c r="Q98" s="9"/>
+      <c r="R98" s="9"/>
+      <c r="S98" s="9"/>
+      <c r="T98" s="9"/>
+      <c r="U98" s="9"/>
+      <c r="V98" s="9"/>
+      <c r="W98" s="9"/>
+      <c r="X98" s="34"/>
+      <c r="Y98" s="34"/>
+      <c r="Z98" s="34"/>
+      <c r="AA98" s="34"/>
+      <c r="AB98" s="34"/>
+      <c r="AC98" s="34"/>
+      <c r="AD98" s="34"/>
+      <c r="AE98" s="34"/>
+      <c r="AF98" s="41"/>
     </row>
     <row r="99" spans="1:32">
-      <c r="A99" s="7"/>
-      <c r="B99" s="8"/>
-      <c r="C99" s="8"/>
-      <c r="D99" s="8"/>
-      <c r="E99" s="8"/>
-      <c r="F99" s="8"/>
-      <c r="G99" s="8"/>
-      <c r="H99" s="8"/>
-      <c r="I99" s="8"/>
-      <c r="J99" s="8"/>
-      <c r="K99" s="8"/>
-      <c r="L99" s="8"/>
-      <c r="M99" s="8"/>
-      <c r="N99" s="8"/>
-      <c r="O99" s="8"/>
-      <c r="P99" s="8"/>
-      <c r="Q99" s="8"/>
-      <c r="R99" s="8"/>
-      <c r="S99" s="8"/>
-      <c r="T99" s="8"/>
-      <c r="U99" s="8"/>
-      <c r="V99" s="8"/>
-      <c r="W99" s="8"/>
-      <c r="X99" s="33"/>
-      <c r="Y99" s="33"/>
-      <c r="Z99" s="33"/>
-      <c r="AA99" s="33"/>
-      <c r="AB99" s="33"/>
-      <c r="AC99" s="33"/>
-      <c r="AD99" s="33"/>
-      <c r="AE99" s="33"/>
-      <c r="AF99" s="33"/>
+      <c r="A99" s="8"/>
+      <c r="B99" s="9"/>
+      <c r="C99" s="9"/>
+      <c r="D99" s="9"/>
+      <c r="E99" s="9"/>
+      <c r="F99" s="9"/>
+      <c r="G99" s="9"/>
+      <c r="H99" s="9"/>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
+      <c r="L99" s="9"/>
+      <c r="M99" s="9"/>
+      <c r="N99" s="9"/>
+      <c r="O99" s="9"/>
+      <c r="P99" s="9"/>
+      <c r="Q99" s="9"/>
+      <c r="R99" s="9"/>
+      <c r="S99" s="9"/>
+      <c r="T99" s="9"/>
+      <c r="U99" s="9"/>
+      <c r="V99" s="9"/>
+      <c r="W99" s="9"/>
+      <c r="X99" s="34"/>
+      <c r="Y99" s="34"/>
+      <c r="Z99" s="34"/>
+      <c r="AA99" s="34"/>
+      <c r="AB99" s="34"/>
+      <c r="AC99" s="34"/>
+      <c r="AD99" s="34"/>
+      <c r="AE99" s="34"/>
+      <c r="AF99" s="41"/>
     </row>
     <row r="100" spans="1:32">
-      <c r="A100" s="7"/>
-      <c r="B100" s="8"/>
-      <c r="C100" s="8"/>
-      <c r="D100" s="8"/>
-      <c r="E100" s="8"/>
-      <c r="F100" s="8"/>
-      <c r="G100" s="8"/>
-      <c r="H100" s="8"/>
-      <c r="I100" s="8"/>
-      <c r="J100" s="8"/>
-      <c r="K100" s="8"/>
-      <c r="L100" s="8"/>
-      <c r="M100" s="8"/>
-      <c r="N100" s="8"/>
-      <c r="O100" s="8"/>
-      <c r="P100" s="8"/>
-      <c r="Q100" s="8"/>
-      <c r="R100" s="8"/>
-      <c r="S100" s="8"/>
-      <c r="T100" s="8"/>
-      <c r="U100" s="8"/>
-      <c r="V100" s="8"/>
-      <c r="W100" s="8"/>
-      <c r="X100" s="33"/>
-      <c r="Y100" s="33"/>
-      <c r="Z100" s="33"/>
-      <c r="AA100" s="33"/>
-      <c r="AB100" s="33"/>
-      <c r="AC100" s="33"/>
-      <c r="AD100" s="33"/>
-      <c r="AE100" s="33"/>
-      <c r="AF100" s="33"/>
+      <c r="A100" s="8"/>
+      <c r="B100" s="9"/>
+      <c r="C100" s="9"/>
+      <c r="D100" s="9"/>
+      <c r="E100" s="9"/>
+      <c r="F100" s="9"/>
+      <c r="G100" s="9"/>
+      <c r="H100" s="9"/>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c r="L100" s="9"/>
+      <c r="M100" s="9"/>
+      <c r="N100" s="9"/>
+      <c r="O100" s="9"/>
+      <c r="P100" s="9"/>
+      <c r="Q100" s="9"/>
+      <c r="R100" s="9"/>
+      <c r="S100" s="9"/>
+      <c r="T100" s="9"/>
+      <c r="U100" s="9"/>
+      <c r="V100" s="9"/>
+      <c r="W100" s="9"/>
+      <c r="X100" s="34"/>
+      <c r="Y100" s="34"/>
+      <c r="Z100" s="34"/>
+      <c r="AA100" s="34"/>
+      <c r="AB100" s="34"/>
+      <c r="AC100" s="34"/>
+      <c r="AD100" s="34"/>
+      <c r="AE100" s="34"/>
+      <c r="AF100" s="41"/>
     </row>
     <row r="101" spans="1:32">
-      <c r="A101" s="7"/>
-      <c r="B101" s="8"/>
-      <c r="C101" s="8"/>
-      <c r="D101" s="8"/>
-      <c r="E101" s="8"/>
-      <c r="F101" s="8"/>
-      <c r="G101" s="8"/>
-      <c r="H101" s="8"/>
-      <c r="I101" s="8"/>
-      <c r="J101" s="8"/>
-      <c r="K101" s="8"/>
-      <c r="L101" s="8"/>
-      <c r="M101" s="8"/>
-      <c r="N101" s="8"/>
-      <c r="O101" s="8"/>
-      <c r="P101" s="8"/>
-      <c r="Q101" s="8"/>
-      <c r="R101" s="8"/>
-      <c r="S101" s="8"/>
-      <c r="T101" s="8"/>
-      <c r="U101" s="8"/>
-      <c r="V101" s="8"/>
-      <c r="W101" s="8"/>
-      <c r="X101" s="33"/>
-      <c r="Y101" s="33"/>
-      <c r="Z101" s="33"/>
-      <c r="AA101" s="33"/>
-      <c r="AB101" s="33"/>
-      <c r="AC101" s="33"/>
-      <c r="AD101" s="33"/>
-      <c r="AE101" s="33"/>
-      <c r="AF101" s="33"/>
+      <c r="A101" s="8"/>
+      <c r="B101" s="9"/>
+      <c r="C101" s="9"/>
+      <c r="D101" s="9"/>
+      <c r="E101" s="9"/>
+      <c r="F101" s="9"/>
+      <c r="G101" s="9"/>
+      <c r="H101" s="9"/>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c r="L101" s="9"/>
+      <c r="M101" s="9"/>
+      <c r="N101" s="9"/>
+      <c r="O101" s="9"/>
+      <c r="P101" s="9"/>
+      <c r="Q101" s="9"/>
+      <c r="R101" s="9"/>
+      <c r="S101" s="9"/>
+      <c r="T101" s="9"/>
+      <c r="U101" s="9"/>
+      <c r="V101" s="9"/>
+      <c r="W101" s="9"/>
+      <c r="X101" s="34"/>
+      <c r="Y101" s="34"/>
+      <c r="Z101" s="34"/>
+      <c r="AA101" s="34"/>
+      <c r="AB101" s="34"/>
+      <c r="AC101" s="34"/>
+      <c r="AD101" s="34"/>
+      <c r="AE101" s="34"/>
+      <c r="AF101" s="41"/>
     </row>
     <row r="102" spans="1:32">
-      <c r="A102" s="7"/>
-      <c r="B102" s="8"/>
-      <c r="C102" s="8"/>
-      <c r="D102" s="8"/>
-      <c r="E102" s="8"/>
-      <c r="F102" s="8"/>
-      <c r="G102" s="8"/>
-      <c r="H102" s="8"/>
-      <c r="I102" s="8"/>
-      <c r="J102" s="8"/>
-      <c r="K102" s="8"/>
-      <c r="L102" s="8"/>
-      <c r="M102" s="8"/>
-      <c r="N102" s="8"/>
-      <c r="O102" s="8"/>
-      <c r="P102" s="8"/>
-      <c r="Q102" s="8"/>
-      <c r="R102" s="8"/>
-      <c r="S102" s="8"/>
-      <c r="T102" s="8"/>
-      <c r="U102" s="8"/>
-      <c r="V102" s="8"/>
-      <c r="W102" s="8"/>
-      <c r="X102" s="33"/>
-      <c r="Y102" s="33"/>
-      <c r="Z102" s="33"/>
-      <c r="AA102" s="33"/>
-      <c r="AB102" s="33"/>
-      <c r="AC102" s="33"/>
-      <c r="AD102" s="33"/>
-      <c r="AE102" s="33"/>
-      <c r="AF102" s="33"/>
+      <c r="A102" s="8"/>
+      <c r="B102" s="9"/>
+      <c r="C102" s="9"/>
+      <c r="D102" s="9"/>
+      <c r="E102" s="9"/>
+      <c r="F102" s="9"/>
+      <c r="G102" s="9"/>
+      <c r="H102" s="9"/>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c r="L102" s="9"/>
+      <c r="M102" s="9"/>
+      <c r="N102" s="9"/>
+      <c r="O102" s="9"/>
+      <c r="P102" s="9"/>
+      <c r="Q102" s="9"/>
+      <c r="R102" s="9"/>
+      <c r="S102" s="9"/>
+      <c r="T102" s="9"/>
+      <c r="U102" s="9"/>
+      <c r="V102" s="9"/>
+      <c r="W102" s="9"/>
+      <c r="X102" s="34"/>
+      <c r="Y102" s="34"/>
+      <c r="Z102" s="34"/>
+      <c r="AA102" s="34"/>
+      <c r="AB102" s="34"/>
+      <c r="AC102" s="34"/>
+      <c r="AD102" s="34"/>
+      <c r="AE102" s="34"/>
+      <c r="AF102" s="41"/>
     </row>
     <row r="103" spans="1:32">
-      <c r="A103" s="7"/>
-      <c r="B103" s="8"/>
-      <c r="C103" s="8"/>
-      <c r="D103" s="8"/>
-      <c r="E103" s="8"/>
-      <c r="F103" s="8"/>
-      <c r="G103" s="8"/>
-      <c r="H103" s="8"/>
-      <c r="I103" s="8"/>
-      <c r="J103" s="8"/>
-      <c r="K103" s="8"/>
-      <c r="L103" s="8"/>
-      <c r="M103" s="8"/>
-      <c r="N103" s="8"/>
-      <c r="O103" s="8"/>
-      <c r="P103" s="8"/>
-      <c r="Q103" s="8"/>
-      <c r="R103" s="8"/>
-      <c r="S103" s="8"/>
-      <c r="T103" s="8"/>
-      <c r="U103" s="8"/>
-      <c r="V103" s="8"/>
-      <c r="W103" s="8"/>
-      <c r="X103" s="33"/>
-      <c r="Y103" s="33"/>
-      <c r="Z103" s="33"/>
-      <c r="AA103" s="33"/>
-      <c r="AB103" s="33"/>
-      <c r="AC103" s="33"/>
-      <c r="AD103" s="33"/>
-      <c r="AE103" s="33"/>
-      <c r="AF103" s="33"/>
+      <c r="A103" s="8"/>
+      <c r="B103" s="9"/>
+      <c r="C103" s="9"/>
+      <c r="D103" s="9"/>
+      <c r="E103" s="9"/>
+      <c r="F103" s="9"/>
+      <c r="G103" s="9"/>
+      <c r="H103" s="9"/>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+      <c r="L103" s="9"/>
+      <c r="M103" s="9"/>
+      <c r="N103" s="9"/>
+      <c r="O103" s="9"/>
+      <c r="P103" s="9"/>
+      <c r="Q103" s="9"/>
+      <c r="R103" s="9"/>
+      <c r="S103" s="9"/>
+      <c r="T103" s="9"/>
+      <c r="U103" s="9"/>
+      <c r="V103" s="9"/>
+      <c r="W103" s="9"/>
+      <c r="X103" s="34"/>
+      <c r="Y103" s="34"/>
+      <c r="Z103" s="34"/>
+      <c r="AA103" s="34"/>
+      <c r="AB103" s="34"/>
+      <c r="AC103" s="34"/>
+      <c r="AD103" s="34"/>
+      <c r="AE103" s="34"/>
+      <c r="AF103" s="41"/>
     </row>
     <row r="104" spans="1:32">
-      <c r="A104" s="7"/>
-      <c r="B104" s="8"/>
-      <c r="C104" s="8"/>
-      <c r="D104" s="8"/>
-      <c r="E104" s="8"/>
-      <c r="F104" s="8"/>
-      <c r="G104" s="8"/>
-      <c r="H104" s="8"/>
-      <c r="I104" s="8"/>
-      <c r="J104" s="8"/>
-      <c r="K104" s="8"/>
-      <c r="L104" s="8"/>
-      <c r="M104" s="8"/>
-      <c r="N104" s="8"/>
-      <c r="O104" s="8"/>
-      <c r="P104" s="8"/>
-      <c r="Q104" s="8"/>
-      <c r="R104" s="8"/>
-      <c r="S104" s="8"/>
-      <c r="T104" s="8"/>
-      <c r="U104" s="8"/>
-      <c r="V104" s="8"/>
-      <c r="W104" s="8"/>
-      <c r="X104" s="33"/>
-      <c r="Y104" s="33"/>
-      <c r="Z104" s="33"/>
-      <c r="AA104" s="33"/>
-      <c r="AB104" s="33"/>
-      <c r="AC104" s="33"/>
-      <c r="AD104" s="33"/>
-      <c r="AE104" s="33"/>
-      <c r="AF104" s="33"/>
+      <c r="A104" s="8"/>
+      <c r="B104" s="9"/>
+      <c r="C104" s="9"/>
+      <c r="D104" s="9"/>
+      <c r="E104" s="9"/>
+      <c r="F104" s="9"/>
+      <c r="G104" s="9"/>
+      <c r="H104" s="9"/>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+      <c r="L104" s="9"/>
+      <c r="M104" s="9"/>
+      <c r="N104" s="9"/>
+      <c r="O104" s="9"/>
+      <c r="P104" s="9"/>
+      <c r="Q104" s="9"/>
+      <c r="R104" s="9"/>
+      <c r="S104" s="9"/>
+      <c r="T104" s="9"/>
+      <c r="U104" s="9"/>
+      <c r="V104" s="9"/>
+      <c r="W104" s="9"/>
+      <c r="X104" s="34"/>
+      <c r="Y104" s="34"/>
+      <c r="Z104" s="34"/>
+      <c r="AA104" s="34"/>
+      <c r="AB104" s="34"/>
+      <c r="AC104" s="34"/>
+      <c r="AD104" s="34"/>
+      <c r="AE104" s="34"/>
+      <c r="AF104" s="41"/>
     </row>
     <row r="105" spans="1:32">
-      <c r="A105" s="7"/>
-      <c r="B105" s="8"/>
-      <c r="C105" s="8"/>
-      <c r="D105" s="8"/>
-      <c r="E105" s="8"/>
-      <c r="F105" s="8"/>
-      <c r="G105" s="8"/>
-      <c r="H105" s="8"/>
-      <c r="I105" s="8"/>
-      <c r="J105" s="8"/>
-      <c r="K105" s="8"/>
-      <c r="L105" s="8"/>
-      <c r="M105" s="8"/>
-      <c r="N105" s="8"/>
-      <c r="O105" s="8"/>
-      <c r="P105" s="8"/>
-      <c r="Q105" s="8"/>
-      <c r="R105" s="8"/>
-      <c r="S105" s="8"/>
-      <c r="T105" s="8"/>
-      <c r="U105" s="8"/>
-      <c r="V105" s="8"/>
-      <c r="W105" s="8"/>
-      <c r="X105" s="33"/>
-      <c r="Y105" s="33"/>
-      <c r="Z105" s="33"/>
-      <c r="AA105" s="33"/>
-      <c r="AB105" s="33"/>
-      <c r="AC105" s="33"/>
-      <c r="AD105" s="33"/>
-      <c r="AE105" s="33"/>
-      <c r="AF105" s="33"/>
+      <c r="A105" s="8"/>
+      <c r="B105" s="9"/>
+      <c r="C105" s="9"/>
+      <c r="D105" s="9"/>
+      <c r="E105" s="9"/>
+      <c r="F105" s="9"/>
+      <c r="G105" s="9"/>
+      <c r="H105" s="9"/>
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
+      <c r="L105" s="9"/>
+      <c r="M105" s="9"/>
+      <c r="N105" s="9"/>
+      <c r="O105" s="9"/>
+      <c r="P105" s="9"/>
+      <c r="Q105" s="9"/>
+      <c r="R105" s="9"/>
+      <c r="S105" s="9"/>
+      <c r="T105" s="9"/>
+      <c r="U105" s="9"/>
+      <c r="V105" s="9"/>
+      <c r="W105" s="9"/>
+      <c r="X105" s="34"/>
+      <c r="Y105" s="34"/>
+      <c r="Z105" s="34"/>
+      <c r="AA105" s="34"/>
+      <c r="AB105" s="34"/>
+      <c r="AC105" s="34"/>
+      <c r="AD105" s="34"/>
+      <c r="AE105" s="34"/>
+      <c r="AF105" s="41"/>
     </row>
     <row r="106" spans="1:32">
-      <c r="A106" s="7"/>
-      <c r="B106" s="8"/>
-      <c r="C106" s="8"/>
-      <c r="D106" s="8"/>
-      <c r="E106" s="8"/>
-      <c r="F106" s="8"/>
-      <c r="G106" s="8"/>
-      <c r="H106" s="8"/>
-      <c r="I106" s="8"/>
-      <c r="J106" s="8"/>
-      <c r="K106" s="8"/>
-      <c r="L106" s="8"/>
-      <c r="M106" s="8"/>
-      <c r="N106" s="8"/>
-      <c r="O106" s="8"/>
-      <c r="P106" s="8"/>
-      <c r="Q106" s="8"/>
-      <c r="R106" s="8"/>
-      <c r="S106" s="8"/>
-      <c r="T106" s="8"/>
-      <c r="U106" s="8"/>
-      <c r="V106" s="8"/>
-      <c r="W106" s="8"/>
-      <c r="X106" s="33"/>
-      <c r="Y106" s="33"/>
-      <c r="Z106" s="33"/>
-      <c r="AA106" s="33"/>
-      <c r="AB106" s="33"/>
-      <c r="AC106" s="33"/>
-      <c r="AD106" s="33"/>
-      <c r="AE106" s="33"/>
-      <c r="AF106" s="33"/>
+      <c r="A106" s="8"/>
+      <c r="B106" s="9"/>
+      <c r="C106" s="9"/>
+      <c r="D106" s="9"/>
+      <c r="E106" s="9"/>
+      <c r="F106" s="9"/>
+      <c r="G106" s="9"/>
+      <c r="H106" s="9"/>
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
+      <c r="L106" s="9"/>
+      <c r="M106" s="9"/>
+      <c r="N106" s="9"/>
+      <c r="O106" s="9"/>
+      <c r="P106" s="9"/>
+      <c r="Q106" s="9"/>
+      <c r="R106" s="9"/>
+      <c r="S106" s="9"/>
+      <c r="T106" s="9"/>
+      <c r="U106" s="9"/>
+      <c r="V106" s="9"/>
+      <c r="W106" s="9"/>
+      <c r="X106" s="34"/>
+      <c r="Y106" s="34"/>
+      <c r="Z106" s="34"/>
+      <c r="AA106" s="34"/>
+      <c r="AB106" s="34"/>
+      <c r="AC106" s="34"/>
+      <c r="AD106" s="34"/>
+      <c r="AE106" s="34"/>
+      <c r="AF106" s="41"/>
     </row>
     <row r="107" spans="1:32">
-      <c r="A107" s="7"/>
-      <c r="B107" s="8"/>
-      <c r="C107" s="8"/>
-      <c r="D107" s="8"/>
-      <c r="E107" s="8"/>
-      <c r="F107" s="8"/>
-      <c r="G107" s="8"/>
-      <c r="H107" s="8"/>
-      <c r="I107" s="8"/>
-      <c r="J107" s="8"/>
-      <c r="K107" s="8"/>
-      <c r="L107" s="8"/>
-      <c r="M107" s="8"/>
-      <c r="N107" s="8"/>
-      <c r="O107" s="8"/>
-      <c r="P107" s="8"/>
-      <c r="Q107" s="8"/>
-      <c r="R107" s="8"/>
-      <c r="S107" s="8"/>
-      <c r="T107" s="8"/>
-      <c r="U107" s="8"/>
-      <c r="V107" s="8"/>
-      <c r="W107" s="8"/>
-      <c r="X107" s="33"/>
-      <c r="Y107" s="33"/>
-      <c r="Z107" s="33"/>
-      <c r="AA107" s="33"/>
-      <c r="AB107" s="33"/>
-      <c r="AC107" s="33"/>
-      <c r="AD107" s="33"/>
-      <c r="AE107" s="33"/>
-      <c r="AF107" s="33"/>
+      <c r="A107" s="8"/>
+      <c r="B107" s="9"/>
+      <c r="C107" s="9"/>
+      <c r="D107" s="9"/>
+      <c r="E107" s="9"/>
+      <c r="F107" s="9"/>
+      <c r="G107" s="9"/>
+      <c r="H107" s="9"/>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
+      <c r="L107" s="9"/>
+      <c r="M107" s="9"/>
+      <c r="N107" s="9"/>
+      <c r="O107" s="9"/>
+      <c r="P107" s="9"/>
+      <c r="Q107" s="9"/>
+      <c r="R107" s="9"/>
+      <c r="S107" s="9"/>
+      <c r="T107" s="9"/>
+      <c r="U107" s="9"/>
+      <c r="V107" s="9"/>
+      <c r="W107" s="9"/>
+      <c r="X107" s="34"/>
+      <c r="Y107" s="34"/>
+      <c r="Z107" s="34"/>
+      <c r="AA107" s="34"/>
+      <c r="AB107" s="34"/>
+      <c r="AC107" s="34"/>
+      <c r="AD107" s="34"/>
+      <c r="AE107" s="34"/>
+      <c r="AF107" s="41"/>
     </row>
     <row r="108" spans="1:32">
-      <c r="A108" s="7"/>
-      <c r="B108" s="8"/>
-      <c r="C108" s="8"/>
-      <c r="D108" s="8"/>
-      <c r="E108" s="8"/>
-      <c r="F108" s="8"/>
-      <c r="G108" s="8"/>
-      <c r="H108" s="8"/>
-      <c r="I108" s="8"/>
-      <c r="J108" s="8"/>
-      <c r="K108" s="8"/>
-      <c r="L108" s="8"/>
-      <c r="M108" s="8"/>
-      <c r="N108" s="8"/>
-      <c r="O108" s="8"/>
-      <c r="P108" s="8"/>
-      <c r="Q108" s="8"/>
-      <c r="R108" s="8"/>
-      <c r="S108" s="8"/>
-      <c r="T108" s="8"/>
-      <c r="U108" s="8"/>
-      <c r="V108" s="8"/>
-      <c r="W108" s="8"/>
-      <c r="X108" s="33"/>
-      <c r="Y108" s="33"/>
-      <c r="Z108" s="33"/>
-      <c r="AA108" s="33"/>
-      <c r="AB108" s="33"/>
-      <c r="AC108" s="33"/>
-      <c r="AD108" s="33"/>
-      <c r="AE108" s="33"/>
-      <c r="AF108" s="33"/>
+      <c r="A108" s="8"/>
+      <c r="B108" s="9"/>
+      <c r="C108" s="9"/>
+      <c r="D108" s="9"/>
+      <c r="E108" s="9"/>
+      <c r="F108" s="9"/>
+      <c r="G108" s="9"/>
+      <c r="H108" s="9"/>
+      <c r="I108" s="9"/>
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
+      <c r="L108" s="9"/>
+      <c r="M108" s="9"/>
+      <c r="N108" s="9"/>
+      <c r="O108" s="9"/>
+      <c r="P108" s="9"/>
+      <c r="Q108" s="9"/>
+      <c r="R108" s="9"/>
+      <c r="S108" s="9"/>
+      <c r="T108" s="9"/>
+      <c r="U108" s="9"/>
+      <c r="V108" s="9"/>
+      <c r="W108" s="9"/>
+      <c r="X108" s="34"/>
+      <c r="Y108" s="34"/>
+      <c r="Z108" s="34"/>
+      <c r="AA108" s="34"/>
+      <c r="AB108" s="34"/>
+      <c r="AC108" s="34"/>
+      <c r="AD108" s="34"/>
+      <c r="AE108" s="34"/>
+      <c r="AF108" s="41"/>
     </row>
     <row r="109" spans="1:32">
-      <c r="A109" s="7"/>
-      <c r="B109" s="8"/>
-      <c r="C109" s="8"/>
-      <c r="D109" s="8"/>
-      <c r="E109" s="8"/>
-      <c r="F109" s="8"/>
-      <c r="G109" s="8"/>
-      <c r="H109" s="8"/>
-      <c r="I109" s="8"/>
-      <c r="J109" s="8"/>
-      <c r="K109" s="8"/>
-      <c r="L109" s="8"/>
-      <c r="M109" s="8"/>
-      <c r="N109" s="8"/>
-      <c r="O109" s="8"/>
-      <c r="P109" s="8"/>
-      <c r="Q109" s="8"/>
-      <c r="R109" s="8"/>
-      <c r="S109" s="8"/>
-      <c r="T109" s="8"/>
-      <c r="U109" s="8"/>
-      <c r="V109" s="8"/>
-      <c r="W109" s="8"/>
-      <c r="X109" s="33"/>
-      <c r="Y109" s="33"/>
-      <c r="Z109" s="33"/>
-      <c r="AA109" s="33"/>
-      <c r="AB109" s="33"/>
-      <c r="AC109" s="33"/>
-      <c r="AD109" s="33"/>
-      <c r="AE109" s="33"/>
-      <c r="AF109" s="33"/>
+      <c r="A109" s="8"/>
+      <c r="B109" s="9"/>
+      <c r="C109" s="9"/>
+      <c r="D109" s="9"/>
+      <c r="E109" s="9"/>
+      <c r="F109" s="9"/>
+      <c r="G109" s="9"/>
+      <c r="H109" s="9"/>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
+      <c r="L109" s="9"/>
+      <c r="M109" s="9"/>
+      <c r="N109" s="9"/>
+      <c r="O109" s="9"/>
+      <c r="P109" s="9"/>
+      <c r="Q109" s="9"/>
+      <c r="R109" s="9"/>
+      <c r="S109" s="9"/>
+      <c r="T109" s="9"/>
+      <c r="U109" s="9"/>
+      <c r="V109" s="9"/>
+      <c r="W109" s="9"/>
+      <c r="X109" s="34"/>
+      <c r="Y109" s="34"/>
+      <c r="Z109" s="34"/>
+      <c r="AA109" s="34"/>
+      <c r="AB109" s="34"/>
+      <c r="AC109" s="34"/>
+      <c r="AD109" s="34"/>
+      <c r="AE109" s="34"/>
+      <c r="AF109" s="41"/>
     </row>
     <row r="110" spans="1:32">
-      <c r="A110" s="7"/>
-      <c r="B110" s="8"/>
-      <c r="C110" s="8"/>
-      <c r="D110" s="8"/>
-      <c r="E110" s="8"/>
-      <c r="F110" s="8"/>
-      <c r="G110" s="8"/>
-      <c r="H110" s="8"/>
-      <c r="I110" s="8"/>
-      <c r="J110" s="8"/>
-      <c r="K110" s="8"/>
-      <c r="L110" s="8"/>
-      <c r="M110" s="8"/>
-      <c r="N110" s="8"/>
-      <c r="O110" s="8"/>
-      <c r="P110" s="8"/>
-      <c r="Q110" s="8"/>
-      <c r="R110" s="8"/>
-      <c r="S110" s="8"/>
-      <c r="T110" s="8"/>
-      <c r="U110" s="8"/>
-      <c r="V110" s="8"/>
-      <c r="W110" s="8"/>
-      <c r="X110" s="33"/>
-      <c r="Y110" s="33"/>
-      <c r="Z110" s="33"/>
-      <c r="AA110" s="33"/>
-      <c r="AB110" s="33"/>
-      <c r="AC110" s="33"/>
-      <c r="AD110" s="33"/>
-      <c r="AE110" s="33"/>
-      <c r="AF110" s="33"/>
+      <c r="A110" s="8"/>
+      <c r="B110" s="9"/>
+      <c r="C110" s="9"/>
+      <c r="D110" s="9"/>
+      <c r="E110" s="9"/>
+      <c r="F110" s="9"/>
+      <c r="G110" s="9"/>
+      <c r="H110" s="9"/>
+      <c r="I110" s="9"/>
+      <c r="J110" s="9"/>
+      <c r="K110" s="9"/>
+      <c r="L110" s="9"/>
+      <c r="M110" s="9"/>
+      <c r="N110" s="9"/>
+      <c r="O110" s="9"/>
+      <c r="P110" s="9"/>
+      <c r="Q110" s="9"/>
+      <c r="R110" s="9"/>
+      <c r="S110" s="9"/>
+      <c r="T110" s="9"/>
+      <c r="U110" s="9"/>
+      <c r="V110" s="9"/>
+      <c r="W110" s="9"/>
+      <c r="X110" s="34"/>
+      <c r="Y110" s="34"/>
+      <c r="Z110" s="34"/>
+      <c r="AA110" s="34"/>
+      <c r="AB110" s="34"/>
+      <c r="AC110" s="34"/>
+      <c r="AD110" s="34"/>
+      <c r="AE110" s="34"/>
+      <c r="AF110" s="41"/>
     </row>
     <row r="111" spans="1:32">
-      <c r="A111" s="7"/>
-      <c r="B111" s="8"/>
-      <c r="C111" s="8"/>
-      <c r="D111" s="8"/>
-      <c r="E111" s="8"/>
-      <c r="F111" s="8"/>
-      <c r="G111" s="8"/>
-      <c r="H111" s="8"/>
-      <c r="I111" s="8"/>
-      <c r="J111" s="8"/>
-      <c r="K111" s="8"/>
-      <c r="L111" s="8"/>
-      <c r="M111" s="8"/>
-      <c r="N111" s="8"/>
-      <c r="O111" s="8"/>
-      <c r="P111" s="8"/>
-      <c r="Q111" s="8"/>
-      <c r="R111" s="8"/>
-      <c r="S111" s="8"/>
-      <c r="T111" s="8"/>
-      <c r="U111" s="8"/>
-      <c r="V111" s="8"/>
-      <c r="W111" s="8"/>
-      <c r="X111" s="33"/>
-      <c r="Y111" s="33"/>
-      <c r="Z111" s="33"/>
-      <c r="AA111" s="33"/>
-      <c r="AB111" s="33"/>
-      <c r="AC111" s="33"/>
-      <c r="AD111" s="33"/>
-      <c r="AE111" s="33"/>
-      <c r="AF111" s="33"/>
+      <c r="A111" s="8"/>
+      <c r="B111" s="9"/>
+      <c r="C111" s="9"/>
+      <c r="D111" s="9"/>
+      <c r="E111" s="9"/>
+      <c r="F111" s="9"/>
+      <c r="G111" s="9"/>
+      <c r="H111" s="9"/>
+      <c r="I111" s="9"/>
+      <c r="J111" s="9"/>
+      <c r="K111" s="9"/>
+      <c r="L111" s="9"/>
+      <c r="M111" s="9"/>
+      <c r="N111" s="9"/>
+      <c r="O111" s="9"/>
+      <c r="P111" s="9"/>
+      <c r="Q111" s="9"/>
+      <c r="R111" s="9"/>
+      <c r="S111" s="9"/>
+      <c r="T111" s="9"/>
+      <c r="U111" s="9"/>
+      <c r="V111" s="9"/>
+      <c r="W111" s="9"/>
+      <c r="X111" s="34"/>
+      <c r="Y111" s="34"/>
+      <c r="Z111" s="34"/>
+      <c r="AA111" s="34"/>
+      <c r="AB111" s="34"/>
+      <c r="AC111" s="34"/>
+      <c r="AD111" s="34"/>
+      <c r="AE111" s="34"/>
+      <c r="AF111" s="41"/>
     </row>
     <row r="112" spans="1:32">
-      <c r="A112" s="7"/>
-      <c r="B112" s="8"/>
-      <c r="C112" s="8"/>
-      <c r="D112" s="8"/>
-      <c r="E112" s="8"/>
-      <c r="F112" s="8"/>
-      <c r="G112" s="8"/>
-      <c r="H112" s="8"/>
-      <c r="I112" s="8"/>
-      <c r="J112" s="8"/>
-      <c r="K112" s="8"/>
-      <c r="L112" s="8"/>
-      <c r="M112" s="8"/>
-      <c r="N112" s="8"/>
-      <c r="O112" s="8"/>
-      <c r="P112" s="8"/>
-      <c r="Q112" s="8"/>
-      <c r="R112" s="8"/>
-      <c r="S112" s="8"/>
-      <c r="T112" s="8"/>
-      <c r="U112" s="8"/>
-      <c r="V112" s="8"/>
-      <c r="W112" s="8"/>
-      <c r="X112" s="33"/>
-      <c r="Y112" s="33"/>
-      <c r="Z112" s="33"/>
-      <c r="AA112" s="33"/>
-      <c r="AB112" s="33"/>
-      <c r="AC112" s="33"/>
-      <c r="AD112" s="33"/>
-      <c r="AE112" s="33"/>
-      <c r="AF112" s="33"/>
+      <c r="A112" s="8"/>
+      <c r="B112" s="9"/>
+      <c r="C112" s="9"/>
+      <c r="D112" s="9"/>
+      <c r="E112" s="9"/>
+      <c r="F112" s="9"/>
+      <c r="G112" s="9"/>
+      <c r="H112" s="9"/>
+      <c r="I112" s="9"/>
+      <c r="J112" s="9"/>
+      <c r="K112" s="9"/>
+      <c r="L112" s="9"/>
+      <c r="M112" s="9"/>
+      <c r="N112" s="9"/>
+      <c r="O112" s="9"/>
+      <c r="P112" s="9"/>
+      <c r="Q112" s="9"/>
+      <c r="R112" s="9"/>
+      <c r="S112" s="9"/>
+      <c r="T112" s="9"/>
+      <c r="U112" s="9"/>
+      <c r="V112" s="9"/>
+      <c r="W112" s="9"/>
+      <c r="X112" s="34"/>
+      <c r="Y112" s="34"/>
+      <c r="Z112" s="34"/>
+      <c r="AA112" s="34"/>
+      <c r="AB112" s="34"/>
+      <c r="AC112" s="34"/>
+      <c r="AD112" s="34"/>
+      <c r="AE112" s="34"/>
+      <c r="AF112" s="41"/>
     </row>
     <row r="113" spans="1:32">
-      <c r="A113" s="7"/>
-      <c r="B113" s="8"/>
-      <c r="C113" s="8"/>
-      <c r="D113" s="8"/>
-      <c r="E113" s="8"/>
-      <c r="F113" s="8"/>
-      <c r="G113" s="8"/>
-      <c r="H113" s="8"/>
-      <c r="I113" s="8"/>
-      <c r="J113" s="8"/>
-      <c r="K113" s="8"/>
-      <c r="L113" s="8"/>
-      <c r="M113" s="8"/>
-      <c r="N113" s="8"/>
-      <c r="O113" s="8"/>
-      <c r="P113" s="8"/>
-      <c r="Q113" s="8"/>
-      <c r="R113" s="8"/>
-      <c r="S113" s="8"/>
-      <c r="T113" s="8"/>
-      <c r="U113" s="8"/>
-      <c r="V113" s="8"/>
-      <c r="W113" s="8"/>
-      <c r="X113" s="33"/>
-      <c r="Y113" s="33"/>
-      <c r="Z113" s="33"/>
-      <c r="AA113" s="33"/>
-      <c r="AB113" s="33"/>
-      <c r="AC113" s="33"/>
-      <c r="AD113" s="33"/>
-      <c r="AE113" s="33"/>
-      <c r="AF113" s="33"/>
+      <c r="A113" s="8"/>
+      <c r="B113" s="9"/>
+      <c r="C113" s="9"/>
+      <c r="D113" s="9"/>
+      <c r="E113" s="9"/>
+      <c r="F113" s="9"/>
+      <c r="G113" s="9"/>
+      <c r="H113" s="9"/>
+      <c r="I113" s="9"/>
+      <c r="J113" s="9"/>
+      <c r="K113" s="9"/>
+      <c r="L113" s="9"/>
+      <c r="M113" s="9"/>
+      <c r="N113" s="9"/>
+      <c r="O113" s="9"/>
+      <c r="P113" s="9"/>
+      <c r="Q113" s="9"/>
+      <c r="R113" s="9"/>
+      <c r="S113" s="9"/>
+      <c r="T113" s="9"/>
+      <c r="U113" s="9"/>
+      <c r="V113" s="9"/>
+      <c r="W113" s="9"/>
+      <c r="X113" s="34"/>
+      <c r="Y113" s="34"/>
+      <c r="Z113" s="34"/>
+      <c r="AA113" s="34"/>
+      <c r="AB113" s="34"/>
+      <c r="AC113" s="34"/>
+      <c r="AD113" s="34"/>
+      <c r="AE113" s="34"/>
+      <c r="AF113" s="41"/>
     </row>
     <row r="114" spans="1:32">
-      <c r="A114" s="7"/>
-      <c r="B114" s="8"/>
-      <c r="C114" s="8"/>
-      <c r="D114" s="8"/>
-      <c r="E114" s="8"/>
-      <c r="F114" s="8"/>
-      <c r="G114" s="8"/>
-      <c r="H114" s="8"/>
-      <c r="I114" s="8"/>
-      <c r="J114" s="8"/>
-      <c r="K114" s="8"/>
-      <c r="L114" s="8"/>
-      <c r="M114" s="8"/>
-      <c r="N114" s="8"/>
-      <c r="O114" s="8"/>
-      <c r="P114" s="8"/>
-      <c r="Q114" s="8"/>
-      <c r="R114" s="8"/>
-      <c r="S114" s="8"/>
-      <c r="T114" s="8"/>
-      <c r="U114" s="8"/>
-      <c r="V114" s="8"/>
-      <c r="W114" s="8"/>
-      <c r="X114" s="33"/>
-      <c r="Y114" s="33"/>
-      <c r="Z114" s="33"/>
-      <c r="AA114" s="33"/>
-      <c r="AB114" s="33"/>
-      <c r="AC114" s="33"/>
-      <c r="AD114" s="33"/>
-      <c r="AE114" s="33"/>
-      <c r="AF114" s="33"/>
+      <c r="A114" s="8"/>
+      <c r="B114" s="9"/>
+      <c r="C114" s="9"/>
+      <c r="D114" s="9"/>
+      <c r="E114" s="9"/>
+      <c r="F114" s="9"/>
+      <c r="G114" s="9"/>
+      <c r="H114" s="9"/>
+      <c r="I114" s="9"/>
+      <c r="J114" s="9"/>
+      <c r="K114" s="9"/>
+      <c r="L114" s="9"/>
+      <c r="M114" s="9"/>
+      <c r="N114" s="9"/>
+      <c r="O114" s="9"/>
+      <c r="P114" s="9"/>
+      <c r="Q114" s="9"/>
+      <c r="R114" s="9"/>
+      <c r="S114" s="9"/>
+      <c r="T114" s="9"/>
+      <c r="U114" s="9"/>
+      <c r="V114" s="9"/>
+      <c r="W114" s="9"/>
+      <c r="X114" s="34"/>
+      <c r="Y114" s="34"/>
+      <c r="Z114" s="34"/>
+      <c r="AA114" s="34"/>
+      <c r="AB114" s="34"/>
+      <c r="AC114" s="34"/>
+      <c r="AD114" s="34"/>
+      <c r="AE114" s="34"/>
+      <c r="AF114" s="41"/>
     </row>
     <row r="115" spans="1:32">
-      <c r="A115" s="7"/>
-      <c r="B115" s="8"/>
-      <c r="C115" s="8"/>
-      <c r="D115" s="8"/>
-      <c r="E115" s="8"/>
-      <c r="F115" s="8"/>
-      <c r="G115" s="8"/>
-      <c r="H115" s="8"/>
-      <c r="I115" s="8"/>
-      <c r="J115" s="8"/>
-      <c r="K115" s="8"/>
-      <c r="L115" s="8"/>
-      <c r="M115" s="8"/>
-      <c r="N115" s="8"/>
-      <c r="O115" s="8"/>
-      <c r="P115" s="8"/>
-      <c r="Q115" s="8"/>
-      <c r="R115" s="8"/>
-      <c r="S115" s="8"/>
-      <c r="T115" s="8"/>
-      <c r="U115" s="8"/>
-      <c r="V115" s="8"/>
-      <c r="W115" s="8"/>
-      <c r="X115" s="33"/>
-      <c r="Y115" s="33"/>
-      <c r="Z115" s="33"/>
-      <c r="AA115" s="33"/>
-      <c r="AB115" s="33"/>
-      <c r="AC115" s="33"/>
-      <c r="AD115" s="33"/>
-      <c r="AE115" s="33"/>
-      <c r="AF115" s="33"/>
+      <c r="A115" s="8"/>
+      <c r="B115" s="9"/>
+      <c r="C115" s="9"/>
+      <c r="D115" s="9"/>
+      <c r="E115" s="9"/>
+      <c r="F115" s="9"/>
+      <c r="G115" s="9"/>
+      <c r="H115" s="9"/>
+      <c r="I115" s="9"/>
+      <c r="J115" s="9"/>
+      <c r="K115" s="9"/>
+      <c r="L115" s="9"/>
+      <c r="M115" s="9"/>
+      <c r="N115" s="9"/>
+      <c r="O115" s="9"/>
+      <c r="P115" s="9"/>
+      <c r="Q115" s="9"/>
+      <c r="R115" s="9"/>
+      <c r="S115" s="9"/>
+      <c r="T115" s="9"/>
+      <c r="U115" s="9"/>
+      <c r="V115" s="9"/>
+      <c r="W115" s="9"/>
+      <c r="X115" s="34"/>
+      <c r="Y115" s="34"/>
+      <c r="Z115" s="34"/>
+      <c r="AA115" s="34"/>
+      <c r="AB115" s="34"/>
+      <c r="AC115" s="34"/>
+      <c r="AD115" s="34"/>
+      <c r="AE115" s="34"/>
+      <c r="AF115" s="41"/>
     </row>
     <row r="116" spans="1:32">
-      <c r="A116" s="7"/>
-      <c r="B116" s="8"/>
-      <c r="C116" s="8"/>
-      <c r="D116" s="8"/>
-      <c r="E116" s="8"/>
-      <c r="F116" s="8"/>
-      <c r="G116" s="8"/>
-      <c r="H116" s="8"/>
-      <c r="I116" s="8"/>
-      <c r="J116" s="8"/>
-      <c r="K116" s="8"/>
-      <c r="L116" s="8"/>
-      <c r="M116" s="8"/>
-      <c r="N116" s="8"/>
-      <c r="O116" s="8"/>
-      <c r="P116" s="8"/>
-      <c r="Q116" s="8"/>
-      <c r="R116" s="8"/>
-      <c r="S116" s="8"/>
-      <c r="T116" s="8"/>
-      <c r="U116" s="8"/>
-      <c r="V116" s="8"/>
-      <c r="W116" s="8"/>
-      <c r="X116" s="33"/>
-      <c r="Y116" s="33"/>
-      <c r="Z116" s="33"/>
-      <c r="AA116" s="33"/>
-      <c r="AB116" s="33"/>
-      <c r="AC116" s="33"/>
-      <c r="AD116" s="33"/>
-      <c r="AE116" s="33"/>
-      <c r="AF116" s="33"/>
+      <c r="A116" s="8"/>
+      <c r="B116" s="9"/>
+      <c r="C116" s="9"/>
+      <c r="D116" s="9"/>
+      <c r="E116" s="9"/>
+      <c r="F116" s="9"/>
+      <c r="G116" s="9"/>
+      <c r="H116" s="9"/>
+      <c r="I116" s="9"/>
+      <c r="J116" s="9"/>
+      <c r="K116" s="9"/>
+      <c r="L116" s="9"/>
+      <c r="M116" s="9"/>
+      <c r="N116" s="9"/>
+      <c r="O116" s="9"/>
+      <c r="P116" s="9"/>
+      <c r="Q116" s="9"/>
+      <c r="R116" s="9"/>
+      <c r="S116" s="9"/>
+      <c r="T116" s="9"/>
+      <c r="U116" s="9"/>
+      <c r="V116" s="9"/>
+      <c r="W116" s="9"/>
+      <c r="X116" s="34"/>
+      <c r="Y116" s="34"/>
+      <c r="Z116" s="34"/>
+      <c r="AA116" s="34"/>
+      <c r="AB116" s="34"/>
+      <c r="AC116" s="34"/>
+      <c r="AD116" s="34"/>
+      <c r="AE116" s="34"/>
+      <c r="AF116" s="41"/>
     </row>
     <row r="117" spans="1:32">
-      <c r="A117" s="7"/>
-      <c r="B117" s="8"/>
-      <c r="C117" s="8"/>
-      <c r="D117" s="8"/>
-      <c r="E117" s="8"/>
-      <c r="F117" s="8"/>
-      <c r="G117" s="8"/>
-      <c r="H117" s="8"/>
-      <c r="I117" s="8"/>
-      <c r="J117" s="8"/>
-      <c r="K117" s="8"/>
-      <c r="L117" s="8"/>
-      <c r="M117" s="8"/>
-      <c r="N117" s="8"/>
-      <c r="O117" s="8"/>
-      <c r="P117" s="8"/>
-      <c r="Q117" s="8"/>
-      <c r="R117" s="8"/>
-      <c r="S117" s="8"/>
-      <c r="T117" s="8"/>
-      <c r="U117" s="8"/>
-      <c r="V117" s="8"/>
-      <c r="W117" s="8"/>
-      <c r="X117" s="33"/>
-      <c r="Y117" s="33"/>
-      <c r="Z117" s="33"/>
-      <c r="AA117" s="33"/>
-      <c r="AB117" s="33"/>
-      <c r="AC117" s="33"/>
-      <c r="AD117" s="33"/>
-      <c r="AE117" s="33"/>
-      <c r="AF117" s="33"/>
+      <c r="A117" s="8"/>
+      <c r="B117" s="9"/>
+      <c r="C117" s="9"/>
+      <c r="D117" s="9"/>
+      <c r="E117" s="9"/>
+      <c r="F117" s="9"/>
+      <c r="G117" s="9"/>
+      <c r="H117" s="9"/>
+      <c r="I117" s="9"/>
+      <c r="J117" s="9"/>
+      <c r="K117" s="9"/>
+      <c r="L117" s="9"/>
+      <c r="M117" s="9"/>
+      <c r="N117" s="9"/>
+      <c r="O117" s="9"/>
+      <c r="P117" s="9"/>
+      <c r="Q117" s="9"/>
+      <c r="R117" s="9"/>
+      <c r="S117" s="9"/>
+      <c r="T117" s="9"/>
+      <c r="U117" s="9"/>
+      <c r="V117" s="9"/>
+      <c r="W117" s="9"/>
+      <c r="X117" s="34"/>
+      <c r="Y117" s="34"/>
+      <c r="Z117" s="34"/>
+      <c r="AA117" s="34"/>
+      <c r="AB117" s="34"/>
+      <c r="AC117" s="34"/>
+      <c r="AD117" s="34"/>
+      <c r="AE117" s="34"/>
+      <c r="AF117" s="41"/>
     </row>
     <row r="118" spans="1:32">
-      <c r="A118" s="7"/>
-      <c r="B118" s="8"/>
-      <c r="C118" s="8"/>
-      <c r="D118" s="8"/>
-      <c r="E118" s="8"/>
-      <c r="F118" s="8"/>
-      <c r="G118" s="8"/>
-      <c r="H118" s="8"/>
-      <c r="I118" s="8"/>
-      <c r="J118" s="8"/>
-      <c r="K118" s="8"/>
-      <c r="L118" s="8"/>
-      <c r="M118" s="8"/>
-      <c r="N118" s="8"/>
-      <c r="O118" s="8"/>
-      <c r="P118" s="8"/>
-      <c r="Q118" s="8"/>
-      <c r="R118" s="8"/>
-      <c r="S118" s="8"/>
-      <c r="T118" s="8"/>
-      <c r="U118" s="8"/>
-      <c r="V118" s="8"/>
-      <c r="W118" s="8"/>
-      <c r="X118" s="33"/>
-      <c r="Y118" s="33"/>
-      <c r="Z118" s="33"/>
-      <c r="AA118" s="33"/>
-      <c r="AB118" s="33"/>
-      <c r="AC118" s="33"/>
-      <c r="AD118" s="33"/>
-      <c r="AE118" s="33"/>
-      <c r="AF118" s="33"/>
+      <c r="A118" s="8"/>
+      <c r="B118" s="9"/>
+      <c r="C118" s="9"/>
+      <c r="D118" s="9"/>
+      <c r="E118" s="9"/>
+      <c r="F118" s="9"/>
+      <c r="G118" s="9"/>
+      <c r="H118" s="9"/>
+      <c r="I118" s="9"/>
+      <c r="J118" s="9"/>
+      <c r="K118" s="9"/>
+      <c r="L118" s="9"/>
+      <c r="M118" s="9"/>
+      <c r="N118" s="9"/>
+      <c r="O118" s="9"/>
+      <c r="P118" s="9"/>
+      <c r="Q118" s="9"/>
+      <c r="R118" s="9"/>
+      <c r="S118" s="9"/>
+      <c r="T118" s="9"/>
+      <c r="U118" s="9"/>
+      <c r="V118" s="9"/>
+      <c r="W118" s="9"/>
+      <c r="X118" s="34"/>
+      <c r="Y118" s="34"/>
+      <c r="Z118" s="34"/>
+      <c r="AA118" s="34"/>
+      <c r="AB118" s="34"/>
+      <c r="AC118" s="34"/>
+      <c r="AD118" s="34"/>
+      <c r="AE118" s="34"/>
+      <c r="AF118" s="41"/>
     </row>
     <row r="119" spans="1:32">
-      <c r="A119" s="7"/>
-      <c r="B119" s="8"/>
-      <c r="C119" s="8"/>
-      <c r="D119" s="8"/>
-      <c r="E119" s="8"/>
-      <c r="F119" s="8"/>
-      <c r="G119" s="8"/>
-      <c r="H119" s="8"/>
-      <c r="I119" s="8"/>
-      <c r="J119" s="8"/>
-      <c r="K119" s="8"/>
-      <c r="L119" s="8"/>
-      <c r="M119" s="8"/>
-      <c r="N119" s="8"/>
-      <c r="O119" s="8"/>
-      <c r="P119" s="8"/>
-      <c r="Q119" s="8"/>
-      <c r="R119" s="8"/>
-      <c r="S119" s="8"/>
-      <c r="T119" s="8"/>
-      <c r="U119" s="8"/>
-      <c r="V119" s="8"/>
-      <c r="W119" s="8"/>
-      <c r="X119" s="33"/>
-      <c r="Y119" s="33"/>
-      <c r="Z119" s="33"/>
-      <c r="AA119" s="33"/>
-      <c r="AB119" s="33"/>
-      <c r="AC119" s="33"/>
-      <c r="AD119" s="33"/>
-      <c r="AE119" s="33"/>
-      <c r="AF119" s="33"/>
+      <c r="A119" s="8"/>
+      <c r="B119" s="9"/>
+      <c r="C119" s="9"/>
+      <c r="D119" s="9"/>
+      <c r="E119" s="9"/>
+      <c r="F119" s="9"/>
+      <c r="G119" s="9"/>
+      <c r="H119" s="9"/>
+      <c r="I119" s="9"/>
+      <c r="J119" s="9"/>
+      <c r="K119" s="9"/>
+      <c r="L119" s="9"/>
+      <c r="M119" s="9"/>
+      <c r="N119" s="9"/>
+      <c r="O119" s="9"/>
+      <c r="P119" s="9"/>
+      <c r="Q119" s="9"/>
+      <c r="R119" s="9"/>
+      <c r="S119" s="9"/>
+      <c r="T119" s="9"/>
+      <c r="U119" s="9"/>
+      <c r="V119" s="9"/>
+      <c r="W119" s="9"/>
+      <c r="X119" s="34"/>
+      <c r="Y119" s="34"/>
+      <c r="Z119" s="34"/>
+      <c r="AA119" s="34"/>
+      <c r="AB119" s="34"/>
+      <c r="AC119" s="34"/>
+      <c r="AD119" s="34"/>
+      <c r="AE119" s="34"/>
+      <c r="AF119" s="41"/>
     </row>
     <row r="120" spans="1:32">
-      <c r="A120" s="7"/>
-      <c r="B120" s="8"/>
-      <c r="C120" s="8"/>
-      <c r="D120" s="8"/>
-      <c r="E120" s="8"/>
-      <c r="F120" s="8"/>
-      <c r="G120" s="8"/>
-      <c r="H120" s="8"/>
-      <c r="I120" s="8"/>
-      <c r="J120" s="8"/>
-      <c r="K120" s="8"/>
-      <c r="L120" s="8"/>
-      <c r="M120" s="8"/>
-      <c r="N120" s="8"/>
-      <c r="O120" s="8"/>
-      <c r="P120" s="8"/>
-      <c r="Q120" s="8"/>
-      <c r="R120" s="8"/>
-      <c r="S120" s="8"/>
-      <c r="T120" s="8"/>
-      <c r="U120" s="8"/>
-      <c r="V120" s="8"/>
-      <c r="W120" s="8"/>
-      <c r="X120" s="33"/>
-      <c r="Y120" s="33"/>
-      <c r="Z120" s="33"/>
-      <c r="AA120" s="33"/>
-      <c r="AB120" s="33"/>
-      <c r="AC120" s="33"/>
-      <c r="AD120" s="33"/>
-      <c r="AE120" s="33"/>
-      <c r="AF120" s="33"/>
+      <c r="A120" s="8"/>
+      <c r="B120" s="9"/>
+      <c r="C120" s="9"/>
+      <c r="D120" s="9"/>
+      <c r="E120" s="9"/>
+      <c r="F120" s="9"/>
+      <c r="G120" s="9"/>
+      <c r="H120" s="9"/>
+      <c r="I120" s="9"/>
+      <c r="J120" s="9"/>
+      <c r="K120" s="9"/>
+      <c r="L120" s="9"/>
+      <c r="M120" s="9"/>
+      <c r="N120" s="9"/>
+      <c r="O120" s="9"/>
+      <c r="P120" s="9"/>
+      <c r="Q120" s="9"/>
+      <c r="R120" s="9"/>
+      <c r="S120" s="9"/>
+      <c r="T120" s="9"/>
+      <c r="U120" s="9"/>
+      <c r="V120" s="9"/>
+      <c r="W120" s="9"/>
+      <c r="X120" s="34"/>
+      <c r="Y120" s="34"/>
+      <c r="Z120" s="34"/>
+      <c r="AA120" s="34"/>
+      <c r="AB120" s="34"/>
+      <c r="AC120" s="34"/>
+      <c r="AD120" s="34"/>
+      <c r="AE120" s="34"/>
+      <c r="AF120" s="41"/>
     </row>
     <row r="121" spans="1:32">
-      <c r="A121" s="7"/>
-      <c r="B121" s="8"/>
-      <c r="C121" s="8"/>
-      <c r="D121" s="8"/>
-      <c r="E121" s="8"/>
-      <c r="F121" s="8"/>
-      <c r="G121" s="8"/>
-      <c r="H121" s="8"/>
-      <c r="I121" s="8"/>
-      <c r="J121" s="8"/>
-      <c r="K121" s="8"/>
-      <c r="L121" s="8"/>
-      <c r="M121" s="8"/>
-      <c r="N121" s="8"/>
-      <c r="O121" s="8"/>
-      <c r="P121" s="8"/>
-      <c r="Q121" s="8"/>
-      <c r="R121" s="8"/>
-      <c r="S121" s="8"/>
-      <c r="T121" s="8"/>
-      <c r="U121" s="8"/>
-      <c r="V121" s="8"/>
-      <c r="W121" s="8"/>
-      <c r="X121" s="33"/>
-      <c r="Y121" s="33"/>
-      <c r="Z121" s="33"/>
-      <c r="AA121" s="33"/>
-      <c r="AB121" s="33"/>
-      <c r="AC121" s="33"/>
-      <c r="AD121" s="33"/>
-      <c r="AE121" s="33"/>
-      <c r="AF121" s="33"/>
+      <c r="A121" s="8"/>
+      <c r="B121" s="9"/>
+      <c r="C121" s="9"/>
+      <c r="D121" s="9"/>
+      <c r="E121" s="9"/>
+      <c r="F121" s="9"/>
+      <c r="G121" s="9"/>
+      <c r="H121" s="9"/>
+      <c r="I121" s="9"/>
+      <c r="J121" s="9"/>
+      <c r="K121" s="9"/>
+      <c r="L121" s="9"/>
+      <c r="M121" s="9"/>
+      <c r="N121" s="9"/>
+      <c r="O121" s="9"/>
+      <c r="P121" s="9"/>
+      <c r="Q121" s="9"/>
+      <c r="R121" s="9"/>
+      <c r="S121" s="9"/>
+      <c r="T121" s="9"/>
+      <c r="U121" s="9"/>
+      <c r="V121" s="9"/>
+      <c r="W121" s="9"/>
+      <c r="X121" s="34"/>
+      <c r="Y121" s="34"/>
+      <c r="Z121" s="34"/>
+      <c r="AA121" s="34"/>
+      <c r="AB121" s="34"/>
+      <c r="AC121" s="34"/>
+      <c r="AD121" s="34"/>
+      <c r="AE121" s="34"/>
+      <c r="AF121" s="41"/>
     </row>
     <row r="122" spans="1:32">
-      <c r="A122" s="7"/>
-      <c r="B122" s="8"/>
-      <c r="C122" s="8"/>
-      <c r="D122" s="8"/>
-      <c r="E122" s="8"/>
-      <c r="F122" s="8"/>
-      <c r="G122" s="8"/>
-      <c r="H122" s="8"/>
-      <c r="I122" s="8"/>
-      <c r="J122" s="8"/>
-      <c r="K122" s="8"/>
-      <c r="L122" s="8"/>
-      <c r="M122" s="8"/>
-      <c r="N122" s="8"/>
-      <c r="O122" s="8"/>
-      <c r="P122" s="8"/>
-      <c r="Q122" s="8"/>
-      <c r="R122" s="8"/>
-      <c r="S122" s="8"/>
-      <c r="T122" s="8"/>
-      <c r="U122" s="8"/>
-      <c r="V122" s="8"/>
-      <c r="W122" s="8"/>
-      <c r="X122" s="33"/>
-      <c r="Y122" s="33"/>
-      <c r="Z122" s="33"/>
-      <c r="AA122" s="33"/>
-      <c r="AB122" s="33"/>
-      <c r="AC122" s="33"/>
-      <c r="AD122" s="33"/>
-      <c r="AE122" s="33"/>
-      <c r="AF122" s="33"/>
+      <c r="A122" s="8"/>
+      <c r="B122" s="9"/>
+      <c r="C122" s="9"/>
+      <c r="D122" s="9"/>
+      <c r="E122" s="9"/>
+      <c r="F122" s="9"/>
+      <c r="G122" s="9"/>
+      <c r="H122" s="9"/>
+      <c r="I122" s="9"/>
+      <c r="J122" s="9"/>
+      <c r="K122" s="9"/>
+      <c r="L122" s="9"/>
+      <c r="M122" s="9"/>
+      <c r="N122" s="9"/>
+      <c r="O122" s="9"/>
+      <c r="P122" s="9"/>
+      <c r="Q122" s="9"/>
+      <c r="R122" s="9"/>
+      <c r="S122" s="9"/>
+      <c r="T122" s="9"/>
+      <c r="U122" s="9"/>
+      <c r="V122" s="9"/>
+      <c r="W122" s="9"/>
+      <c r="X122" s="34"/>
+      <c r="Y122" s="34"/>
+      <c r="Z122" s="34"/>
+      <c r="AA122" s="34"/>
+      <c r="AB122" s="34"/>
+      <c r="AC122" s="34"/>
+      <c r="AD122" s="34"/>
+      <c r="AE122" s="34"/>
+      <c r="AF122" s="41"/>
     </row>
     <row r="123" spans="1:32">
-      <c r="A123" s="7"/>
-      <c r="B123" s="8"/>
-      <c r="C123" s="8"/>
-      <c r="D123" s="8"/>
-      <c r="E123" s="8"/>
-      <c r="F123" s="8"/>
-      <c r="G123" s="8"/>
-      <c r="H123" s="8"/>
-      <c r="I123" s="8"/>
-      <c r="J123" s="8"/>
-      <c r="K123" s="8"/>
-      <c r="L123" s="8"/>
-      <c r="M123" s="8"/>
-      <c r="N123" s="8"/>
-      <c r="O123" s="8"/>
-      <c r="P123" s="8"/>
-      <c r="Q123" s="8"/>
-      <c r="R123" s="8"/>
-      <c r="S123" s="8"/>
-      <c r="T123" s="8"/>
-      <c r="U123" s="8"/>
-      <c r="V123" s="8"/>
-      <c r="W123" s="8"/>
-      <c r="X123" s="33"/>
-      <c r="Y123" s="33"/>
-      <c r="Z123" s="33"/>
-      <c r="AA123" s="33"/>
-      <c r="AB123" s="33"/>
-      <c r="AC123" s="33"/>
-      <c r="AD123" s="33"/>
-      <c r="AE123" s="33"/>
-      <c r="AF123" s="33"/>
+      <c r="A123" s="8"/>
+      <c r="B123" s="9"/>
+      <c r="C123" s="9"/>
+      <c r="D123" s="9"/>
+      <c r="E123" s="9"/>
+      <c r="F123" s="9"/>
+      <c r="G123" s="9"/>
+      <c r="H123" s="9"/>
+      <c r="I123" s="9"/>
+      <c r="J123" s="9"/>
+      <c r="K123" s="9"/>
+      <c r="L123" s="9"/>
+      <c r="M123" s="9"/>
+      <c r="N123" s="9"/>
+      <c r="O123" s="9"/>
+      <c r="P123" s="9"/>
+      <c r="Q123" s="9"/>
+      <c r="R123" s="9"/>
+      <c r="S123" s="9"/>
+      <c r="T123" s="9"/>
+      <c r="U123" s="9"/>
+      <c r="V123" s="9"/>
+      <c r="W123" s="9"/>
+      <c r="X123" s="34"/>
+      <c r="Y123" s="34"/>
+      <c r="Z123" s="34"/>
+      <c r="AA123" s="34"/>
+      <c r="AB123" s="34"/>
+      <c r="AC123" s="34"/>
+      <c r="AD123" s="34"/>
+      <c r="AE123" s="34"/>
+      <c r="AF123" s="41"/>
     </row>
     <row r="124" spans="1:32">
-      <c r="A124" s="7"/>
-      <c r="B124" s="8"/>
-      <c r="C124" s="8"/>
-      <c r="D124" s="8"/>
-      <c r="E124" s="8"/>
-      <c r="F124" s="8"/>
-      <c r="G124" s="8"/>
-      <c r="H124" s="8"/>
-      <c r="I124" s="8"/>
-      <c r="J124" s="8"/>
-      <c r="K124" s="8"/>
-      <c r="L124" s="8"/>
-      <c r="M124" s="8"/>
-      <c r="N124" s="8"/>
-      <c r="O124" s="8"/>
-      <c r="P124" s="8"/>
-      <c r="Q124" s="8"/>
-      <c r="R124" s="8"/>
-      <c r="S124" s="8"/>
-      <c r="T124" s="8"/>
-      <c r="U124" s="8"/>
-      <c r="V124" s="8"/>
-      <c r="W124" s="8"/>
-      <c r="X124" s="33"/>
-      <c r="Y124" s="33"/>
-      <c r="Z124" s="33"/>
-      <c r="AA124" s="33"/>
-      <c r="AB124" s="33"/>
-      <c r="AC124" s="33"/>
-      <c r="AD124" s="33"/>
-      <c r="AE124" s="33"/>
-      <c r="AF124" s="33"/>
+      <c r="A124" s="8"/>
+      <c r="B124" s="9"/>
+      <c r="C124" s="9"/>
+      <c r="D124" s="9"/>
+      <c r="E124" s="9"/>
+      <c r="F124" s="9"/>
+      <c r="G124" s="9"/>
+      <c r="H124" s="9"/>
+      <c r="I124" s="9"/>
+      <c r="J124" s="9"/>
+      <c r="K124" s="9"/>
+      <c r="L124" s="9"/>
+      <c r="M124" s="9"/>
+      <c r="N124" s="9"/>
+      <c r="O124" s="9"/>
+      <c r="P124" s="9"/>
+      <c r="Q124" s="9"/>
+      <c r="R124" s="9"/>
+      <c r="S124" s="9"/>
+      <c r="T124" s="9"/>
+      <c r="U124" s="9"/>
+      <c r="V124" s="9"/>
+      <c r="W124" s="9"/>
+      <c r="X124" s="34"/>
+      <c r="Y124" s="34"/>
+      <c r="Z124" s="34"/>
+      <c r="AA124" s="34"/>
+      <c r="AB124" s="34"/>
+      <c r="AC124" s="34"/>
+      <c r="AD124" s="34"/>
+      <c r="AE124" s="34"/>
+      <c r="AF124" s="41"/>
     </row>
     <row r="125" spans="1:32">
-      <c r="A125" s="7"/>
-      <c r="B125" s="8"/>
-      <c r="C125" s="8"/>
-      <c r="D125" s="8"/>
-      <c r="E125" s="8"/>
-      <c r="F125" s="8"/>
-      <c r="G125" s="8"/>
-      <c r="H125" s="8"/>
-      <c r="I125" s="8"/>
-      <c r="J125" s="8"/>
-      <c r="K125" s="8"/>
-      <c r="L125" s="8"/>
-      <c r="M125" s="8"/>
-      <c r="N125" s="8"/>
-      <c r="O125" s="8"/>
-      <c r="P125" s="8"/>
-      <c r="Q125" s="8"/>
-      <c r="R125" s="8"/>
-      <c r="S125" s="8"/>
-      <c r="T125" s="8"/>
-      <c r="U125" s="8"/>
-      <c r="V125" s="8"/>
-      <c r="W125" s="8"/>
-      <c r="X125" s="33"/>
-      <c r="Y125" s="33"/>
-      <c r="Z125" s="33"/>
-      <c r="AA125" s="33"/>
-      <c r="AB125" s="33"/>
-      <c r="AC125" s="33"/>
-      <c r="AD125" s="33"/>
-      <c r="AE125" s="33"/>
-      <c r="AF125" s="33"/>
+      <c r="A125" s="8"/>
+      <c r="B125" s="9"/>
+      <c r="C125" s="9"/>
+      <c r="D125" s="9"/>
+      <c r="E125" s="9"/>
+      <c r="F125" s="9"/>
+      <c r="G125" s="9"/>
+      <c r="H125" s="9"/>
+      <c r="I125" s="9"/>
+      <c r="J125" s="9"/>
+      <c r="K125" s="9"/>
+      <c r="L125" s="9"/>
+      <c r="M125" s="9"/>
+      <c r="N125" s="9"/>
+      <c r="O125" s="9"/>
+      <c r="P125" s="9"/>
+      <c r="Q125" s="9"/>
+      <c r="R125" s="9"/>
+      <c r="S125" s="9"/>
+      <c r="T125" s="9"/>
+      <c r="U125" s="9"/>
+      <c r="V125" s="9"/>
+      <c r="W125" s="9"/>
+      <c r="X125" s="34"/>
+      <c r="Y125" s="34"/>
+      <c r="Z125" s="34"/>
+      <c r="AA125" s="34"/>
+      <c r="AB125" s="34"/>
+      <c r="AC125" s="34"/>
+      <c r="AD125" s="34"/>
+      <c r="AE125" s="34"/>
+      <c r="AF125" s="41"/>
     </row>
     <row r="126" spans="1:32">
-      <c r="A126" s="7"/>
-      <c r="B126" s="8"/>
-      <c r="C126" s="8"/>
-      <c r="D126" s="8"/>
-      <c r="E126" s="8"/>
-      <c r="F126" s="8"/>
-      <c r="G126" s="8"/>
-      <c r="H126" s="8"/>
-      <c r="I126" s="8"/>
-      <c r="J126" s="8"/>
-      <c r="K126" s="8"/>
-      <c r="L126" s="8"/>
-      <c r="M126" s="8"/>
-      <c r="N126" s="8"/>
-      <c r="O126" s="8"/>
-      <c r="P126" s="8"/>
-      <c r="Q126" s="8"/>
-      <c r="R126" s="8"/>
-      <c r="S126" s="8"/>
-      <c r="T126" s="8"/>
-      <c r="U126" s="8"/>
-      <c r="V126" s="8"/>
-      <c r="W126" s="8"/>
-      <c r="X126" s="33"/>
-      <c r="Y126" s="33"/>
-      <c r="Z126" s="33"/>
-      <c r="AA126" s="33"/>
-      <c r="AB126" s="33"/>
-      <c r="AC126" s="33"/>
-      <c r="AD126" s="33"/>
-      <c r="AE126" s="33"/>
-      <c r="AF126" s="33"/>
+      <c r="A126" s="8"/>
+      <c r="B126" s="9"/>
+      <c r="C126" s="9"/>
+      <c r="D126" s="9"/>
+      <c r="E126" s="9"/>
+      <c r="F126" s="9"/>
+      <c r="G126" s="9"/>
+      <c r="H126" s="9"/>
+      <c r="I126" s="9"/>
+      <c r="J126" s="9"/>
+      <c r="K126" s="9"/>
+      <c r="L126" s="9"/>
+      <c r="M126" s="9"/>
+      <c r="N126" s="9"/>
+      <c r="O126" s="9"/>
+      <c r="P126" s="9"/>
+      <c r="Q126" s="9"/>
+      <c r="R126" s="9"/>
+      <c r="S126" s="9"/>
+      <c r="T126" s="9"/>
+      <c r="U126" s="9"/>
+      <c r="V126" s="9"/>
+      <c r="W126" s="9"/>
+      <c r="X126" s="34"/>
+      <c r="Y126" s="34"/>
+      <c r="Z126" s="34"/>
+      <c r="AA126" s="34"/>
+      <c r="AB126" s="34"/>
+      <c r="AC126" s="34"/>
+      <c r="AD126" s="34"/>
+      <c r="AE126" s="34"/>
+      <c r="AF126" s="41"/>
     </row>
     <row r="127" spans="1:32">
-      <c r="A127" s="7"/>
-      <c r="B127" s="8"/>
-      <c r="C127" s="8"/>
-      <c r="D127" s="8"/>
-      <c r="E127" s="8"/>
-      <c r="F127" s="8"/>
-      <c r="G127" s="8"/>
-      <c r="H127" s="8"/>
-      <c r="I127" s="8"/>
-      <c r="J127" s="8"/>
-      <c r="K127" s="8"/>
-      <c r="L127" s="8"/>
-      <c r="M127" s="8"/>
-      <c r="N127" s="8"/>
-      <c r="O127" s="8"/>
-      <c r="P127" s="8"/>
-      <c r="Q127" s="8"/>
-      <c r="R127" s="8"/>
-      <c r="S127" s="8"/>
-      <c r="T127" s="8"/>
-      <c r="U127" s="8"/>
-      <c r="V127" s="8"/>
-      <c r="W127" s="8"/>
-      <c r="X127" s="33"/>
-      <c r="Y127" s="33"/>
-      <c r="Z127" s="33"/>
-      <c r="AA127" s="33"/>
-      <c r="AB127" s="33"/>
-      <c r="AC127" s="33"/>
-      <c r="AD127" s="33"/>
-      <c r="AE127" s="33"/>
-      <c r="AF127" s="33"/>
+      <c r="A127" s="8"/>
+      <c r="B127" s="9"/>
+      <c r="C127" s="9"/>
+      <c r="D127" s="9"/>
+      <c r="E127" s="9"/>
+      <c r="F127" s="9"/>
+      <c r="G127" s="9"/>
+      <c r="H127" s="9"/>
+      <c r="I127" s="9"/>
+      <c r="J127" s="9"/>
+      <c r="K127" s="9"/>
+      <c r="L127" s="9"/>
+      <c r="M127" s="9"/>
+      <c r="N127" s="9"/>
+      <c r="O127" s="9"/>
+      <c r="P127" s="9"/>
+      <c r="Q127" s="9"/>
+      <c r="R127" s="9"/>
+      <c r="S127" s="9"/>
+      <c r="T127" s="9"/>
+      <c r="U127" s="9"/>
+      <c r="V127" s="9"/>
+      <c r="W127" s="9"/>
+      <c r="X127" s="34"/>
+      <c r="Y127" s="34"/>
+      <c r="Z127" s="34"/>
+      <c r="AA127" s="34"/>
+      <c r="AB127" s="34"/>
+      <c r="AC127" s="34"/>
+      <c r="AD127" s="34"/>
+      <c r="AE127" s="34"/>
+      <c r="AF127" s="41"/>
     </row>
     <row r="128" spans="1:32">
-      <c r="A128" s="7"/>
-      <c r="B128" s="8"/>
-      <c r="C128" s="8"/>
-      <c r="D128" s="8"/>
-      <c r="E128" s="8"/>
-      <c r="F128" s="8"/>
-      <c r="G128" s="8"/>
-      <c r="H128" s="8"/>
-      <c r="I128" s="8"/>
-      <c r="J128" s="8"/>
-      <c r="K128" s="8"/>
-      <c r="L128" s="8"/>
-      <c r="M128" s="8"/>
-      <c r="N128" s="8"/>
-      <c r="O128" s="8"/>
-      <c r="P128" s="8"/>
-      <c r="Q128" s="8"/>
-      <c r="R128" s="8"/>
-      <c r="S128" s="8"/>
-      <c r="T128" s="8"/>
-      <c r="U128" s="8"/>
-      <c r="V128" s="8"/>
-      <c r="W128" s="8"/>
-      <c r="X128" s="33"/>
-      <c r="Y128" s="33"/>
-      <c r="Z128" s="33"/>
-      <c r="AA128" s="33"/>
-      <c r="AB128" s="33"/>
-      <c r="AC128" s="33"/>
-      <c r="AD128" s="33"/>
-      <c r="AE128" s="33"/>
-      <c r="AF128" s="33"/>
+      <c r="A128" s="8"/>
+      <c r="B128" s="9"/>
+      <c r="C128" s="9"/>
+      <c r="D128" s="9"/>
+      <c r="E128" s="9"/>
+      <c r="F128" s="9"/>
+      <c r="G128" s="9"/>
+      <c r="H128" s="9"/>
+      <c r="I128" s="9"/>
+      <c r="J128" s="9"/>
+      <c r="K128" s="9"/>
+      <c r="L128" s="9"/>
+      <c r="M128" s="9"/>
+      <c r="N128" s="9"/>
+      <c r="O128" s="9"/>
+      <c r="P128" s="9"/>
+      <c r="Q128" s="9"/>
+      <c r="R128" s="9"/>
+      <c r="S128" s="9"/>
+      <c r="T128" s="9"/>
+      <c r="U128" s="9"/>
+      <c r="V128" s="9"/>
+      <c r="W128" s="9"/>
+      <c r="X128" s="34"/>
+      <c r="Y128" s="34"/>
+      <c r="Z128" s="34"/>
+      <c r="AA128" s="34"/>
+      <c r="AB128" s="34"/>
+      <c r="AC128" s="34"/>
+      <c r="AD128" s="34"/>
+      <c r="AE128" s="34"/>
+      <c r="AF128" s="41"/>
     </row>
     <row r="129" spans="1:32">
-      <c r="A129" s="7"/>
-      <c r="B129" s="8"/>
-      <c r="C129" s="8"/>
-      <c r="D129" s="8"/>
-      <c r="E129" s="8"/>
-      <c r="F129" s="8"/>
-      <c r="G129" s="8"/>
-      <c r="H129" s="8"/>
-      <c r="I129" s="8"/>
-      <c r="J129" s="8"/>
-      <c r="K129" s="8"/>
-      <c r="L129" s="8"/>
-      <c r="M129" s="8"/>
-      <c r="N129" s="8"/>
-      <c r="O129" s="8"/>
-      <c r="P129" s="8"/>
-      <c r="Q129" s="8"/>
-      <c r="R129" s="8"/>
-      <c r="S129" s="8"/>
-      <c r="T129" s="8"/>
-      <c r="U129" s="8"/>
-      <c r="V129" s="8"/>
-      <c r="W129" s="8"/>
-      <c r="X129" s="33"/>
-      <c r="Y129" s="33"/>
-      <c r="Z129" s="33"/>
-      <c r="AA129" s="33"/>
-      <c r="AB129" s="33"/>
-      <c r="AC129" s="33"/>
-      <c r="AD129" s="33"/>
-      <c r="AE129" s="33"/>
-      <c r="AF129" s="33"/>
+      <c r="A129" s="8"/>
+      <c r="B129" s="9"/>
+      <c r="C129" s="9"/>
+      <c r="D129" s="9"/>
+      <c r="E129" s="9"/>
+      <c r="F129" s="9"/>
+      <c r="G129" s="9"/>
+      <c r="H129" s="9"/>
+      <c r="I129" s="9"/>
+      <c r="J129" s="9"/>
+      <c r="K129" s="9"/>
+      <c r="L129" s="9"/>
+      <c r="M129" s="9"/>
+      <c r="N129" s="9"/>
+      <c r="O129" s="9"/>
+      <c r="P129" s="9"/>
+      <c r="Q129" s="9"/>
+      <c r="R129" s="9"/>
+      <c r="S129" s="9"/>
+      <c r="T129" s="9"/>
+      <c r="U129" s="9"/>
+      <c r="V129" s="9"/>
+      <c r="W129" s="9"/>
+      <c r="X129" s="34"/>
+      <c r="Y129" s="34"/>
+      <c r="Z129" s="34"/>
+      <c r="AA129" s="34"/>
+      <c r="AB129" s="34"/>
+      <c r="AC129" s="34"/>
+      <c r="AD129" s="34"/>
+      <c r="AE129" s="34"/>
+      <c r="AF129" s="41"/>
     </row>
     <row r="130" spans="1:32">
-      <c r="A130" s="7"/>
-      <c r="B130" s="8"/>
-      <c r="C130" s="8"/>
-      <c r="D130" s="8"/>
-      <c r="E130" s="8"/>
-      <c r="F130" s="8"/>
-      <c r="G130" s="8"/>
-      <c r="H130" s="8"/>
-      <c r="I130" s="8"/>
-      <c r="J130" s="8"/>
-      <c r="K130" s="8"/>
-      <c r="L130" s="8"/>
-      <c r="M130" s="8"/>
-      <c r="N130" s="8"/>
-      <c r="O130" s="8"/>
-      <c r="P130" s="8"/>
-      <c r="Q130" s="8"/>
-      <c r="R130" s="8"/>
-      <c r="S130" s="8"/>
-      <c r="T130" s="8"/>
-      <c r="U130" s="8"/>
-      <c r="V130" s="8"/>
-      <c r="W130" s="8"/>
-      <c r="X130" s="33"/>
-      <c r="Y130" s="33"/>
-      <c r="Z130" s="33"/>
-      <c r="AA130" s="33"/>
-      <c r="AB130" s="33"/>
-      <c r="AC130" s="33"/>
-      <c r="AD130" s="33"/>
-      <c r="AE130" s="33"/>
-      <c r="AF130" s="33"/>
+      <c r="A130" s="8"/>
+      <c r="B130" s="9"/>
+      <c r="C130" s="9"/>
+      <c r="D130" s="9"/>
+      <c r="E130" s="9"/>
+      <c r="F130" s="9"/>
+      <c r="G130" s="9"/>
+      <c r="H130" s="9"/>
+      <c r="I130" s="9"/>
+      <c r="J130" s="9"/>
+      <c r="K130" s="9"/>
+      <c r="L130" s="9"/>
+      <c r="M130" s="9"/>
+      <c r="N130" s="9"/>
+      <c r="O130" s="9"/>
+      <c r="P130" s="9"/>
+      <c r="Q130" s="9"/>
+      <c r="R130" s="9"/>
+      <c r="S130" s="9"/>
+      <c r="T130" s="9"/>
+      <c r="U130" s="9"/>
+      <c r="V130" s="9"/>
+      <c r="W130" s="9"/>
+      <c r="X130" s="34"/>
+      <c r="Y130" s="34"/>
+      <c r="Z130" s="34"/>
+      <c r="AA130" s="34"/>
+      <c r="AB130" s="34"/>
+      <c r="AC130" s="34"/>
+      <c r="AD130" s="34"/>
+      <c r="AE130" s="34"/>
+      <c r="AF130" s="41"/>
     </row>
     <row r="131" spans="1:32">
-      <c r="A131" s="7"/>
-      <c r="B131" s="8"/>
-      <c r="C131" s="8"/>
-      <c r="D131" s="8"/>
-      <c r="E131" s="8"/>
-      <c r="F131" s="8"/>
-      <c r="G131" s="8"/>
-      <c r="H131" s="8"/>
-      <c r="I131" s="8"/>
-      <c r="J131" s="8"/>
-      <c r="K131" s="8"/>
-      <c r="L131" s="8"/>
-      <c r="M131" s="8"/>
-      <c r="N131" s="8"/>
-      <c r="O131" s="8"/>
-      <c r="P131" s="8"/>
-      <c r="Q131" s="8"/>
-      <c r="R131" s="8"/>
-      <c r="S131" s="8"/>
-      <c r="T131" s="8"/>
-      <c r="U131" s="8"/>
-      <c r="V131" s="8"/>
-      <c r="W131" s="8"/>
-      <c r="X131" s="33"/>
-      <c r="Y131" s="33"/>
-      <c r="Z131" s="33"/>
-      <c r="AA131" s="33"/>
-      <c r="AB131" s="33"/>
-      <c r="AC131" s="33"/>
-      <c r="AD131" s="33"/>
-      <c r="AE131" s="33"/>
-      <c r="AF131" s="33"/>
+      <c r="A131" s="8"/>
+      <c r="B131" s="9"/>
+      <c r="C131" s="9"/>
+      <c r="D131" s="9"/>
+      <c r="E131" s="9"/>
+      <c r="F131" s="9"/>
+      <c r="G131" s="9"/>
+      <c r="H131" s="9"/>
+      <c r="I131" s="9"/>
+      <c r="J131" s="9"/>
+      <c r="K131" s="9"/>
+      <c r="L131" s="9"/>
+      <c r="M131" s="9"/>
+      <c r="N131" s="9"/>
+      <c r="O131" s="9"/>
+      <c r="P131" s="9"/>
+      <c r="Q131" s="9"/>
+      <c r="R131" s="9"/>
+      <c r="S131" s="9"/>
+      <c r="T131" s="9"/>
+      <c r="U131" s="9"/>
+      <c r="V131" s="9"/>
+      <c r="W131" s="9"/>
+      <c r="X131" s="34"/>
+      <c r="Y131" s="34"/>
+      <c r="Z131" s="34"/>
+      <c r="AA131" s="34"/>
+      <c r="AB131" s="34"/>
+      <c r="AC131" s="34"/>
+      <c r="AD131" s="34"/>
+      <c r="AE131" s="34"/>
+      <c r="AF131" s="41"/>
     </row>
     <row r="132" spans="1:32">
-      <c r="A132" s="7"/>
-      <c r="B132" s="8"/>
-      <c r="C132" s="8"/>
-      <c r="D132" s="8"/>
-      <c r="E132" s="8"/>
-      <c r="F132" s="8"/>
-      <c r="G132" s="8"/>
-      <c r="H132" s="8"/>
-      <c r="I132" s="8"/>
-      <c r="J132" s="8"/>
-      <c r="K132" s="8"/>
-      <c r="L132" s="8"/>
-      <c r="M132" s="8"/>
-      <c r="N132" s="8"/>
-      <c r="O132" s="8"/>
-      <c r="P132" s="8"/>
-      <c r="Q132" s="8"/>
-      <c r="R132" s="8"/>
-      <c r="S132" s="8"/>
-      <c r="T132" s="8"/>
-      <c r="U132" s="8"/>
-      <c r="V132" s="8"/>
-      <c r="W132" s="8"/>
-      <c r="X132" s="33"/>
-      <c r="Y132" s="33"/>
-      <c r="Z132" s="33"/>
-      <c r="AA132" s="33"/>
-      <c r="AB132" s="33"/>
-      <c r="AC132" s="33"/>
-      <c r="AD132" s="33"/>
-      <c r="AE132" s="33"/>
-      <c r="AF132" s="33"/>
+      <c r="A132" s="8"/>
+      <c r="B132" s="9"/>
+      <c r="C132" s="9"/>
+      <c r="D132" s="9"/>
+      <c r="E132" s="9"/>
+      <c r="F132" s="9"/>
+      <c r="G132" s="9"/>
+      <c r="H132" s="9"/>
+      <c r="I132" s="9"/>
+      <c r="J132" s="9"/>
+      <c r="K132" s="9"/>
+      <c r="L132" s="9"/>
+      <c r="M132" s="9"/>
+      <c r="N132" s="9"/>
+      <c r="O132" s="9"/>
+      <c r="P132" s="9"/>
+      <c r="Q132" s="9"/>
+      <c r="R132" s="9"/>
+      <c r="S132" s="9"/>
+      <c r="T132" s="9"/>
+      <c r="U132" s="9"/>
+      <c r="V132" s="9"/>
+      <c r="W132" s="9"/>
+      <c r="X132" s="34"/>
+      <c r="Y132" s="34"/>
+      <c r="Z132" s="34"/>
+      <c r="AA132" s="34"/>
+      <c r="AB132" s="34"/>
+      <c r="AC132" s="34"/>
+      <c r="AD132" s="34"/>
+      <c r="AE132" s="34"/>
+      <c r="AF132" s="41"/>
     </row>
     <row r="133" spans="1:23">
       <c r="A133" s="1"/>
@@ -16108,7 +16218,7 @@
       <c r="W503" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="38">
+  <mergeCells count="39">
     <mergeCell ref="V1:AE1"/>
     <mergeCell ref="V2:AC2"/>
     <mergeCell ref="AD2:AE2"/>
@@ -16145,6 +16255,7 @@
     <mergeCell ref="AD4:AD5"/>
     <mergeCell ref="AE4:AE5"/>
     <mergeCell ref="AF1:AF5"/>
+    <mergeCell ref="AG1:AG5"/>
     <mergeCell ref="B1:M3"/>
     <mergeCell ref="N1:T2"/>
   </mergeCells>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/同仁堂.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/同仁堂.xlsx
@@ -233,12 +233,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -279,7 +279,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -294,15 +294,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -323,31 +322,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -369,10 +376,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -384,23 +391,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -408,15 +401,22 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -547,7 +547,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -559,19 +601,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -583,31 +649,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -619,73 +691,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -697,25 +715,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -783,6 +783,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -813,26 +831,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -844,24 +842,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -880,157 +860,177 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="43" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="42" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1049,10 +1049,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1130,16 +1130,13 @@
     <xf numFmtId="49" fontId="4" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2996,11 +2993,11 @@
   <dimension ref="A1:AG503"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AB2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AG6" sqref="AG6:AG13"/>
+      <selection pane="bottomRight" activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -3075,10 +3072,10 @@
       <c r="AC1" s="27"/>
       <c r="AD1" s="27"/>
       <c r="AE1" s="27"/>
-      <c r="AF1" s="38" t="s">
+      <c r="AF1" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="AG1" s="42" t="s">
+      <c r="AG1" s="41" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3114,12 +3111,12 @@
       <c r="AA2" s="29"/>
       <c r="AB2" s="29"/>
       <c r="AC2" s="29"/>
-      <c r="AD2" s="39" t="s">
+      <c r="AD2" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="AE2" s="39"/>
-      <c r="AF2" s="38"/>
-      <c r="AG2" s="42"/>
+      <c r="AE2" s="38"/>
+      <c r="AF2" s="37"/>
+      <c r="AG2" s="41"/>
     </row>
     <row r="3" spans="1:33">
       <c r="A3" s="3"/>
@@ -3155,10 +3152,10 @@
       <c r="AA3" s="29"/>
       <c r="AB3" s="29"/>
       <c r="AC3" s="29"/>
-      <c r="AD3" s="39"/>
-      <c r="AE3" s="39"/>
-      <c r="AF3" s="38"/>
-      <c r="AG3" s="42"/>
+      <c r="AD3" s="38"/>
+      <c r="AE3" s="38"/>
+      <c r="AF3" s="37"/>
+      <c r="AG3" s="41"/>
     </row>
     <row r="4" spans="1:33">
       <c r="A4" s="3"/>
@@ -3230,26 +3227,26 @@
         <v>32</v>
       </c>
       <c r="Y4" s="29"/>
-      <c r="Z4" s="37" t="s">
+      <c r="Z4" s="36" t="s">
         <v>33</v>
       </c>
       <c r="AA4" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="AB4" s="37" t="s">
+      <c r="AB4" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="AC4" s="37" t="s">
+      <c r="AC4" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="AD4" s="39" t="s">
+      <c r="AD4" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="AE4" s="40" t="s">
+      <c r="AE4" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="AF4" s="38"/>
-      <c r="AG4" s="42"/>
+      <c r="AF4" s="37"/>
+      <c r="AG4" s="41"/>
     </row>
     <row r="5" ht="56" customHeight="1" spans="1:33">
       <c r="A5" s="3"/>
@@ -3285,10 +3282,10 @@
       <c r="AA5" s="29"/>
       <c r="AB5" s="29"/>
       <c r="AC5" s="29"/>
-      <c r="AD5" s="39"/>
-      <c r="AE5" s="39"/>
-      <c r="AF5" s="38"/>
-      <c r="AG5" s="42"/>
+      <c r="AD5" s="38"/>
+      <c r="AE5" s="38"/>
+      <c r="AF5" s="37"/>
+      <c r="AG5" s="41"/>
     </row>
     <row r="6" ht="18" spans="1:33">
       <c r="A6" s="6">
@@ -3358,15 +3355,15 @@
       </c>
       <c r="V6" s="32"/>
       <c r="W6" s="33"/>
-      <c r="X6" s="34"/>
-      <c r="Y6" s="34"/>
-      <c r="Z6" s="34"/>
-      <c r="AA6" s="34"/>
-      <c r="AB6" s="34"/>
-      <c r="AC6" s="34"/>
-      <c r="AD6" s="34"/>
-      <c r="AE6" s="34"/>
-      <c r="AF6" s="41">
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="2"/>
+      <c r="AD6" s="2"/>
+      <c r="AE6" s="2"/>
+      <c r="AF6" s="40">
         <v>32.53</v>
       </c>
       <c r="AG6" s="2">
@@ -3403,7 +3400,7 @@
         <v>1</v>
       </c>
       <c r="J7" s="17">
-        <f t="shared" ref="J7:J12" si="0">(B7-B6)/B6</f>
+        <f t="shared" ref="J7:J13" si="0">(B7-B6)/B6</f>
         <v>-0.0227014755959139</v>
       </c>
       <c r="K7" s="15">
@@ -3411,15 +3408,15 @@
         <v>0.0210495108212274</v>
       </c>
       <c r="L7" s="16">
-        <f t="shared" ref="L7:L12" si="1">I7/(ROW()-5)</f>
+        <f t="shared" ref="L7:L13" si="1">I7/(ROW()-5)</f>
         <v>0.5</v>
       </c>
       <c r="M7" s="22" t="str">
-        <f t="shared" ref="M7:M12" si="2">IF(B7&gt;=(D7-(D7-E7)/2),"上部","下部")</f>
+        <f t="shared" ref="M7:M13" si="2">IF(B7&gt;=(D7-(D7-E7)/2),"上部","下部")</f>
         <v>下部</v>
       </c>
       <c r="N7" s="9" t="str">
-        <f t="shared" ref="N7:N12" si="3">IF(B7&lt;F7,"是","否")</f>
+        <f t="shared" ref="N7:N13" si="3">IF(B7&lt;F7,"是","否")</f>
         <v>否</v>
       </c>
       <c r="O7" s="9" t="s">
@@ -3434,8 +3431,8 @@
       <c r="R7" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="S7" s="9" t="str">
-        <f t="shared" ref="S7:S13" si="4">IF(I6/(ROW()-5)&gt;=0.5,"是","否")</f>
+      <c r="S7" s="22" t="str">
+        <f>IF(I7/(ROW()-5)&gt;=0.5,"是","否")</f>
         <v>是</v>
       </c>
       <c r="T7" s="22" t="s">
@@ -3444,17 +3441,17 @@
       <c r="U7" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="V7" s="35"/>
-      <c r="W7" s="36"/>
-      <c r="X7" s="34"/>
-      <c r="Y7" s="34"/>
-      <c r="Z7" s="34"/>
-      <c r="AA7" s="34"/>
-      <c r="AB7" s="34"/>
-      <c r="AC7" s="34"/>
-      <c r="AD7" s="34"/>
-      <c r="AE7" s="34"/>
-      <c r="AF7" s="41">
+      <c r="V7" s="34"/>
+      <c r="W7" s="35"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="2"/>
+      <c r="AE7" s="2"/>
+      <c r="AF7" s="40">
         <f>IF(G7-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10005,48,FALSE)&gt;0,G7,AF6)</f>
         <v>32.53</v>
       </c>
@@ -3523,9 +3520,9 @@
       <c r="R8" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="S8" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>否</v>
+      <c r="S8" s="22" t="str">
+        <f t="shared" ref="S8:S13" si="4">IF(I8/(ROW()-5)&gt;=0.5,"是","否")</f>
+        <v>是</v>
       </c>
       <c r="T8" s="22" t="s">
         <v>43</v>
@@ -3533,17 +3530,17 @@
       <c r="U8" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="V8" s="35"/>
-      <c r="W8" s="36"/>
-      <c r="X8" s="34"/>
-      <c r="Y8" s="34"/>
-      <c r="Z8" s="34"/>
-      <c r="AA8" s="34"/>
-      <c r="AB8" s="34"/>
-      <c r="AC8" s="34"/>
-      <c r="AD8" s="34"/>
-      <c r="AE8" s="34"/>
-      <c r="AF8" s="41">
+      <c r="V8" s="34"/>
+      <c r="W8" s="35"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="2"/>
+      <c r="AE8" s="2"/>
+      <c r="AF8" s="40">
         <f>IF(G8-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10006,48,FALSE)&gt;0,G8,AF7)</f>
         <v>32.53</v>
       </c>
@@ -3612,7 +3609,7 @@
       <c r="R9" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="S9" s="9" t="str">
+      <c r="S9" s="22" t="str">
         <f t="shared" si="4"/>
         <v>是</v>
       </c>
@@ -3622,17 +3619,17 @@
       <c r="U9" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="V9" s="35"/>
-      <c r="W9" s="36"/>
-      <c r="X9" s="34"/>
-      <c r="Y9" s="34"/>
-      <c r="Z9" s="34"/>
-      <c r="AA9" s="34"/>
-      <c r="AB9" s="34"/>
-      <c r="AC9" s="34"/>
-      <c r="AD9" s="34"/>
-      <c r="AE9" s="34"/>
-      <c r="AF9" s="41">
+      <c r="V9" s="34"/>
+      <c r="W9" s="35"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="2"/>
+      <c r="AD9" s="2"/>
+      <c r="AE9" s="2"/>
+      <c r="AF9" s="40">
         <f>IF(G9-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10007,48,FALSE)&gt;0,G9,AF8)</f>
         <v>32.53</v>
       </c>
@@ -3713,15 +3710,15 @@
       </c>
       <c r="V10" s="9"/>
       <c r="W10" s="7"/>
-      <c r="X10" s="34"/>
-      <c r="Y10" s="34"/>
-      <c r="Z10" s="34"/>
-      <c r="AA10" s="34"/>
-      <c r="AB10" s="34"/>
-      <c r="AC10" s="34"/>
-      <c r="AD10" s="34"/>
-      <c r="AE10" s="34"/>
-      <c r="AF10" s="41">
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="2"/>
+      <c r="AC10" s="2"/>
+      <c r="AD10" s="2"/>
+      <c r="AE10" s="2"/>
+      <c r="AF10" s="40">
         <f>IF(G10-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10008,48,FALSE)&gt;0,G10,AF9)</f>
         <v>32.53</v>
       </c>
@@ -3790,9 +3787,9 @@
       <c r="R11" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="S11" s="9" t="str">
+      <c r="S11" s="22" t="str">
         <f t="shared" si="4"/>
-        <v>否</v>
+        <v>是</v>
       </c>
       <c r="T11" s="22" t="s">
         <v>43</v>
@@ -3802,15 +3799,15 @@
       </c>
       <c r="V11" s="9"/>
       <c r="W11" s="7"/>
-      <c r="X11" s="34"/>
-      <c r="Y11" s="34"/>
-      <c r="Z11" s="34"/>
-      <c r="AA11" s="34"/>
-      <c r="AB11" s="34"/>
-      <c r="AC11" s="34"/>
-      <c r="AD11" s="34"/>
-      <c r="AE11" s="34"/>
-      <c r="AF11" s="41">
+      <c r="X11" s="2"/>
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="2"/>
+      <c r="AA11" s="2"/>
+      <c r="AB11" s="2"/>
+      <c r="AC11" s="2"/>
+      <c r="AD11" s="2"/>
+      <c r="AE11" s="2"/>
+      <c r="AF11" s="40">
         <f>IF(G11-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10009,48,FALSE)&gt;0,G11,AF10)</f>
         <v>33.78</v>
       </c>
@@ -3879,9 +3876,9 @@
       <c r="R12" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="S12" s="9" t="str">
+      <c r="S12" s="22" t="str">
         <f t="shared" si="4"/>
-        <v>否</v>
+        <v>是</v>
       </c>
       <c r="T12" s="22" t="s">
         <v>43</v>
@@ -3891,15 +3888,15 @@
       </c>
       <c r="V12" s="9"/>
       <c r="W12" s="7"/>
-      <c r="X12" s="34"/>
-      <c r="Y12" s="34"/>
-      <c r="Z12" s="34"/>
-      <c r="AA12" s="34"/>
-      <c r="AB12" s="34"/>
-      <c r="AC12" s="34"/>
-      <c r="AD12" s="34"/>
-      <c r="AE12" s="34"/>
-      <c r="AF12" s="41">
+      <c r="X12" s="2"/>
+      <c r="Y12" s="2"/>
+      <c r="Z12" s="2"/>
+      <c r="AA12" s="2"/>
+      <c r="AB12" s="2"/>
+      <c r="AC12" s="2"/>
+      <c r="AD12" s="2"/>
+      <c r="AE12" s="2"/>
+      <c r="AF12" s="40">
         <f>IF(G12-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10010,48,FALSE)&gt;0,G12,AF11)</f>
         <v>33.91</v>
       </c>
@@ -3937,7 +3934,7 @@
         <v>4</v>
       </c>
       <c r="J13" s="17">
-        <f>(B13-B12)/B12</f>
+        <f t="shared" si="0"/>
         <v>-0.0083535435192671</v>
       </c>
       <c r="K13" s="15">
@@ -3945,15 +3942,15 @@
         <v>0.0910168989030537</v>
       </c>
       <c r="L13" s="16">
-        <f>I13/(ROW()-5)</f>
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="M13" s="22" t="str">
-        <f>IF(B13&gt;=(D13-(D13-E13)/2),"上部","下部")</f>
+        <f t="shared" si="2"/>
         <v>下部</v>
       </c>
       <c r="N13" s="9" t="str">
-        <f>IF(B13&lt;F13,"是","否")</f>
+        <f t="shared" si="3"/>
         <v>否</v>
       </c>
       <c r="O13" s="9" t="s">
@@ -3968,7 +3965,7 @@
       <c r="R13" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="S13" s="9" t="str">
+      <c r="S13" s="22" t="str">
         <f t="shared" si="4"/>
         <v>是</v>
       </c>
@@ -3980,15 +3977,15 @@
       </c>
       <c r="V13" s="9"/>
       <c r="W13" s="7"/>
-      <c r="X13" s="34"/>
-      <c r="Y13" s="34"/>
-      <c r="Z13" s="34"/>
-      <c r="AA13" s="34"/>
-      <c r="AB13" s="34"/>
-      <c r="AC13" s="34"/>
-      <c r="AD13" s="34"/>
-      <c r="AE13" s="34"/>
-      <c r="AF13" s="41">
+      <c r="X13" s="2"/>
+      <c r="Y13" s="2"/>
+      <c r="Z13" s="2"/>
+      <c r="AA13" s="2"/>
+      <c r="AB13" s="2"/>
+      <c r="AC13" s="2"/>
+      <c r="AD13" s="2"/>
+      <c r="AE13" s="2"/>
+      <c r="AF13" s="40">
         <f>IF(G13-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10011,48,FALSE)&gt;0,G13,AF12)</f>
         <v>34.02</v>
       </c>
@@ -4023,15 +4020,15 @@
       <c r="U14" s="9"/>
       <c r="V14" s="9"/>
       <c r="W14" s="7"/>
-      <c r="X14" s="34"/>
-      <c r="Y14" s="34"/>
-      <c r="Z14" s="34"/>
-      <c r="AA14" s="34"/>
-      <c r="AB14" s="34"/>
-      <c r="AC14" s="34"/>
-      <c r="AD14" s="34"/>
-      <c r="AE14" s="34"/>
-      <c r="AF14" s="41"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="2"/>
+      <c r="Z14" s="2"/>
+      <c r="AA14" s="2"/>
+      <c r="AB14" s="2"/>
+      <c r="AC14" s="2"/>
+      <c r="AD14" s="2"/>
+      <c r="AE14" s="2"/>
+      <c r="AF14" s="40"/>
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="8">
@@ -4059,15 +4056,15 @@
       <c r="U15" s="9"/>
       <c r="V15" s="9"/>
       <c r="W15" s="7"/>
-      <c r="X15" s="34"/>
-      <c r="Y15" s="34"/>
-      <c r="Z15" s="34"/>
-      <c r="AA15" s="34"/>
-      <c r="AB15" s="34"/>
-      <c r="AC15" s="34"/>
-      <c r="AD15" s="34"/>
-      <c r="AE15" s="34"/>
-      <c r="AF15" s="41"/>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="2"/>
+      <c r="Z15" s="2"/>
+      <c r="AA15" s="2"/>
+      <c r="AB15" s="2"/>
+      <c r="AC15" s="2"/>
+      <c r="AD15" s="2"/>
+      <c r="AE15" s="2"/>
+      <c r="AF15" s="40"/>
     </row>
     <row r="16" spans="1:32">
       <c r="A16" s="8">
@@ -4095,15 +4092,15 @@
       <c r="U16" s="9"/>
       <c r="V16" s="9"/>
       <c r="W16" s="7"/>
-      <c r="X16" s="34"/>
-      <c r="Y16" s="34"/>
-      <c r="Z16" s="34"/>
-      <c r="AA16" s="34"/>
-      <c r="AB16" s="34"/>
-      <c r="AC16" s="34"/>
-      <c r="AD16" s="34"/>
-      <c r="AE16" s="34"/>
-      <c r="AF16" s="41"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="2"/>
+      <c r="AA16" s="2"/>
+      <c r="AB16" s="2"/>
+      <c r="AC16" s="2"/>
+      <c r="AD16" s="2"/>
+      <c r="AE16" s="2"/>
+      <c r="AF16" s="40"/>
     </row>
     <row r="17" spans="1:32">
       <c r="A17" s="8">
@@ -4131,15 +4128,15 @@
       <c r="U17" s="9"/>
       <c r="V17" s="9"/>
       <c r="W17" s="7"/>
-      <c r="X17" s="34"/>
-      <c r="Y17" s="34"/>
-      <c r="Z17" s="34"/>
-      <c r="AA17" s="34"/>
-      <c r="AB17" s="34"/>
-      <c r="AC17" s="34"/>
-      <c r="AD17" s="34"/>
-      <c r="AE17" s="34"/>
-      <c r="AF17" s="41"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="2"/>
+      <c r="AA17" s="2"/>
+      <c r="AB17" s="2"/>
+      <c r="AC17" s="2"/>
+      <c r="AD17" s="2"/>
+      <c r="AE17" s="2"/>
+      <c r="AF17" s="40"/>
     </row>
     <row r="18" spans="1:32">
       <c r="A18" s="8">
@@ -4167,15 +4164,15 @@
       <c r="U18" s="9"/>
       <c r="V18" s="9"/>
       <c r="W18" s="7"/>
-      <c r="X18" s="34"/>
-      <c r="Y18" s="34"/>
-      <c r="Z18" s="34"/>
-      <c r="AA18" s="34"/>
-      <c r="AB18" s="34"/>
-      <c r="AC18" s="34"/>
-      <c r="AD18" s="34"/>
-      <c r="AE18" s="34"/>
-      <c r="AF18" s="41"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="2"/>
+      <c r="Z18" s="2"/>
+      <c r="AA18" s="2"/>
+      <c r="AB18" s="2"/>
+      <c r="AC18" s="2"/>
+      <c r="AD18" s="2"/>
+      <c r="AE18" s="2"/>
+      <c r="AF18" s="40"/>
     </row>
     <row r="19" spans="1:32">
       <c r="A19" s="8">
@@ -4203,15 +4200,15 @@
       <c r="U19" s="9"/>
       <c r="V19" s="9"/>
       <c r="W19" s="7"/>
-      <c r="X19" s="34"/>
-      <c r="Y19" s="34"/>
-      <c r="Z19" s="34"/>
-      <c r="AA19" s="34"/>
-      <c r="AB19" s="34"/>
-      <c r="AC19" s="34"/>
-      <c r="AD19" s="34"/>
-      <c r="AE19" s="34"/>
-      <c r="AF19" s="41"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="2"/>
+      <c r="AA19" s="2"/>
+      <c r="AB19" s="2"/>
+      <c r="AC19" s="2"/>
+      <c r="AD19" s="2"/>
+      <c r="AE19" s="2"/>
+      <c r="AF19" s="40"/>
     </row>
     <row r="20" spans="1:32">
       <c r="A20" s="8"/>
@@ -4237,15 +4234,15 @@
       <c r="U20" s="9"/>
       <c r="V20" s="9"/>
       <c r="W20" s="7"/>
-      <c r="X20" s="34"/>
-      <c r="Y20" s="34"/>
-      <c r="Z20" s="34"/>
-      <c r="AA20" s="34"/>
-      <c r="AB20" s="34"/>
-      <c r="AC20" s="34"/>
-      <c r="AD20" s="34"/>
-      <c r="AE20" s="34"/>
-      <c r="AF20" s="41"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="2"/>
+      <c r="AA20" s="2"/>
+      <c r="AB20" s="2"/>
+      <c r="AC20" s="2"/>
+      <c r="AD20" s="2"/>
+      <c r="AE20" s="2"/>
+      <c r="AF20" s="40"/>
     </row>
     <row r="21" spans="1:32">
       <c r="A21" s="8"/>
@@ -4271,15 +4268,15 @@
       <c r="U21" s="9"/>
       <c r="V21" s="9"/>
       <c r="W21" s="7"/>
-      <c r="X21" s="34"/>
-      <c r="Y21" s="34"/>
-      <c r="Z21" s="34"/>
-      <c r="AA21" s="34"/>
-      <c r="AB21" s="34"/>
-      <c r="AC21" s="34"/>
-      <c r="AD21" s="34"/>
-      <c r="AE21" s="34"/>
-      <c r="AF21" s="41"/>
+      <c r="X21" s="2"/>
+      <c r="Y21" s="2"/>
+      <c r="Z21" s="2"/>
+      <c r="AA21" s="2"/>
+      <c r="AB21" s="2"/>
+      <c r="AC21" s="2"/>
+      <c r="AD21" s="2"/>
+      <c r="AE21" s="2"/>
+      <c r="AF21" s="40"/>
     </row>
     <row r="22" spans="1:32">
       <c r="A22" s="8"/>
@@ -4305,15 +4302,15 @@
       <c r="U22" s="9"/>
       <c r="V22" s="9"/>
       <c r="W22" s="7"/>
-      <c r="X22" s="34"/>
-      <c r="Y22" s="34"/>
-      <c r="Z22" s="34"/>
-      <c r="AA22" s="34"/>
-      <c r="AB22" s="34"/>
-      <c r="AC22" s="34"/>
-      <c r="AD22" s="34"/>
-      <c r="AE22" s="34"/>
-      <c r="AF22" s="41"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="2"/>
+      <c r="AA22" s="2"/>
+      <c r="AB22" s="2"/>
+      <c r="AC22" s="2"/>
+      <c r="AD22" s="2"/>
+      <c r="AE22" s="2"/>
+      <c r="AF22" s="40"/>
     </row>
     <row r="23" spans="1:32">
       <c r="A23" s="8"/>
@@ -4339,15 +4336,15 @@
       <c r="U23" s="9"/>
       <c r="V23" s="9"/>
       <c r="W23" s="7"/>
-      <c r="X23" s="34"/>
-      <c r="Y23" s="34"/>
-      <c r="Z23" s="34"/>
-      <c r="AA23" s="34"/>
-      <c r="AB23" s="34"/>
-      <c r="AC23" s="34"/>
-      <c r="AD23" s="34"/>
-      <c r="AE23" s="34"/>
-      <c r="AF23" s="41"/>
+      <c r="X23" s="2"/>
+      <c r="Y23" s="2"/>
+      <c r="Z23" s="2"/>
+      <c r="AA23" s="2"/>
+      <c r="AB23" s="2"/>
+      <c r="AC23" s="2"/>
+      <c r="AD23" s="2"/>
+      <c r="AE23" s="2"/>
+      <c r="AF23" s="40"/>
     </row>
     <row r="24" spans="1:32">
       <c r="A24" s="8"/>
@@ -4373,15 +4370,15 @@
       <c r="U24" s="9"/>
       <c r="V24" s="9"/>
       <c r="W24" s="7"/>
-      <c r="X24" s="34"/>
-      <c r="Y24" s="34"/>
-      <c r="Z24" s="34"/>
-      <c r="AA24" s="34"/>
-      <c r="AB24" s="34"/>
-      <c r="AC24" s="34"/>
-      <c r="AD24" s="34"/>
-      <c r="AE24" s="34"/>
-      <c r="AF24" s="41"/>
+      <c r="X24" s="2"/>
+      <c r="Y24" s="2"/>
+      <c r="Z24" s="2"/>
+      <c r="AA24" s="2"/>
+      <c r="AB24" s="2"/>
+      <c r="AC24" s="2"/>
+      <c r="AD24" s="2"/>
+      <c r="AE24" s="2"/>
+      <c r="AF24" s="40"/>
     </row>
     <row r="25" spans="1:32">
       <c r="A25" s="8"/>
@@ -4407,15 +4404,15 @@
       <c r="U25" s="9"/>
       <c r="V25" s="9"/>
       <c r="W25" s="7"/>
-      <c r="X25" s="34"/>
-      <c r="Y25" s="34"/>
-      <c r="Z25" s="34"/>
-      <c r="AA25" s="34"/>
-      <c r="AB25" s="34"/>
-      <c r="AC25" s="34"/>
-      <c r="AD25" s="34"/>
-      <c r="AE25" s="34"/>
-      <c r="AF25" s="41"/>
+      <c r="X25" s="2"/>
+      <c r="Y25" s="2"/>
+      <c r="Z25" s="2"/>
+      <c r="AA25" s="2"/>
+      <c r="AB25" s="2"/>
+      <c r="AC25" s="2"/>
+      <c r="AD25" s="2"/>
+      <c r="AE25" s="2"/>
+      <c r="AF25" s="40"/>
     </row>
     <row r="26" spans="1:32">
       <c r="A26" s="8"/>
@@ -4441,15 +4438,15 @@
       <c r="U26" s="9"/>
       <c r="V26" s="9"/>
       <c r="W26" s="7"/>
-      <c r="X26" s="34"/>
-      <c r="Y26" s="34"/>
-      <c r="Z26" s="34"/>
-      <c r="AA26" s="34"/>
-      <c r="AB26" s="34"/>
-      <c r="AC26" s="34"/>
-      <c r="AD26" s="34"/>
-      <c r="AE26" s="34"/>
-      <c r="AF26" s="41"/>
+      <c r="X26" s="2"/>
+      <c r="Y26" s="2"/>
+      <c r="Z26" s="2"/>
+      <c r="AA26" s="2"/>
+      <c r="AB26" s="2"/>
+      <c r="AC26" s="2"/>
+      <c r="AD26" s="2"/>
+      <c r="AE26" s="2"/>
+      <c r="AF26" s="40"/>
     </row>
     <row r="27" spans="1:32">
       <c r="A27" s="8"/>
@@ -4475,15 +4472,15 @@
       <c r="U27" s="9"/>
       <c r="V27" s="9"/>
       <c r="W27" s="7"/>
-      <c r="X27" s="34"/>
-      <c r="Y27" s="34"/>
-      <c r="Z27" s="34"/>
-      <c r="AA27" s="34"/>
-      <c r="AB27" s="34"/>
-      <c r="AC27" s="34"/>
-      <c r="AD27" s="34"/>
-      <c r="AE27" s="34"/>
-      <c r="AF27" s="41"/>
+      <c r="X27" s="2"/>
+      <c r="Y27" s="2"/>
+      <c r="Z27" s="2"/>
+      <c r="AA27" s="2"/>
+      <c r="AB27" s="2"/>
+      <c r="AC27" s="2"/>
+      <c r="AD27" s="2"/>
+      <c r="AE27" s="2"/>
+      <c r="AF27" s="40"/>
     </row>
     <row r="28" spans="1:32">
       <c r="A28" s="8"/>
@@ -4509,15 +4506,15 @@
       <c r="U28" s="9"/>
       <c r="V28" s="9"/>
       <c r="W28" s="9"/>
-      <c r="X28" s="34"/>
-      <c r="Y28" s="34"/>
-      <c r="Z28" s="34"/>
-      <c r="AA28" s="34"/>
-      <c r="AB28" s="34"/>
-      <c r="AC28" s="34"/>
-      <c r="AD28" s="34"/>
-      <c r="AE28" s="34"/>
-      <c r="AF28" s="41"/>
+      <c r="X28" s="2"/>
+      <c r="Y28" s="2"/>
+      <c r="Z28" s="2"/>
+      <c r="AA28" s="2"/>
+      <c r="AB28" s="2"/>
+      <c r="AC28" s="2"/>
+      <c r="AD28" s="2"/>
+      <c r="AE28" s="2"/>
+      <c r="AF28" s="40"/>
     </row>
     <row r="29" spans="1:32">
       <c r="A29" s="8"/>
@@ -4543,15 +4540,15 @@
       <c r="U29" s="9"/>
       <c r="V29" s="9"/>
       <c r="W29" s="9"/>
-      <c r="X29" s="34"/>
-      <c r="Y29" s="34"/>
-      <c r="Z29" s="34"/>
-      <c r="AA29" s="34"/>
-      <c r="AB29" s="34"/>
-      <c r="AC29" s="34"/>
-      <c r="AD29" s="34"/>
-      <c r="AE29" s="34"/>
-      <c r="AF29" s="41"/>
+      <c r="X29" s="2"/>
+      <c r="Y29" s="2"/>
+      <c r="Z29" s="2"/>
+      <c r="AA29" s="2"/>
+      <c r="AB29" s="2"/>
+      <c r="AC29" s="2"/>
+      <c r="AD29" s="2"/>
+      <c r="AE29" s="2"/>
+      <c r="AF29" s="40"/>
     </row>
     <row r="30" spans="1:32">
       <c r="A30" s="8"/>
@@ -4577,15 +4574,15 @@
       <c r="U30" s="9"/>
       <c r="V30" s="9"/>
       <c r="W30" s="9"/>
-      <c r="X30" s="34"/>
-      <c r="Y30" s="34"/>
-      <c r="Z30" s="34"/>
-      <c r="AA30" s="34"/>
-      <c r="AB30" s="34"/>
-      <c r="AC30" s="34"/>
-      <c r="AD30" s="34"/>
-      <c r="AE30" s="34"/>
-      <c r="AF30" s="41"/>
+      <c r="X30" s="2"/>
+      <c r="Y30" s="2"/>
+      <c r="Z30" s="2"/>
+      <c r="AA30" s="2"/>
+      <c r="AB30" s="2"/>
+      <c r="AC30" s="2"/>
+      <c r="AD30" s="2"/>
+      <c r="AE30" s="2"/>
+      <c r="AF30" s="40"/>
     </row>
     <row r="31" spans="1:32">
       <c r="A31" s="8"/>
@@ -4611,15 +4608,15 @@
       <c r="U31" s="9"/>
       <c r="V31" s="9"/>
       <c r="W31" s="9"/>
-      <c r="X31" s="34"/>
-      <c r="Y31" s="34"/>
-      <c r="Z31" s="34"/>
-      <c r="AA31" s="34"/>
-      <c r="AB31" s="34"/>
-      <c r="AC31" s="34"/>
-      <c r="AD31" s="34"/>
-      <c r="AE31" s="34"/>
-      <c r="AF31" s="41"/>
+      <c r="X31" s="2"/>
+      <c r="Y31" s="2"/>
+      <c r="Z31" s="2"/>
+      <c r="AA31" s="2"/>
+      <c r="AB31" s="2"/>
+      <c r="AC31" s="2"/>
+      <c r="AD31" s="2"/>
+      <c r="AE31" s="2"/>
+      <c r="AF31" s="40"/>
     </row>
     <row r="32" spans="1:32">
       <c r="A32" s="8"/>
@@ -4645,15 +4642,15 @@
       <c r="U32" s="9"/>
       <c r="V32" s="9"/>
       <c r="W32" s="9"/>
-      <c r="X32" s="34"/>
-      <c r="Y32" s="34"/>
-      <c r="Z32" s="34"/>
-      <c r="AA32" s="34"/>
-      <c r="AB32" s="34"/>
-      <c r="AC32" s="34"/>
-      <c r="AD32" s="34"/>
-      <c r="AE32" s="34"/>
-      <c r="AF32" s="41"/>
+      <c r="X32" s="2"/>
+      <c r="Y32" s="2"/>
+      <c r="Z32" s="2"/>
+      <c r="AA32" s="2"/>
+      <c r="AB32" s="2"/>
+      <c r="AC32" s="2"/>
+      <c r="AD32" s="2"/>
+      <c r="AE32" s="2"/>
+      <c r="AF32" s="40"/>
     </row>
     <row r="33" spans="1:32">
       <c r="A33" s="8"/>
@@ -4679,15 +4676,15 @@
       <c r="U33" s="9"/>
       <c r="V33" s="9"/>
       <c r="W33" s="9"/>
-      <c r="X33" s="34"/>
-      <c r="Y33" s="34"/>
-      <c r="Z33" s="34"/>
-      <c r="AA33" s="34"/>
-      <c r="AB33" s="34"/>
-      <c r="AC33" s="34"/>
-      <c r="AD33" s="34"/>
-      <c r="AE33" s="34"/>
-      <c r="AF33" s="41"/>
+      <c r="X33" s="2"/>
+      <c r="Y33" s="2"/>
+      <c r="Z33" s="2"/>
+      <c r="AA33" s="2"/>
+      <c r="AB33" s="2"/>
+      <c r="AC33" s="2"/>
+      <c r="AD33" s="2"/>
+      <c r="AE33" s="2"/>
+      <c r="AF33" s="40"/>
     </row>
     <row r="34" spans="1:32">
       <c r="A34" s="8"/>
@@ -4713,15 +4710,15 @@
       <c r="U34" s="9"/>
       <c r="V34" s="9"/>
       <c r="W34" s="9"/>
-      <c r="X34" s="34"/>
-      <c r="Y34" s="34"/>
-      <c r="Z34" s="34"/>
-      <c r="AA34" s="34"/>
-      <c r="AB34" s="34"/>
-      <c r="AC34" s="34"/>
-      <c r="AD34" s="34"/>
-      <c r="AE34" s="34"/>
-      <c r="AF34" s="41"/>
+      <c r="X34" s="2"/>
+      <c r="Y34" s="2"/>
+      <c r="Z34" s="2"/>
+      <c r="AA34" s="2"/>
+      <c r="AB34" s="2"/>
+      <c r="AC34" s="2"/>
+      <c r="AD34" s="2"/>
+      <c r="AE34" s="2"/>
+      <c r="AF34" s="40"/>
     </row>
     <row r="35" spans="1:32">
       <c r="A35" s="8"/>
@@ -4747,15 +4744,15 @@
       <c r="U35" s="9"/>
       <c r="V35" s="9"/>
       <c r="W35" s="9"/>
-      <c r="X35" s="34"/>
-      <c r="Y35" s="34"/>
-      <c r="Z35" s="34"/>
-      <c r="AA35" s="34"/>
-      <c r="AB35" s="34"/>
-      <c r="AC35" s="34"/>
-      <c r="AD35" s="34"/>
-      <c r="AE35" s="34"/>
-      <c r="AF35" s="41"/>
+      <c r="X35" s="2"/>
+      <c r="Y35" s="2"/>
+      <c r="Z35" s="2"/>
+      <c r="AA35" s="2"/>
+      <c r="AB35" s="2"/>
+      <c r="AC35" s="2"/>
+      <c r="AD35" s="2"/>
+      <c r="AE35" s="2"/>
+      <c r="AF35" s="40"/>
     </row>
     <row r="36" spans="1:32">
       <c r="A36" s="8"/>
@@ -4781,15 +4778,15 @@
       <c r="U36" s="9"/>
       <c r="V36" s="9"/>
       <c r="W36" s="9"/>
-      <c r="X36" s="34"/>
-      <c r="Y36" s="34"/>
-      <c r="Z36" s="34"/>
-      <c r="AA36" s="34"/>
-      <c r="AB36" s="34"/>
-      <c r="AC36" s="34"/>
-      <c r="AD36" s="34"/>
-      <c r="AE36" s="34"/>
-      <c r="AF36" s="41"/>
+      <c r="X36" s="2"/>
+      <c r="Y36" s="2"/>
+      <c r="Z36" s="2"/>
+      <c r="AA36" s="2"/>
+      <c r="AB36" s="2"/>
+      <c r="AC36" s="2"/>
+      <c r="AD36" s="2"/>
+      <c r="AE36" s="2"/>
+      <c r="AF36" s="40"/>
     </row>
     <row r="37" spans="1:32">
       <c r="A37" s="8"/>
@@ -4815,15 +4812,15 @@
       <c r="U37" s="9"/>
       <c r="V37" s="9"/>
       <c r="W37" s="9"/>
-      <c r="X37" s="34"/>
-      <c r="Y37" s="34"/>
-      <c r="Z37" s="34"/>
-      <c r="AA37" s="34"/>
-      <c r="AB37" s="34"/>
-      <c r="AC37" s="34"/>
-      <c r="AD37" s="34"/>
-      <c r="AE37" s="34"/>
-      <c r="AF37" s="41"/>
+      <c r="X37" s="2"/>
+      <c r="Y37" s="2"/>
+      <c r="Z37" s="2"/>
+      <c r="AA37" s="2"/>
+      <c r="AB37" s="2"/>
+      <c r="AC37" s="2"/>
+      <c r="AD37" s="2"/>
+      <c r="AE37" s="2"/>
+      <c r="AF37" s="40"/>
     </row>
     <row r="38" spans="1:32">
       <c r="A38" s="8"/>
@@ -4849,15 +4846,15 @@
       <c r="U38" s="9"/>
       <c r="V38" s="9"/>
       <c r="W38" s="9"/>
-      <c r="X38" s="34"/>
-      <c r="Y38" s="34"/>
-      <c r="Z38" s="34"/>
-      <c r="AA38" s="34"/>
-      <c r="AB38" s="34"/>
-      <c r="AC38" s="34"/>
-      <c r="AD38" s="34"/>
-      <c r="AE38" s="34"/>
-      <c r="AF38" s="41"/>
+      <c r="X38" s="2"/>
+      <c r="Y38" s="2"/>
+      <c r="Z38" s="2"/>
+      <c r="AA38" s="2"/>
+      <c r="AB38" s="2"/>
+      <c r="AC38" s="2"/>
+      <c r="AD38" s="2"/>
+      <c r="AE38" s="2"/>
+      <c r="AF38" s="40"/>
     </row>
     <row r="39" spans="1:32">
       <c r="A39" s="8"/>
@@ -4883,15 +4880,15 @@
       <c r="U39" s="9"/>
       <c r="V39" s="9"/>
       <c r="W39" s="9"/>
-      <c r="X39" s="34"/>
-      <c r="Y39" s="34"/>
-      <c r="Z39" s="34"/>
-      <c r="AA39" s="34"/>
-      <c r="AB39" s="34"/>
-      <c r="AC39" s="34"/>
-      <c r="AD39" s="34"/>
-      <c r="AE39" s="34"/>
-      <c r="AF39" s="41"/>
+      <c r="X39" s="2"/>
+      <c r="Y39" s="2"/>
+      <c r="Z39" s="2"/>
+      <c r="AA39" s="2"/>
+      <c r="AB39" s="2"/>
+      <c r="AC39" s="2"/>
+      <c r="AD39" s="2"/>
+      <c r="AE39" s="2"/>
+      <c r="AF39" s="40"/>
     </row>
     <row r="40" spans="1:32">
       <c r="A40" s="8"/>
@@ -4917,15 +4914,15 @@
       <c r="U40" s="9"/>
       <c r="V40" s="9"/>
       <c r="W40" s="9"/>
-      <c r="X40" s="34"/>
-      <c r="Y40" s="34"/>
-      <c r="Z40" s="34"/>
-      <c r="AA40" s="34"/>
-      <c r="AB40" s="34"/>
-      <c r="AC40" s="34"/>
-      <c r="AD40" s="34"/>
-      <c r="AE40" s="34"/>
-      <c r="AF40" s="41"/>
+      <c r="X40" s="2"/>
+      <c r="Y40" s="2"/>
+      <c r="Z40" s="2"/>
+      <c r="AA40" s="2"/>
+      <c r="AB40" s="2"/>
+      <c r="AC40" s="2"/>
+      <c r="AD40" s="2"/>
+      <c r="AE40" s="2"/>
+      <c r="AF40" s="40"/>
     </row>
     <row r="41" spans="1:32">
       <c r="A41" s="8"/>
@@ -4951,15 +4948,15 @@
       <c r="U41" s="9"/>
       <c r="V41" s="9"/>
       <c r="W41" s="9"/>
-      <c r="X41" s="34"/>
-      <c r="Y41" s="34"/>
-      <c r="Z41" s="34"/>
-      <c r="AA41" s="34"/>
-      <c r="AB41" s="34"/>
-      <c r="AC41" s="34"/>
-      <c r="AD41" s="34"/>
-      <c r="AE41" s="34"/>
-      <c r="AF41" s="41"/>
+      <c r="X41" s="2"/>
+      <c r="Y41" s="2"/>
+      <c r="Z41" s="2"/>
+      <c r="AA41" s="2"/>
+      <c r="AB41" s="2"/>
+      <c r="AC41" s="2"/>
+      <c r="AD41" s="2"/>
+      <c r="AE41" s="2"/>
+      <c r="AF41" s="40"/>
     </row>
     <row r="42" spans="1:32">
       <c r="A42" s="8"/>
@@ -4985,15 +4982,15 @@
       <c r="U42" s="9"/>
       <c r="V42" s="9"/>
       <c r="W42" s="9"/>
-      <c r="X42" s="34"/>
-      <c r="Y42" s="34"/>
-      <c r="Z42" s="34"/>
-      <c r="AA42" s="34"/>
-      <c r="AB42" s="34"/>
-      <c r="AC42" s="34"/>
-      <c r="AD42" s="34"/>
-      <c r="AE42" s="34"/>
-      <c r="AF42" s="41"/>
+      <c r="X42" s="2"/>
+      <c r="Y42" s="2"/>
+      <c r="Z42" s="2"/>
+      <c r="AA42" s="2"/>
+      <c r="AB42" s="2"/>
+      <c r="AC42" s="2"/>
+      <c r="AD42" s="2"/>
+      <c r="AE42" s="2"/>
+      <c r="AF42" s="40"/>
     </row>
     <row r="43" spans="1:32">
       <c r="A43" s="8"/>
@@ -5019,15 +5016,15 @@
       <c r="U43" s="9"/>
       <c r="V43" s="9"/>
       <c r="W43" s="9"/>
-      <c r="X43" s="34"/>
-      <c r="Y43" s="34"/>
-      <c r="Z43" s="34"/>
-      <c r="AA43" s="34"/>
-      <c r="AB43" s="34"/>
-      <c r="AC43" s="34"/>
-      <c r="AD43" s="34"/>
-      <c r="AE43" s="34"/>
-      <c r="AF43" s="41"/>
+      <c r="X43" s="2"/>
+      <c r="Y43" s="2"/>
+      <c r="Z43" s="2"/>
+      <c r="AA43" s="2"/>
+      <c r="AB43" s="2"/>
+      <c r="AC43" s="2"/>
+      <c r="AD43" s="2"/>
+      <c r="AE43" s="2"/>
+      <c r="AF43" s="40"/>
     </row>
     <row r="44" spans="1:32">
       <c r="A44" s="8"/>
@@ -5053,15 +5050,15 @@
       <c r="U44" s="9"/>
       <c r="V44" s="9"/>
       <c r="W44" s="9"/>
-      <c r="X44" s="34"/>
-      <c r="Y44" s="34"/>
-      <c r="Z44" s="34"/>
-      <c r="AA44" s="34"/>
-      <c r="AB44" s="34"/>
-      <c r="AC44" s="34"/>
-      <c r="AD44" s="34"/>
-      <c r="AE44" s="34"/>
-      <c r="AF44" s="41"/>
+      <c r="X44" s="2"/>
+      <c r="Y44" s="2"/>
+      <c r="Z44" s="2"/>
+      <c r="AA44" s="2"/>
+      <c r="AB44" s="2"/>
+      <c r="AC44" s="2"/>
+      <c r="AD44" s="2"/>
+      <c r="AE44" s="2"/>
+      <c r="AF44" s="40"/>
     </row>
     <row r="45" spans="1:32">
       <c r="A45" s="8"/>
@@ -5087,15 +5084,15 @@
       <c r="U45" s="9"/>
       <c r="V45" s="9"/>
       <c r="W45" s="9"/>
-      <c r="X45" s="34"/>
-      <c r="Y45" s="34"/>
-      <c r="Z45" s="34"/>
-      <c r="AA45" s="34"/>
-      <c r="AB45" s="34"/>
-      <c r="AC45" s="34"/>
-      <c r="AD45" s="34"/>
-      <c r="AE45" s="34"/>
-      <c r="AF45" s="41"/>
+      <c r="X45" s="2"/>
+      <c r="Y45" s="2"/>
+      <c r="Z45" s="2"/>
+      <c r="AA45" s="2"/>
+      <c r="AB45" s="2"/>
+      <c r="AC45" s="2"/>
+      <c r="AD45" s="2"/>
+      <c r="AE45" s="2"/>
+      <c r="AF45" s="40"/>
     </row>
     <row r="46" spans="1:32">
       <c r="A46" s="8"/>
@@ -5121,15 +5118,15 @@
       <c r="U46" s="9"/>
       <c r="V46" s="9"/>
       <c r="W46" s="9"/>
-      <c r="X46" s="34"/>
-      <c r="Y46" s="34"/>
-      <c r="Z46" s="34"/>
-      <c r="AA46" s="34"/>
-      <c r="AB46" s="34"/>
-      <c r="AC46" s="34"/>
-      <c r="AD46" s="34"/>
-      <c r="AE46" s="34"/>
-      <c r="AF46" s="41"/>
+      <c r="X46" s="2"/>
+      <c r="Y46" s="2"/>
+      <c r="Z46" s="2"/>
+      <c r="AA46" s="2"/>
+      <c r="AB46" s="2"/>
+      <c r="AC46" s="2"/>
+      <c r="AD46" s="2"/>
+      <c r="AE46" s="2"/>
+      <c r="AF46" s="40"/>
     </row>
     <row r="47" spans="1:32">
       <c r="A47" s="8"/>
@@ -5155,15 +5152,15 @@
       <c r="U47" s="9"/>
       <c r="V47" s="9"/>
       <c r="W47" s="9"/>
-      <c r="X47" s="34"/>
-      <c r="Y47" s="34"/>
-      <c r="Z47" s="34"/>
-      <c r="AA47" s="34"/>
-      <c r="AB47" s="34"/>
-      <c r="AC47" s="34"/>
-      <c r="AD47" s="34"/>
-      <c r="AE47" s="34"/>
-      <c r="AF47" s="41"/>
+      <c r="X47" s="2"/>
+      <c r="Y47" s="2"/>
+      <c r="Z47" s="2"/>
+      <c r="AA47" s="2"/>
+      <c r="AB47" s="2"/>
+      <c r="AC47" s="2"/>
+      <c r="AD47" s="2"/>
+      <c r="AE47" s="2"/>
+      <c r="AF47" s="40"/>
     </row>
     <row r="48" spans="1:32">
       <c r="A48" s="8"/>
@@ -5189,15 +5186,15 @@
       <c r="U48" s="9"/>
       <c r="V48" s="9"/>
       <c r="W48" s="9"/>
-      <c r="X48" s="34"/>
-      <c r="Y48" s="34"/>
-      <c r="Z48" s="34"/>
-      <c r="AA48" s="34"/>
-      <c r="AB48" s="34"/>
-      <c r="AC48" s="34"/>
-      <c r="AD48" s="34"/>
-      <c r="AE48" s="34"/>
-      <c r="AF48" s="41"/>
+      <c r="X48" s="2"/>
+      <c r="Y48" s="2"/>
+      <c r="Z48" s="2"/>
+      <c r="AA48" s="2"/>
+      <c r="AB48" s="2"/>
+      <c r="AC48" s="2"/>
+      <c r="AD48" s="2"/>
+      <c r="AE48" s="2"/>
+      <c r="AF48" s="40"/>
     </row>
     <row r="49" spans="1:32">
       <c r="A49" s="8"/>
@@ -5223,15 +5220,15 @@
       <c r="U49" s="9"/>
       <c r="V49" s="9"/>
       <c r="W49" s="9"/>
-      <c r="X49" s="34"/>
-      <c r="Y49" s="34"/>
-      <c r="Z49" s="34"/>
-      <c r="AA49" s="34"/>
-      <c r="AB49" s="34"/>
-      <c r="AC49" s="34"/>
-      <c r="AD49" s="34"/>
-      <c r="AE49" s="34"/>
-      <c r="AF49" s="41"/>
+      <c r="X49" s="2"/>
+      <c r="Y49" s="2"/>
+      <c r="Z49" s="2"/>
+      <c r="AA49" s="2"/>
+      <c r="AB49" s="2"/>
+      <c r="AC49" s="2"/>
+      <c r="AD49" s="2"/>
+      <c r="AE49" s="2"/>
+      <c r="AF49" s="40"/>
     </row>
     <row r="50" spans="1:32">
       <c r="A50" s="8"/>
@@ -5257,15 +5254,15 @@
       <c r="U50" s="9"/>
       <c r="V50" s="9"/>
       <c r="W50" s="9"/>
-      <c r="X50" s="34"/>
-      <c r="Y50" s="34"/>
-      <c r="Z50" s="34"/>
-      <c r="AA50" s="34"/>
-      <c r="AB50" s="34"/>
-      <c r="AC50" s="34"/>
-      <c r="AD50" s="34"/>
-      <c r="AE50" s="34"/>
-      <c r="AF50" s="41"/>
+      <c r="X50" s="2"/>
+      <c r="Y50" s="2"/>
+      <c r="Z50" s="2"/>
+      <c r="AA50" s="2"/>
+      <c r="AB50" s="2"/>
+      <c r="AC50" s="2"/>
+      <c r="AD50" s="2"/>
+      <c r="AE50" s="2"/>
+      <c r="AF50" s="40"/>
     </row>
     <row r="51" spans="1:32">
       <c r="A51" s="8"/>
@@ -5291,15 +5288,15 @@
       <c r="U51" s="9"/>
       <c r="V51" s="9"/>
       <c r="W51" s="9"/>
-      <c r="X51" s="34"/>
-      <c r="Y51" s="34"/>
-      <c r="Z51" s="34"/>
-      <c r="AA51" s="34"/>
-      <c r="AB51" s="34"/>
-      <c r="AC51" s="34"/>
-      <c r="AD51" s="34"/>
-      <c r="AE51" s="34"/>
-      <c r="AF51" s="41"/>
+      <c r="X51" s="2"/>
+      <c r="Y51" s="2"/>
+      <c r="Z51" s="2"/>
+      <c r="AA51" s="2"/>
+      <c r="AB51" s="2"/>
+      <c r="AC51" s="2"/>
+      <c r="AD51" s="2"/>
+      <c r="AE51" s="2"/>
+      <c r="AF51" s="40"/>
     </row>
     <row r="52" spans="1:32">
       <c r="A52" s="8"/>
@@ -5325,15 +5322,15 @@
       <c r="U52" s="9"/>
       <c r="V52" s="9"/>
       <c r="W52" s="9"/>
-      <c r="X52" s="34"/>
-      <c r="Y52" s="34"/>
-      <c r="Z52" s="34"/>
-      <c r="AA52" s="34"/>
-      <c r="AB52" s="34"/>
-      <c r="AC52" s="34"/>
-      <c r="AD52" s="34"/>
-      <c r="AE52" s="34"/>
-      <c r="AF52" s="41"/>
+      <c r="X52" s="2"/>
+      <c r="Y52" s="2"/>
+      <c r="Z52" s="2"/>
+      <c r="AA52" s="2"/>
+      <c r="AB52" s="2"/>
+      <c r="AC52" s="2"/>
+      <c r="AD52" s="2"/>
+      <c r="AE52" s="2"/>
+      <c r="AF52" s="40"/>
     </row>
     <row r="53" spans="1:32">
       <c r="A53" s="8"/>
@@ -5359,15 +5356,15 @@
       <c r="U53" s="9"/>
       <c r="V53" s="9"/>
       <c r="W53" s="9"/>
-      <c r="X53" s="34"/>
-      <c r="Y53" s="34"/>
-      <c r="Z53" s="34"/>
-      <c r="AA53" s="34"/>
-      <c r="AB53" s="34"/>
-      <c r="AC53" s="34"/>
-      <c r="AD53" s="34"/>
-      <c r="AE53" s="34"/>
-      <c r="AF53" s="41"/>
+      <c r="X53" s="2"/>
+      <c r="Y53" s="2"/>
+      <c r="Z53" s="2"/>
+      <c r="AA53" s="2"/>
+      <c r="AB53" s="2"/>
+      <c r="AC53" s="2"/>
+      <c r="AD53" s="2"/>
+      <c r="AE53" s="2"/>
+      <c r="AF53" s="40"/>
     </row>
     <row r="54" spans="1:32">
       <c r="A54" s="8"/>
@@ -5393,15 +5390,15 @@
       <c r="U54" s="9"/>
       <c r="V54" s="9"/>
       <c r="W54" s="9"/>
-      <c r="X54" s="34"/>
-      <c r="Y54" s="34"/>
-      <c r="Z54" s="34"/>
-      <c r="AA54" s="34"/>
-      <c r="AB54" s="34"/>
-      <c r="AC54" s="34"/>
-      <c r="AD54" s="34"/>
-      <c r="AE54" s="34"/>
-      <c r="AF54" s="41"/>
+      <c r="X54" s="2"/>
+      <c r="Y54" s="2"/>
+      <c r="Z54" s="2"/>
+      <c r="AA54" s="2"/>
+      <c r="AB54" s="2"/>
+      <c r="AC54" s="2"/>
+      <c r="AD54" s="2"/>
+      <c r="AE54" s="2"/>
+      <c r="AF54" s="40"/>
     </row>
     <row r="55" spans="1:32">
       <c r="A55" s="8"/>
@@ -5427,15 +5424,15 @@
       <c r="U55" s="9"/>
       <c r="V55" s="9"/>
       <c r="W55" s="9"/>
-      <c r="X55" s="34"/>
-      <c r="Y55" s="34"/>
-      <c r="Z55" s="34"/>
-      <c r="AA55" s="34"/>
-      <c r="AB55" s="34"/>
-      <c r="AC55" s="34"/>
-      <c r="AD55" s="34"/>
-      <c r="AE55" s="34"/>
-      <c r="AF55" s="41"/>
+      <c r="X55" s="2"/>
+      <c r="Y55" s="2"/>
+      <c r="Z55" s="2"/>
+      <c r="AA55" s="2"/>
+      <c r="AB55" s="2"/>
+      <c r="AC55" s="2"/>
+      <c r="AD55" s="2"/>
+      <c r="AE55" s="2"/>
+      <c r="AF55" s="40"/>
     </row>
     <row r="56" spans="1:32">
       <c r="A56" s="8"/>
@@ -5461,15 +5458,15 @@
       <c r="U56" s="9"/>
       <c r="V56" s="9"/>
       <c r="W56" s="9"/>
-      <c r="X56" s="34"/>
-      <c r="Y56" s="34"/>
-      <c r="Z56" s="34"/>
-      <c r="AA56" s="34"/>
-      <c r="AB56" s="34"/>
-      <c r="AC56" s="34"/>
-      <c r="AD56" s="34"/>
-      <c r="AE56" s="34"/>
-      <c r="AF56" s="41"/>
+      <c r="X56" s="2"/>
+      <c r="Y56" s="2"/>
+      <c r="Z56" s="2"/>
+      <c r="AA56" s="2"/>
+      <c r="AB56" s="2"/>
+      <c r="AC56" s="2"/>
+      <c r="AD56" s="2"/>
+      <c r="AE56" s="2"/>
+      <c r="AF56" s="40"/>
     </row>
     <row r="57" spans="1:32">
       <c r="A57" s="8"/>
@@ -5495,15 +5492,15 @@
       <c r="U57" s="9"/>
       <c r="V57" s="9"/>
       <c r="W57" s="9"/>
-      <c r="X57" s="34"/>
-      <c r="Y57" s="34"/>
-      <c r="Z57" s="34"/>
-      <c r="AA57" s="34"/>
-      <c r="AB57" s="34"/>
-      <c r="AC57" s="34"/>
-      <c r="AD57" s="34"/>
-      <c r="AE57" s="34"/>
-      <c r="AF57" s="41"/>
+      <c r="X57" s="2"/>
+      <c r="Y57" s="2"/>
+      <c r="Z57" s="2"/>
+      <c r="AA57" s="2"/>
+      <c r="AB57" s="2"/>
+      <c r="AC57" s="2"/>
+      <c r="AD57" s="2"/>
+      <c r="AE57" s="2"/>
+      <c r="AF57" s="40"/>
     </row>
     <row r="58" spans="1:32">
       <c r="A58" s="8"/>
@@ -5529,15 +5526,15 @@
       <c r="U58" s="9"/>
       <c r="V58" s="9"/>
       <c r="W58" s="9"/>
-      <c r="X58" s="34"/>
-      <c r="Y58" s="34"/>
-      <c r="Z58" s="34"/>
-      <c r="AA58" s="34"/>
-      <c r="AB58" s="34"/>
-      <c r="AC58" s="34"/>
-      <c r="AD58" s="34"/>
-      <c r="AE58" s="34"/>
-      <c r="AF58" s="41"/>
+      <c r="X58" s="2"/>
+      <c r="Y58" s="2"/>
+      <c r="Z58" s="2"/>
+      <c r="AA58" s="2"/>
+      <c r="AB58" s="2"/>
+      <c r="AC58" s="2"/>
+      <c r="AD58" s="2"/>
+      <c r="AE58" s="2"/>
+      <c r="AF58" s="40"/>
     </row>
     <row r="59" spans="1:32">
       <c r="A59" s="8"/>
@@ -5563,15 +5560,15 @@
       <c r="U59" s="9"/>
       <c r="V59" s="9"/>
       <c r="W59" s="9"/>
-      <c r="X59" s="34"/>
-      <c r="Y59" s="34"/>
-      <c r="Z59" s="34"/>
-      <c r="AA59" s="34"/>
-      <c r="AB59" s="34"/>
-      <c r="AC59" s="34"/>
-      <c r="AD59" s="34"/>
-      <c r="AE59" s="34"/>
-      <c r="AF59" s="41"/>
+      <c r="X59" s="2"/>
+      <c r="Y59" s="2"/>
+      <c r="Z59" s="2"/>
+      <c r="AA59" s="2"/>
+      <c r="AB59" s="2"/>
+      <c r="AC59" s="2"/>
+      <c r="AD59" s="2"/>
+      <c r="AE59" s="2"/>
+      <c r="AF59" s="40"/>
     </row>
     <row r="60" spans="1:32">
       <c r="A60" s="8"/>
@@ -5597,15 +5594,15 @@
       <c r="U60" s="9"/>
       <c r="V60" s="9"/>
       <c r="W60" s="9"/>
-      <c r="X60" s="34"/>
-      <c r="Y60" s="34"/>
-      <c r="Z60" s="34"/>
-      <c r="AA60" s="34"/>
-      <c r="AB60" s="34"/>
-      <c r="AC60" s="34"/>
-      <c r="AD60" s="34"/>
-      <c r="AE60" s="34"/>
-      <c r="AF60" s="41"/>
+      <c r="X60" s="2"/>
+      <c r="Y60" s="2"/>
+      <c r="Z60" s="2"/>
+      <c r="AA60" s="2"/>
+      <c r="AB60" s="2"/>
+      <c r="AC60" s="2"/>
+      <c r="AD60" s="2"/>
+      <c r="AE60" s="2"/>
+      <c r="AF60" s="40"/>
     </row>
     <row r="61" spans="1:32">
       <c r="A61" s="8"/>
@@ -5631,15 +5628,15 @@
       <c r="U61" s="9"/>
       <c r="V61" s="9"/>
       <c r="W61" s="9"/>
-      <c r="X61" s="34"/>
-      <c r="Y61" s="34"/>
-      <c r="Z61" s="34"/>
-      <c r="AA61" s="34"/>
-      <c r="AB61" s="34"/>
-      <c r="AC61" s="34"/>
-      <c r="AD61" s="34"/>
-      <c r="AE61" s="34"/>
-      <c r="AF61" s="41"/>
+      <c r="X61" s="2"/>
+      <c r="Y61" s="2"/>
+      <c r="Z61" s="2"/>
+      <c r="AA61" s="2"/>
+      <c r="AB61" s="2"/>
+      <c r="AC61" s="2"/>
+      <c r="AD61" s="2"/>
+      <c r="AE61" s="2"/>
+      <c r="AF61" s="40"/>
     </row>
     <row r="62" spans="1:32">
       <c r="A62" s="8"/>
@@ -5665,15 +5662,15 @@
       <c r="U62" s="9"/>
       <c r="V62" s="9"/>
       <c r="W62" s="9"/>
-      <c r="X62" s="34"/>
-      <c r="Y62" s="34"/>
-      <c r="Z62" s="34"/>
-      <c r="AA62" s="34"/>
-      <c r="AB62" s="34"/>
-      <c r="AC62" s="34"/>
-      <c r="AD62" s="34"/>
-      <c r="AE62" s="34"/>
-      <c r="AF62" s="41"/>
+      <c r="X62" s="2"/>
+      <c r="Y62" s="2"/>
+      <c r="Z62" s="2"/>
+      <c r="AA62" s="2"/>
+      <c r="AB62" s="2"/>
+      <c r="AC62" s="2"/>
+      <c r="AD62" s="2"/>
+      <c r="AE62" s="2"/>
+      <c r="AF62" s="40"/>
     </row>
     <row r="63" spans="1:32">
       <c r="A63" s="8"/>
@@ -5699,15 +5696,15 @@
       <c r="U63" s="9"/>
       <c r="V63" s="9"/>
       <c r="W63" s="9"/>
-      <c r="X63" s="34"/>
-      <c r="Y63" s="34"/>
-      <c r="Z63" s="34"/>
-      <c r="AA63" s="34"/>
-      <c r="AB63" s="34"/>
-      <c r="AC63" s="34"/>
-      <c r="AD63" s="34"/>
-      <c r="AE63" s="34"/>
-      <c r="AF63" s="41"/>
+      <c r="X63" s="2"/>
+      <c r="Y63" s="2"/>
+      <c r="Z63" s="2"/>
+      <c r="AA63" s="2"/>
+      <c r="AB63" s="2"/>
+      <c r="AC63" s="2"/>
+      <c r="AD63" s="2"/>
+      <c r="AE63" s="2"/>
+      <c r="AF63" s="40"/>
     </row>
     <row r="64" spans="1:32">
       <c r="A64" s="8"/>
@@ -5733,15 +5730,15 @@
       <c r="U64" s="9"/>
       <c r="V64" s="9"/>
       <c r="W64" s="9"/>
-      <c r="X64" s="34"/>
-      <c r="Y64" s="34"/>
-      <c r="Z64" s="34"/>
-      <c r="AA64" s="34"/>
-      <c r="AB64" s="34"/>
-      <c r="AC64" s="34"/>
-      <c r="AD64" s="34"/>
-      <c r="AE64" s="34"/>
-      <c r="AF64" s="41"/>
+      <c r="X64" s="2"/>
+      <c r="Y64" s="2"/>
+      <c r="Z64" s="2"/>
+      <c r="AA64" s="2"/>
+      <c r="AB64" s="2"/>
+      <c r="AC64" s="2"/>
+      <c r="AD64" s="2"/>
+      <c r="AE64" s="2"/>
+      <c r="AF64" s="40"/>
     </row>
     <row r="65" spans="1:32">
       <c r="A65" s="8"/>
@@ -5767,15 +5764,15 @@
       <c r="U65" s="9"/>
       <c r="V65" s="9"/>
       <c r="W65" s="9"/>
-      <c r="X65" s="34"/>
-      <c r="Y65" s="34"/>
-      <c r="Z65" s="34"/>
-      <c r="AA65" s="34"/>
-      <c r="AB65" s="34"/>
-      <c r="AC65" s="34"/>
-      <c r="AD65" s="34"/>
-      <c r="AE65" s="34"/>
-      <c r="AF65" s="41"/>
+      <c r="X65" s="2"/>
+      <c r="Y65" s="2"/>
+      <c r="Z65" s="2"/>
+      <c r="AA65" s="2"/>
+      <c r="AB65" s="2"/>
+      <c r="AC65" s="2"/>
+      <c r="AD65" s="2"/>
+      <c r="AE65" s="2"/>
+      <c r="AF65" s="40"/>
     </row>
     <row r="66" spans="1:32">
       <c r="A66" s="8"/>
@@ -5801,15 +5798,15 @@
       <c r="U66" s="9"/>
       <c r="V66" s="9"/>
       <c r="W66" s="9"/>
-      <c r="X66" s="34"/>
-      <c r="Y66" s="34"/>
-      <c r="Z66" s="34"/>
-      <c r="AA66" s="34"/>
-      <c r="AB66" s="34"/>
-      <c r="AC66" s="34"/>
-      <c r="AD66" s="34"/>
-      <c r="AE66" s="34"/>
-      <c r="AF66" s="41"/>
+      <c r="X66" s="2"/>
+      <c r="Y66" s="2"/>
+      <c r="Z66" s="2"/>
+      <c r="AA66" s="2"/>
+      <c r="AB66" s="2"/>
+      <c r="AC66" s="2"/>
+      <c r="AD66" s="2"/>
+      <c r="AE66" s="2"/>
+      <c r="AF66" s="40"/>
     </row>
     <row r="67" spans="1:32">
       <c r="A67" s="8"/>
@@ -5835,15 +5832,15 @@
       <c r="U67" s="9"/>
       <c r="V67" s="9"/>
       <c r="W67" s="9"/>
-      <c r="X67" s="34"/>
-      <c r="Y67" s="34"/>
-      <c r="Z67" s="34"/>
-      <c r="AA67" s="34"/>
-      <c r="AB67" s="34"/>
-      <c r="AC67" s="34"/>
-      <c r="AD67" s="34"/>
-      <c r="AE67" s="34"/>
-      <c r="AF67" s="41"/>
+      <c r="X67" s="2"/>
+      <c r="Y67" s="2"/>
+      <c r="Z67" s="2"/>
+      <c r="AA67" s="2"/>
+      <c r="AB67" s="2"/>
+      <c r="AC67" s="2"/>
+      <c r="AD67" s="2"/>
+      <c r="AE67" s="2"/>
+      <c r="AF67" s="40"/>
     </row>
     <row r="68" spans="1:32">
       <c r="A68" s="8"/>
@@ -5869,15 +5866,15 @@
       <c r="U68" s="9"/>
       <c r="V68" s="9"/>
       <c r="W68" s="9"/>
-      <c r="X68" s="34"/>
-      <c r="Y68" s="34"/>
-      <c r="Z68" s="34"/>
-      <c r="AA68" s="34"/>
-      <c r="AB68" s="34"/>
-      <c r="AC68" s="34"/>
-      <c r="AD68" s="34"/>
-      <c r="AE68" s="34"/>
-      <c r="AF68" s="41"/>
+      <c r="X68" s="2"/>
+      <c r="Y68" s="2"/>
+      <c r="Z68" s="2"/>
+      <c r="AA68" s="2"/>
+      <c r="AB68" s="2"/>
+      <c r="AC68" s="2"/>
+      <c r="AD68" s="2"/>
+      <c r="AE68" s="2"/>
+      <c r="AF68" s="40"/>
     </row>
     <row r="69" spans="1:32">
       <c r="A69" s="8"/>
@@ -5903,15 +5900,15 @@
       <c r="U69" s="9"/>
       <c r="V69" s="9"/>
       <c r="W69" s="9"/>
-      <c r="X69" s="34"/>
-      <c r="Y69" s="34"/>
-      <c r="Z69" s="34"/>
-      <c r="AA69" s="34"/>
-      <c r="AB69" s="34"/>
-      <c r="AC69" s="34"/>
-      <c r="AD69" s="34"/>
-      <c r="AE69" s="34"/>
-      <c r="AF69" s="41"/>
+      <c r="X69" s="2"/>
+      <c r="Y69" s="2"/>
+      <c r="Z69" s="2"/>
+      <c r="AA69" s="2"/>
+      <c r="AB69" s="2"/>
+      <c r="AC69" s="2"/>
+      <c r="AD69" s="2"/>
+      <c r="AE69" s="2"/>
+      <c r="AF69" s="40"/>
     </row>
     <row r="70" spans="1:32">
       <c r="A70" s="8"/>
@@ -5937,15 +5934,15 @@
       <c r="U70" s="9"/>
       <c r="V70" s="9"/>
       <c r="W70" s="9"/>
-      <c r="X70" s="34"/>
-      <c r="Y70" s="34"/>
-      <c r="Z70" s="34"/>
-      <c r="AA70" s="34"/>
-      <c r="AB70" s="34"/>
-      <c r="AC70" s="34"/>
-      <c r="AD70" s="34"/>
-      <c r="AE70" s="34"/>
-      <c r="AF70" s="41"/>
+      <c r="X70" s="2"/>
+      <c r="Y70" s="2"/>
+      <c r="Z70" s="2"/>
+      <c r="AA70" s="2"/>
+      <c r="AB70" s="2"/>
+      <c r="AC70" s="2"/>
+      <c r="AD70" s="2"/>
+      <c r="AE70" s="2"/>
+      <c r="AF70" s="40"/>
     </row>
     <row r="71" spans="1:32">
       <c r="A71" s="8"/>
@@ -5971,15 +5968,15 @@
       <c r="U71" s="9"/>
       <c r="V71" s="9"/>
       <c r="W71" s="9"/>
-      <c r="X71" s="34"/>
-      <c r="Y71" s="34"/>
-      <c r="Z71" s="34"/>
-      <c r="AA71" s="34"/>
-      <c r="AB71" s="34"/>
-      <c r="AC71" s="34"/>
-      <c r="AD71" s="34"/>
-      <c r="AE71" s="34"/>
-      <c r="AF71" s="41"/>
+      <c r="X71" s="2"/>
+      <c r="Y71" s="2"/>
+      <c r="Z71" s="2"/>
+      <c r="AA71" s="2"/>
+      <c r="AB71" s="2"/>
+      <c r="AC71" s="2"/>
+      <c r="AD71" s="2"/>
+      <c r="AE71" s="2"/>
+      <c r="AF71" s="40"/>
     </row>
     <row r="72" spans="1:32">
       <c r="A72" s="8"/>
@@ -6005,15 +6002,15 @@
       <c r="U72" s="9"/>
       <c r="V72" s="9"/>
       <c r="W72" s="9"/>
-      <c r="X72" s="34"/>
-      <c r="Y72" s="34"/>
-      <c r="Z72" s="34"/>
-      <c r="AA72" s="34"/>
-      <c r="AB72" s="34"/>
-      <c r="AC72" s="34"/>
-      <c r="AD72" s="34"/>
-      <c r="AE72" s="34"/>
-      <c r="AF72" s="41"/>
+      <c r="X72" s="2"/>
+      <c r="Y72" s="2"/>
+      <c r="Z72" s="2"/>
+      <c r="AA72" s="2"/>
+      <c r="AB72" s="2"/>
+      <c r="AC72" s="2"/>
+      <c r="AD72" s="2"/>
+      <c r="AE72" s="2"/>
+      <c r="AF72" s="40"/>
     </row>
     <row r="73" spans="1:32">
       <c r="A73" s="8"/>
@@ -6039,15 +6036,15 @@
       <c r="U73" s="9"/>
       <c r="V73" s="9"/>
       <c r="W73" s="9"/>
-      <c r="X73" s="34"/>
-      <c r="Y73" s="34"/>
-      <c r="Z73" s="34"/>
-      <c r="AA73" s="34"/>
-      <c r="AB73" s="34"/>
-      <c r="AC73" s="34"/>
-      <c r="AD73" s="34"/>
-      <c r="AE73" s="34"/>
-      <c r="AF73" s="41"/>
+      <c r="X73" s="2"/>
+      <c r="Y73" s="2"/>
+      <c r="Z73" s="2"/>
+      <c r="AA73" s="2"/>
+      <c r="AB73" s="2"/>
+      <c r="AC73" s="2"/>
+      <c r="AD73" s="2"/>
+      <c r="AE73" s="2"/>
+      <c r="AF73" s="40"/>
     </row>
     <row r="74" spans="1:32">
       <c r="A74" s="8"/>
@@ -6073,15 +6070,15 @@
       <c r="U74" s="9"/>
       <c r="V74" s="9"/>
       <c r="W74" s="9"/>
-      <c r="X74" s="34"/>
-      <c r="Y74" s="34"/>
-      <c r="Z74" s="34"/>
-      <c r="AA74" s="34"/>
-      <c r="AB74" s="34"/>
-      <c r="AC74" s="34"/>
-      <c r="AD74" s="34"/>
-      <c r="AE74" s="34"/>
-      <c r="AF74" s="41"/>
+      <c r="X74" s="2"/>
+      <c r="Y74" s="2"/>
+      <c r="Z74" s="2"/>
+      <c r="AA74" s="2"/>
+      <c r="AB74" s="2"/>
+      <c r="AC74" s="2"/>
+      <c r="AD74" s="2"/>
+      <c r="AE74" s="2"/>
+      <c r="AF74" s="40"/>
     </row>
     <row r="75" spans="1:32">
       <c r="A75" s="8"/>
@@ -6107,15 +6104,15 @@
       <c r="U75" s="9"/>
       <c r="V75" s="9"/>
       <c r="W75" s="9"/>
-      <c r="X75" s="34"/>
-      <c r="Y75" s="34"/>
-      <c r="Z75" s="34"/>
-      <c r="AA75" s="34"/>
-      <c r="AB75" s="34"/>
-      <c r="AC75" s="34"/>
-      <c r="AD75" s="34"/>
-      <c r="AE75" s="34"/>
-      <c r="AF75" s="41"/>
+      <c r="X75" s="2"/>
+      <c r="Y75" s="2"/>
+      <c r="Z75" s="2"/>
+      <c r="AA75" s="2"/>
+      <c r="AB75" s="2"/>
+      <c r="AC75" s="2"/>
+      <c r="AD75" s="2"/>
+      <c r="AE75" s="2"/>
+      <c r="AF75" s="40"/>
     </row>
     <row r="76" spans="1:32">
       <c r="A76" s="8"/>
@@ -6141,15 +6138,15 @@
       <c r="U76" s="9"/>
       <c r="V76" s="9"/>
       <c r="W76" s="9"/>
-      <c r="X76" s="34"/>
-      <c r="Y76" s="34"/>
-      <c r="Z76" s="34"/>
-      <c r="AA76" s="34"/>
-      <c r="AB76" s="34"/>
-      <c r="AC76" s="34"/>
-      <c r="AD76" s="34"/>
-      <c r="AE76" s="34"/>
-      <c r="AF76" s="41"/>
+      <c r="X76" s="2"/>
+      <c r="Y76" s="2"/>
+      <c r="Z76" s="2"/>
+      <c r="AA76" s="2"/>
+      <c r="AB76" s="2"/>
+      <c r="AC76" s="2"/>
+      <c r="AD76" s="2"/>
+      <c r="AE76" s="2"/>
+      <c r="AF76" s="40"/>
     </row>
     <row r="77" spans="1:32">
       <c r="A77" s="8"/>
@@ -6175,15 +6172,15 @@
       <c r="U77" s="9"/>
       <c r="V77" s="9"/>
       <c r="W77" s="9"/>
-      <c r="X77" s="34"/>
-      <c r="Y77" s="34"/>
-      <c r="Z77" s="34"/>
-      <c r="AA77" s="34"/>
-      <c r="AB77" s="34"/>
-      <c r="AC77" s="34"/>
-      <c r="AD77" s="34"/>
-      <c r="AE77" s="34"/>
-      <c r="AF77" s="41"/>
+      <c r="X77" s="2"/>
+      <c r="Y77" s="2"/>
+      <c r="Z77" s="2"/>
+      <c r="AA77" s="2"/>
+      <c r="AB77" s="2"/>
+      <c r="AC77" s="2"/>
+      <c r="AD77" s="2"/>
+      <c r="AE77" s="2"/>
+      <c r="AF77" s="40"/>
     </row>
     <row r="78" spans="1:32">
       <c r="A78" s="8"/>
@@ -6209,15 +6206,15 @@
       <c r="U78" s="9"/>
       <c r="V78" s="9"/>
       <c r="W78" s="9"/>
-      <c r="X78" s="34"/>
-      <c r="Y78" s="34"/>
-      <c r="Z78" s="34"/>
-      <c r="AA78" s="34"/>
-      <c r="AB78" s="34"/>
-      <c r="AC78" s="34"/>
-      <c r="AD78" s="34"/>
-      <c r="AE78" s="34"/>
-      <c r="AF78" s="41"/>
+      <c r="X78" s="2"/>
+      <c r="Y78" s="2"/>
+      <c r="Z78" s="2"/>
+      <c r="AA78" s="2"/>
+      <c r="AB78" s="2"/>
+      <c r="AC78" s="2"/>
+      <c r="AD78" s="2"/>
+      <c r="AE78" s="2"/>
+      <c r="AF78" s="40"/>
     </row>
     <row r="79" spans="1:32">
       <c r="A79" s="8"/>
@@ -6243,15 +6240,15 @@
       <c r="U79" s="9"/>
       <c r="V79" s="9"/>
       <c r="W79" s="9"/>
-      <c r="X79" s="34"/>
-      <c r="Y79" s="34"/>
-      <c r="Z79" s="34"/>
-      <c r="AA79" s="34"/>
-      <c r="AB79" s="34"/>
-      <c r="AC79" s="34"/>
-      <c r="AD79" s="34"/>
-      <c r="AE79" s="34"/>
-      <c r="AF79" s="41"/>
+      <c r="X79" s="2"/>
+      <c r="Y79" s="2"/>
+      <c r="Z79" s="2"/>
+      <c r="AA79" s="2"/>
+      <c r="AB79" s="2"/>
+      <c r="AC79" s="2"/>
+      <c r="AD79" s="2"/>
+      <c r="AE79" s="2"/>
+      <c r="AF79" s="40"/>
     </row>
     <row r="80" spans="1:32">
       <c r="A80" s="8"/>
@@ -6277,15 +6274,15 @@
       <c r="U80" s="9"/>
       <c r="V80" s="9"/>
       <c r="W80" s="9"/>
-      <c r="X80" s="34"/>
-      <c r="Y80" s="34"/>
-      <c r="Z80" s="34"/>
-      <c r="AA80" s="34"/>
-      <c r="AB80" s="34"/>
-      <c r="AC80" s="34"/>
-      <c r="AD80" s="34"/>
-      <c r="AE80" s="34"/>
-      <c r="AF80" s="41"/>
+      <c r="X80" s="2"/>
+      <c r="Y80" s="2"/>
+      <c r="Z80" s="2"/>
+      <c r="AA80" s="2"/>
+      <c r="AB80" s="2"/>
+      <c r="AC80" s="2"/>
+      <c r="AD80" s="2"/>
+      <c r="AE80" s="2"/>
+      <c r="AF80" s="40"/>
     </row>
     <row r="81" spans="1:32">
       <c r="A81" s="8"/>
@@ -6311,15 +6308,15 @@
       <c r="U81" s="9"/>
       <c r="V81" s="9"/>
       <c r="W81" s="9"/>
-      <c r="X81" s="34"/>
-      <c r="Y81" s="34"/>
-      <c r="Z81" s="34"/>
-      <c r="AA81" s="34"/>
-      <c r="AB81" s="34"/>
-      <c r="AC81" s="34"/>
-      <c r="AD81" s="34"/>
-      <c r="AE81" s="34"/>
-      <c r="AF81" s="41"/>
+      <c r="X81" s="2"/>
+      <c r="Y81" s="2"/>
+      <c r="Z81" s="2"/>
+      <c r="AA81" s="2"/>
+      <c r="AB81" s="2"/>
+      <c r="AC81" s="2"/>
+      <c r="AD81" s="2"/>
+      <c r="AE81" s="2"/>
+      <c r="AF81" s="40"/>
     </row>
     <row r="82" spans="1:32">
       <c r="A82" s="8"/>
@@ -6345,15 +6342,15 @@
       <c r="U82" s="9"/>
       <c r="V82" s="9"/>
       <c r="W82" s="9"/>
-      <c r="X82" s="34"/>
-      <c r="Y82" s="34"/>
-      <c r="Z82" s="34"/>
-      <c r="AA82" s="34"/>
-      <c r="AB82" s="34"/>
-      <c r="AC82" s="34"/>
-      <c r="AD82" s="34"/>
-      <c r="AE82" s="34"/>
-      <c r="AF82" s="41"/>
+      <c r="X82" s="2"/>
+      <c r="Y82" s="2"/>
+      <c r="Z82" s="2"/>
+      <c r="AA82" s="2"/>
+      <c r="AB82" s="2"/>
+      <c r="AC82" s="2"/>
+      <c r="AD82" s="2"/>
+      <c r="AE82" s="2"/>
+      <c r="AF82" s="40"/>
     </row>
     <row r="83" spans="1:32">
       <c r="A83" s="8"/>
@@ -6379,15 +6376,15 @@
       <c r="U83" s="9"/>
       <c r="V83" s="9"/>
       <c r="W83" s="9"/>
-      <c r="X83" s="34"/>
-      <c r="Y83" s="34"/>
-      <c r="Z83" s="34"/>
-      <c r="AA83" s="34"/>
-      <c r="AB83" s="34"/>
-      <c r="AC83" s="34"/>
-      <c r="AD83" s="34"/>
-      <c r="AE83" s="34"/>
-      <c r="AF83" s="41"/>
+      <c r="X83" s="2"/>
+      <c r="Y83" s="2"/>
+      <c r="Z83" s="2"/>
+      <c r="AA83" s="2"/>
+      <c r="AB83" s="2"/>
+      <c r="AC83" s="2"/>
+      <c r="AD83" s="2"/>
+      <c r="AE83" s="2"/>
+      <c r="AF83" s="40"/>
     </row>
     <row r="84" spans="1:32">
       <c r="A84" s="8"/>
@@ -6413,15 +6410,15 @@
       <c r="U84" s="9"/>
       <c r="V84" s="9"/>
       <c r="W84" s="9"/>
-      <c r="X84" s="34"/>
-      <c r="Y84" s="34"/>
-      <c r="Z84" s="34"/>
-      <c r="AA84" s="34"/>
-      <c r="AB84" s="34"/>
-      <c r="AC84" s="34"/>
-      <c r="AD84" s="34"/>
-      <c r="AE84" s="34"/>
-      <c r="AF84" s="41"/>
+      <c r="X84" s="2"/>
+      <c r="Y84" s="2"/>
+      <c r="Z84" s="2"/>
+      <c r="AA84" s="2"/>
+      <c r="AB84" s="2"/>
+      <c r="AC84" s="2"/>
+      <c r="AD84" s="2"/>
+      <c r="AE84" s="2"/>
+      <c r="AF84" s="40"/>
     </row>
     <row r="85" spans="1:32">
       <c r="A85" s="8"/>
@@ -6447,15 +6444,15 @@
       <c r="U85" s="9"/>
       <c r="V85" s="9"/>
       <c r="W85" s="9"/>
-      <c r="X85" s="34"/>
-      <c r="Y85" s="34"/>
-      <c r="Z85" s="34"/>
-      <c r="AA85" s="34"/>
-      <c r="AB85" s="34"/>
-      <c r="AC85" s="34"/>
-      <c r="AD85" s="34"/>
-      <c r="AE85" s="34"/>
-      <c r="AF85" s="41"/>
+      <c r="X85" s="2"/>
+      <c r="Y85" s="2"/>
+      <c r="Z85" s="2"/>
+      <c r="AA85" s="2"/>
+      <c r="AB85" s="2"/>
+      <c r="AC85" s="2"/>
+      <c r="AD85" s="2"/>
+      <c r="AE85" s="2"/>
+      <c r="AF85" s="40"/>
     </row>
     <row r="86" spans="1:32">
       <c r="A86" s="8"/>
@@ -6481,15 +6478,15 @@
       <c r="U86" s="9"/>
       <c r="V86" s="9"/>
       <c r="W86" s="9"/>
-      <c r="X86" s="34"/>
-      <c r="Y86" s="34"/>
-      <c r="Z86" s="34"/>
-      <c r="AA86" s="34"/>
-      <c r="AB86" s="34"/>
-      <c r="AC86" s="34"/>
-      <c r="AD86" s="34"/>
-      <c r="AE86" s="34"/>
-      <c r="AF86" s="41"/>
+      <c r="X86" s="2"/>
+      <c r="Y86" s="2"/>
+      <c r="Z86" s="2"/>
+      <c r="AA86" s="2"/>
+      <c r="AB86" s="2"/>
+      <c r="AC86" s="2"/>
+      <c r="AD86" s="2"/>
+      <c r="AE86" s="2"/>
+      <c r="AF86" s="40"/>
     </row>
     <row r="87" spans="1:32">
       <c r="A87" s="8"/>
@@ -6515,15 +6512,15 @@
       <c r="U87" s="9"/>
       <c r="V87" s="9"/>
       <c r="W87" s="9"/>
-      <c r="X87" s="34"/>
-      <c r="Y87" s="34"/>
-      <c r="Z87" s="34"/>
-      <c r="AA87" s="34"/>
-      <c r="AB87" s="34"/>
-      <c r="AC87" s="34"/>
-      <c r="AD87" s="34"/>
-      <c r="AE87" s="34"/>
-      <c r="AF87" s="41"/>
+      <c r="X87" s="2"/>
+      <c r="Y87" s="2"/>
+      <c r="Z87" s="2"/>
+      <c r="AA87" s="2"/>
+      <c r="AB87" s="2"/>
+      <c r="AC87" s="2"/>
+      <c r="AD87" s="2"/>
+      <c r="AE87" s="2"/>
+      <c r="AF87" s="40"/>
     </row>
     <row r="88" spans="1:32">
       <c r="A88" s="8"/>
@@ -6549,15 +6546,15 @@
       <c r="U88" s="9"/>
       <c r="V88" s="9"/>
       <c r="W88" s="9"/>
-      <c r="X88" s="34"/>
-      <c r="Y88" s="34"/>
-      <c r="Z88" s="34"/>
-      <c r="AA88" s="34"/>
-      <c r="AB88" s="34"/>
-      <c r="AC88" s="34"/>
-      <c r="AD88" s="34"/>
-      <c r="AE88" s="34"/>
-      <c r="AF88" s="41"/>
+      <c r="X88" s="2"/>
+      <c r="Y88" s="2"/>
+      <c r="Z88" s="2"/>
+      <c r="AA88" s="2"/>
+      <c r="AB88" s="2"/>
+      <c r="AC88" s="2"/>
+      <c r="AD88" s="2"/>
+      <c r="AE88" s="2"/>
+      <c r="AF88" s="40"/>
     </row>
     <row r="89" spans="1:32">
       <c r="A89" s="8"/>
@@ -6583,15 +6580,15 @@
       <c r="U89" s="9"/>
       <c r="V89" s="9"/>
       <c r="W89" s="9"/>
-      <c r="X89" s="34"/>
-      <c r="Y89" s="34"/>
-      <c r="Z89" s="34"/>
-      <c r="AA89" s="34"/>
-      <c r="AB89" s="34"/>
-      <c r="AC89" s="34"/>
-      <c r="AD89" s="34"/>
-      <c r="AE89" s="34"/>
-      <c r="AF89" s="41"/>
+      <c r="X89" s="2"/>
+      <c r="Y89" s="2"/>
+      <c r="Z89" s="2"/>
+      <c r="AA89" s="2"/>
+      <c r="AB89" s="2"/>
+      <c r="AC89" s="2"/>
+      <c r="AD89" s="2"/>
+      <c r="AE89" s="2"/>
+      <c r="AF89" s="40"/>
     </row>
     <row r="90" spans="1:32">
       <c r="A90" s="8"/>
@@ -6617,15 +6614,15 @@
       <c r="U90" s="9"/>
       <c r="V90" s="9"/>
       <c r="W90" s="9"/>
-      <c r="X90" s="34"/>
-      <c r="Y90" s="34"/>
-      <c r="Z90" s="34"/>
-      <c r="AA90" s="34"/>
-      <c r="AB90" s="34"/>
-      <c r="AC90" s="34"/>
-      <c r="AD90" s="34"/>
-      <c r="AE90" s="34"/>
-      <c r="AF90" s="41"/>
+      <c r="X90" s="2"/>
+      <c r="Y90" s="2"/>
+      <c r="Z90" s="2"/>
+      <c r="AA90" s="2"/>
+      <c r="AB90" s="2"/>
+      <c r="AC90" s="2"/>
+      <c r="AD90" s="2"/>
+      <c r="AE90" s="2"/>
+      <c r="AF90" s="40"/>
     </row>
     <row r="91" spans="1:32">
       <c r="A91" s="8"/>
@@ -6651,15 +6648,15 @@
       <c r="U91" s="9"/>
       <c r="V91" s="9"/>
       <c r="W91" s="9"/>
-      <c r="X91" s="34"/>
-      <c r="Y91" s="34"/>
-      <c r="Z91" s="34"/>
-      <c r="AA91" s="34"/>
-      <c r="AB91" s="34"/>
-      <c r="AC91" s="34"/>
-      <c r="AD91" s="34"/>
-      <c r="AE91" s="34"/>
-      <c r="AF91" s="41"/>
+      <c r="X91" s="2"/>
+      <c r="Y91" s="2"/>
+      <c r="Z91" s="2"/>
+      <c r="AA91" s="2"/>
+      <c r="AB91" s="2"/>
+      <c r="AC91" s="2"/>
+      <c r="AD91" s="2"/>
+      <c r="AE91" s="2"/>
+      <c r="AF91" s="40"/>
     </row>
     <row r="92" spans="1:32">
       <c r="A92" s="8"/>
@@ -6685,15 +6682,15 @@
       <c r="U92" s="9"/>
       <c r="V92" s="9"/>
       <c r="W92" s="9"/>
-      <c r="X92" s="34"/>
-      <c r="Y92" s="34"/>
-      <c r="Z92" s="34"/>
-      <c r="AA92" s="34"/>
-      <c r="AB92" s="34"/>
-      <c r="AC92" s="34"/>
-      <c r="AD92" s="34"/>
-      <c r="AE92" s="34"/>
-      <c r="AF92" s="41"/>
+      <c r="X92" s="2"/>
+      <c r="Y92" s="2"/>
+      <c r="Z92" s="2"/>
+      <c r="AA92" s="2"/>
+      <c r="AB92" s="2"/>
+      <c r="AC92" s="2"/>
+      <c r="AD92" s="2"/>
+      <c r="AE92" s="2"/>
+      <c r="AF92" s="40"/>
     </row>
     <row r="93" spans="1:32">
       <c r="A93" s="8"/>
@@ -6719,15 +6716,15 @@
       <c r="U93" s="9"/>
       <c r="V93" s="9"/>
       <c r="W93" s="9"/>
-      <c r="X93" s="34"/>
-      <c r="Y93" s="34"/>
-      <c r="Z93" s="34"/>
-      <c r="AA93" s="34"/>
-      <c r="AB93" s="34"/>
-      <c r="AC93" s="34"/>
-      <c r="AD93" s="34"/>
-      <c r="AE93" s="34"/>
-      <c r="AF93" s="41"/>
+      <c r="X93" s="2"/>
+      <c r="Y93" s="2"/>
+      <c r="Z93" s="2"/>
+      <c r="AA93" s="2"/>
+      <c r="AB93" s="2"/>
+      <c r="AC93" s="2"/>
+      <c r="AD93" s="2"/>
+      <c r="AE93" s="2"/>
+      <c r="AF93" s="40"/>
     </row>
     <row r="94" spans="1:32">
       <c r="A94" s="8"/>
@@ -6753,15 +6750,15 @@
       <c r="U94" s="9"/>
       <c r="V94" s="9"/>
       <c r="W94" s="9"/>
-      <c r="X94" s="34"/>
-      <c r="Y94" s="34"/>
-      <c r="Z94" s="34"/>
-      <c r="AA94" s="34"/>
-      <c r="AB94" s="34"/>
-      <c r="AC94" s="34"/>
-      <c r="AD94" s="34"/>
-      <c r="AE94" s="34"/>
-      <c r="AF94" s="41"/>
+      <c r="X94" s="2"/>
+      <c r="Y94" s="2"/>
+      <c r="Z94" s="2"/>
+      <c r="AA94" s="2"/>
+      <c r="AB94" s="2"/>
+      <c r="AC94" s="2"/>
+      <c r="AD94" s="2"/>
+      <c r="AE94" s="2"/>
+      <c r="AF94" s="40"/>
     </row>
     <row r="95" spans="1:32">
       <c r="A95" s="8"/>
@@ -6787,15 +6784,15 @@
       <c r="U95" s="9"/>
       <c r="V95" s="9"/>
       <c r="W95" s="9"/>
-      <c r="X95" s="34"/>
-      <c r="Y95" s="34"/>
-      <c r="Z95" s="34"/>
-      <c r="AA95" s="34"/>
-      <c r="AB95" s="34"/>
-      <c r="AC95" s="34"/>
-      <c r="AD95" s="34"/>
-      <c r="AE95" s="34"/>
-      <c r="AF95" s="41"/>
+      <c r="X95" s="2"/>
+      <c r="Y95" s="2"/>
+      <c r="Z95" s="2"/>
+      <c r="AA95" s="2"/>
+      <c r="AB95" s="2"/>
+      <c r="AC95" s="2"/>
+      <c r="AD95" s="2"/>
+      <c r="AE95" s="2"/>
+      <c r="AF95" s="40"/>
     </row>
     <row r="96" spans="1:32">
       <c r="A96" s="8"/>
@@ -6821,15 +6818,15 @@
       <c r="U96" s="9"/>
       <c r="V96" s="9"/>
       <c r="W96" s="9"/>
-      <c r="X96" s="34"/>
-      <c r="Y96" s="34"/>
-      <c r="Z96" s="34"/>
-      <c r="AA96" s="34"/>
-      <c r="AB96" s="34"/>
-      <c r="AC96" s="34"/>
-      <c r="AD96" s="34"/>
-      <c r="AE96" s="34"/>
-      <c r="AF96" s="41"/>
+      <c r="X96" s="2"/>
+      <c r="Y96" s="2"/>
+      <c r="Z96" s="2"/>
+      <c r="AA96" s="2"/>
+      <c r="AB96" s="2"/>
+      <c r="AC96" s="2"/>
+      <c r="AD96" s="2"/>
+      <c r="AE96" s="2"/>
+      <c r="AF96" s="40"/>
     </row>
     <row r="97" spans="1:32">
       <c r="A97" s="8"/>
@@ -6855,15 +6852,15 @@
       <c r="U97" s="9"/>
       <c r="V97" s="9"/>
       <c r="W97" s="9"/>
-      <c r="X97" s="34"/>
-      <c r="Y97" s="34"/>
-      <c r="Z97" s="34"/>
-      <c r="AA97" s="34"/>
-      <c r="AB97" s="34"/>
-      <c r="AC97" s="34"/>
-      <c r="AD97" s="34"/>
-      <c r="AE97" s="34"/>
-      <c r="AF97" s="41"/>
+      <c r="X97" s="2"/>
+      <c r="Y97" s="2"/>
+      <c r="Z97" s="2"/>
+      <c r="AA97" s="2"/>
+      <c r="AB97" s="2"/>
+      <c r="AC97" s="2"/>
+      <c r="AD97" s="2"/>
+      <c r="AE97" s="2"/>
+      <c r="AF97" s="40"/>
     </row>
     <row r="98" spans="1:32">
       <c r="A98" s="8"/>
@@ -6889,15 +6886,15 @@
       <c r="U98" s="9"/>
       <c r="V98" s="9"/>
       <c r="W98" s="9"/>
-      <c r="X98" s="34"/>
-      <c r="Y98" s="34"/>
-      <c r="Z98" s="34"/>
-      <c r="AA98" s="34"/>
-      <c r="AB98" s="34"/>
-      <c r="AC98" s="34"/>
-      <c r="AD98" s="34"/>
-      <c r="AE98" s="34"/>
-      <c r="AF98" s="41"/>
+      <c r="X98" s="2"/>
+      <c r="Y98" s="2"/>
+      <c r="Z98" s="2"/>
+      <c r="AA98" s="2"/>
+      <c r="AB98" s="2"/>
+      <c r="AC98" s="2"/>
+      <c r="AD98" s="2"/>
+      <c r="AE98" s="2"/>
+      <c r="AF98" s="40"/>
     </row>
     <row r="99" spans="1:32">
       <c r="A99" s="8"/>
@@ -6923,15 +6920,15 @@
       <c r="U99" s="9"/>
       <c r="V99" s="9"/>
       <c r="W99" s="9"/>
-      <c r="X99" s="34"/>
-      <c r="Y99" s="34"/>
-      <c r="Z99" s="34"/>
-      <c r="AA99" s="34"/>
-      <c r="AB99" s="34"/>
-      <c r="AC99" s="34"/>
-      <c r="AD99" s="34"/>
-      <c r="AE99" s="34"/>
-      <c r="AF99" s="41"/>
+      <c r="X99" s="2"/>
+      <c r="Y99" s="2"/>
+      <c r="Z99" s="2"/>
+      <c r="AA99" s="2"/>
+      <c r="AB99" s="2"/>
+      <c r="AC99" s="2"/>
+      <c r="AD99" s="2"/>
+      <c r="AE99" s="2"/>
+      <c r="AF99" s="40"/>
     </row>
     <row r="100" spans="1:32">
       <c r="A100" s="8"/>
@@ -6957,15 +6954,15 @@
       <c r="U100" s="9"/>
       <c r="V100" s="9"/>
       <c r="W100" s="9"/>
-      <c r="X100" s="34"/>
-      <c r="Y100" s="34"/>
-      <c r="Z100" s="34"/>
-      <c r="AA100" s="34"/>
-      <c r="AB100" s="34"/>
-      <c r="AC100" s="34"/>
-      <c r="AD100" s="34"/>
-      <c r="AE100" s="34"/>
-      <c r="AF100" s="41"/>
+      <c r="X100" s="2"/>
+      <c r="Y100" s="2"/>
+      <c r="Z100" s="2"/>
+      <c r="AA100" s="2"/>
+      <c r="AB100" s="2"/>
+      <c r="AC100" s="2"/>
+      <c r="AD100" s="2"/>
+      <c r="AE100" s="2"/>
+      <c r="AF100" s="40"/>
     </row>
     <row r="101" spans="1:32">
       <c r="A101" s="8"/>
@@ -6991,15 +6988,15 @@
       <c r="U101" s="9"/>
       <c r="V101" s="9"/>
       <c r="W101" s="9"/>
-      <c r="X101" s="34"/>
-      <c r="Y101" s="34"/>
-      <c r="Z101" s="34"/>
-      <c r="AA101" s="34"/>
-      <c r="AB101" s="34"/>
-      <c r="AC101" s="34"/>
-      <c r="AD101" s="34"/>
-      <c r="AE101" s="34"/>
-      <c r="AF101" s="41"/>
+      <c r="X101" s="2"/>
+      <c r="Y101" s="2"/>
+      <c r="Z101" s="2"/>
+      <c r="AA101" s="2"/>
+      <c r="AB101" s="2"/>
+      <c r="AC101" s="2"/>
+      <c r="AD101" s="2"/>
+      <c r="AE101" s="2"/>
+      <c r="AF101" s="40"/>
     </row>
     <row r="102" spans="1:32">
       <c r="A102" s="8"/>
@@ -7025,15 +7022,15 @@
       <c r="U102" s="9"/>
       <c r="V102" s="9"/>
       <c r="W102" s="9"/>
-      <c r="X102" s="34"/>
-      <c r="Y102" s="34"/>
-      <c r="Z102" s="34"/>
-      <c r="AA102" s="34"/>
-      <c r="AB102" s="34"/>
-      <c r="AC102" s="34"/>
-      <c r="AD102" s="34"/>
-      <c r="AE102" s="34"/>
-      <c r="AF102" s="41"/>
+      <c r="X102" s="2"/>
+      <c r="Y102" s="2"/>
+      <c r="Z102" s="2"/>
+      <c r="AA102" s="2"/>
+      <c r="AB102" s="2"/>
+      <c r="AC102" s="2"/>
+      <c r="AD102" s="2"/>
+      <c r="AE102" s="2"/>
+      <c r="AF102" s="40"/>
     </row>
     <row r="103" spans="1:32">
       <c r="A103" s="8"/>
@@ -7059,15 +7056,15 @@
       <c r="U103" s="9"/>
       <c r="V103" s="9"/>
       <c r="W103" s="9"/>
-      <c r="X103" s="34"/>
-      <c r="Y103" s="34"/>
-      <c r="Z103" s="34"/>
-      <c r="AA103" s="34"/>
-      <c r="AB103" s="34"/>
-      <c r="AC103" s="34"/>
-      <c r="AD103" s="34"/>
-      <c r="AE103" s="34"/>
-      <c r="AF103" s="41"/>
+      <c r="X103" s="2"/>
+      <c r="Y103" s="2"/>
+      <c r="Z103" s="2"/>
+      <c r="AA103" s="2"/>
+      <c r="AB103" s="2"/>
+      <c r="AC103" s="2"/>
+      <c r="AD103" s="2"/>
+      <c r="AE103" s="2"/>
+      <c r="AF103" s="40"/>
     </row>
     <row r="104" spans="1:32">
       <c r="A104" s="8"/>
@@ -7093,15 +7090,15 @@
       <c r="U104" s="9"/>
       <c r="V104" s="9"/>
       <c r="W104" s="9"/>
-      <c r="X104" s="34"/>
-      <c r="Y104" s="34"/>
-      <c r="Z104" s="34"/>
-      <c r="AA104" s="34"/>
-      <c r="AB104" s="34"/>
-      <c r="AC104" s="34"/>
-      <c r="AD104" s="34"/>
-      <c r="AE104" s="34"/>
-      <c r="AF104" s="41"/>
+      <c r="X104" s="2"/>
+      <c r="Y104" s="2"/>
+      <c r="Z104" s="2"/>
+      <c r="AA104" s="2"/>
+      <c r="AB104" s="2"/>
+      <c r="AC104" s="2"/>
+      <c r="AD104" s="2"/>
+      <c r="AE104" s="2"/>
+      <c r="AF104" s="40"/>
     </row>
     <row r="105" spans="1:32">
       <c r="A105" s="8"/>
@@ -7127,15 +7124,15 @@
       <c r="U105" s="9"/>
       <c r="V105" s="9"/>
       <c r="W105" s="9"/>
-      <c r="X105" s="34"/>
-      <c r="Y105" s="34"/>
-      <c r="Z105" s="34"/>
-      <c r="AA105" s="34"/>
-      <c r="AB105" s="34"/>
-      <c r="AC105" s="34"/>
-      <c r="AD105" s="34"/>
-      <c r="AE105" s="34"/>
-      <c r="AF105" s="41"/>
+      <c r="X105" s="2"/>
+      <c r="Y105" s="2"/>
+      <c r="Z105" s="2"/>
+      <c r="AA105" s="2"/>
+      <c r="AB105" s="2"/>
+      <c r="AC105" s="2"/>
+      <c r="AD105" s="2"/>
+      <c r="AE105" s="2"/>
+      <c r="AF105" s="40"/>
     </row>
     <row r="106" spans="1:32">
       <c r="A106" s="8"/>
@@ -7161,15 +7158,15 @@
       <c r="U106" s="9"/>
       <c r="V106" s="9"/>
       <c r="W106" s="9"/>
-      <c r="X106" s="34"/>
-      <c r="Y106" s="34"/>
-      <c r="Z106" s="34"/>
-      <c r="AA106" s="34"/>
-      <c r="AB106" s="34"/>
-      <c r="AC106" s="34"/>
-      <c r="AD106" s="34"/>
-      <c r="AE106" s="34"/>
-      <c r="AF106" s="41"/>
+      <c r="X106" s="2"/>
+      <c r="Y106" s="2"/>
+      <c r="Z106" s="2"/>
+      <c r="AA106" s="2"/>
+      <c r="AB106" s="2"/>
+      <c r="AC106" s="2"/>
+      <c r="AD106" s="2"/>
+      <c r="AE106" s="2"/>
+      <c r="AF106" s="40"/>
     </row>
     <row r="107" spans="1:32">
       <c r="A107" s="8"/>
@@ -7195,15 +7192,15 @@
       <c r="U107" s="9"/>
       <c r="V107" s="9"/>
       <c r="W107" s="9"/>
-      <c r="X107" s="34"/>
-      <c r="Y107" s="34"/>
-      <c r="Z107" s="34"/>
-      <c r="AA107" s="34"/>
-      <c r="AB107" s="34"/>
-      <c r="AC107" s="34"/>
-      <c r="AD107" s="34"/>
-      <c r="AE107" s="34"/>
-      <c r="AF107" s="41"/>
+      <c r="X107" s="2"/>
+      <c r="Y107" s="2"/>
+      <c r="Z107" s="2"/>
+      <c r="AA107" s="2"/>
+      <c r="AB107" s="2"/>
+      <c r="AC107" s="2"/>
+      <c r="AD107" s="2"/>
+      <c r="AE107" s="2"/>
+      <c r="AF107" s="40"/>
     </row>
     <row r="108" spans="1:32">
       <c r="A108" s="8"/>
@@ -7229,15 +7226,15 @@
       <c r="U108" s="9"/>
       <c r="V108" s="9"/>
       <c r="W108" s="9"/>
-      <c r="X108" s="34"/>
-      <c r="Y108" s="34"/>
-      <c r="Z108" s="34"/>
-      <c r="AA108" s="34"/>
-      <c r="AB108" s="34"/>
-      <c r="AC108" s="34"/>
-      <c r="AD108" s="34"/>
-      <c r="AE108" s="34"/>
-      <c r="AF108" s="41"/>
+      <c r="X108" s="2"/>
+      <c r="Y108" s="2"/>
+      <c r="Z108" s="2"/>
+      <c r="AA108" s="2"/>
+      <c r="AB108" s="2"/>
+      <c r="AC108" s="2"/>
+      <c r="AD108" s="2"/>
+      <c r="AE108" s="2"/>
+      <c r="AF108" s="40"/>
     </row>
     <row r="109" spans="1:32">
       <c r="A109" s="8"/>
@@ -7263,15 +7260,15 @@
       <c r="U109" s="9"/>
       <c r="V109" s="9"/>
       <c r="W109" s="9"/>
-      <c r="X109" s="34"/>
-      <c r="Y109" s="34"/>
-      <c r="Z109" s="34"/>
-      <c r="AA109" s="34"/>
-      <c r="AB109" s="34"/>
-      <c r="AC109" s="34"/>
-      <c r="AD109" s="34"/>
-      <c r="AE109" s="34"/>
-      <c r="AF109" s="41"/>
+      <c r="X109" s="2"/>
+      <c r="Y109" s="2"/>
+      <c r="Z109" s="2"/>
+      <c r="AA109" s="2"/>
+      <c r="AB109" s="2"/>
+      <c r="AC109" s="2"/>
+      <c r="AD109" s="2"/>
+      <c r="AE109" s="2"/>
+      <c r="AF109" s="40"/>
     </row>
     <row r="110" spans="1:32">
       <c r="A110" s="8"/>
@@ -7297,15 +7294,15 @@
       <c r="U110" s="9"/>
       <c r="V110" s="9"/>
       <c r="W110" s="9"/>
-      <c r="X110" s="34"/>
-      <c r="Y110" s="34"/>
-      <c r="Z110" s="34"/>
-      <c r="AA110" s="34"/>
-      <c r="AB110" s="34"/>
-      <c r="AC110" s="34"/>
-      <c r="AD110" s="34"/>
-      <c r="AE110" s="34"/>
-      <c r="AF110" s="41"/>
+      <c r="X110" s="2"/>
+      <c r="Y110" s="2"/>
+      <c r="Z110" s="2"/>
+      <c r="AA110" s="2"/>
+      <c r="AB110" s="2"/>
+      <c r="AC110" s="2"/>
+      <c r="AD110" s="2"/>
+      <c r="AE110" s="2"/>
+      <c r="AF110" s="40"/>
     </row>
     <row r="111" spans="1:32">
       <c r="A111" s="8"/>
@@ -7331,15 +7328,15 @@
       <c r="U111" s="9"/>
       <c r="V111" s="9"/>
       <c r="W111" s="9"/>
-      <c r="X111" s="34"/>
-      <c r="Y111" s="34"/>
-      <c r="Z111" s="34"/>
-      <c r="AA111" s="34"/>
-      <c r="AB111" s="34"/>
-      <c r="AC111" s="34"/>
-      <c r="AD111" s="34"/>
-      <c r="AE111" s="34"/>
-      <c r="AF111" s="41"/>
+      <c r="X111" s="2"/>
+      <c r="Y111" s="2"/>
+      <c r="Z111" s="2"/>
+      <c r="AA111" s="2"/>
+      <c r="AB111" s="2"/>
+      <c r="AC111" s="2"/>
+      <c r="AD111" s="2"/>
+      <c r="AE111" s="2"/>
+      <c r="AF111" s="40"/>
     </row>
     <row r="112" spans="1:32">
       <c r="A112" s="8"/>
@@ -7365,15 +7362,15 @@
       <c r="U112" s="9"/>
       <c r="V112" s="9"/>
       <c r="W112" s="9"/>
-      <c r="X112" s="34"/>
-      <c r="Y112" s="34"/>
-      <c r="Z112" s="34"/>
-      <c r="AA112" s="34"/>
-      <c r="AB112" s="34"/>
-      <c r="AC112" s="34"/>
-      <c r="AD112" s="34"/>
-      <c r="AE112" s="34"/>
-      <c r="AF112" s="41"/>
+      <c r="X112" s="2"/>
+      <c r="Y112" s="2"/>
+      <c r="Z112" s="2"/>
+      <c r="AA112" s="2"/>
+      <c r="AB112" s="2"/>
+      <c r="AC112" s="2"/>
+      <c r="AD112" s="2"/>
+      <c r="AE112" s="2"/>
+      <c r="AF112" s="40"/>
     </row>
     <row r="113" spans="1:32">
       <c r="A113" s="8"/>
@@ -7399,15 +7396,15 @@
       <c r="U113" s="9"/>
       <c r="V113" s="9"/>
       <c r="W113" s="9"/>
-      <c r="X113" s="34"/>
-      <c r="Y113" s="34"/>
-      <c r="Z113" s="34"/>
-      <c r="AA113" s="34"/>
-      <c r="AB113" s="34"/>
-      <c r="AC113" s="34"/>
-      <c r="AD113" s="34"/>
-      <c r="AE113" s="34"/>
-      <c r="AF113" s="41"/>
+      <c r="X113" s="2"/>
+      <c r="Y113" s="2"/>
+      <c r="Z113" s="2"/>
+      <c r="AA113" s="2"/>
+      <c r="AB113" s="2"/>
+      <c r="AC113" s="2"/>
+      <c r="AD113" s="2"/>
+      <c r="AE113" s="2"/>
+      <c r="AF113" s="40"/>
     </row>
     <row r="114" spans="1:32">
       <c r="A114" s="8"/>
@@ -7433,15 +7430,15 @@
       <c r="U114" s="9"/>
       <c r="V114" s="9"/>
       <c r="W114" s="9"/>
-      <c r="X114" s="34"/>
-      <c r="Y114" s="34"/>
-      <c r="Z114" s="34"/>
-      <c r="AA114" s="34"/>
-      <c r="AB114" s="34"/>
-      <c r="AC114" s="34"/>
-      <c r="AD114" s="34"/>
-      <c r="AE114" s="34"/>
-      <c r="AF114" s="41"/>
+      <c r="X114" s="2"/>
+      <c r="Y114" s="2"/>
+      <c r="Z114" s="2"/>
+      <c r="AA114" s="2"/>
+      <c r="AB114" s="2"/>
+      <c r="AC114" s="2"/>
+      <c r="AD114" s="2"/>
+      <c r="AE114" s="2"/>
+      <c r="AF114" s="40"/>
     </row>
     <row r="115" spans="1:32">
       <c r="A115" s="8"/>
@@ -7467,15 +7464,15 @@
       <c r="U115" s="9"/>
       <c r="V115" s="9"/>
       <c r="W115" s="9"/>
-      <c r="X115" s="34"/>
-      <c r="Y115" s="34"/>
-      <c r="Z115" s="34"/>
-      <c r="AA115" s="34"/>
-      <c r="AB115" s="34"/>
-      <c r="AC115" s="34"/>
-      <c r="AD115" s="34"/>
-      <c r="AE115" s="34"/>
-      <c r="AF115" s="41"/>
+      <c r="X115" s="2"/>
+      <c r="Y115" s="2"/>
+      <c r="Z115" s="2"/>
+      <c r="AA115" s="2"/>
+      <c r="AB115" s="2"/>
+      <c r="AC115" s="2"/>
+      <c r="AD115" s="2"/>
+      <c r="AE115" s="2"/>
+      <c r="AF115" s="40"/>
     </row>
     <row r="116" spans="1:32">
       <c r="A116" s="8"/>
@@ -7501,15 +7498,15 @@
       <c r="U116" s="9"/>
       <c r="V116" s="9"/>
       <c r="W116" s="9"/>
-      <c r="X116" s="34"/>
-      <c r="Y116" s="34"/>
-      <c r="Z116" s="34"/>
-      <c r="AA116" s="34"/>
-      <c r="AB116" s="34"/>
-      <c r="AC116" s="34"/>
-      <c r="AD116" s="34"/>
-      <c r="AE116" s="34"/>
-      <c r="AF116" s="41"/>
+      <c r="X116" s="2"/>
+      <c r="Y116" s="2"/>
+      <c r="Z116" s="2"/>
+      <c r="AA116" s="2"/>
+      <c r="AB116" s="2"/>
+      <c r="AC116" s="2"/>
+      <c r="AD116" s="2"/>
+      <c r="AE116" s="2"/>
+      <c r="AF116" s="40"/>
     </row>
     <row r="117" spans="1:32">
       <c r="A117" s="8"/>
@@ -7535,15 +7532,15 @@
       <c r="U117" s="9"/>
       <c r="V117" s="9"/>
       <c r="W117" s="9"/>
-      <c r="X117" s="34"/>
-      <c r="Y117" s="34"/>
-      <c r="Z117" s="34"/>
-      <c r="AA117" s="34"/>
-      <c r="AB117" s="34"/>
-      <c r="AC117" s="34"/>
-      <c r="AD117" s="34"/>
-      <c r="AE117" s="34"/>
-      <c r="AF117" s="41"/>
+      <c r="X117" s="2"/>
+      <c r="Y117" s="2"/>
+      <c r="Z117" s="2"/>
+      <c r="AA117" s="2"/>
+      <c r="AB117" s="2"/>
+      <c r="AC117" s="2"/>
+      <c r="AD117" s="2"/>
+      <c r="AE117" s="2"/>
+      <c r="AF117" s="40"/>
     </row>
     <row r="118" spans="1:32">
       <c r="A118" s="8"/>
@@ -7569,15 +7566,15 @@
       <c r="U118" s="9"/>
       <c r="V118" s="9"/>
       <c r="W118" s="9"/>
-      <c r="X118" s="34"/>
-      <c r="Y118" s="34"/>
-      <c r="Z118" s="34"/>
-      <c r="AA118" s="34"/>
-      <c r="AB118" s="34"/>
-      <c r="AC118" s="34"/>
-      <c r="AD118" s="34"/>
-      <c r="AE118" s="34"/>
-      <c r="AF118" s="41"/>
+      <c r="X118" s="2"/>
+      <c r="Y118" s="2"/>
+      <c r="Z118" s="2"/>
+      <c r="AA118" s="2"/>
+      <c r="AB118" s="2"/>
+      <c r="AC118" s="2"/>
+      <c r="AD118" s="2"/>
+      <c r="AE118" s="2"/>
+      <c r="AF118" s="40"/>
     </row>
     <row r="119" spans="1:32">
       <c r="A119" s="8"/>
@@ -7603,15 +7600,15 @@
       <c r="U119" s="9"/>
       <c r="V119" s="9"/>
       <c r="W119" s="9"/>
-      <c r="X119" s="34"/>
-      <c r="Y119" s="34"/>
-      <c r="Z119" s="34"/>
-      <c r="AA119" s="34"/>
-      <c r="AB119" s="34"/>
-      <c r="AC119" s="34"/>
-      <c r="AD119" s="34"/>
-      <c r="AE119" s="34"/>
-      <c r="AF119" s="41"/>
+      <c r="X119" s="2"/>
+      <c r="Y119" s="2"/>
+      <c r="Z119" s="2"/>
+      <c r="AA119" s="2"/>
+      <c r="AB119" s="2"/>
+      <c r="AC119" s="2"/>
+      <c r="AD119" s="2"/>
+      <c r="AE119" s="2"/>
+      <c r="AF119" s="40"/>
     </row>
     <row r="120" spans="1:32">
       <c r="A120" s="8"/>
@@ -7637,15 +7634,15 @@
       <c r="U120" s="9"/>
       <c r="V120" s="9"/>
       <c r="W120" s="9"/>
-      <c r="X120" s="34"/>
-      <c r="Y120" s="34"/>
-      <c r="Z120" s="34"/>
-      <c r="AA120" s="34"/>
-      <c r="AB120" s="34"/>
-      <c r="AC120" s="34"/>
-      <c r="AD120" s="34"/>
-      <c r="AE120" s="34"/>
-      <c r="AF120" s="41"/>
+      <c r="X120" s="2"/>
+      <c r="Y120" s="2"/>
+      <c r="Z120" s="2"/>
+      <c r="AA120" s="2"/>
+      <c r="AB120" s="2"/>
+      <c r="AC120" s="2"/>
+      <c r="AD120" s="2"/>
+      <c r="AE120" s="2"/>
+      <c r="AF120" s="40"/>
     </row>
     <row r="121" spans="1:32">
       <c r="A121" s="8"/>
@@ -7671,15 +7668,15 @@
       <c r="U121" s="9"/>
       <c r="V121" s="9"/>
       <c r="W121" s="9"/>
-      <c r="X121" s="34"/>
-      <c r="Y121" s="34"/>
-      <c r="Z121" s="34"/>
-      <c r="AA121" s="34"/>
-      <c r="AB121" s="34"/>
-      <c r="AC121" s="34"/>
-      <c r="AD121" s="34"/>
-      <c r="AE121" s="34"/>
-      <c r="AF121" s="41"/>
+      <c r="X121" s="2"/>
+      <c r="Y121" s="2"/>
+      <c r="Z121" s="2"/>
+      <c r="AA121" s="2"/>
+      <c r="AB121" s="2"/>
+      <c r="AC121" s="2"/>
+      <c r="AD121" s="2"/>
+      <c r="AE121" s="2"/>
+      <c r="AF121" s="40"/>
     </row>
     <row r="122" spans="1:32">
       <c r="A122" s="8"/>
@@ -7705,15 +7702,15 @@
       <c r="U122" s="9"/>
       <c r="V122" s="9"/>
       <c r="W122" s="9"/>
-      <c r="X122" s="34"/>
-      <c r="Y122" s="34"/>
-      <c r="Z122" s="34"/>
-      <c r="AA122" s="34"/>
-      <c r="AB122" s="34"/>
-      <c r="AC122" s="34"/>
-      <c r="AD122" s="34"/>
-      <c r="AE122" s="34"/>
-      <c r="AF122" s="41"/>
+      <c r="X122" s="2"/>
+      <c r="Y122" s="2"/>
+      <c r="Z122" s="2"/>
+      <c r="AA122" s="2"/>
+      <c r="AB122" s="2"/>
+      <c r="AC122" s="2"/>
+      <c r="AD122" s="2"/>
+      <c r="AE122" s="2"/>
+      <c r="AF122" s="40"/>
     </row>
     <row r="123" spans="1:32">
       <c r="A123" s="8"/>
@@ -7739,15 +7736,15 @@
       <c r="U123" s="9"/>
       <c r="V123" s="9"/>
       <c r="W123" s="9"/>
-      <c r="X123" s="34"/>
-      <c r="Y123" s="34"/>
-      <c r="Z123" s="34"/>
-      <c r="AA123" s="34"/>
-      <c r="AB123" s="34"/>
-      <c r="AC123" s="34"/>
-      <c r="AD123" s="34"/>
-      <c r="AE123" s="34"/>
-      <c r="AF123" s="41"/>
+      <c r="X123" s="2"/>
+      <c r="Y123" s="2"/>
+      <c r="Z123" s="2"/>
+      <c r="AA123" s="2"/>
+      <c r="AB123" s="2"/>
+      <c r="AC123" s="2"/>
+      <c r="AD123" s="2"/>
+      <c r="AE123" s="2"/>
+      <c r="AF123" s="40"/>
     </row>
     <row r="124" spans="1:32">
       <c r="A124" s="8"/>
@@ -7773,15 +7770,15 @@
       <c r="U124" s="9"/>
       <c r="V124" s="9"/>
       <c r="W124" s="9"/>
-      <c r="X124" s="34"/>
-      <c r="Y124" s="34"/>
-      <c r="Z124" s="34"/>
-      <c r="AA124" s="34"/>
-      <c r="AB124" s="34"/>
-      <c r="AC124" s="34"/>
-      <c r="AD124" s="34"/>
-      <c r="AE124" s="34"/>
-      <c r="AF124" s="41"/>
+      <c r="X124" s="2"/>
+      <c r="Y124" s="2"/>
+      <c r="Z124" s="2"/>
+      <c r="AA124" s="2"/>
+      <c r="AB124" s="2"/>
+      <c r="AC124" s="2"/>
+      <c r="AD124" s="2"/>
+      <c r="AE124" s="2"/>
+      <c r="AF124" s="40"/>
     </row>
     <row r="125" spans="1:32">
       <c r="A125" s="8"/>
@@ -7807,15 +7804,15 @@
       <c r="U125" s="9"/>
       <c r="V125" s="9"/>
       <c r="W125" s="9"/>
-      <c r="X125" s="34"/>
-      <c r="Y125" s="34"/>
-      <c r="Z125" s="34"/>
-      <c r="AA125" s="34"/>
-      <c r="AB125" s="34"/>
-      <c r="AC125" s="34"/>
-      <c r="AD125" s="34"/>
-      <c r="AE125" s="34"/>
-      <c r="AF125" s="41"/>
+      <c r="X125" s="2"/>
+      <c r="Y125" s="2"/>
+      <c r="Z125" s="2"/>
+      <c r="AA125" s="2"/>
+      <c r="AB125" s="2"/>
+      <c r="AC125" s="2"/>
+      <c r="AD125" s="2"/>
+      <c r="AE125" s="2"/>
+      <c r="AF125" s="40"/>
     </row>
     <row r="126" spans="1:32">
       <c r="A126" s="8"/>
@@ -7841,15 +7838,15 @@
       <c r="U126" s="9"/>
       <c r="V126" s="9"/>
       <c r="W126" s="9"/>
-      <c r="X126" s="34"/>
-      <c r="Y126" s="34"/>
-      <c r="Z126" s="34"/>
-      <c r="AA126" s="34"/>
-      <c r="AB126" s="34"/>
-      <c r="AC126" s="34"/>
-      <c r="AD126" s="34"/>
-      <c r="AE126" s="34"/>
-      <c r="AF126" s="41"/>
+      <c r="X126" s="2"/>
+      <c r="Y126" s="2"/>
+      <c r="Z126" s="2"/>
+      <c r="AA126" s="2"/>
+      <c r="AB126" s="2"/>
+      <c r="AC126" s="2"/>
+      <c r="AD126" s="2"/>
+      <c r="AE126" s="2"/>
+      <c r="AF126" s="40"/>
     </row>
     <row r="127" spans="1:32">
       <c r="A127" s="8"/>
@@ -7875,15 +7872,15 @@
       <c r="U127" s="9"/>
       <c r="V127" s="9"/>
       <c r="W127" s="9"/>
-      <c r="X127" s="34"/>
-      <c r="Y127" s="34"/>
-      <c r="Z127" s="34"/>
-      <c r="AA127" s="34"/>
-      <c r="AB127" s="34"/>
-      <c r="AC127" s="34"/>
-      <c r="AD127" s="34"/>
-      <c r="AE127" s="34"/>
-      <c r="AF127" s="41"/>
+      <c r="X127" s="2"/>
+      <c r="Y127" s="2"/>
+      <c r="Z127" s="2"/>
+      <c r="AA127" s="2"/>
+      <c r="AB127" s="2"/>
+      <c r="AC127" s="2"/>
+      <c r="AD127" s="2"/>
+      <c r="AE127" s="2"/>
+      <c r="AF127" s="40"/>
     </row>
     <row r="128" spans="1:32">
       <c r="A128" s="8"/>
@@ -7909,15 +7906,15 @@
       <c r="U128" s="9"/>
       <c r="V128" s="9"/>
       <c r="W128" s="9"/>
-      <c r="X128" s="34"/>
-      <c r="Y128" s="34"/>
-      <c r="Z128" s="34"/>
-      <c r="AA128" s="34"/>
-      <c r="AB128" s="34"/>
-      <c r="AC128" s="34"/>
-      <c r="AD128" s="34"/>
-      <c r="AE128" s="34"/>
-      <c r="AF128" s="41"/>
+      <c r="X128" s="2"/>
+      <c r="Y128" s="2"/>
+      <c r="Z128" s="2"/>
+      <c r="AA128" s="2"/>
+      <c r="AB128" s="2"/>
+      <c r="AC128" s="2"/>
+      <c r="AD128" s="2"/>
+      <c r="AE128" s="2"/>
+      <c r="AF128" s="40"/>
     </row>
     <row r="129" spans="1:32">
       <c r="A129" s="8"/>
@@ -7943,15 +7940,15 @@
       <c r="U129" s="9"/>
       <c r="V129" s="9"/>
       <c r="W129" s="9"/>
-      <c r="X129" s="34"/>
-      <c r="Y129" s="34"/>
-      <c r="Z129" s="34"/>
-      <c r="AA129" s="34"/>
-      <c r="AB129" s="34"/>
-      <c r="AC129" s="34"/>
-      <c r="AD129" s="34"/>
-      <c r="AE129" s="34"/>
-      <c r="AF129" s="41"/>
+      <c r="X129" s="2"/>
+      <c r="Y129" s="2"/>
+      <c r="Z129" s="2"/>
+      <c r="AA129" s="2"/>
+      <c r="AB129" s="2"/>
+      <c r="AC129" s="2"/>
+      <c r="AD129" s="2"/>
+      <c r="AE129" s="2"/>
+      <c r="AF129" s="40"/>
     </row>
     <row r="130" spans="1:32">
       <c r="A130" s="8"/>
@@ -7977,15 +7974,15 @@
       <c r="U130" s="9"/>
       <c r="V130" s="9"/>
       <c r="W130" s="9"/>
-      <c r="X130" s="34"/>
-      <c r="Y130" s="34"/>
-      <c r="Z130" s="34"/>
-      <c r="AA130" s="34"/>
-      <c r="AB130" s="34"/>
-      <c r="AC130" s="34"/>
-      <c r="AD130" s="34"/>
-      <c r="AE130" s="34"/>
-      <c r="AF130" s="41"/>
+      <c r="X130" s="2"/>
+      <c r="Y130" s="2"/>
+      <c r="Z130" s="2"/>
+      <c r="AA130" s="2"/>
+      <c r="AB130" s="2"/>
+      <c r="AC130" s="2"/>
+      <c r="AD130" s="2"/>
+      <c r="AE130" s="2"/>
+      <c r="AF130" s="40"/>
     </row>
     <row r="131" spans="1:32">
       <c r="A131" s="8"/>
@@ -8011,15 +8008,15 @@
       <c r="U131" s="9"/>
       <c r="V131" s="9"/>
       <c r="W131" s="9"/>
-      <c r="X131" s="34"/>
-      <c r="Y131" s="34"/>
-      <c r="Z131" s="34"/>
-      <c r="AA131" s="34"/>
-      <c r="AB131" s="34"/>
-      <c r="AC131" s="34"/>
-      <c r="AD131" s="34"/>
-      <c r="AE131" s="34"/>
-      <c r="AF131" s="41"/>
+      <c r="X131" s="2"/>
+      <c r="Y131" s="2"/>
+      <c r="Z131" s="2"/>
+      <c r="AA131" s="2"/>
+      <c r="AB131" s="2"/>
+      <c r="AC131" s="2"/>
+      <c r="AD131" s="2"/>
+      <c r="AE131" s="2"/>
+      <c r="AF131" s="40"/>
     </row>
     <row r="132" spans="1:32">
       <c r="A132" s="8"/>
@@ -8045,15 +8042,15 @@
       <c r="U132" s="9"/>
       <c r="V132" s="9"/>
       <c r="W132" s="9"/>
-      <c r="X132" s="34"/>
-      <c r="Y132" s="34"/>
-      <c r="Z132" s="34"/>
-      <c r="AA132" s="34"/>
-      <c r="AB132" s="34"/>
-      <c r="AC132" s="34"/>
-      <c r="AD132" s="34"/>
-      <c r="AE132" s="34"/>
-      <c r="AF132" s="41"/>
+      <c r="X132" s="2"/>
+      <c r="Y132" s="2"/>
+      <c r="Z132" s="2"/>
+      <c r="AA132" s="2"/>
+      <c r="AB132" s="2"/>
+      <c r="AC132" s="2"/>
+      <c r="AD132" s="2"/>
+      <c r="AE132" s="2"/>
+      <c r="AF132" s="40"/>
     </row>
     <row r="133" spans="1:23">
       <c r="A133" s="1"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/同仁堂.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/同仁堂.xlsx
@@ -233,12 +233,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -292,14 +292,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -339,7 +331,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -352,9 +359,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -368,8 +375,16 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -391,14 +406,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -408,15 +415,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -547,13 +547,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -565,7 +571,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -577,7 +583,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -589,91 +613,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -691,13 +637,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -709,13 +709,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -792,11 +792,61 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -816,36 +866,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -860,170 +880,150 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="38" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1049,10 +1049,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1130,13 +1130,13 @@
     <xf numFmtId="49" fontId="4" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2993,11 +2993,11 @@
   <dimension ref="A1:AG503"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AC2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="S10" sqref="S10"/>
+      <selection pane="bottomRight" activeCell="AG6" sqref="AG6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/同仁堂.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/同仁堂.xlsx
@@ -234,10 +234,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
@@ -292,6 +292,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -299,23 +307,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -331,9 +332,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -345,37 +353,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -392,23 +371,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -417,6 +380,43 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -547,7 +547,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -559,49 +661,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -625,97 +703,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -792,6 +792,65 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -821,158 +880,99 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="43" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="38" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -981,49 +981,49 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1049,10 +1049,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1130,13 +1130,13 @@
     <xf numFmtId="49" fontId="4" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2993,11 +2993,11 @@
   <dimension ref="A1:AG503"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AC2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AG6" sqref="AG6"/>
+      <selection pane="bottomRight" activeCell="O4" sqref="O4:O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/同仁堂.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/同仁堂.xlsx
@@ -233,12 +233,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -292,6 +292,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -300,64 +307,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -370,33 +324,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -416,7 +347,76 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -553,7 +553,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -565,43 +691,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -613,109 +709,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -801,30 +801,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -842,10 +818,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -866,6 +840,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -880,129 +865,144 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="43" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="40" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1011,16 +1011,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2993,11 +2993,11 @@
   <dimension ref="A1:AG503"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O4" sqref="O4:O5"/>
+      <selection pane="bottomRight" activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -3346,7 +3346,10 @@
       <c r="R6" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="S6" s="9"/>
+      <c r="S6" s="22" t="str">
+        <f>IF(I6/(ROW()-5)&gt;=0.5,"是","否")</f>
+        <v>是</v>
+      </c>
       <c r="T6" s="22" t="s">
         <v>43</v>
       </c>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/同仁堂.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/同仁堂.xlsx
@@ -2997,7 +2997,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="S10" sqref="S10"/>
+      <selection pane="bottomRight" activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/同仁堂.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/同仁堂.xlsx
@@ -234,10 +234,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
@@ -279,14 +279,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -299,11 +300,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -324,23 +362,23 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -354,55 +392,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -416,7 +409,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -553,7 +553,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -565,13 +565,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -583,25 +601,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -625,49 +649,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -685,37 +685,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -783,11 +783,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -812,41 +818,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -880,153 +851,182 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="40" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2997,7 +2997,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="R7" sqref="R7"/>
+      <selection pane="bottomRight" activeCell="T13" sqref="T13:T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -3949,11 +3949,11 @@
         <v>0.5</v>
       </c>
       <c r="M13" s="22" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(B13&gt;(D13-(D13-E13)/2),"上部","下部")</f>
         <v>下部</v>
       </c>
       <c r="N13" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(B13&lt;=F13,"是","否")</f>
         <v>否</v>
       </c>
       <c r="O13" s="9" t="s">
@@ -4001,25 +4001,69 @@
       <c r="A14" s="8">
         <v>44533</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="9"/>
+      <c r="B14" s="7">
+        <v>36.8</v>
+      </c>
+      <c r="C14" s="7">
+        <v>36.85</v>
+      </c>
+      <c r="D14" s="7">
+        <v>37.3</v>
+      </c>
+      <c r="E14" s="7">
+        <v>36.5</v>
+      </c>
+      <c r="F14" s="7">
+        <v>35.06</v>
+      </c>
+      <c r="G14" s="7">
+        <v>34.13</v>
+      </c>
+      <c r="H14" s="7">
+        <v>40.82</v>
+      </c>
+      <c r="I14" s="9">
+        <v>4</v>
+      </c>
+      <c r="J14" s="17">
+        <f>(B14-B13)/B13</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="15">
+        <f>(B14-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10012,48,FALSE))/VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10012,48,FALSE)</f>
+        <v>0.0910168989030537</v>
+      </c>
+      <c r="L14" s="16">
+        <f>I14/(ROW()-5)</f>
+        <v>0.444444444444444</v>
+      </c>
+      <c r="M14" s="22" t="str">
+        <f>IF(B14&gt;(D14-(D14-E14)/2),"上部","下部")</f>
+        <v>下部</v>
+      </c>
+      <c r="N14" s="9" t="str">
+        <f>IF(B14&lt;F14,"是","否")</f>
+        <v>否</v>
+      </c>
+      <c r="O14" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="P14" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q14" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="R14" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="S14" s="23" t="str">
+        <f>IF(I14/(ROW()-5)&gt;=0.5,"是","否")</f>
+        <v>否</v>
+      </c>
+      <c r="T14" s="22" t="s">
+        <v>43</v>
+      </c>
       <c r="U14" s="9"/>
       <c r="V14" s="9"/>
       <c r="W14" s="7"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/同仁堂.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/同仁堂.xlsx
@@ -2993,11 +2993,11 @@
   <dimension ref="A1:AG503"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AB2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="T13" sqref="T13:T14"/>
+      <selection pane="bottomRight" activeCell="AG13" sqref="AG13:AG14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -3997,7 +3997,7 @@
         <v>0.290000000000006</v>
       </c>
     </row>
-    <row r="14" spans="1:32">
+    <row r="14" ht="18" spans="1:33">
       <c r="A14" s="8">
         <v>44533</v>
       </c>
@@ -4064,7 +4064,9 @@
       <c r="T14" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="U14" s="9"/>
+      <c r="U14" s="32" t="s">
+        <v>43</v>
+      </c>
       <c r="V14" s="9"/>
       <c r="W14" s="7"/>
       <c r="X14" s="2"/>
@@ -4075,7 +4077,14 @@
       <c r="AC14" s="2"/>
       <c r="AD14" s="2"/>
       <c r="AE14" s="2"/>
-      <c r="AF14" s="40"/>
+      <c r="AF14" s="40">
+        <f>IF(G14-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10012,48,FALSE)&gt;0,G14,AF13)</f>
+        <v>34.13</v>
+      </c>
+      <c r="AG14" s="2">
+        <f>AF14-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10013,48,FALSE)</f>
+        <v>0.400000000000006</v>
+      </c>
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="8">

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/同仁堂.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/同仁堂.xlsx
@@ -235,9 +235,9 @@
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
@@ -279,14 +279,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -295,13 +287,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -316,15 +301,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -338,16 +338,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -363,7 +364,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -376,26 +392,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -404,21 +419,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -547,7 +547,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -559,7 +619,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -571,103 +697,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -679,43 +709,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -783,17 +783,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -803,6 +812,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -823,16 +841,27 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -851,182 +880,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="43" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="41" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2990,14 +2990,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:AG503"/>
+  <dimension ref="A1:AG501"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AB2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="R2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AG13" sqref="AG13:AG14"/>
+      <selection pane="bottomRight" activeCell="T15" sqref="T15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -3347,7 +3347,7 @@
         <v>42</v>
       </c>
       <c r="S6" s="22" t="str">
-        <f>IF(I6/(ROW()-5)&gt;=0.5,"是","否")</f>
+        <f>IF(I6/(ROW()-5)&gt;0.5,"是","否")</f>
         <v>是</v>
       </c>
       <c r="T6" s="22" t="s">
@@ -3403,7 +3403,7 @@
         <v>1</v>
       </c>
       <c r="J7" s="17">
-        <f t="shared" ref="J7:J13" si="0">(B7-B6)/B6</f>
+        <f t="shared" ref="J7:J15" si="0">(B7-B6)/B6</f>
         <v>-0.0227014755959139</v>
       </c>
       <c r="K7" s="15">
@@ -3411,7 +3411,7 @@
         <v>0.0210495108212274</v>
       </c>
       <c r="L7" s="16">
-        <f t="shared" ref="L7:L13" si="1">I7/(ROW()-5)</f>
+        <f t="shared" ref="L7:L15" si="1">I7/(ROW()-5)</f>
         <v>0.5</v>
       </c>
       <c r="M7" s="22" t="str">
@@ -3434,9 +3434,9 @@
       <c r="R7" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="S7" s="22" t="str">
-        <f>IF(I7/(ROW()-5)&gt;=0.5,"是","否")</f>
-        <v>是</v>
+      <c r="S7" s="23" t="str">
+        <f t="shared" ref="S6:S15" si="4">IF(I7/(ROW()-5)&gt;0.5,"是","否")</f>
+        <v>否</v>
       </c>
       <c r="T7" s="22" t="s">
         <v>43</v>
@@ -3524,7 +3524,7 @@
         <v>43</v>
       </c>
       <c r="S8" s="22" t="str">
-        <f t="shared" ref="S8:S13" si="4">IF(I8/(ROW()-5)&gt;=0.5,"是","否")</f>
+        <f t="shared" si="4"/>
         <v>是</v>
       </c>
       <c r="T8" s="22" t="s">
@@ -3612,9 +3612,9 @@
       <c r="R9" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="S9" s="22" t="str">
+      <c r="S9" s="23" t="str">
         <f t="shared" si="4"/>
-        <v>是</v>
+        <v>否</v>
       </c>
       <c r="T9" s="22" t="s">
         <v>43</v>
@@ -3701,7 +3701,7 @@
       <c r="R10" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="S10" s="9" t="str">
+      <c r="S10" s="23" t="str">
         <f t="shared" si="4"/>
         <v>否</v>
       </c>
@@ -3790,9 +3790,9 @@
       <c r="R11" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="S11" s="22" t="str">
+      <c r="S11" s="23" t="str">
         <f t="shared" si="4"/>
-        <v>是</v>
+        <v>否</v>
       </c>
       <c r="T11" s="22" t="s">
         <v>43</v>
@@ -3968,9 +3968,9 @@
       <c r="R13" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="S13" s="22" t="str">
+      <c r="S13" s="23" t="str">
         <f t="shared" si="4"/>
-        <v>是</v>
+        <v>否</v>
       </c>
       <c r="T13" s="22" t="s">
         <v>43</v>
@@ -4026,15 +4026,15 @@
         <v>4</v>
       </c>
       <c r="J14" s="17">
-        <f>(B14-B13)/B13</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K14" s="15">
         <f>(B14-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10012,48,FALSE))/VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10012,48,FALSE)</f>
         <v>0.0910168989030537</v>
       </c>
-      <c r="L14" s="16">
-        <f>I14/(ROW()-5)</f>
+      <c r="L14" s="18">
+        <f t="shared" si="1"/>
         <v>0.444444444444444</v>
       </c>
       <c r="M14" s="22" t="str">
@@ -4058,7 +4058,7 @@
         <v>42</v>
       </c>
       <c r="S14" s="23" t="str">
-        <f>IF(I14/(ROW()-5)&gt;=0.5,"是","否")</f>
+        <f t="shared" si="4"/>
         <v>否</v>
       </c>
       <c r="T14" s="22" t="s">
@@ -4086,30 +4086,76 @@
         <v>0.400000000000006</v>
       </c>
     </row>
-    <row r="15" spans="1:32">
+    <row r="15" ht="18" spans="1:33">
       <c r="A15" s="8">
-        <v>44534</v>
-      </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="9"/>
-      <c r="S15" s="9"/>
-      <c r="T15" s="9"/>
-      <c r="U15" s="9"/>
+        <v>44536</v>
+      </c>
+      <c r="B15" s="7">
+        <v>37.1</v>
+      </c>
+      <c r="C15" s="7">
+        <v>36.9</v>
+      </c>
+      <c r="D15" s="7">
+        <v>37.81</v>
+      </c>
+      <c r="E15" s="7">
+        <v>36.52</v>
+      </c>
+      <c r="F15" s="7">
+        <v>35.26</v>
+      </c>
+      <c r="G15" s="7">
+        <v>34.25</v>
+      </c>
+      <c r="H15" s="7">
+        <v>40.82</v>
+      </c>
+      <c r="I15" s="9">
+        <v>5</v>
+      </c>
+      <c r="J15" s="17">
+        <f t="shared" si="0"/>
+        <v>0.00815217391304359</v>
+      </c>
+      <c r="K15" s="15">
+        <f>(B15-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10013,48,FALSE))/VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10013,48,FALSE)</f>
+        <v>0.0999110584049809</v>
+      </c>
+      <c r="L15" s="16">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="M15" s="22" t="str">
+        <f>IF(B15&gt;(D15-(D15-E15)/2),"上部","下部")</f>
+        <v>下部</v>
+      </c>
+      <c r="N15" s="9" t="str">
+        <f>IF(B15&lt;F15,"是","否")</f>
+        <v>否</v>
+      </c>
+      <c r="O15" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="P15" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q15" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="R15" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="S15" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v>否</v>
+      </c>
+      <c r="T15" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="U15" s="32" t="s">
+        <v>43</v>
+      </c>
       <c r="V15" s="9"/>
       <c r="W15" s="7"/>
       <c r="X15" s="2"/>
@@ -4120,11 +4166,18 @@
       <c r="AC15" s="2"/>
       <c r="AD15" s="2"/>
       <c r="AE15" s="2"/>
-      <c r="AF15" s="40"/>
+      <c r="AF15" s="40">
+        <f>IF(G15-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10013,48,FALSE)&gt;0,G15,AF14)</f>
+        <v>34.25</v>
+      </c>
+      <c r="AG15" s="2">
+        <f>AF15-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10014,48,FALSE)</f>
+        <v>0.520000000000003</v>
+      </c>
     </row>
     <row r="16" spans="1:32">
       <c r="A16" s="8">
-        <v>44535</v>
+        <v>44537</v>
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -4160,7 +4213,7 @@
     </row>
     <row r="17" spans="1:32">
       <c r="A17" s="8">
-        <v>44536</v>
+        <v>44538</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -4195,9 +4248,7 @@
       <c r="AF17" s="40"/>
     </row>
     <row r="18" spans="1:32">
-      <c r="A18" s="8">
-        <v>44537</v>
-      </c>
+      <c r="A18" s="8"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -4231,9 +4282,7 @@
       <c r="AF18" s="40"/>
     </row>
     <row r="19" spans="1:32">
-      <c r="A19" s="8">
-        <v>44538</v>
-      </c>
+      <c r="A19" s="8"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -4444,7 +4493,7 @@
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
+      <c r="H25" s="9"/>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
@@ -4478,7 +4527,7 @@
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
+      <c r="H26" s="9"/>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
@@ -4493,7 +4542,7 @@
       <c r="T26" s="9"/>
       <c r="U26" s="9"/>
       <c r="V26" s="9"/>
-      <c r="W26" s="7"/>
+      <c r="W26" s="9"/>
       <c r="X26" s="2"/>
       <c r="Y26" s="2"/>
       <c r="Z26" s="2"/>
@@ -4527,7 +4576,7 @@
       <c r="T27" s="9"/>
       <c r="U27" s="9"/>
       <c r="V27" s="9"/>
-      <c r="W27" s="7"/>
+      <c r="W27" s="9"/>
       <c r="X27" s="2"/>
       <c r="Y27" s="2"/>
       <c r="Z27" s="2"/>
@@ -4948,17 +4997,17 @@
     </row>
     <row r="40" spans="1:32">
       <c r="A40" s="8"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
       <c r="H40" s="9"/>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
-      <c r="L40" s="7"/>
+      <c r="L40" s="9"/>
       <c r="M40" s="9"/>
       <c r="N40" s="9"/>
       <c r="O40" s="9"/>
@@ -4982,17 +5031,17 @@
     </row>
     <row r="41" spans="1:32">
       <c r="A41" s="8"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
       <c r="H41" s="9"/>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
-      <c r="L41" s="7"/>
+      <c r="L41" s="9"/>
       <c r="M41" s="9"/>
       <c r="N41" s="9"/>
       <c r="O41" s="9"/>
@@ -8040,73 +8089,49 @@
       <c r="AE130" s="2"/>
       <c r="AF130" s="40"/>
     </row>
-    <row r="131" spans="1:32">
-      <c r="A131" s="8"/>
-      <c r="B131" s="9"/>
-      <c r="C131" s="9"/>
-      <c r="D131" s="9"/>
-      <c r="E131" s="9"/>
-      <c r="F131" s="9"/>
-      <c r="G131" s="9"/>
-      <c r="H131" s="9"/>
-      <c r="I131" s="9"/>
-      <c r="J131" s="9"/>
-      <c r="K131" s="9"/>
-      <c r="L131" s="9"/>
-      <c r="M131" s="9"/>
-      <c r="N131" s="9"/>
-      <c r="O131" s="9"/>
-      <c r="P131" s="9"/>
-      <c r="Q131" s="9"/>
-      <c r="R131" s="9"/>
-      <c r="S131" s="9"/>
-      <c r="T131" s="9"/>
-      <c r="U131" s="9"/>
-      <c r="V131" s="9"/>
-      <c r="W131" s="9"/>
-      <c r="X131" s="2"/>
-      <c r="Y131" s="2"/>
-      <c r="Z131" s="2"/>
-      <c r="AA131" s="2"/>
-      <c r="AB131" s="2"/>
-      <c r="AC131" s="2"/>
-      <c r="AD131" s="2"/>
-      <c r="AE131" s="2"/>
-      <c r="AF131" s="40"/>
-    </row>
-    <row r="132" spans="1:32">
-      <c r="A132" s="8"/>
-      <c r="B132" s="9"/>
-      <c r="C132" s="9"/>
-      <c r="D132" s="9"/>
-      <c r="E132" s="9"/>
-      <c r="F132" s="9"/>
-      <c r="G132" s="9"/>
-      <c r="H132" s="9"/>
-      <c r="I132" s="9"/>
-      <c r="J132" s="9"/>
-      <c r="K132" s="9"/>
-      <c r="L132" s="9"/>
-      <c r="M132" s="9"/>
-      <c r="N132" s="9"/>
-      <c r="O132" s="9"/>
-      <c r="P132" s="9"/>
-      <c r="Q132" s="9"/>
-      <c r="R132" s="9"/>
-      <c r="S132" s="9"/>
-      <c r="T132" s="9"/>
-      <c r="U132" s="9"/>
-      <c r="V132" s="9"/>
-      <c r="W132" s="9"/>
-      <c r="X132" s="2"/>
-      <c r="Y132" s="2"/>
-      <c r="Z132" s="2"/>
-      <c r="AA132" s="2"/>
-      <c r="AB132" s="2"/>
-      <c r="AC132" s="2"/>
-      <c r="AD132" s="2"/>
-      <c r="AE132" s="2"/>
-      <c r="AF132" s="40"/>
+    <row r="131" spans="1:23">
+      <c r="A131" s="1"/>
+      <c r="B131" s="1"/>
+      <c r="C131" s="1"/>
+      <c r="D131" s="1"/>
+      <c r="E131" s="1"/>
+      <c r="F131" s="1"/>
+      <c r="G131" s="1"/>
+      <c r="I131" s="1"/>
+      <c r="J131" s="1"/>
+      <c r="K131" s="1"/>
+      <c r="L131" s="1"/>
+      <c r="M131" s="1"/>
+      <c r="N131" s="1"/>
+      <c r="O131" s="1"/>
+      <c r="P131" s="1"/>
+      <c r="Q131" s="1"/>
+      <c r="R131" s="1"/>
+      <c r="S131" s="1"/>
+      <c r="T131" s="1"/>
+      <c r="W131" s="1"/>
+    </row>
+    <row r="132" spans="1:23">
+      <c r="A132" s="1"/>
+      <c r="B132" s="1"/>
+      <c r="C132" s="1"/>
+      <c r="D132" s="1"/>
+      <c r="E132" s="1"/>
+      <c r="F132" s="1"/>
+      <c r="G132" s="1"/>
+      <c r="I132" s="1"/>
+      <c r="J132" s="1"/>
+      <c r="K132" s="1"/>
+      <c r="L132" s="1"/>
+      <c r="M132" s="1"/>
+      <c r="N132" s="1"/>
+      <c r="O132" s="1"/>
+      <c r="P132" s="1"/>
+      <c r="Q132" s="1"/>
+      <c r="R132" s="1"/>
+      <c r="S132" s="1"/>
+      <c r="T132" s="1"/>
+      <c r="W132" s="1"/>
     </row>
     <row r="133" spans="1:23">
       <c r="A133" s="1"/>
@@ -16225,50 +16250,6 @@
       <c r="S501" s="1"/>
       <c r="T501" s="1"/>
       <c r="W501" s="1"/>
-    </row>
-    <row r="502" spans="1:23">
-      <c r="A502" s="1"/>
-      <c r="B502" s="1"/>
-      <c r="C502" s="1"/>
-      <c r="D502" s="1"/>
-      <c r="E502" s="1"/>
-      <c r="F502" s="1"/>
-      <c r="G502" s="1"/>
-      <c r="I502" s="1"/>
-      <c r="J502" s="1"/>
-      <c r="K502" s="1"/>
-      <c r="L502" s="1"/>
-      <c r="M502" s="1"/>
-      <c r="N502" s="1"/>
-      <c r="O502" s="1"/>
-      <c r="P502" s="1"/>
-      <c r="Q502" s="1"/>
-      <c r="R502" s="1"/>
-      <c r="S502" s="1"/>
-      <c r="T502" s="1"/>
-      <c r="W502" s="1"/>
-    </row>
-    <row r="503" spans="1:23">
-      <c r="A503" s="1"/>
-      <c r="B503" s="1"/>
-      <c r="C503" s="1"/>
-      <c r="D503" s="1"/>
-      <c r="E503" s="1"/>
-      <c r="F503" s="1"/>
-      <c r="G503" s="1"/>
-      <c r="I503" s="1"/>
-      <c r="J503" s="1"/>
-      <c r="K503" s="1"/>
-      <c r="L503" s="1"/>
-      <c r="M503" s="1"/>
-      <c r="N503" s="1"/>
-      <c r="O503" s="1"/>
-      <c r="P503" s="1"/>
-      <c r="Q503" s="1"/>
-      <c r="R503" s="1"/>
-      <c r="S503" s="1"/>
-      <c r="T503" s="1"/>
-      <c r="W503" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="39">

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/同仁堂.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/同仁堂.xlsx
@@ -2993,7 +2993,7 @@
   <dimension ref="A1:AG501"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="R2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AB2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/同仁堂.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/同仁堂.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26500" windowHeight="11360"/>
+    <workbookView windowWidth="26500" windowHeight="10720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -234,8 +234,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
@@ -286,21 +286,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -315,18 +300,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -338,33 +324,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -377,16 +354,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -408,17 +378,47 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -547,7 +547,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -559,37 +583,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -601,91 +601,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -703,7 +631,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -715,7 +679,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -792,30 +792,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -835,6 +811,45 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -865,114 +880,99 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="43" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="37" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="41" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -981,49 +981,49 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -2993,11 +2993,11 @@
   <dimension ref="A1:AG501"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AB2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="T15" sqref="T15"/>
+      <selection pane="bottomRight" activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -3403,7 +3403,7 @@
         <v>1</v>
       </c>
       <c r="J7" s="17">
-        <f t="shared" ref="J7:J15" si="0">(B7-B6)/B6</f>
+        <f>(B7-B6)/B6</f>
         <v>-0.0227014755959139</v>
       </c>
       <c r="K7" s="15">
@@ -3411,15 +3411,15 @@
         <v>0.0210495108212274</v>
       </c>
       <c r="L7" s="16">
-        <f t="shared" ref="L7:L15" si="1">I7/(ROW()-5)</f>
+        <f t="shared" ref="L7:L15" si="0">I7/(ROW()-5)</f>
         <v>0.5</v>
       </c>
       <c r="M7" s="22" t="str">
-        <f t="shared" ref="M7:M13" si="2">IF(B7&gt;=(D7-(D7-E7)/2),"上部","下部")</f>
+        <f t="shared" ref="M7:M13" si="1">IF(B7&gt;=(D7-(D7-E7)/2),"上部","下部")</f>
         <v>下部</v>
       </c>
       <c r="N7" s="9" t="str">
-        <f t="shared" ref="N7:N13" si="3">IF(B7&lt;F7,"是","否")</f>
+        <f t="shared" ref="N7:N13" si="2">IF(B7&lt;F7,"是","否")</f>
         <v>否</v>
       </c>
       <c r="O7" s="9" t="s">
@@ -3435,7 +3435,7 @@
         <v>42</v>
       </c>
       <c r="S7" s="23" t="str">
-        <f t="shared" ref="S6:S15" si="4">IF(I7/(ROW()-5)&gt;0.5,"是","否")</f>
+        <f t="shared" ref="S6:S15" si="3">IF(I7/(ROW()-5)&gt;0.5,"是","否")</f>
         <v>否</v>
       </c>
       <c r="T7" s="22" t="s">
@@ -3492,7 +3492,7 @@
         <v>2</v>
       </c>
       <c r="J8" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="J7:J15" si="4">(B8-B7)/B7</f>
         <v>0.0743321718931476</v>
       </c>
       <c r="K8" s="15">
@@ -3500,15 +3500,15 @@
         <v>0.0969463385710051</v>
       </c>
       <c r="L8" s="16">
+        <f t="shared" si="0"/>
+        <v>0.666666666666667</v>
+      </c>
+      <c r="M8" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>0.666666666666667</v>
-      </c>
-      <c r="M8" s="9" t="str">
+        <v>上部</v>
+      </c>
+      <c r="N8" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>上部</v>
-      </c>
-      <c r="N8" s="9" t="str">
-        <f t="shared" si="3"/>
         <v>否</v>
       </c>
       <c r="O8" s="9" t="s">
@@ -3524,7 +3524,7 @@
         <v>43</v>
       </c>
       <c r="S8" s="22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>是</v>
       </c>
       <c r="T8" s="22" t="s">
@@ -3581,7 +3581,7 @@
         <v>2</v>
       </c>
       <c r="J9" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-0.00513513513513507</v>
       </c>
       <c r="K9" s="15">
@@ -3589,15 +3589,15 @@
         <v>0.0913133708864514</v>
       </c>
       <c r="L9" s="16">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="M9" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-      <c r="M9" s="9" t="str">
+        <v>上部</v>
+      </c>
+      <c r="N9" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>上部</v>
-      </c>
-      <c r="N9" s="9" t="str">
-        <f t="shared" si="3"/>
         <v>否</v>
       </c>
       <c r="O9" s="9" t="s">
@@ -3613,7 +3613,7 @@
         <v>42</v>
       </c>
       <c r="S9" s="23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>否</v>
       </c>
       <c r="T9" s="22" t="s">
@@ -3670,7 +3670,7 @@
         <v>2</v>
       </c>
       <c r="J10" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-0.0187449062754688</v>
       </c>
       <c r="K10" s="15">
@@ -3678,15 +3678,15 @@
         <v>0.070856804032019</v>
       </c>
       <c r="L10" s="18">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="M10" s="22" t="str">
         <f t="shared" si="1"/>
-        <v>0.4</v>
-      </c>
-      <c r="M10" s="22" t="str">
+        <v>下部</v>
+      </c>
+      <c r="N10" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>下部</v>
-      </c>
-      <c r="N10" s="9" t="str">
-        <f t="shared" si="3"/>
         <v>否</v>
       </c>
       <c r="O10" s="9" t="s">
@@ -3702,7 +3702,7 @@
         <v>42</v>
       </c>
       <c r="S10" s="23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>否</v>
       </c>
       <c r="T10" s="22" t="s">
@@ -3759,7 +3759,7 @@
         <v>3</v>
       </c>
       <c r="J11" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.00526024363233679</v>
       </c>
       <c r="K11" s="15">
@@ -3767,15 +3767,15 @@
         <v>0.076489771716573</v>
       </c>
       <c r="L11" s="16">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="M11" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-      <c r="M11" s="9" t="str">
+        <v>上部</v>
+      </c>
+      <c r="N11" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>上部</v>
-      </c>
-      <c r="N11" s="9" t="str">
-        <f t="shared" si="3"/>
         <v>否</v>
       </c>
       <c r="O11" s="23" t="s">
@@ -3791,7 +3791,7 @@
         <v>42</v>
       </c>
       <c r="S11" s="23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>否</v>
       </c>
       <c r="T11" s="22" t="s">
@@ -3848,7 +3848,7 @@
         <v>4</v>
       </c>
       <c r="J12" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.0220324979344532</v>
       </c>
       <c r="K12" s="15">
@@ -3856,15 +3856,15 @@
         <v>0.100207530388378</v>
       </c>
       <c r="L12" s="16">
+        <f t="shared" si="0"/>
+        <v>0.571428571428571</v>
+      </c>
+      <c r="M12" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>0.571428571428571</v>
-      </c>
-      <c r="M12" s="9" t="str">
+        <v>上部</v>
+      </c>
+      <c r="N12" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>上部</v>
-      </c>
-      <c r="N12" s="9" t="str">
-        <f t="shared" si="3"/>
         <v>否</v>
       </c>
       <c r="O12" s="23" t="s">
@@ -3880,7 +3880,7 @@
         <v>43</v>
       </c>
       <c r="S12" s="22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>是</v>
       </c>
       <c r="T12" s="22" t="s">
@@ -3937,7 +3937,7 @@
         <v>4</v>
       </c>
       <c r="J13" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-0.0083535435192671</v>
       </c>
       <c r="K13" s="15">
@@ -3945,7 +3945,7 @@
         <v>0.0910168989030537</v>
       </c>
       <c r="L13" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="M13" s="22" t="str">
@@ -3969,7 +3969,7 @@
         <v>42</v>
       </c>
       <c r="S13" s="23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>否</v>
       </c>
       <c r="T13" s="22" t="s">
@@ -4026,7 +4026,7 @@
         <v>4</v>
       </c>
       <c r="J14" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K14" s="15">
@@ -4034,7 +4034,7 @@
         <v>0.0910168989030537</v>
       </c>
       <c r="L14" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.444444444444444</v>
       </c>
       <c r="M14" s="22" t="str">
@@ -4058,7 +4058,7 @@
         <v>42</v>
       </c>
       <c r="S14" s="23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>否</v>
       </c>
       <c r="T14" s="22" t="s">
@@ -4115,7 +4115,7 @@
         <v>5</v>
       </c>
       <c r="J15" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.00815217391304359</v>
       </c>
       <c r="K15" s="15">
@@ -4123,7 +4123,7 @@
         <v>0.0999110584049809</v>
       </c>
       <c r="L15" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="M15" s="22" t="str">
@@ -4147,7 +4147,7 @@
         <v>43</v>
       </c>
       <c r="S15" s="23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>否</v>
       </c>
       <c r="T15" s="23" t="s">

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/同仁堂.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/同仁堂.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26500" windowHeight="10720"/>
+    <workbookView windowWidth="26500" windowHeight="11360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -152,7 +152,8 @@
     </r>
   </si>
   <si>
-    <t>收盘价处于波动范围的位置</t>
+    <t>收盘价处于波动范围的位置
+(1为上部，-1为下部)</t>
   </si>
   <si>
     <t>当日收盘价是否小于20日均线
@@ -234,11 +235,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -279,13 +280,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -300,9 +294,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -316,24 +309,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -347,16 +347,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -370,10 +370,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -393,15 +393,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -409,14 +417,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -454,7 +455,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="45">
+  <fills count="46">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -487,7 +488,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -506,6 +507,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -553,19 +560,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -583,19 +602,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -607,13 +632,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -625,7 +662,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -637,25 +692,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -667,55 +710,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -786,32 +793,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -821,36 +804,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -880,99 +833,153 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="37" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="40" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -981,56 +988,56 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1109,22 +1116,25 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1139,22 +1149,22 @@
     <xf numFmtId="176" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1229,1500 +1239,559 @@
       <sheetData sheetId="0">
         <row r="4">
           <cell r="A4" t="str">
+            <v>JG_0000001</v>
+          </cell>
+          <cell r="B4" t="str">
             <v>000001</v>
-          </cell>
-          <cell r="B4">
-            <v>44517</v>
           </cell>
           <cell r="C4" t="str">
             <v>003040(楚天龙)</v>
           </cell>
           <cell r="D4">
-            <v>22.15</v>
+            <v>44523</v>
           </cell>
           <cell r="E4">
-            <v>23.55</v>
+            <v>26.2</v>
           </cell>
           <cell r="F4">
-            <v>24.52</v>
-          </cell>
-          <cell r="G4" t="str">
-            <v>200日均线：向上
-150日均线：向上
-  50日均线：向上</v>
+            <v>200</v>
+          </cell>
+          <cell r="G4">
+            <v>5</v>
           </cell>
           <cell r="H4">
-            <v>25.7</v>
+            <v>0</v>
           </cell>
           <cell r="I4">
-            <v>5.46</v>
+            <v>5245</v>
           </cell>
           <cell r="J4">
-            <v>46.33</v>
+            <v>26.5</v>
           </cell>
           <cell r="K4">
-            <v>3.70695970695971</v>
+            <v>25.21</v>
           </cell>
           <cell r="L4">
-            <v>0.445283833369307</v>
+            <v>0.232558139534884</v>
           </cell>
         </row>
         <row r="4">
           <cell r="N4">
-            <v>20.79</v>
+            <v>0</v>
           </cell>
           <cell r="O4">
-            <v>29.8</v>
+            <v>44526</v>
           </cell>
           <cell r="P4">
-            <v>21.88</v>
+            <v>24.89</v>
           </cell>
           <cell r="Q4">
-            <v>26.5</v>
+            <v>100</v>
           </cell>
           <cell r="R4">
-            <v>22.1</v>
+            <v>5</v>
           </cell>
           <cell r="S4">
-            <v>26.4</v>
+            <v>2.489</v>
           </cell>
           <cell r="T4">
-            <v>24</v>
+            <v>2481.511</v>
           </cell>
           <cell r="U4">
-            <v>26.2</v>
+            <v>27.43</v>
           </cell>
           <cell r="V4">
-            <v>24.52</v>
-          </cell>
-          <cell r="W4" t="str">
-            <v>26.96</v>
-          </cell>
-          <cell r="X4" t="str">
             <v>24.74</v>
           </cell>
-          <cell r="Y4" t="str">
-            <v>24w</v>
+          <cell r="W4">
+            <v>0.0557620817843874</v>
+          </cell>
+          <cell r="X4">
+            <v>-140.989</v>
+          </cell>
+          <cell r="Y4">
+            <v>-1.25900000000001</v>
           </cell>
           <cell r="Z4">
-            <v>0.551262680768401</v>
-          </cell>
-          <cell r="AA4">
-            <v>0.265771812080537</v>
-          </cell>
-          <cell r="AB4">
-            <v>0.166037735849057</v>
-          </cell>
-          <cell r="AC4">
-            <v>0.0909090909090909</v>
-          </cell>
-          <cell r="AD4">
-            <v>0.0641221374045801</v>
-          </cell>
-          <cell r="AE4">
-            <v>0.0823442136498517</v>
-          </cell>
-          <cell r="AF4" t="str">
-            <v>5T</v>
-          </cell>
-          <cell r="AG4" t="str">
-            <v>成交量先随价格收缩逐级减少，然后随价格收缩放量</v>
-          </cell>
-          <cell r="AH4">
-            <v>28.15</v>
-          </cell>
-          <cell r="AI4">
-            <v>21.87</v>
-          </cell>
-          <cell r="AJ4">
-            <v>6.28</v>
-          </cell>
-          <cell r="AK4">
-            <v>26.2</v>
-          </cell>
-          <cell r="AL4">
-            <v>24.68</v>
-          </cell>
-          <cell r="AM4">
-            <v>32.49</v>
-          </cell>
-          <cell r="AN4">
-            <v>152</v>
-          </cell>
-          <cell r="AO4">
-            <v>100</v>
-          </cell>
-          <cell r="AP4">
-            <v>4.13815789473685</v>
-          </cell>
-          <cell r="AQ4">
-            <v>0.0580152671755725</v>
-          </cell>
-          <cell r="AR4">
-            <v>0.240076335877863</v>
-          </cell>
-          <cell r="AS4">
-            <v>150.88</v>
-          </cell>
-          <cell r="AT4" t="str">
-            <v>不宜入场</v>
-          </cell>
-          <cell r="AU4">
-            <v>44523</v>
-          </cell>
-          <cell r="AV4">
-            <v>26.2</v>
-          </cell>
-          <cell r="AW4">
-            <v>200</v>
-          </cell>
-          <cell r="AX4">
-            <v>5</v>
-          </cell>
-          <cell r="AY4">
-            <v>0</v>
-          </cell>
-          <cell r="AZ4">
-            <v>5245</v>
-          </cell>
-          <cell r="BA4">
-            <v>309</v>
-          </cell>
-          <cell r="BB4">
-            <v>26.5</v>
-          </cell>
-          <cell r="BC4">
-            <v>25.21</v>
-          </cell>
-          <cell r="BD4">
-            <v>0.232558139534884</v>
-          </cell>
-          <cell r="BE4">
-            <v>44526</v>
-          </cell>
-          <cell r="BF4">
-            <v>24.89</v>
-          </cell>
-          <cell r="BG4">
-            <v>100</v>
-          </cell>
-          <cell r="BH4">
-            <v>5</v>
-          </cell>
-          <cell r="BI4">
-            <v>2.489</v>
-          </cell>
-          <cell r="BJ4">
-            <v>2481.511</v>
-          </cell>
-          <cell r="BK4">
-            <v>27.43</v>
-          </cell>
-          <cell r="BL4">
-            <v>24.74</v>
+            <v>-0.208598726114649</v>
+          </cell>
+          <cell r="AA4" t="str">
+            <v>1.入场时，忽略了距离最高点的距离;
+2.入场时，忽略了成交量的情况。
+3.作出出场决定时，一定要立即出场。不然也至少要设置最低的止损线。</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="BE5">
+          <cell r="A5" t="str">
+            <v>JG_0000002</v>
+          </cell>
+          <cell r="B5" t="str">
+            <v>000001</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="N5">
+            <v>0</v>
+          </cell>
+          <cell r="O5">
             <v>44531</v>
           </cell>
-          <cell r="BF5">
+          <cell r="P5">
             <v>27.7</v>
           </cell>
-          <cell r="BG5">
+          <cell r="Q5">
             <v>100</v>
           </cell>
-          <cell r="BH5">
+          <cell r="R5">
             <v>5</v>
           </cell>
-          <cell r="BI5">
+          <cell r="S5">
             <v>2.77</v>
           </cell>
-          <cell r="BJ5">
+          <cell r="T5">
             <v>2762.23</v>
           </cell>
-          <cell r="BK5">
+          <cell r="U5">
             <v>28.7</v>
           </cell>
-          <cell r="BL5">
+          <cell r="V5">
             <v>27.5</v>
+          </cell>
+          <cell r="W5">
+            <v>0.166666666666666</v>
+          </cell>
+          <cell r="X5">
+            <v>139.73</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="Z5">
+            <v>0.238853503184713</v>
           </cell>
         </row>
         <row r="6">
           <cell r="A6" t="str">
+            <v>JG_0000003</v>
+          </cell>
+          <cell r="B6" t="str">
             <v>000002</v>
-          </cell>
-          <cell r="B6">
-            <v>44517</v>
           </cell>
           <cell r="C6" t="str">
             <v>600085(同仁堂)</v>
           </cell>
           <cell r="D6">
-            <v>31.92</v>
+            <v>44523</v>
           </cell>
           <cell r="E6">
-            <v>32.63</v>
+            <v>33.73</v>
           </cell>
           <cell r="F6">
-            <v>33.17</v>
-          </cell>
-          <cell r="G6" t="str">
-            <v>200日均线：向上
-150日均线：向上
-  50日均线：向上</v>
+            <v>100</v>
+          </cell>
+          <cell r="G6">
+            <v>5</v>
           </cell>
           <cell r="H6">
-            <v>33.73</v>
+            <v>0.06746</v>
           </cell>
           <cell r="I6">
-            <v>22.98</v>
+            <v>3378.06746</v>
           </cell>
           <cell r="J6">
-            <v>44.42</v>
+            <v>35.36</v>
           </cell>
           <cell r="K6">
-            <v>0.467798085291558</v>
+            <v>33.1</v>
           </cell>
           <cell r="L6">
-            <v>0.240657361548852</v>
-          </cell>
-        </row>
-        <row r="6">
+            <v>0.721238938053099</v>
+          </cell>
+          <cell r="M6">
+            <v>34.13</v>
+          </cell>
           <cell r="N6">
-            <v>30.78</v>
-          </cell>
-          <cell r="O6">
-            <v>35</v>
-          </cell>
-          <cell r="P6">
-            <v>31.27</v>
-          </cell>
-          <cell r="Q6">
-            <v>34.82</v>
-          </cell>
-          <cell r="R6">
-            <v>32.12</v>
-          </cell>
-          <cell r="S6">
-            <v>34.11</v>
-          </cell>
-          <cell r="T6">
-            <v>32.53</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="Y6" t="str">
-            <v>24w</v>
-          </cell>
-          <cell r="Z6">
-            <v>0.307068887888339</v>
-          </cell>
-          <cell r="AA6">
-            <v>0.106571428571429</v>
-          </cell>
-          <cell r="AB6">
-            <v>0.077541642734061</v>
-          </cell>
-          <cell r="AC6">
-            <v>0.0463207270595133</v>
-          </cell>
-          <cell r="AD6" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="AF6" t="str">
-            <v>4T</v>
-          </cell>
-          <cell r="AG6" t="str">
-            <v>成交量先随价格收缩逐级减少，然后随价格收缩保持不变</v>
-          </cell>
-          <cell r="AH6">
-            <v>35.48</v>
-          </cell>
-          <cell r="AI6">
-            <v>31.36</v>
-          </cell>
-          <cell r="AJ6">
-            <v>4.12</v>
-          </cell>
-          <cell r="AK6">
-            <v>34.12</v>
-          </cell>
-          <cell r="AL6">
-            <v>32.53</v>
-          </cell>
-          <cell r="AM6">
-            <v>39.33</v>
-          </cell>
-          <cell r="AN6">
-            <v>159</v>
-          </cell>
-          <cell r="AO6">
-            <v>100</v>
-          </cell>
-          <cell r="AP6">
-            <v>3.27672955974844</v>
-          </cell>
-          <cell r="AQ6">
-            <v>0.0466002344665884</v>
-          </cell>
-          <cell r="AR6">
-            <v>0.152696365767878</v>
-          </cell>
-          <cell r="AS6">
-            <v>37.41</v>
-          </cell>
-          <cell r="AT6" t="str">
-            <v>可以</v>
-          </cell>
-          <cell r="AU6">
-            <v>44523</v>
-          </cell>
-          <cell r="AV6">
-            <v>33.73</v>
-          </cell>
-          <cell r="AW6">
-            <v>100</v>
-          </cell>
-          <cell r="AX6">
-            <v>5</v>
-          </cell>
-          <cell r="AY6">
-            <v>0.06746</v>
-          </cell>
-          <cell r="AZ6">
-            <v>3378.06746</v>
-          </cell>
-          <cell r="BA6">
-            <v>125.06746</v>
-          </cell>
-          <cell r="BB6">
-            <v>35.36</v>
-          </cell>
-          <cell r="BC6">
-            <v>33.1</v>
-          </cell>
-          <cell r="BD6">
-            <v>0.721238938053099</v>
+            <v>-29.9325400000006</v>
           </cell>
         </row>
         <row r="7">
           <cell r="A7" t="str">
+            <v>JG_0000004</v>
+          </cell>
+          <cell r="B7" t="str">
             <v>000003</v>
-          </cell>
-          <cell r="B7">
-            <v>44519</v>
           </cell>
           <cell r="C7" t="str">
             <v>603867(新化股份)</v>
           </cell>
           <cell r="D7">
-            <v>28.2</v>
+            <v>44522</v>
           </cell>
           <cell r="E7">
-            <v>29.15</v>
+            <v>32.7</v>
           </cell>
           <cell r="F7">
-            <v>31.53</v>
-          </cell>
-          <cell r="G7" t="str">
-            <v>200日均线：向上
-150日均线：向上
-  50日均线：向上</v>
+            <v>100</v>
+          </cell>
+          <cell r="G7">
+            <v>5</v>
           </cell>
           <cell r="H7">
-            <v>32.57</v>
+            <v>0.0654</v>
           </cell>
           <cell r="I7">
-            <v>20.61</v>
+            <v>3275.0654</v>
           </cell>
           <cell r="J7">
-            <v>41.5</v>
+            <v>33.9</v>
           </cell>
           <cell r="K7">
-            <v>0.58030082484231</v>
+            <v>32.49</v>
           </cell>
           <cell r="L7">
-            <v>0.215180722891566</v>
-          </cell>
-        </row>
-        <row r="7">
+            <v>0.851063829787233</v>
+          </cell>
+          <cell r="M7">
+            <v>30.89</v>
+          </cell>
           <cell r="N7">
-            <v>28.42</v>
-          </cell>
-          <cell r="O7">
-            <v>34.7</v>
-          </cell>
-          <cell r="P7">
-            <v>29</v>
-          </cell>
-          <cell r="Q7">
-            <v>35.27</v>
-          </cell>
-          <cell r="R7">
-            <v>30.89</v>
-          </cell>
-          <cell r="S7">
-            <v>34.66</v>
-          </cell>
-          <cell r="T7">
-            <v>32.59</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="Y7" t="str">
-            <v>8w</v>
-          </cell>
-          <cell r="Z7">
-            <v>0.315180722891566</v>
-          </cell>
-          <cell r="AA7">
-            <v>0.164265129682997</v>
-          </cell>
-          <cell r="AB7">
-            <v>0.124184859654097</v>
-          </cell>
-          <cell r="AC7">
-            <v>0.0597230236583957</v>
-          </cell>
-          <cell r="AD7" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="AF7" t="str">
-            <v>3T</v>
-          </cell>
-          <cell r="AG7" t="str">
-            <v>成交量一直随价格收缩逐级减少，最后随着价格收缩期间空头几乎被榨干</v>
-          </cell>
-          <cell r="AH7">
-            <v>36.21</v>
-          </cell>
-          <cell r="AI7">
-            <v>27.35</v>
-          </cell>
-          <cell r="AJ7">
-            <v>8.86</v>
-          </cell>
-          <cell r="AK7">
-            <v>32.65</v>
-          </cell>
-          <cell r="AL7">
-            <v>30.89</v>
-          </cell>
-          <cell r="AM7">
-            <v>36.22</v>
-          </cell>
-          <cell r="AN7">
-            <v>176</v>
-          </cell>
-          <cell r="AO7">
-            <v>100</v>
-          </cell>
-          <cell r="AP7">
-            <v>2.02840909090909</v>
-          </cell>
-          <cell r="AQ7">
-            <v>0.0539050535987748</v>
-          </cell>
-          <cell r="AR7">
-            <v>0.109341500765697</v>
-          </cell>
-          <cell r="AS7">
-            <v>28.82</v>
-          </cell>
-          <cell r="AT7" t="str">
-            <v>可以</v>
-          </cell>
-          <cell r="AU7">
-            <v>44522</v>
-          </cell>
-          <cell r="AV7">
-            <v>32.7</v>
-          </cell>
-          <cell r="AW7">
-            <v>100</v>
-          </cell>
-          <cell r="AX7">
-            <v>5</v>
-          </cell>
-          <cell r="AY7">
-            <v>0.0654</v>
-          </cell>
-          <cell r="AZ7">
-            <v>3275.0654</v>
-          </cell>
-          <cell r="BA7">
-            <v>186.0654</v>
-          </cell>
-          <cell r="BB7">
-            <v>33.9</v>
-          </cell>
-          <cell r="BC7">
-            <v>32.49</v>
-          </cell>
-          <cell r="BD7">
-            <v>0.851063829787233</v>
+            <v>191.0654</v>
           </cell>
         </row>
         <row r="8">
           <cell r="A8" t="str">
+            <v>JG_0000005</v>
+          </cell>
+          <cell r="B8" t="str">
             <v>000004</v>
-          </cell>
-          <cell r="B8">
-            <v>44525</v>
           </cell>
           <cell r="C8" t="str">
             <v>002932(明德生物)</v>
           </cell>
           <cell r="D8">
-            <v>64.32</v>
-          </cell>
-          <cell r="E8" t="str">
-            <v>65，56</v>
+            <v>44526</v>
+          </cell>
+          <cell r="E8">
+            <v>72.07</v>
           </cell>
           <cell r="F8">
-            <v>68.37</v>
-          </cell>
-          <cell r="G8" t="str">
-            <v>200日均线：向上
-150日均线：向上
-  50日均线：向上</v>
+            <v>100</v>
+          </cell>
+          <cell r="G8">
+            <v>5</v>
           </cell>
           <cell r="H8">
-            <v>69.16</v>
+            <v>0</v>
           </cell>
           <cell r="I8">
-            <v>40.64</v>
+            <v>7212</v>
           </cell>
           <cell r="J8">
-            <v>90.29</v>
+            <v>74.5</v>
           </cell>
           <cell r="K8">
-            <v>0.701771653543307</v>
+            <v>70.4</v>
           </cell>
           <cell r="L8">
-            <v>0.234023701406579</v>
+            <v>0.592682926829271</v>
+          </cell>
+          <cell r="M8">
+            <v>67.53</v>
+          </cell>
+          <cell r="N8">
+            <v>463.999999999999</v>
           </cell>
         </row>
         <row r="8">
-          <cell r="N8">
-            <v>60.05</v>
-          </cell>
-          <cell r="O8">
-            <v>74.75</v>
-          </cell>
-          <cell r="P8">
-            <v>65.5</v>
-          </cell>
-          <cell r="Q8">
-            <v>70.98</v>
-          </cell>
-          <cell r="R8">
-            <v>66.88</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="Y8" t="str">
-            <v>12w</v>
-          </cell>
-          <cell r="Z8">
-            <v>0.33492081072101</v>
-          </cell>
-          <cell r="AA8">
-            <v>0.123745819397993</v>
-          </cell>
-          <cell r="AB8">
-            <v>0.0577627500704425</v>
-          </cell>
-          <cell r="AC8" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="AF8" t="str">
-            <v>3T</v>
-          </cell>
-          <cell r="AG8" t="str">
-            <v>成交量先随价格收缩至几乎被榨干，然后随价格收缩有些许放量，最后又收缩至几乎榨干状态</v>
-          </cell>
-          <cell r="AH8">
-            <v>75.02</v>
-          </cell>
-          <cell r="AI8">
-            <v>62.33</v>
-          </cell>
-          <cell r="AJ8">
-            <v>12.69</v>
-          </cell>
-          <cell r="AK8">
-            <v>70.98</v>
-          </cell>
-          <cell r="AL8">
-            <v>66.88</v>
-          </cell>
-          <cell r="AM8">
-            <v>84.94</v>
-          </cell>
-          <cell r="AN8">
-            <v>410.000000000001</v>
-          </cell>
-          <cell r="AO8">
-            <v>0</v>
-          </cell>
-          <cell r="AP8">
-            <v>3.40487804878048</v>
-          </cell>
-          <cell r="AQ8">
-            <v>0.0577627500704425</v>
-          </cell>
-          <cell r="AR8">
-            <v>0.196675119752043</v>
-          </cell>
-          <cell r="AS8">
-            <v>6.49</v>
-          </cell>
-          <cell r="AT8" t="str">
-            <v>可以</v>
-          </cell>
-          <cell r="AU8">
-            <v>44526</v>
-          </cell>
-          <cell r="AV8">
-            <v>72.07</v>
-          </cell>
-          <cell r="AW8">
-            <v>100</v>
-          </cell>
-          <cell r="AX8">
-            <v>5</v>
-          </cell>
-          <cell r="AY8">
-            <v>0</v>
-          </cell>
-          <cell r="AZ8">
-            <v>7212</v>
-          </cell>
-          <cell r="BA8">
-            <v>524</v>
-          </cell>
-          <cell r="BB8">
-            <v>74.5</v>
-          </cell>
-          <cell r="BC8">
-            <v>70.4</v>
-          </cell>
-          <cell r="BD8">
-            <v>0.592682926829271</v>
+          <cell r="AA8" t="str">
+            <v>1.跳空时，不要立即入场，应待价格下跌到原预估价格一半时，再待其上涨到预估价格时入场</v>
           </cell>
         </row>
         <row r="9">
           <cell r="A9" t="str">
+            <v>JG_0000006</v>
+          </cell>
+          <cell r="B9" t="str">
             <v>000005</v>
-          </cell>
-          <cell r="B9">
-            <v>44522</v>
           </cell>
           <cell r="C9" t="str">
             <v>605016(百龙创园)</v>
           </cell>
           <cell r="D9">
-            <v>28.37</v>
+            <v>44524</v>
           </cell>
           <cell r="E9">
-            <v>29.06</v>
+            <v>30.54</v>
           </cell>
           <cell r="F9">
-            <v>29.49</v>
-          </cell>
-        </row>
-        <row r="9">
+            <v>100</v>
+          </cell>
+          <cell r="G9">
+            <v>5</v>
+          </cell>
           <cell r="H9">
-            <v>29.69</v>
+            <v>0.06108</v>
           </cell>
           <cell r="I9">
-            <v>17.54</v>
+            <v>3059.06108</v>
           </cell>
           <cell r="J9">
-            <v>48.5</v>
+            <v>30.72</v>
           </cell>
           <cell r="K9">
-            <v>0.692702394526796</v>
+            <v>29.33</v>
           </cell>
           <cell r="L9">
-            <v>0.387835051546392</v>
+            <v>0.129496402877698</v>
           </cell>
         </row>
         <row r="9">
           <cell r="N9">
-            <v>24.11</v>
+            <v>0</v>
           </cell>
           <cell r="O9">
-            <v>38.16</v>
+            <v>44525</v>
           </cell>
           <cell r="P9">
-            <v>25.12</v>
+            <v>30.15</v>
           </cell>
           <cell r="Q9">
-            <v>30.9</v>
+            <v>100</v>
           </cell>
           <cell r="R9">
-            <v>29.2</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="Y9" t="str">
-            <v>24w</v>
+            <v>5</v>
+          </cell>
+          <cell r="S9">
+            <v>3.015</v>
+          </cell>
+          <cell r="T9">
+            <v>3006.985</v>
+          </cell>
+          <cell r="U9">
+            <v>30.69</v>
+          </cell>
+          <cell r="V9">
+            <v>30.01</v>
+          </cell>
+          <cell r="W9">
+            <v>0.205882352941172</v>
+          </cell>
+          <cell r="X9">
+            <v>-52.0760799999998</v>
+          </cell>
+          <cell r="Y9">
+            <v>-52.0760799999998</v>
           </cell>
           <cell r="Z9">
-            <v>0.502886597938144</v>
-          </cell>
-          <cell r="AA9">
-            <v>0.341719077568134</v>
-          </cell>
-          <cell r="AB9">
-            <v>0.0550161812297734</v>
-          </cell>
-          <cell r="AC9" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-          <cell r="AD9" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="AF9" t="str">
-            <v>3T</v>
-          </cell>
-          <cell r="AG9" t="str">
-            <v>由于价格收缩不明显，成交量收缩情况不予考虑</v>
-          </cell>
-          <cell r="AH9">
-            <v>32.43</v>
-          </cell>
-          <cell r="AI9">
-            <v>26.16</v>
-          </cell>
-          <cell r="AJ9">
-            <v>6.27</v>
-          </cell>
-          <cell r="AK9">
-            <v>30.66</v>
-          </cell>
-          <cell r="AL9">
-            <v>29.35</v>
-          </cell>
-          <cell r="AM9">
-            <v>38.71</v>
-          </cell>
-          <cell r="AN9">
-            <v>131</v>
-          </cell>
-          <cell r="AO9">
-            <v>200</v>
-          </cell>
-          <cell r="AP9">
-            <v>6.14503816793894</v>
-          </cell>
-          <cell r="AQ9">
-            <v>0.042726679712981</v>
-          </cell>
-          <cell r="AR9">
-            <v>0.262557077625571</v>
-          </cell>
-          <cell r="AS9">
-            <v>38.46</v>
-          </cell>
-          <cell r="AT9" t="str">
-            <v>不宜入场</v>
-          </cell>
-          <cell r="AU9">
-            <v>44524</v>
-          </cell>
-          <cell r="AV9">
-            <v>30.54</v>
-          </cell>
-          <cell r="AW9">
-            <v>100</v>
-          </cell>
-          <cell r="AX9">
-            <v>5</v>
-          </cell>
-          <cell r="AY9">
-            <v>0.06108</v>
-          </cell>
-          <cell r="AZ9">
-            <v>3059.06108</v>
-          </cell>
-          <cell r="BA9">
-            <v>124.06108</v>
-          </cell>
-          <cell r="BB9">
-            <v>30.72</v>
-          </cell>
-          <cell r="BC9">
-            <v>29.33</v>
-          </cell>
-          <cell r="BD9">
-            <v>0.129496402877698</v>
-          </cell>
-          <cell r="BE9">
-            <v>44525</v>
-          </cell>
-          <cell r="BF9">
-            <v>30.15</v>
-          </cell>
-          <cell r="BG9">
-            <v>100</v>
-          </cell>
-          <cell r="BH9">
-            <v>5</v>
-          </cell>
-          <cell r="BI9">
-            <v>3.075</v>
-          </cell>
-          <cell r="BJ9">
-            <v>3006.925</v>
-          </cell>
-          <cell r="BK9">
-            <v>30.69</v>
-          </cell>
-          <cell r="BL9">
-            <v>30.01</v>
+            <v>-0.0622009569377991</v>
+          </cell>
+          <cell r="AA9" t="str">
+            <v>1.入场时，忽略了价格的收缩幅度。价格的收缩幅度不够，导致入场过早。</v>
           </cell>
         </row>
         <row r="10">
           <cell r="A10" t="str">
+            <v>JG_0000007</v>
+          </cell>
+          <cell r="B10" t="str">
             <v>000006</v>
-          </cell>
-          <cell r="B10">
-            <v>44529</v>
           </cell>
           <cell r="C10" t="str">
             <v>603010(万盛股份)</v>
           </cell>
           <cell r="D10">
-            <v>22.26</v>
+            <v>44530</v>
           </cell>
           <cell r="E10">
-            <v>22.69</v>
+            <v>29.81</v>
           </cell>
           <cell r="F10">
-            <v>24.83</v>
-          </cell>
-        </row>
-        <row r="10">
+            <v>100</v>
+          </cell>
+          <cell r="G10">
+            <v>5</v>
+          </cell>
           <cell r="H10">
-            <v>28.99</v>
+            <v>0.05962</v>
           </cell>
           <cell r="I10">
-            <v>14.46</v>
+            <v>2986.05962</v>
           </cell>
           <cell r="J10">
-            <v>31.94</v>
+            <v>30.32</v>
           </cell>
           <cell r="K10">
-            <v>1.00484094052559</v>
+            <v>28.81</v>
           </cell>
           <cell r="L10">
-            <v>0.0923606762680026</v>
+            <v>0.337748344370862</v>
           </cell>
         </row>
         <row r="10">
           <cell r="N10">
-            <v>20.63</v>
+            <v>0</v>
           </cell>
           <cell r="O10">
-            <v>25.66</v>
+            <v>44533</v>
           </cell>
           <cell r="P10">
-            <v>21.46</v>
+            <v>27.83</v>
           </cell>
           <cell r="Q10">
-            <v>28.89</v>
+            <v>100</v>
           </cell>
           <cell r="R10">
-            <v>24.22</v>
+            <v>5</v>
           </cell>
           <cell r="S10">
-            <v>29.7</v>
+            <v>2.783</v>
           </cell>
           <cell r="T10">
-            <v>27.72</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="Y10" t="str">
-            <v>8w</v>
+            <v>2775.217</v>
+          </cell>
+          <cell r="U10">
+            <v>28.4</v>
+          </cell>
+          <cell r="V10">
+            <v>27.44</v>
+          </cell>
+          <cell r="W10">
+            <v>0.406249999999998</v>
+          </cell>
+          <cell r="X10">
+            <v>-210.84262</v>
+          </cell>
+          <cell r="Y10">
+            <v>-210.84262</v>
           </cell>
           <cell r="Z10">
-            <v>0.354101440200376</v>
-          </cell>
-          <cell r="AA10">
-            <v>0.163678877630553</v>
-          </cell>
-          <cell r="AB10">
-            <v>0.161647628937349</v>
-          </cell>
-          <cell r="AC10">
-            <v>0.0666666666666667</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="AF10" t="str">
-            <v>4T</v>
-          </cell>
-          <cell r="AG10" t="str">
-            <v>减少明显，空头几乎被榨干</v>
-          </cell>
-          <cell r="AH10">
-            <v>31.18</v>
-          </cell>
-          <cell r="AI10">
-            <v>21.1</v>
-          </cell>
-          <cell r="AJ10">
-            <v>10.08</v>
-          </cell>
-          <cell r="AK10">
-            <v>29.77</v>
-          </cell>
-          <cell r="AL10">
-            <v>27.72</v>
-          </cell>
-          <cell r="AM10">
-            <v>34.93</v>
-          </cell>
-          <cell r="AN10">
-            <v>205</v>
-          </cell>
-          <cell r="AO10">
-            <v>100</v>
-          </cell>
-          <cell r="AP10">
-            <v>2.51707317073171</v>
-          </cell>
-          <cell r="AQ10">
-            <v>0.0688612697346322</v>
-          </cell>
-          <cell r="AR10">
-            <v>0.173328854551562</v>
-          </cell>
-          <cell r="AS10">
-            <v>17.95</v>
-          </cell>
-          <cell r="AT10" t="str">
-            <v>可以</v>
-          </cell>
-          <cell r="AU10">
-            <v>44530</v>
-          </cell>
-          <cell r="AV10">
-            <v>29.81</v>
-          </cell>
-          <cell r="AW10">
-            <v>100</v>
-          </cell>
-          <cell r="AX10">
-            <v>5</v>
-          </cell>
-          <cell r="AY10">
-            <v>0.05962</v>
-          </cell>
-          <cell r="AZ10">
-            <v>2986.05962</v>
-          </cell>
-          <cell r="BA10">
-            <v>214.05962</v>
-          </cell>
-          <cell r="BB10">
-            <v>30.32</v>
-          </cell>
-          <cell r="BC10">
-            <v>28.81</v>
-          </cell>
-          <cell r="BD10">
-            <v>0.337748344370862</v>
+            <v>-0.196428571428572</v>
+          </cell>
+          <cell r="AA10" t="str">
+            <v>1.入场中枢点错误</v>
           </cell>
         </row>
         <row r="11">
           <cell r="A11" t="str">
-            <v>000020</v>
-          </cell>
-          <cell r="B11">
-            <v>44531</v>
+            <v>JG_0000008</v>
+          </cell>
+          <cell r="B11" t="str">
+            <v>000035</v>
           </cell>
           <cell r="C11" t="str">
-            <v>603663(三祥新材)</v>
+            <v> 002585(双星新材)</v>
           </cell>
           <cell r="D11">
-            <v>18.62</v>
+            <v>44536</v>
           </cell>
           <cell r="E11">
-            <v>19.35</v>
+            <v>28.37</v>
           </cell>
           <cell r="F11">
-            <v>21.48</v>
+            <v>100</v>
+          </cell>
+          <cell r="G11">
+            <v>5</v>
+          </cell>
+          <cell r="H11">
+            <v>0</v>
+          </cell>
+          <cell r="I11">
+            <v>2842</v>
+          </cell>
+          <cell r="J11">
+            <v>29.7</v>
+          </cell>
+          <cell r="K11">
+            <v>27.69</v>
+          </cell>
+          <cell r="L11">
+            <v>0.661691542288557</v>
+          </cell>
+          <cell r="M11">
+            <v>26.31</v>
+          </cell>
+          <cell r="N11">
+            <v>216</v>
           </cell>
         </row>
         <row r="11">
-          <cell r="H11">
-            <v>23.35</v>
-          </cell>
-          <cell r="I11">
-            <v>13.04</v>
-          </cell>
-          <cell r="J11">
-            <v>26.64</v>
-          </cell>
-          <cell r="K11">
-            <v>0.790644171779141</v>
-          </cell>
-          <cell r="L11">
-            <v>0.123498498498498</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="N11">
-            <v>18.5</v>
-          </cell>
-          <cell r="O11">
-            <v>22.39</v>
-          </cell>
-          <cell r="P11">
-            <v>18.85</v>
-          </cell>
-          <cell r="Q11">
-            <v>23.56</v>
-          </cell>
-          <cell r="R11">
-            <v>20.89</v>
-          </cell>
-          <cell r="S11">
-            <v>23.49</v>
-          </cell>
-          <cell r="T11">
-            <v>22.12</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="Y11" t="str">
-            <v>12w</v>
-          </cell>
-          <cell r="Z11">
-            <v>0.305555555555556</v>
-          </cell>
-          <cell r="AA11">
-            <v>0.158106297454221</v>
-          </cell>
-          <cell r="AB11">
-            <v>0.113327674023769</v>
-          </cell>
-          <cell r="AC11">
-            <v>0.0583226905065984</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="AF11" t="str">
-            <v>4T</v>
-          </cell>
-          <cell r="AG11" t="str">
-            <v>减少明显，空头几乎被榨干</v>
-          </cell>
-          <cell r="AH11">
-            <v>25.59</v>
-          </cell>
-          <cell r="AI11">
-            <v>18.59</v>
-          </cell>
-          <cell r="AJ11">
-            <v>7</v>
-          </cell>
-          <cell r="AK11">
-            <v>24.28</v>
-          </cell>
-          <cell r="AL11">
-            <v>23.09</v>
-          </cell>
-          <cell r="AM11">
-            <v>26.77</v>
-          </cell>
-          <cell r="AN11">
-            <v>119</v>
-          </cell>
-          <cell r="AO11">
-            <v>200</v>
-          </cell>
-          <cell r="AP11">
-            <v>2.09243697478991</v>
-          </cell>
-          <cell r="AQ11">
-            <v>0.049011532125206</v>
-          </cell>
-          <cell r="AR11">
-            <v>0.102553542009885</v>
-          </cell>
-          <cell r="AS11">
-            <v>56.67</v>
-          </cell>
-          <cell r="AT11" t="str">
-            <v>可以</v>
+          <cell r="AA11" t="str">
+            <v>1.跳空时，不要立即入场，应待价格下跌到原预估价格一半时，再待其上涨到预估价格时入场</v>
           </cell>
         </row>
         <row r="12">
           <cell r="A12" t="str">
+            <v>JG_0000009</v>
+          </cell>
+          <cell r="B12" t="str">
             <v>000021</v>
-          </cell>
-          <cell r="B12">
-            <v>44531</v>
           </cell>
           <cell r="C12" t="str">
             <v>605028(世贸能源)</v>
-          </cell>
-          <cell r="D12">
-            <v>22.96</v>
-          </cell>
-          <cell r="E12">
-            <v>23.55</v>
-          </cell>
-          <cell r="F12">
-            <v>25.45</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="H12">
-            <v>25.7</v>
-          </cell>
-          <cell r="I12">
-            <v>16.52</v>
-          </cell>
-          <cell r="J12">
-            <v>33.51</v>
-          </cell>
-          <cell r="K12">
-            <v>0.555690072639225</v>
-          </cell>
-          <cell r="L12">
-            <v>0.233064756789018</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="N12">
-            <v>19.92</v>
-          </cell>
-          <cell r="O12">
-            <v>26.6</v>
-          </cell>
-          <cell r="P12">
-            <v>20.5</v>
-          </cell>
-          <cell r="Q12">
-            <v>29.5</v>
-          </cell>
-          <cell r="R12">
-            <v>23.34</v>
-          </cell>
-          <cell r="S12">
-            <v>28.3</v>
-          </cell>
-          <cell r="T12">
-            <v>24.74</v>
-          </cell>
-          <cell r="U12">
-            <v>27.7</v>
-          </cell>
-          <cell r="V12">
-            <v>25</v>
-          </cell>
-          <cell r="W12">
-            <v>27.58</v>
-          </cell>
-          <cell r="X12">
-            <v>25.01</v>
-          </cell>
-          <cell r="Y12" t="str">
-            <v>16w</v>
-          </cell>
-          <cell r="Z12">
-            <v>0.405550581915846</v>
-          </cell>
-          <cell r="AA12">
-            <v>0.229323308270677</v>
-          </cell>
-          <cell r="AB12">
-            <v>0.208813559322034</v>
-          </cell>
-          <cell r="AC12">
-            <v>0.125795053003534</v>
-          </cell>
-          <cell r="AD12">
-            <v>0.0974729241877256</v>
-          </cell>
-          <cell r="AE12">
-            <v>0.0931834662799129</v>
-          </cell>
-          <cell r="AF12" t="str">
-            <v>6T</v>
-          </cell>
-          <cell r="AG12" t="str">
-            <v>减少明显，空A头几乎被榨干</v>
-          </cell>
-          <cell r="AH12">
-            <v>29.7</v>
-          </cell>
-          <cell r="AI12">
-            <v>21.86</v>
-          </cell>
-          <cell r="AJ12">
-            <v>7.84</v>
-          </cell>
-          <cell r="AK12">
-            <v>27.58</v>
-          </cell>
-          <cell r="AL12">
-            <v>25.01</v>
-          </cell>
-          <cell r="AM12">
-            <v>35.47</v>
-          </cell>
-          <cell r="AN12">
-            <v>257</v>
-          </cell>
-          <cell r="AO12">
-            <v>100</v>
-          </cell>
-          <cell r="AP12">
-            <v>3.07003891050584</v>
-          </cell>
-          <cell r="AQ12">
-            <v>0.0931834662799129</v>
-          </cell>
-          <cell r="AR12">
-            <v>0.286076867295141</v>
-          </cell>
-          <cell r="AS12">
-            <v>22.12</v>
-          </cell>
-          <cell r="AT12" t="str">
-            <v>可以</v>
           </cell>
         </row>
         <row r="13">
           <cell r="A13" t="str">
+            <v>JG_0000010</v>
+          </cell>
+          <cell r="B13" t="str">
             <v>000027</v>
           </cell>
         </row>
         <row r="14">
           <cell r="A14" t="str">
+            <v>JG_0000011</v>
+          </cell>
+          <cell r="B14" t="str">
             <v>000028</v>
           </cell>
         </row>
         <row r="15">
           <cell r="A15" t="str">
+            <v>JG_0000012</v>
+          </cell>
+          <cell r="B15" t="str">
             <v>000029</v>
           </cell>
         </row>
         <row r="16">
           <cell r="A16" t="str">
+            <v>JG_0000013</v>
+          </cell>
+          <cell r="B16" t="str">
             <v>000030</v>
           </cell>
         </row>
         <row r="17">
           <cell r="A17" t="str">
+            <v>JG_0000014</v>
+          </cell>
+          <cell r="B17" t="str">
             <v>000031</v>
           </cell>
         </row>
         <row r="18">
           <cell r="A18" t="str">
+            <v>JG_0000015</v>
+          </cell>
+          <cell r="B18" t="str">
             <v>000032</v>
           </cell>
         </row>
         <row r="19">
           <cell r="A19" t="str">
+            <v>JG_0000016</v>
+          </cell>
+          <cell r="B19" t="str">
             <v>000033</v>
           </cell>
         </row>
         <row r="20">
           <cell r="A20" t="str">
+            <v>JG_0000017</v>
+          </cell>
+          <cell r="B20" t="str">
             <v>000034</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21" t="str">
-            <v>000035</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22" t="str">
-            <v>000036</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23" t="str">
-            <v>000037</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24" t="str">
-            <v>000038</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25" t="str">
-            <v>000039</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26" t="str">
-            <v>000040</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="A27" t="str">
-            <v>000041</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="A28" t="str">
-            <v>000042</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="A29" t="str">
-            <v>000043</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="A30" t="str">
-            <v>000044</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="A31" t="str">
-            <v>000045</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="A32" t="str">
-            <v>000046</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="A33" t="str">
-            <v>000047</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="A34" t="str">
-            <v>000048</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="A35" t="str">
-            <v>000049</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="A36" t="str">
-            <v>000050</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="A37" t="str">
-            <v>000051</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="A38" t="str">
-            <v>000052</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="A39" t="str">
-            <v>000053</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="A40" t="str">
-            <v>000054</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="A41" t="str">
-            <v>000055</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="A42" t="str">
-            <v>000056</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="A43" t="str">
-            <v>000057</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="A44" t="str">
-            <v>000058</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="A45" t="str">
-            <v>000059</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="A46" t="str">
-            <v>000060</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="A47" t="str">
-            <v>000061</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="A48" t="str">
-            <v>000062</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="A49" t="str">
-            <v>000063</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="A50" t="str">
-            <v>000064</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="A51" t="str">
-            <v>000065</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="A52" t="str">
-            <v>000066</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="A53" t="str">
-            <v>000067</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="A54" t="str">
-            <v>000068</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="A55" t="str">
-            <v>000069</v>
           </cell>
         </row>
       </sheetData>
@@ -2993,11 +2062,11 @@
   <dimension ref="A1:AG501"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AB2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L6" sqref="L6"/>
+      <selection pane="bottomRight" activeCell="AG15" sqref="AG15:AG16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -3057,25 +2126,25 @@
       <c r="R1" s="19"/>
       <c r="S1" s="19"/>
       <c r="T1" s="19"/>
-      <c r="U1" s="26" t="s">
+      <c r="U1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="V1" s="27" t="s">
+      <c r="V1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="W1" s="27"/>
-      <c r="X1" s="27"/>
-      <c r="Y1" s="27"/>
-      <c r="Z1" s="27"/>
-      <c r="AA1" s="27"/>
-      <c r="AB1" s="27"/>
-      <c r="AC1" s="27"/>
-      <c r="AD1" s="27"/>
-      <c r="AE1" s="27"/>
-      <c r="AF1" s="37" t="s">
+      <c r="W1" s="28"/>
+      <c r="X1" s="28"/>
+      <c r="Y1" s="28"/>
+      <c r="Z1" s="28"/>
+      <c r="AA1" s="28"/>
+      <c r="AB1" s="28"/>
+      <c r="AC1" s="28"/>
+      <c r="AD1" s="28"/>
+      <c r="AE1" s="28"/>
+      <c r="AF1" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="AG1" s="41" t="s">
+      <c r="AG1" s="42" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3100,23 +2169,23 @@
       <c r="R2" s="19"/>
       <c r="S2" s="19"/>
       <c r="T2" s="19"/>
-      <c r="U2" s="28"/>
-      <c r="V2" s="29" t="s">
+      <c r="U2" s="29"/>
+      <c r="V2" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="W2" s="29"/>
-      <c r="X2" s="29"/>
-      <c r="Y2" s="29"/>
-      <c r="Z2" s="29"/>
-      <c r="AA2" s="29"/>
-      <c r="AB2" s="29"/>
-      <c r="AC2" s="29"/>
-      <c r="AD2" s="38" t="s">
+      <c r="W2" s="30"/>
+      <c r="X2" s="30"/>
+      <c r="Y2" s="30"/>
+      <c r="Z2" s="30"/>
+      <c r="AA2" s="30"/>
+      <c r="AB2" s="30"/>
+      <c r="AC2" s="30"/>
+      <c r="AD2" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="AE2" s="38"/>
-      <c r="AF2" s="37"/>
-      <c r="AG2" s="41"/>
+      <c r="AE2" s="39"/>
+      <c r="AF2" s="38"/>
+      <c r="AG2" s="42"/>
     </row>
     <row r="3" spans="1:33">
       <c r="A3" s="3"/>
@@ -3143,19 +2212,19 @@
       <c r="R3" s="24"/>
       <c r="S3" s="24"/>
       <c r="T3" s="24"/>
-      <c r="U3" s="28"/>
-      <c r="V3" s="29"/>
-      <c r="W3" s="29"/>
-      <c r="X3" s="29"/>
-      <c r="Y3" s="29"/>
-      <c r="Z3" s="29"/>
-      <c r="AA3" s="29"/>
-      <c r="AB3" s="29"/>
-      <c r="AC3" s="29"/>
-      <c r="AD3" s="38"/>
-      <c r="AE3" s="38"/>
-      <c r="AF3" s="37"/>
-      <c r="AG3" s="41"/>
+      <c r="U3" s="29"/>
+      <c r="V3" s="30"/>
+      <c r="W3" s="30"/>
+      <c r="X3" s="30"/>
+      <c r="Y3" s="30"/>
+      <c r="Z3" s="30"/>
+      <c r="AA3" s="30"/>
+      <c r="AB3" s="30"/>
+      <c r="AC3" s="30"/>
+      <c r="AD3" s="39"/>
+      <c r="AE3" s="39"/>
+      <c r="AF3" s="38"/>
+      <c r="AG3" s="42"/>
     </row>
     <row r="4" spans="1:33">
       <c r="A4" s="3"/>
@@ -3216,37 +2285,37 @@
       <c r="T4" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="U4" s="28"/>
-      <c r="V4" s="30" t="s">
+      <c r="U4" s="29"/>
+      <c r="V4" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="W4" s="30" t="s">
+      <c r="W4" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="X4" s="29" t="s">
+      <c r="X4" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="Y4" s="29"/>
-      <c r="Z4" s="36" t="s">
+      <c r="Y4" s="30"/>
+      <c r="Z4" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="AA4" s="29" t="s">
+      <c r="AA4" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="AB4" s="36" t="s">
+      <c r="AB4" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="AC4" s="36" t="s">
+      <c r="AC4" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="AD4" s="38" t="s">
+      <c r="AD4" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="AE4" s="39" t="s">
+      <c r="AE4" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="AF4" s="37"/>
-      <c r="AG4" s="41"/>
+      <c r="AF4" s="38"/>
+      <c r="AG4" s="42"/>
     </row>
     <row r="5" ht="56" customHeight="1" spans="1:33">
       <c r="A5" s="3"/>
@@ -3269,23 +2338,23 @@
       <c r="R5" s="25"/>
       <c r="S5" s="25"/>
       <c r="T5" s="25"/>
-      <c r="U5" s="28"/>
-      <c r="V5" s="30"/>
-      <c r="W5" s="30"/>
-      <c r="X5" s="31" t="s">
+      <c r="U5" s="29"/>
+      <c r="V5" s="31"/>
+      <c r="W5" s="31"/>
+      <c r="X5" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="Y5" s="31" t="s">
+      <c r="Y5" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="Z5" s="29"/>
-      <c r="AA5" s="29"/>
-      <c r="AB5" s="29"/>
-      <c r="AC5" s="29"/>
-      <c r="AD5" s="38"/>
-      <c r="AE5" s="38"/>
-      <c r="AF5" s="37"/>
-      <c r="AG5" s="41"/>
+      <c r="Z5" s="30"/>
+      <c r="AA5" s="30"/>
+      <c r="AB5" s="30"/>
+      <c r="AC5" s="30"/>
+      <c r="AD5" s="39"/>
+      <c r="AE5" s="39"/>
+      <c r="AF5" s="38"/>
+      <c r="AG5" s="42"/>
     </row>
     <row r="6" ht="18" spans="1:33">
       <c r="A6" s="6">
@@ -3319,16 +2388,16 @@
         <v>41</v>
       </c>
       <c r="K6" s="15">
-        <f>(B6-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10004,48,FALSE))/VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10004,48,FALSE)</f>
+        <f>(B6-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10004,5,FALSE))/VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10004,5,FALSE)</f>
         <v>0.0447672694930331</v>
       </c>
       <c r="L6" s="16">
         <f>I6/(ROW()-5)</f>
         <v>1</v>
       </c>
-      <c r="M6" s="9" t="str">
-        <f>IF(B6&gt;=(D6-(D6-E6)/2),"上部","下部")</f>
-        <v>上部</v>
+      <c r="M6" s="9">
+        <f>IF(B6&gt;(D6-(D6-E6)/2),1,-1)</f>
+        <v>1</v>
       </c>
       <c r="N6" s="9" t="str">
         <f>IF(B6&lt;F6,"是","否")</f>
@@ -3346,18 +2415,19 @@
       <c r="R6" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="S6" s="22" t="str">
+      <c r="S6" s="26" t="str">
         <f>IF(I6/(ROW()-5)&gt;0.5,"是","否")</f>
         <v>是</v>
       </c>
-      <c r="T6" s="22" t="s">
+      <c r="T6" s="26" t="str">
+        <f>IF(SUM($M$6:$M6)&gt;0,"是","否")</f>
+        <v>是</v>
+      </c>
+      <c r="U6" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="U6" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="V6" s="32"/>
-      <c r="W6" s="33"/>
+      <c r="V6" s="33"/>
+      <c r="W6" s="34"/>
       <c r="X6" s="2"/>
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
@@ -3366,11 +2436,11 @@
       <c r="AC6" s="2"/>
       <c r="AD6" s="2"/>
       <c r="AE6" s="2"/>
-      <c r="AF6" s="40">
+      <c r="AF6" s="41">
         <v>32.53</v>
       </c>
       <c r="AG6" s="2">
-        <f>AF6-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10005,48,FALSE)</f>
+        <f>AF6-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10005,5,FALSE)</f>
         <v>-1.2</v>
       </c>
     </row>
@@ -3407,16 +2477,16 @@
         <v>-0.0227014755959139</v>
       </c>
       <c r="K7" s="15">
-        <f>(B7-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10005,48,FALSE))/VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10005,48,FALSE)</f>
+        <f>(B7-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10005,5,FALSE))/VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10005,5,FALSE)</f>
         <v>0.0210495108212274</v>
       </c>
       <c r="L7" s="16">
         <f t="shared" ref="L7:L15" si="0">I7/(ROW()-5)</f>
         <v>0.5</v>
       </c>
-      <c r="M7" s="22" t="str">
-        <f t="shared" ref="M7:M13" si="1">IF(B7&gt;=(D7-(D7-E7)/2),"上部","下部")</f>
-        <v>下部</v>
+      <c r="M7" s="22">
+        <f t="shared" ref="M7:M16" si="1">IF(B7&gt;(D7-(D7-E7)/2),1,-1)</f>
+        <v>-1</v>
       </c>
       <c r="N7" s="9" t="str">
         <f t="shared" ref="N7:N13" si="2">IF(B7&lt;F7,"是","否")</f>
@@ -3438,14 +2508,15 @@
         <f t="shared" ref="S6:S15" si="3">IF(I7/(ROW()-5)&gt;0.5,"是","否")</f>
         <v>否</v>
       </c>
-      <c r="T7" s="22" t="s">
+      <c r="T7" s="23" t="str">
+        <f>IF(SUM($M$6:$M7)&gt;0,"是","否")</f>
+        <v>否</v>
+      </c>
+      <c r="U7" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="U7" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="V7" s="34"/>
-      <c r="W7" s="35"/>
+      <c r="V7" s="35"/>
+      <c r="W7" s="36"/>
       <c r="X7" s="2"/>
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
@@ -3454,12 +2525,12 @@
       <c r="AC7" s="2"/>
       <c r="AD7" s="2"/>
       <c r="AE7" s="2"/>
-      <c r="AF7" s="40">
-        <f>IF(G7-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10005,48,FALSE)&gt;0,G7,AF6)</f>
+      <c r="AF7" s="41">
+        <f>IF(AND(G7-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10004,5,FALSE)&gt;0,G7&gt;G6),G7,AF6)</f>
         <v>32.53</v>
       </c>
       <c r="AG7" s="2">
-        <f>AF7-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10006,48,FALSE)</f>
+        <f>AF7-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10006,5,FALSE)</f>
         <v>-1.2</v>
       </c>
     </row>
@@ -3496,16 +2567,16 @@
         <v>0.0743321718931476</v>
       </c>
       <c r="K8" s="15">
-        <f>(B8-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10006,48,FALSE))/VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10006,48,FALSE)</f>
+        <f>(B8-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10006,5,FALSE))/VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10006,5,FALSE)</f>
         <v>0.0969463385710051</v>
       </c>
       <c r="L8" s="16">
         <f t="shared" si="0"/>
         <v>0.666666666666667</v>
       </c>
-      <c r="M8" s="9" t="str">
+      <c r="M8" s="9">
         <f t="shared" si="1"/>
-        <v>上部</v>
+        <v>1</v>
       </c>
       <c r="N8" s="9" t="str">
         <f t="shared" si="2"/>
@@ -3520,21 +2591,22 @@
       <c r="Q8" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="R8" s="22" t="s">
+      <c r="R8" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="S8" s="22" t="str">
+      <c r="S8" s="26" t="str">
         <f t="shared" si="3"/>
         <v>是</v>
       </c>
-      <c r="T8" s="22" t="s">
+      <c r="T8" s="26" t="str">
+        <f>IF(SUM($M$6:$M8)&gt;0,"是","否")</f>
+        <v>是</v>
+      </c>
+      <c r="U8" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="U8" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="V8" s="34"/>
-      <c r="W8" s="35"/>
+      <c r="V8" s="35"/>
+      <c r="W8" s="36"/>
       <c r="X8" s="2"/>
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
@@ -3543,12 +2615,12 @@
       <c r="AC8" s="2"/>
       <c r="AD8" s="2"/>
       <c r="AE8" s="2"/>
-      <c r="AF8" s="40">
-        <f>IF(G8-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10006,48,FALSE)&gt;0,G8,AF7)</f>
+      <c r="AF8" s="41">
+        <f>IF(AND(G8-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10005,5,FALSE)&gt;0,G8&gt;G7),G8,AF7)</f>
         <v>32.53</v>
       </c>
       <c r="AG8" s="2">
-        <f>AF8-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10007,48,FALSE)</f>
+        <f>AF8-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10007,5,FALSE)</f>
         <v>-1.2</v>
       </c>
     </row>
@@ -3585,16 +2657,16 @@
         <v>-0.00513513513513507</v>
       </c>
       <c r="K9" s="15">
-        <f>(B9-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10007,48,FALSE))/VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10007,48,FALSE)</f>
+        <f>(B9-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10007,5,FALSE))/VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10007,5,FALSE)</f>
         <v>0.0913133708864514</v>
       </c>
       <c r="L9" s="16">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="M9" s="9" t="str">
+      <c r="M9" s="9">
         <f t="shared" si="1"/>
-        <v>上部</v>
+        <v>1</v>
       </c>
       <c r="N9" s="9" t="str">
         <f t="shared" si="2"/>
@@ -3616,14 +2688,15 @@
         <f t="shared" si="3"/>
         <v>否</v>
       </c>
-      <c r="T9" s="22" t="s">
+      <c r="T9" s="26" t="str">
+        <f>IF(SUM($M$6:$M9)&gt;0,"是","否")</f>
+        <v>是</v>
+      </c>
+      <c r="U9" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="U9" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="V9" s="34"/>
-      <c r="W9" s="35"/>
+      <c r="V9" s="35"/>
+      <c r="W9" s="36"/>
       <c r="X9" s="2"/>
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
@@ -3632,12 +2705,12 @@
       <c r="AC9" s="2"/>
       <c r="AD9" s="2"/>
       <c r="AE9" s="2"/>
-      <c r="AF9" s="40">
-        <f>IF(G9-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10007,48,FALSE)&gt;0,G9,AF8)</f>
+      <c r="AF9" s="41">
+        <f>IF(AND(G9-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10006,5,FALSE)&gt;0,G9&gt;G8),G9,AF8)</f>
         <v>32.53</v>
       </c>
       <c r="AG9" s="2">
-        <f>AF9-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10008,48,FALSE)</f>
+        <f>AF9-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10008,5,FALSE)</f>
         <v>-1.2</v>
       </c>
     </row>
@@ -3674,16 +2747,16 @@
         <v>-0.0187449062754688</v>
       </c>
       <c r="K10" s="15">
-        <f>(B10-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10008,48,FALSE))/VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10008,48,FALSE)</f>
+        <f>(B10-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10008,5,FALSE))/VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10008,5,FALSE)</f>
         <v>0.070856804032019</v>
       </c>
       <c r="L10" s="18">
         <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
-      <c r="M10" s="22" t="str">
+      <c r="M10" s="22">
         <f t="shared" si="1"/>
-        <v>下部</v>
+        <v>-1</v>
       </c>
       <c r="N10" s="9" t="str">
         <f t="shared" si="2"/>
@@ -3705,10 +2778,11 @@
         <f t="shared" si="3"/>
         <v>否</v>
       </c>
-      <c r="T10" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="U10" s="32" t="s">
+      <c r="T10" s="26" t="str">
+        <f>IF(SUM($M$6:$M10)&gt;0,"是","否")</f>
+        <v>是</v>
+      </c>
+      <c r="U10" s="33" t="s">
         <v>43</v>
       </c>
       <c r="V10" s="9"/>
@@ -3721,12 +2795,12 @@
       <c r="AC10" s="2"/>
       <c r="AD10" s="2"/>
       <c r="AE10" s="2"/>
-      <c r="AF10" s="40">
-        <f>IF(G10-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10008,48,FALSE)&gt;0,G10,AF9)</f>
+      <c r="AF10" s="41">
+        <f>IF(AND(G10-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10007,5,FALSE)&gt;0,G10&gt;G9),G10,AF9)</f>
         <v>32.53</v>
       </c>
       <c r="AG10" s="2">
-        <f>AF10-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10009,48,FALSE)</f>
+        <f>AF10-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10009,5,FALSE)</f>
         <v>-1.2</v>
       </c>
     </row>
@@ -3763,16 +2837,16 @@
         <v>0.00526024363233679</v>
       </c>
       <c r="K11" s="15">
-        <f>(B11-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10009,48,FALSE))/VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10009,48,FALSE)</f>
+        <f>(B11-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10009,5,FALSE))/VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10009,5,FALSE)</f>
         <v>0.076489771716573</v>
       </c>
       <c r="L11" s="16">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="M11" s="9" t="str">
+      <c r="M11" s="9">
         <f t="shared" si="1"/>
-        <v>上部</v>
+        <v>1</v>
       </c>
       <c r="N11" s="9" t="str">
         <f t="shared" si="2"/>
@@ -3794,10 +2868,11 @@
         <f t="shared" si="3"/>
         <v>否</v>
       </c>
-      <c r="T11" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="U11" s="32" t="s">
+      <c r="T11" s="26" t="str">
+        <f>IF(SUM($M$6:$M11)&gt;0,"是","否")</f>
+        <v>是</v>
+      </c>
+      <c r="U11" s="33" t="s">
         <v>43</v>
       </c>
       <c r="V11" s="9"/>
@@ -3810,12 +2885,12 @@
       <c r="AC11" s="2"/>
       <c r="AD11" s="2"/>
       <c r="AE11" s="2"/>
-      <c r="AF11" s="40">
-        <f>IF(G11-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10009,48,FALSE)&gt;0,G11,AF10)</f>
+      <c r="AF11" s="41">
+        <f>IF(AND(G11-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10008,5,FALSE)&gt;0,G11&gt;G10),G11,AF10)</f>
         <v>33.78</v>
       </c>
       <c r="AG11" s="2">
-        <f>AF11-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10010,48,FALSE)</f>
+        <f>AF11-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10010,5,FALSE)</f>
         <v>0.0500000000000043</v>
       </c>
     </row>
@@ -3852,16 +2927,16 @@
         <v>0.0220324979344532</v>
       </c>
       <c r="K12" s="15">
-        <f>(B12-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10010,48,FALSE))/VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10010,48,FALSE)</f>
+        <f>(B12-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10010,5,FALSE))/VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10010,5,FALSE)</f>
         <v>0.100207530388378</v>
       </c>
       <c r="L12" s="16">
         <f t="shared" si="0"/>
         <v>0.571428571428571</v>
       </c>
-      <c r="M12" s="9" t="str">
+      <c r="M12" s="9">
         <f t="shared" si="1"/>
-        <v>上部</v>
+        <v>1</v>
       </c>
       <c r="N12" s="9" t="str">
         <f t="shared" si="2"/>
@@ -3876,17 +2951,18 @@
       <c r="Q12" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="R12" s="22" t="s">
+      <c r="R12" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="S12" s="22" t="str">
+      <c r="S12" s="26" t="str">
         <f t="shared" si="3"/>
         <v>是</v>
       </c>
-      <c r="T12" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="U12" s="32" t="s">
+      <c r="T12" s="26" t="str">
+        <f>IF(SUM($M$6:$M12)&gt;0,"是","否")</f>
+        <v>是</v>
+      </c>
+      <c r="U12" s="33" t="s">
         <v>43</v>
       </c>
       <c r="V12" s="9"/>
@@ -3899,12 +2975,12 @@
       <c r="AC12" s="2"/>
       <c r="AD12" s="2"/>
       <c r="AE12" s="2"/>
-      <c r="AF12" s="40">
-        <f>IF(G12-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10010,48,FALSE)&gt;0,G12,AF11)</f>
+      <c r="AF12" s="41">
+        <f>IF(AND(G12-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10009,5,FALSE)&gt;0,G12&gt;G11),G12,AF11)</f>
         <v>33.91</v>
       </c>
       <c r="AG12" s="2">
-        <f>AF12-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10011,48,FALSE)</f>
+        <f>AF12-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10011,5,FALSE)</f>
         <v>0.18</v>
       </c>
     </row>
@@ -3941,16 +3017,16 @@
         <v>-0.0083535435192671</v>
       </c>
       <c r="K13" s="15">
-        <f>(B13-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10011,48,FALSE))/VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10011,48,FALSE)</f>
+        <f>(B13-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10011,5,FALSE))/VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10011,5,FALSE)</f>
         <v>0.0910168989030537</v>
       </c>
       <c r="L13" s="16">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="M13" s="22" t="str">
-        <f>IF(B13&gt;(D13-(D13-E13)/2),"上部","下部")</f>
-        <v>下部</v>
+      <c r="M13" s="22">
+        <f t="shared" si="1"/>
+        <v>-1</v>
       </c>
       <c r="N13" s="9" t="str">
         <f>IF(B13&lt;=F13,"是","否")</f>
@@ -3972,10 +3048,11 @@
         <f t="shared" si="3"/>
         <v>否</v>
       </c>
-      <c r="T13" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="U13" s="32" t="s">
+      <c r="T13" s="26" t="str">
+        <f>IF(SUM($M$6:$M13)&gt;0,"是","否")</f>
+        <v>是</v>
+      </c>
+      <c r="U13" s="33" t="s">
         <v>43</v>
       </c>
       <c r="V13" s="9"/>
@@ -3988,12 +3065,12 @@
       <c r="AC13" s="2"/>
       <c r="AD13" s="2"/>
       <c r="AE13" s="2"/>
-      <c r="AF13" s="40">
-        <f>IF(G13-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10011,48,FALSE)&gt;0,G13,AF12)</f>
+      <c r="AF13" s="41">
+        <f>IF(AND(G13-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10010,5,FALSE)&gt;0,G13&gt;G12),G13,AF12)</f>
         <v>34.02</v>
       </c>
       <c r="AG13" s="2">
-        <f>AF13-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10012,48,FALSE)</f>
+        <f>AF13-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10012,5,FALSE)</f>
         <v>0.290000000000006</v>
       </c>
     </row>
@@ -4030,16 +3107,16 @@
         <v>0</v>
       </c>
       <c r="K14" s="15">
-        <f>(B14-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10012,48,FALSE))/VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10012,48,FALSE)</f>
+        <f>(B14-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10012,5,FALSE))/VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10012,5,FALSE)</f>
         <v>0.0910168989030537</v>
       </c>
       <c r="L14" s="18">
         <f t="shared" si="0"/>
         <v>0.444444444444444</v>
       </c>
-      <c r="M14" s="22" t="str">
-        <f>IF(B14&gt;(D14-(D14-E14)/2),"上部","下部")</f>
-        <v>下部</v>
+      <c r="M14" s="22">
+        <f t="shared" si="1"/>
+        <v>-1</v>
       </c>
       <c r="N14" s="9" t="str">
         <f>IF(B14&lt;F14,"是","否")</f>
@@ -4061,10 +3138,11 @@
         <f t="shared" si="3"/>
         <v>否</v>
       </c>
-      <c r="T14" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="U14" s="32" t="s">
+      <c r="T14" s="26" t="str">
+        <f>IF(SUM($M$6:$M14)&gt;0,"是","否")</f>
+        <v>是</v>
+      </c>
+      <c r="U14" s="33" t="s">
         <v>43</v>
       </c>
       <c r="V14" s="9"/>
@@ -4077,12 +3155,12 @@
       <c r="AC14" s="2"/>
       <c r="AD14" s="2"/>
       <c r="AE14" s="2"/>
-      <c r="AF14" s="40">
-        <f>IF(G14-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10012,48,FALSE)&gt;0,G14,AF13)</f>
+      <c r="AF14" s="41">
+        <f>IF(AND(G14-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10011,5,FALSE)&gt;0,G14&gt;G13),G14,AF13)</f>
         <v>34.13</v>
       </c>
       <c r="AG14" s="2">
-        <f>AF14-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10013,48,FALSE)</f>
+        <f>AF14-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10013,5,FALSE)</f>
         <v>0.400000000000006</v>
       </c>
     </row>
@@ -4119,16 +3197,16 @@
         <v>0.00815217391304359</v>
       </c>
       <c r="K15" s="15">
-        <f>(B15-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10013,48,FALSE))/VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10013,48,FALSE)</f>
+        <f>(B15-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10013,5,FALSE))/VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10013,5,FALSE)</f>
         <v>0.0999110584049809</v>
       </c>
       <c r="L15" s="16">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="M15" s="22" t="str">
-        <f>IF(B15&gt;(D15-(D15-E15)/2),"上部","下部")</f>
-        <v>下部</v>
+      <c r="M15" s="22">
+        <f t="shared" si="1"/>
+        <v>-1</v>
       </c>
       <c r="N15" s="9" t="str">
         <f>IF(B15&lt;F15,"是","否")</f>
@@ -4143,17 +3221,18 @@
       <c r="Q15" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="R15" s="22" t="s">
+      <c r="R15" s="26" t="s">
         <v>43</v>
       </c>
       <c r="S15" s="23" t="str">
         <f t="shared" si="3"/>
         <v>否</v>
       </c>
-      <c r="T15" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="U15" s="32" t="s">
+      <c r="T15" s="23" t="str">
+        <f>IF(SUM($M$6:$M15)&gt;0,"是","否")</f>
+        <v>否</v>
+      </c>
+      <c r="U15" s="33" t="s">
         <v>43</v>
       </c>
       <c r="V15" s="9"/>
@@ -4166,39 +3245,86 @@
       <c r="AC15" s="2"/>
       <c r="AD15" s="2"/>
       <c r="AE15" s="2"/>
-      <c r="AF15" s="40">
-        <f>IF(G15-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10013,48,FALSE)&gt;0,G15,AF14)</f>
+      <c r="AF15" s="41">
+        <f>IF(AND(G15-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10012,5,FALSE)&gt;0,G15&gt;G14),G15,AF14)</f>
         <v>34.25</v>
       </c>
       <c r="AG15" s="2">
-        <f>AF15-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10014,48,FALSE)</f>
+        <f>AF15-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10014,5,FALSE)</f>
         <v>0.520000000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:32">
+    <row r="16" ht="18" spans="1:33">
       <c r="A16" s="8">
         <v>44537</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="9"/>
-      <c r="S16" s="9"/>
-      <c r="T16" s="9"/>
-      <c r="U16" s="9"/>
+      <c r="B16" s="7">
+        <v>38.35</v>
+      </c>
+      <c r="C16" s="7">
+        <v>37.63</v>
+      </c>
+      <c r="D16" s="7">
+        <v>38.8</v>
+      </c>
+      <c r="E16" s="7">
+        <v>37.06</v>
+      </c>
+      <c r="F16" s="7">
+        <v>35.55</v>
+      </c>
+      <c r="G16" s="7">
+        <v>34.41</v>
+      </c>
+      <c r="H16" s="7">
+        <v>41.15</v>
+      </c>
+      <c r="I16" s="9">
+        <v>6</v>
+      </c>
+      <c r="J16" s="17">
+        <f>(B16-B15)/B15</f>
+        <v>0.0336927223719677</v>
+      </c>
+      <c r="K16" s="15">
+        <f>(B16-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10014,5,FALSE))/VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10014,5,FALSE)</f>
+        <v>0.136970056329677</v>
+      </c>
+      <c r="L16" s="16">
+        <f>I16/(ROW()-5)</f>
+        <v>0.545454545454545</v>
+      </c>
+      <c r="M16" s="9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N16" s="9" t="str">
+        <f>IF(B16&lt;F16,"是","否")</f>
+        <v>否</v>
+      </c>
+      <c r="O16" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="P16" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q16" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="R16" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="S16" s="26" t="str">
+        <f>IF(I16/(ROW()-5)&gt;0.5,"是","否")</f>
+        <v>是</v>
+      </c>
+      <c r="T16" s="26" t="str">
+        <f>IF(SUM($M$6:$M16)&gt;0,"是","否")</f>
+        <v>是</v>
+      </c>
+      <c r="U16" s="33" t="s">
+        <v>43</v>
+      </c>
       <c r="V16" s="9"/>
       <c r="W16" s="7"/>
       <c r="X16" s="2"/>
@@ -4209,7 +3335,14 @@
       <c r="AC16" s="2"/>
       <c r="AD16" s="2"/>
       <c r="AE16" s="2"/>
-      <c r="AF16" s="40"/>
+      <c r="AF16" s="41">
+        <f>IF(AND(G16-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10013,5,FALSE)&gt;0,G16&gt;G15),G16,AF15)</f>
+        <v>34.41</v>
+      </c>
+      <c r="AG16" s="2">
+        <f>AF16-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10015,5,FALSE)</f>
+        <v>0.68</v>
+      </c>
     </row>
     <row r="17" spans="1:32">
       <c r="A17" s="8">
@@ -4245,7 +3378,7 @@
       <c r="AC17" s="2"/>
       <c r="AD17" s="2"/>
       <c r="AE17" s="2"/>
-      <c r="AF17" s="40"/>
+      <c r="AF17" s="41"/>
     </row>
     <row r="18" spans="1:32">
       <c r="A18" s="8"/>
@@ -4279,7 +3412,7 @@
       <c r="AC18" s="2"/>
       <c r="AD18" s="2"/>
       <c r="AE18" s="2"/>
-      <c r="AF18" s="40"/>
+      <c r="AF18" s="41"/>
     </row>
     <row r="19" spans="1:32">
       <c r="A19" s="8"/>
@@ -4313,7 +3446,7 @@
       <c r="AC19" s="2"/>
       <c r="AD19" s="2"/>
       <c r="AE19" s="2"/>
-      <c r="AF19" s="40"/>
+      <c r="AF19" s="41"/>
     </row>
     <row r="20" spans="1:32">
       <c r="A20" s="8"/>
@@ -4347,7 +3480,7 @@
       <c r="AC20" s="2"/>
       <c r="AD20" s="2"/>
       <c r="AE20" s="2"/>
-      <c r="AF20" s="40"/>
+      <c r="AF20" s="41"/>
     </row>
     <row r="21" spans="1:32">
       <c r="A21" s="8"/>
@@ -4381,7 +3514,7 @@
       <c r="AC21" s="2"/>
       <c r="AD21" s="2"/>
       <c r="AE21" s="2"/>
-      <c r="AF21" s="40"/>
+      <c r="AF21" s="41"/>
     </row>
     <row r="22" spans="1:32">
       <c r="A22" s="8"/>
@@ -4415,7 +3548,7 @@
       <c r="AC22" s="2"/>
       <c r="AD22" s="2"/>
       <c r="AE22" s="2"/>
-      <c r="AF22" s="40"/>
+      <c r="AF22" s="41"/>
     </row>
     <row r="23" spans="1:32">
       <c r="A23" s="8"/>
@@ -4449,7 +3582,7 @@
       <c r="AC23" s="2"/>
       <c r="AD23" s="2"/>
       <c r="AE23" s="2"/>
-      <c r="AF23" s="40"/>
+      <c r="AF23" s="41"/>
     </row>
     <row r="24" spans="1:32">
       <c r="A24" s="8"/>
@@ -4483,7 +3616,7 @@
       <c r="AC24" s="2"/>
       <c r="AD24" s="2"/>
       <c r="AE24" s="2"/>
-      <c r="AF24" s="40"/>
+      <c r="AF24" s="41"/>
     </row>
     <row r="25" spans="1:32">
       <c r="A25" s="8"/>
@@ -4517,7 +3650,7 @@
       <c r="AC25" s="2"/>
       <c r="AD25" s="2"/>
       <c r="AE25" s="2"/>
-      <c r="AF25" s="40"/>
+      <c r="AF25" s="41"/>
     </row>
     <row r="26" spans="1:32">
       <c r="A26" s="8"/>
@@ -4551,7 +3684,7 @@
       <c r="AC26" s="2"/>
       <c r="AD26" s="2"/>
       <c r="AE26" s="2"/>
-      <c r="AF26" s="40"/>
+      <c r="AF26" s="41"/>
     </row>
     <row r="27" spans="1:32">
       <c r="A27" s="8"/>
@@ -4585,7 +3718,7 @@
       <c r="AC27" s="2"/>
       <c r="AD27" s="2"/>
       <c r="AE27" s="2"/>
-      <c r="AF27" s="40"/>
+      <c r="AF27" s="41"/>
     </row>
     <row r="28" spans="1:32">
       <c r="A28" s="8"/>
@@ -4619,7 +3752,7 @@
       <c r="AC28" s="2"/>
       <c r="AD28" s="2"/>
       <c r="AE28" s="2"/>
-      <c r="AF28" s="40"/>
+      <c r="AF28" s="41"/>
     </row>
     <row r="29" spans="1:32">
       <c r="A29" s="8"/>
@@ -4653,7 +3786,7 @@
       <c r="AC29" s="2"/>
       <c r="AD29" s="2"/>
       <c r="AE29" s="2"/>
-      <c r="AF29" s="40"/>
+      <c r="AF29" s="41"/>
     </row>
     <row r="30" spans="1:32">
       <c r="A30" s="8"/>
@@ -4687,7 +3820,7 @@
       <c r="AC30" s="2"/>
       <c r="AD30" s="2"/>
       <c r="AE30" s="2"/>
-      <c r="AF30" s="40"/>
+      <c r="AF30" s="41"/>
     </row>
     <row r="31" spans="1:32">
       <c r="A31" s="8"/>
@@ -4721,7 +3854,7 @@
       <c r="AC31" s="2"/>
       <c r="AD31" s="2"/>
       <c r="AE31" s="2"/>
-      <c r="AF31" s="40"/>
+      <c r="AF31" s="41"/>
     </row>
     <row r="32" spans="1:32">
       <c r="A32" s="8"/>
@@ -4755,7 +3888,7 @@
       <c r="AC32" s="2"/>
       <c r="AD32" s="2"/>
       <c r="AE32" s="2"/>
-      <c r="AF32" s="40"/>
+      <c r="AF32" s="41"/>
     </row>
     <row r="33" spans="1:32">
       <c r="A33" s="8"/>
@@ -4789,7 +3922,7 @@
       <c r="AC33" s="2"/>
       <c r="AD33" s="2"/>
       <c r="AE33" s="2"/>
-      <c r="AF33" s="40"/>
+      <c r="AF33" s="41"/>
     </row>
     <row r="34" spans="1:32">
       <c r="A34" s="8"/>
@@ -4823,7 +3956,7 @@
       <c r="AC34" s="2"/>
       <c r="AD34" s="2"/>
       <c r="AE34" s="2"/>
-      <c r="AF34" s="40"/>
+      <c r="AF34" s="41"/>
     </row>
     <row r="35" spans="1:32">
       <c r="A35" s="8"/>
@@ -4857,7 +3990,7 @@
       <c r="AC35" s="2"/>
       <c r="AD35" s="2"/>
       <c r="AE35" s="2"/>
-      <c r="AF35" s="40"/>
+      <c r="AF35" s="41"/>
     </row>
     <row r="36" spans="1:32">
       <c r="A36" s="8"/>
@@ -4891,7 +4024,7 @@
       <c r="AC36" s="2"/>
       <c r="AD36" s="2"/>
       <c r="AE36" s="2"/>
-      <c r="AF36" s="40"/>
+      <c r="AF36" s="41"/>
     </row>
     <row r="37" spans="1:32">
       <c r="A37" s="8"/>
@@ -4925,7 +4058,7 @@
       <c r="AC37" s="2"/>
       <c r="AD37" s="2"/>
       <c r="AE37" s="2"/>
-      <c r="AF37" s="40"/>
+      <c r="AF37" s="41"/>
     </row>
     <row r="38" spans="1:32">
       <c r="A38" s="8"/>
@@ -4959,7 +4092,7 @@
       <c r="AC38" s="2"/>
       <c r="AD38" s="2"/>
       <c r="AE38" s="2"/>
-      <c r="AF38" s="40"/>
+      <c r="AF38" s="41"/>
     </row>
     <row r="39" spans="1:32">
       <c r="A39" s="8"/>
@@ -4993,7 +4126,7 @@
       <c r="AC39" s="2"/>
       <c r="AD39" s="2"/>
       <c r="AE39" s="2"/>
-      <c r="AF39" s="40"/>
+      <c r="AF39" s="41"/>
     </row>
     <row r="40" spans="1:32">
       <c r="A40" s="8"/>
@@ -5027,7 +4160,7 @@
       <c r="AC40" s="2"/>
       <c r="AD40" s="2"/>
       <c r="AE40" s="2"/>
-      <c r="AF40" s="40"/>
+      <c r="AF40" s="41"/>
     </row>
     <row r="41" spans="1:32">
       <c r="A41" s="8"/>
@@ -5061,7 +4194,7 @@
       <c r="AC41" s="2"/>
       <c r="AD41" s="2"/>
       <c r="AE41" s="2"/>
-      <c r="AF41" s="40"/>
+      <c r="AF41" s="41"/>
     </row>
     <row r="42" spans="1:32">
       <c r="A42" s="8"/>
@@ -5095,7 +4228,7 @@
       <c r="AC42" s="2"/>
       <c r="AD42" s="2"/>
       <c r="AE42" s="2"/>
-      <c r="AF42" s="40"/>
+      <c r="AF42" s="41"/>
     </row>
     <row r="43" spans="1:32">
       <c r="A43" s="8"/>
@@ -5129,7 +4262,7 @@
       <c r="AC43" s="2"/>
       <c r="AD43" s="2"/>
       <c r="AE43" s="2"/>
-      <c r="AF43" s="40"/>
+      <c r="AF43" s="41"/>
     </row>
     <row r="44" spans="1:32">
       <c r="A44" s="8"/>
@@ -5163,7 +4296,7 @@
       <c r="AC44" s="2"/>
       <c r="AD44" s="2"/>
       <c r="AE44" s="2"/>
-      <c r="AF44" s="40"/>
+      <c r="AF44" s="41"/>
     </row>
     <row r="45" spans="1:32">
       <c r="A45" s="8"/>
@@ -5197,7 +4330,7 @@
       <c r="AC45" s="2"/>
       <c r="AD45" s="2"/>
       <c r="AE45" s="2"/>
-      <c r="AF45" s="40"/>
+      <c r="AF45" s="41"/>
     </row>
     <row r="46" spans="1:32">
       <c r="A46" s="8"/>
@@ -5231,7 +4364,7 @@
       <c r="AC46" s="2"/>
       <c r="AD46" s="2"/>
       <c r="AE46" s="2"/>
-      <c r="AF46" s="40"/>
+      <c r="AF46" s="41"/>
     </row>
     <row r="47" spans="1:32">
       <c r="A47" s="8"/>
@@ -5265,7 +4398,7 @@
       <c r="AC47" s="2"/>
       <c r="AD47" s="2"/>
       <c r="AE47" s="2"/>
-      <c r="AF47" s="40"/>
+      <c r="AF47" s="41"/>
     </row>
     <row r="48" spans="1:32">
       <c r="A48" s="8"/>
@@ -5299,7 +4432,7 @@
       <c r="AC48" s="2"/>
       <c r="AD48" s="2"/>
       <c r="AE48" s="2"/>
-      <c r="AF48" s="40"/>
+      <c r="AF48" s="41"/>
     </row>
     <row r="49" spans="1:32">
       <c r="A49" s="8"/>
@@ -5333,7 +4466,7 @@
       <c r="AC49" s="2"/>
       <c r="AD49" s="2"/>
       <c r="AE49" s="2"/>
-      <c r="AF49" s="40"/>
+      <c r="AF49" s="41"/>
     </row>
     <row r="50" spans="1:32">
       <c r="A50" s="8"/>
@@ -5367,7 +4500,7 @@
       <c r="AC50" s="2"/>
       <c r="AD50" s="2"/>
       <c r="AE50" s="2"/>
-      <c r="AF50" s="40"/>
+      <c r="AF50" s="41"/>
     </row>
     <row r="51" spans="1:32">
       <c r="A51" s="8"/>
@@ -5401,7 +4534,7 @@
       <c r="AC51" s="2"/>
       <c r="AD51" s="2"/>
       <c r="AE51" s="2"/>
-      <c r="AF51" s="40"/>
+      <c r="AF51" s="41"/>
     </row>
     <row r="52" spans="1:32">
       <c r="A52" s="8"/>
@@ -5435,7 +4568,7 @@
       <c r="AC52" s="2"/>
       <c r="AD52" s="2"/>
       <c r="AE52" s="2"/>
-      <c r="AF52" s="40"/>
+      <c r="AF52" s="41"/>
     </row>
     <row r="53" spans="1:32">
       <c r="A53" s="8"/>
@@ -5469,7 +4602,7 @@
       <c r="AC53" s="2"/>
       <c r="AD53" s="2"/>
       <c r="AE53" s="2"/>
-      <c r="AF53" s="40"/>
+      <c r="AF53" s="41"/>
     </row>
     <row r="54" spans="1:32">
       <c r="A54" s="8"/>
@@ -5503,7 +4636,7 @@
       <c r="AC54" s="2"/>
       <c r="AD54" s="2"/>
       <c r="AE54" s="2"/>
-      <c r="AF54" s="40"/>
+      <c r="AF54" s="41"/>
     </row>
     <row r="55" spans="1:32">
       <c r="A55" s="8"/>
@@ -5537,7 +4670,7 @@
       <c r="AC55" s="2"/>
       <c r="AD55" s="2"/>
       <c r="AE55" s="2"/>
-      <c r="AF55" s="40"/>
+      <c r="AF55" s="41"/>
     </row>
     <row r="56" spans="1:32">
       <c r="A56" s="8"/>
@@ -5571,7 +4704,7 @@
       <c r="AC56" s="2"/>
       <c r="AD56" s="2"/>
       <c r="AE56" s="2"/>
-      <c r="AF56" s="40"/>
+      <c r="AF56" s="41"/>
     </row>
     <row r="57" spans="1:32">
       <c r="A57" s="8"/>
@@ -5605,7 +4738,7 @@
       <c r="AC57" s="2"/>
       <c r="AD57" s="2"/>
       <c r="AE57" s="2"/>
-      <c r="AF57" s="40"/>
+      <c r="AF57" s="41"/>
     </row>
     <row r="58" spans="1:32">
       <c r="A58" s="8"/>
@@ -5639,7 +4772,7 @@
       <c r="AC58" s="2"/>
       <c r="AD58" s="2"/>
       <c r="AE58" s="2"/>
-      <c r="AF58" s="40"/>
+      <c r="AF58" s="41"/>
     </row>
     <row r="59" spans="1:32">
       <c r="A59" s="8"/>
@@ -5673,7 +4806,7 @@
       <c r="AC59" s="2"/>
       <c r="AD59" s="2"/>
       <c r="AE59" s="2"/>
-      <c r="AF59" s="40"/>
+      <c r="AF59" s="41"/>
     </row>
     <row r="60" spans="1:32">
       <c r="A60" s="8"/>
@@ -5707,7 +4840,7 @@
       <c r="AC60" s="2"/>
       <c r="AD60" s="2"/>
       <c r="AE60" s="2"/>
-      <c r="AF60" s="40"/>
+      <c r="AF60" s="41"/>
     </row>
     <row r="61" spans="1:32">
       <c r="A61" s="8"/>
@@ -5741,7 +4874,7 @@
       <c r="AC61" s="2"/>
       <c r="AD61" s="2"/>
       <c r="AE61" s="2"/>
-      <c r="AF61" s="40"/>
+      <c r="AF61" s="41"/>
     </row>
     <row r="62" spans="1:32">
       <c r="A62" s="8"/>
@@ -5775,7 +4908,7 @@
       <c r="AC62" s="2"/>
       <c r="AD62" s="2"/>
       <c r="AE62" s="2"/>
-      <c r="AF62" s="40"/>
+      <c r="AF62" s="41"/>
     </row>
     <row r="63" spans="1:32">
       <c r="A63" s="8"/>
@@ -5809,7 +4942,7 @@
       <c r="AC63" s="2"/>
       <c r="AD63" s="2"/>
       <c r="AE63" s="2"/>
-      <c r="AF63" s="40"/>
+      <c r="AF63" s="41"/>
     </row>
     <row r="64" spans="1:32">
       <c r="A64" s="8"/>
@@ -5843,7 +4976,7 @@
       <c r="AC64" s="2"/>
       <c r="AD64" s="2"/>
       <c r="AE64" s="2"/>
-      <c r="AF64" s="40"/>
+      <c r="AF64" s="41"/>
     </row>
     <row r="65" spans="1:32">
       <c r="A65" s="8"/>
@@ -5877,7 +5010,7 @@
       <c r="AC65" s="2"/>
       <c r="AD65" s="2"/>
       <c r="AE65" s="2"/>
-      <c r="AF65" s="40"/>
+      <c r="AF65" s="41"/>
     </row>
     <row r="66" spans="1:32">
       <c r="A66" s="8"/>
@@ -5911,7 +5044,7 @@
       <c r="AC66" s="2"/>
       <c r="AD66" s="2"/>
       <c r="AE66" s="2"/>
-      <c r="AF66" s="40"/>
+      <c r="AF66" s="41"/>
     </row>
     <row r="67" spans="1:32">
       <c r="A67" s="8"/>
@@ -5945,7 +5078,7 @@
       <c r="AC67" s="2"/>
       <c r="AD67" s="2"/>
       <c r="AE67" s="2"/>
-      <c r="AF67" s="40"/>
+      <c r="AF67" s="41"/>
     </row>
     <row r="68" spans="1:32">
       <c r="A68" s="8"/>
@@ -5979,7 +5112,7 @@
       <c r="AC68" s="2"/>
       <c r="AD68" s="2"/>
       <c r="AE68" s="2"/>
-      <c r="AF68" s="40"/>
+      <c r="AF68" s="41"/>
     </row>
     <row r="69" spans="1:32">
       <c r="A69" s="8"/>
@@ -6013,7 +5146,7 @@
       <c r="AC69" s="2"/>
       <c r="AD69" s="2"/>
       <c r="AE69" s="2"/>
-      <c r="AF69" s="40"/>
+      <c r="AF69" s="41"/>
     </row>
     <row r="70" spans="1:32">
       <c r="A70" s="8"/>
@@ -6047,7 +5180,7 @@
       <c r="AC70" s="2"/>
       <c r="AD70" s="2"/>
       <c r="AE70" s="2"/>
-      <c r="AF70" s="40"/>
+      <c r="AF70" s="41"/>
     </row>
     <row r="71" spans="1:32">
       <c r="A71" s="8"/>
@@ -6081,7 +5214,7 @@
       <c r="AC71" s="2"/>
       <c r="AD71" s="2"/>
       <c r="AE71" s="2"/>
-      <c r="AF71" s="40"/>
+      <c r="AF71" s="41"/>
     </row>
     <row r="72" spans="1:32">
       <c r="A72" s="8"/>
@@ -6115,7 +5248,7 @@
       <c r="AC72" s="2"/>
       <c r="AD72" s="2"/>
       <c r="AE72" s="2"/>
-      <c r="AF72" s="40"/>
+      <c r="AF72" s="41"/>
     </row>
     <row r="73" spans="1:32">
       <c r="A73" s="8"/>
@@ -6149,7 +5282,7 @@
       <c r="AC73" s="2"/>
       <c r="AD73" s="2"/>
       <c r="AE73" s="2"/>
-      <c r="AF73" s="40"/>
+      <c r="AF73" s="41"/>
     </row>
     <row r="74" spans="1:32">
       <c r="A74" s="8"/>
@@ -6183,7 +5316,7 @@
       <c r="AC74" s="2"/>
       <c r="AD74" s="2"/>
       <c r="AE74" s="2"/>
-      <c r="AF74" s="40"/>
+      <c r="AF74" s="41"/>
     </row>
     <row r="75" spans="1:32">
       <c r="A75" s="8"/>
@@ -6217,7 +5350,7 @@
       <c r="AC75" s="2"/>
       <c r="AD75" s="2"/>
       <c r="AE75" s="2"/>
-      <c r="AF75" s="40"/>
+      <c r="AF75" s="41"/>
     </row>
     <row r="76" spans="1:32">
       <c r="A76" s="8"/>
@@ -6251,7 +5384,7 @@
       <c r="AC76" s="2"/>
       <c r="AD76" s="2"/>
       <c r="AE76" s="2"/>
-      <c r="AF76" s="40"/>
+      <c r="AF76" s="41"/>
     </row>
     <row r="77" spans="1:32">
       <c r="A77" s="8"/>
@@ -6285,7 +5418,7 @@
       <c r="AC77" s="2"/>
       <c r="AD77" s="2"/>
       <c r="AE77" s="2"/>
-      <c r="AF77" s="40"/>
+      <c r="AF77" s="41"/>
     </row>
     <row r="78" spans="1:32">
       <c r="A78" s="8"/>
@@ -6319,7 +5452,7 @@
       <c r="AC78" s="2"/>
       <c r="AD78" s="2"/>
       <c r="AE78" s="2"/>
-      <c r="AF78" s="40"/>
+      <c r="AF78" s="41"/>
     </row>
     <row r="79" spans="1:32">
       <c r="A79" s="8"/>
@@ -6353,7 +5486,7 @@
       <c r="AC79" s="2"/>
       <c r="AD79" s="2"/>
       <c r="AE79" s="2"/>
-      <c r="AF79" s="40"/>
+      <c r="AF79" s="41"/>
     </row>
     <row r="80" spans="1:32">
       <c r="A80" s="8"/>
@@ -6387,7 +5520,7 @@
       <c r="AC80" s="2"/>
       <c r="AD80" s="2"/>
       <c r="AE80" s="2"/>
-      <c r="AF80" s="40"/>
+      <c r="AF80" s="41"/>
     </row>
     <row r="81" spans="1:32">
       <c r="A81" s="8"/>
@@ -6421,7 +5554,7 @@
       <c r="AC81" s="2"/>
       <c r="AD81" s="2"/>
       <c r="AE81" s="2"/>
-      <c r="AF81" s="40"/>
+      <c r="AF81" s="41"/>
     </row>
     <row r="82" spans="1:32">
       <c r="A82" s="8"/>
@@ -6455,7 +5588,7 @@
       <c r="AC82" s="2"/>
       <c r="AD82" s="2"/>
       <c r="AE82" s="2"/>
-      <c r="AF82" s="40"/>
+      <c r="AF82" s="41"/>
     </row>
     <row r="83" spans="1:32">
       <c r="A83" s="8"/>
@@ -6489,7 +5622,7 @@
       <c r="AC83" s="2"/>
       <c r="AD83" s="2"/>
       <c r="AE83" s="2"/>
-      <c r="AF83" s="40"/>
+      <c r="AF83" s="41"/>
     </row>
     <row r="84" spans="1:32">
       <c r="A84" s="8"/>
@@ -6523,7 +5656,7 @@
       <c r="AC84" s="2"/>
       <c r="AD84" s="2"/>
       <c r="AE84" s="2"/>
-      <c r="AF84" s="40"/>
+      <c r="AF84" s="41"/>
     </row>
     <row r="85" spans="1:32">
       <c r="A85" s="8"/>
@@ -6557,7 +5690,7 @@
       <c r="AC85" s="2"/>
       <c r="AD85" s="2"/>
       <c r="AE85" s="2"/>
-      <c r="AF85" s="40"/>
+      <c r="AF85" s="41"/>
     </row>
     <row r="86" spans="1:32">
       <c r="A86" s="8"/>
@@ -6591,7 +5724,7 @@
       <c r="AC86" s="2"/>
       <c r="AD86" s="2"/>
       <c r="AE86" s="2"/>
-      <c r="AF86" s="40"/>
+      <c r="AF86" s="41"/>
     </row>
     <row r="87" spans="1:32">
       <c r="A87" s="8"/>
@@ -6625,7 +5758,7 @@
       <c r="AC87" s="2"/>
       <c r="AD87" s="2"/>
       <c r="AE87" s="2"/>
-      <c r="AF87" s="40"/>
+      <c r="AF87" s="41"/>
     </row>
     <row r="88" spans="1:32">
       <c r="A88" s="8"/>
@@ -6659,7 +5792,7 @@
       <c r="AC88" s="2"/>
       <c r="AD88" s="2"/>
       <c r="AE88" s="2"/>
-      <c r="AF88" s="40"/>
+      <c r="AF88" s="41"/>
     </row>
     <row r="89" spans="1:32">
       <c r="A89" s="8"/>
@@ -6693,7 +5826,7 @@
       <c r="AC89" s="2"/>
       <c r="AD89" s="2"/>
       <c r="AE89" s="2"/>
-      <c r="AF89" s="40"/>
+      <c r="AF89" s="41"/>
     </row>
     <row r="90" spans="1:32">
       <c r="A90" s="8"/>
@@ -6727,7 +5860,7 @@
       <c r="AC90" s="2"/>
       <c r="AD90" s="2"/>
       <c r="AE90" s="2"/>
-      <c r="AF90" s="40"/>
+      <c r="AF90" s="41"/>
     </row>
     <row r="91" spans="1:32">
       <c r="A91" s="8"/>
@@ -6761,7 +5894,7 @@
       <c r="AC91" s="2"/>
       <c r="AD91" s="2"/>
       <c r="AE91" s="2"/>
-      <c r="AF91" s="40"/>
+      <c r="AF91" s="41"/>
     </row>
     <row r="92" spans="1:32">
       <c r="A92" s="8"/>
@@ -6795,7 +5928,7 @@
       <c r="AC92" s="2"/>
       <c r="AD92" s="2"/>
       <c r="AE92" s="2"/>
-      <c r="AF92" s="40"/>
+      <c r="AF92" s="41"/>
     </row>
     <row r="93" spans="1:32">
       <c r="A93" s="8"/>
@@ -6829,7 +5962,7 @@
       <c r="AC93" s="2"/>
       <c r="AD93" s="2"/>
       <c r="AE93" s="2"/>
-      <c r="AF93" s="40"/>
+      <c r="AF93" s="41"/>
     </row>
     <row r="94" spans="1:32">
       <c r="A94" s="8"/>
@@ -6863,7 +5996,7 @@
       <c r="AC94" s="2"/>
       <c r="AD94" s="2"/>
       <c r="AE94" s="2"/>
-      <c r="AF94" s="40"/>
+      <c r="AF94" s="41"/>
     </row>
     <row r="95" spans="1:32">
       <c r="A95" s="8"/>
@@ -6897,7 +6030,7 @@
       <c r="AC95" s="2"/>
       <c r="AD95" s="2"/>
       <c r="AE95" s="2"/>
-      <c r="AF95" s="40"/>
+      <c r="AF95" s="41"/>
     </row>
     <row r="96" spans="1:32">
       <c r="A96" s="8"/>
@@ -6931,7 +6064,7 @@
       <c r="AC96" s="2"/>
       <c r="AD96" s="2"/>
       <c r="AE96" s="2"/>
-      <c r="AF96" s="40"/>
+      <c r="AF96" s="41"/>
     </row>
     <row r="97" spans="1:32">
       <c r="A97" s="8"/>
@@ -6965,7 +6098,7 @@
       <c r="AC97" s="2"/>
       <c r="AD97" s="2"/>
       <c r="AE97" s="2"/>
-      <c r="AF97" s="40"/>
+      <c r="AF97" s="41"/>
     </row>
     <row r="98" spans="1:32">
       <c r="A98" s="8"/>
@@ -6999,7 +6132,7 @@
       <c r="AC98" s="2"/>
       <c r="AD98" s="2"/>
       <c r="AE98" s="2"/>
-      <c r="AF98" s="40"/>
+      <c r="AF98" s="41"/>
     </row>
     <row r="99" spans="1:32">
       <c r="A99" s="8"/>
@@ -7033,7 +6166,7 @@
       <c r="AC99" s="2"/>
       <c r="AD99" s="2"/>
       <c r="AE99" s="2"/>
-      <c r="AF99" s="40"/>
+      <c r="AF99" s="41"/>
     </row>
     <row r="100" spans="1:32">
       <c r="A100" s="8"/>
@@ -7067,7 +6200,7 @@
       <c r="AC100" s="2"/>
       <c r="AD100" s="2"/>
       <c r="AE100" s="2"/>
-      <c r="AF100" s="40"/>
+      <c r="AF100" s="41"/>
     </row>
     <row r="101" spans="1:32">
       <c r="A101" s="8"/>
@@ -7101,7 +6234,7 @@
       <c r="AC101" s="2"/>
       <c r="AD101" s="2"/>
       <c r="AE101" s="2"/>
-      <c r="AF101" s="40"/>
+      <c r="AF101" s="41"/>
     </row>
     <row r="102" spans="1:32">
       <c r="A102" s="8"/>
@@ -7135,7 +6268,7 @@
       <c r="AC102" s="2"/>
       <c r="AD102" s="2"/>
       <c r="AE102" s="2"/>
-      <c r="AF102" s="40"/>
+      <c r="AF102" s="41"/>
     </row>
     <row r="103" spans="1:32">
       <c r="A103" s="8"/>
@@ -7169,7 +6302,7 @@
       <c r="AC103" s="2"/>
       <c r="AD103" s="2"/>
       <c r="AE103" s="2"/>
-      <c r="AF103" s="40"/>
+      <c r="AF103" s="41"/>
     </row>
     <row r="104" spans="1:32">
       <c r="A104" s="8"/>
@@ -7203,7 +6336,7 @@
       <c r="AC104" s="2"/>
       <c r="AD104" s="2"/>
       <c r="AE104" s="2"/>
-      <c r="AF104" s="40"/>
+      <c r="AF104" s="41"/>
     </row>
     <row r="105" spans="1:32">
       <c r="A105" s="8"/>
@@ -7237,7 +6370,7 @@
       <c r="AC105" s="2"/>
       <c r="AD105" s="2"/>
       <c r="AE105" s="2"/>
-      <c r="AF105" s="40"/>
+      <c r="AF105" s="41"/>
     </row>
     <row r="106" spans="1:32">
       <c r="A106" s="8"/>
@@ -7271,7 +6404,7 @@
       <c r="AC106" s="2"/>
       <c r="AD106" s="2"/>
       <c r="AE106" s="2"/>
-      <c r="AF106" s="40"/>
+      <c r="AF106" s="41"/>
     </row>
     <row r="107" spans="1:32">
       <c r="A107" s="8"/>
@@ -7305,7 +6438,7 @@
       <c r="AC107" s="2"/>
       <c r="AD107" s="2"/>
       <c r="AE107" s="2"/>
-      <c r="AF107" s="40"/>
+      <c r="AF107" s="41"/>
     </row>
     <row r="108" spans="1:32">
       <c r="A108" s="8"/>
@@ -7339,7 +6472,7 @@
       <c r="AC108" s="2"/>
       <c r="AD108" s="2"/>
       <c r="AE108" s="2"/>
-      <c r="AF108" s="40"/>
+      <c r="AF108" s="41"/>
     </row>
     <row r="109" spans="1:32">
       <c r="A109" s="8"/>
@@ -7373,7 +6506,7 @@
       <c r="AC109" s="2"/>
       <c r="AD109" s="2"/>
       <c r="AE109" s="2"/>
-      <c r="AF109" s="40"/>
+      <c r="AF109" s="41"/>
     </row>
     <row r="110" spans="1:32">
       <c r="A110" s="8"/>
@@ -7407,7 +6540,7 @@
       <c r="AC110" s="2"/>
       <c r="AD110" s="2"/>
       <c r="AE110" s="2"/>
-      <c r="AF110" s="40"/>
+      <c r="AF110" s="41"/>
     </row>
     <row r="111" spans="1:32">
       <c r="A111" s="8"/>
@@ -7441,7 +6574,7 @@
       <c r="AC111" s="2"/>
       <c r="AD111" s="2"/>
       <c r="AE111" s="2"/>
-      <c r="AF111" s="40"/>
+      <c r="AF111" s="41"/>
     </row>
     <row r="112" spans="1:32">
       <c r="A112" s="8"/>
@@ -7475,7 +6608,7 @@
       <c r="AC112" s="2"/>
       <c r="AD112" s="2"/>
       <c r="AE112" s="2"/>
-      <c r="AF112" s="40"/>
+      <c r="AF112" s="41"/>
     </row>
     <row r="113" spans="1:32">
       <c r="A113" s="8"/>
@@ -7509,7 +6642,7 @@
       <c r="AC113" s="2"/>
       <c r="AD113" s="2"/>
       <c r="AE113" s="2"/>
-      <c r="AF113" s="40"/>
+      <c r="AF113" s="41"/>
     </row>
     <row r="114" spans="1:32">
       <c r="A114" s="8"/>
@@ -7543,7 +6676,7 @@
       <c r="AC114" s="2"/>
       <c r="AD114" s="2"/>
       <c r="AE114" s="2"/>
-      <c r="AF114" s="40"/>
+      <c r="AF114" s="41"/>
     </row>
     <row r="115" spans="1:32">
       <c r="A115" s="8"/>
@@ -7577,7 +6710,7 @@
       <c r="AC115" s="2"/>
       <c r="AD115" s="2"/>
       <c r="AE115" s="2"/>
-      <c r="AF115" s="40"/>
+      <c r="AF115" s="41"/>
     </row>
     <row r="116" spans="1:32">
       <c r="A116" s="8"/>
@@ -7611,7 +6744,7 @@
       <c r="AC116" s="2"/>
       <c r="AD116" s="2"/>
       <c r="AE116" s="2"/>
-      <c r="AF116" s="40"/>
+      <c r="AF116" s="41"/>
     </row>
     <row r="117" spans="1:32">
       <c r="A117" s="8"/>
@@ -7645,7 +6778,7 @@
       <c r="AC117" s="2"/>
       <c r="AD117" s="2"/>
       <c r="AE117" s="2"/>
-      <c r="AF117" s="40"/>
+      <c r="AF117" s="41"/>
     </row>
     <row r="118" spans="1:32">
       <c r="A118" s="8"/>
@@ -7679,7 +6812,7 @@
       <c r="AC118" s="2"/>
       <c r="AD118" s="2"/>
       <c r="AE118" s="2"/>
-      <c r="AF118" s="40"/>
+      <c r="AF118" s="41"/>
     </row>
     <row r="119" spans="1:32">
       <c r="A119" s="8"/>
@@ -7713,7 +6846,7 @@
       <c r="AC119" s="2"/>
       <c r="AD119" s="2"/>
       <c r="AE119" s="2"/>
-      <c r="AF119" s="40"/>
+      <c r="AF119" s="41"/>
     </row>
     <row r="120" spans="1:32">
       <c r="A120" s="8"/>
@@ -7747,7 +6880,7 @@
       <c r="AC120" s="2"/>
       <c r="AD120" s="2"/>
       <c r="AE120" s="2"/>
-      <c r="AF120" s="40"/>
+      <c r="AF120" s="41"/>
     </row>
     <row r="121" spans="1:32">
       <c r="A121" s="8"/>
@@ -7781,7 +6914,7 @@
       <c r="AC121" s="2"/>
       <c r="AD121" s="2"/>
       <c r="AE121" s="2"/>
-      <c r="AF121" s="40"/>
+      <c r="AF121" s="41"/>
     </row>
     <row r="122" spans="1:32">
       <c r="A122" s="8"/>
@@ -7815,7 +6948,7 @@
       <c r="AC122" s="2"/>
       <c r="AD122" s="2"/>
       <c r="AE122" s="2"/>
-      <c r="AF122" s="40"/>
+      <c r="AF122" s="41"/>
     </row>
     <row r="123" spans="1:32">
       <c r="A123" s="8"/>
@@ -7849,7 +6982,7 @@
       <c r="AC123" s="2"/>
       <c r="AD123" s="2"/>
       <c r="AE123" s="2"/>
-      <c r="AF123" s="40"/>
+      <c r="AF123" s="41"/>
     </row>
     <row r="124" spans="1:32">
       <c r="A124" s="8"/>
@@ -7883,7 +7016,7 @@
       <c r="AC124" s="2"/>
       <c r="AD124" s="2"/>
       <c r="AE124" s="2"/>
-      <c r="AF124" s="40"/>
+      <c r="AF124" s="41"/>
     </row>
     <row r="125" spans="1:32">
       <c r="A125" s="8"/>
@@ -7917,7 +7050,7 @@
       <c r="AC125" s="2"/>
       <c r="AD125" s="2"/>
       <c r="AE125" s="2"/>
-      <c r="AF125" s="40"/>
+      <c r="AF125" s="41"/>
     </row>
     <row r="126" spans="1:32">
       <c r="A126" s="8"/>
@@ -7951,7 +7084,7 @@
       <c r="AC126" s="2"/>
       <c r="AD126" s="2"/>
       <c r="AE126" s="2"/>
-      <c r="AF126" s="40"/>
+      <c r="AF126" s="41"/>
     </row>
     <row r="127" spans="1:32">
       <c r="A127" s="8"/>
@@ -7985,7 +7118,7 @@
       <c r="AC127" s="2"/>
       <c r="AD127" s="2"/>
       <c r="AE127" s="2"/>
-      <c r="AF127" s="40"/>
+      <c r="AF127" s="41"/>
     </row>
     <row r="128" spans="1:32">
       <c r="A128" s="8"/>
@@ -8019,7 +7152,7 @@
       <c r="AC128" s="2"/>
       <c r="AD128" s="2"/>
       <c r="AE128" s="2"/>
-      <c r="AF128" s="40"/>
+      <c r="AF128" s="41"/>
     </row>
     <row r="129" spans="1:32">
       <c r="A129" s="8"/>
@@ -8053,7 +7186,7 @@
       <c r="AC129" s="2"/>
       <c r="AD129" s="2"/>
       <c r="AE129" s="2"/>
-      <c r="AF129" s="40"/>
+      <c r="AF129" s="41"/>
     </row>
     <row r="130" spans="1:32">
       <c r="A130" s="8"/>
@@ -8087,7 +7220,7 @@
       <c r="AC130" s="2"/>
       <c r="AD130" s="2"/>
       <c r="AE130" s="2"/>
-      <c r="AF130" s="40"/>
+      <c r="AF130" s="41"/>
     </row>
     <row r="131" spans="1:23">
       <c r="A131" s="1"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/同仁堂.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/同仁堂.xlsx
@@ -2066,7 +2066,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AG15" sqref="AG15:AG16"/>
+      <selection pane="bottomRight" activeCell="AC13" sqref="AC13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/同仁堂.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/同仁堂.xlsx
@@ -236,8 +236,8 @@
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -286,14 +286,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -302,7 +294,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -317,25 +309,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -349,58 +343,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -418,6 +360,64 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -560,7 +560,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -572,61 +704,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -644,85 +722,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -799,37 +799,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -849,26 +829,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -887,153 +852,188 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="41" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="40" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2062,11 +2062,11 @@
   <dimension ref="A1:AG501"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AB2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AC13" sqref="AC13"/>
+      <selection pane="bottomRight" activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -2481,7 +2481,7 @@
         <v>0.0210495108212274</v>
       </c>
       <c r="L7" s="16">
-        <f t="shared" ref="L7:L15" si="0">I7/(ROW()-5)</f>
+        <f t="shared" ref="L7:L16" si="0">I7/(ROW()-5)</f>
         <v>0.5</v>
       </c>
       <c r="M7" s="22">
@@ -2505,7 +2505,7 @@
         <v>42</v>
       </c>
       <c r="S7" s="23" t="str">
-        <f t="shared" ref="S6:S15" si="3">IF(I7/(ROW()-5)&gt;0.5,"是","否")</f>
+        <f t="shared" ref="S6:S16" si="3">IF(I7/(ROW()-5)&gt;0.5,"是","否")</f>
         <v>否</v>
       </c>
       <c r="T7" s="23" t="str">
@@ -2563,7 +2563,7 @@
         <v>2</v>
       </c>
       <c r="J8" s="17">
-        <f t="shared" ref="J7:J15" si="4">(B8-B7)/B7</f>
+        <f t="shared" ref="J7:J16" si="4">(B8-B7)/B7</f>
         <v>0.0743321718931476</v>
       </c>
       <c r="K8" s="15">
@@ -3283,7 +3283,7 @@
         <v>6</v>
       </c>
       <c r="J16" s="17">
-        <f>(B16-B15)/B15</f>
+        <f t="shared" si="4"/>
         <v>0.0336927223719677</v>
       </c>
       <c r="K16" s="15">
@@ -3291,7 +3291,7 @@
         <v>0.136970056329677</v>
       </c>
       <c r="L16" s="16">
-        <f>I16/(ROW()-5)</f>
+        <f t="shared" si="0"/>
         <v>0.545454545454545</v>
       </c>
       <c r="M16" s="9">
@@ -3315,7 +3315,7 @@
         <v>43</v>
       </c>
       <c r="S16" s="26" t="str">
-        <f>IF(I16/(ROW()-5)&gt;0.5,"是","否")</f>
+        <f t="shared" si="3"/>
         <v>是</v>
       </c>
       <c r="T16" s="26" t="str">

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/同仁堂.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/同仁堂.xlsx
@@ -234,12 +234,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -286,18 +286,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -309,33 +302,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -346,6 +321,13 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -365,23 +347,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -395,10 +370,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -410,7 +402,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -560,7 +560,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -572,13 +572,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -590,7 +638,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -602,67 +686,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -674,25 +710,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -704,25 +722,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -790,15 +790,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -855,15 +846,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -887,153 +869,171 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="41" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="44" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1056,10 +1056,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1140,13 +1140,13 @@
     <xf numFmtId="49" fontId="4" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1234,6 +1234,7 @@
     <sheetNames>
       <sheetName val="交易计划及执行表"/>
       <sheetName val="交易水平监控表"/>
+      <sheetName val="资金曲线"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -1312,8 +1313,8 @@
           <cell r="Y4">
             <v>-1.25900000000001</v>
           </cell>
-          <cell r="Z4">
-            <v>-0.208598726114649</v>
+          <cell r="Z4" t="e">
+            <v>#DIV/0!</v>
           </cell>
           <cell r="AA4" t="str">
             <v>1.入场时，忽略了距离最高点的距离;
@@ -1365,8 +1366,8 @@
           </cell>
         </row>
         <row r="5">
-          <cell r="Z5">
-            <v>0.238853503184713</v>
+          <cell r="Z5" t="e">
+            <v>#DIV/0!</v>
           </cell>
         </row>
         <row r="6">
@@ -1578,11 +1579,10 @@
           <cell r="X9">
             <v>-52.0760799999998</v>
           </cell>
-          <cell r="Y9">
-            <v>-52.0760799999998</v>
-          </cell>
-          <cell r="Z9">
-            <v>-0.0622009569377991</v>
+        </row>
+        <row r="9">
+          <cell r="Z9" t="e">
+            <v>#DIV/0!</v>
           </cell>
           <cell r="AA9" t="str">
             <v>1.入场时，忽略了价格的收缩幅度。价格的收缩幅度不够，导致入场过早。</v>
@@ -1660,11 +1660,10 @@
           <cell r="X10">
             <v>-210.84262</v>
           </cell>
-          <cell r="Y10">
-            <v>-210.84262</v>
-          </cell>
+        </row>
+        <row r="10">
           <cell r="Z10">
-            <v>-0.196428571428572</v>
+            <v>-5.46810273405137</v>
           </cell>
           <cell r="AA10" t="str">
             <v>1.入场中枢点错误</v>
@@ -1711,12 +1710,48 @@
             <v>26.31</v>
           </cell>
           <cell r="N11">
-            <v>216</v>
+            <v>0</v>
+          </cell>
+          <cell r="O11">
+            <v>44537</v>
+          </cell>
+          <cell r="P11">
+            <v>26.7</v>
+          </cell>
+          <cell r="Q11">
+            <v>100</v>
+          </cell>
+          <cell r="R11">
+            <v>5</v>
+          </cell>
+          <cell r="S11">
+            <v>2.67</v>
+          </cell>
+          <cell r="T11">
+            <v>2662.33</v>
+          </cell>
+          <cell r="U11">
+            <v>28.18</v>
+          </cell>
+          <cell r="V11">
+            <v>25.99</v>
+          </cell>
+          <cell r="W11">
+            <v>0.324200913242009</v>
+          </cell>
+          <cell r="X11">
+            <v>-179.67</v>
           </cell>
         </row>
         <row r="11">
+          <cell r="Z11">
+            <v>-5.11798958014098</v>
+          </cell>
           <cell r="AA11" t="str">
-            <v>1.跳空时，不要立即入场，应待价格下跌到原预估价格一半时，再待其上涨到预估价格时入场</v>
+            <v>1.宁可错过，不要根据临时计划入场。
+2.跳空时，不要立即入场，应待价格下跌到原预估价格一半时，再待其上涨到预估价格时入场。
+3.作出出场决定是使用止损线倒逼出场。
+</v>
           </cell>
         </row>
         <row r="12">
@@ -1726,9 +1761,6 @@
           <cell r="B12" t="str">
             <v>000021</v>
           </cell>
-          <cell r="C12" t="str">
-            <v>605028(世贸能源)</v>
-          </cell>
         </row>
         <row r="13">
           <cell r="A13" t="str">
@@ -1796,6 +1828,7 @@
         </row>
       </sheetData>
       <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2062,11 +2095,11 @@
   <dimension ref="A1:AG501"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L10" sqref="L10"/>
+      <selection pane="bottomRight" activeCell="AG16" sqref="AG16:AG17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -3344,30 +3377,77 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="17" spans="1:32">
+    <row r="17" ht="18" spans="1:33">
       <c r="A17" s="8">
         <v>44538</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="9"/>
-      <c r="S17" s="9"/>
-      <c r="T17" s="9"/>
-      <c r="U17" s="9"/>
+      <c r="B17" s="7">
+        <v>38.37</v>
+      </c>
+      <c r="C17" s="7">
+        <v>38.35</v>
+      </c>
+      <c r="D17" s="7">
+        <v>38.89</v>
+      </c>
+      <c r="E17" s="7">
+        <v>37.68</v>
+      </c>
+      <c r="F17" s="7">
+        <v>35.82</v>
+      </c>
+      <c r="G17" s="7">
+        <v>34.57</v>
+      </c>
+      <c r="H17" s="7">
+        <v>42.54</v>
+      </c>
+      <c r="I17" s="9">
+        <v>7</v>
+      </c>
+      <c r="J17" s="17">
+        <f>(B17-B16)/B16</f>
+        <v>0.000521512385919062</v>
+      </c>
+      <c r="K17" s="15">
+        <f>(B17-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10015,5,FALSE))/VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10015,5,FALSE)</f>
+        <v>0.137563000296472</v>
+      </c>
+      <c r="L17" s="16">
+        <f>I17/(ROW()-5)</f>
+        <v>0.583333333333333</v>
+      </c>
+      <c r="M17" s="9">
+        <f>IF(B17&gt;(D17-(D17-E17)/2),1,-1)</f>
+        <v>1</v>
+      </c>
+      <c r="N17" s="9" t="str">
+        <f>IF(B17&lt;F17,"是","否")</f>
+        <v>否</v>
+      </c>
+      <c r="O17" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="P17" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q17" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="R17" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="S17" s="26" t="str">
+        <f>IF(I17/(ROW()-5)&gt;0.5,"是","否")</f>
+        <v>是</v>
+      </c>
+      <c r="T17" s="26" t="str">
+        <f>IF(SUM($M$6:$M17)&gt;0,"是","否")</f>
+        <v>是</v>
+      </c>
+      <c r="U17" s="33" t="s">
+        <v>43</v>
+      </c>
       <c r="V17" s="9"/>
       <c r="W17" s="7"/>
       <c r="X17" s="2"/>
@@ -3378,7 +3458,14 @@
       <c r="AC17" s="2"/>
       <c r="AD17" s="2"/>
       <c r="AE17" s="2"/>
-      <c r="AF17" s="41"/>
+      <c r="AF17" s="41">
+        <f>IF(AND(G17-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10014,5,FALSE)&gt;0,G17&gt;G16),G17,AF16)</f>
+        <v>34.57</v>
+      </c>
+      <c r="AG17" s="2">
+        <f>AF17-VLOOKUP([1]交易计划及执行表!$A$6,[1]交易计划及执行表!$A$4:$BL10016,5,FALSE)</f>
+        <v>0.840000000000003</v>
+      </c>
     </row>
     <row r="18" spans="1:32">
       <c r="A18" s="8"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/同仁堂.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/同仁堂.xlsx
@@ -234,12 +234,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -280,6 +280,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -287,25 +294,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -325,7 +317,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -340,23 +332,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -370,11 +355,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -387,22 +408,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -411,13 +418,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -560,13 +560,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -584,7 +584,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -596,13 +626,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -614,19 +692,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -638,91 +722,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="soli